--- a/Tarea1/doc/ExcelEmpleadoPunto1/Tarea1Estadistica320232.xlsx
+++ b/Tarea1/doc/ExcelEmpleadoPunto1/Tarea1Estadistica320232.xlsx
@@ -8,13 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Miguel Rios\Desktop\Tarea1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6846A77F-7843-4B25-9CB0-581B16DD4E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2563D76C-7821-4683-96F9-5A3659FE87A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respuestas" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Respuestas!$H$41:$H$61</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Respuestas!$G$41:$G$61</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Respuestas!$I$41:$I$61</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Respuestas!$I$41:$I$61</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -668,7 +674,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -752,6 +758,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -763,50 +812,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -825,20 +830,1840 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Excel Boxplot X1</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Excel Boxplot X1</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{F0D0133E-CFBB-4ED3-B200-B57D417AF879}">
+          <cx:dataLabels>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Excel Boxplot X2</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Excel Boxplot X2</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{F6BE118C-2597-4588-B47C-822FD350ECBC}">
+          <cx:dataLabels>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Excel Botplox X3</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Excel Botplox X3</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{B777691A-FD8B-4F16-B0A0-8DD177B4502D}">
+          <cx:dataLabels>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
+  <a:schemeClr val="accent4"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>243407</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
+      <xdr:colOff>589772</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>143640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>667310</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>38216</xdr:rowOff>
+      <xdr:colOff>673362</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>34638</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -867,8 +2692,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5935995" y="8673352"/>
-          <a:ext cx="3259552" cy="2873305"/>
+          <a:off x="6962863" y="7296049"/>
+          <a:ext cx="2941090" cy="2575316"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -879,16 +2704,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1897870</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>46129</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>373871</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>150038</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>207818</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>65843</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>196549</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -917,8 +2742,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11128461" y="7596856"/>
-          <a:ext cx="3141721" cy="5353714"/>
+          <a:off x="7543598" y="9986765"/>
+          <a:ext cx="1883542" cy="3209689"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -929,16 +2754,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>298481</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>7907</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>194572</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>129135</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>34636</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>107962</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>87793</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>103911</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -967,8 +2792,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15573117" y="7749134"/>
-          <a:ext cx="4290837" cy="5243555"/>
+          <a:off x="14863072" y="8251362"/>
+          <a:ext cx="2941221" cy="3594276"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1119,6 +2944,240 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>838201</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>962026</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Gráfico 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1FAF5FD-EACE-6C43-A7B2-A8E13E309ED2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10086976" y="7215187"/>
+              <a:ext cx="3352800" cy="2738438"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100"/>
+                <a:t>Este gráfico no está disponible en su versión de Excel.
+Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>557212</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1362075</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Gráfico 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B312C11-4CFC-701D-9F71-86AB0C0B0748}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9805987" y="10387012"/>
+              <a:ext cx="4033838" cy="2595563"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100"/>
+                <a:t>Este gráfico no está disponible en su versión de Excel.
+Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>471487</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="Gráfico 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{752C78CE-819D-280E-0FDA-DBCC05F71B78}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="18197512" y="8386762"/>
+              <a:ext cx="3357563" cy="2671763"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100"/>
+                <a:t>Este gráfico no está disponible en su versión de Excel.
+Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1389,8 +3448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="B32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U65" sqref="U65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1415,16 +3474,16 @@
   <sheetData>
     <row r="1" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="F2" s="41" t="s">
+      <c r="A2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="F2" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="43"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -1457,41 +3516,41 @@
       <c r="AG3" s="6"/>
     </row>
     <row r="4" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
       <c r="F4" s="5"/>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="42"/>
-      <c r="J4" s="43"/>
-      <c r="M4" s="41" t="s">
+      <c r="I4" s="57"/>
+      <c r="J4" s="58"/>
+      <c r="M4" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="42"/>
-      <c r="O4" s="43"/>
-      <c r="R4" s="41" t="s">
+      <c r="N4" s="57"/>
+      <c r="O4" s="58"/>
+      <c r="R4" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="S4" s="42"/>
-      <c r="T4" s="43"/>
-      <c r="V4" s="41" t="s">
+      <c r="S4" s="57"/>
+      <c r="T4" s="58"/>
+      <c r="V4" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="W4" s="42"/>
-      <c r="X4" s="43"/>
-      <c r="Z4" s="41" t="s">
+      <c r="W4" s="57"/>
+      <c r="X4" s="58"/>
+      <c r="Z4" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="43"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="57"/>
+      <c r="AC4" s="57"/>
+      <c r="AD4" s="57"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="58"/>
       <c r="AG4" s="6"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
@@ -2946,10 +5005,10 @@
     </row>
     <row r="30" spans="2:33" x14ac:dyDescent="0.25">
       <c r="F30" s="5"/>
-      <c r="AB30" s="45" t="s">
+      <c r="AB30" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="AC30" s="45"/>
+      <c r="AC30" s="51"/>
       <c r="AD30" s="10">
         <f>SUM(AD8:AD28)</f>
         <v>46.666666666666671</v>
@@ -2966,19 +5025,19 @@
     </row>
     <row r="31" spans="2:33" x14ac:dyDescent="0.25">
       <c r="F31" s="5"/>
-      <c r="AB31" s="44" t="s">
+      <c r="AB31" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="AC31" s="44"/>
-      <c r="AD31" s="45">
+      <c r="AC31" s="59"/>
+      <c r="AD31" s="51">
         <f>AD30/AA6</f>
         <v>2.2222222222222223</v>
       </c>
-      <c r="AE31" s="45">
+      <c r="AE31" s="51">
         <f>AE30/AA6</f>
         <v>6.5306122448979576</v>
       </c>
-      <c r="AF31" s="45">
+      <c r="AF31" s="51">
         <f>AF30/AA6</f>
         <v>314.80725623582765</v>
       </c>
@@ -2986,28 +5045,28 @@
     </row>
     <row r="32" spans="2:33" x14ac:dyDescent="0.25">
       <c r="F32" s="5"/>
-      <c r="AB32" s="44"/>
-      <c r="AC32" s="44"/>
-      <c r="AD32" s="45"/>
-      <c r="AE32" s="45"/>
-      <c r="AF32" s="45"/>
+      <c r="AB32" s="59"/>
+      <c r="AC32" s="59"/>
+      <c r="AD32" s="51"/>
+      <c r="AE32" s="51"/>
+      <c r="AF32" s="51"/>
       <c r="AG32" s="6"/>
     </row>
     <row r="33" spans="6:43" x14ac:dyDescent="0.25">
       <c r="F33" s="5"/>
-      <c r="AB33" s="44" t="s">
+      <c r="AB33" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="AC33" s="44"/>
-      <c r="AD33" s="45">
+      <c r="AC33" s="59"/>
+      <c r="AD33" s="51">
         <f>SQRT(AD31)</f>
         <v>1.4907119849998598</v>
       </c>
-      <c r="AE33" s="45">
+      <c r="AE33" s="51">
         <f>SQRT(AE31)</f>
         <v>2.5555062599997593</v>
       </c>
-      <c r="AF33" s="45">
+      <c r="AF33" s="51">
         <f>SQRT(AF31)</f>
         <v>17.742808578007814</v>
       </c>
@@ -3015,11 +5074,11 @@
     </row>
     <row r="34" spans="6:43" x14ac:dyDescent="0.25">
       <c r="F34" s="5"/>
-      <c r="AB34" s="44"/>
-      <c r="AC34" s="44"/>
-      <c r="AD34" s="45"/>
-      <c r="AE34" s="45"/>
-      <c r="AF34" s="45"/>
+      <c r="AB34" s="59"/>
+      <c r="AC34" s="59"/>
+      <c r="AD34" s="51"/>
+      <c r="AE34" s="51"/>
+      <c r="AF34" s="51"/>
       <c r="AG34" s="6"/>
     </row>
     <row r="35" spans="6:43" x14ac:dyDescent="0.25">
@@ -3058,10 +5117,10 @@
     </row>
     <row r="37" spans="6:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="6:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F38" s="41" t="s">
+      <c r="F38" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="G38" s="43"/>
+      <c r="G38" s="58"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -3080,12 +5139,12 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="4"/>
-      <c r="AA38" s="41" t="s">
+      <c r="AA38" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="AB38" s="42"/>
-      <c r="AC38" s="42"/>
-      <c r="AD38" s="43"/>
+      <c r="AB38" s="57"/>
+      <c r="AC38" s="57"/>
+      <c r="AD38" s="58"/>
       <c r="AE38" s="3"/>
       <c r="AF38" s="3"/>
       <c r="AG38" s="3"/>
@@ -3964,10 +6023,10 @@
       </c>
       <c r="Y67" s="6"/>
       <c r="AA67" s="5"/>
-      <c r="AG67" s="51" t="s">
+      <c r="AG67" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="AH67" s="47">
+      <c r="AH67" s="48">
         <f>_xlfn.COVARIANCE.P(AB41:AB61,AC41:AC61)</f>
         <v>3.5714285714285716</v>
       </c>
@@ -3991,8 +6050,8 @@
       </c>
       <c r="Y68" s="6"/>
       <c r="AA68" s="5"/>
-      <c r="AG68" s="51"/>
-      <c r="AH68" s="48"/>
+      <c r="AG68" s="45"/>
+      <c r="AH68" s="49"/>
       <c r="AQ68" s="6"/>
     </row>
     <row r="69" spans="6:45" x14ac:dyDescent="0.25">
@@ -4067,15 +6126,15 @@
     </row>
     <row r="71" spans="6:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="72" spans="6:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F72" s="41" t="s">
+      <c r="F72" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="G72" s="42"/>
-      <c r="H72" s="42"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="42"/>
-      <c r="K72" s="42"/>
-      <c r="L72" s="43"/>
+      <c r="G72" s="57"/>
+      <c r="H72" s="57"/>
+      <c r="I72" s="57"/>
+      <c r="J72" s="57"/>
+      <c r="K72" s="57"/>
+      <c r="L72" s="58"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
@@ -4089,14 +6148,14 @@
       <c r="W72" s="3"/>
       <c r="X72" s="3"/>
       <c r="Y72" s="4"/>
-      <c r="AA72" s="56" t="s">
+      <c r="AA72" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="AB72" s="57"/>
-      <c r="AC72" s="57"/>
-      <c r="AD72" s="57"/>
-      <c r="AE72" s="57"/>
-      <c r="AF72" s="57"/>
+      <c r="AB72" s="53"/>
+      <c r="AC72" s="53"/>
+      <c r="AD72" s="53"/>
+      <c r="AE72" s="53"/>
+      <c r="AF72" s="53"/>
       <c r="AG72" s="3"/>
       <c r="AH72" s="3"/>
       <c r="AI72" s="3"/>
@@ -4114,13 +6173,12 @@
     <row r="73" spans="6:45" x14ac:dyDescent="0.25">
       <c r="F73" s="5"/>
       <c r="Y73" s="6"/>
-      <c r="AA73" s="58" t="s">
+      <c r="AA73" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="AB73" s="59" t="s">
+      <c r="AB73" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="AC73" s="53"/>
       <c r="AD73" s="1" t="s">
         <v>2</v>
       </c>
@@ -4130,30 +6188,24 @@
       <c r="AF73" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AG73" s="54" t="s">
+      <c r="AG73" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="AH73" s="54" t="s">
+      <c r="AH73" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="AI73" s="54" t="s">
+      <c r="AI73" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="AJ73" s="53"/>
-      <c r="AK73" s="54" t="s">
+      <c r="AK73" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="AL73" s="54" t="s">
+      <c r="AL73" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="AM73" s="54" t="s">
+      <c r="AM73" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="AN73" s="53"/>
-      <c r="AO73" s="53"/>
-      <c r="AP73" s="53"/>
-      <c r="AQ73" s="53"/>
-      <c r="AR73" s="53"/>
       <c r="AS73" s="6"/>
     </row>
     <row r="74" spans="6:45" x14ac:dyDescent="0.25">
@@ -4185,13 +6237,13 @@
       <c r="Q74" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="S74" s="51" t="s">
+      <c r="S74" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="T74" s="52" t="s">
+      <c r="T74" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="U74" s="52" t="s">
+      <c r="U74" s="47" t="s">
         <v>44</v>
       </c>
       <c r="Y74" s="6"/>
@@ -4200,9 +6252,8 @@
       </c>
       <c r="AB74" s="10">
         <f ca="1">RAND()*2</f>
-        <v>1.9353350172904138</v>
-      </c>
-      <c r="AC74" s="53"/>
+        <v>0.69392712363603026</v>
+      </c>
       <c r="AD74" s="2">
         <v>4</v>
       </c>
@@ -4212,33 +6263,26 @@
       <c r="AF74" s="2">
         <v>28</v>
       </c>
-      <c r="AG74" s="53">
+      <c r="AG74">
         <f>AVERAGE(AD74:AD80)</f>
         <v>2.5714285714285716</v>
       </c>
-      <c r="AH74" s="53">
+      <c r="AH74">
         <f>AVERAGE(AE74:AE80)</f>
         <v>4.4285714285714288</v>
       </c>
-      <c r="AI74" s="53">
+      <c r="AI74">
         <f>AVERAGE(AF74:AF80)</f>
         <v>31</v>
       </c>
-      <c r="AJ74" s="53"/>
-      <c r="AK74" s="53">
+      <c r="AK74">
         <f>((AD74-$AG$74)^2+(AE74-$AH$74)^2+(AF74-$AI$74)^2)^0.5</f>
         <v>3.3502969713024493</v>
       </c>
-      <c r="AL74" s="53">
+      <c r="AL74">
         <f>((AD74-$AG$74)^2+(AE74-$AH$74)^2+(AF74-$AI$74)^2)^0.5</f>
         <v>3.3502969713024493</v>
       </c>
-      <c r="AM74" s="53"/>
-      <c r="AN74" s="53"/>
-      <c r="AO74" s="53"/>
-      <c r="AP74" s="53"/>
-      <c r="AQ74" s="53"/>
-      <c r="AR74" s="53"/>
       <c r="AS74" s="6"/>
     </row>
     <row r="75" spans="6:45" x14ac:dyDescent="0.25">
@@ -4269,18 +6313,17 @@
         <f>L75^2</f>
         <v>0.18367346938775531</v>
       </c>
-      <c r="S75" s="51"/>
-      <c r="T75" s="52"/>
-      <c r="U75" s="52"/>
+      <c r="S75" s="45"/>
+      <c r="T75" s="47"/>
+      <c r="U75" s="47"/>
       <c r="Y75" s="6"/>
       <c r="AA75" s="39">
         <v>2</v>
       </c>
       <c r="AB75" s="10">
         <f t="shared" ref="AB75:AB94" ca="1" si="16">RAND()*2</f>
-        <v>1.7958452891787091</v>
-      </c>
-      <c r="AC75" s="53"/>
+        <v>0.41393244755615988</v>
+      </c>
       <c r="AD75" s="2">
         <v>2</v>
       </c>
@@ -4290,21 +6333,10 @@
       <c r="AF75" s="2">
         <v>24</v>
       </c>
-      <c r="AG75" s="53"/>
-      <c r="AH75" s="53"/>
-      <c r="AI75" s="53"/>
-      <c r="AJ75" s="53"/>
-      <c r="AK75" s="53">
+      <c r="AK75">
         <f t="shared" ref="AK75:AK94" si="17">((AD75-$AG$74)^2+(AE75-$AH$74)^2+(AF75-$AI$74)^2)^0.5</f>
         <v>7.1671017112062465</v>
       </c>
-      <c r="AL75" s="53"/>
-      <c r="AM75" s="53"/>
-      <c r="AN75" s="53"/>
-      <c r="AO75" s="53"/>
-      <c r="AP75" s="53"/>
-      <c r="AQ75" s="53"/>
-      <c r="AR75" s="53"/>
       <c r="AS75" s="6"/>
     </row>
     <row r="76" spans="6:45" x14ac:dyDescent="0.25">
@@ -4349,9 +6381,8 @@
       </c>
       <c r="AB76" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>1.2735915948547161</v>
-      </c>
-      <c r="AC76" s="53"/>
+        <v>0.60041304825382458</v>
+      </c>
       <c r="AD76" s="2">
         <v>2</v>
       </c>
@@ -4361,21 +6392,10 @@
       <c r="AF76" s="2">
         <v>30</v>
       </c>
-      <c r="AG76" s="53"/>
-      <c r="AH76" s="53"/>
-      <c r="AI76" s="53"/>
-      <c r="AJ76" s="53"/>
-      <c r="AK76" s="53">
+      <c r="AK76">
         <f t="shared" si="17"/>
         <v>1.2289036095775183</v>
       </c>
-      <c r="AL76" s="53"/>
-      <c r="AM76" s="53"/>
-      <c r="AN76" s="53"/>
-      <c r="AO76" s="53"/>
-      <c r="AP76" s="53"/>
-      <c r="AQ76" s="53"/>
-      <c r="AR76" s="53"/>
       <c r="AS76" s="6"/>
     </row>
     <row r="77" spans="6:45" x14ac:dyDescent="0.25">
@@ -4412,9 +6432,8 @@
       </c>
       <c r="AB77" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>0.61429853238993948</v>
-      </c>
-      <c r="AC77" s="53"/>
+        <v>1.4063097967654088</v>
+      </c>
       <c r="AD77" s="2">
         <v>3</v>
       </c>
@@ -4424,21 +6443,10 @@
       <c r="AF77" s="2">
         <v>32</v>
       </c>
-      <c r="AG77" s="53"/>
-      <c r="AH77" s="53"/>
-      <c r="AI77" s="53"/>
-      <c r="AJ77" s="53"/>
-      <c r="AK77" s="53">
+      <c r="AK77">
         <f t="shared" si="17"/>
         <v>1.2289036095775179</v>
       </c>
-      <c r="AL77" s="53"/>
-      <c r="AM77" s="53"/>
-      <c r="AN77" s="53"/>
-      <c r="AO77" s="53"/>
-      <c r="AP77" s="53"/>
-      <c r="AQ77" s="53"/>
-      <c r="AR77" s="53"/>
       <c r="AS77" s="6"/>
     </row>
     <row r="78" spans="6:45" x14ac:dyDescent="0.25">
@@ -4469,22 +6477,21 @@
         <f t="shared" si="22"/>
         <v>0.32653061224489766</v>
       </c>
-      <c r="S78" s="51" t="s">
+      <c r="S78" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="T78" s="52" t="s">
+      <c r="T78" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="U78" s="52"/>
+      <c r="U78" s="47"/>
       <c r="Y78" s="6"/>
       <c r="AA78" s="39">
         <v>5</v>
       </c>
       <c r="AB78" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>0.22916920943849517</v>
-      </c>
-      <c r="AC78" s="53"/>
+        <v>0.47353140767826352</v>
+      </c>
       <c r="AD78" s="2">
         <v>1</v>
       </c>
@@ -4494,21 +6501,10 @@
       <c r="AF78" s="2">
         <v>18</v>
       </c>
-      <c r="AG78" s="53"/>
-      <c r="AH78" s="53"/>
-      <c r="AI78" s="53"/>
-      <c r="AJ78" s="53"/>
-      <c r="AK78" s="53">
+      <c r="AK78">
         <f t="shared" si="17"/>
         <v>13.172327208266299</v>
       </c>
-      <c r="AL78" s="53"/>
-      <c r="AM78" s="53"/>
-      <c r="AN78" s="53"/>
-      <c r="AO78" s="53"/>
-      <c r="AP78" s="53"/>
-      <c r="AQ78" s="53"/>
-      <c r="AR78" s="53"/>
       <c r="AS78" s="6"/>
     </row>
     <row r="79" spans="6:45" x14ac:dyDescent="0.25">
@@ -4539,18 +6535,17 @@
         <f t="shared" si="22"/>
         <v>2.0408163265306132</v>
       </c>
-      <c r="S79" s="51"/>
-      <c r="T79" s="52"/>
-      <c r="U79" s="52"/>
+      <c r="S79" s="45"/>
+      <c r="T79" s="47"/>
+      <c r="U79" s="47"/>
       <c r="Y79" s="6"/>
       <c r="AA79" s="39">
         <v>6</v>
       </c>
       <c r="AB79" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>1.3194058359351188</v>
-      </c>
-      <c r="AC79" s="53"/>
+        <v>0.2655146225234879</v>
+      </c>
       <c r="AD79" s="2">
         <v>3</v>
       </c>
@@ -4560,21 +6555,10 @@
       <c r="AF79" s="2">
         <v>41</v>
       </c>
-      <c r="AG79" s="53"/>
-      <c r="AH79" s="53"/>
-      <c r="AI79" s="53"/>
-      <c r="AJ79" s="53"/>
-      <c r="AK79" s="53">
+      <c r="AK79">
         <f t="shared" si="17"/>
         <v>10.13178470085551</v>
       </c>
-      <c r="AL79" s="53"/>
-      <c r="AM79" s="53"/>
-      <c r="AN79" s="53"/>
-      <c r="AO79" s="53"/>
-      <c r="AP79" s="53"/>
-      <c r="AQ79" s="53"/>
-      <c r="AR79" s="53"/>
       <c r="AS79" s="6"/>
     </row>
     <row r="80" spans="6:45" x14ac:dyDescent="0.25">
@@ -4605,20 +6589,19 @@
         <f t="shared" si="22"/>
         <v>2.4693877551020402</v>
       </c>
-      <c r="T80" s="45">
+      <c r="T80" s="51">
         <f>T76*U76</f>
         <v>80.000000000000014</v>
       </c>
-      <c r="U80" s="45"/>
+      <c r="U80" s="51"/>
       <c r="Y80" s="6"/>
       <c r="AA80" s="39">
         <v>7</v>
       </c>
       <c r="AB80" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>0.88551337154293264</v>
-      </c>
-      <c r="AC80" s="53"/>
+        <v>1.4695745876101434</v>
+      </c>
       <c r="AD80" s="2">
         <v>3</v>
       </c>
@@ -4628,21 +6611,10 @@
       <c r="AF80" s="2">
         <v>44</v>
       </c>
-      <c r="AG80" s="53"/>
-      <c r="AH80" s="53"/>
-      <c r="AI80" s="53"/>
-      <c r="AJ80" s="53"/>
-      <c r="AK80" s="53">
+      <c r="AK80">
         <f t="shared" si="17"/>
         <v>13.101643455097143</v>
       </c>
-      <c r="AL80" s="53"/>
-      <c r="AM80" s="53"/>
-      <c r="AN80" s="53"/>
-      <c r="AO80" s="53"/>
-      <c r="AP80" s="53"/>
-      <c r="AQ80" s="53"/>
-      <c r="AR80" s="53"/>
       <c r="AS80" s="6"/>
     </row>
     <row r="81" spans="6:45" x14ac:dyDescent="0.25">
@@ -4679,9 +6651,8 @@
       </c>
       <c r="AB81" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>4.0794529861787332E-2</v>
-      </c>
-      <c r="AC81" s="53"/>
+        <v>1.6628349354802876</v>
+      </c>
       <c r="AD81" s="2">
         <v>0</v>
       </c>
@@ -4691,30 +6662,22 @@
       <c r="AF81" s="2">
         <v>5</v>
       </c>
-      <c r="AG81" s="53">
+      <c r="AG81">
         <f>AVERAGE(AD81:AD87)</f>
         <v>1.4285714285714286</v>
       </c>
-      <c r="AH81" s="53">
+      <c r="AH81">
         <f>AVERAGE(AE81:AE87)</f>
         <v>3</v>
       </c>
-      <c r="AI81" s="53">
+      <c r="AI81">
         <f>AVERAGE(AF81:AF87)</f>
         <v>20.857142857142858</v>
       </c>
-      <c r="AJ81" s="53"/>
-      <c r="AK81" s="53">
+      <c r="AK81">
         <f t="shared" si="17"/>
         <v>26.35085097181447</v>
       </c>
-      <c r="AL81" s="53"/>
-      <c r="AM81" s="53"/>
-      <c r="AN81" s="53"/>
-      <c r="AO81" s="53"/>
-      <c r="AP81" s="53"/>
-      <c r="AQ81" s="53"/>
-      <c r="AR81" s="53"/>
       <c r="AS81" s="6"/>
     </row>
     <row r="82" spans="6:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4745,24 +6708,23 @@
         <f t="shared" si="22"/>
         <v>11.755102040816329</v>
       </c>
-      <c r="S82" s="51" t="s">
+      <c r="S82" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="T82" s="49" t="s">
+      <c r="T82" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="U82" s="49"/>
-      <c r="V82" s="49"/>
-      <c r="W82" s="49"/>
+      <c r="U82" s="50"/>
+      <c r="V82" s="50"/>
+      <c r="W82" s="50"/>
       <c r="Y82" s="6"/>
       <c r="AA82" s="39">
         <v>9</v>
       </c>
       <c r="AB82" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>0.76853676585393216</v>
-      </c>
-      <c r="AC82" s="53"/>
+        <v>0.65718529300374806</v>
+      </c>
       <c r="AD82" s="2">
         <v>1</v>
       </c>
@@ -4772,21 +6734,10 @@
       <c r="AF82" s="2">
         <v>18</v>
       </c>
-      <c r="AG82" s="53"/>
-      <c r="AH82" s="53"/>
-      <c r="AI82" s="53"/>
-      <c r="AJ82" s="53"/>
-      <c r="AK82" s="53">
+      <c r="AK82">
         <f t="shared" si="17"/>
         <v>13.172327208266299</v>
       </c>
-      <c r="AL82" s="53"/>
-      <c r="AM82" s="53"/>
-      <c r="AN82" s="53"/>
-      <c r="AO82" s="53"/>
-      <c r="AP82" s="53"/>
-      <c r="AQ82" s="53"/>
-      <c r="AR82" s="53"/>
       <c r="AS82" s="6"/>
     </row>
     <row r="83" spans="6:45" x14ac:dyDescent="0.25">
@@ -4817,20 +6768,19 @@
         <f t="shared" si="22"/>
         <v>2.0408163265306132</v>
       </c>
-      <c r="S83" s="51"/>
-      <c r="T83" s="49"/>
-      <c r="U83" s="49"/>
-      <c r="V83" s="49"/>
-      <c r="W83" s="49"/>
+      <c r="S83" s="45"/>
+      <c r="T83" s="50"/>
+      <c r="U83" s="50"/>
+      <c r="V83" s="50"/>
+      <c r="W83" s="50"/>
       <c r="Y83" s="6"/>
       <c r="AA83" s="39">
         <v>10</v>
       </c>
       <c r="AB83" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>1.9035874727780278</v>
-      </c>
-      <c r="AC83" s="53"/>
+        <v>1.8443061608026801</v>
+      </c>
       <c r="AD83" s="2">
         <v>0</v>
       </c>
@@ -4840,21 +6790,10 @@
       <c r="AF83" s="2">
         <v>1</v>
       </c>
-      <c r="AG83" s="53"/>
-      <c r="AH83" s="53"/>
-      <c r="AI83" s="53"/>
-      <c r="AJ83" s="53"/>
-      <c r="AK83" s="53">
+      <c r="AK83">
         <f t="shared" si="17"/>
         <v>30.433936482090488</v>
       </c>
-      <c r="AL83" s="53"/>
-      <c r="AM83" s="53"/>
-      <c r="AN83" s="53"/>
-      <c r="AO83" s="53"/>
-      <c r="AP83" s="53"/>
-      <c r="AQ83" s="53"/>
-      <c r="AR83" s="53"/>
       <c r="AS83" s="6"/>
     </row>
     <row r="84" spans="6:45" x14ac:dyDescent="0.25">
@@ -4885,22 +6824,21 @@
         <f t="shared" si="22"/>
         <v>19.612244897959187</v>
       </c>
-      <c r="T84" s="50">
+      <c r="T84" s="46">
         <f>M97/T80</f>
         <v>0.93749999999999978</v>
       </c>
-      <c r="U84" s="50"/>
-      <c r="V84" s="50"/>
-      <c r="W84" s="50"/>
+      <c r="U84" s="46"/>
+      <c r="V84" s="46"/>
+      <c r="W84" s="46"/>
       <c r="Y84" s="6"/>
       <c r="AA84" s="39">
         <v>11</v>
       </c>
       <c r="AB84" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>0.97810281190077064</v>
-      </c>
-      <c r="AC84" s="53"/>
+        <v>1.3016375319320561</v>
+      </c>
       <c r="AD84" s="2">
         <v>5</v>
       </c>
@@ -4910,21 +6848,10 @@
       <c r="AF84" s="2">
         <v>62</v>
       </c>
-      <c r="AG84" s="53"/>
-      <c r="AH84" s="53"/>
-      <c r="AI84" s="53"/>
-      <c r="AJ84" s="53"/>
-      <c r="AK84" s="53">
+      <c r="AK84">
         <f t="shared" si="17"/>
         <v>31.42922077251275</v>
       </c>
-      <c r="AL84" s="53"/>
-      <c r="AM84" s="53"/>
-      <c r="AN84" s="53"/>
-      <c r="AO84" s="53"/>
-      <c r="AP84" s="53"/>
-      <c r="AQ84" s="53"/>
-      <c r="AR84" s="53"/>
       <c r="AS84" s="6"/>
     </row>
     <row r="85" spans="6:45" x14ac:dyDescent="0.25">
@@ -4961,9 +6888,8 @@
       </c>
       <c r="AB85" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>1.191880057841314</v>
-      </c>
-      <c r="AC85" s="53"/>
+        <v>1.7787232337067711</v>
+      </c>
       <c r="AD85" s="2">
         <v>1</v>
       </c>
@@ -4973,21 +6899,10 @@
       <c r="AF85" s="2">
         <v>17</v>
       </c>
-      <c r="AG85" s="53"/>
-      <c r="AH85" s="53"/>
-      <c r="AI85" s="53"/>
-      <c r="AJ85" s="53"/>
-      <c r="AK85" s="53">
+      <c r="AK85">
         <f t="shared" si="17"/>
         <v>14.295710788162143</v>
       </c>
-      <c r="AL85" s="53"/>
-      <c r="AM85" s="53"/>
-      <c r="AN85" s="53"/>
-      <c r="AO85" s="53"/>
-      <c r="AP85" s="53"/>
-      <c r="AQ85" s="53"/>
-      <c r="AR85" s="53"/>
       <c r="AS85" s="6"/>
     </row>
     <row r="86" spans="6:45" x14ac:dyDescent="0.25">
@@ -5018,23 +6933,22 @@
         <f t="shared" si="22"/>
         <v>5.8979591836734704</v>
       </c>
-      <c r="S86" s="51" t="s">
+      <c r="S86" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="T86" s="50">
+      <c r="T86" s="46">
         <f>CORREL(G75:G95,H75:H95)</f>
         <v>0.9375</v>
       </c>
-      <c r="U86" s="50"/>
+      <c r="U86" s="46"/>
       <c r="Y86" s="6"/>
       <c r="AA86" s="39">
         <v>13</v>
       </c>
       <c r="AB86" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>0.95542984491297411</v>
-      </c>
-      <c r="AC86" s="53"/>
+        <v>1.0933113847796145</v>
+      </c>
       <c r="AD86" s="2">
         <v>2</v>
       </c>
@@ -5044,21 +6958,10 @@
       <c r="AF86" s="2">
         <v>24</v>
       </c>
-      <c r="AG86" s="53"/>
-      <c r="AH86" s="53"/>
-      <c r="AI86" s="53"/>
-      <c r="AJ86" s="53"/>
-      <c r="AK86" s="53">
+      <c r="AK86">
         <f t="shared" si="17"/>
         <v>7.1671017112062465</v>
       </c>
-      <c r="AL86" s="53"/>
-      <c r="AM86" s="53"/>
-      <c r="AN86" s="53"/>
-      <c r="AO86" s="53"/>
-      <c r="AP86" s="53"/>
-      <c r="AQ86" s="53"/>
-      <c r="AR86" s="53"/>
       <c r="AS86" s="6"/>
     </row>
     <row r="87" spans="6:45" x14ac:dyDescent="0.25">
@@ -5089,18 +6992,17 @@
         <f t="shared" si="22"/>
         <v>2.0408163265306132</v>
       </c>
-      <c r="S87" s="51"/>
-      <c r="T87" s="50"/>
-      <c r="U87" s="50"/>
+      <c r="S87" s="45"/>
+      <c r="T87" s="46"/>
+      <c r="U87" s="46"/>
       <c r="Y87" s="6"/>
       <c r="AA87" s="39">
         <v>14</v>
       </c>
       <c r="AB87" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>0.57424185059744404</v>
-      </c>
-      <c r="AC87" s="53"/>
+        <v>0.69522072210606511</v>
+      </c>
       <c r="AD87" s="2">
         <v>1</v>
       </c>
@@ -5110,21 +7012,10 @@
       <c r="AF87" s="2">
         <v>19</v>
       </c>
-      <c r="AG87" s="53"/>
-      <c r="AH87" s="53"/>
-      <c r="AI87" s="53"/>
-      <c r="AJ87" s="53"/>
-      <c r="AK87" s="53">
+      <c r="AK87">
         <f t="shared" si="17"/>
         <v>12.186476278302628</v>
       </c>
-      <c r="AL87" s="53"/>
-      <c r="AM87" s="53"/>
-      <c r="AN87" s="53"/>
-      <c r="AO87" s="53"/>
-      <c r="AP87" s="53"/>
-      <c r="AQ87" s="53"/>
-      <c r="AR87" s="53"/>
       <c r="AS87" s="6"/>
     </row>
     <row r="88" spans="6:45" x14ac:dyDescent="0.25">
@@ -5161,9 +7052,8 @@
       </c>
       <c r="AB88" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>0.47715358933830943</v>
-      </c>
-      <c r="AC88" s="53"/>
+        <v>1.1465316783282162</v>
+      </c>
       <c r="AD88" s="2">
         <v>3</v>
       </c>
@@ -5173,30 +7063,22 @@
       <c r="AF88" s="2">
         <v>42</v>
       </c>
-      <c r="AG88" s="53">
+      <c r="AG88">
         <f>AVERAGE(AD88:AD94)</f>
         <v>3</v>
       </c>
-      <c r="AH88" s="53">
+      <c r="AH88">
         <f>AVERAGE(AE88:AE94)</f>
         <v>5.8571428571428568</v>
       </c>
-      <c r="AI88" s="53">
+      <c r="AI88">
         <f>AVERAGE(AF88:AF94)</f>
         <v>42.285714285714285</v>
       </c>
-      <c r="AJ88" s="53"/>
-      <c r="AK88" s="53">
+      <c r="AK88">
         <f t="shared" si="17"/>
         <v>11.119939803096498</v>
       </c>
-      <c r="AL88" s="53"/>
-      <c r="AM88" s="53"/>
-      <c r="AN88" s="53"/>
-      <c r="AO88" s="53"/>
-      <c r="AP88" s="53"/>
-      <c r="AQ88" s="53"/>
-      <c r="AR88" s="53"/>
       <c r="AS88" s="6"/>
     </row>
     <row r="89" spans="6:45" x14ac:dyDescent="0.25">
@@ -5233,9 +7115,8 @@
       </c>
       <c r="AB89" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>0.28997677444563608</v>
-      </c>
-      <c r="AC89" s="53"/>
+        <v>0.38297191016070808</v>
+      </c>
       <c r="AD89" s="2">
         <v>4</v>
       </c>
@@ -5245,21 +7126,10 @@
       <c r="AF89" s="2">
         <v>56</v>
       </c>
-      <c r="AG89" s="53"/>
-      <c r="AH89" s="53"/>
-      <c r="AI89" s="53"/>
-      <c r="AJ89" s="53"/>
-      <c r="AK89" s="53">
+      <c r="AK89">
         <f t="shared" si="17"/>
         <v>25.294187442322535</v>
       </c>
-      <c r="AL89" s="53"/>
-      <c r="AM89" s="53"/>
-      <c r="AN89" s="53"/>
-      <c r="AO89" s="53"/>
-      <c r="AP89" s="53"/>
-      <c r="AQ89" s="53"/>
-      <c r="AR89" s="53"/>
       <c r="AS89" s="6"/>
     </row>
     <row r="90" spans="6:45" x14ac:dyDescent="0.25">
@@ -5296,9 +7166,8 @@
       </c>
       <c r="AB90" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>0.44758145690903306</v>
-      </c>
-      <c r="AC90" s="53"/>
+        <v>1.3313312806776925</v>
+      </c>
       <c r="AD90" s="2">
         <v>4</v>
       </c>
@@ -5308,21 +7177,10 @@
       <c r="AF90" s="2">
         <v>56</v>
       </c>
-      <c r="AG90" s="53"/>
-      <c r="AH90" s="53"/>
-      <c r="AI90" s="53"/>
-      <c r="AJ90" s="53"/>
-      <c r="AK90" s="53">
+      <c r="AK90">
         <f t="shared" si="17"/>
         <v>25.294187442322535</v>
       </c>
-      <c r="AL90" s="53"/>
-      <c r="AM90" s="53"/>
-      <c r="AN90" s="53"/>
-      <c r="AO90" s="53"/>
-      <c r="AP90" s="53"/>
-      <c r="AQ90" s="53"/>
-      <c r="AR90" s="53"/>
       <c r="AS90" s="6"/>
     </row>
     <row r="91" spans="6:45" x14ac:dyDescent="0.25">
@@ -5359,9 +7217,8 @@
       </c>
       <c r="AB91" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>0.56855271545948449</v>
-      </c>
-      <c r="AC91" s="53"/>
+        <v>0.59796157415136753</v>
+      </c>
       <c r="AD91" s="2">
         <v>3</v>
       </c>
@@ -5371,21 +7228,10 @@
       <c r="AF91" s="2">
         <v>44</v>
       </c>
-      <c r="AG91" s="53"/>
-      <c r="AH91" s="53"/>
-      <c r="AI91" s="53"/>
-      <c r="AJ91" s="53"/>
-      <c r="AK91" s="53">
+      <c r="AK91">
         <f t="shared" si="17"/>
         <v>13.101643455097143</v>
       </c>
-      <c r="AL91" s="53"/>
-      <c r="AM91" s="53"/>
-      <c r="AN91" s="53"/>
-      <c r="AO91" s="53"/>
-      <c r="AP91" s="53"/>
-      <c r="AQ91" s="53"/>
-      <c r="AR91" s="53"/>
       <c r="AS91" s="6"/>
     </row>
     <row r="92" spans="6:45" x14ac:dyDescent="0.25">
@@ -5422,9 +7268,8 @@
       </c>
       <c r="AB92" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>0.58621711904348861</v>
-      </c>
-      <c r="AC92" s="53"/>
+        <v>1.8026135539285966</v>
+      </c>
       <c r="AD92" s="2">
         <v>5</v>
       </c>
@@ -5434,21 +7279,10 @@
       <c r="AF92" s="2">
         <v>64</v>
       </c>
-      <c r="AG92" s="53"/>
-      <c r="AH92" s="53"/>
-      <c r="AI92" s="53"/>
-      <c r="AJ92" s="53"/>
-      <c r="AK92" s="53">
+      <c r="AK92">
         <f t="shared" si="17"/>
         <v>33.403531525384366</v>
       </c>
-      <c r="AL92" s="53"/>
-      <c r="AM92" s="53"/>
-      <c r="AN92" s="53"/>
-      <c r="AO92" s="53"/>
-      <c r="AP92" s="53"/>
-      <c r="AQ92" s="53"/>
-      <c r="AR92" s="53"/>
       <c r="AS92" s="6"/>
     </row>
     <row r="93" spans="6:45" x14ac:dyDescent="0.25">
@@ -5485,9 +7319,8 @@
       </c>
       <c r="AB93" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>1.7053545668345464</v>
-      </c>
-      <c r="AC93" s="53"/>
+        <v>0.67955639629236675</v>
+      </c>
       <c r="AD93" s="2">
         <v>1</v>
       </c>
@@ -5497,21 +7330,10 @@
       <c r="AF93" s="2">
         <v>17</v>
       </c>
-      <c r="AG93" s="53"/>
-      <c r="AH93" s="53"/>
-      <c r="AI93" s="53"/>
-      <c r="AJ93" s="53"/>
-      <c r="AK93" s="53">
+      <c r="AK93">
         <f t="shared" si="17"/>
         <v>14.295710788162143</v>
       </c>
-      <c r="AL93" s="53"/>
-      <c r="AM93" s="53"/>
-      <c r="AN93" s="53"/>
-      <c r="AO93" s="53"/>
-      <c r="AP93" s="53"/>
-      <c r="AQ93" s="53"/>
-      <c r="AR93" s="53"/>
       <c r="AS93" s="6"/>
     </row>
     <row r="94" spans="6:45" x14ac:dyDescent="0.25">
@@ -5548,9 +7370,8 @@
       </c>
       <c r="AB94" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>0.35271308029873327</v>
-      </c>
-      <c r="AC94" s="53"/>
+        <v>1.234211807443959</v>
+      </c>
       <c r="AD94" s="2">
         <v>1</v>
       </c>
@@ -5560,21 +7381,10 @@
       <c r="AF94" s="2">
         <v>17</v>
       </c>
-      <c r="AG94" s="53"/>
-      <c r="AH94" s="53"/>
-      <c r="AI94" s="53"/>
-      <c r="AJ94" s="53"/>
-      <c r="AK94" s="53">
+      <c r="AK94">
         <f t="shared" si="17"/>
         <v>14.295710788162143</v>
       </c>
-      <c r="AL94" s="53"/>
-      <c r="AM94" s="53"/>
-      <c r="AN94" s="53"/>
-      <c r="AO94" s="53"/>
-      <c r="AP94" s="53"/>
-      <c r="AQ94" s="53"/>
-      <c r="AR94" s="53"/>
       <c r="AS94" s="6"/>
     </row>
     <row r="95" spans="6:45" x14ac:dyDescent="0.25">
@@ -5607,48 +7417,15 @@
       </c>
       <c r="Y95" s="6"/>
       <c r="AA95" s="5"/>
-      <c r="AB95" s="53"/>
-      <c r="AC95" s="53"/>
-      <c r="AD95" s="53"/>
-      <c r="AE95" s="53"/>
-      <c r="AF95" s="53"/>
-      <c r="AG95" s="53"/>
-      <c r="AH95" s="53"/>
-      <c r="AI95" s="53"/>
-      <c r="AJ95" s="53"/>
-      <c r="AK95" s="53"/>
-      <c r="AL95" s="53"/>
-      <c r="AM95" s="53"/>
-      <c r="AN95" s="53"/>
-      <c r="AO95" s="53"/>
-      <c r="AP95" s="53"/>
-      <c r="AQ95" s="53"/>
-      <c r="AR95" s="53"/>
       <c r="AS95" s="6"/>
     </row>
     <row r="96" spans="6:45" x14ac:dyDescent="0.25">
       <c r="F96" s="5"/>
       <c r="Y96" s="6"/>
       <c r="AA96" s="5"/>
-      <c r="AB96" s="53"/>
-      <c r="AC96" s="53"/>
-      <c r="AD96" s="55" t="s">
+      <c r="AD96" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="AE96" s="53"/>
-      <c r="AF96" s="53"/>
-      <c r="AG96" s="53"/>
-      <c r="AH96" s="53"/>
-      <c r="AI96" s="53"/>
-      <c r="AJ96" s="53"/>
-      <c r="AK96" s="53"/>
-      <c r="AL96" s="53"/>
-      <c r="AM96" s="53"/>
-      <c r="AN96" s="53"/>
-      <c r="AO96" s="53"/>
-      <c r="AP96" s="53"/>
-      <c r="AQ96" s="53"/>
-      <c r="AR96" s="53"/>
       <c r="AS96" s="6"/>
     </row>
     <row r="97" spans="6:45" x14ac:dyDescent="0.25">
@@ -5683,54 +7460,24 @@
       </c>
       <c r="Y97" s="6"/>
       <c r="AA97" s="5"/>
-      <c r="AB97" s="53"/>
-      <c r="AC97" s="53"/>
-      <c r="AD97" s="55">
+      <c r="AD97" s="42">
         <v>1.4731377495467228</v>
       </c>
-      <c r="AE97" s="53">
-        <v>1</v>
-      </c>
-      <c r="AF97" s="53"/>
-      <c r="AG97" s="53"/>
-      <c r="AH97" s="53"/>
-      <c r="AI97" s="53"/>
-      <c r="AJ97" s="53"/>
-      <c r="AK97" s="53"/>
-      <c r="AL97" s="53"/>
-      <c r="AM97" s="53"/>
-      <c r="AN97" s="53"/>
-      <c r="AO97" s="53"/>
-      <c r="AP97" s="53"/>
-      <c r="AQ97" s="53"/>
-      <c r="AR97" s="53"/>
+      <c r="AE97">
+        <v>1</v>
+      </c>
       <c r="AS97" s="6"/>
     </row>
     <row r="98" spans="6:45" x14ac:dyDescent="0.25">
       <c r="F98" s="5"/>
       <c r="Y98" s="6"/>
       <c r="AA98" s="5"/>
-      <c r="AB98" s="53"/>
-      <c r="AC98" s="53"/>
-      <c r="AD98" s="55">
+      <c r="AD98" s="42">
         <v>1.8077442285346905</v>
       </c>
-      <c r="AE98" s="53">
+      <c r="AE98">
         <v>2</v>
       </c>
-      <c r="AF98" s="53"/>
-      <c r="AG98" s="53"/>
-      <c r="AH98" s="53"/>
-      <c r="AI98" s="53"/>
-      <c r="AJ98" s="53"/>
-      <c r="AK98" s="53"/>
-      <c r="AL98" s="53"/>
-      <c r="AM98" s="53"/>
-      <c r="AN98" s="53"/>
-      <c r="AO98" s="53"/>
-      <c r="AP98" s="53"/>
-      <c r="AQ98" s="53"/>
-      <c r="AR98" s="53"/>
       <c r="AS98" s="6"/>
     </row>
     <row r="99" spans="6:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5755,116 +7502,56 @@
       <c r="X99" s="8"/>
       <c r="Y99" s="9"/>
       <c r="AA99" s="5"/>
-      <c r="AB99" s="53"/>
-      <c r="AC99" s="53"/>
-      <c r="AD99" s="55">
+      <c r="AD99" s="42">
         <v>0.60961601820559541</v>
       </c>
-      <c r="AE99" s="53">
-        <v>1</v>
-      </c>
-      <c r="AF99" s="53"/>
-      <c r="AG99" s="53"/>
-      <c r="AH99" s="53"/>
-      <c r="AI99" s="53"/>
-      <c r="AJ99" s="53"/>
-      <c r="AK99" s="53"/>
-      <c r="AL99" s="53"/>
-      <c r="AM99" s="53"/>
-      <c r="AN99" s="53"/>
-      <c r="AO99" s="53"/>
-      <c r="AP99" s="53"/>
-      <c r="AQ99" s="53"/>
-      <c r="AR99" s="53"/>
+      <c r="AE99">
+        <v>1</v>
+      </c>
       <c r="AS99" s="6"/>
     </row>
     <row r="100" spans="6:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AA100" s="5"/>
-      <c r="AB100" s="53"/>
-      <c r="AC100" s="53"/>
-      <c r="AD100" s="55">
+      <c r="AD100" s="42">
         <v>3.3275113195004646E-2</v>
       </c>
-      <c r="AE100" s="53">
+      <c r="AE100">
         <v>0</v>
       </c>
-      <c r="AF100" s="53"/>
-      <c r="AG100" s="53"/>
-      <c r="AH100" s="53"/>
-      <c r="AI100" s="53"/>
-      <c r="AJ100" s="53"/>
-      <c r="AK100" s="53"/>
-      <c r="AL100" s="53"/>
-      <c r="AM100" s="53"/>
-      <c r="AN100" s="53"/>
-      <c r="AO100" s="53"/>
-      <c r="AP100" s="53"/>
-      <c r="AQ100" s="53"/>
-      <c r="AR100" s="53"/>
       <c r="AS100" s="6"/>
     </row>
     <row r="101" spans="6:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F101" s="41" t="s">
+      <c r="F101" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="G101" s="42"/>
-      <c r="H101" s="42"/>
-      <c r="I101" s="42"/>
-      <c r="J101" s="42"/>
-      <c r="K101" s="42"/>
-      <c r="L101" s="43"/>
+      <c r="G101" s="57"/>
+      <c r="H101" s="57"/>
+      <c r="I101" s="57"/>
+      <c r="J101" s="57"/>
+      <c r="K101" s="57"/>
+      <c r="L101" s="58"/>
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
       <c r="O101" s="4"/>
       <c r="AA101" s="5"/>
-      <c r="AB101" s="53"/>
-      <c r="AC101" s="53"/>
-      <c r="AD101" s="55">
+      <c r="AD101" s="42">
         <v>1.2821539086599161</v>
       </c>
-      <c r="AE101" s="53">
-        <v>1</v>
-      </c>
-      <c r="AF101" s="53"/>
-      <c r="AG101" s="53"/>
-      <c r="AH101" s="53"/>
-      <c r="AI101" s="53"/>
-      <c r="AJ101" s="53"/>
-      <c r="AK101" s="53"/>
-      <c r="AL101" s="53"/>
-      <c r="AM101" s="53"/>
-      <c r="AN101" s="53"/>
-      <c r="AO101" s="53"/>
-      <c r="AP101" s="53"/>
-      <c r="AQ101" s="53"/>
-      <c r="AR101" s="53"/>
+      <c r="AE101">
+        <v>1</v>
+      </c>
       <c r="AS101" s="6"/>
     </row>
     <row r="102" spans="6:45" x14ac:dyDescent="0.25">
       <c r="F102" s="5"/>
       <c r="O102" s="6"/>
       <c r="AA102" s="5"/>
-      <c r="AB102" s="53"/>
-      <c r="AC102" s="53"/>
-      <c r="AD102" s="55">
+      <c r="AD102" s="42">
         <v>1.5471408223417176</v>
       </c>
-      <c r="AE102" s="53">
+      <c r="AE102">
         <v>2</v>
       </c>
-      <c r="AF102" s="53"/>
-      <c r="AG102" s="53"/>
-      <c r="AH102" s="53"/>
-      <c r="AI102" s="53"/>
-      <c r="AJ102" s="53"/>
-      <c r="AK102" s="53"/>
-      <c r="AL102" s="53"/>
-      <c r="AM102" s="53"/>
-      <c r="AN102" s="53"/>
-      <c r="AO102" s="53"/>
-      <c r="AP102" s="53"/>
-      <c r="AQ102" s="53"/>
-      <c r="AR102" s="53"/>
       <c r="AS102" s="6"/>
     </row>
     <row r="103" spans="6:45" x14ac:dyDescent="0.25">
@@ -5895,27 +7582,12 @@
       </c>
       <c r="O103" s="6"/>
       <c r="AA103" s="5"/>
-      <c r="AB103" s="53"/>
-      <c r="AC103" s="53"/>
-      <c r="AD103" s="55">
+      <c r="AD103" s="42">
         <v>0.21453959267624967</v>
       </c>
-      <c r="AE103" s="53">
+      <c r="AE103">
         <v>0</v>
       </c>
-      <c r="AF103" s="53"/>
-      <c r="AG103" s="53"/>
-      <c r="AH103" s="53"/>
-      <c r="AI103" s="53"/>
-      <c r="AJ103" s="53"/>
-      <c r="AK103" s="53"/>
-      <c r="AL103" s="53"/>
-      <c r="AM103" s="53"/>
-      <c r="AN103" s="53"/>
-      <c r="AO103" s="53"/>
-      <c r="AP103" s="53"/>
-      <c r="AQ103" s="53"/>
-      <c r="AR103" s="53"/>
       <c r="AS103" s="6"/>
     </row>
     <row r="104" spans="6:45" x14ac:dyDescent="0.25">
@@ -5949,27 +7621,12 @@
       </c>
       <c r="O104" s="6"/>
       <c r="AA104" s="5"/>
-      <c r="AB104" s="53"/>
-      <c r="AC104" s="53"/>
-      <c r="AD104" s="55">
+      <c r="AD104" s="42">
         <v>1.9261369118645517</v>
       </c>
-      <c r="AE104" s="53">
+      <c r="AE104">
         <v>2</v>
       </c>
-      <c r="AF104" s="53"/>
-      <c r="AG104" s="53"/>
-      <c r="AH104" s="53"/>
-      <c r="AI104" s="53"/>
-      <c r="AJ104" s="53"/>
-      <c r="AK104" s="53"/>
-      <c r="AL104" s="53"/>
-      <c r="AM104" s="53"/>
-      <c r="AN104" s="53"/>
-      <c r="AO104" s="53"/>
-      <c r="AP104" s="53"/>
-      <c r="AQ104" s="53"/>
-      <c r="AR104" s="53"/>
       <c r="AS104" s="6"/>
     </row>
     <row r="105" spans="6:45" x14ac:dyDescent="0.25">
@@ -6003,27 +7660,12 @@
       </c>
       <c r="O105" s="6"/>
       <c r="AA105" s="5"/>
-      <c r="AB105" s="53"/>
-      <c r="AC105" s="53"/>
-      <c r="AD105" s="55">
+      <c r="AD105" s="42">
         <v>1.4320917599412737</v>
       </c>
-      <c r="AE105" s="53">
-        <v>1</v>
-      </c>
-      <c r="AF105" s="53"/>
-      <c r="AG105" s="53"/>
-      <c r="AH105" s="53"/>
-      <c r="AI105" s="53"/>
-      <c r="AJ105" s="53"/>
-      <c r="AK105" s="53"/>
-      <c r="AL105" s="53"/>
-      <c r="AM105" s="53"/>
-      <c r="AN105" s="53"/>
-      <c r="AO105" s="53"/>
-      <c r="AP105" s="53"/>
-      <c r="AQ105" s="53"/>
-      <c r="AR105" s="53"/>
+      <c r="AE105">
+        <v>1</v>
+      </c>
       <c r="AS105" s="6"/>
     </row>
     <row r="106" spans="6:45" x14ac:dyDescent="0.25">
@@ -6057,27 +7699,12 @@
       </c>
       <c r="O106" s="6"/>
       <c r="AA106" s="5"/>
-      <c r="AB106" s="53"/>
-      <c r="AC106" s="53"/>
-      <c r="AD106" s="55">
+      <c r="AD106" s="42">
         <v>0.99131820885058231</v>
       </c>
-      <c r="AE106" s="53">
-        <v>1</v>
-      </c>
-      <c r="AF106" s="53"/>
-      <c r="AG106" s="53"/>
-      <c r="AH106" s="53"/>
-      <c r="AI106" s="53"/>
-      <c r="AJ106" s="53"/>
-      <c r="AK106" s="53"/>
-      <c r="AL106" s="53"/>
-      <c r="AM106" s="53"/>
-      <c r="AN106" s="53"/>
-      <c r="AO106" s="53"/>
-      <c r="AP106" s="53"/>
-      <c r="AQ106" s="53"/>
-      <c r="AR106" s="53"/>
+      <c r="AE106">
+        <v>1</v>
+      </c>
       <c r="AS106" s="6"/>
     </row>
     <row r="107" spans="6:45" x14ac:dyDescent="0.25">
@@ -6111,27 +7738,12 @@
       </c>
       <c r="O107" s="6"/>
       <c r="AA107" s="5"/>
-      <c r="AB107" s="53"/>
-      <c r="AC107" s="53"/>
-      <c r="AD107" s="55">
+      <c r="AD107" s="42">
         <v>1.4914028989288994</v>
       </c>
-      <c r="AE107" s="53">
-        <v>1</v>
-      </c>
-      <c r="AF107" s="53"/>
-      <c r="AG107" s="53"/>
-      <c r="AH107" s="53"/>
-      <c r="AI107" s="53"/>
-      <c r="AJ107" s="53"/>
-      <c r="AK107" s="53"/>
-      <c r="AL107" s="53"/>
-      <c r="AM107" s="53"/>
-      <c r="AN107" s="53"/>
-      <c r="AO107" s="53"/>
-      <c r="AP107" s="53"/>
-      <c r="AQ107" s="53"/>
-      <c r="AR107" s="53"/>
+      <c r="AE107">
+        <v>1</v>
+      </c>
       <c r="AS107" s="6"/>
     </row>
     <row r="108" spans="6:45" x14ac:dyDescent="0.25">
@@ -6158,27 +7770,12 @@
       </c>
       <c r="O108" s="6"/>
       <c r="AA108" s="5"/>
-      <c r="AB108" s="53"/>
-      <c r="AC108" s="53"/>
-      <c r="AD108" s="55">
+      <c r="AD108" s="42">
         <v>1.4319818861907552</v>
       </c>
-      <c r="AE108" s="53">
-        <v>1</v>
-      </c>
-      <c r="AF108" s="53"/>
-      <c r="AG108" s="53"/>
-      <c r="AH108" s="53"/>
-      <c r="AI108" s="53"/>
-      <c r="AJ108" s="53"/>
-      <c r="AK108" s="53"/>
-      <c r="AL108" s="53"/>
-      <c r="AM108" s="53"/>
-      <c r="AN108" s="53"/>
-      <c r="AO108" s="53"/>
-      <c r="AP108" s="53"/>
-      <c r="AQ108" s="53"/>
-      <c r="AR108" s="53"/>
+      <c r="AE108">
+        <v>1</v>
+      </c>
       <c r="AS108" s="6"/>
     </row>
     <row r="109" spans="6:45" x14ac:dyDescent="0.25">
@@ -6208,27 +7805,12 @@
       </c>
       <c r="O109" s="6"/>
       <c r="AA109" s="5"/>
-      <c r="AB109" s="53"/>
-      <c r="AC109" s="53"/>
-      <c r="AD109" s="55">
+      <c r="AD109" s="42">
         <v>1.0246537457413385</v>
       </c>
-      <c r="AE109" s="53">
-        <v>1</v>
-      </c>
-      <c r="AF109" s="53"/>
-      <c r="AG109" s="53"/>
-      <c r="AH109" s="53"/>
-      <c r="AI109" s="53"/>
-      <c r="AJ109" s="53"/>
-      <c r="AK109" s="53"/>
-      <c r="AL109" s="53"/>
-      <c r="AM109" s="53"/>
-      <c r="AN109" s="53"/>
-      <c r="AO109" s="53"/>
-      <c r="AP109" s="53"/>
-      <c r="AQ109" s="53"/>
-      <c r="AR109" s="53"/>
+      <c r="AE109">
+        <v>1</v>
+      </c>
       <c r="AS109" s="6"/>
     </row>
     <row r="110" spans="6:45" x14ac:dyDescent="0.25">
@@ -6261,27 +7843,12 @@
       </c>
       <c r="O110" s="6"/>
       <c r="AA110" s="5"/>
-      <c r="AB110" s="53"/>
-      <c r="AC110" s="53"/>
-      <c r="AD110" s="55">
+      <c r="AD110" s="42">
         <v>0.12162474480164143</v>
       </c>
-      <c r="AE110" s="53">
+      <c r="AE110">
         <v>0</v>
       </c>
-      <c r="AF110" s="53"/>
-      <c r="AG110" s="53"/>
-      <c r="AH110" s="53"/>
-      <c r="AI110" s="53"/>
-      <c r="AJ110" s="53"/>
-      <c r="AK110" s="53"/>
-      <c r="AL110" s="53"/>
-      <c r="AM110" s="53"/>
-      <c r="AN110" s="53"/>
-      <c r="AO110" s="53"/>
-      <c r="AP110" s="53"/>
-      <c r="AQ110" s="53"/>
-      <c r="AR110" s="53"/>
       <c r="AS110" s="6"/>
     </row>
     <row r="111" spans="6:45" x14ac:dyDescent="0.25">
@@ -6314,27 +7881,12 @@
       </c>
       <c r="O111" s="6"/>
       <c r="AA111" s="5"/>
-      <c r="AB111" s="53"/>
-      <c r="AC111" s="53"/>
-      <c r="AD111" s="55">
+      <c r="AD111" s="42">
         <v>1.6285620269406138</v>
       </c>
-      <c r="AE111" s="53">
+      <c r="AE111">
         <v>2</v>
       </c>
-      <c r="AF111" s="53"/>
-      <c r="AG111" s="53"/>
-      <c r="AH111" s="53"/>
-      <c r="AI111" s="53"/>
-      <c r="AJ111" s="53"/>
-      <c r="AK111" s="53"/>
-      <c r="AL111" s="53"/>
-      <c r="AM111" s="53"/>
-      <c r="AN111" s="53"/>
-      <c r="AO111" s="53"/>
-      <c r="AP111" s="53"/>
-      <c r="AQ111" s="53"/>
-      <c r="AR111" s="53"/>
       <c r="AS111" s="6"/>
     </row>
     <row r="112" spans="6:45" x14ac:dyDescent="0.25">
@@ -6368,27 +7920,12 @@
       </c>
       <c r="O112" s="6"/>
       <c r="AA112" s="5"/>
-      <c r="AB112" s="53"/>
-      <c r="AC112" s="53"/>
-      <c r="AD112" s="55">
+      <c r="AD112" s="42">
         <v>1.140733419411925</v>
       </c>
-      <c r="AE112" s="53">
-        <v>1</v>
-      </c>
-      <c r="AF112" s="53"/>
-      <c r="AG112" s="53"/>
-      <c r="AH112" s="53"/>
-      <c r="AI112" s="53"/>
-      <c r="AJ112" s="53"/>
-      <c r="AK112" s="53"/>
-      <c r="AL112" s="53"/>
-      <c r="AM112" s="53"/>
-      <c r="AN112" s="53"/>
-      <c r="AO112" s="53"/>
-      <c r="AP112" s="53"/>
-      <c r="AQ112" s="53"/>
-      <c r="AR112" s="53"/>
+      <c r="AE112">
+        <v>1</v>
+      </c>
       <c r="AS112" s="6"/>
     </row>
     <row r="113" spans="6:45" x14ac:dyDescent="0.25">
@@ -6415,27 +7952,12 @@
       </c>
       <c r="O113" s="6"/>
       <c r="AA113" s="5"/>
-      <c r="AB113" s="53"/>
-      <c r="AC113" s="53"/>
-      <c r="AD113" s="55">
+      <c r="AD113" s="42">
         <v>0.9912395604491564</v>
       </c>
-      <c r="AE113" s="53">
-        <v>1</v>
-      </c>
-      <c r="AF113" s="53"/>
-      <c r="AG113" s="53"/>
-      <c r="AH113" s="53"/>
-      <c r="AI113" s="53"/>
-      <c r="AJ113" s="53"/>
-      <c r="AK113" s="53"/>
-      <c r="AL113" s="53"/>
-      <c r="AM113" s="53"/>
-      <c r="AN113" s="53"/>
-      <c r="AO113" s="53"/>
-      <c r="AP113" s="53"/>
-      <c r="AQ113" s="53"/>
-      <c r="AR113" s="53"/>
+      <c r="AE113">
+        <v>1</v>
+      </c>
       <c r="AS113" s="6"/>
     </row>
     <row r="114" spans="6:45" x14ac:dyDescent="0.25">
@@ -6469,27 +7991,12 @@
       </c>
       <c r="O114" s="6"/>
       <c r="AA114" s="5"/>
-      <c r="AB114" s="53"/>
-      <c r="AC114" s="53"/>
-      <c r="AD114" s="55">
+      <c r="AD114" s="42">
         <v>0.96362468942069812</v>
       </c>
-      <c r="AE114" s="53">
-        <v>1</v>
-      </c>
-      <c r="AF114" s="53"/>
-      <c r="AG114" s="53"/>
-      <c r="AH114" s="53"/>
-      <c r="AI114" s="53"/>
-      <c r="AJ114" s="53"/>
-      <c r="AK114" s="53"/>
-      <c r="AL114" s="53"/>
-      <c r="AM114" s="53"/>
-      <c r="AN114" s="53"/>
-      <c r="AO114" s="53"/>
-      <c r="AP114" s="53"/>
-      <c r="AQ114" s="53"/>
-      <c r="AR114" s="53"/>
+      <c r="AE114">
+        <v>1</v>
+      </c>
       <c r="AS114" s="6"/>
     </row>
     <row r="115" spans="6:45" x14ac:dyDescent="0.25">
@@ -6516,27 +8023,12 @@
       </c>
       <c r="O115" s="6"/>
       <c r="AA115" s="5"/>
-      <c r="AB115" s="53"/>
-      <c r="AC115" s="53"/>
-      <c r="AD115" s="55">
+      <c r="AD115" s="42">
         <v>1.6249234706419327</v>
       </c>
-      <c r="AE115" s="53">
+      <c r="AE115">
         <v>2</v>
       </c>
-      <c r="AF115" s="53"/>
-      <c r="AG115" s="53"/>
-      <c r="AH115" s="53"/>
-      <c r="AI115" s="53"/>
-      <c r="AJ115" s="53"/>
-      <c r="AK115" s="53"/>
-      <c r="AL115" s="53"/>
-      <c r="AM115" s="53"/>
-      <c r="AN115" s="53"/>
-      <c r="AO115" s="53"/>
-      <c r="AP115" s="53"/>
-      <c r="AQ115" s="53"/>
-      <c r="AR115" s="53"/>
       <c r="AS115" s="6"/>
     </row>
     <row r="116" spans="6:45" x14ac:dyDescent="0.25">
@@ -6563,27 +8055,12 @@
       </c>
       <c r="O116" s="6"/>
       <c r="AA116" s="5"/>
-      <c r="AB116" s="53"/>
-      <c r="AC116" s="53"/>
-      <c r="AD116" s="55">
+      <c r="AD116" s="42">
         <v>0.33644268114059583</v>
       </c>
-      <c r="AE116" s="53">
+      <c r="AE116">
         <v>0</v>
       </c>
-      <c r="AF116" s="53"/>
-      <c r="AG116" s="53"/>
-      <c r="AH116" s="53"/>
-      <c r="AI116" s="53"/>
-      <c r="AJ116" s="53"/>
-      <c r="AK116" s="53"/>
-      <c r="AL116" s="53"/>
-      <c r="AM116" s="53"/>
-      <c r="AN116" s="53"/>
-      <c r="AO116" s="53"/>
-      <c r="AP116" s="53"/>
-      <c r="AQ116" s="53"/>
-      <c r="AR116" s="53"/>
       <c r="AS116" s="6"/>
     </row>
     <row r="117" spans="6:45" x14ac:dyDescent="0.25">
@@ -6610,27 +8087,12 @@
       </c>
       <c r="O117" s="6"/>
       <c r="AA117" s="5"/>
-      <c r="AB117" s="53"/>
-      <c r="AC117" s="53"/>
-      <c r="AD117" s="55">
+      <c r="AD117" s="42">
         <v>1.7520140820994703</v>
       </c>
-      <c r="AE117" s="53">
+      <c r="AE117">
         <v>2</v>
       </c>
-      <c r="AF117" s="53"/>
-      <c r="AG117" s="53"/>
-      <c r="AH117" s="53"/>
-      <c r="AI117" s="53"/>
-      <c r="AJ117" s="53"/>
-      <c r="AK117" s="53"/>
-      <c r="AL117" s="53"/>
-      <c r="AM117" s="53"/>
-      <c r="AN117" s="53"/>
-      <c r="AO117" s="53"/>
-      <c r="AP117" s="53"/>
-      <c r="AQ117" s="53"/>
-      <c r="AR117" s="53"/>
       <c r="AS117" s="6"/>
     </row>
     <row r="118" spans="6:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6868,25 +8330,6 @@
     <sortCondition ref="Q41:Q62"/>
   </sortState>
   <mergeCells count="35">
-    <mergeCell ref="S86:S87"/>
-    <mergeCell ref="T86:U87"/>
-    <mergeCell ref="S74:S75"/>
-    <mergeCell ref="T74:T75"/>
-    <mergeCell ref="U74:U75"/>
-    <mergeCell ref="S78:S79"/>
-    <mergeCell ref="T78:U79"/>
-    <mergeCell ref="AH67:AH68"/>
-    <mergeCell ref="T82:W83"/>
-    <mergeCell ref="T84:W84"/>
-    <mergeCell ref="T80:U80"/>
-    <mergeCell ref="S82:S83"/>
-    <mergeCell ref="AG67:AG68"/>
-    <mergeCell ref="AA72:AF72"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="R4:T4"/>
     <mergeCell ref="F101:L101"/>
     <mergeCell ref="V4:X4"/>
     <mergeCell ref="F2:G2"/>
@@ -6903,6 +8346,25 @@
     <mergeCell ref="AB30:AC30"/>
     <mergeCell ref="AA38:AD38"/>
     <mergeCell ref="F72:L72"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="AH67:AH68"/>
+    <mergeCell ref="T82:W83"/>
+    <mergeCell ref="T84:W84"/>
+    <mergeCell ref="T80:U80"/>
+    <mergeCell ref="S82:S83"/>
+    <mergeCell ref="AG67:AG68"/>
+    <mergeCell ref="AA72:AF72"/>
+    <mergeCell ref="S86:S87"/>
+    <mergeCell ref="T86:U87"/>
+    <mergeCell ref="S74:S75"/>
+    <mergeCell ref="T74:T75"/>
+    <mergeCell ref="U74:U75"/>
+    <mergeCell ref="S78:S79"/>
+    <mergeCell ref="T78:U79"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tarea1/doc/ExcelEmpleadoPunto1/Tarea1Estadistica320232.xlsx
+++ b/Tarea1/doc/ExcelEmpleadoPunto1/Tarea1Estadistica320232.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Miguel Rios\Desktop\Tarea1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2563D76C-7821-4683-96F9-5A3659FE87A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20E8B2D-2102-4575-80BC-0FAB27059AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,9 @@
     <sheet name="Respuestas" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Respuestas!$H$41:$H$61</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Respuestas!$G$41:$G$61</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Respuestas!$I$41:$I$61</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Respuestas!$I$41:$I$61</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Respuestas!$I$41:$I$61</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Respuestas!$H$41:$H$61</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Respuestas!$G$41:$G$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="74">
   <si>
     <t>Set de datos</t>
   </si>
@@ -230,28 +229,40 @@
     <t>Punto 1.4 CORRELACION X1 Y X2 - USANDO FORMULA 2</t>
   </si>
   <si>
-    <t>k=3</t>
+    <t>Inicialización</t>
   </si>
   <si>
-    <t>Aleatorios</t>
+    <t>CentroideX1</t>
   </si>
   <si>
-    <t>Centroide X1</t>
+    <t>CentroideX2</t>
   </si>
   <si>
-    <t>Centroide X2</t>
+    <t>CentroideX3</t>
   </si>
   <si>
-    <t>Centroide X3</t>
+    <t>Nuevas Etiquetas</t>
   </si>
   <si>
-    <t>DistanciaC1_3</t>
+    <t>Distancia_centroide1_3</t>
   </si>
   <si>
-    <t>DistanciaC1_2</t>
+    <t>Distancia_centroide2_2</t>
   </si>
   <si>
-    <t>Punto 1.6 IN PROGRESS - DUDAS</t>
+    <t>Distancia_centroide3_1</t>
+  </si>
+  <si>
+    <t>Distancia_centroide4_0</t>
+  </si>
+  <si>
+    <t>CentroideX1_it2</t>
+  </si>
+  <si>
+    <t>CentroideX2_it2</t>
+  </si>
+  <si>
+    <t>CentroideX3_it2</t>
   </si>
 </sst>
 </file>
@@ -324,7 +335,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -646,35 +657,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -758,23 +745,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -786,32 +775,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -835,7 +809,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -900,7 +874,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -965,7 +939,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2660,8 +2634,8 @@
       <xdr:rowOff>143640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>673362</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>882912</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>34638</xdr:rowOff>
     </xdr:to>
@@ -2710,8 +2684,8 @@
       <xdr:rowOff>150038</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>196549</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>929974</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>121227</xdr:rowOff>
     </xdr:to>
@@ -2760,8 +2734,8 @@
       <xdr:rowOff>129135</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>87793</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>487843</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>103911</xdr:rowOff>
     </xdr:to>
@@ -2860,8 +2834,8 @@
       <xdr:rowOff>35859</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>420445</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>515695</xdr:colOff>
       <xdr:row>95</xdr:row>
       <xdr:rowOff>74097</xdr:rowOff>
     </xdr:to>
@@ -2911,9 +2885,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1409706</xdr:colOff>
+      <xdr:colOff>1171581</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>40445</xdr:rowOff>
+      <xdr:rowOff>57764</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3446,24 +3420,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS127"/>
+  <dimension ref="A1:AQ156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U65" sqref="U65"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U150" sqref="U150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.42578125" customWidth="1"/>
-    <col min="20" max="20" width="17" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.5703125" customWidth="1"/>
+    <col min="20" max="20" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.85546875" customWidth="1"/>
     <col min="32" max="32" width="13.28515625" customWidth="1"/>
     <col min="33" max="33" width="20" customWidth="1"/>
@@ -3474,16 +3451,16 @@
   <sheetData>
     <row r="1" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="F2" s="56" t="s">
+      <c r="A2" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="F2" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="58"/>
+      <c r="G2" s="43"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -3516,41 +3493,41 @@
       <c r="AG3" s="6"/>
     </row>
     <row r="4" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
       <c r="F4" s="5"/>
-      <c r="H4" s="56" t="s">
+      <c r="H4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="58"/>
-      <c r="M4" s="56" t="s">
+      <c r="I4" s="42"/>
+      <c r="J4" s="43"/>
+      <c r="M4" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="57"/>
-      <c r="O4" s="58"/>
-      <c r="R4" s="56" t="s">
+      <c r="N4" s="42"/>
+      <c r="O4" s="43"/>
+      <c r="R4" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="S4" s="57"/>
-      <c r="T4" s="58"/>
-      <c r="V4" s="56" t="s">
+      <c r="S4" s="42"/>
+      <c r="T4" s="43"/>
+      <c r="V4" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="W4" s="57"/>
-      <c r="X4" s="58"/>
-      <c r="Z4" s="56" t="s">
+      <c r="W4" s="42"/>
+      <c r="X4" s="43"/>
+      <c r="Z4" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="AA4" s="57"/>
-      <c r="AB4" s="57"/>
-      <c r="AC4" s="57"/>
-      <c r="AD4" s="57"/>
-      <c r="AE4" s="57"/>
-      <c r="AF4" s="58"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="43"/>
       <c r="AG4" s="6"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
@@ -5005,10 +4982,10 @@
     </row>
     <row r="30" spans="2:33" x14ac:dyDescent="0.25">
       <c r="F30" s="5"/>
-      <c r="AB30" s="51" t="s">
+      <c r="AB30" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AC30" s="51"/>
+      <c r="AC30" s="45"/>
       <c r="AD30" s="10">
         <f>SUM(AD8:AD28)</f>
         <v>46.666666666666671</v>
@@ -5025,19 +5002,19 @@
     </row>
     <row r="31" spans="2:33" x14ac:dyDescent="0.25">
       <c r="F31" s="5"/>
-      <c r="AB31" s="59" t="s">
+      <c r="AB31" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AC31" s="59"/>
-      <c r="AD31" s="51">
+      <c r="AC31" s="44"/>
+      <c r="AD31" s="45">
         <f>AD30/AA6</f>
         <v>2.2222222222222223</v>
       </c>
-      <c r="AE31" s="51">
+      <c r="AE31" s="45">
         <f>AE30/AA6</f>
         <v>6.5306122448979576</v>
       </c>
-      <c r="AF31" s="51">
+      <c r="AF31" s="45">
         <f>AF30/AA6</f>
         <v>314.80725623582765</v>
       </c>
@@ -5045,28 +5022,28 @@
     </row>
     <row r="32" spans="2:33" x14ac:dyDescent="0.25">
       <c r="F32" s="5"/>
-      <c r="AB32" s="59"/>
-      <c r="AC32" s="59"/>
-      <c r="AD32" s="51"/>
-      <c r="AE32" s="51"/>
-      <c r="AF32" s="51"/>
+      <c r="AB32" s="44"/>
+      <c r="AC32" s="44"/>
+      <c r="AD32" s="45"/>
+      <c r="AE32" s="45"/>
+      <c r="AF32" s="45"/>
       <c r="AG32" s="6"/>
     </row>
     <row r="33" spans="6:43" x14ac:dyDescent="0.25">
       <c r="F33" s="5"/>
-      <c r="AB33" s="59" t="s">
+      <c r="AB33" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AC33" s="59"/>
-      <c r="AD33" s="51">
+      <c r="AC33" s="44"/>
+      <c r="AD33" s="45">
         <f>SQRT(AD31)</f>
         <v>1.4907119849998598</v>
       </c>
-      <c r="AE33" s="51">
+      <c r="AE33" s="45">
         <f>SQRT(AE31)</f>
         <v>2.5555062599997593</v>
       </c>
-      <c r="AF33" s="51">
+      <c r="AF33" s="45">
         <f>SQRT(AF31)</f>
         <v>17.742808578007814</v>
       </c>
@@ -5074,11 +5051,11 @@
     </row>
     <row r="34" spans="6:43" x14ac:dyDescent="0.25">
       <c r="F34" s="5"/>
-      <c r="AB34" s="59"/>
-      <c r="AC34" s="59"/>
-      <c r="AD34" s="51"/>
-      <c r="AE34" s="51"/>
-      <c r="AF34" s="51"/>
+      <c r="AB34" s="44"/>
+      <c r="AC34" s="44"/>
+      <c r="AD34" s="45"/>
+      <c r="AE34" s="45"/>
+      <c r="AF34" s="45"/>
       <c r="AG34" s="6"/>
     </row>
     <row r="35" spans="6:43" x14ac:dyDescent="0.25">
@@ -5117,10 +5094,10 @@
     </row>
     <row r="37" spans="6:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="6:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F38" s="56" t="s">
+      <c r="F38" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="G38" s="58"/>
+      <c r="G38" s="43"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -5139,12 +5116,12 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="4"/>
-      <c r="AA38" s="56" t="s">
+      <c r="AA38" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AB38" s="57"/>
-      <c r="AC38" s="57"/>
-      <c r="AD38" s="58"/>
+      <c r="AB38" s="42"/>
+      <c r="AC38" s="42"/>
+      <c r="AD38" s="43"/>
       <c r="AE38" s="3"/>
       <c r="AF38" s="3"/>
       <c r="AG38" s="3"/>
@@ -5958,7 +5935,7 @@
       </c>
       <c r="AQ64" s="6"/>
     </row>
-    <row r="65" spans="6:45" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:43" x14ac:dyDescent="0.25">
       <c r="F65" s="12" t="s">
         <v>24</v>
       </c>
@@ -5985,7 +5962,7 @@
       </c>
       <c r="AQ65" s="6"/>
     </row>
-    <row r="66" spans="6:45" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:43" x14ac:dyDescent="0.25">
       <c r="F66" s="12" t="s">
         <v>25</v>
       </c>
@@ -6005,7 +5982,7 @@
       <c r="AA66" s="5"/>
       <c r="AQ66" s="6"/>
     </row>
-    <row r="67" spans="6:45" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:43" x14ac:dyDescent="0.25">
       <c r="F67" s="12" t="s">
         <v>26</v>
       </c>
@@ -6023,7 +6000,7 @@
       </c>
       <c r="Y67" s="6"/>
       <c r="AA67" s="5"/>
-      <c r="AG67" s="45" t="s">
+      <c r="AG67" s="52" t="s">
         <v>49</v>
       </c>
       <c r="AH67" s="48">
@@ -6032,7 +6009,7 @@
       </c>
       <c r="AQ67" s="6"/>
     </row>
-    <row r="68" spans="6:45" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:43" x14ac:dyDescent="0.25">
       <c r="F68" s="12" t="s">
         <v>27</v>
       </c>
@@ -6050,11 +6027,11 @@
       </c>
       <c r="Y68" s="6"/>
       <c r="AA68" s="5"/>
-      <c r="AG68" s="45"/>
+      <c r="AG68" s="52"/>
       <c r="AH68" s="49"/>
       <c r="AQ68" s="6"/>
     </row>
-    <row r="69" spans="6:45" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:43" x14ac:dyDescent="0.25">
       <c r="F69" s="12" t="s">
         <v>28</v>
       </c>
@@ -6074,7 +6051,7 @@
       <c r="AA69" s="5"/>
       <c r="AQ69" s="6"/>
     </row>
-    <row r="70" spans="6:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="6:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F70" s="13" t="s">
         <v>29</v>
       </c>
@@ -6124,17 +6101,17 @@
       <c r="AP70" s="8"/>
       <c r="AQ70" s="9"/>
     </row>
-    <row r="71" spans="6:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="6:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F72" s="56" t="s">
+    <row r="71" spans="6:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="6:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F72" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="G72" s="57"/>
-      <c r="H72" s="57"/>
-      <c r="I72" s="57"/>
-      <c r="J72" s="57"/>
-      <c r="K72" s="57"/>
-      <c r="L72" s="58"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="42"/>
+      <c r="L72" s="43"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
@@ -6148,67 +6125,12 @@
       <c r="W72" s="3"/>
       <c r="X72" s="3"/>
       <c r="Y72" s="4"/>
-      <c r="AA72" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB72" s="53"/>
-      <c r="AC72" s="53"/>
-      <c r="AD72" s="53"/>
-      <c r="AE72" s="53"/>
-      <c r="AF72" s="53"/>
-      <c r="AG72" s="3"/>
-      <c r="AH72" s="3"/>
-      <c r="AI72" s="3"/>
-      <c r="AJ72" s="3"/>
-      <c r="AK72" s="3"/>
-      <c r="AL72" s="3"/>
-      <c r="AM72" s="3"/>
-      <c r="AN72" s="3"/>
-      <c r="AO72" s="3"/>
-      <c r="AP72" s="3"/>
-      <c r="AQ72" s="3"/>
-      <c r="AR72" s="3"/>
-      <c r="AS72" s="4"/>
-    </row>
-    <row r="73" spans="6:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="6:43" x14ac:dyDescent="0.25">
       <c r="F73" s="5"/>
       <c r="Y73" s="6"/>
-      <c r="AA73" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB73" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD73" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE73" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF73" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG73" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH73" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI73" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK73" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL73" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM73" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS73" s="6"/>
-    </row>
-    <row r="74" spans="6:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="6:43" x14ac:dyDescent="0.25">
       <c r="F74" s="5"/>
       <c r="G74" s="1" t="s">
         <v>2</v>
@@ -6237,55 +6159,18 @@
       <c r="Q74" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="S74" s="45" t="s">
+      <c r="S74" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="T74" s="47" t="s">
+      <c r="T74" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="U74" s="47" t="s">
+      <c r="U74" s="53" t="s">
         <v>44</v>
       </c>
       <c r="Y74" s="6"/>
-      <c r="AA74" s="39">
-        <v>1</v>
-      </c>
-      <c r="AB74" s="10">
-        <f ca="1">RAND()*2</f>
-        <v>0.69392712363603026</v>
-      </c>
-      <c r="AD74" s="2">
-        <v>4</v>
-      </c>
-      <c r="AE74" s="2">
-        <v>4</v>
-      </c>
-      <c r="AF74" s="2">
-        <v>28</v>
-      </c>
-      <c r="AG74">
-        <f>AVERAGE(AD74:AD80)</f>
-        <v>2.5714285714285716</v>
-      </c>
-      <c r="AH74">
-        <f>AVERAGE(AE74:AE80)</f>
-        <v>4.4285714285714288</v>
-      </c>
-      <c r="AI74">
-        <f>AVERAGE(AF74:AF80)</f>
-        <v>31</v>
-      </c>
-      <c r="AK74">
-        <f>((AD74-$AG$74)^2+(AE74-$AH$74)^2+(AF74-$AI$74)^2)^0.5</f>
-        <v>3.3502969713024493</v>
-      </c>
-      <c r="AL74">
-        <f>((AD74-$AG$74)^2+(AE74-$AH$74)^2+(AF74-$AI$74)^2)^0.5</f>
-        <v>3.3502969713024493</v>
-      </c>
-      <c r="AS74" s="6"/>
-    </row>
-    <row r="75" spans="6:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="6:43" x14ac:dyDescent="0.25">
       <c r="F75" s="5"/>
       <c r="G75" s="2">
         <v>4</v>
@@ -6313,33 +6198,12 @@
         <f>L75^2</f>
         <v>0.18367346938775531</v>
       </c>
-      <c r="S75" s="45"/>
-      <c r="T75" s="47"/>
-      <c r="U75" s="47"/>
+      <c r="S75" s="52"/>
+      <c r="T75" s="53"/>
+      <c r="U75" s="53"/>
       <c r="Y75" s="6"/>
-      <c r="AA75" s="39">
-        <v>2</v>
-      </c>
-      <c r="AB75" s="10">
-        <f t="shared" ref="AB75:AB94" ca="1" si="16">RAND()*2</f>
-        <v>0.41393244755615988</v>
-      </c>
-      <c r="AD75" s="2">
-        <v>2</v>
-      </c>
-      <c r="AE75" s="2">
-        <v>3</v>
-      </c>
-      <c r="AF75" s="2">
-        <v>24</v>
-      </c>
-      <c r="AK75">
-        <f t="shared" ref="AK75:AK94" si="17">((AD75-$AG$74)^2+(AE75-$AH$74)^2+(AF75-$AI$74)^2)^0.5</f>
-        <v>7.1671017112062465</v>
-      </c>
-      <c r="AS75" s="6"/>
-    </row>
-    <row r="76" spans="6:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="6:43" x14ac:dyDescent="0.25">
       <c r="F76" s="5"/>
       <c r="G76" s="2">
         <v>2</v>
@@ -6348,23 +6212,23 @@
         <v>3</v>
       </c>
       <c r="K76" s="10">
-        <f t="shared" ref="K76:K95" si="18">G76-$G$97</f>
+        <f t="shared" ref="K76:K95" si="16">G76-$G$97</f>
         <v>-0.33333333333333348</v>
       </c>
       <c r="L76" s="10">
-        <f t="shared" ref="L76:L95" si="19">H76-$H$97</f>
+        <f t="shared" ref="L76:L95" si="17">H76-$H$97</f>
         <v>-1.4285714285714288</v>
       </c>
       <c r="M76" s="10">
-        <f t="shared" ref="M76:M95" si="20">K76*L76</f>
+        <f t="shared" ref="M76:M95" si="18">K76*L76</f>
         <v>0.4761904761904765</v>
       </c>
       <c r="P76" s="10">
-        <f t="shared" ref="P76:P95" si="21">K76^2</f>
+        <f t="shared" ref="P76:P95" si="19">K76^2</f>
         <v>0.11111111111111122</v>
       </c>
       <c r="Q76" s="10">
-        <f t="shared" ref="Q76:Q95" si="22">L76^2</f>
+        <f t="shared" ref="Q76:Q95" si="20">L76^2</f>
         <v>2.0408163265306132</v>
       </c>
       <c r="T76" s="10">
@@ -6376,29 +6240,8 @@
         <v>11.710800875382398</v>
       </c>
       <c r="Y76" s="6"/>
-      <c r="AA76" s="39">
-        <v>3</v>
-      </c>
-      <c r="AB76" s="10">
-        <f t="shared" ca="1" si="16"/>
-        <v>0.60041304825382458</v>
-      </c>
-      <c r="AD76" s="2">
-        <v>2</v>
-      </c>
-      <c r="AE76" s="2">
-        <v>4</v>
-      </c>
-      <c r="AF76" s="2">
-        <v>30</v>
-      </c>
-      <c r="AK76">
-        <f t="shared" si="17"/>
-        <v>1.2289036095775183</v>
-      </c>
-      <c r="AS76" s="6"/>
-    </row>
-    <row r="77" spans="6:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="6:43" x14ac:dyDescent="0.25">
       <c r="F77" s="5"/>
       <c r="G77" s="2">
         <v>2</v>
@@ -6407,49 +6250,28 @@
         <v>4</v>
       </c>
       <c r="K77" s="10">
+        <f t="shared" si="16"/>
+        <v>-0.33333333333333348</v>
+      </c>
+      <c r="L77" s="10">
+        <f t="shared" si="17"/>
+        <v>-0.42857142857142883</v>
+      </c>
+      <c r="M77" s="10">
         <f t="shared" si="18"/>
-        <v>-0.33333333333333348</v>
-      </c>
-      <c r="L77" s="10">
+        <v>0.14285714285714302</v>
+      </c>
+      <c r="P77" s="10">
         <f t="shared" si="19"/>
-        <v>-0.42857142857142883</v>
-      </c>
-      <c r="M77" s="10">
+        <v>0.11111111111111122</v>
+      </c>
+      <c r="Q77" s="10">
         <f t="shared" si="20"/>
-        <v>0.14285714285714302</v>
-      </c>
-      <c r="P77" s="10">
-        <f t="shared" si="21"/>
-        <v>0.11111111111111122</v>
-      </c>
-      <c r="Q77" s="10">
-        <f t="shared" si="22"/>
         <v>0.18367346938775531</v>
       </c>
       <c r="Y77" s="6"/>
-      <c r="AA77" s="39">
-        <v>4</v>
-      </c>
-      <c r="AB77" s="10">
-        <f t="shared" ca="1" si="16"/>
-        <v>1.4063097967654088</v>
-      </c>
-      <c r="AD77" s="2">
-        <v>3</v>
-      </c>
-      <c r="AE77" s="2">
-        <v>5</v>
-      </c>
-      <c r="AF77" s="2">
-        <v>32</v>
-      </c>
-      <c r="AK77">
-        <f t="shared" si="17"/>
-        <v>1.2289036095775179</v>
-      </c>
-      <c r="AS77" s="6"/>
-    </row>
-    <row r="78" spans="6:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="6:43" x14ac:dyDescent="0.25">
       <c r="F78" s="5"/>
       <c r="G78" s="2">
         <v>3</v>
@@ -6458,56 +6280,35 @@
         <v>5</v>
       </c>
       <c r="K78" s="10">
+        <f t="shared" si="16"/>
+        <v>0.66666666666666652</v>
+      </c>
+      <c r="L78" s="10">
+        <f t="shared" si="17"/>
+        <v>0.57142857142857117</v>
+      </c>
+      <c r="M78" s="10">
         <f t="shared" si="18"/>
-        <v>0.66666666666666652</v>
-      </c>
-      <c r="L78" s="10">
+        <v>0.38095238095238071</v>
+      </c>
+      <c r="P78" s="10">
         <f t="shared" si="19"/>
-        <v>0.57142857142857117</v>
-      </c>
-      <c r="M78" s="10">
+        <v>0.44444444444444425</v>
+      </c>
+      <c r="Q78" s="10">
         <f t="shared" si="20"/>
-        <v>0.38095238095238071</v>
-      </c>
-      <c r="P78" s="10">
-        <f t="shared" si="21"/>
-        <v>0.44444444444444425</v>
-      </c>
-      <c r="Q78" s="10">
-        <f t="shared" si="22"/>
         <v>0.32653061224489766</v>
       </c>
-      <c r="S78" s="45" t="s">
+      <c r="S78" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="T78" s="47" t="s">
+      <c r="T78" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="U78" s="47"/>
+      <c r="U78" s="53"/>
       <c r="Y78" s="6"/>
-      <c r="AA78" s="39">
-        <v>5</v>
-      </c>
-      <c r="AB78" s="10">
-        <f t="shared" ca="1" si="16"/>
-        <v>0.47353140767826352</v>
-      </c>
-      <c r="AD78" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE78" s="2">
-        <v>3</v>
-      </c>
-      <c r="AF78" s="2">
-        <v>18</v>
-      </c>
-      <c r="AK78">
-        <f t="shared" si="17"/>
-        <v>13.172327208266299</v>
-      </c>
-      <c r="AS78" s="6"/>
-    </row>
-    <row r="79" spans="6:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="6:43" x14ac:dyDescent="0.25">
       <c r="F79" s="5"/>
       <c r="G79" s="2">
         <v>1</v>
@@ -6516,52 +6317,31 @@
         <v>3</v>
       </c>
       <c r="K79" s="10">
+        <f t="shared" si="16"/>
+        <v>-1.3333333333333335</v>
+      </c>
+      <c r="L79" s="10">
+        <f t="shared" si="17"/>
+        <v>-1.4285714285714288</v>
+      </c>
+      <c r="M79" s="10">
         <f t="shared" si="18"/>
-        <v>-1.3333333333333335</v>
-      </c>
-      <c r="L79" s="10">
+        <v>1.9047619047619053</v>
+      </c>
+      <c r="P79" s="10">
         <f t="shared" si="19"/>
-        <v>-1.4285714285714288</v>
-      </c>
-      <c r="M79" s="10">
+        <v>1.7777777777777781</v>
+      </c>
+      <c r="Q79" s="10">
         <f t="shared" si="20"/>
-        <v>1.9047619047619053</v>
-      </c>
-      <c r="P79" s="10">
-        <f t="shared" si="21"/>
-        <v>1.7777777777777781</v>
-      </c>
-      <c r="Q79" s="10">
-        <f t="shared" si="22"/>
         <v>2.0408163265306132</v>
       </c>
-      <c r="S79" s="45"/>
-      <c r="T79" s="47"/>
-      <c r="U79" s="47"/>
+      <c r="S79" s="52"/>
+      <c r="T79" s="53"/>
+      <c r="U79" s="53"/>
       <c r="Y79" s="6"/>
-      <c r="AA79" s="39">
-        <v>6</v>
-      </c>
-      <c r="AB79" s="10">
-        <f t="shared" ca="1" si="16"/>
-        <v>0.2655146225234879</v>
-      </c>
-      <c r="AD79" s="2">
-        <v>3</v>
-      </c>
-      <c r="AE79" s="2">
-        <v>6</v>
-      </c>
-      <c r="AF79" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK79">
-        <f t="shared" si="17"/>
-        <v>10.13178470085551</v>
-      </c>
-      <c r="AS79" s="6"/>
-    </row>
-    <row r="80" spans="6:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="6:43" x14ac:dyDescent="0.25">
       <c r="F80" s="5"/>
       <c r="G80" s="2">
         <v>3</v>
@@ -6570,54 +6350,33 @@
         <v>6</v>
       </c>
       <c r="K80" s="10">
+        <f t="shared" si="16"/>
+        <v>0.66666666666666652</v>
+      </c>
+      <c r="L80" s="10">
+        <f t="shared" si="17"/>
+        <v>1.5714285714285712</v>
+      </c>
+      <c r="M80" s="10">
         <f t="shared" si="18"/>
-        <v>0.66666666666666652</v>
-      </c>
-      <c r="L80" s="10">
+        <v>1.0476190476190472</v>
+      </c>
+      <c r="P80" s="10">
         <f t="shared" si="19"/>
-        <v>1.5714285714285712</v>
-      </c>
-      <c r="M80" s="10">
+        <v>0.44444444444444425</v>
+      </c>
+      <c r="Q80" s="10">
         <f t="shared" si="20"/>
-        <v>1.0476190476190472</v>
-      </c>
-      <c r="P80" s="10">
-        <f t="shared" si="21"/>
-        <v>0.44444444444444425</v>
-      </c>
-      <c r="Q80" s="10">
-        <f t="shared" si="22"/>
         <v>2.4693877551020402</v>
       </c>
-      <c r="T80" s="51">
+      <c r="T80" s="45">
         <f>T76*U76</f>
         <v>80.000000000000014</v>
       </c>
-      <c r="U80" s="51"/>
+      <c r="U80" s="45"/>
       <c r="Y80" s="6"/>
-      <c r="AA80" s="39">
-        <v>7</v>
-      </c>
-      <c r="AB80" s="10">
-        <f t="shared" ca="1" si="16"/>
-        <v>1.4695745876101434</v>
-      </c>
-      <c r="AD80" s="2">
-        <v>3</v>
-      </c>
-      <c r="AE80" s="2">
-        <v>6</v>
-      </c>
-      <c r="AF80" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK80">
-        <f t="shared" si="17"/>
-        <v>13.101643455097143</v>
-      </c>
-      <c r="AS80" s="6"/>
-    </row>
-    <row r="81" spans="6:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F81" s="5"/>
       <c r="G81" s="2">
         <v>3</v>
@@ -6626,61 +6385,28 @@
         <v>6</v>
       </c>
       <c r="K81" s="10">
+        <f t="shared" si="16"/>
+        <v>0.66666666666666652</v>
+      </c>
+      <c r="L81" s="10">
+        <f t="shared" si="17"/>
+        <v>1.5714285714285712</v>
+      </c>
+      <c r="M81" s="10">
         <f t="shared" si="18"/>
-        <v>0.66666666666666652</v>
-      </c>
-      <c r="L81" s="10">
+        <v>1.0476190476190472</v>
+      </c>
+      <c r="P81" s="10">
         <f t="shared" si="19"/>
-        <v>1.5714285714285712</v>
-      </c>
-      <c r="M81" s="10">
+        <v>0.44444444444444425</v>
+      </c>
+      <c r="Q81" s="10">
         <f t="shared" si="20"/>
-        <v>1.0476190476190472</v>
-      </c>
-      <c r="P81" s="10">
-        <f t="shared" si="21"/>
-        <v>0.44444444444444425</v>
-      </c>
-      <c r="Q81" s="10">
-        <f t="shared" si="22"/>
         <v>2.4693877551020402</v>
       </c>
       <c r="Y81" s="6"/>
-      <c r="AA81" s="39">
-        <v>8</v>
-      </c>
-      <c r="AB81" s="10">
-        <f t="shared" ca="1" si="16"/>
-        <v>1.6628349354802876</v>
-      </c>
-      <c r="AD81" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE81" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF81" s="2">
-        <v>5</v>
-      </c>
-      <c r="AG81">
-        <f>AVERAGE(AD81:AD87)</f>
-        <v>1.4285714285714286</v>
-      </c>
-      <c r="AH81">
-        <f>AVERAGE(AE81:AE87)</f>
-        <v>3</v>
-      </c>
-      <c r="AI81">
-        <f>AVERAGE(AF81:AF87)</f>
-        <v>20.857142857142858</v>
-      </c>
-      <c r="AK81">
-        <f t="shared" si="17"/>
-        <v>26.35085097181447</v>
-      </c>
-      <c r="AS81" s="6"/>
-    </row>
-    <row r="82" spans="6:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="6:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F82" s="5"/>
       <c r="G82" s="2">
         <v>0</v>
@@ -6689,26 +6415,26 @@
         <v>1</v>
       </c>
       <c r="K82" s="10">
+        <f t="shared" si="16"/>
+        <v>-2.3333333333333335</v>
+      </c>
+      <c r="L82" s="10">
+        <f t="shared" si="17"/>
+        <v>-3.4285714285714288</v>
+      </c>
+      <c r="M82" s="10">
         <f t="shared" si="18"/>
-        <v>-2.3333333333333335</v>
-      </c>
-      <c r="L82" s="10">
+        <v>8.0000000000000018</v>
+      </c>
+      <c r="P82" s="10">
         <f t="shared" si="19"/>
-        <v>-3.4285714285714288</v>
-      </c>
-      <c r="M82" s="10">
+        <v>5.4444444444444455</v>
+      </c>
+      <c r="Q82" s="10">
         <f t="shared" si="20"/>
-        <v>8.0000000000000018</v>
-      </c>
-      <c r="P82" s="10">
-        <f t="shared" si="21"/>
-        <v>5.4444444444444455</v>
-      </c>
-      <c r="Q82" s="10">
-        <f t="shared" si="22"/>
         <v>11.755102040816329</v>
       </c>
-      <c r="S82" s="45" t="s">
+      <c r="S82" s="52" t="s">
         <v>46</v>
       </c>
       <c r="T82" s="50" t="s">
@@ -6718,29 +6444,8 @@
       <c r="V82" s="50"/>
       <c r="W82" s="50"/>
       <c r="Y82" s="6"/>
-      <c r="AA82" s="39">
-        <v>9</v>
-      </c>
-      <c r="AB82" s="10">
-        <f t="shared" ca="1" si="16"/>
-        <v>0.65718529300374806</v>
-      </c>
-      <c r="AD82" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE82" s="2">
-        <v>3</v>
-      </c>
-      <c r="AF82" s="2">
-        <v>18</v>
-      </c>
-      <c r="AK82">
-        <f t="shared" si="17"/>
-        <v>13.172327208266299</v>
-      </c>
-      <c r="AS82" s="6"/>
-    </row>
-    <row r="83" spans="6:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F83" s="5"/>
       <c r="G83" s="2">
         <v>1</v>
@@ -6749,54 +6454,33 @@
         <v>3</v>
       </c>
       <c r="K83" s="10">
+        <f t="shared" si="16"/>
+        <v>-1.3333333333333335</v>
+      </c>
+      <c r="L83" s="10">
+        <f t="shared" si="17"/>
+        <v>-1.4285714285714288</v>
+      </c>
+      <c r="M83" s="10">
         <f t="shared" si="18"/>
-        <v>-1.3333333333333335</v>
-      </c>
-      <c r="L83" s="10">
+        <v>1.9047619047619053</v>
+      </c>
+      <c r="P83" s="10">
         <f t="shared" si="19"/>
-        <v>-1.4285714285714288</v>
-      </c>
-      <c r="M83" s="10">
+        <v>1.7777777777777781</v>
+      </c>
+      <c r="Q83" s="10">
         <f t="shared" si="20"/>
-        <v>1.9047619047619053</v>
-      </c>
-      <c r="P83" s="10">
-        <f t="shared" si="21"/>
-        <v>1.7777777777777781</v>
-      </c>
-      <c r="Q83" s="10">
-        <f t="shared" si="22"/>
         <v>2.0408163265306132</v>
       </c>
-      <c r="S83" s="45"/>
+      <c r="S83" s="52"/>
       <c r="T83" s="50"/>
       <c r="U83" s="50"/>
       <c r="V83" s="50"/>
       <c r="W83" s="50"/>
       <c r="Y83" s="6"/>
-      <c r="AA83" s="39">
-        <v>10</v>
-      </c>
-      <c r="AB83" s="10">
-        <f t="shared" ca="1" si="16"/>
-        <v>1.8443061608026801</v>
-      </c>
-      <c r="AD83" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE83" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF83" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK83">
-        <f t="shared" si="17"/>
-        <v>30.433936482090488</v>
-      </c>
-      <c r="AS83" s="6"/>
-    </row>
-    <row r="84" spans="6:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F84" s="5"/>
       <c r="G84" s="2">
         <v>0</v>
@@ -6805,56 +6489,35 @@
         <v>0</v>
       </c>
       <c r="K84" s="10">
+        <f t="shared" si="16"/>
+        <v>-2.3333333333333335</v>
+      </c>
+      <c r="L84" s="10">
+        <f t="shared" si="17"/>
+        <v>-4.4285714285714288</v>
+      </c>
+      <c r="M84" s="10">
         <f t="shared" si="18"/>
-        <v>-2.3333333333333335</v>
-      </c>
-      <c r="L84" s="10">
+        <v>10.333333333333334</v>
+      </c>
+      <c r="P84" s="10">
         <f t="shared" si="19"/>
-        <v>-4.4285714285714288</v>
-      </c>
-      <c r="M84" s="10">
+        <v>5.4444444444444455</v>
+      </c>
+      <c r="Q84" s="10">
         <f t="shared" si="20"/>
-        <v>10.333333333333334</v>
-      </c>
-      <c r="P84" s="10">
-        <f t="shared" si="21"/>
-        <v>5.4444444444444455</v>
-      </c>
-      <c r="Q84" s="10">
-        <f t="shared" si="22"/>
         <v>19.612244897959187</v>
       </c>
-      <c r="T84" s="46">
+      <c r="T84" s="51">
         <f>M97/T80</f>
         <v>0.93749999999999978</v>
       </c>
-      <c r="U84" s="46"/>
-      <c r="V84" s="46"/>
-      <c r="W84" s="46"/>
+      <c r="U84" s="51"/>
+      <c r="V84" s="51"/>
+      <c r="W84" s="51"/>
       <c r="Y84" s="6"/>
-      <c r="AA84" s="39">
-        <v>11</v>
-      </c>
-      <c r="AB84" s="10">
-        <f t="shared" ca="1" si="16"/>
-        <v>1.3016375319320561</v>
-      </c>
-      <c r="AD84" s="2">
-        <v>5</v>
-      </c>
-      <c r="AE84" s="2">
-        <v>9</v>
-      </c>
-      <c r="AF84" s="2">
-        <v>62</v>
-      </c>
-      <c r="AK84">
-        <f t="shared" si="17"/>
-        <v>31.42922077251275</v>
-      </c>
-      <c r="AS84" s="6"/>
-    </row>
-    <row r="85" spans="6:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F85" s="5"/>
       <c r="G85" s="2">
         <v>5</v>
@@ -6863,49 +6526,28 @@
         <v>9</v>
       </c>
       <c r="K85" s="10">
+        <f t="shared" si="16"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="L85" s="10">
+        <f t="shared" si="17"/>
+        <v>4.5714285714285712</v>
+      </c>
+      <c r="M85" s="10">
         <f t="shared" si="18"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="L85" s="10">
+        <v>12.19047619047619</v>
+      </c>
+      <c r="P85" s="10">
         <f t="shared" si="19"/>
-        <v>4.5714285714285712</v>
-      </c>
-      <c r="M85" s="10">
+        <v>7.1111111111111107</v>
+      </c>
+      <c r="Q85" s="10">
         <f t="shared" si="20"/>
-        <v>12.19047619047619</v>
-      </c>
-      <c r="P85" s="10">
-        <f t="shared" si="21"/>
-        <v>7.1111111111111107</v>
-      </c>
-      <c r="Q85" s="10">
-        <f t="shared" si="22"/>
         <v>20.897959183673468</v>
       </c>
       <c r="Y85" s="6"/>
-      <c r="AA85" s="39">
-        <v>12</v>
-      </c>
-      <c r="AB85" s="10">
-        <f t="shared" ca="1" si="16"/>
-        <v>1.7787232337067711</v>
-      </c>
-      <c r="AD85" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE85" s="2">
-        <v>2</v>
-      </c>
-      <c r="AF85" s="2">
-        <v>17</v>
-      </c>
-      <c r="AK85">
-        <f t="shared" si="17"/>
-        <v>14.295710788162143</v>
-      </c>
-      <c r="AS85" s="6"/>
-    </row>
-    <row r="86" spans="6:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F86" s="5"/>
       <c r="G86" s="2">
         <v>1</v>
@@ -6914,57 +6556,36 @@
         <v>2</v>
       </c>
       <c r="K86" s="10">
+        <f t="shared" si="16"/>
+        <v>-1.3333333333333335</v>
+      </c>
+      <c r="L86" s="10">
+        <f t="shared" si="17"/>
+        <v>-2.4285714285714288</v>
+      </c>
+      <c r="M86" s="10">
         <f t="shared" si="18"/>
-        <v>-1.3333333333333335</v>
-      </c>
-      <c r="L86" s="10">
+        <v>3.2380952380952386</v>
+      </c>
+      <c r="P86" s="10">
         <f t="shared" si="19"/>
-        <v>-2.4285714285714288</v>
-      </c>
-      <c r="M86" s="10">
+        <v>1.7777777777777781</v>
+      </c>
+      <c r="Q86" s="10">
         <f t="shared" si="20"/>
-        <v>3.2380952380952386</v>
-      </c>
-      <c r="P86" s="10">
-        <f t="shared" si="21"/>
-        <v>1.7777777777777781</v>
-      </c>
-      <c r="Q86" s="10">
-        <f t="shared" si="22"/>
         <v>5.8979591836734704</v>
       </c>
-      <c r="S86" s="45" t="s">
+      <c r="S86" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="T86" s="46">
+      <c r="T86" s="51">
         <f>CORREL(G75:G95,H75:H95)</f>
         <v>0.9375</v>
       </c>
-      <c r="U86" s="46"/>
+      <c r="U86" s="51"/>
       <c r="Y86" s="6"/>
-      <c r="AA86" s="39">
-        <v>13</v>
-      </c>
-      <c r="AB86" s="10">
-        <f t="shared" ca="1" si="16"/>
-        <v>1.0933113847796145</v>
-      </c>
-      <c r="AD86" s="2">
-        <v>2</v>
-      </c>
-      <c r="AE86" s="2">
-        <v>3</v>
-      </c>
-      <c r="AF86" s="2">
-        <v>24</v>
-      </c>
-      <c r="AK86">
-        <f t="shared" si="17"/>
-        <v>7.1671017112062465</v>
-      </c>
-      <c r="AS86" s="6"/>
-    </row>
-    <row r="87" spans="6:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F87" s="5"/>
       <c r="G87" s="2">
         <v>2</v>
@@ -6973,52 +6594,31 @@
         <v>3</v>
       </c>
       <c r="K87" s="10">
+        <f t="shared" si="16"/>
+        <v>-0.33333333333333348</v>
+      </c>
+      <c r="L87" s="10">
+        <f t="shared" si="17"/>
+        <v>-1.4285714285714288</v>
+      </c>
+      <c r="M87" s="10">
         <f t="shared" si="18"/>
-        <v>-0.33333333333333348</v>
-      </c>
-      <c r="L87" s="10">
+        <v>0.4761904761904765</v>
+      </c>
+      <c r="P87" s="10">
         <f t="shared" si="19"/>
-        <v>-1.4285714285714288</v>
-      </c>
-      <c r="M87" s="10">
+        <v>0.11111111111111122</v>
+      </c>
+      <c r="Q87" s="10">
         <f t="shared" si="20"/>
-        <v>0.4761904761904765</v>
-      </c>
-      <c r="P87" s="10">
-        <f t="shared" si="21"/>
-        <v>0.11111111111111122</v>
-      </c>
-      <c r="Q87" s="10">
-        <f t="shared" si="22"/>
         <v>2.0408163265306132</v>
       </c>
-      <c r="S87" s="45"/>
-      <c r="T87" s="46"/>
-      <c r="U87" s="46"/>
+      <c r="S87" s="52"/>
+      <c r="T87" s="51"/>
+      <c r="U87" s="51"/>
       <c r="Y87" s="6"/>
-      <c r="AA87" s="39">
-        <v>14</v>
-      </c>
-      <c r="AB87" s="10">
-        <f t="shared" ca="1" si="16"/>
-        <v>0.69522072210606511</v>
-      </c>
-      <c r="AD87" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE87" s="2">
-        <v>3</v>
-      </c>
-      <c r="AF87" s="2">
-        <v>19</v>
-      </c>
-      <c r="AK87">
-        <f t="shared" si="17"/>
-        <v>12.186476278302628</v>
-      </c>
-      <c r="AS87" s="6"/>
-    </row>
-    <row r="88" spans="6:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F88" s="5"/>
       <c r="G88" s="2">
         <v>1</v>
@@ -7027,61 +6627,28 @@
         <v>3</v>
       </c>
       <c r="K88" s="10">
+        <f t="shared" si="16"/>
+        <v>-1.3333333333333335</v>
+      </c>
+      <c r="L88" s="10">
+        <f t="shared" si="17"/>
+        <v>-1.4285714285714288</v>
+      </c>
+      <c r="M88" s="10">
         <f t="shared" si="18"/>
-        <v>-1.3333333333333335</v>
-      </c>
-      <c r="L88" s="10">
+        <v>1.9047619047619053</v>
+      </c>
+      <c r="P88" s="10">
         <f t="shared" si="19"/>
-        <v>-1.4285714285714288</v>
-      </c>
-      <c r="M88" s="10">
+        <v>1.7777777777777781</v>
+      </c>
+      <c r="Q88" s="10">
         <f t="shared" si="20"/>
-        <v>1.9047619047619053</v>
-      </c>
-      <c r="P88" s="10">
-        <f t="shared" si="21"/>
-        <v>1.7777777777777781</v>
-      </c>
-      <c r="Q88" s="10">
-        <f t="shared" si="22"/>
         <v>2.0408163265306132</v>
       </c>
       <c r="Y88" s="6"/>
-      <c r="AA88" s="39">
-        <v>15</v>
-      </c>
-      <c r="AB88" s="10">
-        <f t="shared" ca="1" si="16"/>
-        <v>1.1465316783282162</v>
-      </c>
-      <c r="AD88" s="2">
-        <v>3</v>
-      </c>
-      <c r="AE88" s="2">
-        <v>6</v>
-      </c>
-      <c r="AF88" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG88">
-        <f>AVERAGE(AD88:AD94)</f>
-        <v>3</v>
-      </c>
-      <c r="AH88">
-        <f>AVERAGE(AE88:AE94)</f>
-        <v>5.8571428571428568</v>
-      </c>
-      <c r="AI88">
-        <f>AVERAGE(AF88:AF94)</f>
-        <v>42.285714285714285</v>
-      </c>
-      <c r="AK88">
-        <f t="shared" si="17"/>
-        <v>11.119939803096498</v>
-      </c>
-      <c r="AS88" s="6"/>
-    </row>
-    <row r="89" spans="6:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F89" s="5"/>
       <c r="G89" s="2">
         <v>3</v>
@@ -7090,49 +6657,28 @@
         <v>6</v>
       </c>
       <c r="K89" s="10">
+        <f t="shared" si="16"/>
+        <v>0.66666666666666652</v>
+      </c>
+      <c r="L89" s="10">
+        <f t="shared" si="17"/>
+        <v>1.5714285714285712</v>
+      </c>
+      <c r="M89" s="10">
         <f t="shared" si="18"/>
-        <v>0.66666666666666652</v>
-      </c>
-      <c r="L89" s="10">
+        <v>1.0476190476190472</v>
+      </c>
+      <c r="P89" s="10">
         <f t="shared" si="19"/>
-        <v>1.5714285714285712</v>
-      </c>
-      <c r="M89" s="10">
+        <v>0.44444444444444425</v>
+      </c>
+      <c r="Q89" s="10">
         <f t="shared" si="20"/>
-        <v>1.0476190476190472</v>
-      </c>
-      <c r="P89" s="10">
-        <f t="shared" si="21"/>
-        <v>0.44444444444444425</v>
-      </c>
-      <c r="Q89" s="10">
-        <f t="shared" si="22"/>
         <v>2.4693877551020402</v>
       </c>
       <c r="Y89" s="6"/>
-      <c r="AA89" s="39">
-        <v>16</v>
-      </c>
-      <c r="AB89" s="10">
-        <f t="shared" ca="1" si="16"/>
-        <v>0.38297191016070808</v>
-      </c>
-      <c r="AD89" s="2">
-        <v>4</v>
-      </c>
-      <c r="AE89" s="2">
-        <v>8</v>
-      </c>
-      <c r="AF89" s="2">
-        <v>56</v>
-      </c>
-      <c r="AK89">
-        <f t="shared" si="17"/>
-        <v>25.294187442322535</v>
-      </c>
-      <c r="AS89" s="6"/>
-    </row>
-    <row r="90" spans="6:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F90" s="5"/>
       <c r="G90" s="2">
         <v>4</v>
@@ -7141,49 +6687,28 @@
         <v>8</v>
       </c>
       <c r="K90" s="10">
+        <f t="shared" si="16"/>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="L90" s="10">
+        <f t="shared" si="17"/>
+        <v>3.5714285714285712</v>
+      </c>
+      <c r="M90" s="10">
         <f t="shared" si="18"/>
-        <v>1.6666666666666665</v>
-      </c>
-      <c r="L90" s="10">
+        <v>5.9523809523809517</v>
+      </c>
+      <c r="P90" s="10">
         <f t="shared" si="19"/>
-        <v>3.5714285714285712</v>
-      </c>
-      <c r="M90" s="10">
+        <v>2.7777777777777772</v>
+      </c>
+      <c r="Q90" s="10">
         <f t="shared" si="20"/>
-        <v>5.9523809523809517</v>
-      </c>
-      <c r="P90" s="10">
-        <f t="shared" si="21"/>
-        <v>2.7777777777777772</v>
-      </c>
-      <c r="Q90" s="10">
-        <f t="shared" si="22"/>
         <v>12.755102040816325</v>
       </c>
       <c r="Y90" s="6"/>
-      <c r="AA90" s="39">
-        <v>17</v>
-      </c>
-      <c r="AB90" s="10">
-        <f t="shared" ca="1" si="16"/>
-        <v>1.3313312806776925</v>
-      </c>
-      <c r="AD90" s="2">
-        <v>4</v>
-      </c>
-      <c r="AE90" s="2">
-        <v>8</v>
-      </c>
-      <c r="AF90" s="2">
-        <v>56</v>
-      </c>
-      <c r="AK90">
-        <f t="shared" si="17"/>
-        <v>25.294187442322535</v>
-      </c>
-      <c r="AS90" s="6"/>
-    </row>
-    <row r="91" spans="6:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F91" s="5"/>
       <c r="G91" s="2">
         <v>4</v>
@@ -7192,49 +6717,28 @@
         <v>8</v>
       </c>
       <c r="K91" s="10">
+        <f t="shared" si="16"/>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="L91" s="10">
+        <f t="shared" si="17"/>
+        <v>3.5714285714285712</v>
+      </c>
+      <c r="M91" s="10">
         <f t="shared" si="18"/>
-        <v>1.6666666666666665</v>
-      </c>
-      <c r="L91" s="10">
+        <v>5.9523809523809517</v>
+      </c>
+      <c r="P91" s="10">
         <f t="shared" si="19"/>
-        <v>3.5714285714285712</v>
-      </c>
-      <c r="M91" s="10">
+        <v>2.7777777777777772</v>
+      </c>
+      <c r="Q91" s="10">
         <f t="shared" si="20"/>
-        <v>5.9523809523809517</v>
-      </c>
-      <c r="P91" s="10">
-        <f t="shared" si="21"/>
-        <v>2.7777777777777772</v>
-      </c>
-      <c r="Q91" s="10">
-        <f t="shared" si="22"/>
         <v>12.755102040816325</v>
       </c>
       <c r="Y91" s="6"/>
-      <c r="AA91" s="39">
-        <v>18</v>
-      </c>
-      <c r="AB91" s="10">
-        <f t="shared" ca="1" si="16"/>
-        <v>0.59796157415136753</v>
-      </c>
-      <c r="AD91" s="2">
-        <v>3</v>
-      </c>
-      <c r="AE91" s="2">
-        <v>6</v>
-      </c>
-      <c r="AF91" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK91">
-        <f t="shared" si="17"/>
-        <v>13.101643455097143</v>
-      </c>
-      <c r="AS91" s="6"/>
-    </row>
-    <row r="92" spans="6:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F92" s="5"/>
       <c r="G92" s="2">
         <v>3</v>
@@ -7243,49 +6747,28 @@
         <v>6</v>
       </c>
       <c r="K92" s="10">
+        <f t="shared" si="16"/>
+        <v>0.66666666666666652</v>
+      </c>
+      <c r="L92" s="10">
+        <f t="shared" si="17"/>
+        <v>1.5714285714285712</v>
+      </c>
+      <c r="M92" s="10">
         <f t="shared" si="18"/>
-        <v>0.66666666666666652</v>
-      </c>
-      <c r="L92" s="10">
+        <v>1.0476190476190472</v>
+      </c>
+      <c r="P92" s="10">
         <f t="shared" si="19"/>
-        <v>1.5714285714285712</v>
-      </c>
-      <c r="M92" s="10">
+        <v>0.44444444444444425</v>
+      </c>
+      <c r="Q92" s="10">
         <f t="shared" si="20"/>
-        <v>1.0476190476190472</v>
-      </c>
-      <c r="P92" s="10">
-        <f t="shared" si="21"/>
-        <v>0.44444444444444425</v>
-      </c>
-      <c r="Q92" s="10">
-        <f t="shared" si="22"/>
         <v>2.4693877551020402</v>
       </c>
       <c r="Y92" s="6"/>
-      <c r="AA92" s="39">
-        <v>19</v>
-      </c>
-      <c r="AB92" s="10">
-        <f t="shared" ca="1" si="16"/>
-        <v>1.8026135539285966</v>
-      </c>
-      <c r="AD92" s="2">
-        <v>5</v>
-      </c>
-      <c r="AE92" s="2">
-        <v>9</v>
-      </c>
-      <c r="AF92" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK92">
-        <f t="shared" si="17"/>
-        <v>33.403531525384366</v>
-      </c>
-      <c r="AS92" s="6"/>
-    </row>
-    <row r="93" spans="6:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F93" s="5"/>
       <c r="G93" s="2">
         <v>5</v>
@@ -7294,49 +6777,28 @@
         <v>9</v>
       </c>
       <c r="K93" s="10">
+        <f t="shared" si="16"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="L93" s="10">
+        <f t="shared" si="17"/>
+        <v>4.5714285714285712</v>
+      </c>
+      <c r="M93" s="10">
         <f t="shared" si="18"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="L93" s="10">
+        <v>12.19047619047619</v>
+      </c>
+      <c r="P93" s="10">
         <f t="shared" si="19"/>
-        <v>4.5714285714285712</v>
-      </c>
-      <c r="M93" s="10">
+        <v>7.1111111111111107</v>
+      </c>
+      <c r="Q93" s="10">
         <f t="shared" si="20"/>
-        <v>12.19047619047619</v>
-      </c>
-      <c r="P93" s="10">
-        <f t="shared" si="21"/>
-        <v>7.1111111111111107</v>
-      </c>
-      <c r="Q93" s="10">
-        <f t="shared" si="22"/>
         <v>20.897959183673468</v>
       </c>
       <c r="Y93" s="6"/>
-      <c r="AA93" s="39">
-        <v>20</v>
-      </c>
-      <c r="AB93" s="10">
-        <f t="shared" ca="1" si="16"/>
-        <v>0.67955639629236675</v>
-      </c>
-      <c r="AD93" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE93" s="2">
-        <v>2</v>
-      </c>
-      <c r="AF93" s="2">
-        <v>17</v>
-      </c>
-      <c r="AK93">
-        <f t="shared" si="17"/>
-        <v>14.295710788162143</v>
-      </c>
-      <c r="AS93" s="6"/>
-    </row>
-    <row r="94" spans="6:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F94" s="5"/>
       <c r="G94" s="2">
         <v>1</v>
@@ -7345,49 +6807,28 @@
         <v>2</v>
       </c>
       <c r="K94" s="10">
+        <f t="shared" si="16"/>
+        <v>-1.3333333333333335</v>
+      </c>
+      <c r="L94" s="10">
+        <f t="shared" si="17"/>
+        <v>-2.4285714285714288</v>
+      </c>
+      <c r="M94" s="10">
         <f t="shared" si="18"/>
-        <v>-1.3333333333333335</v>
-      </c>
-      <c r="L94" s="10">
+        <v>3.2380952380952386</v>
+      </c>
+      <c r="P94" s="10">
         <f t="shared" si="19"/>
-        <v>-2.4285714285714288</v>
-      </c>
-      <c r="M94" s="10">
+        <v>1.7777777777777781</v>
+      </c>
+      <c r="Q94" s="10">
         <f t="shared" si="20"/>
-        <v>3.2380952380952386</v>
-      </c>
-      <c r="P94" s="10">
-        <f t="shared" si="21"/>
-        <v>1.7777777777777781</v>
-      </c>
-      <c r="Q94" s="10">
-        <f t="shared" si="22"/>
         <v>5.8979591836734704</v>
       </c>
       <c r="Y94" s="6"/>
-      <c r="AA94" s="39">
-        <v>21</v>
-      </c>
-      <c r="AB94" s="10">
-        <f t="shared" ca="1" si="16"/>
-        <v>1.234211807443959</v>
-      </c>
-      <c r="AD94" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE94" s="2">
-        <v>2</v>
-      </c>
-      <c r="AF94" s="2">
-        <v>17</v>
-      </c>
-      <c r="AK94">
-        <f t="shared" si="17"/>
-        <v>14.295710788162143</v>
-      </c>
-      <c r="AS94" s="6"/>
-    </row>
-    <row r="95" spans="6:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F95" s="5"/>
       <c r="G95" s="2">
         <v>1</v>
@@ -7396,39 +6837,32 @@
         <v>2</v>
       </c>
       <c r="K95" s="10">
+        <f t="shared" si="16"/>
+        <v>-1.3333333333333335</v>
+      </c>
+      <c r="L95" s="10">
+        <f t="shared" si="17"/>
+        <v>-2.4285714285714288</v>
+      </c>
+      <c r="M95" s="10">
         <f t="shared" si="18"/>
-        <v>-1.3333333333333335</v>
-      </c>
-      <c r="L95" s="10">
+        <v>3.2380952380952386</v>
+      </c>
+      <c r="P95" s="10">
         <f t="shared" si="19"/>
-        <v>-2.4285714285714288</v>
-      </c>
-      <c r="M95" s="10">
+        <v>1.7777777777777781</v>
+      </c>
+      <c r="Q95" s="10">
         <f t="shared" si="20"/>
-        <v>3.2380952380952386</v>
-      </c>
-      <c r="P95" s="10">
-        <f t="shared" si="21"/>
-        <v>1.7777777777777781</v>
-      </c>
-      <c r="Q95" s="10">
-        <f t="shared" si="22"/>
         <v>5.8979591836734704</v>
       </c>
       <c r="Y95" s="6"/>
-      <c r="AA95" s="5"/>
-      <c r="AS95" s="6"/>
-    </row>
-    <row r="96" spans="6:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F96" s="5"/>
       <c r="Y96" s="6"/>
-      <c r="AA96" s="5"/>
-      <c r="AD96" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS96" s="6"/>
-    </row>
-    <row r="97" spans="6:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F97" s="10" t="s">
         <v>7</v>
       </c>
@@ -7459,28 +6893,12 @@
         <v>137.14285714285714</v>
       </c>
       <c r="Y97" s="6"/>
-      <c r="AA97" s="5"/>
-      <c r="AD97" s="42">
-        <v>1.4731377495467228</v>
-      </c>
-      <c r="AE97">
-        <v>1</v>
-      </c>
-      <c r="AS97" s="6"/>
-    </row>
-    <row r="98" spans="6:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F98" s="5"/>
       <c r="Y98" s="6"/>
-      <c r="AA98" s="5"/>
-      <c r="AD98" s="42">
-        <v>1.8077442285346905</v>
-      </c>
-      <c r="AE98">
-        <v>2</v>
-      </c>
-      <c r="AS98" s="6"/>
-    </row>
-    <row r="99" spans="6:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F99" s="7"/>
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
@@ -7501,60 +6919,27 @@
       <c r="W99" s="8"/>
       <c r="X99" s="8"/>
       <c r="Y99" s="9"/>
-      <c r="AA99" s="5"/>
-      <c r="AD99" s="42">
-        <v>0.60961601820559541</v>
-      </c>
-      <c r="AE99">
-        <v>1</v>
-      </c>
-      <c r="AS99" s="6"/>
-    </row>
-    <row r="100" spans="6:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AA100" s="5"/>
-      <c r="AD100" s="42">
-        <v>3.3275113195004646E-2</v>
-      </c>
-      <c r="AE100">
-        <v>0</v>
-      </c>
-      <c r="AS100" s="6"/>
-    </row>
-    <row r="101" spans="6:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F101" s="56" t="s">
+    </row>
+    <row r="100" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="101" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F101" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="G101" s="57"/>
-      <c r="H101" s="57"/>
-      <c r="I101" s="57"/>
-      <c r="J101" s="57"/>
-      <c r="K101" s="57"/>
-      <c r="L101" s="58"/>
+      <c r="G101" s="42"/>
+      <c r="H101" s="42"/>
+      <c r="I101" s="42"/>
+      <c r="J101" s="42"/>
+      <c r="K101" s="42"/>
+      <c r="L101" s="43"/>
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
       <c r="O101" s="4"/>
-      <c r="AA101" s="5"/>
-      <c r="AD101" s="42">
-        <v>1.2821539086599161</v>
-      </c>
-      <c r="AE101">
-        <v>1</v>
-      </c>
-      <c r="AS101" s="6"/>
-    </row>
-    <row r="102" spans="6:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F102" s="5"/>
       <c r="O102" s="6"/>
-      <c r="AA102" s="5"/>
-      <c r="AD102" s="42">
-        <v>1.5471408223417176</v>
-      </c>
-      <c r="AE102">
-        <v>2</v>
-      </c>
-      <c r="AS102" s="6"/>
-    </row>
-    <row r="103" spans="6:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F103" s="38" t="s">
         <v>17</v>
       </c>
@@ -7581,16 +6966,8 @@
         <v>1575</v>
       </c>
       <c r="O103" s="6"/>
-      <c r="AA103" s="5"/>
-      <c r="AD103" s="42">
-        <v>0.21453959267624967</v>
-      </c>
-      <c r="AE103">
-        <v>0</v>
-      </c>
-      <c r="AS103" s="6"/>
-    </row>
-    <row r="104" spans="6:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F104" s="39">
         <v>1</v>
       </c>
@@ -7609,7 +6986,7 @@
         <v>16</v>
       </c>
       <c r="K104" s="10">
-        <f t="shared" ref="K104:K124" si="23">G104*H104</f>
+        <f t="shared" ref="K104:K124" si="21">G104*H104</f>
         <v>16</v>
       </c>
       <c r="M104" s="28" t="s">
@@ -7620,16 +6997,8 @@
         <v>980</v>
       </c>
       <c r="O104" s="6"/>
-      <c r="AA104" s="5"/>
-      <c r="AD104" s="42">
-        <v>1.9261369118645517</v>
-      </c>
-      <c r="AE104">
-        <v>2</v>
-      </c>
-      <c r="AS104" s="6"/>
-    </row>
-    <row r="105" spans="6:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F105" s="39">
         <v>2</v>
       </c>
@@ -7640,15 +7009,15 @@
         <v>3</v>
       </c>
       <c r="I105" s="10">
-        <f t="shared" ref="I105:I124" si="24">G105^2</f>
+        <f t="shared" ref="I105:I124" si="22">G105^2</f>
         <v>4</v>
       </c>
       <c r="J105" s="16">
-        <f t="shared" ref="J105:J124" si="25">H105^2</f>
+        <f t="shared" ref="J105:J124" si="23">H105^2</f>
         <v>9</v>
       </c>
       <c r="K105" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="M105" s="28" t="s">
@@ -7659,16 +7028,8 @@
         <v>2880</v>
       </c>
       <c r="O105" s="6"/>
-      <c r="AA105" s="5"/>
-      <c r="AD105" s="42">
-        <v>1.4320917599412737</v>
-      </c>
-      <c r="AE105">
-        <v>1</v>
-      </c>
-      <c r="AS105" s="6"/>
-    </row>
-    <row r="106" spans="6:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F106" s="39">
         <v>3</v>
       </c>
@@ -7679,15 +7040,15 @@
         <v>4</v>
       </c>
       <c r="I106" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="J106" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>16</v>
       </c>
       <c r="K106" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="M106" s="28" t="s">
@@ -7698,16 +7059,8 @@
         <v>2822400</v>
       </c>
       <c r="O106" s="6"/>
-      <c r="AA106" s="5"/>
-      <c r="AD106" s="42">
-        <v>0.99131820885058231</v>
-      </c>
-      <c r="AE106">
-        <v>1</v>
-      </c>
-      <c r="AS106" s="6"/>
-    </row>
-    <row r="107" spans="6:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F107" s="39">
         <v>4</v>
       </c>
@@ -7718,15 +7071,15 @@
         <v>5</v>
       </c>
       <c r="I107" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
       <c r="J107" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>25</v>
       </c>
       <c r="K107" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>15</v>
       </c>
       <c r="M107" s="28" t="s">
@@ -7737,16 +7090,8 @@
         <v>1680</v>
       </c>
       <c r="O107" s="6"/>
-      <c r="AA107" s="5"/>
-      <c r="AD107" s="42">
-        <v>1.4914028989288994</v>
-      </c>
-      <c r="AE107">
-        <v>1</v>
-      </c>
-      <c r="AS107" s="6"/>
-    </row>
-    <row r="108" spans="6:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F108" s="39">
         <v>5</v>
       </c>
@@ -7757,28 +7102,20 @@
         <v>3</v>
       </c>
       <c r="I108" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J108" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>9</v>
       </c>
       <c r="K108" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="O108" s="6"/>
-      <c r="AA108" s="5"/>
-      <c r="AD108" s="42">
-        <v>1.4319818861907552</v>
-      </c>
-      <c r="AE108">
-        <v>1</v>
-      </c>
-      <c r="AS108" s="6"/>
-    </row>
-    <row r="109" spans="6:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F109" s="39">
         <v>6</v>
       </c>
@@ -7789,31 +7126,23 @@
         <v>6</v>
       </c>
       <c r="I109" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
       <c r="J109" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>36</v>
       </c>
       <c r="K109" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>18</v>
       </c>
       <c r="M109" s="36" t="s">
         <v>59</v>
       </c>
       <c r="O109" s="6"/>
-      <c r="AA109" s="5"/>
-      <c r="AD109" s="42">
-        <v>1.0246537457413385</v>
-      </c>
-      <c r="AE109">
-        <v>1</v>
-      </c>
-      <c r="AS109" s="6"/>
-    </row>
-    <row r="110" spans="6:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F110" s="39">
         <v>7</v>
       </c>
@@ -7824,15 +7153,15 @@
         <v>6</v>
       </c>
       <c r="I110" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
       <c r="J110" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>36</v>
       </c>
       <c r="K110" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>18</v>
       </c>
       <c r="M110" s="28" t="s">
@@ -7842,16 +7171,8 @@
         <v>1575</v>
       </c>
       <c r="O110" s="6"/>
-      <c r="AA110" s="5"/>
-      <c r="AD110" s="42">
-        <v>0.12162474480164143</v>
-      </c>
-      <c r="AE110">
-        <v>0</v>
-      </c>
-      <c r="AS110" s="6"/>
-    </row>
-    <row r="111" spans="6:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F111" s="39">
         <v>8</v>
       </c>
@@ -7862,15 +7183,15 @@
         <v>1</v>
       </c>
       <c r="I111" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J111" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="K111" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M111" s="28" t="s">
@@ -7880,16 +7201,8 @@
         <v>1680</v>
       </c>
       <c r="O111" s="6"/>
-      <c r="AA111" s="5"/>
-      <c r="AD111" s="42">
-        <v>1.6285620269406138</v>
-      </c>
-      <c r="AE111">
-        <v>2</v>
-      </c>
-      <c r="AS111" s="6"/>
-    </row>
-    <row r="112" spans="6:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="6:25" x14ac:dyDescent="0.25">
       <c r="F112" s="39">
         <v>9</v>
       </c>
@@ -7900,15 +7213,15 @@
         <v>3</v>
       </c>
       <c r="I112" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J112" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>9</v>
       </c>
       <c r="K112" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="M112" s="28" t="s">
@@ -7919,16 +7232,8 @@
         <v>0.9375</v>
       </c>
       <c r="O112" s="6"/>
-      <c r="AA112" s="5"/>
-      <c r="AD112" s="42">
-        <v>1.140733419411925</v>
-      </c>
-      <c r="AE112">
-        <v>1</v>
-      </c>
-      <c r="AS112" s="6"/>
-    </row>
-    <row r="113" spans="6:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F113" s="39">
         <v>10</v>
       </c>
@@ -7939,28 +7244,20 @@
         <v>0</v>
       </c>
       <c r="I113" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J113" s="16">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="K113" s="10">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
+      <c r="K113" s="10">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="O113" s="6"/>
-      <c r="AA113" s="5"/>
-      <c r="AD113" s="42">
-        <v>0.9912395604491564</v>
-      </c>
-      <c r="AE113">
-        <v>1</v>
-      </c>
-      <c r="AS113" s="6"/>
-    </row>
-    <row r="114" spans="6:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F114" s="39">
         <v>11</v>
       </c>
@@ -7971,15 +7268,15 @@
         <v>9</v>
       </c>
       <c r="I114" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>25</v>
       </c>
       <c r="J114" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>81</v>
       </c>
       <c r="K114" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>45</v>
       </c>
       <c r="M114" s="37" t="s">
@@ -7990,16 +7287,8 @@
         <v>0.9375</v>
       </c>
       <c r="O114" s="6"/>
-      <c r="AA114" s="5"/>
-      <c r="AD114" s="42">
-        <v>0.96362468942069812</v>
-      </c>
-      <c r="AE114">
-        <v>1</v>
-      </c>
-      <c r="AS114" s="6"/>
-    </row>
-    <row r="115" spans="6:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F115" s="39">
         <v>12</v>
       </c>
@@ -8010,28 +7299,20 @@
         <v>2</v>
       </c>
       <c r="I115" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J115" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="K115" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="O115" s="6"/>
-      <c r="AA115" s="5"/>
-      <c r="AD115" s="42">
-        <v>1.6249234706419327</v>
-      </c>
-      <c r="AE115">
-        <v>2</v>
-      </c>
-      <c r="AS115" s="6"/>
-    </row>
-    <row r="116" spans="6:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F116" s="39">
         <v>13</v>
       </c>
@@ -8042,28 +7323,20 @@
         <v>3</v>
       </c>
       <c r="I116" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="J116" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>9</v>
       </c>
       <c r="K116" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="O116" s="6"/>
-      <c r="AA116" s="5"/>
-      <c r="AD116" s="42">
-        <v>0.33644268114059583</v>
-      </c>
-      <c r="AE116">
-        <v>0</v>
-      </c>
-      <c r="AS116" s="6"/>
-    </row>
-    <row r="117" spans="6:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F117" s="39">
         <v>14</v>
       </c>
@@ -8074,28 +7347,20 @@
         <v>3</v>
       </c>
       <c r="I117" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J117" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>9</v>
       </c>
       <c r="K117" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="O117" s="6"/>
-      <c r="AA117" s="5"/>
-      <c r="AD117" s="42">
-        <v>1.7520140820994703</v>
-      </c>
-      <c r="AE117">
-        <v>2</v>
-      </c>
-      <c r="AS117" s="6"/>
-    </row>
-    <row r="118" spans="6:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F118" s="39">
         <v>15</v>
       </c>
@@ -8106,39 +7371,20 @@
         <v>6</v>
       </c>
       <c r="I118" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
       <c r="J118" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>36</v>
       </c>
       <c r="K118" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>18</v>
       </c>
       <c r="O118" s="6"/>
-      <c r="AA118" s="7"/>
-      <c r="AB118" s="8"/>
-      <c r="AC118" s="8"/>
-      <c r="AD118" s="8"/>
-      <c r="AE118" s="8"/>
-      <c r="AF118" s="8"/>
-      <c r="AG118" s="8"/>
-      <c r="AH118" s="8"/>
-      <c r="AI118" s="8"/>
-      <c r="AJ118" s="8"/>
-      <c r="AK118" s="8"/>
-      <c r="AL118" s="8"/>
-      <c r="AM118" s="8"/>
-      <c r="AN118" s="8"/>
-      <c r="AO118" s="8"/>
-      <c r="AP118" s="8"/>
-      <c r="AQ118" s="8"/>
-      <c r="AR118" s="8"/>
-      <c r="AS118" s="9"/>
-    </row>
-    <row r="119" spans="6:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F119" s="39">
         <v>16</v>
       </c>
@@ -8149,20 +7395,20 @@
         <v>8</v>
       </c>
       <c r="I119" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>16</v>
       </c>
       <c r="J119" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>64</v>
       </c>
       <c r="K119" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>32</v>
       </c>
       <c r="O119" s="6"/>
     </row>
-    <row r="120" spans="6:45" x14ac:dyDescent="0.25">
+    <row r="120" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F120" s="39">
         <v>17</v>
       </c>
@@ -8173,20 +7419,20 @@
         <v>8</v>
       </c>
       <c r="I120" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>16</v>
       </c>
       <c r="J120" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>64</v>
       </c>
       <c r="K120" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>32</v>
       </c>
       <c r="O120" s="6"/>
     </row>
-    <row r="121" spans="6:45" x14ac:dyDescent="0.25">
+    <row r="121" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F121" s="39">
         <v>18</v>
       </c>
@@ -8197,20 +7443,20 @@
         <v>6</v>
       </c>
       <c r="I121" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
       <c r="J121" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>36</v>
       </c>
       <c r="K121" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>18</v>
       </c>
       <c r="O121" s="6"/>
     </row>
-    <row r="122" spans="6:45" x14ac:dyDescent="0.25">
+    <row r="122" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F122" s="39">
         <v>19</v>
       </c>
@@ -8221,20 +7467,20 @@
         <v>9</v>
       </c>
       <c r="I122" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>25</v>
       </c>
       <c r="J122" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>81</v>
       </c>
       <c r="K122" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>45</v>
       </c>
       <c r="O122" s="6"/>
     </row>
-    <row r="123" spans="6:45" x14ac:dyDescent="0.25">
+    <row r="123" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F123" s="39">
         <v>20</v>
       </c>
@@ -8245,20 +7491,20 @@
         <v>2</v>
       </c>
       <c r="I123" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J123" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="K123" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="O123" s="6"/>
     </row>
-    <row r="124" spans="6:45" x14ac:dyDescent="0.25">
+    <row r="124" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F124" s="39">
         <v>21</v>
       </c>
@@ -8269,20 +7515,20 @@
         <v>2</v>
       </c>
       <c r="I124" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J124" s="34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="K124" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="O124" s="6"/>
     </row>
-    <row r="125" spans="6:45" x14ac:dyDescent="0.25">
+    <row r="125" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F125" s="5" t="s">
         <v>51</v>
       </c>
@@ -8308,12 +7554,12 @@
       </c>
       <c r="O125" s="6"/>
     </row>
-    <row r="126" spans="6:45" x14ac:dyDescent="0.25">
+    <row r="126" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F126" s="5"/>
       <c r="L126" s="40"/>
       <c r="O126" s="6"/>
     </row>
-    <row r="127" spans="6:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="6:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F127" s="7"/>
       <c r="G127" s="8"/>
       <c r="H127" s="8"/>
@@ -8325,11 +7571,1216 @@
       <c r="N127" s="8"/>
       <c r="O127" s="9"/>
     </row>
+    <row r="135" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B135" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D135" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E135" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F135" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G135" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H135" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I135" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J135" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="K135" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="L135" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="M135" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="N135" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="O135" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="P135" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q135" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="R135" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="S135" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="T135" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="U135" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="136" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B136" s="2">
+        <v>3</v>
+      </c>
+      <c r="C136" s="2">
+        <v>5</v>
+      </c>
+      <c r="D136" s="29">
+        <v>32</v>
+      </c>
+      <c r="E136" s="10">
+        <v>2</v>
+      </c>
+      <c r="I136">
+        <f>((B136-$F$136)^2+(C136-$G$136)^2+(D136-$H$136)^2)^0.5</f>
+        <v>32.526911934581186</v>
+      </c>
+      <c r="J136">
+        <f>((B136-$F$140)^2+(C136-$G$140)^2+(D136-$H$140)^2)^0.5</f>
+        <v>32.526911934581186</v>
+      </c>
+      <c r="K136">
+        <f>((B136-$F$147)^2+(C136-$G$147)^2+(D136-$H$147)^2)^0.5</f>
+        <v>32.526911934581186</v>
+      </c>
+      <c r="L136">
+        <f>((B136-$F$155)^2+(C136-$G$155)^2+(D136-$H$155)^2)^0.5</f>
+        <v>32.526911934581186</v>
+      </c>
+      <c r="M136">
+        <v>3</v>
+      </c>
+      <c r="N136">
+        <f>AVERAGE(B136)</f>
+        <v>3</v>
+      </c>
+      <c r="O136">
+        <f t="shared" ref="O136:P136" si="24">AVERAGE(C136)</f>
+        <v>5</v>
+      </c>
+      <c r="P136">
+        <f t="shared" si="24"/>
+        <v>32</v>
+      </c>
+      <c r="Q136">
+        <f>((B136-$N$136)^2+(C136-$O$136)^2+(D136-$P$136)^2)^0.5</f>
+        <v>0</v>
+      </c>
+      <c r="R136">
+        <f>((B136-$N$137)^2+(C136-$O$137)^2+(D136-$P$137)^2)^0.5</f>
+        <v>19.271497736294396</v>
+      </c>
+      <c r="S136">
+        <f>((B136-$N$145)^2+(C136-$O$145)^2+(D136-$P$145)^2)^0.5</f>
+        <v>5.7227615711297988</v>
+      </c>
+      <c r="T136">
+        <f>((B136-$N$149)^2+(C136-$O$149)^2+(D136-$P$149)^2)^0.5</f>
+        <v>18.386476008196894</v>
+      </c>
+    </row>
+    <row r="137" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B137" s="2">
+        <v>4</v>
+      </c>
+      <c r="C137" s="2">
+        <v>8</v>
+      </c>
+      <c r="D137" s="29">
+        <v>56</v>
+      </c>
+      <c r="E137" s="10">
+        <v>3</v>
+      </c>
+      <c r="I137">
+        <f>((B137-$F$136)^2+(C137-$G$136)^2+(D137-$H$136)^2)^0.5</f>
+        <v>56.709787515031302</v>
+      </c>
+      <c r="J137">
+        <f>((B137-$F$140)^2+(C137-$G$140)^2+(D137-$H$140)^2)^0.5</f>
+        <v>56.709787515031302</v>
+      </c>
+      <c r="K137">
+        <f>((B137-$F$147)^2+(C137-$G$147)^2+(D137-$H$147)^2)^0.5</f>
+        <v>56.709787515031302</v>
+      </c>
+      <c r="L137">
+        <f>((B137-$F$155)^2+(C137-$G$155)^2+(D137-$H$155)^2)^0.5</f>
+        <v>56.709787515031302</v>
+      </c>
+      <c r="M137">
+        <v>2</v>
+      </c>
+      <c r="N137">
+        <f>AVERAGE(B137:B144)</f>
+        <v>3.75</v>
+      </c>
+      <c r="O137">
+        <f>AVERAGE(C137:C144)</f>
+        <v>7.25</v>
+      </c>
+      <c r="P137">
+        <f t="shared" ref="O137:P137" si="25">AVERAGE(D137:D144)</f>
+        <v>51.125</v>
+      </c>
+      <c r="Q137">
+        <f t="shared" ref="Q137:Q156" si="26">((B137-$N$136)^2+(C137-$O$136)^2+(D137-$P$136)^2)^0.5</f>
+        <v>24.207436873820409</v>
+      </c>
+      <c r="R137">
+        <f t="shared" ref="R137:R156" si="27">((B137-$N$137)^2+(C137-$O$137)^2+(D137-$P$137)^2)^0.5</f>
+        <v>4.9386865662846029</v>
+      </c>
+      <c r="S137">
+        <f t="shared" ref="S137:S156" si="28">((B137-$N$145)^2+(C137-$O$145)^2+(D137-$P$145)^2)^0.5</f>
+        <v>29.878922336657325</v>
+      </c>
+      <c r="T137">
+        <f t="shared" ref="T137:T156" si="29">((B137-$N$149)^2+(C137-$O$149)^2+(D137-$P$149)^2)^0.5</f>
+        <v>42.550705047037702</v>
+      </c>
+    </row>
+    <row r="138" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B138" s="2">
+        <v>3</v>
+      </c>
+      <c r="C138" s="2">
+        <v>6</v>
+      </c>
+      <c r="D138" s="29">
+        <v>44</v>
+      </c>
+      <c r="E138" s="10">
+        <v>3</v>
+      </c>
+      <c r="I138">
+        <f>((B138-$F$136)^2+(C138-$G$136)^2+(D138-$H$136)^2)^0.5</f>
+        <v>44.50842616853577</v>
+      </c>
+      <c r="J138">
+        <f>((B138-$F$140)^2+(C138-$G$140)^2+(D138-$H$140)^2)^0.5</f>
+        <v>44.50842616853577</v>
+      </c>
+      <c r="K138">
+        <f>((B138-$F$147)^2+(C138-$G$147)^2+(D138-$H$147)^2)^0.5</f>
+        <v>44.50842616853577</v>
+      </c>
+      <c r="L138">
+        <f>((B138-$F$155)^2+(C138-$G$155)^2+(D138-$H$155)^2)^0.5</f>
+        <v>44.50842616853577</v>
+      </c>
+      <c r="M138">
+        <v>2</v>
+      </c>
+      <c r="Q138">
+        <f t="shared" si="26"/>
+        <v>12.041594578792296</v>
+      </c>
+      <c r="R138">
+        <f t="shared" si="27"/>
+        <v>7.272594103894428</v>
+      </c>
+      <c r="S138">
+        <f t="shared" si="28"/>
+        <v>17.684739183827393</v>
+      </c>
+      <c r="T138">
+        <f t="shared" si="29"/>
+        <v>30.349011516027996</v>
+      </c>
+    </row>
+    <row r="139" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B139" s="2">
+        <v>3</v>
+      </c>
+      <c r="C139" s="2">
+        <v>6</v>
+      </c>
+      <c r="D139" s="29">
+        <v>41</v>
+      </c>
+      <c r="E139" s="10">
+        <v>2</v>
+      </c>
+      <c r="I139">
+        <f>((B139-$F$136)^2+(C139-$G$136)^2+(D139-$H$136)^2)^0.5</f>
+        <v>41.54515615568198</v>
+      </c>
+      <c r="J139">
+        <f>((B139-$F$140)^2+(C139-$G$140)^2+(D139-$H$140)^2)^0.5</f>
+        <v>41.54515615568198</v>
+      </c>
+      <c r="K139">
+        <f>((B139-$F$147)^2+(C139-$G$147)^2+(D139-$H$147)^2)^0.5</f>
+        <v>41.54515615568198</v>
+      </c>
+      <c r="L139">
+        <f>((B139-$F$155)^2+(C139-$G$155)^2+(D139-$H$155)^2)^0.5</f>
+        <v>41.54515615568198</v>
+      </c>
+      <c r="M139">
+        <v>2</v>
+      </c>
+      <c r="Q139">
+        <f t="shared" si="26"/>
+        <v>9.0553851381374173</v>
+      </c>
+      <c r="R139">
+        <f t="shared" si="27"/>
+        <v>10.229400031282383</v>
+      </c>
+      <c r="S139">
+        <f t="shared" si="28"/>
+        <v>14.722431864335457</v>
+      </c>
+      <c r="T139">
+        <f t="shared" si="29"/>
+        <v>27.387268940148086</v>
+      </c>
+    </row>
+    <row r="140" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B140" s="2">
+        <v>5</v>
+      </c>
+      <c r="C140" s="2">
+        <v>9</v>
+      </c>
+      <c r="D140" s="29">
+        <v>62</v>
+      </c>
+      <c r="E140" s="10">
+        <v>2</v>
+      </c>
+      <c r="I140">
+        <f>((B140-$F$136)^2+(C140-$G$136)^2+(D140-$H$136)^2)^0.5</f>
+        <v>62.849025449882674</v>
+      </c>
+      <c r="J140">
+        <f>((B140-$F$140)^2+(C140-$G$140)^2+(D140-$H$140)^2)^0.5</f>
+        <v>62.849025449882674</v>
+      </c>
+      <c r="K140">
+        <f>((B140-$F$147)^2+(C140-$G$147)^2+(D140-$H$147)^2)^0.5</f>
+        <v>62.849025449882674</v>
+      </c>
+      <c r="L140">
+        <f>((B140-$F$155)^2+(C140-$G$155)^2+(D140-$H$155)^2)^0.5</f>
+        <v>62.849025449882674</v>
+      </c>
+      <c r="M140">
+        <v>2</v>
+      </c>
+      <c r="Q140">
+        <f t="shared" si="26"/>
+        <v>30.331501776206203</v>
+      </c>
+      <c r="R140">
+        <f t="shared" si="27"/>
+        <v>11.085604403910505</v>
+      </c>
+      <c r="S140">
+        <f t="shared" si="28"/>
+        <v>36.010415160061676</v>
+      </c>
+      <c r="T140">
+        <f t="shared" si="29"/>
+        <v>48.693557068671829</v>
+      </c>
+    </row>
+    <row r="141" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B141" s="2">
+        <v>5</v>
+      </c>
+      <c r="C141" s="2">
+        <v>9</v>
+      </c>
+      <c r="D141" s="29">
+        <v>64</v>
+      </c>
+      <c r="E141" s="10">
+        <v>2</v>
+      </c>
+      <c r="I141">
+        <f>((B141-$F$136)^2+(C141-$G$136)^2+(D141-$H$136)^2)^0.5</f>
+        <v>64.822835482567413</v>
+      </c>
+      <c r="J141">
+        <f>((B141-$F$140)^2+(C141-$G$140)^2+(D141-$H$140)^2)^0.5</f>
+        <v>64.822835482567413</v>
+      </c>
+      <c r="K141">
+        <f>((B141-$F$147)^2+(C141-$G$147)^2+(D141-$H$147)^2)^0.5</f>
+        <v>64.822835482567413</v>
+      </c>
+      <c r="L141">
+        <f>((B141-$F$155)^2+(C141-$G$155)^2+(D141-$H$155)^2)^0.5</f>
+        <v>64.822835482567413</v>
+      </c>
+      <c r="M141">
+        <v>2</v>
+      </c>
+      <c r="Q141">
+        <f t="shared" si="26"/>
+        <v>32.310988842807021</v>
+      </c>
+      <c r="R141">
+        <f t="shared" si="27"/>
+        <v>13.05337600010051</v>
+      </c>
+      <c r="S141">
+        <f t="shared" si="28"/>
+        <v>37.9835490706174</v>
+      </c>
+      <c r="T141">
+        <f t="shared" si="29"/>
+        <v>50.666186949483382</v>
+      </c>
+    </row>
+    <row r="142" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B142" s="2">
+        <v>3</v>
+      </c>
+      <c r="C142" s="2">
+        <v>6</v>
+      </c>
+      <c r="D142" s="29">
+        <v>44</v>
+      </c>
+      <c r="E142" s="10">
+        <v>1</v>
+      </c>
+      <c r="I142">
+        <f>((B142-$F$136)^2+(C142-$G$136)^2+(D142-$H$136)^2)^0.5</f>
+        <v>44.50842616853577</v>
+      </c>
+      <c r="J142">
+        <f>((B142-$F$140)^2+(C142-$G$140)^2+(D142-$H$140)^2)^0.5</f>
+        <v>44.50842616853577</v>
+      </c>
+      <c r="K142">
+        <f>((B142-$F$147)^2+(C142-$G$147)^2+(D142-$H$147)^2)^0.5</f>
+        <v>44.50842616853577</v>
+      </c>
+      <c r="L142">
+        <f>((B142-$F$155)^2+(C142-$G$155)^2+(D142-$H$155)^2)^0.5</f>
+        <v>44.50842616853577</v>
+      </c>
+      <c r="M142">
+        <v>2</v>
+      </c>
+      <c r="Q142">
+        <f t="shared" si="26"/>
+        <v>12.041594578792296</v>
+      </c>
+      <c r="R142">
+        <f t="shared" si="27"/>
+        <v>7.272594103894428</v>
+      </c>
+      <c r="S142">
+        <f t="shared" si="28"/>
+        <v>17.684739183827393</v>
+      </c>
+      <c r="T142">
+        <f t="shared" si="29"/>
+        <v>30.349011516027996</v>
+      </c>
+    </row>
+    <row r="143" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B143" s="2">
+        <v>3</v>
+      </c>
+      <c r="C143" s="2">
+        <v>6</v>
+      </c>
+      <c r="D143" s="29">
+        <v>42</v>
+      </c>
+      <c r="E143" s="10">
+        <v>1</v>
+      </c>
+      <c r="I143">
+        <f>((B143-$F$136)^2+(C143-$G$136)^2+(D143-$H$136)^2)^0.5</f>
+        <v>42.532340636273474</v>
+      </c>
+      <c r="J143">
+        <f>((B143-$F$140)^2+(C143-$G$140)^2+(D143-$H$140)^2)^0.5</f>
+        <v>42.532340636273474</v>
+      </c>
+      <c r="K143">
+        <f>((B143-$F$147)^2+(C143-$G$147)^2+(D143-$H$147)^2)^0.5</f>
+        <v>42.532340636273474</v>
+      </c>
+      <c r="L143">
+        <f>((B143-$F$155)^2+(C143-$G$155)^2+(D143-$H$155)^2)^0.5</f>
+        <v>42.532340636273474</v>
+      </c>
+      <c r="M143">
+        <v>2</v>
+      </c>
+      <c r="Q143">
+        <f t="shared" si="26"/>
+        <v>10.04987562112089</v>
+      </c>
+      <c r="R143">
+        <f t="shared" si="27"/>
+        <v>9.2407047891381104</v>
+      </c>
+      <c r="S143">
+        <f t="shared" si="28"/>
+        <v>15.708278072405008</v>
+      </c>
+      <c r="T143">
+        <f t="shared" si="29"/>
+        <v>28.373623314620922</v>
+      </c>
+    </row>
+    <row r="144" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B144" s="2">
+        <v>4</v>
+      </c>
+      <c r="C144" s="2">
+        <v>8</v>
+      </c>
+      <c r="D144" s="29">
+        <v>56</v>
+      </c>
+      <c r="E144" s="10">
+        <v>1</v>
+      </c>
+      <c r="I144">
+        <f>((B144-$F$136)^2+(C144-$G$136)^2+(D144-$H$136)^2)^0.5</f>
+        <v>56.709787515031302</v>
+      </c>
+      <c r="J144">
+        <f>((B144-$F$140)^2+(C144-$G$140)^2+(D144-$H$140)^2)^0.5</f>
+        <v>56.709787515031302</v>
+      </c>
+      <c r="K144">
+        <f>((B144-$F$147)^2+(C144-$G$147)^2+(D144-$H$147)^2)^0.5</f>
+        <v>56.709787515031302</v>
+      </c>
+      <c r="L144">
+        <f>((B144-$F$155)^2+(C144-$G$155)^2+(D144-$H$155)^2)^0.5</f>
+        <v>56.709787515031302</v>
+      </c>
+      <c r="M144">
+        <v>2</v>
+      </c>
+      <c r="Q144">
+        <f t="shared" si="26"/>
+        <v>24.207436873820409</v>
+      </c>
+      <c r="R144">
+        <f t="shared" si="27"/>
+        <v>4.9386865662846029</v>
+      </c>
+      <c r="S144">
+        <f t="shared" si="28"/>
+        <v>29.878922336657325</v>
+      </c>
+      <c r="T144">
+        <f t="shared" si="29"/>
+        <v>42.550705047037702</v>
+      </c>
+    </row>
+    <row r="145" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B145" s="2">
+        <v>4</v>
+      </c>
+      <c r="C145" s="2">
+        <v>4</v>
+      </c>
+      <c r="D145" s="29">
+        <v>28</v>
+      </c>
+      <c r="E145" s="10">
+        <v>2</v>
+      </c>
+      <c r="F145">
+        <f>AVERAGE(B145:B151)</f>
+        <v>1.8571428571428572</v>
+      </c>
+      <c r="G145">
+        <f>AVERAGE(C145:C151)</f>
+        <v>3.1428571428571428</v>
+      </c>
+      <c r="H145">
+        <f>AVERAGE(D145:D151)</f>
+        <v>22.857142857142858</v>
+      </c>
+      <c r="I145">
+        <f>((B145-$F$136)^2+(C145-$G$136)^2+(D145-$H$136)^2)^0.5</f>
+        <v>28.565713714171402</v>
+      </c>
+      <c r="J145">
+        <f>((B145-$F$140)^2+(C145-$G$140)^2+(D145-$H$140)^2)^0.5</f>
+        <v>28.565713714171402</v>
+      </c>
+      <c r="K145">
+        <f>((B145-$F$147)^2+(C145-$G$147)^2+(D145-$H$147)^2)^0.5</f>
+        <v>28.565713714171402</v>
+      </c>
+      <c r="L145">
+        <f>((B145-$F$155)^2+(C145-$G$155)^2+(D145-$H$155)^2)^0.5</f>
+        <v>28.565713714171402</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145">
+        <f>AVERAGE(B145:B148)</f>
+        <v>2.5</v>
+      </c>
+      <c r="O145">
+        <f t="shared" ref="O145:P145" si="30">AVERAGE(C145:C148)</f>
+        <v>3.5</v>
+      </c>
+      <c r="P145">
+        <f t="shared" si="30"/>
+        <v>26.5</v>
+      </c>
+      <c r="Q145">
+        <f t="shared" si="26"/>
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="R145">
+        <f t="shared" si="27"/>
+        <v>23.353599829576595</v>
+      </c>
+      <c r="S145">
+        <f t="shared" si="28"/>
+        <v>2.179449471770337</v>
+      </c>
+      <c r="T145">
+        <f t="shared" si="29"/>
+        <v>14.510771860931451</v>
+      </c>
+    </row>
+    <row r="146" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B146" s="2">
+        <v>2</v>
+      </c>
+      <c r="C146" s="2">
+        <v>3</v>
+      </c>
+      <c r="D146" s="29">
+        <v>24</v>
+      </c>
+      <c r="E146" s="10">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <f>AVERAGE(B146:B153)</f>
+        <v>1.375</v>
+      </c>
+      <c r="G146">
+        <f>AVERAGE(C146:C153)</f>
+        <v>2.875</v>
+      </c>
+      <c r="H146">
+        <f>AVERAGE(D146:D153)</f>
+        <v>20.875</v>
+      </c>
+      <c r="I146">
+        <f>((B146-$F$136)^2+(C146-$G$136)^2+(D146-$H$136)^2)^0.5</f>
+        <v>24.269322199023193</v>
+      </c>
+      <c r="J146">
+        <f>((B146-$F$140)^2+(C146-$G$140)^2+(D146-$H$140)^2)^0.5</f>
+        <v>24.269322199023193</v>
+      </c>
+      <c r="K146">
+        <f>((B146-$F$147)^2+(C146-$G$147)^2+(D146-$H$147)^2)^0.5</f>
+        <v>24.269322199023193</v>
+      </c>
+      <c r="L146">
+        <f>((B146-$F$155)^2+(C146-$G$155)^2+(D146-$H$155)^2)^0.5</f>
+        <v>24.269322199023193</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="Q146">
+        <f t="shared" si="26"/>
+        <v>8.3066238629180749</v>
+      </c>
+      <c r="R146">
+        <f t="shared" si="27"/>
+        <v>27.51164526159786</v>
+      </c>
+      <c r="S146">
+        <f t="shared" si="28"/>
+        <v>2.598076211353316</v>
+      </c>
+      <c r="T146">
+        <f t="shared" si="29"/>
+        <v>10.127314550264547</v>
+      </c>
+    </row>
+    <row r="147" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B147" s="2">
+        <v>2</v>
+      </c>
+      <c r="C147" s="2">
+        <v>4</v>
+      </c>
+      <c r="D147" s="29">
+        <v>30</v>
+      </c>
+      <c r="E147" s="10">
+        <v>1</v>
+      </c>
+      <c r="I147">
+        <f>((B147-$F$136)^2+(C147-$G$136)^2+(D147-$H$136)^2)^0.5</f>
+        <v>30.331501776206203</v>
+      </c>
+      <c r="J147">
+        <f>((B147-$F$140)^2+(C147-$G$140)^2+(D147-$H$140)^2)^0.5</f>
+        <v>30.331501776206203</v>
+      </c>
+      <c r="K147">
+        <f>((B147-$F$147)^2+(C147-$G$147)^2+(D147-$H$147)^2)^0.5</f>
+        <v>30.331501776206203</v>
+      </c>
+      <c r="L147">
+        <f>((B147-$F$155)^2+(C147-$G$155)^2+(D147-$H$155)^2)^0.5</f>
+        <v>30.331501776206203</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="Q147">
+        <f t="shared" si="26"/>
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="R147">
+        <f t="shared" si="27"/>
+        <v>21.445060620105508</v>
+      </c>
+      <c r="S147">
+        <f t="shared" si="28"/>
+        <v>3.5707142142714252</v>
+      </c>
+      <c r="T147">
+        <f t="shared" si="29"/>
+        <v>16.172893989635867</v>
+      </c>
+    </row>
+    <row r="148" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B148" s="2">
+        <v>2</v>
+      </c>
+      <c r="C148" s="2">
+        <v>3</v>
+      </c>
+      <c r="D148" s="29">
+        <v>24</v>
+      </c>
+      <c r="E148" s="10">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <f>((B148-$F$136)^2+(C148-$G$136)^2+(D148-$H$136)^2)^0.5</f>
+        <v>24.269322199023193</v>
+      </c>
+      <c r="J148">
+        <f>((B148-$F$140)^2+(C148-$G$140)^2+(D148-$H$140)^2)^0.5</f>
+        <v>24.269322199023193</v>
+      </c>
+      <c r="K148">
+        <f>((B148-$F$147)^2+(C148-$G$147)^2+(D148-$H$147)^2)^0.5</f>
+        <v>24.269322199023193</v>
+      </c>
+      <c r="L148">
+        <f>((B148-$F$155)^2+(C148-$G$155)^2+(D148-$H$155)^2)^0.5</f>
+        <v>24.269322199023193</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="Q148">
+        <f t="shared" si="26"/>
+        <v>8.3066238629180749</v>
+      </c>
+      <c r="R148">
+        <f t="shared" si="27"/>
+        <v>27.51164526159786</v>
+      </c>
+      <c r="S148">
+        <f t="shared" si="28"/>
+        <v>2.598076211353316</v>
+      </c>
+      <c r="T148">
+        <f t="shared" si="29"/>
+        <v>10.127314550264547</v>
+      </c>
+    </row>
+    <row r="149" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B149" s="2">
+        <v>1</v>
+      </c>
+      <c r="C149" s="2">
+        <v>3</v>
+      </c>
+      <c r="D149" s="29">
+        <v>19</v>
+      </c>
+      <c r="E149" s="10">
+        <v>3</v>
+      </c>
+      <c r="F149">
+        <f>AVERAGE(B149:B152)</f>
+        <v>1</v>
+      </c>
+      <c r="G149">
+        <f>AVERAGE(C149:C152)</f>
+        <v>2.5</v>
+      </c>
+      <c r="H149">
+        <f>AVERAGE(D149:D152)</f>
+        <v>17.75</v>
+      </c>
+      <c r="I149">
+        <f>((B149-$F$136)^2+(C149-$G$136)^2+(D149-$H$136)^2)^0.5</f>
+        <v>19.261360284258224</v>
+      </c>
+      <c r="J149">
+        <f>((B149-$F$140)^2+(C149-$G$140)^2+(D149-$H$140)^2)^0.5</f>
+        <v>19.261360284258224</v>
+      </c>
+      <c r="K149">
+        <f>((B149-$F$147)^2+(C149-$G$147)^2+(D149-$H$147)^2)^0.5</f>
+        <v>19.261360284258224</v>
+      </c>
+      <c r="L149">
+        <f>((B149-$F$155)^2+(C149-$G$155)^2+(D149-$H$155)^2)^0.5</f>
+        <v>19.261360284258224</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <f>AVERAGE(B149:B156)</f>
+        <v>0.75</v>
+      </c>
+      <c r="O149">
+        <f t="shared" ref="O149:P149" si="31">AVERAGE(C149:C156)</f>
+        <v>2</v>
+      </c>
+      <c r="P149">
+        <f t="shared" si="31"/>
+        <v>14</v>
+      </c>
+      <c r="Q149">
+        <f t="shared" si="26"/>
+        <v>13.30413469565007</v>
+      </c>
+      <c r="R149">
+        <f t="shared" si="27"/>
+        <v>32.521387193660729</v>
+      </c>
+      <c r="S149">
+        <f t="shared" si="28"/>
+        <v>7.6648548583779457</v>
+      </c>
+      <c r="T149">
+        <f t="shared" si="29"/>
+        <v>5.1051444641655346</v>
+      </c>
+    </row>
+    <row r="150" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B150" s="2">
+        <v>1</v>
+      </c>
+      <c r="C150" s="2">
+        <v>2</v>
+      </c>
+      <c r="D150" s="29">
+        <v>17</v>
+      </c>
+      <c r="E150" s="10">
+        <v>3</v>
+      </c>
+      <c r="I150">
+        <f>((B150-$F$136)^2+(C150-$G$136)^2+(D150-$H$136)^2)^0.5</f>
+        <v>17.146428199482248</v>
+      </c>
+      <c r="J150">
+        <f>((B150-$F$140)^2+(C150-$G$140)^2+(D150-$H$140)^2)^0.5</f>
+        <v>17.146428199482248</v>
+      </c>
+      <c r="K150">
+        <f>((B150-$F$147)^2+(C150-$G$147)^2+(D150-$H$147)^2)^0.5</f>
+        <v>17.146428199482248</v>
+      </c>
+      <c r="L150">
+        <f>((B150-$F$155)^2+(C150-$G$155)^2+(D150-$H$155)^2)^0.5</f>
+        <v>17.146428199482248</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="Q150">
+        <f t="shared" si="26"/>
+        <v>15.427248620541512</v>
+      </c>
+      <c r="R150">
+        <f t="shared" si="27"/>
+        <v>34.635828631635192</v>
+      </c>
+      <c r="S150">
+        <f t="shared" si="28"/>
+        <v>9.7339611669658925</v>
+      </c>
+      <c r="T150">
+        <f t="shared" si="29"/>
+        <v>3.0103986446980739</v>
+      </c>
+    </row>
+    <row r="151" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B151" s="2">
+        <v>1</v>
+      </c>
+      <c r="C151" s="2">
+        <v>3</v>
+      </c>
+      <c r="D151" s="29">
+        <v>18</v>
+      </c>
+      <c r="E151" s="10">
+        <v>2</v>
+      </c>
+      <c r="I151">
+        <f>((B151-$F$136)^2+(C151-$G$136)^2+(D151-$H$136)^2)^0.5</f>
+        <v>18.275666882497067</v>
+      </c>
+      <c r="J151">
+        <f>((B151-$F$140)^2+(C151-$G$140)^2+(D151-$H$140)^2)^0.5</f>
+        <v>18.275666882497067</v>
+      </c>
+      <c r="K151">
+        <f>((B151-$F$147)^2+(C151-$G$147)^2+(D151-$H$147)^2)^0.5</f>
+        <v>18.275666882497067</v>
+      </c>
+      <c r="L151">
+        <f>((B151-$F$155)^2+(C151-$G$155)^2+(D151-$H$155)^2)^0.5</f>
+        <v>18.275666882497067</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="Q151">
+        <f t="shared" si="26"/>
+        <v>14.282856857085701</v>
+      </c>
+      <c r="R151">
+        <f t="shared" si="27"/>
+        <v>33.509560203022659</v>
+      </c>
+      <c r="S151">
+        <f t="shared" si="28"/>
+        <v>8.6458082328952912</v>
+      </c>
+      <c r="T151">
+        <f t="shared" si="29"/>
+        <v>4.1306779104645761</v>
+      </c>
+    </row>
+    <row r="152" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B152" s="2">
+        <v>1</v>
+      </c>
+      <c r="C152" s="2">
+        <v>2</v>
+      </c>
+      <c r="D152" s="29">
+        <v>17</v>
+      </c>
+      <c r="E152" s="10">
+        <v>2</v>
+      </c>
+      <c r="I152">
+        <f>((B152-$F$136)^2+(C152-$G$136)^2+(D152-$H$136)^2)^0.5</f>
+        <v>17.146428199482248</v>
+      </c>
+      <c r="J152">
+        <f>((B152-$F$140)^2+(C152-$G$140)^2+(D152-$H$140)^2)^0.5</f>
+        <v>17.146428199482248</v>
+      </c>
+      <c r="K152">
+        <f>((B152-$F$147)^2+(C152-$G$147)^2+(D152-$H$147)^2)^0.5</f>
+        <v>17.146428199482248</v>
+      </c>
+      <c r="L152">
+        <f>((B152-$F$155)^2+(C152-$G$155)^2+(D152-$H$155)^2)^0.5</f>
+        <v>17.146428199482248</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="Q152">
+        <f t="shared" si="26"/>
+        <v>15.427248620541512</v>
+      </c>
+      <c r="R152">
+        <f t="shared" si="27"/>
+        <v>34.635828631635192</v>
+      </c>
+      <c r="S152">
+        <f t="shared" si="28"/>
+        <v>9.7339611669658925</v>
+      </c>
+      <c r="T152">
+        <f t="shared" si="29"/>
+        <v>3.0103986446980739</v>
+      </c>
+    </row>
+    <row r="153" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B153" s="2">
+        <v>1</v>
+      </c>
+      <c r="C153" s="2">
+        <v>3</v>
+      </c>
+      <c r="D153" s="29">
+        <v>18</v>
+      </c>
+      <c r="E153" s="10">
+        <v>1</v>
+      </c>
+      <c r="I153">
+        <f>((B153-$F$136)^2+(C153-$G$136)^2+(D153-$H$136)^2)^0.5</f>
+        <v>18.275666882497067</v>
+      </c>
+      <c r="J153">
+        <f>((B153-$F$140)^2+(C153-$G$140)^2+(D153-$H$140)^2)^0.5</f>
+        <v>18.275666882497067</v>
+      </c>
+      <c r="K153">
+        <f>((B153-$F$147)^2+(C153-$G$147)^2+(D153-$H$147)^2)^0.5</f>
+        <v>18.275666882497067</v>
+      </c>
+      <c r="L153">
+        <f>((B153-$F$155)^2+(C153-$G$155)^2+(D153-$H$155)^2)^0.5</f>
+        <v>18.275666882497067</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="Q153">
+        <f t="shared" si="26"/>
+        <v>14.282856857085701</v>
+      </c>
+      <c r="R153">
+        <f t="shared" si="27"/>
+        <v>33.509560203022659</v>
+      </c>
+      <c r="S153">
+        <f t="shared" si="28"/>
+        <v>8.6458082328952912</v>
+      </c>
+      <c r="T153">
+        <f t="shared" si="29"/>
+        <v>4.1306779104645761</v>
+      </c>
+    </row>
+    <row r="154" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B154" s="2">
+        <v>0</v>
+      </c>
+      <c r="C154" s="2">
+        <v>0</v>
+      </c>
+      <c r="D154" s="29">
+        <v>1</v>
+      </c>
+      <c r="E154" s="10">
+        <v>1</v>
+      </c>
+      <c r="I154">
+        <f>((B154-$F$136)^2+(C154-$G$136)^2+(D154-$H$136)^2)^0.5</f>
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <f>((B154-$F$140)^2+(C154-$G$140)^2+(D154-$H$140)^2)^0.5</f>
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <f>((B154-$F$147)^2+(C154-$G$147)^2+(D154-$H$147)^2)^0.5</f>
+        <v>1</v>
+      </c>
+      <c r="L154">
+        <f>((B154-$F$155)^2+(C154-$G$155)^2+(D154-$H$155)^2)^0.5</f>
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="Q154">
+        <f t="shared" si="26"/>
+        <v>31.54362059117501</v>
+      </c>
+      <c r="R154">
+        <f t="shared" si="27"/>
+        <v>50.785240227845726</v>
+      </c>
+      <c r="S154">
+        <f t="shared" si="28"/>
+        <v>25.8602010819715</v>
+      </c>
+      <c r="T154">
+        <f t="shared" si="29"/>
+        <v>13.174312126255398</v>
+      </c>
+    </row>
+    <row r="155" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B155" s="2">
+        <v>1</v>
+      </c>
+      <c r="C155" s="2">
+        <v>2</v>
+      </c>
+      <c r="D155" s="29">
+        <v>17</v>
+      </c>
+      <c r="E155" s="10">
+        <v>1</v>
+      </c>
+      <c r="I155">
+        <f>((B155-$F$136)^2+(C155-$G$136)^2+(D155-$H$136)^2)^0.5</f>
+        <v>17.146428199482248</v>
+      </c>
+      <c r="J155">
+        <f>((B155-$F$140)^2+(C155-$G$140)^2+(D155-$H$140)^2)^0.5</f>
+        <v>17.146428199482248</v>
+      </c>
+      <c r="K155">
+        <f>((B155-$F$147)^2+(C155-$G$147)^2+(D155-$H$147)^2)^0.5</f>
+        <v>17.146428199482248</v>
+      </c>
+      <c r="L155">
+        <f>((B155-$F$155)^2+(C155-$G$155)^2+(D155-$H$155)^2)^0.5</f>
+        <v>17.146428199482248</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="Q155">
+        <f t="shared" si="26"/>
+        <v>15.427248620541512</v>
+      </c>
+      <c r="R155">
+        <f t="shared" si="27"/>
+        <v>34.635828631635192</v>
+      </c>
+      <c r="S155">
+        <f t="shared" si="28"/>
+        <v>9.7339611669658925</v>
+      </c>
+      <c r="T155">
+        <f t="shared" si="29"/>
+        <v>3.0103986446980739</v>
+      </c>
+    </row>
+    <row r="156" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B156" s="2">
+        <v>0</v>
+      </c>
+      <c r="C156" s="2">
+        <v>1</v>
+      </c>
+      <c r="D156" s="29">
+        <v>5</v>
+      </c>
+      <c r="E156" s="10">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <f>AVERAGE(B156:B157)</f>
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <f>AVERAGE(C156:C157)</f>
+        <v>1</v>
+      </c>
+      <c r="H156">
+        <f>AVERAGE(D156:D157)</f>
+        <v>5</v>
+      </c>
+      <c r="I156">
+        <f>((B156-$F$136)^2+(C156-$G$136)^2+(D156-$H$136)^2)^0.5</f>
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="J156">
+        <f>((B156-$F$140)^2+(C156-$G$140)^2+(D156-$H$140)^2)^0.5</f>
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="K156">
+        <f>((B156-$F$147)^2+(C156-$G$147)^2+(D156-$H$147)^2)^0.5</f>
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="L156">
+        <f>((B156-$F$155)^2+(C156-$G$155)^2+(D156-$H$155)^2)^0.5</f>
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="Q156">
+        <f t="shared" si="26"/>
+        <v>27.459060435491963</v>
+      </c>
+      <c r="R156">
+        <f t="shared" si="27"/>
+        <v>46.697329955790835</v>
+      </c>
+      <c r="S156">
+        <f t="shared" si="28"/>
+        <v>21.788758569500924</v>
+      </c>
+      <c r="T156">
+        <f t="shared" si="29"/>
+        <v>9.0863909226931234</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Q42:Q62">
-    <sortCondition ref="Q41:Q62"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B136:M156">
+    <sortCondition descending="1" ref="M156"/>
   </sortState>
-  <mergeCells count="35">
+  <mergeCells count="34">
+    <mergeCell ref="S86:S87"/>
+    <mergeCell ref="T86:U87"/>
+    <mergeCell ref="S74:S75"/>
+    <mergeCell ref="T74:T75"/>
+    <mergeCell ref="U74:U75"/>
+    <mergeCell ref="S78:S79"/>
+    <mergeCell ref="T78:U79"/>
+    <mergeCell ref="AH67:AH68"/>
+    <mergeCell ref="T82:W83"/>
+    <mergeCell ref="T84:W84"/>
+    <mergeCell ref="T80:U80"/>
+    <mergeCell ref="S82:S83"/>
+    <mergeCell ref="AG67:AG68"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="R4:T4"/>
     <mergeCell ref="F101:L101"/>
     <mergeCell ref="V4:X4"/>
     <mergeCell ref="F2:G2"/>
@@ -8346,25 +8797,6 @@
     <mergeCell ref="AB30:AC30"/>
     <mergeCell ref="AA38:AD38"/>
     <mergeCell ref="F72:L72"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="AH67:AH68"/>
-    <mergeCell ref="T82:W83"/>
-    <mergeCell ref="T84:W84"/>
-    <mergeCell ref="T80:U80"/>
-    <mergeCell ref="S82:S83"/>
-    <mergeCell ref="AG67:AG68"/>
-    <mergeCell ref="AA72:AF72"/>
-    <mergeCell ref="S86:S87"/>
-    <mergeCell ref="T86:U87"/>
-    <mergeCell ref="S74:S75"/>
-    <mergeCell ref="T74:T75"/>
-    <mergeCell ref="U74:U75"/>
-    <mergeCell ref="S78:S79"/>
-    <mergeCell ref="T78:U79"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tarea1/doc/ExcelEmpleadoPunto1/Tarea1Estadistica320232.xlsx
+++ b/Tarea1/doc/ExcelEmpleadoPunto1/Tarea1Estadistica320232.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Miguel Rios\Desktop\Tarea1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20E8B2D-2102-4575-80BC-0FAB27059AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A9643D-C70D-4801-92FF-78761E7DFA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Respuestas" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Respuestas!$I$41:$I$61</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Respuestas!$G$41:$G$61</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Respuestas!$H$41:$H$61</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Respuestas!$G$41:$G$61</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Respuestas!$I$41:$I$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="86">
   <si>
     <t>Set de datos</t>
   </si>
@@ -264,6 +264,42 @@
   <si>
     <t>CentroideX3_it2</t>
   </si>
+  <si>
+    <t>ITERACION 2</t>
+  </si>
+  <si>
+    <t>ITERACION 1</t>
+  </si>
+  <si>
+    <t>ITERACION 3</t>
+  </si>
+  <si>
+    <t>CentroideX1_it3</t>
+  </si>
+  <si>
+    <t>CentroideX2_it3</t>
+  </si>
+  <si>
+    <t>CentroideX3_i1t3</t>
+  </si>
+  <si>
+    <t>INICIALIZACION</t>
+  </si>
+  <si>
+    <t>ITERACION 4</t>
+  </si>
+  <si>
+    <t>CentroideX1_it4</t>
+  </si>
+  <si>
+    <t>CentroideX2_it4</t>
+  </si>
+  <si>
+    <t>CentroideX3_i1t4</t>
+  </si>
+  <si>
+    <t>Punto 1.6 K-MEANS K=3 INTENTO Y DUDAS</t>
+  </si>
 </sst>
 </file>
 
@@ -335,7 +371,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -657,11 +693,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -745,6 +790,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -757,34 +835,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -809,7 +865,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -939,7 +995,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2784,8 +2840,8 @@
       <xdr:rowOff>33617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>818029</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>132564</xdr:rowOff>
     </xdr:to>
@@ -2835,7 +2891,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>515695</xdr:colOff>
+      <xdr:colOff>161909</xdr:colOff>
       <xdr:row>95</xdr:row>
       <xdr:rowOff>74097</xdr:rowOff>
     </xdr:to>
@@ -2967,8 +3023,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10086976" y="7215187"/>
-              <a:ext cx="3352800" cy="2738438"/>
+              <a:off x="12220576" y="7215187"/>
+              <a:ext cx="3590925" cy="2738438"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3045,8 +3101,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9805987" y="10387012"/>
-              <a:ext cx="4033838" cy="2595563"/>
+              <a:off x="11939587" y="10387012"/>
+              <a:ext cx="4271963" cy="2595563"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3123,8 +3179,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="18197512" y="8386762"/>
-              <a:ext cx="3357563" cy="2671763"/>
+              <a:off x="21826537" y="8386762"/>
+              <a:ext cx="3548063" cy="2671763"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3420,17 +3476,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ156"/>
+  <dimension ref="A1:AQ182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U150" sqref="U150"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
@@ -3442,25 +3498,33 @@
     <col min="19" max="19" width="21.5703125" customWidth="1"/>
     <col min="20" max="20" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.85546875" customWidth="1"/>
-    <col min="32" max="32" width="13.28515625" customWidth="1"/>
-    <col min="33" max="33" width="20" customWidth="1"/>
-    <col min="34" max="34" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.5703125" customWidth="1"/>
-    <col min="37" max="39" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="15" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.140625" customWidth="1"/>
+    <col min="26" max="26" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="F2" s="41" t="s">
+      <c r="A2" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="F2" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="43"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -3493,41 +3557,41 @@
       <c r="AG3" s="6"/>
     </row>
     <row r="4" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
       <c r="F4" s="5"/>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="42"/>
-      <c r="J4" s="43"/>
-      <c r="M4" s="41" t="s">
+      <c r="I4" s="53"/>
+      <c r="J4" s="54"/>
+      <c r="M4" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="42"/>
-      <c r="O4" s="43"/>
-      <c r="R4" s="41" t="s">
+      <c r="N4" s="53"/>
+      <c r="O4" s="54"/>
+      <c r="R4" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="S4" s="42"/>
-      <c r="T4" s="43"/>
-      <c r="V4" s="41" t="s">
+      <c r="S4" s="53"/>
+      <c r="T4" s="54"/>
+      <c r="V4" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="W4" s="42"/>
-      <c r="X4" s="43"/>
-      <c r="Z4" s="41" t="s">
+      <c r="W4" s="53"/>
+      <c r="X4" s="54"/>
+      <c r="Z4" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="43"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="53"/>
+      <c r="AD4" s="53"/>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="54"/>
       <c r="AG4" s="6"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
@@ -4982,10 +5046,10 @@
     </row>
     <row r="30" spans="2:33" x14ac:dyDescent="0.25">
       <c r="F30" s="5"/>
-      <c r="AB30" s="45" t="s">
+      <c r="AB30" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="AC30" s="45"/>
+      <c r="AC30" s="49"/>
       <c r="AD30" s="10">
         <f>SUM(AD8:AD28)</f>
         <v>46.666666666666671</v>
@@ -5002,19 +5066,19 @@
     </row>
     <row r="31" spans="2:33" x14ac:dyDescent="0.25">
       <c r="F31" s="5"/>
-      <c r="AB31" s="44" t="s">
+      <c r="AB31" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="AC31" s="44"/>
-      <c r="AD31" s="45">
+      <c r="AC31" s="55"/>
+      <c r="AD31" s="49">
         <f>AD30/AA6</f>
         <v>2.2222222222222223</v>
       </c>
-      <c r="AE31" s="45">
+      <c r="AE31" s="49">
         <f>AE30/AA6</f>
         <v>6.5306122448979576</v>
       </c>
-      <c r="AF31" s="45">
+      <c r="AF31" s="49">
         <f>AF30/AA6</f>
         <v>314.80725623582765</v>
       </c>
@@ -5022,28 +5086,28 @@
     </row>
     <row r="32" spans="2:33" x14ac:dyDescent="0.25">
       <c r="F32" s="5"/>
-      <c r="AB32" s="44"/>
-      <c r="AC32" s="44"/>
-      <c r="AD32" s="45"/>
-      <c r="AE32" s="45"/>
-      <c r="AF32" s="45"/>
+      <c r="AB32" s="55"/>
+      <c r="AC32" s="55"/>
+      <c r="AD32" s="49"/>
+      <c r="AE32" s="49"/>
+      <c r="AF32" s="49"/>
       <c r="AG32" s="6"/>
     </row>
     <row r="33" spans="6:43" x14ac:dyDescent="0.25">
       <c r="F33" s="5"/>
-      <c r="AB33" s="44" t="s">
+      <c r="AB33" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="AC33" s="44"/>
-      <c r="AD33" s="45">
+      <c r="AC33" s="55"/>
+      <c r="AD33" s="49">
         <f>SQRT(AD31)</f>
         <v>1.4907119849998598</v>
       </c>
-      <c r="AE33" s="45">
+      <c r="AE33" s="49">
         <f>SQRT(AE31)</f>
         <v>2.5555062599997593</v>
       </c>
-      <c r="AF33" s="45">
+      <c r="AF33" s="49">
         <f>SQRT(AF31)</f>
         <v>17.742808578007814</v>
       </c>
@@ -5051,11 +5115,11 @@
     </row>
     <row r="34" spans="6:43" x14ac:dyDescent="0.25">
       <c r="F34" s="5"/>
-      <c r="AB34" s="44"/>
-      <c r="AC34" s="44"/>
-      <c r="AD34" s="45"/>
-      <c r="AE34" s="45"/>
-      <c r="AF34" s="45"/>
+      <c r="AB34" s="55"/>
+      <c r="AC34" s="55"/>
+      <c r="AD34" s="49"/>
+      <c r="AE34" s="49"/>
+      <c r="AF34" s="49"/>
       <c r="AG34" s="6"/>
     </row>
     <row r="35" spans="6:43" x14ac:dyDescent="0.25">
@@ -5094,10 +5158,10 @@
     </row>
     <row r="37" spans="6:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="6:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F38" s="41" t="s">
+      <c r="F38" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="G38" s="43"/>
+      <c r="G38" s="54"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -5116,12 +5180,12 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="4"/>
-      <c r="AA38" s="41" t="s">
+      <c r="AA38" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AB38" s="42"/>
-      <c r="AC38" s="42"/>
-      <c r="AD38" s="43"/>
+      <c r="AB38" s="53"/>
+      <c r="AC38" s="53"/>
+      <c r="AD38" s="54"/>
       <c r="AE38" s="3"/>
       <c r="AF38" s="3"/>
       <c r="AG38" s="3"/>
@@ -6000,10 +6064,10 @@
       </c>
       <c r="Y67" s="6"/>
       <c r="AA67" s="5"/>
-      <c r="AG67" s="52" t="s">
+      <c r="AG67" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="AH67" s="48">
+      <c r="AH67" s="46">
         <f>_xlfn.COVARIANCE.P(AB41:AB61,AC41:AC61)</f>
         <v>3.5714285714285716</v>
       </c>
@@ -6027,8 +6091,8 @@
       </c>
       <c r="Y68" s="6"/>
       <c r="AA68" s="5"/>
-      <c r="AG68" s="52"/>
-      <c r="AH68" s="49"/>
+      <c r="AG68" s="43"/>
+      <c r="AH68" s="47"/>
       <c r="AQ68" s="6"/>
     </row>
     <row r="69" spans="6:43" x14ac:dyDescent="0.25">
@@ -6103,15 +6167,15 @@
     </row>
     <row r="71" spans="6:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="72" spans="6:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F72" s="41" t="s">
+      <c r="F72" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="G72" s="42"/>
-      <c r="H72" s="42"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="42"/>
-      <c r="K72" s="42"/>
-      <c r="L72" s="43"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="53"/>
+      <c r="I72" s="53"/>
+      <c r="J72" s="53"/>
+      <c r="K72" s="53"/>
+      <c r="L72" s="54"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
@@ -6159,13 +6223,13 @@
       <c r="Q74" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="S74" s="52" t="s">
+      <c r="S74" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="T74" s="53" t="s">
+      <c r="T74" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="U74" s="53" t="s">
+      <c r="U74" s="45" t="s">
         <v>44</v>
       </c>
       <c r="Y74" s="6"/>
@@ -6198,9 +6262,9 @@
         <f>L75^2</f>
         <v>0.18367346938775531</v>
       </c>
-      <c r="S75" s="52"/>
-      <c r="T75" s="53"/>
-      <c r="U75" s="53"/>
+      <c r="S75" s="43"/>
+      <c r="T75" s="45"/>
+      <c r="U75" s="45"/>
       <c r="Y75" s="6"/>
     </row>
     <row r="76" spans="6:43" x14ac:dyDescent="0.25">
@@ -6299,13 +6363,13 @@
         <f t="shared" si="20"/>
         <v>0.32653061224489766</v>
       </c>
-      <c r="S78" s="52" t="s">
+      <c r="S78" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="T78" s="53" t="s">
+      <c r="T78" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="U78" s="53"/>
+      <c r="U78" s="45"/>
       <c r="Y78" s="6"/>
     </row>
     <row r="79" spans="6:43" x14ac:dyDescent="0.25">
@@ -6336,9 +6400,9 @@
         <f t="shared" si="20"/>
         <v>2.0408163265306132</v>
       </c>
-      <c r="S79" s="52"/>
-      <c r="T79" s="53"/>
-      <c r="U79" s="53"/>
+      <c r="S79" s="43"/>
+      <c r="T79" s="45"/>
+      <c r="U79" s="45"/>
       <c r="Y79" s="6"/>
     </row>
     <row r="80" spans="6:43" x14ac:dyDescent="0.25">
@@ -6369,11 +6433,11 @@
         <f t="shared" si="20"/>
         <v>2.4693877551020402</v>
       </c>
-      <c r="T80" s="45">
+      <c r="T80" s="49">
         <f>T76*U76</f>
         <v>80.000000000000014</v>
       </c>
-      <c r="U80" s="45"/>
+      <c r="U80" s="49"/>
       <c r="Y80" s="6"/>
     </row>
     <row r="81" spans="6:25" x14ac:dyDescent="0.25">
@@ -6434,15 +6498,15 @@
         <f t="shared" si="20"/>
         <v>11.755102040816329</v>
       </c>
-      <c r="S82" s="52" t="s">
+      <c r="S82" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="T82" s="50" t="s">
+      <c r="T82" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="U82" s="50"/>
-      <c r="V82" s="50"/>
-      <c r="W82" s="50"/>
+      <c r="U82" s="48"/>
+      <c r="V82" s="48"/>
+      <c r="W82" s="48"/>
       <c r="Y82" s="6"/>
     </row>
     <row r="83" spans="6:25" x14ac:dyDescent="0.25">
@@ -6473,11 +6537,11 @@
         <f t="shared" si="20"/>
         <v>2.0408163265306132</v>
       </c>
-      <c r="S83" s="52"/>
-      <c r="T83" s="50"/>
-      <c r="U83" s="50"/>
-      <c r="V83" s="50"/>
-      <c r="W83" s="50"/>
+      <c r="S83" s="43"/>
+      <c r="T83" s="48"/>
+      <c r="U83" s="48"/>
+      <c r="V83" s="48"/>
+      <c r="W83" s="48"/>
       <c r="Y83" s="6"/>
     </row>
     <row r="84" spans="6:25" x14ac:dyDescent="0.25">
@@ -6508,13 +6572,13 @@
         <f t="shared" si="20"/>
         <v>19.612244897959187</v>
       </c>
-      <c r="T84" s="51">
+      <c r="T84" s="44">
         <f>M97/T80</f>
         <v>0.93749999999999978</v>
       </c>
-      <c r="U84" s="51"/>
-      <c r="V84" s="51"/>
-      <c r="W84" s="51"/>
+      <c r="U84" s="44"/>
+      <c r="V84" s="44"/>
+      <c r="W84" s="44"/>
       <c r="Y84" s="6"/>
     </row>
     <row r="85" spans="6:25" x14ac:dyDescent="0.25">
@@ -6575,14 +6639,14 @@
         <f t="shared" si="20"/>
         <v>5.8979591836734704</v>
       </c>
-      <c r="S86" s="52" t="s">
+      <c r="S86" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="T86" s="51">
+      <c r="T86" s="44">
         <f>CORREL(G75:G95,H75:H95)</f>
         <v>0.9375</v>
       </c>
-      <c r="U86" s="51"/>
+      <c r="U86" s="44"/>
       <c r="Y86" s="6"/>
     </row>
     <row r="87" spans="6:25" x14ac:dyDescent="0.25">
@@ -6613,9 +6677,9 @@
         <f t="shared" si="20"/>
         <v>2.0408163265306132</v>
       </c>
-      <c r="S87" s="52"/>
-      <c r="T87" s="51"/>
-      <c r="U87" s="51"/>
+      <c r="S87" s="43"/>
+      <c r="T87" s="44"/>
+      <c r="U87" s="44"/>
       <c r="Y87" s="6"/>
     </row>
     <row r="88" spans="6:25" x14ac:dyDescent="0.25">
@@ -6922,15 +6986,15 @@
     </row>
     <row r="100" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="101" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F101" s="41" t="s">
+      <c r="F101" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="G101" s="42"/>
-      <c r="H101" s="42"/>
-      <c r="I101" s="42"/>
-      <c r="J101" s="42"/>
-      <c r="K101" s="42"/>
-      <c r="L101" s="43"/>
+      <c r="G101" s="53"/>
+      <c r="H101" s="53"/>
+      <c r="I101" s="53"/>
+      <c r="J101" s="53"/>
+      <c r="K101" s="53"/>
+      <c r="L101" s="54"/>
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
       <c r="O101" s="4"/>
@@ -7571,14 +7635,114 @@
       <c r="N127" s="8"/>
       <c r="O127" s="9"/>
     </row>
-    <row r="135" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="133" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="B133" s="53"/>
+      <c r="C133" s="53"/>
+      <c r="D133" s="53"/>
+      <c r="E133" s="53"/>
+      <c r="F133" s="53"/>
+      <c r="G133" s="54"/>
+      <c r="H133" s="3"/>
+      <c r="I133" s="3"/>
+      <c r="J133" s="3"/>
+      <c r="K133" s="3"/>
+      <c r="L133" s="3"/>
+      <c r="M133" s="3"/>
+      <c r="N133" s="3"/>
+      <c r="O133" s="3"/>
+      <c r="P133" s="3"/>
+      <c r="Q133" s="3"/>
+      <c r="R133" s="3"/>
+      <c r="S133" s="3"/>
+      <c r="T133" s="3"/>
+      <c r="U133" s="3"/>
+      <c r="V133" s="3"/>
+      <c r="W133" s="3"/>
+      <c r="X133" s="3"/>
+      <c r="Y133" s="3"/>
+      <c r="Z133" s="3"/>
+      <c r="AA133" s="3"/>
+      <c r="AB133" s="3"/>
+      <c r="AC133" s="3"/>
+      <c r="AD133" s="3"/>
+      <c r="AE133" s="3"/>
+      <c r="AF133" s="3"/>
+      <c r="AG133" s="3"/>
+      <c r="AH133" s="3"/>
+      <c r="AI133" s="3"/>
+      <c r="AJ133" s="3"/>
+      <c r="AK133" s="3"/>
+      <c r="AL133" s="4"/>
+    </row>
+    <row r="134" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A134" s="5"/>
+      <c r="B134" s="58"/>
+      <c r="C134" s="58"/>
+      <c r="D134" s="58"/>
+      <c r="E134" s="58"/>
+      <c r="F134" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="G134" s="56"/>
+      <c r="H134" s="56"/>
+      <c r="I134" s="58"/>
+      <c r="J134" s="58"/>
+      <c r="K134" s="58"/>
+      <c r="L134" s="58"/>
+      <c r="M134" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="N134" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="O134" s="56"/>
+      <c r="P134" s="56"/>
+      <c r="Q134" s="57"/>
+      <c r="R134" s="58"/>
+      <c r="S134" s="58"/>
+      <c r="T134" s="58"/>
+      <c r="U134" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="V134" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="W134" s="56"/>
+      <c r="X134" s="56"/>
+      <c r="Y134" s="57"/>
+      <c r="Z134" s="58"/>
+      <c r="AA134" s="58"/>
+      <c r="AB134" s="58"/>
+      <c r="AC134" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD134" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE134" s="56"/>
+      <c r="AF134" s="56"/>
+      <c r="AG134" s="57"/>
+      <c r="AH134" s="58"/>
+      <c r="AI134" s="58"/>
+      <c r="AJ134" s="58"/>
+      <c r="AK134" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL134" s="6"/>
+    </row>
+    <row r="135" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A135" s="5"/>
       <c r="B135" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D135" s="54" t="s">
+      <c r="D135" s="42" t="s">
         <v>4</v>
       </c>
       <c r="E135" s="15" t="s">
@@ -7632,8 +7796,58 @@
       <c r="U135" s="15" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="136" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V135" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="W135" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="X135" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y135" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z135" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA135" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB135" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC135" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD135" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE135" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF135" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG135" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH135" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI135" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ135" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK135" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL135" s="6"/>
+    </row>
+    <row r="136" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A136" s="5"/>
       <c r="B136" s="2">
         <v>3</v>
       </c>
@@ -7646,165 +7860,333 @@
       <c r="E136" s="10">
         <v>2</v>
       </c>
-      <c r="I136">
+      <c r="F136" s="58"/>
+      <c r="G136" s="58"/>
+      <c r="H136" s="58"/>
+      <c r="I136" s="58">
         <f>((B136-$F$136)^2+(C136-$G$136)^2+(D136-$H$136)^2)^0.5</f>
         <v>32.526911934581186</v>
       </c>
-      <c r="J136">
+      <c r="J136" s="58">
         <f>((B136-$F$140)^2+(C136-$G$140)^2+(D136-$H$140)^2)^0.5</f>
-        <v>32.526911934581186</v>
-      </c>
-      <c r="K136">
+        <v>18.72137270390094</v>
+      </c>
+      <c r="K136" s="58">
         <f>((B136-$F$147)^2+(C136-$G$147)^2+(D136-$H$147)^2)^0.5</f>
-        <v>32.526911934581186</v>
-      </c>
-      <c r="L136">
+        <v>15.098634044177638</v>
+      </c>
+      <c r="L136" s="58">
         <f>((B136-$F$155)^2+(C136-$G$155)^2+(D136-$H$155)^2)^0.5</f>
         <v>32.526911934581186</v>
       </c>
-      <c r="M136">
-        <v>3</v>
-      </c>
-      <c r="N136">
+      <c r="M136" s="58">
+        <v>3</v>
+      </c>
+      <c r="N136" s="58">
         <f>AVERAGE(B136)</f>
         <v>3</v>
       </c>
-      <c r="O136">
-        <f t="shared" ref="O136:P136" si="24">AVERAGE(C136)</f>
+      <c r="O136" s="58">
+        <f>AVERAGE(C136)</f>
         <v>5</v>
       </c>
-      <c r="P136">
-        <f t="shared" si="24"/>
+      <c r="P136" s="58">
+        <f>AVERAGE(D136)</f>
         <v>32</v>
       </c>
-      <c r="Q136">
+      <c r="Q136" s="58">
         <f>((B136-$N$136)^2+(C136-$O$136)^2+(D136-$P$136)^2)^0.5</f>
         <v>0</v>
       </c>
-      <c r="R136">
+      <c r="R136" s="58">
         <f>((B136-$N$137)^2+(C136-$O$137)^2+(D136-$P$137)^2)^0.5</f>
-        <v>19.271497736294396</v>
-      </c>
-      <c r="S136">
+        <v>32.526911934581186</v>
+      </c>
+      <c r="S136" s="58">
         <f>((B136-$N$145)^2+(C136-$O$145)^2+(D136-$P$145)^2)^0.5</f>
-        <v>5.7227615711297988</v>
-      </c>
-      <c r="T136">
+        <v>32.526911934581186</v>
+      </c>
+      <c r="T136" s="58">
         <f>((B136-$N$149)^2+(C136-$O$149)^2+(D136-$P$149)^2)^0.5</f>
         <v>18.386476008196894</v>
       </c>
-    </row>
-    <row r="137" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="U136" s="58">
+        <v>3</v>
+      </c>
+      <c r="V136" s="58">
+        <f>AVERAGE(B136:B138)</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="W136" s="58">
+        <f>AVERAGE(C136:C138)</f>
+        <v>5</v>
+      </c>
+      <c r="X136" s="58">
+        <f>AVERAGE(D136:D138)</f>
+        <v>34.333333333333336</v>
+      </c>
+      <c r="Y136" s="58">
+        <f>((B136-$V$136)^2+(C136-$W$136)^2+(D136-$X$136)^2)^0.5</f>
+        <v>2.3570226039551607</v>
+      </c>
+      <c r="Z136" s="58">
+        <f>((B136-$V$139)^2+(C136-$W$139)^2+(D136-$X$139)^2)^0.5</f>
+        <v>32.526911934581186</v>
+      </c>
+      <c r="AA136" s="58">
+        <f>((B136-$V$146)^2+(C136-$W$146)^2+(D136-$X$146)^2)^0.5</f>
+        <v>32.526911934581186</v>
+      </c>
+      <c r="AB136" s="58">
+        <f>((B136-$V$149)^2+(C136-$W$149)^2+(D136-$X$149)^2)^0.5</f>
+        <v>18.386476008196894</v>
+      </c>
+      <c r="AC136" s="58">
+        <v>3</v>
+      </c>
+      <c r="AD136" s="58">
+        <f>AVERAGE(B136:B140)</f>
+        <v>3</v>
+      </c>
+      <c r="AE136" s="58">
+        <f t="shared" ref="AE136:AF136" si="24">AVERAGE(C136:C140)</f>
+        <v>5</v>
+      </c>
+      <c r="AF136" s="58">
+        <f t="shared" si="24"/>
+        <v>34.6</v>
+      </c>
+      <c r="AG136" s="58">
+        <f>((B136-$AD$136)^2+(C136-$AE$136)^2+(D136-$AF$136)^2)^0.5</f>
+        <v>2.6000000000000014</v>
+      </c>
+      <c r="AH136" s="58">
+        <f>((B136-$AD$141)^2+(C136-$AE$141)^2+(D136-$AF$141)^2)^0.5</f>
+        <v>22.514193054357712</v>
+      </c>
+      <c r="AI136" s="58">
+        <f>((B136-$AD$147)^2+(C136-$AE$147)^2+(D136-$AF$147)^2)^0.5</f>
+        <v>8.3066238629180749</v>
+      </c>
+      <c r="AJ136" s="58">
+        <f>((B136-$AD$149)^2+(C136-$AE$149)^2+(D136-$AF$149)^2)^0.5</f>
+        <v>18.386476008196894</v>
+      </c>
+      <c r="AK136" s="58">
+        <v>3</v>
+      </c>
+      <c r="AL136" s="6"/>
+    </row>
+    <row r="137" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A137" s="5"/>
       <c r="B137" s="2">
+        <v>3</v>
+      </c>
+      <c r="C137" s="2">
+        <v>6</v>
+      </c>
+      <c r="D137" s="29">
+        <v>41</v>
+      </c>
+      <c r="E137" s="10">
+        <v>2</v>
+      </c>
+      <c r="F137" s="58"/>
+      <c r="G137" s="58"/>
+      <c r="H137" s="58"/>
+      <c r="I137" s="58">
+        <f>((B137-$F$136)^2+(C137-$G$136)^2+(D137-$H$136)^2)^0.5</f>
+        <v>41.54515615568198</v>
+      </c>
+      <c r="J137" s="58">
+        <f>((B137-$F$140)^2+(C137-$G$140)^2+(D137-$H$140)^2)^0.5</f>
+        <v>9.6911489177980723</v>
+      </c>
+      <c r="K137" s="58">
+        <f>((B137-$F$147)^2+(C137-$G$147)^2+(D137-$H$147)^2)^0.5</f>
+        <v>24.098106772109713</v>
+      </c>
+      <c r="L137" s="58">
+        <f>((B137-$F$155)^2+(C137-$G$155)^2+(D137-$H$155)^2)^0.5</f>
+        <v>41.54515615568198</v>
+      </c>
+      <c r="M137" s="58">
+        <v>2</v>
+      </c>
+      <c r="N137" s="58"/>
+      <c r="O137" s="58"/>
+      <c r="P137" s="58"/>
+      <c r="Q137" s="58">
+        <f>((B137-$N$136)^2+(C137-$O$136)^2+(D137-$P$136)^2)^0.5</f>
+        <v>9.0553851381374173</v>
+      </c>
+      <c r="R137" s="58">
+        <f>((B137-$N$137)^2+(C137-$O$137)^2+(D137-$P$137)^2)^0.5</f>
+        <v>41.54515615568198</v>
+      </c>
+      <c r="S137" s="58">
+        <f>((B137-$N$145)^2+(C137-$O$145)^2+(D137-$P$145)^2)^0.5</f>
+        <v>41.54515615568198</v>
+      </c>
+      <c r="T137" s="58">
+        <f>((B137-$N$149)^2+(C137-$O$149)^2+(D137-$P$149)^2)^0.5</f>
+        <v>27.387268940148086</v>
+      </c>
+      <c r="U137" s="58">
+        <v>3</v>
+      </c>
+      <c r="V137" s="58"/>
+      <c r="W137" s="58"/>
+      <c r="X137" s="58"/>
+      <c r="Y137" s="58">
+        <f>((B137-$V$136)^2+(C137-$W$136)^2+(D137-$X$136)^2)^0.5</f>
+        <v>6.7494855771055269</v>
+      </c>
+      <c r="Z137" s="58">
+        <f>((B137-$V$139)^2+(C137-$W$139)^2+(D137-$X$139)^2)^0.5</f>
+        <v>41.54515615568198</v>
+      </c>
+      <c r="AA137" s="58">
+        <f>((B137-$V$146)^2+(C137-$W$146)^2+(D137-$X$146)^2)^0.5</f>
+        <v>41.54515615568198</v>
+      </c>
+      <c r="AB137" s="58">
+        <f>((B137-$V$149)^2+(C137-$W$149)^2+(D137-$X$149)^2)^0.5</f>
+        <v>27.387268940148086</v>
+      </c>
+      <c r="AC137" s="58">
+        <v>3</v>
+      </c>
+      <c r="AD137" s="58"/>
+      <c r="AE137" s="58"/>
+      <c r="AF137" s="58"/>
+      <c r="AG137" s="58">
+        <f t="shared" ref="AG137:AG156" si="25">((B137-$AD$136)^2+(C137-$AE$136)^2+(D137-$AF$136)^2)^0.5</f>
+        <v>6.4776538962806569</v>
+      </c>
+      <c r="AH137" s="58">
+        <f t="shared" ref="AH137:AH156" si="26">((B137-$AD$141)^2+(C137-$AE$141)^2+(D137-$AF$141)^2)^0.5</f>
+        <v>13.474255287605159</v>
+      </c>
+      <c r="AI137" s="58">
+        <f t="shared" ref="AI137:AI156" si="27">((B137-$AD$147)^2+(C137-$AE$147)^2+(D137-$AF$147)^2)^0.5</f>
+        <v>17.291616465790582</v>
+      </c>
+      <c r="AJ137" s="58">
+        <f>((B137-$AD$149)^2+(C137-$AE$149)^2+(D137-$AF$149)^2)^0.5</f>
+        <v>27.387268940148086</v>
+      </c>
+      <c r="AK137" s="58">
+        <v>3</v>
+      </c>
+      <c r="AL137" s="6"/>
+    </row>
+    <row r="138" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A138" s="5"/>
+      <c r="B138" s="2">
+        <v>2</v>
+      </c>
+      <c r="C138" s="2">
         <v>4</v>
       </c>
-      <c r="C137" s="2">
-        <v>8</v>
-      </c>
-      <c r="D137" s="29">
-        <v>56</v>
-      </c>
-      <c r="E137" s="10">
-        <v>3</v>
-      </c>
-      <c r="I137">
-        <f>((B137-$F$136)^2+(C137-$G$136)^2+(D137-$H$136)^2)^0.5</f>
-        <v>56.709787515031302</v>
-      </c>
-      <c r="J137">
-        <f>((B137-$F$140)^2+(C137-$G$140)^2+(D137-$H$140)^2)^0.5</f>
-        <v>56.709787515031302</v>
-      </c>
-      <c r="K137">
-        <f>((B137-$F$147)^2+(C137-$G$147)^2+(D137-$H$147)^2)^0.5</f>
-        <v>56.709787515031302</v>
-      </c>
-      <c r="L137">
-        <f>((B137-$F$155)^2+(C137-$G$155)^2+(D137-$H$155)^2)^0.5</f>
-        <v>56.709787515031302</v>
-      </c>
-      <c r="M137">
-        <v>2</v>
-      </c>
-      <c r="N137">
-        <f>AVERAGE(B137:B144)</f>
-        <v>3.75</v>
-      </c>
-      <c r="O137">
-        <f>AVERAGE(C137:C144)</f>
-        <v>7.25</v>
-      </c>
-      <c r="P137">
-        <f t="shared" ref="O137:P137" si="25">AVERAGE(D137:D144)</f>
-        <v>51.125</v>
-      </c>
-      <c r="Q137">
-        <f t="shared" ref="Q137:Q156" si="26">((B137-$N$136)^2+(C137-$O$136)^2+(D137-$P$136)^2)^0.5</f>
-        <v>24.207436873820409</v>
-      </c>
-      <c r="R137">
-        <f t="shared" ref="R137:R156" si="27">((B137-$N$137)^2+(C137-$O$137)^2+(D137-$P$137)^2)^0.5</f>
-        <v>4.9386865662846029</v>
-      </c>
-      <c r="S137">
-        <f t="shared" ref="S137:S156" si="28">((B137-$N$145)^2+(C137-$O$145)^2+(D137-$P$145)^2)^0.5</f>
-        <v>29.878922336657325</v>
-      </c>
-      <c r="T137">
-        <f t="shared" ref="T137:T156" si="29">((B137-$N$149)^2+(C137-$O$149)^2+(D137-$P$149)^2)^0.5</f>
-        <v>42.550705047037702</v>
-      </c>
-    </row>
-    <row r="138" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B138" s="2">
-        <v>3</v>
-      </c>
-      <c r="C138" s="2">
-        <v>6</v>
-      </c>
       <c r="D138" s="29">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E138" s="10">
-        <v>3</v>
-      </c>
-      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="F138" s="58"/>
+      <c r="G138" s="58"/>
+      <c r="H138" s="58"/>
+      <c r="I138" s="58">
         <f>((B138-$F$136)^2+(C138-$G$136)^2+(D138-$H$136)^2)^0.5</f>
-        <v>44.50842616853577</v>
-      </c>
-      <c r="J138">
+        <v>30.331501776206203</v>
+      </c>
+      <c r="J138" s="58">
         <f>((B138-$F$140)^2+(C138-$G$140)^2+(D138-$H$140)^2)^0.5</f>
-        <v>44.50842616853577</v>
-      </c>
-      <c r="K138">
+        <v>20.906009291344819</v>
+      </c>
+      <c r="K138" s="58">
         <f>((B138-$F$147)^2+(C138-$G$147)^2+(D138-$H$147)^2)^0.5</f>
-        <v>44.50842616853577</v>
-      </c>
-      <c r="L138">
+        <v>12.882885934448073</v>
+      </c>
+      <c r="L138" s="58">
         <f>((B138-$F$155)^2+(C138-$G$155)^2+(D138-$H$155)^2)^0.5</f>
-        <v>44.50842616853577</v>
-      </c>
-      <c r="M138">
-        <v>2</v>
-      </c>
-      <c r="Q138">
+        <v>30.331501776206203</v>
+      </c>
+      <c r="M138" s="58">
+        <v>1</v>
+      </c>
+      <c r="N138" s="58"/>
+      <c r="O138" s="58"/>
+      <c r="P138" s="58"/>
+      <c r="Q138" s="58">
+        <f>((B138-$N$136)^2+(C138-$O$136)^2+(D138-$P$136)^2)^0.5</f>
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="R138" s="58">
+        <f>((B138-$N$137)^2+(C138-$O$137)^2+(D138-$P$137)^2)^0.5</f>
+        <v>30.331501776206203</v>
+      </c>
+      <c r="S138" s="58">
+        <f>((B138-$N$145)^2+(C138-$O$145)^2+(D138-$P$145)^2)^0.5</f>
+        <v>30.331501776206203</v>
+      </c>
+      <c r="T138" s="58">
+        <f>((B138-$N$149)^2+(C138-$O$149)^2+(D138-$P$149)^2)^0.5</f>
+        <v>16.172893989635867</v>
+      </c>
+      <c r="U138" s="58">
+        <v>3</v>
+      </c>
+      <c r="V138" s="58"/>
+      <c r="W138" s="58"/>
+      <c r="X138" s="58"/>
+      <c r="Y138" s="58">
+        <f>((B138-$V$136)^2+(C138-$W$136)^2+(D138-$X$136)^2)^0.5</f>
+        <v>4.4969125210773493</v>
+      </c>
+      <c r="Z138" s="58">
+        <f>((B138-$V$139)^2+(C138-$W$139)^2+(D138-$X$139)^2)^0.5</f>
+        <v>30.331501776206203</v>
+      </c>
+      <c r="AA138" s="58">
+        <f>((B138-$V$146)^2+(C138-$W$146)^2+(D138-$X$146)^2)^0.5</f>
+        <v>30.331501776206203</v>
+      </c>
+      <c r="AB138" s="58">
+        <f>((B138-$V$149)^2+(C138-$W$149)^2+(D138-$X$149)^2)^0.5</f>
+        <v>16.172893989635867</v>
+      </c>
+      <c r="AC138" s="58">
+        <v>3</v>
+      </c>
+      <c r="AD138" s="58"/>
+      <c r="AE138" s="58"/>
+      <c r="AF138" s="58"/>
+      <c r="AG138" s="58">
+        <f t="shared" si="25"/>
+        <v>4.8124837662063875</v>
+      </c>
+      <c r="AH138" s="58">
         <f t="shared" si="26"/>
-        <v>12.041594578792296</v>
-      </c>
-      <c r="R138">
+        <v>24.689178916188276</v>
+      </c>
+      <c r="AI138" s="58">
         <f t="shared" si="27"/>
-        <v>7.272594103894428</v>
-      </c>
-      <c r="S138">
-        <f t="shared" si="28"/>
-        <v>17.684739183827393</v>
-      </c>
-      <c r="T138">
-        <f t="shared" si="29"/>
-        <v>30.349011516027996</v>
-      </c>
-    </row>
-    <row r="139" spans="2:21" x14ac:dyDescent="0.25">
+        <v>6.0827625302982193</v>
+      </c>
+      <c r="AJ138" s="58">
+        <f t="shared" ref="AJ137:AJ156" si="28">((B138-$AD$149)^2+(C138-$AE$149)^2+(D138-$AF$149)^2)^0.5</f>
+        <v>16.172893989635867</v>
+      </c>
+      <c r="AK138" s="58">
+        <v>3</v>
+      </c>
+      <c r="AL138" s="6"/>
+    </row>
+    <row r="139" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A139" s="5"/>
       <c r="B139" s="2">
         <v>3</v>
       </c>
@@ -7812,146 +8194,365 @@
         <v>6</v>
       </c>
       <c r="D139" s="29">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E139" s="10">
-        <v>2</v>
-      </c>
-      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="F139" s="58"/>
+      <c r="G139" s="58"/>
+      <c r="H139" s="58"/>
+      <c r="I139" s="58">
         <f>((B139-$F$136)^2+(C139-$G$136)^2+(D139-$H$136)^2)^0.5</f>
-        <v>41.54515615568198</v>
-      </c>
-      <c r="J139">
+        <v>42.532340636273474</v>
+      </c>
+      <c r="J139" s="58">
         <f>((B139-$F$140)^2+(C139-$G$140)^2+(D139-$H$140)^2)^0.5</f>
-        <v>41.54515615568198</v>
-      </c>
-      <c r="K139">
+        <v>8.7049129923326394</v>
+      </c>
+      <c r="K139" s="58">
         <f>((B139-$F$147)^2+(C139-$G$147)^2+(D139-$H$147)^2)^0.5</f>
-        <v>41.54515615568198</v>
-      </c>
-      <c r="L139">
+        <v>25.084233095711735</v>
+      </c>
+      <c r="L139" s="58">
         <f>((B139-$F$155)^2+(C139-$G$155)^2+(D139-$H$155)^2)^0.5</f>
-        <v>41.54515615568198</v>
-      </c>
-      <c r="M139">
-        <v>2</v>
-      </c>
-      <c r="Q139">
+        <v>42.532340636273474</v>
+      </c>
+      <c r="M139" s="58">
+        <v>2</v>
+      </c>
+      <c r="N139" s="58"/>
+      <c r="O139" s="58"/>
+      <c r="P139" s="58"/>
+      <c r="Q139" s="58">
+        <f>((B139-$N$136)^2+(C139-$O$136)^2+(D139-$P$136)^2)^0.5</f>
+        <v>10.04987562112089</v>
+      </c>
+      <c r="R139" s="58">
+        <f>((B139-$N$137)^2+(C139-$O$137)^2+(D139-$P$137)^2)^0.5</f>
+        <v>42.532340636273474</v>
+      </c>
+      <c r="S139" s="58">
+        <f>((B139-$N$145)^2+(C139-$O$145)^2+(D139-$P$145)^2)^0.5</f>
+        <v>42.532340636273474</v>
+      </c>
+      <c r="T139" s="58">
+        <f>((B139-$N$149)^2+(C139-$O$149)^2+(D139-$P$149)^2)^0.5</f>
+        <v>28.373623314620922</v>
+      </c>
+      <c r="U139" s="58">
+        <v>2</v>
+      </c>
+      <c r="V139" s="58"/>
+      <c r="W139" s="58"/>
+      <c r="X139" s="58"/>
+      <c r="Y139" s="58">
+        <f>((B139-$V$136)^2+(C139-$W$136)^2+(D139-$X$136)^2)^0.5</f>
+        <v>7.7387911774959308</v>
+      </c>
+      <c r="Z139" s="58">
+        <f>((B139-$V$139)^2+(C139-$W$139)^2+(D139-$X$139)^2)^0.5</f>
+        <v>42.532340636273474</v>
+      </c>
+      <c r="AA139" s="58">
+        <f>((B139-$V$146)^2+(C139-$W$146)^2+(D139-$X$146)^2)^0.5</f>
+        <v>42.532340636273474</v>
+      </c>
+      <c r="AB139" s="58">
+        <f>((B139-$V$149)^2+(C139-$W$149)^2+(D139-$X$149)^2)^0.5</f>
+        <v>28.373623314620922</v>
+      </c>
+      <c r="AC139" s="58">
+        <v>3</v>
+      </c>
+      <c r="AD139" s="58"/>
+      <c r="AE139" s="58"/>
+      <c r="AF139" s="58"/>
+      <c r="AG139" s="58">
+        <f t="shared" si="25"/>
+        <v>7.4672618810377864</v>
+      </c>
+      <c r="AH139" s="58">
         <f t="shared" si="26"/>
-        <v>9.0553851381374173</v>
-      </c>
-      <c r="R139">
+        <v>12.485547200218697</v>
+      </c>
+      <c r="AI139" s="58">
         <f t="shared" si="27"/>
-        <v>10.229400031282383</v>
-      </c>
-      <c r="S139">
+        <v>18.275666882497067</v>
+      </c>
+      <c r="AJ139" s="58">
         <f t="shared" si="28"/>
-        <v>14.722431864335457</v>
-      </c>
-      <c r="T139">
+        <v>28.373623314620922</v>
+      </c>
+      <c r="AK139" s="58">
+        <v>3</v>
+      </c>
+      <c r="AL139" s="6"/>
+    </row>
+    <row r="140" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A140" s="5"/>
+      <c r="B140" s="2">
+        <v>4</v>
+      </c>
+      <c r="C140" s="2">
+        <v>4</v>
+      </c>
+      <c r="D140" s="29">
+        <v>28</v>
+      </c>
+      <c r="E140" s="10">
+        <v>2</v>
+      </c>
+      <c r="F140" s="58">
+        <f>AVERAGE(B140:B146)</f>
+        <v>4</v>
+      </c>
+      <c r="G140" s="58">
+        <f>AVERAGE(C140:C146)</f>
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="H140" s="58">
+        <f>AVERAGE(D140:D146)</f>
+        <v>50.571428571428569</v>
+      </c>
+      <c r="I140" s="58">
+        <f>((B140-$F$136)^2+(C140-$G$136)^2+(D140-$H$136)^2)^0.5</f>
+        <v>28.565713714171402</v>
+      </c>
+      <c r="J140" s="58">
+        <f>((B140-$F$140)^2+(C140-$G$140)^2+(D140-$H$140)^2)^0.5</f>
+        <v>22.789184688696306</v>
+      </c>
+      <c r="K140" s="58">
+        <f>((B140-$F$147)^2+(C140-$G$147)^2+(D140-$H$147)^2)^0.5</f>
+        <v>11.245832561442484</v>
+      </c>
+      <c r="L140" s="58">
+        <f>((B140-$F$155)^2+(C140-$G$155)^2+(D140-$H$155)^2)^0.5</f>
+        <v>28.565713714171402</v>
+      </c>
+      <c r="M140" s="58">
+        <v>1</v>
+      </c>
+      <c r="N140" s="58">
+        <f>AVERAGE(B140:B143)</f>
+        <v>4</v>
+      </c>
+      <c r="O140" s="58">
+        <f>AVERAGE(C140:C143)</f>
+        <v>6.75</v>
+      </c>
+      <c r="P140" s="58">
+        <f>AVERAGE(D140:D143)</f>
+        <v>47.5</v>
+      </c>
+      <c r="Q140" s="58">
+        <f>((B140-$N$136)^2+(C140-$O$136)^2+(D140-$P$136)^2)^0.5</f>
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="R140" s="58">
+        <f>((B140-$N$137)^2+(C140-$O$137)^2+(D140-$P$137)^2)^0.5</f>
+        <v>28.565713714171402</v>
+      </c>
+      <c r="S140" s="58">
+        <f>((B140-$N$145)^2+(C140-$O$145)^2+(D140-$P$145)^2)^0.5</f>
+        <v>28.565713714171402</v>
+      </c>
+      <c r="T140" s="58">
+        <f>((B140-$N$149)^2+(C140-$O$149)^2+(D140-$P$149)^2)^0.5</f>
+        <v>14.510771860931451</v>
+      </c>
+      <c r="U140" s="58">
+        <v>1</v>
+      </c>
+      <c r="V140" s="58">
+        <f>AVERAGE(B140:B142)</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="W140" s="58">
+        <f>AVERAGE(C140:C142)</f>
+        <v>6</v>
+      </c>
+      <c r="X140" s="58">
+        <f>AVERAGE(D140:D142)</f>
+        <v>42.666666666666664</v>
+      </c>
+      <c r="Y140" s="58">
+        <f>((B140-$V$136)^2+(C140-$W$136)^2+(D140-$X$136)^2)^0.5</f>
+        <v>6.548960901462836</v>
+      </c>
+      <c r="Z140" s="58">
+        <f>((B140-$V$139)^2+(C140-$W$139)^2+(D140-$X$139)^2)^0.5</f>
+        <v>28.565713714171402</v>
+      </c>
+      <c r="AA140" s="58">
+        <f>((B140-$V$146)^2+(C140-$W$146)^2+(D140-$X$146)^2)^0.5</f>
+        <v>28.565713714171402</v>
+      </c>
+      <c r="AB140" s="58">
+        <f>((B140-$V$149)^2+(C140-$W$149)^2+(D140-$X$149)^2)^0.5</f>
+        <v>14.510771860931451</v>
+      </c>
+      <c r="AC140" s="58">
+        <v>3</v>
+      </c>
+      <c r="AD140" s="58"/>
+      <c r="AE140" s="58"/>
+      <c r="AF140" s="58"/>
+      <c r="AG140" s="58">
+        <f t="shared" si="25"/>
+        <v>6.749814812274483</v>
+      </c>
+      <c r="AH140" s="58">
+        <f t="shared" si="26"/>
+        <v>26.587382136812362</v>
+      </c>
+      <c r="AI140" s="58">
+        <f t="shared" si="27"/>
+        <v>4.5825756949558398</v>
+      </c>
+      <c r="AJ140" s="58">
+        <f t="shared" si="28"/>
+        <v>14.510771860931451</v>
+      </c>
+      <c r="AK140" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL140" s="6"/>
+    </row>
+    <row r="141" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A141" s="5"/>
+      <c r="B141" s="2">
+        <v>4</v>
+      </c>
+      <c r="C141" s="2">
+        <v>8</v>
+      </c>
+      <c r="D141" s="29">
+        <v>56</v>
+      </c>
+      <c r="E141" s="10">
+        <v>3</v>
+      </c>
+      <c r="F141" s="58"/>
+      <c r="G141" s="58"/>
+      <c r="H141" s="58"/>
+      <c r="I141" s="58">
+        <f>((B141-$F$136)^2+(C141-$G$136)^2+(D141-$H$136)^2)^0.5</f>
+        <v>56.709787515031302</v>
+      </c>
+      <c r="J141" s="58">
+        <f>((B141-$F$140)^2+(C141-$G$140)^2+(D141-$H$140)^2)^0.5</f>
+        <v>5.4958240176203859</v>
+      </c>
+      <c r="K141" s="58">
+        <f>((B141-$F$147)^2+(C141-$G$147)^2+(D141-$H$147)^2)^0.5</f>
+        <v>39.261542888684339</v>
+      </c>
+      <c r="L141" s="58">
+        <f>((B141-$F$155)^2+(C141-$G$155)^2+(D141-$H$155)^2)^0.5</f>
+        <v>56.709787515031302</v>
+      </c>
+      <c r="M141" s="58">
+        <v>2</v>
+      </c>
+      <c r="N141" s="58">
+        <f>AVERAGE(B141:B148)</f>
+        <v>3.5</v>
+      </c>
+      <c r="O141" s="58">
+        <f>AVERAGE(C141:C148)</f>
+        <v>6.5</v>
+      </c>
+      <c r="P141" s="58">
+        <f>AVERAGE(D141:D148)</f>
+        <v>46.75</v>
+      </c>
+      <c r="Q141" s="58">
+        <f>((B141-$N$136)^2+(C141-$O$136)^2+(D141-$P$136)^2)^0.5</f>
+        <v>24.207436873820409</v>
+      </c>
+      <c r="R141" s="58">
+        <f>((B141-$N$137)^2+(C141-$O$137)^2+(D141-$P$137)^2)^0.5</f>
+        <v>56.709787515031302</v>
+      </c>
+      <c r="S141" s="58">
+        <f>((B141-$N$145)^2+(C141-$O$145)^2+(D141-$P$145)^2)^0.5</f>
+        <v>56.709787515031302</v>
+      </c>
+      <c r="T141" s="58">
+        <f>((B141-$N$149)^2+(C141-$O$149)^2+(D141-$P$149)^2)^0.5</f>
+        <v>42.550705047037702</v>
+      </c>
+      <c r="U141" s="58">
+        <v>2</v>
+      </c>
+      <c r="V141" s="58">
+        <f>AVERAGE(B141:B146)</f>
+        <v>4</v>
+      </c>
+      <c r="W141" s="58">
+        <f>AVERAGE(C141:C146)</f>
+        <v>7.666666666666667</v>
+      </c>
+      <c r="X141" s="58">
+        <f>AVERAGE(D141:D146)</f>
+        <v>54.333333333333336</v>
+      </c>
+      <c r="Y141" s="58">
+        <f>((B141-$V$136)^2+(C141-$W$136)^2+(D141-$X$136)^2)^0.5</f>
+        <v>21.913973218524799</v>
+      </c>
+      <c r="Z141" s="58">
+        <f>((B141-$V$139)^2+(C141-$W$139)^2+(D141-$X$139)^2)^0.5</f>
+        <v>56.709787515031302</v>
+      </c>
+      <c r="AA141" s="58">
+        <f>((B141-$V$146)^2+(C141-$W$146)^2+(D141-$X$146)^2)^0.5</f>
+        <v>56.709787515031302</v>
+      </c>
+      <c r="AB141" s="58">
+        <f>((B141-$V$149)^2+(C141-$W$149)^2+(D141-$X$149)^2)^0.5</f>
+        <v>42.550705047037702</v>
+      </c>
+      <c r="AC141" s="58">
+        <v>2</v>
+      </c>
+      <c r="AD141" s="58">
+        <f>AVERAGE(B141:B146)</f>
+        <v>4</v>
+      </c>
+      <c r="AE141" s="58">
+        <f t="shared" ref="AE141:AF141" si="29">AVERAGE(C141:C146)</f>
+        <v>7.666666666666667</v>
+      </c>
+      <c r="AF141" s="58">
         <f t="shared" si="29"/>
-        <v>27.387268940148086</v>
-      </c>
-    </row>
-    <row r="140" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B140" s="2">
-        <v>5</v>
-      </c>
-      <c r="C140" s="2">
-        <v>9</v>
-      </c>
-      <c r="D140" s="29">
-        <v>62</v>
-      </c>
-      <c r="E140" s="10">
-        <v>2</v>
-      </c>
-      <c r="I140">
-        <f>((B140-$F$136)^2+(C140-$G$136)^2+(D140-$H$136)^2)^0.5</f>
-        <v>62.849025449882674</v>
-      </c>
-      <c r="J140">
-        <f>((B140-$F$140)^2+(C140-$G$140)^2+(D140-$H$140)^2)^0.5</f>
-        <v>62.849025449882674</v>
-      </c>
-      <c r="K140">
-        <f>((B140-$F$147)^2+(C140-$G$147)^2+(D140-$H$147)^2)^0.5</f>
-        <v>62.849025449882674</v>
-      </c>
-      <c r="L140">
-        <f>((B140-$F$155)^2+(C140-$G$155)^2+(D140-$H$155)^2)^0.5</f>
-        <v>62.849025449882674</v>
-      </c>
-      <c r="M140">
-        <v>2</v>
-      </c>
-      <c r="Q140">
+        <v>54.333333333333336</v>
+      </c>
+      <c r="AG141" s="58">
+        <f t="shared" si="25"/>
+        <v>21.632383132701769</v>
+      </c>
+      <c r="AH141" s="58">
         <f t="shared" si="26"/>
-        <v>30.331501776206203</v>
-      </c>
-      <c r="R140">
+        <v>1.6996731711975925</v>
+      </c>
+      <c r="AI141" s="58">
         <f t="shared" si="27"/>
-        <v>11.085604403910505</v>
-      </c>
-      <c r="S140">
+        <v>32.449961479175904</v>
+      </c>
+      <c r="AJ141" s="58">
         <f t="shared" si="28"/>
-        <v>36.010415160061676</v>
-      </c>
-      <c r="T140">
-        <f t="shared" si="29"/>
-        <v>48.693557068671829</v>
-      </c>
-    </row>
-    <row r="141" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B141" s="2">
-        <v>5</v>
-      </c>
-      <c r="C141" s="2">
-        <v>9</v>
-      </c>
-      <c r="D141" s="29">
-        <v>64</v>
-      </c>
-      <c r="E141" s="10">
-        <v>2</v>
-      </c>
-      <c r="I141">
-        <f>((B141-$F$136)^2+(C141-$G$136)^2+(D141-$H$136)^2)^0.5</f>
-        <v>64.822835482567413</v>
-      </c>
-      <c r="J141">
-        <f>((B141-$F$140)^2+(C141-$G$140)^2+(D141-$H$140)^2)^0.5</f>
-        <v>64.822835482567413</v>
-      </c>
-      <c r="K141">
-        <f>((B141-$F$147)^2+(C141-$G$147)^2+(D141-$H$147)^2)^0.5</f>
-        <v>64.822835482567413</v>
-      </c>
-      <c r="L141">
-        <f>((B141-$F$155)^2+(C141-$G$155)^2+(D141-$H$155)^2)^0.5</f>
-        <v>64.822835482567413</v>
-      </c>
-      <c r="M141">
-        <v>2</v>
-      </c>
-      <c r="Q141">
-        <f t="shared" si="26"/>
-        <v>32.310988842807021</v>
-      </c>
-      <c r="R141">
-        <f t="shared" si="27"/>
-        <v>13.05337600010051</v>
-      </c>
-      <c r="S141">
-        <f t="shared" si="28"/>
-        <v>37.9835490706174</v>
-      </c>
-      <c r="T141">
-        <f t="shared" si="29"/>
-        <v>50.666186949483382</v>
-      </c>
-    </row>
-    <row r="142" spans="2:21" x14ac:dyDescent="0.25">
+        <v>42.550705047037702</v>
+      </c>
+      <c r="AK141" s="58">
+        <v>2</v>
+      </c>
+      <c r="AL141" s="6"/>
+    </row>
+    <row r="142" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A142" s="5"/>
       <c r="B142" s="2">
         <v>3</v>
       </c>
@@ -7962,326 +8563,638 @@
         <v>44</v>
       </c>
       <c r="E142" s="10">
-        <v>1</v>
-      </c>
-      <c r="I142">
+        <v>3</v>
+      </c>
+      <c r="F142" s="58"/>
+      <c r="G142" s="58"/>
+      <c r="H142" s="58"/>
+      <c r="I142" s="58">
         <f>((B142-$F$136)^2+(C142-$G$136)^2+(D142-$H$136)^2)^0.5</f>
         <v>44.50842616853577</v>
       </c>
-      <c r="J142">
+      <c r="J142" s="58">
         <f>((B142-$F$140)^2+(C142-$G$140)^2+(D142-$H$140)^2)^0.5</f>
-        <v>44.50842616853577</v>
-      </c>
-      <c r="K142">
+        <v>6.744612362350213</v>
+      </c>
+      <c r="K142" s="58">
         <f>((B142-$F$147)^2+(C142-$G$147)^2+(D142-$H$147)^2)^0.5</f>
-        <v>44.50842616853577</v>
-      </c>
-      <c r="L142">
+        <v>27.059540831285368</v>
+      </c>
+      <c r="L142" s="58">
         <f>((B142-$F$155)^2+(C142-$G$155)^2+(D142-$H$155)^2)^0.5</f>
         <v>44.50842616853577</v>
       </c>
-      <c r="M142">
-        <v>2</v>
-      </c>
-      <c r="Q142">
+      <c r="M142" s="58">
+        <v>2</v>
+      </c>
+      <c r="N142" s="58"/>
+      <c r="O142" s="58"/>
+      <c r="P142" s="58"/>
+      <c r="Q142" s="58">
+        <f>((B142-$N$136)^2+(C142-$O$136)^2+(D142-$P$136)^2)^0.5</f>
+        <v>12.041594578792296</v>
+      </c>
+      <c r="R142" s="58">
+        <f>((B142-$N$137)^2+(C142-$O$137)^2+(D142-$P$137)^2)^0.5</f>
+        <v>44.50842616853577</v>
+      </c>
+      <c r="S142" s="58">
+        <f>((B142-$N$145)^2+(C142-$O$145)^2+(D142-$P$145)^2)^0.5</f>
+        <v>44.50842616853577</v>
+      </c>
+      <c r="T142" s="58">
+        <f>((B142-$N$149)^2+(C142-$O$149)^2+(D142-$P$149)^2)^0.5</f>
+        <v>30.349011516027996</v>
+      </c>
+      <c r="U142" s="58">
+        <v>2</v>
+      </c>
+      <c r="V142" s="58"/>
+      <c r="W142" s="58"/>
+      <c r="X142" s="58"/>
+      <c r="Y142" s="58">
+        <f>((B142-$V$136)^2+(C142-$W$136)^2+(D142-$X$136)^2)^0.5</f>
+        <v>9.7239680972098785</v>
+      </c>
+      <c r="Z142" s="58">
+        <f>((B142-$V$139)^2+(C142-$W$139)^2+(D142-$X$139)^2)^0.5</f>
+        <v>44.50842616853577</v>
+      </c>
+      <c r="AA142" s="58">
+        <f>((B142-$V$146)^2+(C142-$W$146)^2+(D142-$X$146)^2)^0.5</f>
+        <v>44.50842616853577</v>
+      </c>
+      <c r="AB142" s="58">
+        <f>((B142-$V$149)^2+(C142-$W$149)^2+(D142-$X$149)^2)^0.5</f>
+        <v>30.349011516027996</v>
+      </c>
+      <c r="AC142" s="58">
+        <v>2</v>
+      </c>
+      <c r="AD142" s="58"/>
+      <c r="AE142" s="58"/>
+      <c r="AF142" s="58"/>
+      <c r="AG142" s="58">
+        <f t="shared" si="25"/>
+        <v>9.4530418384771764</v>
+      </c>
+      <c r="AH142" s="58">
         <f t="shared" si="26"/>
+        <v>10.514540197058338</v>
+      </c>
+      <c r="AI142" s="58">
+        <f t="shared" si="27"/>
+        <v>20.248456731316587</v>
+      </c>
+      <c r="AJ142" s="58">
+        <f t="shared" si="28"/>
+        <v>30.349011516027996</v>
+      </c>
+      <c r="AK142" s="58">
+        <v>3</v>
+      </c>
+      <c r="AL142" s="6"/>
+    </row>
+    <row r="143" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A143" s="5"/>
+      <c r="B143" s="2">
+        <v>5</v>
+      </c>
+      <c r="C143" s="2">
+        <v>9</v>
+      </c>
+      <c r="D143" s="29">
+        <v>62</v>
+      </c>
+      <c r="E143" s="10">
+        <v>2</v>
+      </c>
+      <c r="F143" s="58"/>
+      <c r="G143" s="58"/>
+      <c r="H143" s="58"/>
+      <c r="I143" s="58">
+        <f>((B143-$F$136)^2+(C143-$G$136)^2+(D143-$H$136)^2)^0.5</f>
+        <v>62.849025449882674</v>
+      </c>
+      <c r="J143" s="58">
+        <f>((B143-$F$140)^2+(C143-$G$140)^2+(D143-$H$140)^2)^0.5</f>
+        <v>11.621584422521568</v>
+      </c>
+      <c r="K143" s="58">
+        <f>((B143-$F$147)^2+(C143-$G$147)^2+(D143-$H$147)^2)^0.5</f>
+        <v>45.403400203068493</v>
+      </c>
+      <c r="L143" s="58">
+        <f>((B143-$F$155)^2+(C143-$G$155)^2+(D143-$H$155)^2)^0.5</f>
+        <v>62.849025449882674</v>
+      </c>
+      <c r="M143" s="58">
+        <v>2</v>
+      </c>
+      <c r="N143" s="58"/>
+      <c r="O143" s="58"/>
+      <c r="P143" s="58"/>
+      <c r="Q143" s="58">
+        <f>((B143-$N$136)^2+(C143-$O$136)^2+(D143-$P$136)^2)^0.5</f>
+        <v>30.331501776206203</v>
+      </c>
+      <c r="R143" s="58">
+        <f>((B143-$N$137)^2+(C143-$O$137)^2+(D143-$P$137)^2)^0.5</f>
+        <v>62.849025449882674</v>
+      </c>
+      <c r="S143" s="58">
+        <f>((B143-$N$145)^2+(C143-$O$145)^2+(D143-$P$145)^2)^0.5</f>
+        <v>62.849025449882674</v>
+      </c>
+      <c r="T143" s="58">
+        <f>((B143-$N$149)^2+(C143-$O$149)^2+(D143-$P$149)^2)^0.5</f>
+        <v>48.693557068671829</v>
+      </c>
+      <c r="U143" s="58">
+        <v>2</v>
+      </c>
+      <c r="V143" s="58"/>
+      <c r="W143" s="58"/>
+      <c r="X143" s="58"/>
+      <c r="Y143" s="58">
+        <f>((B143-$V$136)^2+(C143-$W$136)^2+(D143-$X$136)^2)^0.5</f>
+        <v>28.05153986662566</v>
+      </c>
+      <c r="Z143" s="58">
+        <f>((B143-$V$139)^2+(C143-$W$139)^2+(D143-$X$139)^2)^0.5</f>
+        <v>62.849025449882674</v>
+      </c>
+      <c r="AA143" s="58">
+        <f>((B143-$V$146)^2+(C143-$W$146)^2+(D143-$X$146)^2)^0.5</f>
+        <v>62.849025449882674</v>
+      </c>
+      <c r="AB143" s="58">
+        <f>((B143-$V$149)^2+(C143-$W$149)^2+(D143-$X$149)^2)^0.5</f>
+        <v>48.693557068671829</v>
+      </c>
+      <c r="AC143" s="58">
+        <v>2</v>
+      </c>
+      <c r="AD143" s="58"/>
+      <c r="AE143" s="58"/>
+      <c r="AF143" s="58"/>
+      <c r="AG143" s="58">
+        <f t="shared" si="25"/>
+        <v>27.762564723022258</v>
+      </c>
+      <c r="AH143" s="58">
+        <f t="shared" si="26"/>
+        <v>7.8457348639598781</v>
+      </c>
+      <c r="AI143" s="58">
+        <f t="shared" si="27"/>
+        <v>38.587562763149478</v>
+      </c>
+      <c r="AJ143" s="58">
+        <f t="shared" si="28"/>
+        <v>48.693557068671829</v>
+      </c>
+      <c r="AK143" s="58">
+        <v>2</v>
+      </c>
+      <c r="AL143" s="6"/>
+    </row>
+    <row r="144" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A144" s="5"/>
+      <c r="B144" s="2">
+        <v>5</v>
+      </c>
+      <c r="C144" s="2">
+        <v>9</v>
+      </c>
+      <c r="D144" s="29">
+        <v>64</v>
+      </c>
+      <c r="E144" s="10">
+        <v>2</v>
+      </c>
+      <c r="F144" s="58"/>
+      <c r="G144" s="58"/>
+      <c r="H144" s="58"/>
+      <c r="I144" s="58">
+        <f>((B144-$F$136)^2+(C144-$G$136)^2+(D144-$H$136)^2)^0.5</f>
+        <v>64.822835482567413</v>
+      </c>
+      <c r="J144" s="58">
+        <f>((B144-$F$140)^2+(C144-$G$140)^2+(D144-$H$140)^2)^0.5</f>
+        <v>13.59321559470318</v>
+      </c>
+      <c r="K144" s="58">
+        <f>((B144-$F$147)^2+(C144-$G$147)^2+(D144-$H$147)^2)^0.5</f>
+        <v>47.37582453108336</v>
+      </c>
+      <c r="L144" s="58">
+        <f>((B144-$F$155)^2+(C144-$G$155)^2+(D144-$H$155)^2)^0.5</f>
+        <v>64.822835482567413</v>
+      </c>
+      <c r="M144" s="58">
+        <v>2</v>
+      </c>
+      <c r="N144" s="58"/>
+      <c r="O144" s="58"/>
+      <c r="P144" s="58"/>
+      <c r="Q144" s="58">
+        <f>((B144-$N$136)^2+(C144-$O$136)^2+(D144-$P$136)^2)^0.5</f>
+        <v>32.310988842807021</v>
+      </c>
+      <c r="R144" s="58">
+        <f>((B144-$N$137)^2+(C144-$O$137)^2+(D144-$P$137)^2)^0.5</f>
+        <v>64.822835482567413</v>
+      </c>
+      <c r="S144" s="58">
+        <f>((B144-$N$145)^2+(C144-$O$145)^2+(D144-$P$145)^2)^0.5</f>
+        <v>64.822835482567413</v>
+      </c>
+      <c r="T144" s="58">
+        <f>((B144-$N$149)^2+(C144-$O$149)^2+(D144-$P$149)^2)^0.5</f>
+        <v>50.666186949483382</v>
+      </c>
+      <c r="U144" s="58">
+        <v>2</v>
+      </c>
+      <c r="V144" s="58"/>
+      <c r="W144" s="58"/>
+      <c r="X144" s="58"/>
+      <c r="Y144" s="58">
+        <f>((B144-$V$136)^2+(C144-$W$136)^2+(D144-$X$136)^2)^0.5</f>
+        <v>30.025914733036117</v>
+      </c>
+      <c r="Z144" s="58">
+        <f>((B144-$V$139)^2+(C144-$W$139)^2+(D144-$X$139)^2)^0.5</f>
+        <v>64.822835482567413</v>
+      </c>
+      <c r="AA144" s="58">
+        <f>((B144-$V$146)^2+(C144-$W$146)^2+(D144-$X$146)^2)^0.5</f>
+        <v>64.822835482567413</v>
+      </c>
+      <c r="AB144" s="58">
+        <f>((B144-$V$149)^2+(C144-$W$149)^2+(D144-$X$149)^2)^0.5</f>
+        <v>50.666186949483382</v>
+      </c>
+      <c r="AC144" s="58">
+        <v>2</v>
+      </c>
+      <c r="AD144" s="58"/>
+      <c r="AE144" s="58"/>
+      <c r="AF144" s="58"/>
+      <c r="AG144" s="58">
+        <f t="shared" si="25"/>
+        <v>29.738190933545368</v>
+      </c>
+      <c r="AH144" s="58">
+        <f t="shared" si="26"/>
+        <v>9.8092926463747716</v>
+      </c>
+      <c r="AI144" s="58">
+        <f t="shared" si="27"/>
+        <v>40.558599581346492</v>
+      </c>
+      <c r="AJ144" s="58">
+        <f t="shared" si="28"/>
+        <v>50.666186949483382</v>
+      </c>
+      <c r="AK144" s="58">
+        <v>2</v>
+      </c>
+      <c r="AL144" s="6"/>
+    </row>
+    <row r="145" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A145" s="5"/>
+      <c r="B145" s="2">
+        <v>3</v>
+      </c>
+      <c r="C145" s="2">
+        <v>6</v>
+      </c>
+      <c r="D145" s="29">
+        <v>44</v>
+      </c>
+      <c r="E145" s="10">
+        <v>1</v>
+      </c>
+      <c r="F145" s="58"/>
+      <c r="G145" s="58"/>
+      <c r="H145" s="58"/>
+      <c r="I145" s="58">
+        <f>((B145-$F$136)^2+(C145-$G$136)^2+(D145-$H$136)^2)^0.5</f>
+        <v>44.50842616853577</v>
+      </c>
+      <c r="J145" s="58">
+        <f>((B145-$F$140)^2+(C145-$G$140)^2+(D145-$H$140)^2)^0.5</f>
+        <v>6.744612362350213</v>
+      </c>
+      <c r="K145" s="58">
+        <f>((B145-$F$147)^2+(C145-$G$147)^2+(D145-$H$147)^2)^0.5</f>
+        <v>27.059540831285368</v>
+      </c>
+      <c r="L145" s="58">
+        <f>((B145-$F$155)^2+(C145-$G$155)^2+(D145-$H$155)^2)^0.5</f>
+        <v>44.50842616853577</v>
+      </c>
+      <c r="M145" s="58">
+        <v>2</v>
+      </c>
+      <c r="N145" s="58"/>
+      <c r="O145" s="58"/>
+      <c r="P145" s="58"/>
+      <c r="Q145" s="58">
+        <f>((B145-$N$136)^2+(C145-$O$136)^2+(D145-$P$136)^2)^0.5</f>
         <v>12.041594578792296</v>
       </c>
-      <c r="R142">
+      <c r="R145" s="58">
+        <f>((B145-$N$137)^2+(C145-$O$137)^2+(D145-$P$137)^2)^0.5</f>
+        <v>44.50842616853577</v>
+      </c>
+      <c r="S145" s="58">
+        <f>((B145-$N$145)^2+(C145-$O$145)^2+(D145-$P$145)^2)^0.5</f>
+        <v>44.50842616853577</v>
+      </c>
+      <c r="T145" s="58">
+        <f>((B145-$N$149)^2+(C145-$O$149)^2+(D145-$P$149)^2)^0.5</f>
+        <v>30.349011516027996</v>
+      </c>
+      <c r="U145" s="58">
+        <v>2</v>
+      </c>
+      <c r="V145" s="58"/>
+      <c r="W145" s="58"/>
+      <c r="X145" s="58"/>
+      <c r="Y145" s="58">
+        <f>((B145-$V$136)^2+(C145-$W$136)^2+(D145-$X$136)^2)^0.5</f>
+        <v>9.7239680972098785</v>
+      </c>
+      <c r="Z145" s="58">
+        <f>((B145-$V$139)^2+(C145-$W$139)^2+(D145-$X$139)^2)^0.5</f>
+        <v>44.50842616853577</v>
+      </c>
+      <c r="AA145" s="58">
+        <f>((B145-$V$146)^2+(C145-$W$146)^2+(D145-$X$146)^2)^0.5</f>
+        <v>44.50842616853577</v>
+      </c>
+      <c r="AB145" s="58">
+        <f>((B145-$V$149)^2+(C145-$W$149)^2+(D145-$X$149)^2)^0.5</f>
+        <v>30.349011516027996</v>
+      </c>
+      <c r="AC145" s="58">
+        <v>2</v>
+      </c>
+      <c r="AD145" s="58"/>
+      <c r="AE145" s="58"/>
+      <c r="AF145" s="58"/>
+      <c r="AG145" s="58">
+        <f t="shared" si="25"/>
+        <v>9.4530418384771764</v>
+      </c>
+      <c r="AH145" s="58">
+        <f t="shared" si="26"/>
+        <v>10.514540197058338</v>
+      </c>
+      <c r="AI145" s="58">
         <f t="shared" si="27"/>
-        <v>7.272594103894428</v>
-      </c>
-      <c r="S142">
+        <v>20.248456731316587</v>
+      </c>
+      <c r="AJ145" s="58">
         <f t="shared" si="28"/>
-        <v>17.684739183827393</v>
-      </c>
-      <c r="T142">
-        <f t="shared" si="29"/>
         <v>30.349011516027996</v>
       </c>
-    </row>
-    <row r="143" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B143" s="2">
-        <v>3</v>
-      </c>
-      <c r="C143" s="2">
-        <v>6</v>
-      </c>
-      <c r="D143" s="29">
-        <v>42</v>
-      </c>
-      <c r="E143" s="10">
-        <v>1</v>
-      </c>
-      <c r="I143">
-        <f>((B143-$F$136)^2+(C143-$G$136)^2+(D143-$H$136)^2)^0.5</f>
-        <v>42.532340636273474</v>
-      </c>
-      <c r="J143">
-        <f>((B143-$F$140)^2+(C143-$G$140)^2+(D143-$H$140)^2)^0.5</f>
-        <v>42.532340636273474</v>
-      </c>
-      <c r="K143">
-        <f>((B143-$F$147)^2+(C143-$G$147)^2+(D143-$H$147)^2)^0.5</f>
-        <v>42.532340636273474</v>
-      </c>
-      <c r="L143">
-        <f>((B143-$F$155)^2+(C143-$G$155)^2+(D143-$H$155)^2)^0.5</f>
-        <v>42.532340636273474</v>
-      </c>
-      <c r="M143">
-        <v>2</v>
-      </c>
-      <c r="Q143">
+      <c r="AK145" s="58">
+        <v>3</v>
+      </c>
+      <c r="AL145" s="6"/>
+    </row>
+    <row r="146" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A146" s="5"/>
+      <c r="B146" s="2">
+        <v>4</v>
+      </c>
+      <c r="C146" s="2">
+        <v>8</v>
+      </c>
+      <c r="D146" s="29">
+        <v>56</v>
+      </c>
+      <c r="E146" s="10">
+        <v>1</v>
+      </c>
+      <c r="F146" s="58"/>
+      <c r="G146" s="58"/>
+      <c r="H146" s="58"/>
+      <c r="I146" s="58">
+        <f>((B146-$F$136)^2+(C146-$G$136)^2+(D146-$H$136)^2)^0.5</f>
+        <v>56.709787515031302</v>
+      </c>
+      <c r="J146" s="58">
+        <f>((B146-$F$140)^2+(C146-$G$140)^2+(D146-$H$140)^2)^0.5</f>
+        <v>5.4958240176203859</v>
+      </c>
+      <c r="K146" s="58">
+        <f>((B146-$F$147)^2+(C146-$G$147)^2+(D146-$H$147)^2)^0.5</f>
+        <v>39.261542888684339</v>
+      </c>
+      <c r="L146" s="58">
+        <f>((B146-$F$155)^2+(C146-$G$155)^2+(D146-$H$155)^2)^0.5</f>
+        <v>56.709787515031302</v>
+      </c>
+      <c r="M146" s="58">
+        <v>2</v>
+      </c>
+      <c r="N146" s="58"/>
+      <c r="O146" s="58"/>
+      <c r="P146" s="58"/>
+      <c r="Q146" s="58">
+        <f>((B146-$N$136)^2+(C146-$O$136)^2+(D146-$P$136)^2)^0.5</f>
+        <v>24.207436873820409</v>
+      </c>
+      <c r="R146" s="58">
+        <f>((B146-$N$137)^2+(C146-$O$137)^2+(D146-$P$137)^2)^0.5</f>
+        <v>56.709787515031302</v>
+      </c>
+      <c r="S146" s="58">
+        <f>((B146-$N$145)^2+(C146-$O$145)^2+(D146-$P$145)^2)^0.5</f>
+        <v>56.709787515031302</v>
+      </c>
+      <c r="T146" s="58">
+        <f>((B146-$N$149)^2+(C146-$O$149)^2+(D146-$P$149)^2)^0.5</f>
+        <v>42.550705047037702</v>
+      </c>
+      <c r="U146" s="58">
+        <v>2</v>
+      </c>
+      <c r="V146" s="58"/>
+      <c r="W146" s="58"/>
+      <c r="X146" s="58"/>
+      <c r="Y146" s="58">
+        <f>((B146-$V$136)^2+(C146-$W$136)^2+(D146-$X$136)^2)^0.5</f>
+        <v>21.913973218524799</v>
+      </c>
+      <c r="Z146" s="58">
+        <f>((B146-$V$139)^2+(C146-$W$139)^2+(D146-$X$139)^2)^0.5</f>
+        <v>56.709787515031302</v>
+      </c>
+      <c r="AA146" s="58">
+        <f>((B146-$V$146)^2+(C146-$W$146)^2+(D146-$X$146)^2)^0.5</f>
+        <v>56.709787515031302</v>
+      </c>
+      <c r="AB146" s="58">
+        <f>((B146-$V$149)^2+(C146-$W$149)^2+(D146-$X$149)^2)^0.5</f>
+        <v>42.550705047037702</v>
+      </c>
+      <c r="AC146" s="58">
+        <v>2</v>
+      </c>
+      <c r="AD146" s="58"/>
+      <c r="AE146" s="58"/>
+      <c r="AF146" s="58"/>
+      <c r="AG146" s="58">
+        <f t="shared" si="25"/>
+        <v>21.632383132701769</v>
+      </c>
+      <c r="AH146" s="58">
         <f t="shared" si="26"/>
-        <v>10.04987562112089</v>
-      </c>
-      <c r="R143">
+        <v>1.6996731711975925</v>
+      </c>
+      <c r="AI146" s="58">
         <f t="shared" si="27"/>
-        <v>9.2407047891381104</v>
-      </c>
-      <c r="S143">
+        <v>32.449961479175904</v>
+      </c>
+      <c r="AJ146" s="58">
         <f t="shared" si="28"/>
-        <v>15.708278072405008</v>
-      </c>
-      <c r="T143">
-        <f t="shared" si="29"/>
-        <v>28.373623314620922</v>
-      </c>
-    </row>
-    <row r="144" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B144" s="2">
-        <v>4</v>
-      </c>
-      <c r="C144" s="2">
-        <v>8</v>
-      </c>
-      <c r="D144" s="29">
-        <v>56</v>
-      </c>
-      <c r="E144" s="10">
-        <v>1</v>
-      </c>
-      <c r="I144">
-        <f>((B144-$F$136)^2+(C144-$G$136)^2+(D144-$H$136)^2)^0.5</f>
-        <v>56.709787515031302</v>
-      </c>
-      <c r="J144">
-        <f>((B144-$F$140)^2+(C144-$G$140)^2+(D144-$H$140)^2)^0.5</f>
-        <v>56.709787515031302</v>
-      </c>
-      <c r="K144">
-        <f>((B144-$F$147)^2+(C144-$G$147)^2+(D144-$H$147)^2)^0.5</f>
-        <v>56.709787515031302</v>
-      </c>
-      <c r="L144">
-        <f>((B144-$F$155)^2+(C144-$G$155)^2+(D144-$H$155)^2)^0.5</f>
-        <v>56.709787515031302</v>
-      </c>
-      <c r="M144">
-        <v>2</v>
-      </c>
-      <c r="Q144">
+        <v>42.550705047037702</v>
+      </c>
+      <c r="AK146" s="58">
+        <v>2</v>
+      </c>
+      <c r="AL146" s="6"/>
+    </row>
+    <row r="147" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A147" s="5"/>
+      <c r="B147" s="2">
+        <v>2</v>
+      </c>
+      <c r="C147" s="2">
+        <v>3</v>
+      </c>
+      <c r="D147" s="29">
+        <v>24</v>
+      </c>
+      <c r="E147" s="10">
+        <v>1</v>
+      </c>
+      <c r="F147" s="58">
+        <f>AVERAGE(B147:B154)</f>
+        <v>1.125</v>
+      </c>
+      <c r="G147" s="58">
+        <f>AVERAGE(C147:C154)</f>
+        <v>2.375</v>
+      </c>
+      <c r="H147" s="58">
+        <f>AVERAGE(D147:D154)</f>
+        <v>17.25</v>
+      </c>
+      <c r="I147" s="58">
+        <f>((B147-$F$136)^2+(C147-$G$136)^2+(D147-$H$136)^2)^0.5</f>
+        <v>24.269322199023193</v>
+      </c>
+      <c r="J147" s="58">
+        <f>((B147-$F$140)^2+(C147-$G$140)^2+(D147-$H$140)^2)^0.5</f>
+        <v>26.966721744265708</v>
+      </c>
+      <c r="K147" s="58">
+        <f>((B147-$F$147)^2+(C147-$G$147)^2+(D147-$H$147)^2)^0.5</f>
+        <v>6.835111557246158</v>
+      </c>
+      <c r="L147" s="58">
+        <f>((B147-$F$155)^2+(C147-$G$155)^2+(D147-$H$155)^2)^0.5</f>
+        <v>24.269322199023193</v>
+      </c>
+      <c r="M147" s="58">
+        <v>1</v>
+      </c>
+      <c r="N147" s="58"/>
+      <c r="O147" s="58"/>
+      <c r="P147" s="58"/>
+      <c r="Q147" s="58">
+        <f>((B147-$N$136)^2+(C147-$O$136)^2+(D147-$P$136)^2)^0.5</f>
+        <v>8.3066238629180749</v>
+      </c>
+      <c r="R147" s="58">
+        <f>((B147-$N$137)^2+(C147-$O$137)^2+(D147-$P$137)^2)^0.5</f>
+        <v>24.269322199023193</v>
+      </c>
+      <c r="S147" s="58">
+        <f>((B147-$N$145)^2+(C147-$O$145)^2+(D147-$P$145)^2)^0.5</f>
+        <v>24.269322199023193</v>
+      </c>
+      <c r="T147" s="58">
+        <f>((B147-$N$149)^2+(C147-$O$149)^2+(D147-$P$149)^2)^0.5</f>
+        <v>10.127314550264547</v>
+      </c>
+      <c r="U147" s="58">
+        <v>1</v>
+      </c>
+      <c r="V147" s="58"/>
+      <c r="W147" s="58"/>
+      <c r="X147" s="58"/>
+      <c r="Y147" s="58">
+        <f>((B147-$V$136)^2+(C147-$W$136)^2+(D147-$X$136)^2)^0.5</f>
+        <v>10.546194679704252</v>
+      </c>
+      <c r="Z147" s="58">
+        <f>((B147-$V$139)^2+(C147-$W$139)^2+(D147-$X$139)^2)^0.5</f>
+        <v>24.269322199023193</v>
+      </c>
+      <c r="AA147" s="58">
+        <f>((B147-$V$146)^2+(C147-$W$146)^2+(D147-$X$146)^2)^0.5</f>
+        <v>24.269322199023193</v>
+      </c>
+      <c r="AB147" s="58">
+        <f>((B147-$V$149)^2+(C147-$W$149)^2+(D147-$X$149)^2)^0.5</f>
+        <v>10.127314550264547</v>
+      </c>
+      <c r="AC147" s="58">
+        <v>1</v>
+      </c>
+      <c r="AD147" s="58">
+        <f>AVERAGE(B147:B148)</f>
+        <v>2</v>
+      </c>
+      <c r="AE147" s="58">
+        <f t="shared" ref="AE147:AF147" si="30">AVERAGE(C147:C148)</f>
+        <v>3</v>
+      </c>
+      <c r="AF147" s="58">
+        <f t="shared" si="30"/>
+        <v>24</v>
+      </c>
+      <c r="AG147" s="58">
+        <f t="shared" si="25"/>
+        <v>10.833282051160674</v>
+      </c>
+      <c r="AH147" s="58">
         <f t="shared" si="26"/>
-        <v>24.207436873820409</v>
-      </c>
-      <c r="R144">
-        <f t="shared" si="27"/>
-        <v>4.9386865662846029</v>
-      </c>
-      <c r="S144">
+        <v>30.755306678504915</v>
+      </c>
+      <c r="AI147" s="58">
+        <f>((B147-$AD$147)^2+(C147-$AE$147)^2+(D147-$AF$147)^2)^0.5</f>
+        <v>0</v>
+      </c>
+      <c r="AJ147" s="58">
         <f t="shared" si="28"/>
-        <v>29.878922336657325</v>
-      </c>
-      <c r="T144">
-        <f t="shared" si="29"/>
-        <v>42.550705047037702</v>
-      </c>
-    </row>
-    <row r="145" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B145" s="2">
-        <v>4</v>
-      </c>
-      <c r="C145" s="2">
-        <v>4</v>
-      </c>
-      <c r="D145" s="29">
-        <v>28</v>
-      </c>
-      <c r="E145" s="10">
-        <v>2</v>
-      </c>
-      <c r="F145">
-        <f>AVERAGE(B145:B151)</f>
-        <v>1.8571428571428572</v>
-      </c>
-      <c r="G145">
-        <f>AVERAGE(C145:C151)</f>
-        <v>3.1428571428571428</v>
-      </c>
-      <c r="H145">
-        <f>AVERAGE(D145:D151)</f>
-        <v>22.857142857142858</v>
-      </c>
-      <c r="I145">
-        <f>((B145-$F$136)^2+(C145-$G$136)^2+(D145-$H$136)^2)^0.5</f>
-        <v>28.565713714171402</v>
-      </c>
-      <c r="J145">
-        <f>((B145-$F$140)^2+(C145-$G$140)^2+(D145-$H$140)^2)^0.5</f>
-        <v>28.565713714171402</v>
-      </c>
-      <c r="K145">
-        <f>((B145-$F$147)^2+(C145-$G$147)^2+(D145-$H$147)^2)^0.5</f>
-        <v>28.565713714171402</v>
-      </c>
-      <c r="L145">
-        <f>((B145-$F$155)^2+(C145-$G$155)^2+(D145-$H$155)^2)^0.5</f>
-        <v>28.565713714171402</v>
-      </c>
-      <c r="M145">
-        <v>1</v>
-      </c>
-      <c r="N145">
-        <f>AVERAGE(B145:B148)</f>
-        <v>2.5</v>
-      </c>
-      <c r="O145">
-        <f t="shared" ref="O145:P145" si="30">AVERAGE(C145:C148)</f>
-        <v>3.5</v>
-      </c>
-      <c r="P145">
-        <f t="shared" si="30"/>
-        <v>26.5</v>
-      </c>
-      <c r="Q145">
-        <f t="shared" si="26"/>
-        <v>4.2426406871192848</v>
-      </c>
-      <c r="R145">
-        <f t="shared" si="27"/>
-        <v>23.353599829576595</v>
-      </c>
-      <c r="S145">
-        <f t="shared" si="28"/>
-        <v>2.179449471770337</v>
-      </c>
-      <c r="T145">
-        <f t="shared" si="29"/>
-        <v>14.510771860931451</v>
-      </c>
-    </row>
-    <row r="146" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B146" s="2">
-        <v>2</v>
-      </c>
-      <c r="C146" s="2">
-        <v>3</v>
-      </c>
-      <c r="D146" s="29">
-        <v>24</v>
-      </c>
-      <c r="E146" s="10">
-        <v>1</v>
-      </c>
-      <c r="F146">
-        <f>AVERAGE(B146:B153)</f>
-        <v>1.375</v>
-      </c>
-      <c r="G146">
-        <f>AVERAGE(C146:C153)</f>
-        <v>2.875</v>
-      </c>
-      <c r="H146">
-        <f>AVERAGE(D146:D153)</f>
-        <v>20.875</v>
-      </c>
-      <c r="I146">
-        <f>((B146-$F$136)^2+(C146-$G$136)^2+(D146-$H$136)^2)^0.5</f>
-        <v>24.269322199023193</v>
-      </c>
-      <c r="J146">
-        <f>((B146-$F$140)^2+(C146-$G$140)^2+(D146-$H$140)^2)^0.5</f>
-        <v>24.269322199023193</v>
-      </c>
-      <c r="K146">
-        <f>((B146-$F$147)^2+(C146-$G$147)^2+(D146-$H$147)^2)^0.5</f>
-        <v>24.269322199023193</v>
-      </c>
-      <c r="L146">
-        <f>((B146-$F$155)^2+(C146-$G$155)^2+(D146-$H$155)^2)^0.5</f>
-        <v>24.269322199023193</v>
-      </c>
-      <c r="M146">
-        <v>1</v>
-      </c>
-      <c r="Q146">
-        <f t="shared" si="26"/>
-        <v>8.3066238629180749</v>
-      </c>
-      <c r="R146">
-        <f t="shared" si="27"/>
-        <v>27.51164526159786</v>
-      </c>
-      <c r="S146">
-        <f t="shared" si="28"/>
-        <v>2.598076211353316</v>
-      </c>
-      <c r="T146">
-        <f t="shared" si="29"/>
         <v>10.127314550264547</v>
       </c>
-    </row>
-    <row r="147" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B147" s="2">
-        <v>2</v>
-      </c>
-      <c r="C147" s="2">
-        <v>4</v>
-      </c>
-      <c r="D147" s="29">
-        <v>30</v>
-      </c>
-      <c r="E147" s="10">
-        <v>1</v>
-      </c>
-      <c r="I147">
-        <f>((B147-$F$136)^2+(C147-$G$136)^2+(D147-$H$136)^2)^0.5</f>
-        <v>30.331501776206203</v>
-      </c>
-      <c r="J147">
-        <f>((B147-$F$140)^2+(C147-$G$140)^2+(D147-$H$140)^2)^0.5</f>
-        <v>30.331501776206203</v>
-      </c>
-      <c r="K147">
-        <f>((B147-$F$147)^2+(C147-$G$147)^2+(D147-$H$147)^2)^0.5</f>
-        <v>30.331501776206203</v>
-      </c>
-      <c r="L147">
-        <f>((B147-$F$155)^2+(C147-$G$155)^2+(D147-$H$155)^2)^0.5</f>
-        <v>30.331501776206203</v>
-      </c>
-      <c r="M147">
-        <v>1</v>
-      </c>
-      <c r="Q147">
-        <f t="shared" si="26"/>
-        <v>2.4494897427831779</v>
-      </c>
-      <c r="R147">
-        <f t="shared" si="27"/>
-        <v>21.445060620105508</v>
-      </c>
-      <c r="S147">
-        <f t="shared" si="28"/>
-        <v>3.5707142142714252</v>
-      </c>
-      <c r="T147">
-        <f t="shared" si="29"/>
-        <v>16.172893989635867</v>
-      </c>
-    </row>
-    <row r="148" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="AK147" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL147" s="6"/>
+    </row>
+    <row r="148" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A148" s="5"/>
       <c r="B148" s="2">
         <v>2</v>
       </c>
@@ -8294,43 +9207,98 @@
       <c r="E148" s="10">
         <v>0</v>
       </c>
-      <c r="I148">
+      <c r="F148" s="58"/>
+      <c r="G148" s="58"/>
+      <c r="H148" s="58"/>
+      <c r="I148" s="58">
         <f>((B148-$F$136)^2+(C148-$G$136)^2+(D148-$H$136)^2)^0.5</f>
         <v>24.269322199023193</v>
       </c>
-      <c r="J148">
+      <c r="J148" s="58">
         <f>((B148-$F$140)^2+(C148-$G$140)^2+(D148-$H$140)^2)^0.5</f>
-        <v>24.269322199023193</v>
-      </c>
-      <c r="K148">
+        <v>26.966721744265708</v>
+      </c>
+      <c r="K148" s="58">
         <f>((B148-$F$147)^2+(C148-$G$147)^2+(D148-$H$147)^2)^0.5</f>
-        <v>24.269322199023193</v>
-      </c>
-      <c r="L148">
+        <v>6.835111557246158</v>
+      </c>
+      <c r="L148" s="58">
         <f>((B148-$F$155)^2+(C148-$G$155)^2+(D148-$H$155)^2)^0.5</f>
         <v>24.269322199023193</v>
       </c>
-      <c r="M148">
-        <v>1</v>
-      </c>
-      <c r="Q148">
+      <c r="M148" s="58">
+        <v>1</v>
+      </c>
+      <c r="N148" s="58"/>
+      <c r="O148" s="58"/>
+      <c r="P148" s="58"/>
+      <c r="Q148" s="58">
+        <f>((B148-$N$136)^2+(C148-$O$136)^2+(D148-$P$136)^2)^0.5</f>
+        <v>8.3066238629180749</v>
+      </c>
+      <c r="R148" s="58">
+        <f>((B148-$N$137)^2+(C148-$O$137)^2+(D148-$P$137)^2)^0.5</f>
+        <v>24.269322199023193</v>
+      </c>
+      <c r="S148" s="58">
+        <f>((B148-$N$145)^2+(C148-$O$145)^2+(D148-$P$145)^2)^0.5</f>
+        <v>24.269322199023193</v>
+      </c>
+      <c r="T148" s="58">
+        <f>((B148-$N$149)^2+(C148-$O$149)^2+(D148-$P$149)^2)^0.5</f>
+        <v>10.127314550264547</v>
+      </c>
+      <c r="U148" s="58">
+        <v>1</v>
+      </c>
+      <c r="V148" s="58"/>
+      <c r="W148" s="58"/>
+      <c r="X148" s="58"/>
+      <c r="Y148" s="58">
+        <f>((B148-$V$136)^2+(C148-$W$136)^2+(D148-$X$136)^2)^0.5</f>
+        <v>10.546194679704252</v>
+      </c>
+      <c r="Z148" s="58">
+        <f>((B148-$V$139)^2+(C148-$W$139)^2+(D148-$X$139)^2)^0.5</f>
+        <v>24.269322199023193</v>
+      </c>
+      <c r="AA148" s="58">
+        <f>((B148-$V$146)^2+(C148-$W$146)^2+(D148-$X$146)^2)^0.5</f>
+        <v>24.269322199023193</v>
+      </c>
+      <c r="AB148" s="58">
+        <f>((B148-$V$149)^2+(C148-$W$149)^2+(D148-$X$149)^2)^0.5</f>
+        <v>10.127314550264547</v>
+      </c>
+      <c r="AC148" s="58">
+        <v>1</v>
+      </c>
+      <c r="AD148" s="58"/>
+      <c r="AE148" s="58"/>
+      <c r="AF148" s="58"/>
+      <c r="AG148" s="58">
+        <f t="shared" si="25"/>
+        <v>10.833282051160674</v>
+      </c>
+      <c r="AH148" s="58">
         <f t="shared" si="26"/>
-        <v>8.3066238629180749</v>
-      </c>
-      <c r="R148">
+        <v>30.755306678504915</v>
+      </c>
+      <c r="AI148" s="58">
         <f t="shared" si="27"/>
-        <v>27.51164526159786</v>
-      </c>
-      <c r="S148">
+        <v>0</v>
+      </c>
+      <c r="AJ148" s="58">
         <f t="shared" si="28"/>
-        <v>2.598076211353316</v>
-      </c>
-      <c r="T148">
-        <f t="shared" si="29"/>
         <v>10.127314550264547</v>
       </c>
-    </row>
-    <row r="149" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="AK148" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL148" s="6"/>
+    </row>
+    <row r="149" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A149" s="5"/>
       <c r="B149" s="2">
         <v>1</v>
       </c>
@@ -8343,67 +9311,134 @@
       <c r="E149" s="10">
         <v>3</v>
       </c>
-      <c r="F149">
+      <c r="F149" s="58">
         <f>AVERAGE(B149:B152)</f>
         <v>1</v>
       </c>
-      <c r="G149">
+      <c r="G149" s="58">
         <f>AVERAGE(C149:C152)</f>
         <v>2.5</v>
       </c>
-      <c r="H149">
+      <c r="H149" s="58">
         <f>AVERAGE(D149:D152)</f>
         <v>17.75</v>
       </c>
-      <c r="I149">
+      <c r="I149" s="58">
         <f>((B149-$F$136)^2+(C149-$G$136)^2+(D149-$H$136)^2)^0.5</f>
         <v>19.261360284258224</v>
       </c>
-      <c r="J149">
+      <c r="J149" s="58">
         <f>((B149-$F$140)^2+(C149-$G$140)^2+(D149-$H$140)^2)^0.5</f>
-        <v>19.261360284258224</v>
-      </c>
-      <c r="K149">
+        <v>31.983095024511599</v>
+      </c>
+      <c r="K149" s="58">
         <f>((B149-$F$147)^2+(C149-$G$147)^2+(D149-$H$147)^2)^0.5</f>
-        <v>19.261360284258224</v>
-      </c>
-      <c r="L149">
+        <v>1.8624580532189174</v>
+      </c>
+      <c r="L149" s="58">
         <f>((B149-$F$155)^2+(C149-$G$155)^2+(D149-$H$155)^2)^0.5</f>
         <v>19.261360284258224</v>
       </c>
-      <c r="M149">
+      <c r="M149" s="58">
         <v>0</v>
       </c>
-      <c r="N149">
+      <c r="N149" s="58">
         <f>AVERAGE(B149:B156)</f>
         <v>0.75</v>
       </c>
-      <c r="O149">
-        <f t="shared" ref="O149:P149" si="31">AVERAGE(C149:C156)</f>
-        <v>2</v>
-      </c>
-      <c r="P149">
+      <c r="O149" s="58">
+        <f>AVERAGE(C149:C156)</f>
+        <v>2</v>
+      </c>
+      <c r="P149" s="58">
+        <f>AVERAGE(D149:D156)</f>
+        <v>14</v>
+      </c>
+      <c r="Q149" s="58">
+        <f>((B149-$N$136)^2+(C149-$O$136)^2+(D149-$P$136)^2)^0.5</f>
+        <v>13.30413469565007</v>
+      </c>
+      <c r="R149" s="58">
+        <f>((B149-$N$137)^2+(C149-$O$137)^2+(D149-$P$137)^2)^0.5</f>
+        <v>19.261360284258224</v>
+      </c>
+      <c r="S149" s="58">
+        <f>((B149-$N$145)^2+(C149-$O$145)^2+(D149-$P$145)^2)^0.5</f>
+        <v>19.261360284258224</v>
+      </c>
+      <c r="T149" s="58">
+        <f>((B149-$N$149)^2+(C149-$O$149)^2+(D149-$P$149)^2)^0.5</f>
+        <v>5.1051444641655346</v>
+      </c>
+      <c r="U149" s="58">
+        <v>0</v>
+      </c>
+      <c r="V149" s="58">
+        <f>AVERAGE(B149:B156)</f>
+        <v>0.75</v>
+      </c>
+      <c r="W149" s="58">
+        <f>AVERAGE(C149:C156)</f>
+        <v>2</v>
+      </c>
+      <c r="X149" s="58">
+        <f>AVERAGE(D149:D156)</f>
+        <v>14</v>
+      </c>
+      <c r="Y149" s="58">
+        <f>((B149-$V$136)^2+(C149-$W$136)^2+(D149-$X$136)^2)^0.5</f>
+        <v>15.552777529717607</v>
+      </c>
+      <c r="Z149" s="58">
+        <f>((B149-$V$139)^2+(C149-$W$139)^2+(D149-$X$139)^2)^0.5</f>
+        <v>19.261360284258224</v>
+      </c>
+      <c r="AA149" s="58">
+        <f>((B149-$V$146)^2+(C149-$W$146)^2+(D149-$X$146)^2)^0.5</f>
+        <v>19.261360284258224</v>
+      </c>
+      <c r="AB149" s="58">
+        <f>((B149-$V$149)^2+(C149-$W$149)^2+(D149-$X$149)^2)^0.5</f>
+        <v>5.1051444641655346</v>
+      </c>
+      <c r="AC149" s="58">
+        <v>0</v>
+      </c>
+      <c r="AD149" s="58">
+        <f>AVERAGE(B149:B156)</f>
+        <v>0.75</v>
+      </c>
+      <c r="AE149" s="58">
+        <f t="shared" ref="AE149:AF149" si="31">AVERAGE(C149:C156)</f>
+        <v>2</v>
+      </c>
+      <c r="AF149" s="58">
         <f t="shared" si="31"/>
         <v>14</v>
       </c>
-      <c r="Q149">
+      <c r="AG149" s="58">
+        <f t="shared" si="25"/>
+        <v>15.854336946085132</v>
+      </c>
+      <c r="AH149" s="58">
         <f t="shared" si="26"/>
-        <v>13.30413469565007</v>
-      </c>
-      <c r="R149">
+        <v>35.766216213379664</v>
+      </c>
+      <c r="AI149" s="58">
         <f t="shared" si="27"/>
-        <v>32.521387193660729</v>
-      </c>
-      <c r="S149">
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="AJ149" s="58">
         <f t="shared" si="28"/>
-        <v>7.6648548583779457</v>
-      </c>
-      <c r="T149">
-        <f t="shared" si="29"/>
         <v>5.1051444641655346</v>
       </c>
-    </row>
-    <row r="150" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="AK149" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL149" s="6"/>
+    </row>
+    <row r="150" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A150" s="5"/>
       <c r="B150" s="2">
         <v>1</v>
       </c>
@@ -8416,43 +9451,98 @@
       <c r="E150" s="10">
         <v>3</v>
       </c>
-      <c r="I150">
+      <c r="F150" s="58"/>
+      <c r="G150" s="58"/>
+      <c r="H150" s="58"/>
+      <c r="I150" s="58">
         <f>((B150-$F$136)^2+(C150-$G$136)^2+(D150-$H$136)^2)^0.5</f>
         <v>17.146428199482248</v>
       </c>
-      <c r="J150">
+      <c r="J150" s="58">
         <f>((B150-$F$140)^2+(C150-$G$140)^2+(D150-$H$140)^2)^0.5</f>
-        <v>17.146428199482248</v>
-      </c>
-      <c r="K150">
+        <v>34.095304602222974</v>
+      </c>
+      <c r="K150" s="58">
         <f>((B150-$F$147)^2+(C150-$G$147)^2+(D150-$H$147)^2)^0.5</f>
-        <v>17.146428199482248</v>
-      </c>
-      <c r="L150">
+        <v>0.46770717334674267</v>
+      </c>
+      <c r="L150" s="58">
         <f>((B150-$F$155)^2+(C150-$G$155)^2+(D150-$H$155)^2)^0.5</f>
         <v>17.146428199482248</v>
       </c>
-      <c r="M150">
+      <c r="M150" s="58">
         <v>0</v>
       </c>
-      <c r="Q150">
+      <c r="N150" s="58"/>
+      <c r="O150" s="58"/>
+      <c r="P150" s="58"/>
+      <c r="Q150" s="58">
+        <f>((B150-$N$136)^2+(C150-$O$136)^2+(D150-$P$136)^2)^0.5</f>
+        <v>15.427248620541512</v>
+      </c>
+      <c r="R150" s="58">
+        <f>((B150-$N$137)^2+(C150-$O$137)^2+(D150-$P$137)^2)^0.5</f>
+        <v>17.146428199482248</v>
+      </c>
+      <c r="S150" s="58">
+        <f>((B150-$N$145)^2+(C150-$O$145)^2+(D150-$P$145)^2)^0.5</f>
+        <v>17.146428199482248</v>
+      </c>
+      <c r="T150" s="58">
+        <f>((B150-$N$149)^2+(C150-$O$149)^2+(D150-$P$149)^2)^0.5</f>
+        <v>3.0103986446980739</v>
+      </c>
+      <c r="U150" s="58">
+        <v>0</v>
+      </c>
+      <c r="V150" s="58"/>
+      <c r="W150" s="58"/>
+      <c r="X150" s="58"/>
+      <c r="Y150" s="58">
+        <f>((B150-$V$136)^2+(C150-$W$136)^2+(D150-$X$136)^2)^0.5</f>
+        <v>17.669811040931432</v>
+      </c>
+      <c r="Z150" s="58">
+        <f>((B150-$V$139)^2+(C150-$W$139)^2+(D150-$X$139)^2)^0.5</f>
+        <v>17.146428199482248</v>
+      </c>
+      <c r="AA150" s="58">
+        <f>((B150-$V$146)^2+(C150-$W$146)^2+(D150-$X$146)^2)^0.5</f>
+        <v>17.146428199482248</v>
+      </c>
+      <c r="AB150" s="58">
+        <f>((B150-$V$149)^2+(C150-$W$149)^2+(D150-$X$149)^2)^0.5</f>
+        <v>3.0103986446980739</v>
+      </c>
+      <c r="AC150" s="58">
+        <v>0</v>
+      </c>
+      <c r="AD150" s="58"/>
+      <c r="AE150" s="58"/>
+      <c r="AF150" s="58"/>
+      <c r="AG150" s="58">
+        <f t="shared" si="25"/>
+        <v>17.965522536235902</v>
+      </c>
+      <c r="AH150" s="58">
         <f t="shared" si="26"/>
-        <v>15.427248620541512</v>
-      </c>
-      <c r="R150">
+        <v>37.879927255591305</v>
+      </c>
+      <c r="AI150" s="58">
         <f t="shared" si="27"/>
-        <v>34.635828631635192</v>
-      </c>
-      <c r="S150">
+        <v>7.1414284285428504</v>
+      </c>
+      <c r="AJ150" s="58">
         <f t="shared" si="28"/>
-        <v>9.7339611669658925</v>
-      </c>
-      <c r="T150">
-        <f t="shared" si="29"/>
         <v>3.0103986446980739</v>
       </c>
-    </row>
-    <row r="151" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="AK150" s="58">
+        <v>0</v>
+      </c>
+      <c r="AL150" s="6"/>
+    </row>
+    <row r="151" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A151" s="5"/>
       <c r="B151" s="2">
         <v>1</v>
       </c>
@@ -8465,43 +9555,98 @@
       <c r="E151" s="10">
         <v>2</v>
       </c>
-      <c r="I151">
+      <c r="F151" s="58"/>
+      <c r="G151" s="58"/>
+      <c r="H151" s="58"/>
+      <c r="I151" s="58">
         <f>((B151-$F$136)^2+(C151-$G$136)^2+(D151-$H$136)^2)^0.5</f>
         <v>18.275666882497067</v>
       </c>
-      <c r="J151">
+      <c r="J151" s="58">
         <f>((B151-$F$140)^2+(C151-$G$140)^2+(D151-$H$140)^2)^0.5</f>
-        <v>18.275666882497067</v>
-      </c>
-      <c r="K151">
+        <v>32.970611527385955</v>
+      </c>
+      <c r="K151" s="58">
         <f>((B151-$F$147)^2+(C151-$G$147)^2+(D151-$H$147)^2)^0.5</f>
-        <v>18.275666882497067</v>
-      </c>
-      <c r="L151">
+        <v>0.98425098425147639</v>
+      </c>
+      <c r="L151" s="58">
         <f>((B151-$F$155)^2+(C151-$G$155)^2+(D151-$H$155)^2)^0.5</f>
         <v>18.275666882497067</v>
       </c>
-      <c r="M151">
+      <c r="M151" s="58">
         <v>0</v>
       </c>
-      <c r="Q151">
+      <c r="N151" s="58"/>
+      <c r="O151" s="58"/>
+      <c r="P151" s="58"/>
+      <c r="Q151" s="58">
+        <f>((B151-$N$136)^2+(C151-$O$136)^2+(D151-$P$136)^2)^0.5</f>
+        <v>14.282856857085701</v>
+      </c>
+      <c r="R151" s="58">
+        <f>((B151-$N$137)^2+(C151-$O$137)^2+(D151-$P$137)^2)^0.5</f>
+        <v>18.275666882497067</v>
+      </c>
+      <c r="S151" s="58">
+        <f>((B151-$N$145)^2+(C151-$O$145)^2+(D151-$P$145)^2)^0.5</f>
+        <v>18.275666882497067</v>
+      </c>
+      <c r="T151" s="58">
+        <f>((B151-$N$149)^2+(C151-$O$149)^2+(D151-$P$149)^2)^0.5</f>
+        <v>4.1306779104645761</v>
+      </c>
+      <c r="U151" s="58">
+        <v>0</v>
+      </c>
+      <c r="V151" s="58"/>
+      <c r="W151" s="58"/>
+      <c r="X151" s="58"/>
+      <c r="Y151" s="58">
+        <f>((B151-$V$136)^2+(C151-$W$136)^2+(D151-$X$136)^2)^0.5</f>
+        <v>16.539514973407037</v>
+      </c>
+      <c r="Z151" s="58">
+        <f>((B151-$V$139)^2+(C151-$W$139)^2+(D151-$X$139)^2)^0.5</f>
+        <v>18.275666882497067</v>
+      </c>
+      <c r="AA151" s="58">
+        <f>((B151-$V$146)^2+(C151-$W$146)^2+(D151-$X$146)^2)^0.5</f>
+        <v>18.275666882497067</v>
+      </c>
+      <c r="AB151" s="58">
+        <f>((B151-$V$149)^2+(C151-$W$149)^2+(D151-$X$149)^2)^0.5</f>
+        <v>4.1306779104645761</v>
+      </c>
+      <c r="AC151" s="58">
+        <v>0</v>
+      </c>
+      <c r="AD151" s="58"/>
+      <c r="AE151" s="58"/>
+      <c r="AF151" s="58"/>
+      <c r="AG151" s="58">
+        <f t="shared" si="25"/>
+        <v>16.839239887833418</v>
+      </c>
+      <c r="AH151" s="58">
         <f t="shared" si="26"/>
-        <v>14.282856857085701</v>
-      </c>
-      <c r="R151">
+        <v>36.754440396894758</v>
+      </c>
+      <c r="AI151" s="58">
         <f t="shared" si="27"/>
-        <v>33.509560203022659</v>
-      </c>
-      <c r="S151">
+        <v>6.0827625302982193</v>
+      </c>
+      <c r="AJ151" s="58">
         <f t="shared" si="28"/>
-        <v>8.6458082328952912</v>
-      </c>
-      <c r="T151">
-        <f t="shared" si="29"/>
         <v>4.1306779104645761</v>
       </c>
-    </row>
-    <row r="152" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="AK151" s="58">
+        <v>0</v>
+      </c>
+      <c r="AL151" s="6"/>
+    </row>
+    <row r="152" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A152" s="5"/>
       <c r="B152" s="2">
         <v>1</v>
       </c>
@@ -8514,43 +9659,98 @@
       <c r="E152" s="10">
         <v>2</v>
       </c>
-      <c r="I152">
+      <c r="F152" s="58"/>
+      <c r="G152" s="58"/>
+      <c r="H152" s="58"/>
+      <c r="I152" s="58">
         <f>((B152-$F$136)^2+(C152-$G$136)^2+(D152-$H$136)^2)^0.5</f>
         <v>17.146428199482248</v>
       </c>
-      <c r="J152">
+      <c r="J152" s="58">
         <f>((B152-$F$140)^2+(C152-$G$140)^2+(D152-$H$140)^2)^0.5</f>
-        <v>17.146428199482248</v>
-      </c>
-      <c r="K152">
+        <v>34.095304602222974</v>
+      </c>
+      <c r="K152" s="58">
         <f>((B152-$F$147)^2+(C152-$G$147)^2+(D152-$H$147)^2)^0.5</f>
-        <v>17.146428199482248</v>
-      </c>
-      <c r="L152">
+        <v>0.46770717334674267</v>
+      </c>
+      <c r="L152" s="58">
         <f>((B152-$F$155)^2+(C152-$G$155)^2+(D152-$H$155)^2)^0.5</f>
         <v>17.146428199482248</v>
       </c>
-      <c r="M152">
+      <c r="M152" s="58">
         <v>0</v>
       </c>
-      <c r="Q152">
+      <c r="N152" s="58"/>
+      <c r="O152" s="58"/>
+      <c r="P152" s="58"/>
+      <c r="Q152" s="58">
+        <f>((B152-$N$136)^2+(C152-$O$136)^2+(D152-$P$136)^2)^0.5</f>
+        <v>15.427248620541512</v>
+      </c>
+      <c r="R152" s="58">
+        <f>((B152-$N$137)^2+(C152-$O$137)^2+(D152-$P$137)^2)^0.5</f>
+        <v>17.146428199482248</v>
+      </c>
+      <c r="S152" s="58">
+        <f>((B152-$N$145)^2+(C152-$O$145)^2+(D152-$P$145)^2)^0.5</f>
+        <v>17.146428199482248</v>
+      </c>
+      <c r="T152" s="58">
+        <f>((B152-$N$149)^2+(C152-$O$149)^2+(D152-$P$149)^2)^0.5</f>
+        <v>3.0103986446980739</v>
+      </c>
+      <c r="U152" s="58">
+        <v>0</v>
+      </c>
+      <c r="V152" s="58"/>
+      <c r="W152" s="58"/>
+      <c r="X152" s="58"/>
+      <c r="Y152" s="58">
+        <f>((B152-$V$136)^2+(C152-$W$136)^2+(D152-$X$136)^2)^0.5</f>
+        <v>17.669811040931432</v>
+      </c>
+      <c r="Z152" s="58">
+        <f>((B152-$V$139)^2+(C152-$W$139)^2+(D152-$X$139)^2)^0.5</f>
+        <v>17.146428199482248</v>
+      </c>
+      <c r="AA152" s="58">
+        <f>((B152-$V$146)^2+(C152-$W$146)^2+(D152-$X$146)^2)^0.5</f>
+        <v>17.146428199482248</v>
+      </c>
+      <c r="AB152" s="58">
+        <f>((B152-$V$149)^2+(C152-$W$149)^2+(D152-$X$149)^2)^0.5</f>
+        <v>3.0103986446980739</v>
+      </c>
+      <c r="AC152" s="58">
+        <v>0</v>
+      </c>
+      <c r="AD152" s="58"/>
+      <c r="AE152" s="58"/>
+      <c r="AF152" s="58"/>
+      <c r="AG152" s="58">
+        <f t="shared" si="25"/>
+        <v>17.965522536235902</v>
+      </c>
+      <c r="AH152" s="58">
         <f t="shared" si="26"/>
-        <v>15.427248620541512</v>
-      </c>
-      <c r="R152">
+        <v>37.879927255591305</v>
+      </c>
+      <c r="AI152" s="58">
         <f t="shared" si="27"/>
-        <v>34.635828631635192</v>
-      </c>
-      <c r="S152">
+        <v>7.1414284285428504</v>
+      </c>
+      <c r="AJ152" s="58">
         <f t="shared" si="28"/>
-        <v>9.7339611669658925</v>
-      </c>
-      <c r="T152">
-        <f t="shared" si="29"/>
         <v>3.0103986446980739</v>
       </c>
-    </row>
-    <row r="153" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="AK152" s="58">
+        <v>0</v>
+      </c>
+      <c r="AL152" s="6"/>
+    </row>
+    <row r="153" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A153" s="5"/>
       <c r="B153" s="2">
         <v>1</v>
       </c>
@@ -8563,43 +9763,98 @@
       <c r="E153" s="10">
         <v>1</v>
       </c>
-      <c r="I153">
+      <c r="F153" s="58"/>
+      <c r="G153" s="58"/>
+      <c r="H153" s="58"/>
+      <c r="I153" s="58">
         <f>((B153-$F$136)^2+(C153-$G$136)^2+(D153-$H$136)^2)^0.5</f>
         <v>18.275666882497067</v>
       </c>
-      <c r="J153">
+      <c r="J153" s="58">
         <f>((B153-$F$140)^2+(C153-$G$140)^2+(D153-$H$140)^2)^0.5</f>
-        <v>18.275666882497067</v>
-      </c>
-      <c r="K153">
+        <v>32.970611527385955</v>
+      </c>
+      <c r="K153" s="58">
         <f>((B153-$F$147)^2+(C153-$G$147)^2+(D153-$H$147)^2)^0.5</f>
-        <v>18.275666882497067</v>
-      </c>
-      <c r="L153">
+        <v>0.98425098425147639</v>
+      </c>
+      <c r="L153" s="58">
         <f>((B153-$F$155)^2+(C153-$G$155)^2+(D153-$H$155)^2)^0.5</f>
         <v>18.275666882497067</v>
       </c>
-      <c r="M153">
+      <c r="M153" s="58">
         <v>0</v>
       </c>
-      <c r="Q153">
+      <c r="N153" s="58"/>
+      <c r="O153" s="58"/>
+      <c r="P153" s="58"/>
+      <c r="Q153" s="58">
+        <f>((B153-$N$136)^2+(C153-$O$136)^2+(D153-$P$136)^2)^0.5</f>
+        <v>14.282856857085701</v>
+      </c>
+      <c r="R153" s="58">
+        <f>((B153-$N$137)^2+(C153-$O$137)^2+(D153-$P$137)^2)^0.5</f>
+        <v>18.275666882497067</v>
+      </c>
+      <c r="S153" s="58">
+        <f>((B153-$N$145)^2+(C153-$O$145)^2+(D153-$P$145)^2)^0.5</f>
+        <v>18.275666882497067</v>
+      </c>
+      <c r="T153" s="58">
+        <f>((B153-$N$149)^2+(C153-$O$149)^2+(D153-$P$149)^2)^0.5</f>
+        <v>4.1306779104645761</v>
+      </c>
+      <c r="U153" s="58">
+        <v>0</v>
+      </c>
+      <c r="V153" s="58"/>
+      <c r="W153" s="58"/>
+      <c r="X153" s="58"/>
+      <c r="Y153" s="58">
+        <f>((B153-$V$136)^2+(C153-$W$136)^2+(D153-$X$136)^2)^0.5</f>
+        <v>16.539514973407037</v>
+      </c>
+      <c r="Z153" s="58">
+        <f>((B153-$V$139)^2+(C153-$W$139)^2+(D153-$X$139)^2)^0.5</f>
+        <v>18.275666882497067</v>
+      </c>
+      <c r="AA153" s="58">
+        <f>((B153-$V$146)^2+(C153-$W$146)^2+(D153-$X$146)^2)^0.5</f>
+        <v>18.275666882497067</v>
+      </c>
+      <c r="AB153" s="58">
+        <f>((B153-$V$149)^2+(C153-$W$149)^2+(D153-$X$149)^2)^0.5</f>
+        <v>4.1306779104645761</v>
+      </c>
+      <c r="AC153" s="58">
+        <v>0</v>
+      </c>
+      <c r="AD153" s="58"/>
+      <c r="AE153" s="58"/>
+      <c r="AF153" s="58"/>
+      <c r="AG153" s="58">
+        <f t="shared" si="25"/>
+        <v>16.839239887833418</v>
+      </c>
+      <c r="AH153" s="58">
         <f t="shared" si="26"/>
-        <v>14.282856857085701</v>
-      </c>
-      <c r="R153">
+        <v>36.754440396894758</v>
+      </c>
+      <c r="AI153" s="58">
         <f t="shared" si="27"/>
-        <v>33.509560203022659</v>
-      </c>
-      <c r="S153">
+        <v>6.0827625302982193</v>
+      </c>
+      <c r="AJ153" s="58">
         <f t="shared" si="28"/>
-        <v>8.6458082328952912</v>
-      </c>
-      <c r="T153">
-        <f t="shared" si="29"/>
         <v>4.1306779104645761</v>
       </c>
-    </row>
-    <row r="154" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="AK153" s="58">
+        <v>0</v>
+      </c>
+      <c r="AL153" s="6"/>
+    </row>
+    <row r="154" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A154" s="5"/>
       <c r="B154" s="2">
         <v>0</v>
       </c>
@@ -8612,43 +9867,98 @@
       <c r="E154" s="10">
         <v>1</v>
       </c>
-      <c r="I154">
+      <c r="F154" s="58"/>
+      <c r="G154" s="58"/>
+      <c r="H154" s="58"/>
+      <c r="I154" s="58">
         <f>((B154-$F$136)^2+(C154-$G$136)^2+(D154-$H$136)^2)^0.5</f>
         <v>1</v>
       </c>
-      <c r="J154">
+      <c r="J154" s="58">
         <f>((B154-$F$140)^2+(C154-$G$140)^2+(D154-$H$140)^2)^0.5</f>
-        <v>1</v>
-      </c>
-      <c r="K154">
+        <v>50.24287948332092</v>
+      </c>
+      <c r="K154" s="58">
         <f>((B154-$F$147)^2+(C154-$G$147)^2+(D154-$H$147)^2)^0.5</f>
-        <v>1</v>
-      </c>
-      <c r="L154">
+        <v>16.46112845463518</v>
+      </c>
+      <c r="L154" s="58">
         <f>((B154-$F$155)^2+(C154-$G$155)^2+(D154-$H$155)^2)^0.5</f>
         <v>1</v>
       </c>
-      <c r="M154">
+      <c r="M154" s="58">
         <v>0</v>
       </c>
-      <c r="Q154">
+      <c r="N154" s="58"/>
+      <c r="O154" s="58"/>
+      <c r="P154" s="58"/>
+      <c r="Q154" s="58">
+        <f>((B154-$N$136)^2+(C154-$O$136)^2+(D154-$P$136)^2)^0.5</f>
+        <v>31.54362059117501</v>
+      </c>
+      <c r="R154" s="58">
+        <f>((B154-$N$137)^2+(C154-$O$137)^2+(D154-$P$137)^2)^0.5</f>
+        <v>1</v>
+      </c>
+      <c r="S154" s="58">
+        <f>((B154-$N$145)^2+(C154-$O$145)^2+(D154-$P$145)^2)^0.5</f>
+        <v>1</v>
+      </c>
+      <c r="T154" s="58">
+        <f>((B154-$N$149)^2+(C154-$O$149)^2+(D154-$P$149)^2)^0.5</f>
+        <v>13.174312126255398</v>
+      </c>
+      <c r="U154" s="58">
+        <v>0</v>
+      </c>
+      <c r="V154" s="58"/>
+      <c r="W154" s="58"/>
+      <c r="X154" s="58"/>
+      <c r="Y154" s="58">
+        <f>((B154-$V$136)^2+(C154-$W$136)^2+(D154-$X$136)^2)^0.5</f>
+        <v>33.811569354619174</v>
+      </c>
+      <c r="Z154" s="58">
+        <f>((B154-$V$139)^2+(C154-$W$139)^2+(D154-$X$139)^2)^0.5</f>
+        <v>1</v>
+      </c>
+      <c r="AA154" s="58">
+        <f>((B154-$V$146)^2+(C154-$W$146)^2+(D154-$X$146)^2)^0.5</f>
+        <v>1</v>
+      </c>
+      <c r="AB154" s="58">
+        <f>((B154-$V$149)^2+(C154-$W$149)^2+(D154-$X$149)^2)^0.5</f>
+        <v>13.174312126255398</v>
+      </c>
+      <c r="AC154" s="58">
+        <v>0</v>
+      </c>
+      <c r="AD154" s="58"/>
+      <c r="AE154" s="58"/>
+      <c r="AF154" s="58"/>
+      <c r="AG154" s="58">
+        <f t="shared" si="25"/>
+        <v>34.102199342564404</v>
+      </c>
+      <c r="AH154" s="58">
         <f t="shared" si="26"/>
-        <v>31.54362059117501</v>
-      </c>
-      <c r="R154">
+        <v>54.029827153362454</v>
+      </c>
+      <c r="AI154" s="58">
         <f t="shared" si="27"/>
-        <v>50.785240227845726</v>
-      </c>
-      <c r="S154">
+        <v>23.280893453645632</v>
+      </c>
+      <c r="AJ154" s="58">
         <f t="shared" si="28"/>
-        <v>25.8602010819715</v>
-      </c>
-      <c r="T154">
-        <f t="shared" si="29"/>
         <v>13.174312126255398</v>
       </c>
-    </row>
-    <row r="155" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="AK154" s="58">
+        <v>0</v>
+      </c>
+      <c r="AL154" s="6"/>
+    </row>
+    <row r="155" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A155" s="5"/>
       <c r="B155" s="2">
         <v>1</v>
       </c>
@@ -8661,43 +9971,98 @@
       <c r="E155" s="10">
         <v>1</v>
       </c>
-      <c r="I155">
+      <c r="F155" s="58"/>
+      <c r="G155" s="58"/>
+      <c r="H155" s="58"/>
+      <c r="I155" s="58">
         <f>((B155-$F$136)^2+(C155-$G$136)^2+(D155-$H$136)^2)^0.5</f>
         <v>17.146428199482248</v>
       </c>
-      <c r="J155">
+      <c r="J155" s="58">
         <f>((B155-$F$140)^2+(C155-$G$140)^2+(D155-$H$140)^2)^0.5</f>
-        <v>17.146428199482248</v>
-      </c>
-      <c r="K155">
+        <v>34.095304602222974</v>
+      </c>
+      <c r="K155" s="58">
         <f>((B155-$F$147)^2+(C155-$G$147)^2+(D155-$H$147)^2)^0.5</f>
-        <v>17.146428199482248</v>
-      </c>
-      <c r="L155">
+        <v>0.46770717334674267</v>
+      </c>
+      <c r="L155" s="58">
         <f>((B155-$F$155)^2+(C155-$G$155)^2+(D155-$H$155)^2)^0.5</f>
         <v>17.146428199482248</v>
       </c>
-      <c r="M155">
+      <c r="M155" s="58">
         <v>0</v>
       </c>
-      <c r="Q155">
+      <c r="N155" s="58"/>
+      <c r="O155" s="58"/>
+      <c r="P155" s="58"/>
+      <c r="Q155" s="58">
+        <f>((B155-$N$136)^2+(C155-$O$136)^2+(D155-$P$136)^2)^0.5</f>
+        <v>15.427248620541512</v>
+      </c>
+      <c r="R155" s="58">
+        <f>((B155-$N$137)^2+(C155-$O$137)^2+(D155-$P$137)^2)^0.5</f>
+        <v>17.146428199482248</v>
+      </c>
+      <c r="S155" s="58">
+        <f>((B155-$N$145)^2+(C155-$O$145)^2+(D155-$P$145)^2)^0.5</f>
+        <v>17.146428199482248</v>
+      </c>
+      <c r="T155" s="58">
+        <f>((B155-$N$149)^2+(C155-$O$149)^2+(D155-$P$149)^2)^0.5</f>
+        <v>3.0103986446980739</v>
+      </c>
+      <c r="U155" s="58">
+        <v>0</v>
+      </c>
+      <c r="V155" s="58"/>
+      <c r="W155" s="58"/>
+      <c r="X155" s="58"/>
+      <c r="Y155" s="58">
+        <f>((B155-$V$136)^2+(C155-$W$136)^2+(D155-$X$136)^2)^0.5</f>
+        <v>17.669811040931432</v>
+      </c>
+      <c r="Z155" s="58">
+        <f>((B155-$V$139)^2+(C155-$W$139)^2+(D155-$X$139)^2)^0.5</f>
+        <v>17.146428199482248</v>
+      </c>
+      <c r="AA155" s="58">
+        <f>((B155-$V$146)^2+(C155-$W$146)^2+(D155-$X$146)^2)^0.5</f>
+        <v>17.146428199482248</v>
+      </c>
+      <c r="AB155" s="58">
+        <f>((B155-$V$149)^2+(C155-$W$149)^2+(D155-$X$149)^2)^0.5</f>
+        <v>3.0103986446980739</v>
+      </c>
+      <c r="AC155" s="58">
+        <v>0</v>
+      </c>
+      <c r="AD155" s="58"/>
+      <c r="AE155" s="58"/>
+      <c r="AF155" s="58"/>
+      <c r="AG155" s="58">
+        <f t="shared" si="25"/>
+        <v>17.965522536235902</v>
+      </c>
+      <c r="AH155" s="58">
         <f t="shared" si="26"/>
-        <v>15.427248620541512</v>
-      </c>
-      <c r="R155">
+        <v>37.879927255591305</v>
+      </c>
+      <c r="AI155" s="58">
         <f t="shared" si="27"/>
-        <v>34.635828631635192</v>
-      </c>
-      <c r="S155">
+        <v>7.1414284285428504</v>
+      </c>
+      <c r="AJ155" s="58">
         <f t="shared" si="28"/>
-        <v>9.7339611669658925</v>
-      </c>
-      <c r="T155">
-        <f t="shared" si="29"/>
         <v>3.0103986446980739</v>
       </c>
-    </row>
-    <row r="156" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="AK155" s="58">
+        <v>0</v>
+      </c>
+      <c r="AL155" s="6"/>
+    </row>
+    <row r="156" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A156" s="5"/>
       <c r="B156" s="2">
         <v>0</v>
       </c>
@@ -8710,77 +10075,1375 @@
       <c r="E156" s="10">
         <v>0</v>
       </c>
-      <c r="F156">
+      <c r="F156" s="58">
         <f>AVERAGE(B156:B157)</f>
         <v>0</v>
       </c>
-      <c r="G156">
+      <c r="G156" s="58">
         <f>AVERAGE(C156:C157)</f>
         <v>1</v>
       </c>
-      <c r="H156">
+      <c r="H156" s="58">
         <f>AVERAGE(D156:D157)</f>
         <v>5</v>
       </c>
-      <c r="I156">
+      <c r="I156" s="58">
         <f>((B156-$F$136)^2+(C156-$G$136)^2+(D156-$H$136)^2)^0.5</f>
         <v>5.0990195135927845</v>
       </c>
-      <c r="J156">
+      <c r="J156" s="58">
         <f>((B156-$F$140)^2+(C156-$G$140)^2+(D156-$H$140)^2)^0.5</f>
-        <v>5.0990195135927845</v>
-      </c>
-      <c r="K156">
+        <v>46.157229075393673</v>
+      </c>
+      <c r="K156" s="58">
         <f>((B156-$F$147)^2+(C156-$G$147)^2+(D156-$H$147)^2)^0.5</f>
-        <v>5.0990195135927845</v>
-      </c>
-      <c r="L156">
+        <v>12.378156163177131</v>
+      </c>
+      <c r="L156" s="58">
         <f>((B156-$F$155)^2+(C156-$G$155)^2+(D156-$H$155)^2)^0.5</f>
         <v>5.0990195135927845</v>
       </c>
-      <c r="M156">
+      <c r="M156" s="58">
         <v>0</v>
       </c>
-      <c r="Q156">
+      <c r="N156" s="58"/>
+      <c r="O156" s="58"/>
+      <c r="P156" s="58"/>
+      <c r="Q156" s="58">
+        <f>((B156-$N$136)^2+(C156-$O$136)^2+(D156-$P$136)^2)^0.5</f>
+        <v>27.459060435491963</v>
+      </c>
+      <c r="R156" s="58">
+        <f>((B156-$N$137)^2+(C156-$O$137)^2+(D156-$P$137)^2)^0.5</f>
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="S156" s="58">
+        <f>((B156-$N$145)^2+(C156-$O$145)^2+(D156-$P$145)^2)^0.5</f>
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="T156" s="58">
+        <f>((B156-$N$149)^2+(C156-$O$149)^2+(D156-$P$149)^2)^0.5</f>
+        <v>9.0863909226931234</v>
+      </c>
+      <c r="U156" s="58">
+        <v>0</v>
+      </c>
+      <c r="V156" s="58"/>
+      <c r="W156" s="58"/>
+      <c r="X156" s="58"/>
+      <c r="Y156" s="58">
+        <f>((B156-$V$136)^2+(C156-$W$136)^2+(D156-$X$136)^2)^0.5</f>
+        <v>29.724662412810606</v>
+      </c>
+      <c r="Z156" s="58">
+        <f>((B156-$V$139)^2+(C156-$W$139)^2+(D156-$X$139)^2)^0.5</f>
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="AA156" s="58">
+        <f>((B156-$V$146)^2+(C156-$W$146)^2+(D156-$X$146)^2)^0.5</f>
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="AB156" s="58">
+        <f>((B156-$V$149)^2+(C156-$W$149)^2+(D156-$X$149)^2)^0.5</f>
+        <v>9.0863909226931234</v>
+      </c>
+      <c r="AC156" s="58">
+        <v>0</v>
+      </c>
+      <c r="AD156" s="58"/>
+      <c r="AE156" s="58"/>
+      <c r="AF156" s="58"/>
+      <c r="AG156" s="58">
+        <f t="shared" si="25"/>
+        <v>30.019327107715124</v>
+      </c>
+      <c r="AH156" s="58">
         <f t="shared" si="26"/>
-        <v>27.459060435491963</v>
-      </c>
-      <c r="R156">
+        <v>49.942188800874781</v>
+      </c>
+      <c r="AI156" s="58">
         <f t="shared" si="27"/>
-        <v>46.697329955790835</v>
-      </c>
-      <c r="S156">
+        <v>19.209372712298546</v>
+      </c>
+      <c r="AJ156" s="58">
         <f t="shared" si="28"/>
-        <v>21.788758569500924</v>
-      </c>
-      <c r="T156">
-        <f t="shared" si="29"/>
         <v>9.0863909226931234</v>
       </c>
+      <c r="AK156" s="58">
+        <v>0</v>
+      </c>
+      <c r="AL156" s="6"/>
+    </row>
+    <row r="157" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A157" s="5"/>
+      <c r="B157" s="58"/>
+      <c r="C157" s="58"/>
+      <c r="D157" s="58"/>
+      <c r="E157" s="58"/>
+      <c r="F157" s="58"/>
+      <c r="G157" s="58"/>
+      <c r="H157" s="58"/>
+      <c r="I157" s="58"/>
+      <c r="J157" s="58"/>
+      <c r="K157" s="58"/>
+      <c r="L157" s="58"/>
+      <c r="M157" s="58"/>
+      <c r="N157" s="58"/>
+      <c r="O157" s="58"/>
+      <c r="P157" s="58"/>
+      <c r="Q157" s="58"/>
+      <c r="R157" s="58"/>
+      <c r="S157" s="58"/>
+      <c r="T157" s="58"/>
+      <c r="U157" s="58"/>
+      <c r="V157" s="58"/>
+      <c r="W157" s="58"/>
+      <c r="X157" s="58"/>
+      <c r="Y157" s="58"/>
+      <c r="Z157" s="58"/>
+      <c r="AA157" s="58"/>
+      <c r="AB157" s="58"/>
+      <c r="AC157" s="58"/>
+      <c r="AD157" s="58"/>
+      <c r="AE157" s="58"/>
+      <c r="AF157" s="58"/>
+      <c r="AG157" s="58"/>
+      <c r="AH157" s="58"/>
+      <c r="AI157" s="58"/>
+      <c r="AJ157" s="58"/>
+      <c r="AK157" s="58"/>
+      <c r="AL157" s="6"/>
+    </row>
+    <row r="158" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A158" s="5"/>
+      <c r="B158" s="58"/>
+      <c r="C158" s="58"/>
+      <c r="D158" s="58"/>
+      <c r="E158" s="58"/>
+      <c r="F158" s="58"/>
+      <c r="G158" s="58"/>
+      <c r="H158" s="58"/>
+      <c r="I158" s="58"/>
+      <c r="J158" s="58"/>
+      <c r="K158" s="58"/>
+      <c r="L158" s="58"/>
+      <c r="M158" s="58"/>
+      <c r="N158" s="58"/>
+      <c r="O158" s="58"/>
+      <c r="P158" s="58"/>
+      <c r="Q158" s="58"/>
+      <c r="R158" s="58"/>
+      <c r="S158" s="58"/>
+      <c r="T158" s="58"/>
+      <c r="U158" s="58"/>
+      <c r="V158" s="58"/>
+      <c r="W158" s="58"/>
+      <c r="X158" s="58"/>
+      <c r="Y158" s="58"/>
+      <c r="Z158" s="58"/>
+      <c r="AA158" s="58"/>
+      <c r="AB158" s="58"/>
+      <c r="AC158" s="58"/>
+      <c r="AD158" s="58"/>
+      <c r="AE158" s="58"/>
+      <c r="AF158" s="58"/>
+      <c r="AG158" s="58"/>
+      <c r="AH158" s="58"/>
+      <c r="AI158" s="58"/>
+      <c r="AJ158" s="58"/>
+      <c r="AK158" s="58"/>
+      <c r="AL158" s="6"/>
+    </row>
+    <row r="159" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A159" s="5"/>
+      <c r="B159" s="58"/>
+      <c r="C159" s="58"/>
+      <c r="D159" s="58"/>
+      <c r="E159" s="58"/>
+      <c r="F159" s="58"/>
+      <c r="G159" s="58"/>
+      <c r="H159" s="58"/>
+      <c r="I159" s="58"/>
+      <c r="J159" s="58"/>
+      <c r="K159" s="58"/>
+      <c r="L159" s="58"/>
+      <c r="M159" s="58"/>
+      <c r="N159" s="58"/>
+      <c r="O159" s="58"/>
+      <c r="P159" s="58"/>
+      <c r="Q159" s="58"/>
+      <c r="R159" s="58"/>
+      <c r="S159" s="58"/>
+      <c r="T159" s="58"/>
+      <c r="U159" s="58"/>
+      <c r="V159" s="58"/>
+      <c r="W159" s="58"/>
+      <c r="X159" s="58"/>
+      <c r="Y159" s="58"/>
+      <c r="Z159" s="58"/>
+      <c r="AA159" s="58"/>
+      <c r="AB159" s="58"/>
+      <c r="AC159" s="58"/>
+      <c r="AD159" s="58"/>
+      <c r="AE159" s="58"/>
+      <c r="AF159" s="58"/>
+      <c r="AG159" s="58"/>
+      <c r="AH159" s="58"/>
+      <c r="AI159" s="58"/>
+      <c r="AJ159" s="58"/>
+      <c r="AK159" s="58"/>
+      <c r="AL159" s="6"/>
+    </row>
+    <row r="160" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A160" s="5"/>
+      <c r="B160" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C160" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D160" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E160" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F160" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="G160" s="58"/>
+      <c r="H160" s="58"/>
+      <c r="I160" s="58"/>
+      <c r="J160" s="58"/>
+      <c r="K160" s="58"/>
+      <c r="L160" s="58"/>
+      <c r="M160" s="58"/>
+      <c r="N160" s="58"/>
+      <c r="O160" s="58"/>
+      <c r="P160" s="58"/>
+      <c r="Q160" s="58"/>
+      <c r="R160" s="58"/>
+      <c r="S160" s="58"/>
+      <c r="T160" s="58"/>
+      <c r="U160" s="58"/>
+      <c r="V160" s="58"/>
+      <c r="W160" s="58"/>
+      <c r="X160" s="58"/>
+      <c r="Y160" s="58"/>
+      <c r="Z160" s="58"/>
+      <c r="AA160" s="58"/>
+      <c r="AB160" s="58"/>
+      <c r="AC160" s="58"/>
+      <c r="AD160" s="58"/>
+      <c r="AE160" s="58"/>
+      <c r="AF160" s="58"/>
+      <c r="AG160" s="58"/>
+      <c r="AH160" s="58"/>
+      <c r="AI160" s="58"/>
+      <c r="AJ160" s="58"/>
+      <c r="AK160" s="58"/>
+      <c r="AL160" s="6"/>
+    </row>
+    <row r="161" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A161" s="5"/>
+      <c r="B161" s="10">
+        <v>3</v>
+      </c>
+      <c r="C161" s="10">
+        <v>3</v>
+      </c>
+      <c r="D161" s="10">
+        <v>3</v>
+      </c>
+      <c r="E161" s="10">
+        <v>3</v>
+      </c>
+      <c r="F161" s="10">
+        <v>3</v>
+      </c>
+      <c r="G161" s="58"/>
+      <c r="H161" s="58"/>
+      <c r="I161" s="58"/>
+      <c r="J161" s="58"/>
+      <c r="K161" s="58"/>
+      <c r="L161" s="58"/>
+      <c r="M161" s="58"/>
+      <c r="N161" s="58"/>
+      <c r="O161" s="58"/>
+      <c r="P161" s="58"/>
+      <c r="Q161" s="58"/>
+      <c r="R161" s="58"/>
+      <c r="S161" s="58"/>
+      <c r="T161" s="58"/>
+      <c r="U161" s="58"/>
+      <c r="V161" s="58"/>
+      <c r="W161" s="58"/>
+      <c r="X161" s="58"/>
+      <c r="Y161" s="58"/>
+      <c r="Z161" s="58"/>
+      <c r="AA161" s="58"/>
+      <c r="AB161" s="58"/>
+      <c r="AC161" s="58"/>
+      <c r="AD161" s="58"/>
+      <c r="AE161" s="58"/>
+      <c r="AF161" s="58"/>
+      <c r="AG161" s="58"/>
+      <c r="AH161" s="58"/>
+      <c r="AI161" s="58"/>
+      <c r="AJ161" s="58"/>
+      <c r="AK161" s="58"/>
+      <c r="AL161" s="6"/>
+    </row>
+    <row r="162" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A162" s="5"/>
+      <c r="B162" s="10">
+        <v>3</v>
+      </c>
+      <c r="C162" s="10">
+        <v>2</v>
+      </c>
+      <c r="D162" s="10">
+        <v>3</v>
+      </c>
+      <c r="E162" s="10">
+        <v>3</v>
+      </c>
+      <c r="F162" s="10">
+        <v>3</v>
+      </c>
+      <c r="G162" s="58"/>
+      <c r="H162" s="58"/>
+      <c r="I162" s="58"/>
+      <c r="J162" s="58"/>
+      <c r="K162" s="58"/>
+      <c r="L162" s="58"/>
+      <c r="M162" s="58"/>
+      <c r="N162" s="58"/>
+      <c r="O162" s="58"/>
+      <c r="P162" s="58"/>
+      <c r="Q162" s="58"/>
+      <c r="R162" s="58"/>
+      <c r="S162" s="58"/>
+      <c r="T162" s="58"/>
+      <c r="U162" s="58"/>
+      <c r="V162" s="58"/>
+      <c r="W162" s="58"/>
+      <c r="X162" s="58"/>
+      <c r="Y162" s="58"/>
+      <c r="Z162" s="58"/>
+      <c r="AA162" s="58"/>
+      <c r="AB162" s="58"/>
+      <c r="AC162" s="58"/>
+      <c r="AD162" s="58"/>
+      <c r="AE162" s="58"/>
+      <c r="AF162" s="58"/>
+      <c r="AG162" s="58"/>
+      <c r="AH162" s="58"/>
+      <c r="AI162" s="58"/>
+      <c r="AJ162" s="58"/>
+      <c r="AK162" s="58"/>
+      <c r="AL162" s="6"/>
+    </row>
+    <row r="163" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A163" s="5"/>
+      <c r="B163" s="10">
+        <v>3</v>
+      </c>
+      <c r="C163" s="10">
+        <v>2</v>
+      </c>
+      <c r="D163" s="10">
+        <v>3</v>
+      </c>
+      <c r="E163" s="10">
+        <v>3</v>
+      </c>
+      <c r="F163" s="10">
+        <v>3</v>
+      </c>
+      <c r="G163" s="58"/>
+      <c r="H163" s="58"/>
+      <c r="I163" s="58"/>
+      <c r="J163" s="58"/>
+      <c r="K163" s="58"/>
+      <c r="L163" s="58"/>
+      <c r="M163" s="58"/>
+      <c r="N163" s="58"/>
+      <c r="O163" s="58"/>
+      <c r="P163" s="58"/>
+      <c r="Q163" s="58"/>
+      <c r="R163" s="58"/>
+      <c r="S163" s="58"/>
+      <c r="T163" s="58"/>
+      <c r="U163" s="58"/>
+      <c r="V163" s="58"/>
+      <c r="W163" s="58"/>
+      <c r="X163" s="58"/>
+      <c r="Y163" s="58"/>
+      <c r="Z163" s="58"/>
+      <c r="AA163" s="58"/>
+      <c r="AB163" s="58"/>
+      <c r="AC163" s="58"/>
+      <c r="AD163" s="58"/>
+      <c r="AE163" s="58"/>
+      <c r="AF163" s="58"/>
+      <c r="AG163" s="58"/>
+      <c r="AH163" s="58"/>
+      <c r="AI163" s="58"/>
+      <c r="AJ163" s="58"/>
+      <c r="AK163" s="58"/>
+      <c r="AL163" s="6"/>
+    </row>
+    <row r="164" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A164" s="5"/>
+      <c r="B164" s="10">
+        <v>3</v>
+      </c>
+      <c r="C164" s="10">
+        <v>2</v>
+      </c>
+      <c r="D164" s="10">
+        <v>2</v>
+      </c>
+      <c r="E164" s="10">
+        <v>3</v>
+      </c>
+      <c r="F164" s="10">
+        <v>3</v>
+      </c>
+      <c r="G164" s="58"/>
+      <c r="H164" s="58"/>
+      <c r="I164" s="58"/>
+      <c r="J164" s="58"/>
+      <c r="K164" s="58"/>
+      <c r="L164" s="58"/>
+      <c r="M164" s="58"/>
+      <c r="N164" s="58"/>
+      <c r="O164" s="58"/>
+      <c r="P164" s="58"/>
+      <c r="Q164" s="58"/>
+      <c r="R164" s="58"/>
+      <c r="S164" s="58"/>
+      <c r="T164" s="58"/>
+      <c r="U164" s="58"/>
+      <c r="V164" s="58"/>
+      <c r="W164" s="58"/>
+      <c r="X164" s="58"/>
+      <c r="Y164" s="58"/>
+      <c r="Z164" s="58"/>
+      <c r="AA164" s="58"/>
+      <c r="AB164" s="58"/>
+      <c r="AC164" s="58"/>
+      <c r="AD164" s="58"/>
+      <c r="AE164" s="58"/>
+      <c r="AF164" s="58"/>
+      <c r="AG164" s="58"/>
+      <c r="AH164" s="58"/>
+      <c r="AI164" s="58"/>
+      <c r="AJ164" s="58"/>
+      <c r="AK164" s="58"/>
+      <c r="AL164" s="6"/>
+    </row>
+    <row r="165" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A165" s="5"/>
+      <c r="B165" s="10">
+        <v>2</v>
+      </c>
+      <c r="C165" s="10">
+        <v>2</v>
+      </c>
+      <c r="D165" s="10">
+        <v>2</v>
+      </c>
+      <c r="E165" s="10">
+        <v>3</v>
+      </c>
+      <c r="F165" s="10">
+        <v>3</v>
+      </c>
+      <c r="G165" s="58"/>
+      <c r="H165" s="58"/>
+      <c r="I165" s="58"/>
+      <c r="J165" s="58"/>
+      <c r="K165" s="58"/>
+      <c r="L165" s="58"/>
+      <c r="M165" s="58"/>
+      <c r="N165" s="58"/>
+      <c r="O165" s="58"/>
+      <c r="P165" s="58"/>
+      <c r="Q165" s="58"/>
+      <c r="R165" s="58"/>
+      <c r="S165" s="58"/>
+      <c r="T165" s="58"/>
+      <c r="U165" s="58"/>
+      <c r="V165" s="58"/>
+      <c r="W165" s="58"/>
+      <c r="X165" s="58"/>
+      <c r="Y165" s="58"/>
+      <c r="Z165" s="58"/>
+      <c r="AA165" s="58"/>
+      <c r="AB165" s="58"/>
+      <c r="AC165" s="58"/>
+      <c r="AD165" s="58"/>
+      <c r="AE165" s="58"/>
+      <c r="AF165" s="58"/>
+      <c r="AG165" s="58"/>
+      <c r="AH165" s="58"/>
+      <c r="AI165" s="58"/>
+      <c r="AJ165" s="58"/>
+      <c r="AK165" s="58"/>
+      <c r="AL165" s="6"/>
+    </row>
+    <row r="166" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A166" s="5"/>
+      <c r="B166" s="10">
+        <v>2</v>
+      </c>
+      <c r="C166" s="10">
+        <v>2</v>
+      </c>
+      <c r="D166" s="10">
+        <v>2</v>
+      </c>
+      <c r="E166" s="10">
+        <v>2</v>
+      </c>
+      <c r="F166" s="10">
+        <v>3</v>
+      </c>
+      <c r="G166" s="58"/>
+      <c r="H166" s="58"/>
+      <c r="I166" s="58"/>
+      <c r="J166" s="58"/>
+      <c r="K166" s="58"/>
+      <c r="L166" s="58"/>
+      <c r="M166" s="58"/>
+      <c r="N166" s="58"/>
+      <c r="O166" s="58"/>
+      <c r="P166" s="58"/>
+      <c r="Q166" s="58"/>
+      <c r="R166" s="58"/>
+      <c r="S166" s="58"/>
+      <c r="T166" s="58"/>
+      <c r="U166" s="58"/>
+      <c r="V166" s="58"/>
+      <c r="W166" s="58"/>
+      <c r="X166" s="58"/>
+      <c r="Y166" s="58"/>
+      <c r="Z166" s="58"/>
+      <c r="AA166" s="58"/>
+      <c r="AB166" s="58"/>
+      <c r="AC166" s="58"/>
+      <c r="AD166" s="58"/>
+      <c r="AE166" s="58"/>
+      <c r="AF166" s="58"/>
+      <c r="AG166" s="58"/>
+      <c r="AH166" s="58"/>
+      <c r="AI166" s="58"/>
+      <c r="AJ166" s="58"/>
+      <c r="AK166" s="58"/>
+      <c r="AL166" s="6"/>
+    </row>
+    <row r="167" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A167" s="5"/>
+      <c r="B167" s="10">
+        <v>2</v>
+      </c>
+      <c r="C167" s="10">
+        <v>2</v>
+      </c>
+      <c r="D167" s="10">
+        <v>2</v>
+      </c>
+      <c r="E167" s="10">
+        <v>2</v>
+      </c>
+      <c r="F167" s="10">
+        <v>2</v>
+      </c>
+      <c r="G167" s="58"/>
+      <c r="H167" s="58"/>
+      <c r="I167" s="58"/>
+      <c r="J167" s="58"/>
+      <c r="K167" s="58"/>
+      <c r="L167" s="58"/>
+      <c r="M167" s="58"/>
+      <c r="N167" s="58"/>
+      <c r="O167" s="58"/>
+      <c r="P167" s="58"/>
+      <c r="Q167" s="58"/>
+      <c r="R167" s="58"/>
+      <c r="S167" s="58"/>
+      <c r="T167" s="58"/>
+      <c r="U167" s="58"/>
+      <c r="V167" s="58"/>
+      <c r="W167" s="58"/>
+      <c r="X167" s="58"/>
+      <c r="Y167" s="58"/>
+      <c r="Z167" s="58"/>
+      <c r="AA167" s="58"/>
+      <c r="AB167" s="58"/>
+      <c r="AC167" s="58"/>
+      <c r="AD167" s="58"/>
+      <c r="AE167" s="58"/>
+      <c r="AF167" s="58"/>
+      <c r="AG167" s="58"/>
+      <c r="AH167" s="58"/>
+      <c r="AI167" s="58"/>
+      <c r="AJ167" s="58"/>
+      <c r="AK167" s="58"/>
+      <c r="AL167" s="6"/>
+    </row>
+    <row r="168" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A168" s="5"/>
+      <c r="B168" s="10">
+        <v>2</v>
+      </c>
+      <c r="C168" s="10">
+        <v>2</v>
+      </c>
+      <c r="D168" s="10">
+        <v>2</v>
+      </c>
+      <c r="E168" s="10">
+        <v>2</v>
+      </c>
+      <c r="F168" s="10">
+        <v>2</v>
+      </c>
+      <c r="G168" s="58"/>
+      <c r="H168" s="58"/>
+      <c r="I168" s="58"/>
+      <c r="J168" s="58"/>
+      <c r="K168" s="58"/>
+      <c r="L168" s="58"/>
+      <c r="M168" s="58"/>
+      <c r="N168" s="58"/>
+      <c r="O168" s="58"/>
+      <c r="P168" s="58"/>
+      <c r="Q168" s="58"/>
+      <c r="R168" s="58"/>
+      <c r="S168" s="58"/>
+      <c r="T168" s="58"/>
+      <c r="U168" s="58"/>
+      <c r="V168" s="58"/>
+      <c r="W168" s="58"/>
+      <c r="X168" s="58"/>
+      <c r="Y168" s="58"/>
+      <c r="Z168" s="58"/>
+      <c r="AA168" s="58"/>
+      <c r="AB168" s="58"/>
+      <c r="AC168" s="58"/>
+      <c r="AD168" s="58"/>
+      <c r="AE168" s="58"/>
+      <c r="AF168" s="58"/>
+      <c r="AG168" s="58"/>
+      <c r="AH168" s="58"/>
+      <c r="AI168" s="58"/>
+      <c r="AJ168" s="58"/>
+      <c r="AK168" s="58"/>
+      <c r="AL168" s="6"/>
+    </row>
+    <row r="169" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A169" s="5"/>
+      <c r="B169" s="10">
+        <v>2</v>
+      </c>
+      <c r="C169" s="10">
+        <v>2</v>
+      </c>
+      <c r="D169" s="10">
+        <v>2</v>
+      </c>
+      <c r="E169" s="10">
+        <v>2</v>
+      </c>
+      <c r="F169" s="10">
+        <v>2</v>
+      </c>
+      <c r="G169" s="58"/>
+      <c r="H169" s="58"/>
+      <c r="I169" s="58"/>
+      <c r="J169" s="58"/>
+      <c r="K169" s="58"/>
+      <c r="L169" s="58"/>
+      <c r="M169" s="58"/>
+      <c r="N169" s="58"/>
+      <c r="O169" s="58"/>
+      <c r="P169" s="58"/>
+      <c r="Q169" s="58"/>
+      <c r="R169" s="58"/>
+      <c r="S169" s="58"/>
+      <c r="T169" s="58"/>
+      <c r="U169" s="58"/>
+      <c r="V169" s="58"/>
+      <c r="W169" s="58"/>
+      <c r="X169" s="58"/>
+      <c r="Y169" s="58"/>
+      <c r="Z169" s="58"/>
+      <c r="AA169" s="58"/>
+      <c r="AB169" s="58"/>
+      <c r="AC169" s="58"/>
+      <c r="AD169" s="58"/>
+      <c r="AE169" s="58"/>
+      <c r="AF169" s="58"/>
+      <c r="AG169" s="58"/>
+      <c r="AH169" s="58"/>
+      <c r="AI169" s="58"/>
+      <c r="AJ169" s="58"/>
+      <c r="AK169" s="58"/>
+      <c r="AL169" s="6"/>
+    </row>
+    <row r="170" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A170" s="5"/>
+      <c r="B170" s="10">
+        <v>2</v>
+      </c>
+      <c r="C170" s="10">
+        <v>1</v>
+      </c>
+      <c r="D170" s="10">
+        <v>2</v>
+      </c>
+      <c r="E170" s="10">
+        <v>2</v>
+      </c>
+      <c r="F170" s="10">
+        <v>2</v>
+      </c>
+      <c r="G170" s="58"/>
+      <c r="H170" s="58"/>
+      <c r="I170" s="58"/>
+      <c r="J170" s="58"/>
+      <c r="K170" s="58"/>
+      <c r="L170" s="58"/>
+      <c r="M170" s="58"/>
+      <c r="N170" s="58"/>
+      <c r="O170" s="58"/>
+      <c r="P170" s="58"/>
+      <c r="Q170" s="58"/>
+      <c r="R170" s="58"/>
+      <c r="S170" s="58"/>
+      <c r="T170" s="58"/>
+      <c r="U170" s="58"/>
+      <c r="V170" s="58"/>
+      <c r="W170" s="58"/>
+      <c r="X170" s="58"/>
+      <c r="Y170" s="58"/>
+      <c r="Z170" s="58"/>
+      <c r="AA170" s="58"/>
+      <c r="AB170" s="58"/>
+      <c r="AC170" s="58"/>
+      <c r="AD170" s="58"/>
+      <c r="AE170" s="58"/>
+      <c r="AF170" s="58"/>
+      <c r="AG170" s="58"/>
+      <c r="AH170" s="58"/>
+      <c r="AI170" s="58"/>
+      <c r="AJ170" s="58"/>
+      <c r="AK170" s="58"/>
+      <c r="AL170" s="6"/>
+    </row>
+    <row r="171" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A171" s="5"/>
+      <c r="B171" s="10">
+        <v>2</v>
+      </c>
+      <c r="C171" s="10">
+        <v>1</v>
+      </c>
+      <c r="D171" s="10">
+        <v>1</v>
+      </c>
+      <c r="E171" s="10">
+        <v>2</v>
+      </c>
+      <c r="F171" s="10">
+        <v>1</v>
+      </c>
+      <c r="G171" s="58"/>
+      <c r="H171" s="58"/>
+      <c r="I171" s="58"/>
+      <c r="J171" s="58"/>
+      <c r="K171" s="58"/>
+      <c r="L171" s="58"/>
+      <c r="M171" s="58"/>
+      <c r="N171" s="58"/>
+      <c r="O171" s="58"/>
+      <c r="P171" s="58"/>
+      <c r="Q171" s="58"/>
+      <c r="R171" s="58"/>
+      <c r="S171" s="58"/>
+      <c r="T171" s="58"/>
+      <c r="U171" s="58"/>
+      <c r="V171" s="58"/>
+      <c r="W171" s="58"/>
+      <c r="X171" s="58"/>
+      <c r="Y171" s="58"/>
+      <c r="Z171" s="58"/>
+      <c r="AA171" s="58"/>
+      <c r="AB171" s="58"/>
+      <c r="AC171" s="58"/>
+      <c r="AD171" s="58"/>
+      <c r="AE171" s="58"/>
+      <c r="AF171" s="58"/>
+      <c r="AG171" s="58"/>
+      <c r="AH171" s="58"/>
+      <c r="AI171" s="58"/>
+      <c r="AJ171" s="58"/>
+      <c r="AK171" s="58"/>
+      <c r="AL171" s="6"/>
+    </row>
+    <row r="172" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A172" s="5"/>
+      <c r="B172" s="10">
+        <v>1</v>
+      </c>
+      <c r="C172" s="10">
+        <v>1</v>
+      </c>
+      <c r="D172" s="10">
+        <v>1</v>
+      </c>
+      <c r="E172" s="10">
+        <v>1</v>
+      </c>
+      <c r="F172" s="10">
+        <v>1</v>
+      </c>
+      <c r="G172" s="58"/>
+      <c r="H172" s="58"/>
+      <c r="I172" s="58"/>
+      <c r="J172" s="58"/>
+      <c r="K172" s="58"/>
+      <c r="L172" s="58"/>
+      <c r="M172" s="58"/>
+      <c r="N172" s="58"/>
+      <c r="O172" s="58"/>
+      <c r="P172" s="58"/>
+      <c r="Q172" s="58"/>
+      <c r="R172" s="58"/>
+      <c r="S172" s="58"/>
+      <c r="T172" s="58"/>
+      <c r="U172" s="58"/>
+      <c r="V172" s="58"/>
+      <c r="W172" s="58"/>
+      <c r="X172" s="58"/>
+      <c r="Y172" s="58"/>
+      <c r="Z172" s="58"/>
+      <c r="AA172" s="58"/>
+      <c r="AB172" s="58"/>
+      <c r="AC172" s="58"/>
+      <c r="AD172" s="58"/>
+      <c r="AE172" s="58"/>
+      <c r="AF172" s="58"/>
+      <c r="AG172" s="58"/>
+      <c r="AH172" s="58"/>
+      <c r="AI172" s="58"/>
+      <c r="AJ172" s="58"/>
+      <c r="AK172" s="58"/>
+      <c r="AL172" s="6"/>
+    </row>
+    <row r="173" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A173" s="5"/>
+      <c r="B173" s="10">
+        <v>1</v>
+      </c>
+      <c r="C173" s="10">
+        <v>1</v>
+      </c>
+      <c r="D173" s="10">
+        <v>1</v>
+      </c>
+      <c r="E173" s="10">
+        <v>1</v>
+      </c>
+      <c r="F173" s="10">
+        <v>1</v>
+      </c>
+      <c r="G173" s="58"/>
+      <c r="H173" s="58"/>
+      <c r="I173" s="58"/>
+      <c r="J173" s="58"/>
+      <c r="K173" s="58"/>
+      <c r="L173" s="58"/>
+      <c r="M173" s="58"/>
+      <c r="N173" s="58"/>
+      <c r="O173" s="58"/>
+      <c r="P173" s="58"/>
+      <c r="Q173" s="58"/>
+      <c r="R173" s="58"/>
+      <c r="S173" s="58"/>
+      <c r="T173" s="58"/>
+      <c r="U173" s="58"/>
+      <c r="V173" s="58"/>
+      <c r="W173" s="58"/>
+      <c r="X173" s="58"/>
+      <c r="Y173" s="58"/>
+      <c r="Z173" s="58"/>
+      <c r="AA173" s="58"/>
+      <c r="AB173" s="58"/>
+      <c r="AC173" s="58"/>
+      <c r="AD173" s="58"/>
+      <c r="AE173" s="58"/>
+      <c r="AF173" s="58"/>
+      <c r="AG173" s="58"/>
+      <c r="AH173" s="58"/>
+      <c r="AI173" s="58"/>
+      <c r="AJ173" s="58"/>
+      <c r="AK173" s="58"/>
+      <c r="AL173" s="6"/>
+    </row>
+    <row r="174" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A174" s="5"/>
+      <c r="B174" s="10">
+        <v>1</v>
+      </c>
+      <c r="C174" s="10">
+        <v>0</v>
+      </c>
+      <c r="D174" s="10">
+        <v>0</v>
+      </c>
+      <c r="E174" s="10">
+        <v>0</v>
+      </c>
+      <c r="F174" s="10">
+        <v>1</v>
+      </c>
+      <c r="G174" s="58"/>
+      <c r="H174" s="58"/>
+      <c r="I174" s="58"/>
+      <c r="J174" s="58"/>
+      <c r="K174" s="58"/>
+      <c r="L174" s="58"/>
+      <c r="M174" s="58"/>
+      <c r="N174" s="58"/>
+      <c r="O174" s="58"/>
+      <c r="P174" s="58"/>
+      <c r="Q174" s="58"/>
+      <c r="R174" s="58"/>
+      <c r="S174" s="58"/>
+      <c r="T174" s="58"/>
+      <c r="U174" s="58"/>
+      <c r="V174" s="58"/>
+      <c r="W174" s="58"/>
+      <c r="X174" s="58"/>
+      <c r="Y174" s="58"/>
+      <c r="Z174" s="58"/>
+      <c r="AA174" s="58"/>
+      <c r="AB174" s="58"/>
+      <c r="AC174" s="58"/>
+      <c r="AD174" s="58"/>
+      <c r="AE174" s="58"/>
+      <c r="AF174" s="58"/>
+      <c r="AG174" s="58"/>
+      <c r="AH174" s="58"/>
+      <c r="AI174" s="58"/>
+      <c r="AJ174" s="58"/>
+      <c r="AK174" s="58"/>
+      <c r="AL174" s="6"/>
+    </row>
+    <row r="175" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A175" s="5"/>
+      <c r="B175" s="10">
+        <v>1</v>
+      </c>
+      <c r="C175" s="10">
+        <v>0</v>
+      </c>
+      <c r="D175" s="10">
+        <v>0</v>
+      </c>
+      <c r="E175" s="10">
+        <v>0</v>
+      </c>
+      <c r="F175" s="10">
+        <v>0</v>
+      </c>
+      <c r="G175" s="58"/>
+      <c r="H175" s="58"/>
+      <c r="I175" s="58"/>
+      <c r="J175" s="58"/>
+      <c r="K175" s="58"/>
+      <c r="L175" s="58"/>
+      <c r="M175" s="58"/>
+      <c r="N175" s="58"/>
+      <c r="O175" s="58"/>
+      <c r="P175" s="58"/>
+      <c r="Q175" s="58"/>
+      <c r="R175" s="58"/>
+      <c r="S175" s="58"/>
+      <c r="T175" s="58"/>
+      <c r="U175" s="58"/>
+      <c r="V175" s="58"/>
+      <c r="W175" s="58"/>
+      <c r="X175" s="58"/>
+      <c r="Y175" s="58"/>
+      <c r="Z175" s="58"/>
+      <c r="AA175" s="58"/>
+      <c r="AB175" s="58"/>
+      <c r="AC175" s="58"/>
+      <c r="AD175" s="58"/>
+      <c r="AE175" s="58"/>
+      <c r="AF175" s="58"/>
+      <c r="AG175" s="58"/>
+      <c r="AH175" s="58"/>
+      <c r="AI175" s="58"/>
+      <c r="AJ175" s="58"/>
+      <c r="AK175" s="58"/>
+      <c r="AL175" s="6"/>
+    </row>
+    <row r="176" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A176" s="5"/>
+      <c r="B176" s="10">
+        <v>1</v>
+      </c>
+      <c r="C176" s="10">
+        <v>0</v>
+      </c>
+      <c r="D176" s="10">
+        <v>0</v>
+      </c>
+      <c r="E176" s="10">
+        <v>0</v>
+      </c>
+      <c r="F176" s="10">
+        <v>0</v>
+      </c>
+      <c r="G176" s="58"/>
+      <c r="H176" s="58"/>
+      <c r="I176" s="58"/>
+      <c r="J176" s="58"/>
+      <c r="K176" s="58"/>
+      <c r="L176" s="58"/>
+      <c r="M176" s="58"/>
+      <c r="N176" s="58"/>
+      <c r="O176" s="58"/>
+      <c r="P176" s="58"/>
+      <c r="Q176" s="58"/>
+      <c r="R176" s="58"/>
+      <c r="S176" s="58"/>
+      <c r="T176" s="58"/>
+      <c r="U176" s="58"/>
+      <c r="V176" s="58"/>
+      <c r="W176" s="58"/>
+      <c r="X176" s="58"/>
+      <c r="Y176" s="58"/>
+      <c r="Z176" s="58"/>
+      <c r="AA176" s="58"/>
+      <c r="AB176" s="58"/>
+      <c r="AC176" s="58"/>
+      <c r="AD176" s="58"/>
+      <c r="AE176" s="58"/>
+      <c r="AF176" s="58"/>
+      <c r="AG176" s="58"/>
+      <c r="AH176" s="58"/>
+      <c r="AI176" s="58"/>
+      <c r="AJ176" s="58"/>
+      <c r="AK176" s="58"/>
+      <c r="AL176" s="6"/>
+    </row>
+    <row r="177" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A177" s="5"/>
+      <c r="B177" s="10">
+        <v>1</v>
+      </c>
+      <c r="C177" s="10">
+        <v>0</v>
+      </c>
+      <c r="D177" s="10">
+        <v>0</v>
+      </c>
+      <c r="E177" s="10">
+        <v>0</v>
+      </c>
+      <c r="F177" s="10">
+        <v>0</v>
+      </c>
+      <c r="G177" s="58"/>
+      <c r="H177" s="58"/>
+      <c r="I177" s="58"/>
+      <c r="J177" s="58"/>
+      <c r="K177" s="58"/>
+      <c r="L177" s="58"/>
+      <c r="M177" s="58"/>
+      <c r="N177" s="58"/>
+      <c r="O177" s="58"/>
+      <c r="P177" s="58"/>
+      <c r="Q177" s="58"/>
+      <c r="R177" s="58"/>
+      <c r="S177" s="58"/>
+      <c r="T177" s="58"/>
+      <c r="U177" s="58"/>
+      <c r="V177" s="58"/>
+      <c r="W177" s="58"/>
+      <c r="X177" s="58"/>
+      <c r="Y177" s="58"/>
+      <c r="Z177" s="58"/>
+      <c r="AA177" s="58"/>
+      <c r="AB177" s="58"/>
+      <c r="AC177" s="58"/>
+      <c r="AD177" s="58"/>
+      <c r="AE177" s="58"/>
+      <c r="AF177" s="58"/>
+      <c r="AG177" s="58"/>
+      <c r="AH177" s="58"/>
+      <c r="AI177" s="58"/>
+      <c r="AJ177" s="58"/>
+      <c r="AK177" s="58"/>
+      <c r="AL177" s="6"/>
+    </row>
+    <row r="178" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A178" s="5"/>
+      <c r="B178" s="10">
+        <v>1</v>
+      </c>
+      <c r="C178" s="10">
+        <v>0</v>
+      </c>
+      <c r="D178" s="10">
+        <v>0</v>
+      </c>
+      <c r="E178" s="10">
+        <v>0</v>
+      </c>
+      <c r="F178" s="10">
+        <v>0</v>
+      </c>
+      <c r="G178" s="58"/>
+      <c r="H178" s="58"/>
+      <c r="I178" s="58"/>
+      <c r="J178" s="58"/>
+      <c r="K178" s="58"/>
+      <c r="L178" s="58"/>
+      <c r="M178" s="58"/>
+      <c r="N178" s="58"/>
+      <c r="O178" s="58"/>
+      <c r="P178" s="58"/>
+      <c r="Q178" s="58"/>
+      <c r="R178" s="58"/>
+      <c r="S178" s="58"/>
+      <c r="T178" s="58"/>
+      <c r="U178" s="58"/>
+      <c r="V178" s="58"/>
+      <c r="W178" s="58"/>
+      <c r="X178" s="58"/>
+      <c r="Y178" s="58"/>
+      <c r="Z178" s="58"/>
+      <c r="AA178" s="58"/>
+      <c r="AB178" s="58"/>
+      <c r="AC178" s="58"/>
+      <c r="AD178" s="58"/>
+      <c r="AE178" s="58"/>
+      <c r="AF178" s="58"/>
+      <c r="AG178" s="58"/>
+      <c r="AH178" s="58"/>
+      <c r="AI178" s="58"/>
+      <c r="AJ178" s="58"/>
+      <c r="AK178" s="58"/>
+      <c r="AL178" s="6"/>
+    </row>
+    <row r="179" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A179" s="5"/>
+      <c r="B179" s="10">
+        <v>1</v>
+      </c>
+      <c r="C179" s="10">
+        <v>0</v>
+      </c>
+      <c r="D179" s="10">
+        <v>0</v>
+      </c>
+      <c r="E179" s="10">
+        <v>0</v>
+      </c>
+      <c r="F179" s="10">
+        <v>0</v>
+      </c>
+      <c r="G179" s="58"/>
+      <c r="H179" s="58"/>
+      <c r="I179" s="58"/>
+      <c r="J179" s="58"/>
+      <c r="K179" s="58"/>
+      <c r="L179" s="58"/>
+      <c r="M179" s="58"/>
+      <c r="N179" s="58"/>
+      <c r="O179" s="58"/>
+      <c r="P179" s="58"/>
+      <c r="Q179" s="58"/>
+      <c r="R179" s="58"/>
+      <c r="S179" s="58"/>
+      <c r="T179" s="58"/>
+      <c r="U179" s="58"/>
+      <c r="V179" s="58"/>
+      <c r="W179" s="58"/>
+      <c r="X179" s="58"/>
+      <c r="Y179" s="58"/>
+      <c r="Z179" s="58"/>
+      <c r="AA179" s="58"/>
+      <c r="AB179" s="58"/>
+      <c r="AC179" s="58"/>
+      <c r="AD179" s="58"/>
+      <c r="AE179" s="58"/>
+      <c r="AF179" s="58"/>
+      <c r="AG179" s="58"/>
+      <c r="AH179" s="58"/>
+      <c r="AI179" s="58"/>
+      <c r="AJ179" s="58"/>
+      <c r="AK179" s="58"/>
+      <c r="AL179" s="6"/>
+    </row>
+    <row r="180" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A180" s="5"/>
+      <c r="B180" s="10">
+        <v>0</v>
+      </c>
+      <c r="C180" s="10">
+        <v>0</v>
+      </c>
+      <c r="D180" s="10">
+        <v>0</v>
+      </c>
+      <c r="E180" s="10">
+        <v>0</v>
+      </c>
+      <c r="F180" s="10">
+        <v>0</v>
+      </c>
+      <c r="G180" s="58"/>
+      <c r="H180" s="58"/>
+      <c r="I180" s="58"/>
+      <c r="J180" s="58"/>
+      <c r="K180" s="58"/>
+      <c r="L180" s="58"/>
+      <c r="M180" s="58"/>
+      <c r="N180" s="58"/>
+      <c r="O180" s="58"/>
+      <c r="P180" s="58"/>
+      <c r="Q180" s="58"/>
+      <c r="R180" s="58"/>
+      <c r="S180" s="58"/>
+      <c r="T180" s="58"/>
+      <c r="U180" s="58"/>
+      <c r="V180" s="58"/>
+      <c r="W180" s="58"/>
+      <c r="X180" s="58"/>
+      <c r="Y180" s="58"/>
+      <c r="Z180" s="58"/>
+      <c r="AA180" s="58"/>
+      <c r="AB180" s="58"/>
+      <c r="AC180" s="58"/>
+      <c r="AD180" s="58"/>
+      <c r="AE180" s="58"/>
+      <c r="AF180" s="58"/>
+      <c r="AG180" s="58"/>
+      <c r="AH180" s="58"/>
+      <c r="AI180" s="58"/>
+      <c r="AJ180" s="58"/>
+      <c r="AK180" s="58"/>
+      <c r="AL180" s="6"/>
+    </row>
+    <row r="181" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A181" s="5"/>
+      <c r="B181" s="10">
+        <v>0</v>
+      </c>
+      <c r="C181" s="10">
+        <v>0</v>
+      </c>
+      <c r="D181" s="10">
+        <v>0</v>
+      </c>
+      <c r="E181" s="10">
+        <v>0</v>
+      </c>
+      <c r="F181" s="10">
+        <v>0</v>
+      </c>
+      <c r="G181" s="58"/>
+      <c r="H181" s="58"/>
+      <c r="I181" s="58"/>
+      <c r="J181" s="58"/>
+      <c r="K181" s="58"/>
+      <c r="L181" s="58"/>
+      <c r="M181" s="58"/>
+      <c r="N181" s="58"/>
+      <c r="O181" s="58"/>
+      <c r="P181" s="58"/>
+      <c r="Q181" s="58"/>
+      <c r="R181" s="58"/>
+      <c r="S181" s="58"/>
+      <c r="T181" s="58"/>
+      <c r="U181" s="58"/>
+      <c r="V181" s="58"/>
+      <c r="W181" s="58"/>
+      <c r="X181" s="58"/>
+      <c r="Y181" s="58"/>
+      <c r="Z181" s="58"/>
+      <c r="AA181" s="58"/>
+      <c r="AB181" s="58"/>
+      <c r="AC181" s="58"/>
+      <c r="AD181" s="58"/>
+      <c r="AE181" s="58"/>
+      <c r="AF181" s="58"/>
+      <c r="AG181" s="58"/>
+      <c r="AH181" s="58"/>
+      <c r="AI181" s="58"/>
+      <c r="AJ181" s="58"/>
+      <c r="AK181" s="58"/>
+      <c r="AL181" s="6"/>
+    </row>
+    <row r="182" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="7"/>
+      <c r="B182" s="8"/>
+      <c r="C182" s="8"/>
+      <c r="D182" s="8"/>
+      <c r="E182" s="8"/>
+      <c r="F182" s="8"/>
+      <c r="G182" s="8"/>
+      <c r="H182" s="8"/>
+      <c r="I182" s="8"/>
+      <c r="J182" s="8"/>
+      <c r="K182" s="8"/>
+      <c r="L182" s="8"/>
+      <c r="M182" s="8"/>
+      <c r="N182" s="8"/>
+      <c r="O182" s="8"/>
+      <c r="P182" s="8"/>
+      <c r="Q182" s="8"/>
+      <c r="R182" s="8"/>
+      <c r="S182" s="8"/>
+      <c r="T182" s="8"/>
+      <c r="U182" s="8"/>
+      <c r="V182" s="8"/>
+      <c r="W182" s="8"/>
+      <c r="X182" s="8"/>
+      <c r="Y182" s="8"/>
+      <c r="Z182" s="8"/>
+      <c r="AA182" s="8"/>
+      <c r="AB182" s="8"/>
+      <c r="AC182" s="8"/>
+      <c r="AD182" s="8"/>
+      <c r="AE182" s="8"/>
+      <c r="AF182" s="8"/>
+      <c r="AG182" s="8"/>
+      <c r="AH182" s="8"/>
+      <c r="AI182" s="8"/>
+      <c r="AJ182" s="8"/>
+      <c r="AK182" s="8"/>
+      <c r="AL182" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B136:M156">
-    <sortCondition descending="1" ref="M156"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K187:K207">
+    <sortCondition descending="1" ref="K187:K207"/>
   </sortState>
-  <mergeCells count="34">
-    <mergeCell ref="S86:S87"/>
-    <mergeCell ref="T86:U87"/>
-    <mergeCell ref="S74:S75"/>
-    <mergeCell ref="T74:T75"/>
-    <mergeCell ref="U74:U75"/>
-    <mergeCell ref="S78:S79"/>
-    <mergeCell ref="T78:U79"/>
-    <mergeCell ref="AH67:AH68"/>
-    <mergeCell ref="T82:W83"/>
-    <mergeCell ref="T84:W84"/>
-    <mergeCell ref="T80:U80"/>
-    <mergeCell ref="S82:S83"/>
-    <mergeCell ref="AG67:AG68"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="R4:T4"/>
+  <mergeCells count="39">
+    <mergeCell ref="AD134:AF134"/>
+    <mergeCell ref="A133:G133"/>
+    <mergeCell ref="N134:P134"/>
+    <mergeCell ref="F134:H134"/>
+    <mergeCell ref="V134:X134"/>
     <mergeCell ref="F101:L101"/>
     <mergeCell ref="V4:X4"/>
     <mergeCell ref="F2:G2"/>
@@ -8797,6 +11460,24 @@
     <mergeCell ref="AB30:AC30"/>
     <mergeCell ref="AA38:AD38"/>
     <mergeCell ref="F72:L72"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="AH67:AH68"/>
+    <mergeCell ref="T82:W83"/>
+    <mergeCell ref="T84:W84"/>
+    <mergeCell ref="T80:U80"/>
+    <mergeCell ref="S82:S83"/>
+    <mergeCell ref="AG67:AG68"/>
+    <mergeCell ref="S86:S87"/>
+    <mergeCell ref="T86:U87"/>
+    <mergeCell ref="S74:S75"/>
+    <mergeCell ref="T74:T75"/>
+    <mergeCell ref="U74:U75"/>
+    <mergeCell ref="S78:S79"/>
+    <mergeCell ref="T78:U79"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tarea1/doc/ExcelEmpleadoPunto1/Tarea1Estadistica320232.xlsx
+++ b/Tarea1/doc/ExcelEmpleadoPunto1/Tarea1Estadistica320232.xlsx
@@ -5,20 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Miguel Rios\Desktop\Tarea1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Estadistica3_2023-2\Tarea1\doc\ExcelEmpleadoPunto1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A9643D-C70D-4801-92FF-78761E7DFA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B34BF8-2DE5-4875-AD1F-EE51725C729B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6630" yWindow="3300" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respuestas" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Respuestas!$G$41:$G$61</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Respuestas!$H$41:$H$61</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Respuestas!$I$41:$I$61</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Respuestas!$I$41:$I$61</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Respuestas!$G$41:$G$61</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Respuestas!$H$41:$H$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -706,7 +706,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -796,31 +796,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -835,12 +815,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -865,7 +864,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -930,7 +929,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -995,7 +994,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3023,7 +3022,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12220576" y="7215187"/>
+              <a:off x="12353926" y="7215187"/>
               <a:ext cx="3590925" cy="2738438"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3101,7 +3100,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11939587" y="10387012"/>
+              <a:off x="12072937" y="10387012"/>
               <a:ext cx="4271963" cy="2595563"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3179,8 +3178,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="21826537" y="8386762"/>
-              <a:ext cx="3548063" cy="2671763"/>
+              <a:off x="21959887" y="8386762"/>
+              <a:ext cx="4300538" cy="2671763"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3478,12 +3477,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132"/>
+    <sheetView tabSelected="1" topLeftCell="A158" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D164" sqref="D164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
@@ -3515,16 +3515,16 @@
   <sheetData>
     <row r="1" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="F2" s="52" t="s">
+      <c r="A2" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="F2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="54"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -3557,41 +3557,41 @@
       <c r="AG3" s="6"/>
     </row>
     <row r="4" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
+      <c r="B4" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
       <c r="F4" s="5"/>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="53"/>
-      <c r="J4" s="54"/>
-      <c r="M4" s="52" t="s">
+      <c r="I4" s="47"/>
+      <c r="J4" s="48"/>
+      <c r="M4" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="53"/>
-      <c r="O4" s="54"/>
-      <c r="R4" s="52" t="s">
+      <c r="N4" s="47"/>
+      <c r="O4" s="48"/>
+      <c r="R4" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="S4" s="53"/>
-      <c r="T4" s="54"/>
-      <c r="V4" s="52" t="s">
+      <c r="S4" s="47"/>
+      <c r="T4" s="48"/>
+      <c r="V4" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="W4" s="53"/>
-      <c r="X4" s="54"/>
-      <c r="Z4" s="52" t="s">
+      <c r="W4" s="47"/>
+      <c r="X4" s="48"/>
+      <c r="Z4" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="AA4" s="53"/>
-      <c r="AB4" s="53"/>
-      <c r="AC4" s="53"/>
-      <c r="AD4" s="53"/>
-      <c r="AE4" s="53"/>
-      <c r="AF4" s="54"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="47"/>
+      <c r="AF4" s="48"/>
       <c r="AG4" s="6"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
@@ -5046,10 +5046,10 @@
     </row>
     <row r="30" spans="2:33" x14ac:dyDescent="0.25">
       <c r="F30" s="5"/>
-      <c r="AB30" s="49" t="s">
+      <c r="AB30" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AC30" s="49"/>
+      <c r="AC30" s="50"/>
       <c r="AD30" s="10">
         <f>SUM(AD8:AD28)</f>
         <v>46.666666666666671</v>
@@ -5066,19 +5066,19 @@
     </row>
     <row r="31" spans="2:33" x14ac:dyDescent="0.25">
       <c r="F31" s="5"/>
-      <c r="AB31" s="55" t="s">
+      <c r="AB31" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="AC31" s="55"/>
-      <c r="AD31" s="49">
+      <c r="AC31" s="49"/>
+      <c r="AD31" s="50">
         <f>AD30/AA6</f>
         <v>2.2222222222222223</v>
       </c>
-      <c r="AE31" s="49">
+      <c r="AE31" s="50">
         <f>AE30/AA6</f>
         <v>6.5306122448979576</v>
       </c>
-      <c r="AF31" s="49">
+      <c r="AF31" s="50">
         <f>AF30/AA6</f>
         <v>314.80725623582765</v>
       </c>
@@ -5086,28 +5086,28 @@
     </row>
     <row r="32" spans="2:33" x14ac:dyDescent="0.25">
       <c r="F32" s="5"/>
-      <c r="AB32" s="55"/>
-      <c r="AC32" s="55"/>
-      <c r="AD32" s="49"/>
-      <c r="AE32" s="49"/>
-      <c r="AF32" s="49"/>
+      <c r="AB32" s="49"/>
+      <c r="AC32" s="49"/>
+      <c r="AD32" s="50"/>
+      <c r="AE32" s="50"/>
+      <c r="AF32" s="50"/>
       <c r="AG32" s="6"/>
     </row>
     <row r="33" spans="6:43" x14ac:dyDescent="0.25">
       <c r="F33" s="5"/>
-      <c r="AB33" s="55" t="s">
+      <c r="AB33" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="AC33" s="55"/>
-      <c r="AD33" s="49">
+      <c r="AC33" s="49"/>
+      <c r="AD33" s="50">
         <f>SQRT(AD31)</f>
         <v>1.4907119849998598</v>
       </c>
-      <c r="AE33" s="49">
+      <c r="AE33" s="50">
         <f>SQRT(AE31)</f>
         <v>2.5555062599997593</v>
       </c>
-      <c r="AF33" s="49">
+      <c r="AF33" s="50">
         <f>SQRT(AF31)</f>
         <v>17.742808578007814</v>
       </c>
@@ -5115,11 +5115,11 @@
     </row>
     <row r="34" spans="6:43" x14ac:dyDescent="0.25">
       <c r="F34" s="5"/>
-      <c r="AB34" s="55"/>
-      <c r="AC34" s="55"/>
-      <c r="AD34" s="49"/>
-      <c r="AE34" s="49"/>
-      <c r="AF34" s="49"/>
+      <c r="AB34" s="49"/>
+      <c r="AC34" s="49"/>
+      <c r="AD34" s="50"/>
+      <c r="AE34" s="50"/>
+      <c r="AF34" s="50"/>
       <c r="AG34" s="6"/>
     </row>
     <row r="35" spans="6:43" x14ac:dyDescent="0.25">
@@ -5158,10 +5158,10 @@
     </row>
     <row r="37" spans="6:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="6:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F38" s="52" t="s">
+      <c r="F38" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="G38" s="54"/>
+      <c r="G38" s="48"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -5180,12 +5180,12 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="4"/>
-      <c r="AA38" s="52" t="s">
+      <c r="AA38" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="AB38" s="53"/>
-      <c r="AC38" s="53"/>
-      <c r="AD38" s="54"/>
+      <c r="AB38" s="47"/>
+      <c r="AC38" s="47"/>
+      <c r="AD38" s="48"/>
       <c r="AE38" s="3"/>
       <c r="AF38" s="3"/>
       <c r="AG38" s="3"/>
@@ -6064,10 +6064,10 @@
       </c>
       <c r="Y67" s="6"/>
       <c r="AA67" s="5"/>
-      <c r="AG67" s="43" t="s">
+      <c r="AG67" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="AH67" s="46">
+      <c r="AH67" s="53">
         <f>_xlfn.COVARIANCE.P(AB41:AB61,AC41:AC61)</f>
         <v>3.5714285714285716</v>
       </c>
@@ -6091,8 +6091,8 @@
       </c>
       <c r="Y68" s="6"/>
       <c r="AA68" s="5"/>
-      <c r="AG68" s="43"/>
-      <c r="AH68" s="47"/>
+      <c r="AG68" s="57"/>
+      <c r="AH68" s="54"/>
       <c r="AQ68" s="6"/>
     </row>
     <row r="69" spans="6:43" x14ac:dyDescent="0.25">
@@ -6167,15 +6167,15 @@
     </row>
     <row r="71" spans="6:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="72" spans="6:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F72" s="52" t="s">
+      <c r="F72" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="G72" s="53"/>
-      <c r="H72" s="53"/>
-      <c r="I72" s="53"/>
-      <c r="J72" s="53"/>
-      <c r="K72" s="53"/>
-      <c r="L72" s="54"/>
+      <c r="G72" s="47"/>
+      <c r="H72" s="47"/>
+      <c r="I72" s="47"/>
+      <c r="J72" s="47"/>
+      <c r="K72" s="47"/>
+      <c r="L72" s="48"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
@@ -6223,13 +6223,13 @@
       <c r="Q74" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="S74" s="43" t="s">
+      <c r="S74" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="T74" s="45" t="s">
+      <c r="T74" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="U74" s="45" t="s">
+      <c r="U74" s="58" t="s">
         <v>44</v>
       </c>
       <c r="Y74" s="6"/>
@@ -6262,9 +6262,9 @@
         <f>L75^2</f>
         <v>0.18367346938775531</v>
       </c>
-      <c r="S75" s="43"/>
-      <c r="T75" s="45"/>
-      <c r="U75" s="45"/>
+      <c r="S75" s="57"/>
+      <c r="T75" s="58"/>
+      <c r="U75" s="58"/>
       <c r="Y75" s="6"/>
     </row>
     <row r="76" spans="6:43" x14ac:dyDescent="0.25">
@@ -6363,13 +6363,13 @@
         <f t="shared" si="20"/>
         <v>0.32653061224489766</v>
       </c>
-      <c r="S78" s="43" t="s">
+      <c r="S78" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="T78" s="45" t="s">
+      <c r="T78" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="U78" s="45"/>
+      <c r="U78" s="58"/>
       <c r="Y78" s="6"/>
     </row>
     <row r="79" spans="6:43" x14ac:dyDescent="0.25">
@@ -6400,9 +6400,9 @@
         <f t="shared" si="20"/>
         <v>2.0408163265306132</v>
       </c>
-      <c r="S79" s="43"/>
-      <c r="T79" s="45"/>
-      <c r="U79" s="45"/>
+      <c r="S79" s="57"/>
+      <c r="T79" s="58"/>
+      <c r="U79" s="58"/>
       <c r="Y79" s="6"/>
     </row>
     <row r="80" spans="6:43" x14ac:dyDescent="0.25">
@@ -6433,11 +6433,11 @@
         <f t="shared" si="20"/>
         <v>2.4693877551020402</v>
       </c>
-      <c r="T80" s="49">
+      <c r="T80" s="50">
         <f>T76*U76</f>
         <v>80.000000000000014</v>
       </c>
-      <c r="U80" s="49"/>
+      <c r="U80" s="50"/>
       <c r="Y80" s="6"/>
     </row>
     <row r="81" spans="6:25" x14ac:dyDescent="0.25">
@@ -6498,15 +6498,15 @@
         <f t="shared" si="20"/>
         <v>11.755102040816329</v>
       </c>
-      <c r="S82" s="43" t="s">
+      <c r="S82" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="T82" s="48" t="s">
+      <c r="T82" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="U82" s="48"/>
-      <c r="V82" s="48"/>
-      <c r="W82" s="48"/>
+      <c r="U82" s="55"/>
+      <c r="V82" s="55"/>
+      <c r="W82" s="55"/>
       <c r="Y82" s="6"/>
     </row>
     <row r="83" spans="6:25" x14ac:dyDescent="0.25">
@@ -6537,11 +6537,11 @@
         <f t="shared" si="20"/>
         <v>2.0408163265306132</v>
       </c>
-      <c r="S83" s="43"/>
-      <c r="T83" s="48"/>
-      <c r="U83" s="48"/>
-      <c r="V83" s="48"/>
-      <c r="W83" s="48"/>
+      <c r="S83" s="57"/>
+      <c r="T83" s="55"/>
+      <c r="U83" s="55"/>
+      <c r="V83" s="55"/>
+      <c r="W83" s="55"/>
       <c r="Y83" s="6"/>
     </row>
     <row r="84" spans="6:25" x14ac:dyDescent="0.25">
@@ -6572,13 +6572,13 @@
         <f t="shared" si="20"/>
         <v>19.612244897959187</v>
       </c>
-      <c r="T84" s="44">
+      <c r="T84" s="56">
         <f>M97/T80</f>
         <v>0.93749999999999978</v>
       </c>
-      <c r="U84" s="44"/>
-      <c r="V84" s="44"/>
-      <c r="W84" s="44"/>
+      <c r="U84" s="56"/>
+      <c r="V84" s="56"/>
+      <c r="W84" s="56"/>
       <c r="Y84" s="6"/>
     </row>
     <row r="85" spans="6:25" x14ac:dyDescent="0.25">
@@ -6639,14 +6639,14 @@
         <f t="shared" si="20"/>
         <v>5.8979591836734704</v>
       </c>
-      <c r="S86" s="43" t="s">
+      <c r="S86" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="T86" s="44">
+      <c r="T86" s="56">
         <f>CORREL(G75:G95,H75:H95)</f>
         <v>0.9375</v>
       </c>
-      <c r="U86" s="44"/>
+      <c r="U86" s="56"/>
       <c r="Y86" s="6"/>
     </row>
     <row r="87" spans="6:25" x14ac:dyDescent="0.25">
@@ -6677,9 +6677,9 @@
         <f t="shared" si="20"/>
         <v>2.0408163265306132</v>
       </c>
-      <c r="S87" s="43"/>
-      <c r="T87" s="44"/>
-      <c r="U87" s="44"/>
+      <c r="S87" s="57"/>
+      <c r="T87" s="56"/>
+      <c r="U87" s="56"/>
       <c r="Y87" s="6"/>
     </row>
     <row r="88" spans="6:25" x14ac:dyDescent="0.25">
@@ -6986,15 +6986,15 @@
     </row>
     <row r="100" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="101" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F101" s="52" t="s">
+      <c r="F101" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="G101" s="53"/>
-      <c r="H101" s="53"/>
-      <c r="I101" s="53"/>
-      <c r="J101" s="53"/>
-      <c r="K101" s="53"/>
-      <c r="L101" s="54"/>
+      <c r="G101" s="47"/>
+      <c r="H101" s="47"/>
+      <c r="I101" s="47"/>
+      <c r="J101" s="47"/>
+      <c r="K101" s="47"/>
+      <c r="L101" s="48"/>
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
       <c r="O101" s="4"/>
@@ -7637,15 +7637,15 @@
     </row>
     <row r="132" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="133" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="52" t="s">
+      <c r="A133" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="B133" s="53"/>
-      <c r="C133" s="53"/>
-      <c r="D133" s="53"/>
-      <c r="E133" s="53"/>
-      <c r="F133" s="53"/>
-      <c r="G133" s="54"/>
+      <c r="B133" s="47"/>
+      <c r="C133" s="47"/>
+      <c r="D133" s="47"/>
+      <c r="E133" s="47"/>
+      <c r="F133" s="47"/>
+      <c r="G133" s="48"/>
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
@@ -7680,56 +7680,39 @@
     </row>
     <row r="134" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A134" s="5"/>
-      <c r="B134" s="58"/>
-      <c r="C134" s="58"/>
-      <c r="D134" s="58"/>
-      <c r="E134" s="58"/>
-      <c r="F134" s="56" t="s">
+      <c r="F134" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="G134" s="56"/>
-      <c r="H134" s="56"/>
-      <c r="I134" s="58"/>
-      <c r="J134" s="58"/>
-      <c r="K134" s="58"/>
-      <c r="L134" s="58"/>
-      <c r="M134" s="59" t="s">
+      <c r="G134" s="45"/>
+      <c r="H134" s="45"/>
+      <c r="M134" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="N134" s="56" t="s">
+      <c r="N134" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="O134" s="56"/>
-      <c r="P134" s="56"/>
-      <c r="Q134" s="57"/>
-      <c r="R134" s="58"/>
-      <c r="S134" s="58"/>
-      <c r="T134" s="58"/>
-      <c r="U134" s="59" t="s">
+      <c r="O134" s="45"/>
+      <c r="P134" s="45"/>
+      <c r="Q134" s="43"/>
+      <c r="U134" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="V134" s="56" t="s">
+      <c r="V134" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="W134" s="56"/>
-      <c r="X134" s="56"/>
-      <c r="Y134" s="57"/>
-      <c r="Z134" s="58"/>
-      <c r="AA134" s="58"/>
-      <c r="AB134" s="58"/>
-      <c r="AC134" s="59" t="s">
+      <c r="W134" s="45"/>
+      <c r="X134" s="45"/>
+      <c r="Y134" s="43"/>
+      <c r="AC134" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="AD134" s="56" t="s">
+      <c r="AD134" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="AE134" s="56"/>
-      <c r="AF134" s="56"/>
-      <c r="AG134" s="57"/>
-      <c r="AH134" s="58"/>
-      <c r="AI134" s="58"/>
-      <c r="AJ134" s="58"/>
-      <c r="AK134" s="59" t="s">
+      <c r="AE134" s="45"/>
+      <c r="AF134" s="45"/>
+      <c r="AG134" s="43"/>
+      <c r="AK134" s="44" t="s">
         <v>81</v>
       </c>
       <c r="AL134" s="6"/>
@@ -7860,119 +7843,116 @@
       <c r="E136" s="10">
         <v>2</v>
       </c>
-      <c r="F136" s="58"/>
-      <c r="G136" s="58"/>
-      <c r="H136" s="58"/>
-      <c r="I136" s="58">
-        <f>((B136-$F$136)^2+(C136-$G$136)^2+(D136-$H$136)^2)^0.5</f>
+      <c r="I136">
+        <f t="shared" ref="I136:I156" si="24">((B136-$F$136)^2+(C136-$G$136)^2+(D136-$H$136)^2)^0.5</f>
         <v>32.526911934581186</v>
       </c>
-      <c r="J136" s="58">
-        <f>((B136-$F$140)^2+(C136-$G$140)^2+(D136-$H$140)^2)^0.5</f>
+      <c r="J136">
+        <f t="shared" ref="J136:J156" si="25">((B136-$F$140)^2+(C136-$G$140)^2+(D136-$H$140)^2)^0.5</f>
         <v>18.72137270390094</v>
       </c>
-      <c r="K136" s="58">
-        <f>((B136-$F$147)^2+(C136-$G$147)^2+(D136-$H$147)^2)^0.5</f>
+      <c r="K136">
+        <f t="shared" ref="K136:K156" si="26">((B136-$F$147)^2+(C136-$G$147)^2+(D136-$H$147)^2)^0.5</f>
         <v>15.098634044177638</v>
       </c>
-      <c r="L136" s="58">
-        <f>((B136-$F$155)^2+(C136-$G$155)^2+(D136-$H$155)^2)^0.5</f>
+      <c r="L136">
+        <f t="shared" ref="L136:L156" si="27">((B136-$F$155)^2+(C136-$G$155)^2+(D136-$H$155)^2)^0.5</f>
         <v>32.526911934581186</v>
       </c>
-      <c r="M136" s="58">
-        <v>3</v>
-      </c>
-      <c r="N136" s="58">
+      <c r="M136">
+        <v>3</v>
+      </c>
+      <c r="N136">
         <f>AVERAGE(B136)</f>
         <v>3</v>
       </c>
-      <c r="O136" s="58">
+      <c r="O136">
         <f>AVERAGE(C136)</f>
         <v>5</v>
       </c>
-      <c r="P136" s="58">
+      <c r="P136">
         <f>AVERAGE(D136)</f>
         <v>32</v>
       </c>
-      <c r="Q136" s="58">
-        <f>((B136-$N$136)^2+(C136-$O$136)^2+(D136-$P$136)^2)^0.5</f>
-        <v>0</v>
-      </c>
-      <c r="R136" s="58">
-        <f>((B136-$N$137)^2+(C136-$O$137)^2+(D136-$P$137)^2)^0.5</f>
+      <c r="Q136">
+        <f t="shared" ref="Q136:Q156" si="28">((B136-$N$136)^2+(C136-$O$136)^2+(D136-$P$136)^2)^0.5</f>
+        <v>0</v>
+      </c>
+      <c r="R136">
+        <f t="shared" ref="R136:R156" si="29">((B136-$N$137)^2+(C136-$O$137)^2+(D136-$P$137)^2)^0.5</f>
         <v>32.526911934581186</v>
       </c>
-      <c r="S136" s="58">
-        <f>((B136-$N$145)^2+(C136-$O$145)^2+(D136-$P$145)^2)^0.5</f>
+      <c r="S136">
+        <f t="shared" ref="S136:S156" si="30">((B136-$N$145)^2+(C136-$O$145)^2+(D136-$P$145)^2)^0.5</f>
         <v>32.526911934581186</v>
       </c>
-      <c r="T136" s="58">
-        <f>((B136-$N$149)^2+(C136-$O$149)^2+(D136-$P$149)^2)^0.5</f>
+      <c r="T136">
+        <f t="shared" ref="T136:T156" si="31">((B136-$N$149)^2+(C136-$O$149)^2+(D136-$P$149)^2)^0.5</f>
         <v>18.386476008196894</v>
       </c>
-      <c r="U136" s="58">
-        <v>3</v>
-      </c>
-      <c r="V136" s="58">
+      <c r="U136">
+        <v>3</v>
+      </c>
+      <c r="V136">
         <f>AVERAGE(B136:B138)</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="W136" s="58">
+      <c r="W136">
         <f>AVERAGE(C136:C138)</f>
         <v>5</v>
       </c>
-      <c r="X136" s="58">
+      <c r="X136">
         <f>AVERAGE(D136:D138)</f>
         <v>34.333333333333336</v>
       </c>
-      <c r="Y136" s="58">
-        <f>((B136-$V$136)^2+(C136-$W$136)^2+(D136-$X$136)^2)^0.5</f>
+      <c r="Y136">
+        <f t="shared" ref="Y136:Y156" si="32">((B136-$V$136)^2+(C136-$W$136)^2+(D136-$X$136)^2)^0.5</f>
         <v>2.3570226039551607</v>
       </c>
-      <c r="Z136" s="58">
-        <f>((B136-$V$139)^2+(C136-$W$139)^2+(D136-$X$139)^2)^0.5</f>
+      <c r="Z136">
+        <f t="shared" ref="Z136:Z156" si="33">((B136-$V$139)^2+(C136-$W$139)^2+(D136-$X$139)^2)^0.5</f>
         <v>32.526911934581186</v>
       </c>
-      <c r="AA136" s="58">
-        <f>((B136-$V$146)^2+(C136-$W$146)^2+(D136-$X$146)^2)^0.5</f>
+      <c r="AA136">
+        <f t="shared" ref="AA136:AA156" si="34">((B136-$V$146)^2+(C136-$W$146)^2+(D136-$X$146)^2)^0.5</f>
         <v>32.526911934581186</v>
       </c>
-      <c r="AB136" s="58">
-        <f>((B136-$V$149)^2+(C136-$W$149)^2+(D136-$X$149)^2)^0.5</f>
+      <c r="AB136">
+        <f t="shared" ref="AB136:AB156" si="35">((B136-$V$149)^2+(C136-$W$149)^2+(D136-$X$149)^2)^0.5</f>
         <v>18.386476008196894</v>
       </c>
-      <c r="AC136" s="58">
-        <v>3</v>
-      </c>
-      <c r="AD136" s="58">
+      <c r="AC136">
+        <v>3</v>
+      </c>
+      <c r="AD136">
         <f>AVERAGE(B136:B140)</f>
         <v>3</v>
       </c>
-      <c r="AE136" s="58">
-        <f t="shared" ref="AE136:AF136" si="24">AVERAGE(C136:C140)</f>
+      <c r="AE136">
+        <f t="shared" ref="AE136:AF136" si="36">AVERAGE(C136:C140)</f>
         <v>5</v>
       </c>
-      <c r="AF136" s="58">
-        <f t="shared" si="24"/>
+      <c r="AF136">
+        <f t="shared" si="36"/>
         <v>34.6</v>
       </c>
-      <c r="AG136" s="58">
+      <c r="AG136">
         <f>((B136-$AD$136)^2+(C136-$AE$136)^2+(D136-$AF$136)^2)^0.5</f>
         <v>2.6000000000000014</v>
       </c>
-      <c r="AH136" s="58">
+      <c r="AH136">
         <f>((B136-$AD$141)^2+(C136-$AE$141)^2+(D136-$AF$141)^2)^0.5</f>
         <v>22.514193054357712</v>
       </c>
-      <c r="AI136" s="58">
+      <c r="AI136">
         <f>((B136-$AD$147)^2+(C136-$AE$147)^2+(D136-$AF$147)^2)^0.5</f>
         <v>8.3066238629180749</v>
       </c>
-      <c r="AJ136" s="58">
+      <c r="AJ136">
         <f>((B136-$AD$149)^2+(C136-$AE$149)^2+(D136-$AF$149)^2)^0.5</f>
         <v>18.386476008196894</v>
       </c>
-      <c r="AK136" s="58">
+      <c r="AK136">
         <v>3</v>
       </c>
       <c r="AL136" s="6"/>
@@ -7991,92 +7971,80 @@
       <c r="E137" s="10">
         <v>2</v>
       </c>
-      <c r="F137" s="58"/>
-      <c r="G137" s="58"/>
-      <c r="H137" s="58"/>
-      <c r="I137" s="58">
-        <f>((B137-$F$136)^2+(C137-$G$136)^2+(D137-$H$136)^2)^0.5</f>
+      <c r="I137">
+        <f t="shared" si="24"/>
         <v>41.54515615568198</v>
       </c>
-      <c r="J137" s="58">
-        <f>((B137-$F$140)^2+(C137-$G$140)^2+(D137-$H$140)^2)^0.5</f>
+      <c r="J137">
+        <f t="shared" si="25"/>
         <v>9.6911489177980723</v>
       </c>
-      <c r="K137" s="58">
-        <f>((B137-$F$147)^2+(C137-$G$147)^2+(D137-$H$147)^2)^0.5</f>
+      <c r="K137">
+        <f t="shared" si="26"/>
         <v>24.098106772109713</v>
       </c>
-      <c r="L137" s="58">
-        <f>((B137-$F$155)^2+(C137-$G$155)^2+(D137-$H$155)^2)^0.5</f>
+      <c r="L137">
+        <f t="shared" si="27"/>
         <v>41.54515615568198</v>
       </c>
-      <c r="M137" s="58">
-        <v>2</v>
-      </c>
-      <c r="N137" s="58"/>
-      <c r="O137" s="58"/>
-      <c r="P137" s="58"/>
-      <c r="Q137" s="58">
-        <f>((B137-$N$136)^2+(C137-$O$136)^2+(D137-$P$136)^2)^0.5</f>
+      <c r="M137">
+        <v>2</v>
+      </c>
+      <c r="Q137">
+        <f t="shared" si="28"/>
         <v>9.0553851381374173</v>
       </c>
-      <c r="R137" s="58">
-        <f>((B137-$N$137)^2+(C137-$O$137)^2+(D137-$P$137)^2)^0.5</f>
+      <c r="R137">
+        <f t="shared" si="29"/>
         <v>41.54515615568198</v>
       </c>
-      <c r="S137" s="58">
-        <f>((B137-$N$145)^2+(C137-$O$145)^2+(D137-$P$145)^2)^0.5</f>
+      <c r="S137">
+        <f t="shared" si="30"/>
         <v>41.54515615568198</v>
       </c>
-      <c r="T137" s="58">
-        <f>((B137-$N$149)^2+(C137-$O$149)^2+(D137-$P$149)^2)^0.5</f>
+      <c r="T137">
+        <f t="shared" si="31"/>
         <v>27.387268940148086</v>
       </c>
-      <c r="U137" s="58">
-        <v>3</v>
-      </c>
-      <c r="V137" s="58"/>
-      <c r="W137" s="58"/>
-      <c r="X137" s="58"/>
-      <c r="Y137" s="58">
-        <f>((B137-$V$136)^2+(C137-$W$136)^2+(D137-$X$136)^2)^0.5</f>
+      <c r="U137">
+        <v>3</v>
+      </c>
+      <c r="Y137">
+        <f t="shared" si="32"/>
         <v>6.7494855771055269</v>
       </c>
-      <c r="Z137" s="58">
-        <f>((B137-$V$139)^2+(C137-$W$139)^2+(D137-$X$139)^2)^0.5</f>
+      <c r="Z137">
+        <f t="shared" si="33"/>
         <v>41.54515615568198</v>
       </c>
-      <c r="AA137" s="58">
-        <f>((B137-$V$146)^2+(C137-$W$146)^2+(D137-$X$146)^2)^0.5</f>
+      <c r="AA137">
+        <f t="shared" si="34"/>
         <v>41.54515615568198</v>
       </c>
-      <c r="AB137" s="58">
-        <f>((B137-$V$149)^2+(C137-$W$149)^2+(D137-$X$149)^2)^0.5</f>
+      <c r="AB137">
+        <f t="shared" si="35"/>
         <v>27.387268940148086</v>
       </c>
-      <c r="AC137" s="58">
-        <v>3</v>
-      </c>
-      <c r="AD137" s="58"/>
-      <c r="AE137" s="58"/>
-      <c r="AF137" s="58"/>
-      <c r="AG137" s="58">
-        <f t="shared" ref="AG137:AG156" si="25">((B137-$AD$136)^2+(C137-$AE$136)^2+(D137-$AF$136)^2)^0.5</f>
+      <c r="AC137">
+        <v>3</v>
+      </c>
+      <c r="AG137">
+        <f t="shared" ref="AG137:AG156" si="37">((B137-$AD$136)^2+(C137-$AE$136)^2+(D137-$AF$136)^2)^0.5</f>
         <v>6.4776538962806569</v>
       </c>
-      <c r="AH137" s="58">
-        <f t="shared" ref="AH137:AH156" si="26">((B137-$AD$141)^2+(C137-$AE$141)^2+(D137-$AF$141)^2)^0.5</f>
+      <c r="AH137">
+        <f t="shared" ref="AH137:AH156" si="38">((B137-$AD$141)^2+(C137-$AE$141)^2+(D137-$AF$141)^2)^0.5</f>
         <v>13.474255287605159</v>
       </c>
-      <c r="AI137" s="58">
-        <f t="shared" ref="AI137:AI156" si="27">((B137-$AD$147)^2+(C137-$AE$147)^2+(D137-$AF$147)^2)^0.5</f>
+      <c r="AI137">
+        <f t="shared" ref="AI137:AI156" si="39">((B137-$AD$147)^2+(C137-$AE$147)^2+(D137-$AF$147)^2)^0.5</f>
         <v>17.291616465790582</v>
       </c>
-      <c r="AJ137" s="58">
+      <c r="AJ137">
         <f>((B137-$AD$149)^2+(C137-$AE$149)^2+(D137-$AF$149)^2)^0.5</f>
         <v>27.387268940148086</v>
       </c>
-      <c r="AK137" s="58">
+      <c r="AK137">
         <v>3</v>
       </c>
       <c r="AL137" s="6"/>
@@ -8095,92 +8063,80 @@
       <c r="E138" s="10">
         <v>1</v>
       </c>
-      <c r="F138" s="58"/>
-      <c r="G138" s="58"/>
-      <c r="H138" s="58"/>
-      <c r="I138" s="58">
-        <f>((B138-$F$136)^2+(C138-$G$136)^2+(D138-$H$136)^2)^0.5</f>
+      <c r="I138">
+        <f t="shared" si="24"/>
         <v>30.331501776206203</v>
       </c>
-      <c r="J138" s="58">
-        <f>((B138-$F$140)^2+(C138-$G$140)^2+(D138-$H$140)^2)^0.5</f>
+      <c r="J138">
+        <f t="shared" si="25"/>
         <v>20.906009291344819</v>
       </c>
-      <c r="K138" s="58">
-        <f>((B138-$F$147)^2+(C138-$G$147)^2+(D138-$H$147)^2)^0.5</f>
+      <c r="K138">
+        <f t="shared" si="26"/>
         <v>12.882885934448073</v>
       </c>
-      <c r="L138" s="58">
-        <f>((B138-$F$155)^2+(C138-$G$155)^2+(D138-$H$155)^2)^0.5</f>
+      <c r="L138">
+        <f t="shared" si="27"/>
         <v>30.331501776206203</v>
       </c>
-      <c r="M138" s="58">
-        <v>1</v>
-      </c>
-      <c r="N138" s="58"/>
-      <c r="O138" s="58"/>
-      <c r="P138" s="58"/>
-      <c r="Q138" s="58">
-        <f>((B138-$N$136)^2+(C138-$O$136)^2+(D138-$P$136)^2)^0.5</f>
+      <c r="M138">
+        <v>1</v>
+      </c>
+      <c r="Q138">
+        <f t="shared" si="28"/>
         <v>2.4494897427831779</v>
       </c>
-      <c r="R138" s="58">
-        <f>((B138-$N$137)^2+(C138-$O$137)^2+(D138-$P$137)^2)^0.5</f>
+      <c r="R138">
+        <f t="shared" si="29"/>
         <v>30.331501776206203</v>
       </c>
-      <c r="S138" s="58">
-        <f>((B138-$N$145)^2+(C138-$O$145)^2+(D138-$P$145)^2)^0.5</f>
+      <c r="S138">
+        <f t="shared" si="30"/>
         <v>30.331501776206203</v>
       </c>
-      <c r="T138" s="58">
-        <f>((B138-$N$149)^2+(C138-$O$149)^2+(D138-$P$149)^2)^0.5</f>
+      <c r="T138">
+        <f t="shared" si="31"/>
         <v>16.172893989635867</v>
       </c>
-      <c r="U138" s="58">
-        <v>3</v>
-      </c>
-      <c r="V138" s="58"/>
-      <c r="W138" s="58"/>
-      <c r="X138" s="58"/>
-      <c r="Y138" s="58">
-        <f>((B138-$V$136)^2+(C138-$W$136)^2+(D138-$X$136)^2)^0.5</f>
+      <c r="U138">
+        <v>3</v>
+      </c>
+      <c r="Y138">
+        <f t="shared" si="32"/>
         <v>4.4969125210773493</v>
       </c>
-      <c r="Z138" s="58">
-        <f>((B138-$V$139)^2+(C138-$W$139)^2+(D138-$X$139)^2)^0.5</f>
+      <c r="Z138">
+        <f t="shared" si="33"/>
         <v>30.331501776206203</v>
       </c>
-      <c r="AA138" s="58">
-        <f>((B138-$V$146)^2+(C138-$W$146)^2+(D138-$X$146)^2)^0.5</f>
+      <c r="AA138">
+        <f t="shared" si="34"/>
         <v>30.331501776206203</v>
       </c>
-      <c r="AB138" s="58">
-        <f>((B138-$V$149)^2+(C138-$W$149)^2+(D138-$X$149)^2)^0.5</f>
+      <c r="AB138">
+        <f t="shared" si="35"/>
         <v>16.172893989635867</v>
       </c>
-      <c r="AC138" s="58">
-        <v>3</v>
-      </c>
-      <c r="AD138" s="58"/>
-      <c r="AE138" s="58"/>
-      <c r="AF138" s="58"/>
-      <c r="AG138" s="58">
-        <f t="shared" si="25"/>
+      <c r="AC138">
+        <v>3</v>
+      </c>
+      <c r="AG138">
+        <f t="shared" si="37"/>
         <v>4.8124837662063875</v>
       </c>
-      <c r="AH138" s="58">
-        <f t="shared" si="26"/>
+      <c r="AH138">
+        <f t="shared" si="38"/>
         <v>24.689178916188276</v>
       </c>
-      <c r="AI138" s="58">
-        <f t="shared" si="27"/>
+      <c r="AI138">
+        <f t="shared" si="39"/>
         <v>6.0827625302982193</v>
       </c>
-      <c r="AJ138" s="58">
-        <f t="shared" ref="AJ137:AJ156" si="28">((B138-$AD$149)^2+(C138-$AE$149)^2+(D138-$AF$149)^2)^0.5</f>
+      <c r="AJ138">
+        <f t="shared" ref="AJ138:AJ156" si="40">((B138-$AD$149)^2+(C138-$AE$149)^2+(D138-$AF$149)^2)^0.5</f>
         <v>16.172893989635867</v>
       </c>
-      <c r="AK138" s="58">
+      <c r="AK138">
         <v>3</v>
       </c>
       <c r="AL138" s="6"/>
@@ -8199,92 +8155,80 @@
       <c r="E139" s="10">
         <v>1</v>
       </c>
-      <c r="F139" s="58"/>
-      <c r="G139" s="58"/>
-      <c r="H139" s="58"/>
-      <c r="I139" s="58">
-        <f>((B139-$F$136)^2+(C139-$G$136)^2+(D139-$H$136)^2)^0.5</f>
+      <c r="I139">
+        <f t="shared" si="24"/>
         <v>42.532340636273474</v>
       </c>
-      <c r="J139" s="58">
-        <f>((B139-$F$140)^2+(C139-$G$140)^2+(D139-$H$140)^2)^0.5</f>
+      <c r="J139">
+        <f t="shared" si="25"/>
         <v>8.7049129923326394</v>
       </c>
-      <c r="K139" s="58">
-        <f>((B139-$F$147)^2+(C139-$G$147)^2+(D139-$H$147)^2)^0.5</f>
+      <c r="K139">
+        <f t="shared" si="26"/>
         <v>25.084233095711735</v>
       </c>
-      <c r="L139" s="58">
-        <f>((B139-$F$155)^2+(C139-$G$155)^2+(D139-$H$155)^2)^0.5</f>
+      <c r="L139">
+        <f t="shared" si="27"/>
         <v>42.532340636273474</v>
       </c>
-      <c r="M139" s="58">
-        <v>2</v>
-      </c>
-      <c r="N139" s="58"/>
-      <c r="O139" s="58"/>
-      <c r="P139" s="58"/>
-      <c r="Q139" s="58">
-        <f>((B139-$N$136)^2+(C139-$O$136)^2+(D139-$P$136)^2)^0.5</f>
+      <c r="M139">
+        <v>2</v>
+      </c>
+      <c r="Q139">
+        <f t="shared" si="28"/>
         <v>10.04987562112089</v>
       </c>
-      <c r="R139" s="58">
-        <f>((B139-$N$137)^2+(C139-$O$137)^2+(D139-$P$137)^2)^0.5</f>
+      <c r="R139">
+        <f t="shared" si="29"/>
         <v>42.532340636273474</v>
       </c>
-      <c r="S139" s="58">
-        <f>((B139-$N$145)^2+(C139-$O$145)^2+(D139-$P$145)^2)^0.5</f>
+      <c r="S139">
+        <f t="shared" si="30"/>
         <v>42.532340636273474</v>
       </c>
-      <c r="T139" s="58">
-        <f>((B139-$N$149)^2+(C139-$O$149)^2+(D139-$P$149)^2)^0.5</f>
+      <c r="T139">
+        <f t="shared" si="31"/>
         <v>28.373623314620922</v>
       </c>
-      <c r="U139" s="58">
-        <v>2</v>
-      </c>
-      <c r="V139" s="58"/>
-      <c r="W139" s="58"/>
-      <c r="X139" s="58"/>
-      <c r="Y139" s="58">
-        <f>((B139-$V$136)^2+(C139-$W$136)^2+(D139-$X$136)^2)^0.5</f>
+      <c r="U139">
+        <v>2</v>
+      </c>
+      <c r="Y139">
+        <f t="shared" si="32"/>
         <v>7.7387911774959308</v>
       </c>
-      <c r="Z139" s="58">
-        <f>((B139-$V$139)^2+(C139-$W$139)^2+(D139-$X$139)^2)^0.5</f>
+      <c r="Z139">
+        <f t="shared" si="33"/>
         <v>42.532340636273474</v>
       </c>
-      <c r="AA139" s="58">
-        <f>((B139-$V$146)^2+(C139-$W$146)^2+(D139-$X$146)^2)^0.5</f>
+      <c r="AA139">
+        <f t="shared" si="34"/>
         <v>42.532340636273474</v>
       </c>
-      <c r="AB139" s="58">
-        <f>((B139-$V$149)^2+(C139-$W$149)^2+(D139-$X$149)^2)^0.5</f>
+      <c r="AB139">
+        <f t="shared" si="35"/>
         <v>28.373623314620922</v>
       </c>
-      <c r="AC139" s="58">
-        <v>3</v>
-      </c>
-      <c r="AD139" s="58"/>
-      <c r="AE139" s="58"/>
-      <c r="AF139" s="58"/>
-      <c r="AG139" s="58">
-        <f t="shared" si="25"/>
+      <c r="AC139">
+        <v>3</v>
+      </c>
+      <c r="AG139">
+        <f t="shared" si="37"/>
         <v>7.4672618810377864</v>
       </c>
-      <c r="AH139" s="58">
-        <f t="shared" si="26"/>
+      <c r="AH139">
+        <f t="shared" si="38"/>
         <v>12.485547200218697</v>
       </c>
-      <c r="AI139" s="58">
-        <f t="shared" si="27"/>
+      <c r="AI139">
+        <f t="shared" si="39"/>
         <v>18.275666882497067</v>
       </c>
-      <c r="AJ139" s="58">
-        <f t="shared" si="28"/>
+      <c r="AJ139">
+        <f t="shared" si="40"/>
         <v>28.373623314620922</v>
       </c>
-      <c r="AK139" s="58">
+      <c r="AK139">
         <v>3</v>
       </c>
       <c r="AL139" s="6"/>
@@ -8303,119 +8247,116 @@
       <c r="E140" s="10">
         <v>2</v>
       </c>
-      <c r="F140" s="58">
+      <c r="F140">
         <f>AVERAGE(B140:B146)</f>
         <v>4</v>
       </c>
-      <c r="G140" s="58">
+      <c r="G140">
         <f>AVERAGE(C140:C146)</f>
         <v>7.1428571428571432</v>
       </c>
-      <c r="H140" s="58">
+      <c r="H140">
         <f>AVERAGE(D140:D146)</f>
         <v>50.571428571428569</v>
       </c>
-      <c r="I140" s="58">
-        <f>((B140-$F$136)^2+(C140-$G$136)^2+(D140-$H$136)^2)^0.5</f>
+      <c r="I140">
+        <f t="shared" si="24"/>
         <v>28.565713714171402</v>
       </c>
-      <c r="J140" s="58">
-        <f>((B140-$F$140)^2+(C140-$G$140)^2+(D140-$H$140)^2)^0.5</f>
+      <c r="J140">
+        <f t="shared" si="25"/>
         <v>22.789184688696306</v>
       </c>
-      <c r="K140" s="58">
-        <f>((B140-$F$147)^2+(C140-$G$147)^2+(D140-$H$147)^2)^0.5</f>
+      <c r="K140">
+        <f t="shared" si="26"/>
         <v>11.245832561442484</v>
       </c>
-      <c r="L140" s="58">
-        <f>((B140-$F$155)^2+(C140-$G$155)^2+(D140-$H$155)^2)^0.5</f>
+      <c r="L140">
+        <f t="shared" si="27"/>
         <v>28.565713714171402</v>
       </c>
-      <c r="M140" s="58">
-        <v>1</v>
-      </c>
-      <c r="N140" s="58">
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
         <f>AVERAGE(B140:B143)</f>
         <v>4</v>
       </c>
-      <c r="O140" s="58">
+      <c r="O140">
         <f>AVERAGE(C140:C143)</f>
         <v>6.75</v>
       </c>
-      <c r="P140" s="58">
+      <c r="P140">
         <f>AVERAGE(D140:D143)</f>
         <v>47.5</v>
       </c>
-      <c r="Q140" s="58">
-        <f>((B140-$N$136)^2+(C140-$O$136)^2+(D140-$P$136)^2)^0.5</f>
+      <c r="Q140">
+        <f t="shared" si="28"/>
         <v>4.2426406871192848</v>
       </c>
-      <c r="R140" s="58">
-        <f>((B140-$N$137)^2+(C140-$O$137)^2+(D140-$P$137)^2)^0.5</f>
+      <c r="R140">
+        <f t="shared" si="29"/>
         <v>28.565713714171402</v>
       </c>
-      <c r="S140" s="58">
-        <f>((B140-$N$145)^2+(C140-$O$145)^2+(D140-$P$145)^2)^0.5</f>
+      <c r="S140">
+        <f t="shared" si="30"/>
         <v>28.565713714171402</v>
       </c>
-      <c r="T140" s="58">
-        <f>((B140-$N$149)^2+(C140-$O$149)^2+(D140-$P$149)^2)^0.5</f>
+      <c r="T140">
+        <f t="shared" si="31"/>
         <v>14.510771860931451</v>
       </c>
-      <c r="U140" s="58">
-        <v>1</v>
-      </c>
-      <c r="V140" s="58">
+      <c r="U140">
+        <v>1</v>
+      </c>
+      <c r="V140">
         <f>AVERAGE(B140:B142)</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="W140" s="58">
+      <c r="W140">
         <f>AVERAGE(C140:C142)</f>
         <v>6</v>
       </c>
-      <c r="X140" s="58">
+      <c r="X140">
         <f>AVERAGE(D140:D142)</f>
         <v>42.666666666666664</v>
       </c>
-      <c r="Y140" s="58">
-        <f>((B140-$V$136)^2+(C140-$W$136)^2+(D140-$X$136)^2)^0.5</f>
+      <c r="Y140">
+        <f t="shared" si="32"/>
         <v>6.548960901462836</v>
       </c>
-      <c r="Z140" s="58">
-        <f>((B140-$V$139)^2+(C140-$W$139)^2+(D140-$X$139)^2)^0.5</f>
+      <c r="Z140">
+        <f t="shared" si="33"/>
         <v>28.565713714171402</v>
       </c>
-      <c r="AA140" s="58">
-        <f>((B140-$V$146)^2+(C140-$W$146)^2+(D140-$X$146)^2)^0.5</f>
+      <c r="AA140">
+        <f t="shared" si="34"/>
         <v>28.565713714171402</v>
       </c>
-      <c r="AB140" s="58">
-        <f>((B140-$V$149)^2+(C140-$W$149)^2+(D140-$X$149)^2)^0.5</f>
+      <c r="AB140">
+        <f t="shared" si="35"/>
         <v>14.510771860931451</v>
       </c>
-      <c r="AC140" s="58">
-        <v>3</v>
-      </c>
-      <c r="AD140" s="58"/>
-      <c r="AE140" s="58"/>
-      <c r="AF140" s="58"/>
-      <c r="AG140" s="58">
-        <f t="shared" si="25"/>
+      <c r="AC140">
+        <v>3</v>
+      </c>
+      <c r="AG140">
+        <f t="shared" si="37"/>
         <v>6.749814812274483</v>
       </c>
-      <c r="AH140" s="58">
-        <f t="shared" si="26"/>
+      <c r="AH140">
+        <f t="shared" si="38"/>
         <v>26.587382136812362</v>
       </c>
-      <c r="AI140" s="58">
-        <f t="shared" si="27"/>
+      <c r="AI140">
+        <f t="shared" si="39"/>
         <v>4.5825756949558398</v>
       </c>
-      <c r="AJ140" s="58">
-        <f t="shared" si="28"/>
+      <c r="AJ140">
+        <f t="shared" si="40"/>
         <v>14.510771860931451</v>
       </c>
-      <c r="AK140" s="58">
+      <c r="AK140">
         <v>1</v>
       </c>
       <c r="AL140" s="6"/>
@@ -8434,119 +8375,116 @@
       <c r="E141" s="10">
         <v>3</v>
       </c>
-      <c r="F141" s="58"/>
-      <c r="G141" s="58"/>
-      <c r="H141" s="58"/>
-      <c r="I141" s="58">
-        <f>((B141-$F$136)^2+(C141-$G$136)^2+(D141-$H$136)^2)^0.5</f>
+      <c r="I141">
+        <f t="shared" si="24"/>
         <v>56.709787515031302</v>
       </c>
-      <c r="J141" s="58">
-        <f>((B141-$F$140)^2+(C141-$G$140)^2+(D141-$H$140)^2)^0.5</f>
+      <c r="J141">
+        <f t="shared" si="25"/>
         <v>5.4958240176203859</v>
       </c>
-      <c r="K141" s="58">
-        <f>((B141-$F$147)^2+(C141-$G$147)^2+(D141-$H$147)^2)^0.5</f>
+      <c r="K141">
+        <f t="shared" si="26"/>
         <v>39.261542888684339</v>
       </c>
-      <c r="L141" s="58">
-        <f>((B141-$F$155)^2+(C141-$G$155)^2+(D141-$H$155)^2)^0.5</f>
+      <c r="L141">
+        <f t="shared" si="27"/>
         <v>56.709787515031302</v>
       </c>
-      <c r="M141" s="58">
-        <v>2</v>
-      </c>
-      <c r="N141" s="58">
+      <c r="M141">
+        <v>2</v>
+      </c>
+      <c r="N141">
         <f>AVERAGE(B141:B148)</f>
         <v>3.5</v>
       </c>
-      <c r="O141" s="58">
+      <c r="O141">
         <f>AVERAGE(C141:C148)</f>
         <v>6.5</v>
       </c>
-      <c r="P141" s="58">
+      <c r="P141">
         <f>AVERAGE(D141:D148)</f>
         <v>46.75</v>
       </c>
-      <c r="Q141" s="58">
-        <f>((B141-$N$136)^2+(C141-$O$136)^2+(D141-$P$136)^2)^0.5</f>
+      <c r="Q141">
+        <f t="shared" si="28"/>
         <v>24.207436873820409</v>
       </c>
-      <c r="R141" s="58">
-        <f>((B141-$N$137)^2+(C141-$O$137)^2+(D141-$P$137)^2)^0.5</f>
+      <c r="R141">
+        <f t="shared" si="29"/>
         <v>56.709787515031302</v>
       </c>
-      <c r="S141" s="58">
-        <f>((B141-$N$145)^2+(C141-$O$145)^2+(D141-$P$145)^2)^0.5</f>
+      <c r="S141">
+        <f t="shared" si="30"/>
         <v>56.709787515031302</v>
       </c>
-      <c r="T141" s="58">
-        <f>((B141-$N$149)^2+(C141-$O$149)^2+(D141-$P$149)^2)^0.5</f>
+      <c r="T141">
+        <f t="shared" si="31"/>
         <v>42.550705047037702</v>
       </c>
-      <c r="U141" s="58">
-        <v>2</v>
-      </c>
-      <c r="V141" s="58">
+      <c r="U141">
+        <v>2</v>
+      </c>
+      <c r="V141">
         <f>AVERAGE(B141:B146)</f>
         <v>4</v>
       </c>
-      <c r="W141" s="58">
+      <c r="W141">
         <f>AVERAGE(C141:C146)</f>
         <v>7.666666666666667</v>
       </c>
-      <c r="X141" s="58">
+      <c r="X141">
         <f>AVERAGE(D141:D146)</f>
         <v>54.333333333333336</v>
       </c>
-      <c r="Y141" s="58">
-        <f>((B141-$V$136)^2+(C141-$W$136)^2+(D141-$X$136)^2)^0.5</f>
+      <c r="Y141">
+        <f t="shared" si="32"/>
         <v>21.913973218524799</v>
       </c>
-      <c r="Z141" s="58">
-        <f>((B141-$V$139)^2+(C141-$W$139)^2+(D141-$X$139)^2)^0.5</f>
+      <c r="Z141">
+        <f t="shared" si="33"/>
         <v>56.709787515031302</v>
       </c>
-      <c r="AA141" s="58">
-        <f>((B141-$V$146)^2+(C141-$W$146)^2+(D141-$X$146)^2)^0.5</f>
+      <c r="AA141">
+        <f t="shared" si="34"/>
         <v>56.709787515031302</v>
       </c>
-      <c r="AB141" s="58">
-        <f>((B141-$V$149)^2+(C141-$W$149)^2+(D141-$X$149)^2)^0.5</f>
+      <c r="AB141">
+        <f t="shared" si="35"/>
         <v>42.550705047037702</v>
       </c>
-      <c r="AC141" s="58">
-        <v>2</v>
-      </c>
-      <c r="AD141" s="58">
+      <c r="AC141">
+        <v>2</v>
+      </c>
+      <c r="AD141">
         <f>AVERAGE(B141:B146)</f>
         <v>4</v>
       </c>
-      <c r="AE141" s="58">
-        <f t="shared" ref="AE141:AF141" si="29">AVERAGE(C141:C146)</f>
+      <c r="AE141">
+        <f t="shared" ref="AE141:AF141" si="41">AVERAGE(C141:C146)</f>
         <v>7.666666666666667</v>
       </c>
-      <c r="AF141" s="58">
-        <f t="shared" si="29"/>
+      <c r="AF141">
+        <f t="shared" si="41"/>
         <v>54.333333333333336</v>
       </c>
-      <c r="AG141" s="58">
-        <f t="shared" si="25"/>
+      <c r="AG141">
+        <f t="shared" si="37"/>
         <v>21.632383132701769</v>
       </c>
-      <c r="AH141" s="58">
-        <f t="shared" si="26"/>
+      <c r="AH141">
+        <f t="shared" si="38"/>
         <v>1.6996731711975925</v>
       </c>
-      <c r="AI141" s="58">
-        <f t="shared" si="27"/>
+      <c r="AI141">
+        <f t="shared" si="39"/>
         <v>32.449961479175904</v>
       </c>
-      <c r="AJ141" s="58">
-        <f t="shared" si="28"/>
+      <c r="AJ141">
+        <f t="shared" si="40"/>
         <v>42.550705047037702</v>
       </c>
-      <c r="AK141" s="58">
+      <c r="AK141">
         <v>2</v>
       </c>
       <c r="AL141" s="6"/>
@@ -8565,92 +8503,80 @@
       <c r="E142" s="10">
         <v>3</v>
       </c>
-      <c r="F142" s="58"/>
-      <c r="G142" s="58"/>
-      <c r="H142" s="58"/>
-      <c r="I142" s="58">
-        <f>((B142-$F$136)^2+(C142-$G$136)^2+(D142-$H$136)^2)^0.5</f>
+      <c r="I142">
+        <f t="shared" si="24"/>
         <v>44.50842616853577</v>
       </c>
-      <c r="J142" s="58">
-        <f>((B142-$F$140)^2+(C142-$G$140)^2+(D142-$H$140)^2)^0.5</f>
+      <c r="J142">
+        <f t="shared" si="25"/>
         <v>6.744612362350213</v>
       </c>
-      <c r="K142" s="58">
-        <f>((B142-$F$147)^2+(C142-$G$147)^2+(D142-$H$147)^2)^0.5</f>
+      <c r="K142">
+        <f t="shared" si="26"/>
         <v>27.059540831285368</v>
       </c>
-      <c r="L142" s="58">
-        <f>((B142-$F$155)^2+(C142-$G$155)^2+(D142-$H$155)^2)^0.5</f>
+      <c r="L142">
+        <f t="shared" si="27"/>
         <v>44.50842616853577</v>
       </c>
-      <c r="M142" s="58">
-        <v>2</v>
-      </c>
-      <c r="N142" s="58"/>
-      <c r="O142" s="58"/>
-      <c r="P142" s="58"/>
-      <c r="Q142" s="58">
-        <f>((B142-$N$136)^2+(C142-$O$136)^2+(D142-$P$136)^2)^0.5</f>
+      <c r="M142">
+        <v>2</v>
+      </c>
+      <c r="Q142">
+        <f t="shared" si="28"/>
         <v>12.041594578792296</v>
       </c>
-      <c r="R142" s="58">
-        <f>((B142-$N$137)^2+(C142-$O$137)^2+(D142-$P$137)^2)^0.5</f>
+      <c r="R142">
+        <f t="shared" si="29"/>
         <v>44.50842616853577</v>
       </c>
-      <c r="S142" s="58">
-        <f>((B142-$N$145)^2+(C142-$O$145)^2+(D142-$P$145)^2)^0.5</f>
+      <c r="S142">
+        <f t="shared" si="30"/>
         <v>44.50842616853577</v>
       </c>
-      <c r="T142" s="58">
-        <f>((B142-$N$149)^2+(C142-$O$149)^2+(D142-$P$149)^2)^0.5</f>
+      <c r="T142">
+        <f t="shared" si="31"/>
         <v>30.349011516027996</v>
       </c>
-      <c r="U142" s="58">
-        <v>2</v>
-      </c>
-      <c r="V142" s="58"/>
-      <c r="W142" s="58"/>
-      <c r="X142" s="58"/>
-      <c r="Y142" s="58">
-        <f>((B142-$V$136)^2+(C142-$W$136)^2+(D142-$X$136)^2)^0.5</f>
+      <c r="U142">
+        <v>2</v>
+      </c>
+      <c r="Y142">
+        <f t="shared" si="32"/>
         <v>9.7239680972098785</v>
       </c>
-      <c r="Z142" s="58">
-        <f>((B142-$V$139)^2+(C142-$W$139)^2+(D142-$X$139)^2)^0.5</f>
+      <c r="Z142">
+        <f t="shared" si="33"/>
         <v>44.50842616853577</v>
       </c>
-      <c r="AA142" s="58">
-        <f>((B142-$V$146)^2+(C142-$W$146)^2+(D142-$X$146)^2)^0.5</f>
+      <c r="AA142">
+        <f t="shared" si="34"/>
         <v>44.50842616853577</v>
       </c>
-      <c r="AB142" s="58">
-        <f>((B142-$V$149)^2+(C142-$W$149)^2+(D142-$X$149)^2)^0.5</f>
+      <c r="AB142">
+        <f t="shared" si="35"/>
         <v>30.349011516027996</v>
       </c>
-      <c r="AC142" s="58">
-        <v>2</v>
-      </c>
-      <c r="AD142" s="58"/>
-      <c r="AE142" s="58"/>
-      <c r="AF142" s="58"/>
-      <c r="AG142" s="58">
-        <f t="shared" si="25"/>
+      <c r="AC142">
+        <v>2</v>
+      </c>
+      <c r="AG142">
+        <f t="shared" si="37"/>
         <v>9.4530418384771764</v>
       </c>
-      <c r="AH142" s="58">
-        <f t="shared" si="26"/>
+      <c r="AH142">
+        <f t="shared" si="38"/>
         <v>10.514540197058338</v>
       </c>
-      <c r="AI142" s="58">
-        <f t="shared" si="27"/>
+      <c r="AI142">
+        <f t="shared" si="39"/>
         <v>20.248456731316587</v>
       </c>
-      <c r="AJ142" s="58">
-        <f t="shared" si="28"/>
+      <c r="AJ142">
+        <f t="shared" si="40"/>
         <v>30.349011516027996</v>
       </c>
-      <c r="AK142" s="58">
+      <c r="AK142">
         <v>3</v>
       </c>
       <c r="AL142" s="6"/>
@@ -8669,92 +8595,80 @@
       <c r="E143" s="10">
         <v>2</v>
       </c>
-      <c r="F143" s="58"/>
-      <c r="G143" s="58"/>
-      <c r="H143" s="58"/>
-      <c r="I143" s="58">
-        <f>((B143-$F$136)^2+(C143-$G$136)^2+(D143-$H$136)^2)^0.5</f>
+      <c r="I143">
+        <f t="shared" si="24"/>
         <v>62.849025449882674</v>
       </c>
-      <c r="J143" s="58">
-        <f>((B143-$F$140)^2+(C143-$G$140)^2+(D143-$H$140)^2)^0.5</f>
+      <c r="J143">
+        <f t="shared" si="25"/>
         <v>11.621584422521568</v>
       </c>
-      <c r="K143" s="58">
-        <f>((B143-$F$147)^2+(C143-$G$147)^2+(D143-$H$147)^2)^0.5</f>
+      <c r="K143">
+        <f t="shared" si="26"/>
         <v>45.403400203068493</v>
       </c>
-      <c r="L143" s="58">
-        <f>((B143-$F$155)^2+(C143-$G$155)^2+(D143-$H$155)^2)^0.5</f>
+      <c r="L143">
+        <f t="shared" si="27"/>
         <v>62.849025449882674</v>
       </c>
-      <c r="M143" s="58">
-        <v>2</v>
-      </c>
-      <c r="N143" s="58"/>
-      <c r="O143" s="58"/>
-      <c r="P143" s="58"/>
-      <c r="Q143" s="58">
-        <f>((B143-$N$136)^2+(C143-$O$136)^2+(D143-$P$136)^2)^0.5</f>
+      <c r="M143">
+        <v>2</v>
+      </c>
+      <c r="Q143">
+        <f t="shared" si="28"/>
         <v>30.331501776206203</v>
       </c>
-      <c r="R143" s="58">
-        <f>((B143-$N$137)^2+(C143-$O$137)^2+(D143-$P$137)^2)^0.5</f>
+      <c r="R143">
+        <f t="shared" si="29"/>
         <v>62.849025449882674</v>
       </c>
-      <c r="S143" s="58">
-        <f>((B143-$N$145)^2+(C143-$O$145)^2+(D143-$P$145)^2)^0.5</f>
+      <c r="S143">
+        <f t="shared" si="30"/>
         <v>62.849025449882674</v>
       </c>
-      <c r="T143" s="58">
-        <f>((B143-$N$149)^2+(C143-$O$149)^2+(D143-$P$149)^2)^0.5</f>
+      <c r="T143">
+        <f t="shared" si="31"/>
         <v>48.693557068671829</v>
       </c>
-      <c r="U143" s="58">
-        <v>2</v>
-      </c>
-      <c r="V143" s="58"/>
-      <c r="W143" s="58"/>
-      <c r="X143" s="58"/>
-      <c r="Y143" s="58">
-        <f>((B143-$V$136)^2+(C143-$W$136)^2+(D143-$X$136)^2)^0.5</f>
+      <c r="U143">
+        <v>2</v>
+      </c>
+      <c r="Y143">
+        <f t="shared" si="32"/>
         <v>28.05153986662566</v>
       </c>
-      <c r="Z143" s="58">
-        <f>((B143-$V$139)^2+(C143-$W$139)^2+(D143-$X$139)^2)^0.5</f>
+      <c r="Z143">
+        <f t="shared" si="33"/>
         <v>62.849025449882674</v>
       </c>
-      <c r="AA143" s="58">
-        <f>((B143-$V$146)^2+(C143-$W$146)^2+(D143-$X$146)^2)^0.5</f>
+      <c r="AA143">
+        <f t="shared" si="34"/>
         <v>62.849025449882674</v>
       </c>
-      <c r="AB143" s="58">
-        <f>((B143-$V$149)^2+(C143-$W$149)^2+(D143-$X$149)^2)^0.5</f>
+      <c r="AB143">
+        <f t="shared" si="35"/>
         <v>48.693557068671829</v>
       </c>
-      <c r="AC143" s="58">
-        <v>2</v>
-      </c>
-      <c r="AD143" s="58"/>
-      <c r="AE143" s="58"/>
-      <c r="AF143" s="58"/>
-      <c r="AG143" s="58">
-        <f t="shared" si="25"/>
+      <c r="AC143">
+        <v>2</v>
+      </c>
+      <c r="AG143">
+        <f t="shared" si="37"/>
         <v>27.762564723022258</v>
       </c>
-      <c r="AH143" s="58">
-        <f t="shared" si="26"/>
+      <c r="AH143">
+        <f t="shared" si="38"/>
         <v>7.8457348639598781</v>
       </c>
-      <c r="AI143" s="58">
-        <f t="shared" si="27"/>
+      <c r="AI143">
+        <f t="shared" si="39"/>
         <v>38.587562763149478</v>
       </c>
-      <c r="AJ143" s="58">
-        <f t="shared" si="28"/>
+      <c r="AJ143">
+        <f t="shared" si="40"/>
         <v>48.693557068671829</v>
       </c>
-      <c r="AK143" s="58">
+      <c r="AK143">
         <v>2</v>
       </c>
       <c r="AL143" s="6"/>
@@ -8773,92 +8687,80 @@
       <c r="E144" s="10">
         <v>2</v>
       </c>
-      <c r="F144" s="58"/>
-      <c r="G144" s="58"/>
-      <c r="H144" s="58"/>
-      <c r="I144" s="58">
-        <f>((B144-$F$136)^2+(C144-$G$136)^2+(D144-$H$136)^2)^0.5</f>
+      <c r="I144">
+        <f t="shared" si="24"/>
         <v>64.822835482567413</v>
       </c>
-      <c r="J144" s="58">
-        <f>((B144-$F$140)^2+(C144-$G$140)^2+(D144-$H$140)^2)^0.5</f>
+      <c r="J144">
+        <f t="shared" si="25"/>
         <v>13.59321559470318</v>
       </c>
-      <c r="K144" s="58">
-        <f>((B144-$F$147)^2+(C144-$G$147)^2+(D144-$H$147)^2)^0.5</f>
+      <c r="K144">
+        <f t="shared" si="26"/>
         <v>47.37582453108336</v>
       </c>
-      <c r="L144" s="58">
-        <f>((B144-$F$155)^2+(C144-$G$155)^2+(D144-$H$155)^2)^0.5</f>
+      <c r="L144">
+        <f t="shared" si="27"/>
         <v>64.822835482567413</v>
       </c>
-      <c r="M144" s="58">
-        <v>2</v>
-      </c>
-      <c r="N144" s="58"/>
-      <c r="O144" s="58"/>
-      <c r="P144" s="58"/>
-      <c r="Q144" s="58">
-        <f>((B144-$N$136)^2+(C144-$O$136)^2+(D144-$P$136)^2)^0.5</f>
+      <c r="M144">
+        <v>2</v>
+      </c>
+      <c r="Q144">
+        <f t="shared" si="28"/>
         <v>32.310988842807021</v>
       </c>
-      <c r="R144" s="58">
-        <f>((B144-$N$137)^2+(C144-$O$137)^2+(D144-$P$137)^2)^0.5</f>
+      <c r="R144">
+        <f t="shared" si="29"/>
         <v>64.822835482567413</v>
       </c>
-      <c r="S144" s="58">
-        <f>((B144-$N$145)^2+(C144-$O$145)^2+(D144-$P$145)^2)^0.5</f>
+      <c r="S144">
+        <f t="shared" si="30"/>
         <v>64.822835482567413</v>
       </c>
-      <c r="T144" s="58">
-        <f>((B144-$N$149)^2+(C144-$O$149)^2+(D144-$P$149)^2)^0.5</f>
+      <c r="T144">
+        <f t="shared" si="31"/>
         <v>50.666186949483382</v>
       </c>
-      <c r="U144" s="58">
-        <v>2</v>
-      </c>
-      <c r="V144" s="58"/>
-      <c r="W144" s="58"/>
-      <c r="X144" s="58"/>
-      <c r="Y144" s="58">
-        <f>((B144-$V$136)^2+(C144-$W$136)^2+(D144-$X$136)^2)^0.5</f>
+      <c r="U144">
+        <v>2</v>
+      </c>
+      <c r="Y144">
+        <f t="shared" si="32"/>
         <v>30.025914733036117</v>
       </c>
-      <c r="Z144" s="58">
-        <f>((B144-$V$139)^2+(C144-$W$139)^2+(D144-$X$139)^2)^0.5</f>
+      <c r="Z144">
+        <f t="shared" si="33"/>
         <v>64.822835482567413</v>
       </c>
-      <c r="AA144" s="58">
-        <f>((B144-$V$146)^2+(C144-$W$146)^2+(D144-$X$146)^2)^0.5</f>
+      <c r="AA144">
+        <f t="shared" si="34"/>
         <v>64.822835482567413</v>
       </c>
-      <c r="AB144" s="58">
-        <f>((B144-$V$149)^2+(C144-$W$149)^2+(D144-$X$149)^2)^0.5</f>
+      <c r="AB144">
+        <f t="shared" si="35"/>
         <v>50.666186949483382</v>
       </c>
-      <c r="AC144" s="58">
-        <v>2</v>
-      </c>
-      <c r="AD144" s="58"/>
-      <c r="AE144" s="58"/>
-      <c r="AF144" s="58"/>
-      <c r="AG144" s="58">
-        <f t="shared" si="25"/>
+      <c r="AC144">
+        <v>2</v>
+      </c>
+      <c r="AG144">
+        <f t="shared" si="37"/>
         <v>29.738190933545368</v>
       </c>
-      <c r="AH144" s="58">
-        <f t="shared" si="26"/>
+      <c r="AH144">
+        <f t="shared" si="38"/>
         <v>9.8092926463747716</v>
       </c>
-      <c r="AI144" s="58">
-        <f t="shared" si="27"/>
+      <c r="AI144">
+        <f t="shared" si="39"/>
         <v>40.558599581346492</v>
       </c>
-      <c r="AJ144" s="58">
-        <f t="shared" si="28"/>
+      <c r="AJ144">
+        <f t="shared" si="40"/>
         <v>50.666186949483382</v>
       </c>
-      <c r="AK144" s="58">
+      <c r="AK144">
         <v>2</v>
       </c>
       <c r="AL144" s="6"/>
@@ -8877,92 +8779,80 @@
       <c r="E145" s="10">
         <v>1</v>
       </c>
-      <c r="F145" s="58"/>
-      <c r="G145" s="58"/>
-      <c r="H145" s="58"/>
-      <c r="I145" s="58">
-        <f>((B145-$F$136)^2+(C145-$G$136)^2+(D145-$H$136)^2)^0.5</f>
+      <c r="I145">
+        <f t="shared" si="24"/>
         <v>44.50842616853577</v>
       </c>
-      <c r="J145" s="58">
-        <f>((B145-$F$140)^2+(C145-$G$140)^2+(D145-$H$140)^2)^0.5</f>
+      <c r="J145">
+        <f t="shared" si="25"/>
         <v>6.744612362350213</v>
       </c>
-      <c r="K145" s="58">
-        <f>((B145-$F$147)^2+(C145-$G$147)^2+(D145-$H$147)^2)^0.5</f>
+      <c r="K145">
+        <f t="shared" si="26"/>
         <v>27.059540831285368</v>
       </c>
-      <c r="L145" s="58">
-        <f>((B145-$F$155)^2+(C145-$G$155)^2+(D145-$H$155)^2)^0.5</f>
+      <c r="L145">
+        <f t="shared" si="27"/>
         <v>44.50842616853577</v>
       </c>
-      <c r="M145" s="58">
-        <v>2</v>
-      </c>
-      <c r="N145" s="58"/>
-      <c r="O145" s="58"/>
-      <c r="P145" s="58"/>
-      <c r="Q145" s="58">
-        <f>((B145-$N$136)^2+(C145-$O$136)^2+(D145-$P$136)^2)^0.5</f>
+      <c r="M145">
+        <v>2</v>
+      </c>
+      <c r="Q145">
+        <f t="shared" si="28"/>
         <v>12.041594578792296</v>
       </c>
-      <c r="R145" s="58">
-        <f>((B145-$N$137)^2+(C145-$O$137)^2+(D145-$P$137)^2)^0.5</f>
+      <c r="R145">
+        <f t="shared" si="29"/>
         <v>44.50842616853577</v>
       </c>
-      <c r="S145" s="58">
-        <f>((B145-$N$145)^2+(C145-$O$145)^2+(D145-$P$145)^2)^0.5</f>
+      <c r="S145">
+        <f t="shared" si="30"/>
         <v>44.50842616853577</v>
       </c>
-      <c r="T145" s="58">
-        <f>((B145-$N$149)^2+(C145-$O$149)^2+(D145-$P$149)^2)^0.5</f>
+      <c r="T145">
+        <f t="shared" si="31"/>
         <v>30.349011516027996</v>
       </c>
-      <c r="U145" s="58">
-        <v>2</v>
-      </c>
-      <c r="V145" s="58"/>
-      <c r="W145" s="58"/>
-      <c r="X145" s="58"/>
-      <c r="Y145" s="58">
-        <f>((B145-$V$136)^2+(C145-$W$136)^2+(D145-$X$136)^2)^0.5</f>
+      <c r="U145">
+        <v>2</v>
+      </c>
+      <c r="Y145">
+        <f t="shared" si="32"/>
         <v>9.7239680972098785</v>
       </c>
-      <c r="Z145" s="58">
-        <f>((B145-$V$139)^2+(C145-$W$139)^2+(D145-$X$139)^2)^0.5</f>
+      <c r="Z145">
+        <f t="shared" si="33"/>
         <v>44.50842616853577</v>
       </c>
-      <c r="AA145" s="58">
-        <f>((B145-$V$146)^2+(C145-$W$146)^2+(D145-$X$146)^2)^0.5</f>
+      <c r="AA145">
+        <f t="shared" si="34"/>
         <v>44.50842616853577</v>
       </c>
-      <c r="AB145" s="58">
-        <f>((B145-$V$149)^2+(C145-$W$149)^2+(D145-$X$149)^2)^0.5</f>
+      <c r="AB145">
+        <f t="shared" si="35"/>
         <v>30.349011516027996</v>
       </c>
-      <c r="AC145" s="58">
-        <v>2</v>
-      </c>
-      <c r="AD145" s="58"/>
-      <c r="AE145" s="58"/>
-      <c r="AF145" s="58"/>
-      <c r="AG145" s="58">
-        <f t="shared" si="25"/>
+      <c r="AC145">
+        <v>2</v>
+      </c>
+      <c r="AG145">
+        <f t="shared" si="37"/>
         <v>9.4530418384771764</v>
       </c>
-      <c r="AH145" s="58">
-        <f t="shared" si="26"/>
+      <c r="AH145">
+        <f t="shared" si="38"/>
         <v>10.514540197058338</v>
       </c>
-      <c r="AI145" s="58">
-        <f t="shared" si="27"/>
+      <c r="AI145">
+        <f t="shared" si="39"/>
         <v>20.248456731316587</v>
       </c>
-      <c r="AJ145" s="58">
-        <f t="shared" si="28"/>
+      <c r="AJ145">
+        <f t="shared" si="40"/>
         <v>30.349011516027996</v>
       </c>
-      <c r="AK145" s="58">
+      <c r="AK145">
         <v>3</v>
       </c>
       <c r="AL145" s="6"/>
@@ -8981,92 +8871,80 @@
       <c r="E146" s="10">
         <v>1</v>
       </c>
-      <c r="F146" s="58"/>
-      <c r="G146" s="58"/>
-      <c r="H146" s="58"/>
-      <c r="I146" s="58">
-        <f>((B146-$F$136)^2+(C146-$G$136)^2+(D146-$H$136)^2)^0.5</f>
+      <c r="I146">
+        <f t="shared" si="24"/>
         <v>56.709787515031302</v>
       </c>
-      <c r="J146" s="58">
-        <f>((B146-$F$140)^2+(C146-$G$140)^2+(D146-$H$140)^2)^0.5</f>
+      <c r="J146">
+        <f t="shared" si="25"/>
         <v>5.4958240176203859</v>
       </c>
-      <c r="K146" s="58">
-        <f>((B146-$F$147)^2+(C146-$G$147)^2+(D146-$H$147)^2)^0.5</f>
+      <c r="K146">
+        <f t="shared" si="26"/>
         <v>39.261542888684339</v>
       </c>
-      <c r="L146" s="58">
-        <f>((B146-$F$155)^2+(C146-$G$155)^2+(D146-$H$155)^2)^0.5</f>
+      <c r="L146">
+        <f t="shared" si="27"/>
         <v>56.709787515031302</v>
       </c>
-      <c r="M146" s="58">
-        <v>2</v>
-      </c>
-      <c r="N146" s="58"/>
-      <c r="O146" s="58"/>
-      <c r="P146" s="58"/>
-      <c r="Q146" s="58">
-        <f>((B146-$N$136)^2+(C146-$O$136)^2+(D146-$P$136)^2)^0.5</f>
+      <c r="M146">
+        <v>2</v>
+      </c>
+      <c r="Q146">
+        <f t="shared" si="28"/>
         <v>24.207436873820409</v>
       </c>
-      <c r="R146" s="58">
-        <f>((B146-$N$137)^2+(C146-$O$137)^2+(D146-$P$137)^2)^0.5</f>
+      <c r="R146">
+        <f t="shared" si="29"/>
         <v>56.709787515031302</v>
       </c>
-      <c r="S146" s="58">
-        <f>((B146-$N$145)^2+(C146-$O$145)^2+(D146-$P$145)^2)^0.5</f>
+      <c r="S146">
+        <f t="shared" si="30"/>
         <v>56.709787515031302</v>
       </c>
-      <c r="T146" s="58">
-        <f>((B146-$N$149)^2+(C146-$O$149)^2+(D146-$P$149)^2)^0.5</f>
+      <c r="T146">
+        <f t="shared" si="31"/>
         <v>42.550705047037702</v>
       </c>
-      <c r="U146" s="58">
-        <v>2</v>
-      </c>
-      <c r="V146" s="58"/>
-      <c r="W146" s="58"/>
-      <c r="X146" s="58"/>
-      <c r="Y146" s="58">
-        <f>((B146-$V$136)^2+(C146-$W$136)^2+(D146-$X$136)^2)^0.5</f>
+      <c r="U146">
+        <v>2</v>
+      </c>
+      <c r="Y146">
+        <f t="shared" si="32"/>
         <v>21.913973218524799</v>
       </c>
-      <c r="Z146" s="58">
-        <f>((B146-$V$139)^2+(C146-$W$139)^2+(D146-$X$139)^2)^0.5</f>
+      <c r="Z146">
+        <f t="shared" si="33"/>
         <v>56.709787515031302</v>
       </c>
-      <c r="AA146" s="58">
-        <f>((B146-$V$146)^2+(C146-$W$146)^2+(D146-$X$146)^2)^0.5</f>
+      <c r="AA146">
+        <f t="shared" si="34"/>
         <v>56.709787515031302</v>
       </c>
-      <c r="AB146" s="58">
-        <f>((B146-$V$149)^2+(C146-$W$149)^2+(D146-$X$149)^2)^0.5</f>
+      <c r="AB146">
+        <f t="shared" si="35"/>
         <v>42.550705047037702</v>
       </c>
-      <c r="AC146" s="58">
-        <v>2</v>
-      </c>
-      <c r="AD146" s="58"/>
-      <c r="AE146" s="58"/>
-      <c r="AF146" s="58"/>
-      <c r="AG146" s="58">
-        <f t="shared" si="25"/>
+      <c r="AC146">
+        <v>2</v>
+      </c>
+      <c r="AG146">
+        <f t="shared" si="37"/>
         <v>21.632383132701769</v>
       </c>
-      <c r="AH146" s="58">
-        <f t="shared" si="26"/>
+      <c r="AH146">
+        <f t="shared" si="38"/>
         <v>1.6996731711975925</v>
       </c>
-      <c r="AI146" s="58">
-        <f t="shared" si="27"/>
+      <c r="AI146">
+        <f t="shared" si="39"/>
         <v>32.449961479175904</v>
       </c>
-      <c r="AJ146" s="58">
-        <f t="shared" si="28"/>
+      <c r="AJ146">
+        <f t="shared" si="40"/>
         <v>42.550705047037702</v>
       </c>
-      <c r="AK146" s="58">
+      <c r="AK146">
         <v>2</v>
       </c>
       <c r="AL146" s="6"/>
@@ -9085,110 +8963,104 @@
       <c r="E147" s="10">
         <v>1</v>
       </c>
-      <c r="F147" s="58">
+      <c r="F147">
         <f>AVERAGE(B147:B154)</f>
         <v>1.125</v>
       </c>
-      <c r="G147" s="58">
+      <c r="G147">
         <f>AVERAGE(C147:C154)</f>
         <v>2.375</v>
       </c>
-      <c r="H147" s="58">
+      <c r="H147">
         <f>AVERAGE(D147:D154)</f>
         <v>17.25</v>
       </c>
-      <c r="I147" s="58">
-        <f>((B147-$F$136)^2+(C147-$G$136)^2+(D147-$H$136)^2)^0.5</f>
+      <c r="I147">
+        <f t="shared" si="24"/>
         <v>24.269322199023193</v>
       </c>
-      <c r="J147" s="58">
-        <f>((B147-$F$140)^2+(C147-$G$140)^2+(D147-$H$140)^2)^0.5</f>
+      <c r="J147">
+        <f t="shared" si="25"/>
         <v>26.966721744265708</v>
       </c>
-      <c r="K147" s="58">
-        <f>((B147-$F$147)^2+(C147-$G$147)^2+(D147-$H$147)^2)^0.5</f>
+      <c r="K147">
+        <f t="shared" si="26"/>
         <v>6.835111557246158</v>
       </c>
-      <c r="L147" s="58">
-        <f>((B147-$F$155)^2+(C147-$G$155)^2+(D147-$H$155)^2)^0.5</f>
+      <c r="L147">
+        <f t="shared" si="27"/>
         <v>24.269322199023193</v>
       </c>
-      <c r="M147" s="58">
-        <v>1</v>
-      </c>
-      <c r="N147" s="58"/>
-      <c r="O147" s="58"/>
-      <c r="P147" s="58"/>
-      <c r="Q147" s="58">
-        <f>((B147-$N$136)^2+(C147-$O$136)^2+(D147-$P$136)^2)^0.5</f>
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="Q147">
+        <f t="shared" si="28"/>
         <v>8.3066238629180749</v>
       </c>
-      <c r="R147" s="58">
-        <f>((B147-$N$137)^2+(C147-$O$137)^2+(D147-$P$137)^2)^0.5</f>
+      <c r="R147">
+        <f t="shared" si="29"/>
         <v>24.269322199023193</v>
       </c>
-      <c r="S147" s="58">
-        <f>((B147-$N$145)^2+(C147-$O$145)^2+(D147-$P$145)^2)^0.5</f>
+      <c r="S147">
+        <f t="shared" si="30"/>
         <v>24.269322199023193</v>
       </c>
-      <c r="T147" s="58">
-        <f>((B147-$N$149)^2+(C147-$O$149)^2+(D147-$P$149)^2)^0.5</f>
+      <c r="T147">
+        <f t="shared" si="31"/>
         <v>10.127314550264547</v>
       </c>
-      <c r="U147" s="58">
-        <v>1</v>
-      </c>
-      <c r="V147" s="58"/>
-      <c r="W147" s="58"/>
-      <c r="X147" s="58"/>
-      <c r="Y147" s="58">
-        <f>((B147-$V$136)^2+(C147-$W$136)^2+(D147-$X$136)^2)^0.5</f>
+      <c r="U147">
+        <v>1</v>
+      </c>
+      <c r="Y147">
+        <f t="shared" si="32"/>
         <v>10.546194679704252</v>
       </c>
-      <c r="Z147" s="58">
-        <f>((B147-$V$139)^2+(C147-$W$139)^2+(D147-$X$139)^2)^0.5</f>
+      <c r="Z147">
+        <f t="shared" si="33"/>
         <v>24.269322199023193</v>
       </c>
-      <c r="AA147" s="58">
-        <f>((B147-$V$146)^2+(C147-$W$146)^2+(D147-$X$146)^2)^0.5</f>
+      <c r="AA147">
+        <f t="shared" si="34"/>
         <v>24.269322199023193</v>
       </c>
-      <c r="AB147" s="58">
-        <f>((B147-$V$149)^2+(C147-$W$149)^2+(D147-$X$149)^2)^0.5</f>
+      <c r="AB147">
+        <f t="shared" si="35"/>
         <v>10.127314550264547</v>
       </c>
-      <c r="AC147" s="58">
-        <v>1</v>
-      </c>
-      <c r="AD147" s="58">
+      <c r="AC147">
+        <v>1</v>
+      </c>
+      <c r="AD147">
         <f>AVERAGE(B147:B148)</f>
         <v>2</v>
       </c>
-      <c r="AE147" s="58">
-        <f t="shared" ref="AE147:AF147" si="30">AVERAGE(C147:C148)</f>
-        <v>3</v>
-      </c>
-      <c r="AF147" s="58">
-        <f t="shared" si="30"/>
+      <c r="AE147">
+        <f t="shared" ref="AE147:AF147" si="42">AVERAGE(C147:C148)</f>
+        <v>3</v>
+      </c>
+      <c r="AF147">
+        <f t="shared" si="42"/>
         <v>24</v>
       </c>
-      <c r="AG147" s="58">
-        <f t="shared" si="25"/>
+      <c r="AG147">
+        <f t="shared" si="37"/>
         <v>10.833282051160674</v>
       </c>
-      <c r="AH147" s="58">
-        <f t="shared" si="26"/>
+      <c r="AH147">
+        <f t="shared" si="38"/>
         <v>30.755306678504915</v>
       </c>
-      <c r="AI147" s="58">
+      <c r="AI147">
         <f>((B147-$AD$147)^2+(C147-$AE$147)^2+(D147-$AF$147)^2)^0.5</f>
         <v>0</v>
       </c>
-      <c r="AJ147" s="58">
-        <f t="shared" si="28"/>
+      <c r="AJ147">
+        <f t="shared" si="40"/>
         <v>10.127314550264547</v>
       </c>
-      <c r="AK147" s="58">
+      <c r="AK147">
         <v>1</v>
       </c>
       <c r="AL147" s="6"/>
@@ -9207,92 +9079,80 @@
       <c r="E148" s="10">
         <v>0</v>
       </c>
-      <c r="F148" s="58"/>
-      <c r="G148" s="58"/>
-      <c r="H148" s="58"/>
-      <c r="I148" s="58">
-        <f>((B148-$F$136)^2+(C148-$G$136)^2+(D148-$H$136)^2)^0.5</f>
+      <c r="I148">
+        <f t="shared" si="24"/>
         <v>24.269322199023193</v>
       </c>
-      <c r="J148" s="58">
-        <f>((B148-$F$140)^2+(C148-$G$140)^2+(D148-$H$140)^2)^0.5</f>
+      <c r="J148">
+        <f t="shared" si="25"/>
         <v>26.966721744265708</v>
       </c>
-      <c r="K148" s="58">
-        <f>((B148-$F$147)^2+(C148-$G$147)^2+(D148-$H$147)^2)^0.5</f>
+      <c r="K148">
+        <f t="shared" si="26"/>
         <v>6.835111557246158</v>
       </c>
-      <c r="L148" s="58">
-        <f>((B148-$F$155)^2+(C148-$G$155)^2+(D148-$H$155)^2)^0.5</f>
+      <c r="L148">
+        <f t="shared" si="27"/>
         <v>24.269322199023193</v>
       </c>
-      <c r="M148" s="58">
-        <v>1</v>
-      </c>
-      <c r="N148" s="58"/>
-      <c r="O148" s="58"/>
-      <c r="P148" s="58"/>
-      <c r="Q148" s="58">
-        <f>((B148-$N$136)^2+(C148-$O$136)^2+(D148-$P$136)^2)^0.5</f>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="Q148">
+        <f t="shared" si="28"/>
         <v>8.3066238629180749</v>
       </c>
-      <c r="R148" s="58">
-        <f>((B148-$N$137)^2+(C148-$O$137)^2+(D148-$P$137)^2)^0.5</f>
+      <c r="R148">
+        <f t="shared" si="29"/>
         <v>24.269322199023193</v>
       </c>
-      <c r="S148" s="58">
-        <f>((B148-$N$145)^2+(C148-$O$145)^2+(D148-$P$145)^2)^0.5</f>
+      <c r="S148">
+        <f t="shared" si="30"/>
         <v>24.269322199023193</v>
       </c>
-      <c r="T148" s="58">
-        <f>((B148-$N$149)^2+(C148-$O$149)^2+(D148-$P$149)^2)^0.5</f>
+      <c r="T148">
+        <f t="shared" si="31"/>
         <v>10.127314550264547</v>
       </c>
-      <c r="U148" s="58">
-        <v>1</v>
-      </c>
-      <c r="V148" s="58"/>
-      <c r="W148" s="58"/>
-      <c r="X148" s="58"/>
-      <c r="Y148" s="58">
-        <f>((B148-$V$136)^2+(C148-$W$136)^2+(D148-$X$136)^2)^0.5</f>
+      <c r="U148">
+        <v>1</v>
+      </c>
+      <c r="Y148">
+        <f t="shared" si="32"/>
         <v>10.546194679704252</v>
       </c>
-      <c r="Z148" s="58">
-        <f>((B148-$V$139)^2+(C148-$W$139)^2+(D148-$X$139)^2)^0.5</f>
+      <c r="Z148">
+        <f t="shared" si="33"/>
         <v>24.269322199023193</v>
       </c>
-      <c r="AA148" s="58">
-        <f>((B148-$V$146)^2+(C148-$W$146)^2+(D148-$X$146)^2)^0.5</f>
+      <c r="AA148">
+        <f t="shared" si="34"/>
         <v>24.269322199023193</v>
       </c>
-      <c r="AB148" s="58">
-        <f>((B148-$V$149)^2+(C148-$W$149)^2+(D148-$X$149)^2)^0.5</f>
+      <c r="AB148">
+        <f t="shared" si="35"/>
         <v>10.127314550264547</v>
       </c>
-      <c r="AC148" s="58">
-        <v>1</v>
-      </c>
-      <c r="AD148" s="58"/>
-      <c r="AE148" s="58"/>
-      <c r="AF148" s="58"/>
-      <c r="AG148" s="58">
-        <f t="shared" si="25"/>
+      <c r="AC148">
+        <v>1</v>
+      </c>
+      <c r="AG148">
+        <f t="shared" si="37"/>
         <v>10.833282051160674</v>
       </c>
-      <c r="AH148" s="58">
-        <f t="shared" si="26"/>
+      <c r="AH148">
+        <f t="shared" si="38"/>
         <v>30.755306678504915</v>
       </c>
-      <c r="AI148" s="58">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AJ148" s="58">
-        <f t="shared" si="28"/>
+      <c r="AI148">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AJ148">
+        <f t="shared" si="40"/>
         <v>10.127314550264547</v>
       </c>
-      <c r="AK148" s="58">
+      <c r="AK148">
         <v>1</v>
       </c>
       <c r="AL148" s="6"/>
@@ -9311,128 +9171,128 @@
       <c r="E149" s="10">
         <v>3</v>
       </c>
-      <c r="F149" s="58">
+      <c r="F149">
         <f>AVERAGE(B149:B152)</f>
         <v>1</v>
       </c>
-      <c r="G149" s="58">
+      <c r="G149">
         <f>AVERAGE(C149:C152)</f>
         <v>2.5</v>
       </c>
-      <c r="H149" s="58">
+      <c r="H149">
         <f>AVERAGE(D149:D152)</f>
         <v>17.75</v>
       </c>
-      <c r="I149" s="58">
-        <f>((B149-$F$136)^2+(C149-$G$136)^2+(D149-$H$136)^2)^0.5</f>
+      <c r="I149">
+        <f t="shared" si="24"/>
         <v>19.261360284258224</v>
       </c>
-      <c r="J149" s="58">
-        <f>((B149-$F$140)^2+(C149-$G$140)^2+(D149-$H$140)^2)^0.5</f>
+      <c r="J149">
+        <f t="shared" si="25"/>
         <v>31.983095024511599</v>
       </c>
-      <c r="K149" s="58">
-        <f>((B149-$F$147)^2+(C149-$G$147)^2+(D149-$H$147)^2)^0.5</f>
+      <c r="K149">
+        <f t="shared" si="26"/>
         <v>1.8624580532189174</v>
       </c>
-      <c r="L149" s="58">
-        <f>((B149-$F$155)^2+(C149-$G$155)^2+(D149-$H$155)^2)^0.5</f>
+      <c r="L149">
+        <f t="shared" si="27"/>
         <v>19.261360284258224</v>
       </c>
-      <c r="M149" s="58">
-        <v>0</v>
-      </c>
-      <c r="N149" s="58">
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
         <f>AVERAGE(B149:B156)</f>
         <v>0.75</v>
       </c>
-      <c r="O149" s="58">
+      <c r="O149">
         <f>AVERAGE(C149:C156)</f>
         <v>2</v>
       </c>
-      <c r="P149" s="58">
+      <c r="P149">
         <f>AVERAGE(D149:D156)</f>
         <v>14</v>
       </c>
-      <c r="Q149" s="58">
-        <f>((B149-$N$136)^2+(C149-$O$136)^2+(D149-$P$136)^2)^0.5</f>
+      <c r="Q149">
+        <f t="shared" si="28"/>
         <v>13.30413469565007</v>
       </c>
-      <c r="R149" s="58">
-        <f>((B149-$N$137)^2+(C149-$O$137)^2+(D149-$P$137)^2)^0.5</f>
+      <c r="R149">
+        <f t="shared" si="29"/>
         <v>19.261360284258224</v>
       </c>
-      <c r="S149" s="58">
-        <f>((B149-$N$145)^2+(C149-$O$145)^2+(D149-$P$145)^2)^0.5</f>
+      <c r="S149">
+        <f t="shared" si="30"/>
         <v>19.261360284258224</v>
       </c>
-      <c r="T149" s="58">
-        <f>((B149-$N$149)^2+(C149-$O$149)^2+(D149-$P$149)^2)^0.5</f>
+      <c r="T149">
+        <f t="shared" si="31"/>
         <v>5.1051444641655346</v>
       </c>
-      <c r="U149" s="58">
-        <v>0</v>
-      </c>
-      <c r="V149" s="58">
+      <c r="U149">
+        <v>0</v>
+      </c>
+      <c r="V149">
         <f>AVERAGE(B149:B156)</f>
         <v>0.75</v>
       </c>
-      <c r="W149" s="58">
+      <c r="W149">
         <f>AVERAGE(C149:C156)</f>
         <v>2</v>
       </c>
-      <c r="X149" s="58">
+      <c r="X149">
         <f>AVERAGE(D149:D156)</f>
         <v>14</v>
       </c>
-      <c r="Y149" s="58">
-        <f>((B149-$V$136)^2+(C149-$W$136)^2+(D149-$X$136)^2)^0.5</f>
+      <c r="Y149">
+        <f t="shared" si="32"/>
         <v>15.552777529717607</v>
       </c>
-      <c r="Z149" s="58">
-        <f>((B149-$V$139)^2+(C149-$W$139)^2+(D149-$X$139)^2)^0.5</f>
+      <c r="Z149">
+        <f t="shared" si="33"/>
         <v>19.261360284258224</v>
       </c>
-      <c r="AA149" s="58">
-        <f>((B149-$V$146)^2+(C149-$W$146)^2+(D149-$X$146)^2)^0.5</f>
+      <c r="AA149">
+        <f t="shared" si="34"/>
         <v>19.261360284258224</v>
       </c>
-      <c r="AB149" s="58">
-        <f>((B149-$V$149)^2+(C149-$W$149)^2+(D149-$X$149)^2)^0.5</f>
+      <c r="AB149">
+        <f t="shared" si="35"/>
         <v>5.1051444641655346</v>
       </c>
-      <c r="AC149" s="58">
-        <v>0</v>
-      </c>
-      <c r="AD149" s="58">
+      <c r="AC149">
+        <v>0</v>
+      </c>
+      <c r="AD149">
         <f>AVERAGE(B149:B156)</f>
         <v>0.75</v>
       </c>
-      <c r="AE149" s="58">
-        <f t="shared" ref="AE149:AF149" si="31">AVERAGE(C149:C156)</f>
-        <v>2</v>
-      </c>
-      <c r="AF149" s="58">
-        <f t="shared" si="31"/>
+      <c r="AE149">
+        <f t="shared" ref="AE149:AF149" si="43">AVERAGE(C149:C156)</f>
+        <v>2</v>
+      </c>
+      <c r="AF149">
+        <f t="shared" si="43"/>
         <v>14</v>
       </c>
-      <c r="AG149" s="58">
-        <f t="shared" si="25"/>
+      <c r="AG149">
+        <f t="shared" si="37"/>
         <v>15.854336946085132</v>
       </c>
-      <c r="AH149" s="58">
-        <f t="shared" si="26"/>
+      <c r="AH149">
+        <f t="shared" si="38"/>
         <v>35.766216213379664</v>
       </c>
-      <c r="AI149" s="58">
-        <f t="shared" si="27"/>
+      <c r="AI149">
+        <f t="shared" si="39"/>
         <v>5.0990195135927845</v>
       </c>
-      <c r="AJ149" s="58">
-        <f t="shared" si="28"/>
+      <c r="AJ149">
+        <f t="shared" si="40"/>
         <v>5.1051444641655346</v>
       </c>
-      <c r="AK149" s="58">
+      <c r="AK149">
         <v>1</v>
       </c>
       <c r="AL149" s="6"/>
@@ -9451,92 +9311,80 @@
       <c r="E150" s="10">
         <v>3</v>
       </c>
-      <c r="F150" s="58"/>
-      <c r="G150" s="58"/>
-      <c r="H150" s="58"/>
-      <c r="I150" s="58">
-        <f>((B150-$F$136)^2+(C150-$G$136)^2+(D150-$H$136)^2)^0.5</f>
+      <c r="I150">
+        <f t="shared" si="24"/>
         <v>17.146428199482248</v>
       </c>
-      <c r="J150" s="58">
-        <f>((B150-$F$140)^2+(C150-$G$140)^2+(D150-$H$140)^2)^0.5</f>
+      <c r="J150">
+        <f t="shared" si="25"/>
         <v>34.095304602222974</v>
       </c>
-      <c r="K150" s="58">
-        <f>((B150-$F$147)^2+(C150-$G$147)^2+(D150-$H$147)^2)^0.5</f>
+      <c r="K150">
+        <f t="shared" si="26"/>
         <v>0.46770717334674267</v>
       </c>
-      <c r="L150" s="58">
-        <f>((B150-$F$155)^2+(C150-$G$155)^2+(D150-$H$155)^2)^0.5</f>
+      <c r="L150">
+        <f t="shared" si="27"/>
         <v>17.146428199482248</v>
       </c>
-      <c r="M150" s="58">
-        <v>0</v>
-      </c>
-      <c r="N150" s="58"/>
-      <c r="O150" s="58"/>
-      <c r="P150" s="58"/>
-      <c r="Q150" s="58">
-        <f>((B150-$N$136)^2+(C150-$O$136)^2+(D150-$P$136)^2)^0.5</f>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="Q150">
+        <f t="shared" si="28"/>
         <v>15.427248620541512</v>
       </c>
-      <c r="R150" s="58">
-        <f>((B150-$N$137)^2+(C150-$O$137)^2+(D150-$P$137)^2)^0.5</f>
+      <c r="R150">
+        <f t="shared" si="29"/>
         <v>17.146428199482248</v>
       </c>
-      <c r="S150" s="58">
-        <f>((B150-$N$145)^2+(C150-$O$145)^2+(D150-$P$145)^2)^0.5</f>
+      <c r="S150">
+        <f t="shared" si="30"/>
         <v>17.146428199482248</v>
       </c>
-      <c r="T150" s="58">
-        <f>((B150-$N$149)^2+(C150-$O$149)^2+(D150-$P$149)^2)^0.5</f>
+      <c r="T150">
+        <f t="shared" si="31"/>
         <v>3.0103986446980739</v>
       </c>
-      <c r="U150" s="58">
-        <v>0</v>
-      </c>
-      <c r="V150" s="58"/>
-      <c r="W150" s="58"/>
-      <c r="X150" s="58"/>
-      <c r="Y150" s="58">
-        <f>((B150-$V$136)^2+(C150-$W$136)^2+(D150-$X$136)^2)^0.5</f>
+      <c r="U150">
+        <v>0</v>
+      </c>
+      <c r="Y150">
+        <f t="shared" si="32"/>
         <v>17.669811040931432</v>
       </c>
-      <c r="Z150" s="58">
-        <f>((B150-$V$139)^2+(C150-$W$139)^2+(D150-$X$139)^2)^0.5</f>
+      <c r="Z150">
+        <f t="shared" si="33"/>
         <v>17.146428199482248</v>
       </c>
-      <c r="AA150" s="58">
-        <f>((B150-$V$146)^2+(C150-$W$146)^2+(D150-$X$146)^2)^0.5</f>
+      <c r="AA150">
+        <f t="shared" si="34"/>
         <v>17.146428199482248</v>
       </c>
-      <c r="AB150" s="58">
-        <f>((B150-$V$149)^2+(C150-$W$149)^2+(D150-$X$149)^2)^0.5</f>
+      <c r="AB150">
+        <f t="shared" si="35"/>
         <v>3.0103986446980739</v>
       </c>
-      <c r="AC150" s="58">
-        <v>0</v>
-      </c>
-      <c r="AD150" s="58"/>
-      <c r="AE150" s="58"/>
-      <c r="AF150" s="58"/>
-      <c r="AG150" s="58">
-        <f t="shared" si="25"/>
+      <c r="AC150">
+        <v>0</v>
+      </c>
+      <c r="AG150">
+        <f t="shared" si="37"/>
         <v>17.965522536235902</v>
       </c>
-      <c r="AH150" s="58">
-        <f t="shared" si="26"/>
+      <c r="AH150">
+        <f t="shared" si="38"/>
         <v>37.879927255591305</v>
       </c>
-      <c r="AI150" s="58">
-        <f t="shared" si="27"/>
+      <c r="AI150">
+        <f t="shared" si="39"/>
         <v>7.1414284285428504</v>
       </c>
-      <c r="AJ150" s="58">
-        <f t="shared" si="28"/>
+      <c r="AJ150">
+        <f t="shared" si="40"/>
         <v>3.0103986446980739</v>
       </c>
-      <c r="AK150" s="58">
+      <c r="AK150">
         <v>0</v>
       </c>
       <c r="AL150" s="6"/>
@@ -9555,92 +9403,80 @@
       <c r="E151" s="10">
         <v>2</v>
       </c>
-      <c r="F151" s="58"/>
-      <c r="G151" s="58"/>
-      <c r="H151" s="58"/>
-      <c r="I151" s="58">
-        <f>((B151-$F$136)^2+(C151-$G$136)^2+(D151-$H$136)^2)^0.5</f>
+      <c r="I151">
+        <f t="shared" si="24"/>
         <v>18.275666882497067</v>
       </c>
-      <c r="J151" s="58">
-        <f>((B151-$F$140)^2+(C151-$G$140)^2+(D151-$H$140)^2)^0.5</f>
+      <c r="J151">
+        <f t="shared" si="25"/>
         <v>32.970611527385955</v>
       </c>
-      <c r="K151" s="58">
-        <f>((B151-$F$147)^2+(C151-$G$147)^2+(D151-$H$147)^2)^0.5</f>
+      <c r="K151">
+        <f t="shared" si="26"/>
         <v>0.98425098425147639</v>
       </c>
-      <c r="L151" s="58">
-        <f>((B151-$F$155)^2+(C151-$G$155)^2+(D151-$H$155)^2)^0.5</f>
+      <c r="L151">
+        <f t="shared" si="27"/>
         <v>18.275666882497067</v>
       </c>
-      <c r="M151" s="58">
-        <v>0</v>
-      </c>
-      <c r="N151" s="58"/>
-      <c r="O151" s="58"/>
-      <c r="P151" s="58"/>
-      <c r="Q151" s="58">
-        <f>((B151-$N$136)^2+(C151-$O$136)^2+(D151-$P$136)^2)^0.5</f>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="Q151">
+        <f t="shared" si="28"/>
         <v>14.282856857085701</v>
       </c>
-      <c r="R151" s="58">
-        <f>((B151-$N$137)^2+(C151-$O$137)^2+(D151-$P$137)^2)^0.5</f>
+      <c r="R151">
+        <f t="shared" si="29"/>
         <v>18.275666882497067</v>
       </c>
-      <c r="S151" s="58">
-        <f>((B151-$N$145)^2+(C151-$O$145)^2+(D151-$P$145)^2)^0.5</f>
+      <c r="S151">
+        <f t="shared" si="30"/>
         <v>18.275666882497067</v>
       </c>
-      <c r="T151" s="58">
-        <f>((B151-$N$149)^2+(C151-$O$149)^2+(D151-$P$149)^2)^0.5</f>
+      <c r="T151">
+        <f t="shared" si="31"/>
         <v>4.1306779104645761</v>
       </c>
-      <c r="U151" s="58">
-        <v>0</v>
-      </c>
-      <c r="V151" s="58"/>
-      <c r="W151" s="58"/>
-      <c r="X151" s="58"/>
-      <c r="Y151" s="58">
-        <f>((B151-$V$136)^2+(C151-$W$136)^2+(D151-$X$136)^2)^0.5</f>
+      <c r="U151">
+        <v>0</v>
+      </c>
+      <c r="Y151">
+        <f t="shared" si="32"/>
         <v>16.539514973407037</v>
       </c>
-      <c r="Z151" s="58">
-        <f>((B151-$V$139)^2+(C151-$W$139)^2+(D151-$X$139)^2)^0.5</f>
+      <c r="Z151">
+        <f t="shared" si="33"/>
         <v>18.275666882497067</v>
       </c>
-      <c r="AA151" s="58">
-        <f>((B151-$V$146)^2+(C151-$W$146)^2+(D151-$X$146)^2)^0.5</f>
+      <c r="AA151">
+        <f t="shared" si="34"/>
         <v>18.275666882497067</v>
       </c>
-      <c r="AB151" s="58">
-        <f>((B151-$V$149)^2+(C151-$W$149)^2+(D151-$X$149)^2)^0.5</f>
+      <c r="AB151">
+        <f t="shared" si="35"/>
         <v>4.1306779104645761</v>
       </c>
-      <c r="AC151" s="58">
-        <v>0</v>
-      </c>
-      <c r="AD151" s="58"/>
-      <c r="AE151" s="58"/>
-      <c r="AF151" s="58"/>
-      <c r="AG151" s="58">
-        <f t="shared" si="25"/>
+      <c r="AC151">
+        <v>0</v>
+      </c>
+      <c r="AG151">
+        <f t="shared" si="37"/>
         <v>16.839239887833418</v>
       </c>
-      <c r="AH151" s="58">
-        <f t="shared" si="26"/>
+      <c r="AH151">
+        <f t="shared" si="38"/>
         <v>36.754440396894758</v>
       </c>
-      <c r="AI151" s="58">
-        <f t="shared" si="27"/>
+      <c r="AI151">
+        <f t="shared" si="39"/>
         <v>6.0827625302982193</v>
       </c>
-      <c r="AJ151" s="58">
-        <f t="shared" si="28"/>
+      <c r="AJ151">
+        <f t="shared" si="40"/>
         <v>4.1306779104645761</v>
       </c>
-      <c r="AK151" s="58">
+      <c r="AK151">
         <v>0</v>
       </c>
       <c r="AL151" s="6"/>
@@ -9659,92 +9495,80 @@
       <c r="E152" s="10">
         <v>2</v>
       </c>
-      <c r="F152" s="58"/>
-      <c r="G152" s="58"/>
-      <c r="H152" s="58"/>
-      <c r="I152" s="58">
-        <f>((B152-$F$136)^2+(C152-$G$136)^2+(D152-$H$136)^2)^0.5</f>
+      <c r="I152">
+        <f t="shared" si="24"/>
         <v>17.146428199482248</v>
       </c>
-      <c r="J152" s="58">
-        <f>((B152-$F$140)^2+(C152-$G$140)^2+(D152-$H$140)^2)^0.5</f>
+      <c r="J152">
+        <f t="shared" si="25"/>
         <v>34.095304602222974</v>
       </c>
-      <c r="K152" s="58">
-        <f>((B152-$F$147)^2+(C152-$G$147)^2+(D152-$H$147)^2)^0.5</f>
+      <c r="K152">
+        <f t="shared" si="26"/>
         <v>0.46770717334674267</v>
       </c>
-      <c r="L152" s="58">
-        <f>((B152-$F$155)^2+(C152-$G$155)^2+(D152-$H$155)^2)^0.5</f>
+      <c r="L152">
+        <f t="shared" si="27"/>
         <v>17.146428199482248</v>
       </c>
-      <c r="M152" s="58">
-        <v>0</v>
-      </c>
-      <c r="N152" s="58"/>
-      <c r="O152" s="58"/>
-      <c r="P152" s="58"/>
-      <c r="Q152" s="58">
-        <f>((B152-$N$136)^2+(C152-$O$136)^2+(D152-$P$136)^2)^0.5</f>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="Q152">
+        <f t="shared" si="28"/>
         <v>15.427248620541512</v>
       </c>
-      <c r="R152" s="58">
-        <f>((B152-$N$137)^2+(C152-$O$137)^2+(D152-$P$137)^2)^0.5</f>
+      <c r="R152">
+        <f t="shared" si="29"/>
         <v>17.146428199482248</v>
       </c>
-      <c r="S152" s="58">
-        <f>((B152-$N$145)^2+(C152-$O$145)^2+(D152-$P$145)^2)^0.5</f>
+      <c r="S152">
+        <f t="shared" si="30"/>
         <v>17.146428199482248</v>
       </c>
-      <c r="T152" s="58">
-        <f>((B152-$N$149)^2+(C152-$O$149)^2+(D152-$P$149)^2)^0.5</f>
+      <c r="T152">
+        <f t="shared" si="31"/>
         <v>3.0103986446980739</v>
       </c>
-      <c r="U152" s="58">
-        <v>0</v>
-      </c>
-      <c r="V152" s="58"/>
-      <c r="W152" s="58"/>
-      <c r="X152" s="58"/>
-      <c r="Y152" s="58">
-        <f>((B152-$V$136)^2+(C152-$W$136)^2+(D152-$X$136)^2)^0.5</f>
+      <c r="U152">
+        <v>0</v>
+      </c>
+      <c r="Y152">
+        <f t="shared" si="32"/>
         <v>17.669811040931432</v>
       </c>
-      <c r="Z152" s="58">
-        <f>((B152-$V$139)^2+(C152-$W$139)^2+(D152-$X$139)^2)^0.5</f>
+      <c r="Z152">
+        <f t="shared" si="33"/>
         <v>17.146428199482248</v>
       </c>
-      <c r="AA152" s="58">
-        <f>((B152-$V$146)^2+(C152-$W$146)^2+(D152-$X$146)^2)^0.5</f>
+      <c r="AA152">
+        <f t="shared" si="34"/>
         <v>17.146428199482248</v>
       </c>
-      <c r="AB152" s="58">
-        <f>((B152-$V$149)^2+(C152-$W$149)^2+(D152-$X$149)^2)^0.5</f>
+      <c r="AB152">
+        <f t="shared" si="35"/>
         <v>3.0103986446980739</v>
       </c>
-      <c r="AC152" s="58">
-        <v>0</v>
-      </c>
-      <c r="AD152" s="58"/>
-      <c r="AE152" s="58"/>
-      <c r="AF152" s="58"/>
-      <c r="AG152" s="58">
-        <f t="shared" si="25"/>
+      <c r="AC152">
+        <v>0</v>
+      </c>
+      <c r="AG152">
+        <f t="shared" si="37"/>
         <v>17.965522536235902</v>
       </c>
-      <c r="AH152" s="58">
-        <f t="shared" si="26"/>
+      <c r="AH152">
+        <f t="shared" si="38"/>
         <v>37.879927255591305</v>
       </c>
-      <c r="AI152" s="58">
-        <f t="shared" si="27"/>
+      <c r="AI152">
+        <f t="shared" si="39"/>
         <v>7.1414284285428504</v>
       </c>
-      <c r="AJ152" s="58">
-        <f t="shared" si="28"/>
+      <c r="AJ152">
+        <f t="shared" si="40"/>
         <v>3.0103986446980739</v>
       </c>
-      <c r="AK152" s="58">
+      <c r="AK152">
         <v>0</v>
       </c>
       <c r="AL152" s="6"/>
@@ -9763,92 +9587,80 @@
       <c r="E153" s="10">
         <v>1</v>
       </c>
-      <c r="F153" s="58"/>
-      <c r="G153" s="58"/>
-      <c r="H153" s="58"/>
-      <c r="I153" s="58">
-        <f>((B153-$F$136)^2+(C153-$G$136)^2+(D153-$H$136)^2)^0.5</f>
+      <c r="I153">
+        <f t="shared" si="24"/>
         <v>18.275666882497067</v>
       </c>
-      <c r="J153" s="58">
-        <f>((B153-$F$140)^2+(C153-$G$140)^2+(D153-$H$140)^2)^0.5</f>
+      <c r="J153">
+        <f t="shared" si="25"/>
         <v>32.970611527385955</v>
       </c>
-      <c r="K153" s="58">
-        <f>((B153-$F$147)^2+(C153-$G$147)^2+(D153-$H$147)^2)^0.5</f>
+      <c r="K153">
+        <f t="shared" si="26"/>
         <v>0.98425098425147639</v>
       </c>
-      <c r="L153" s="58">
-        <f>((B153-$F$155)^2+(C153-$G$155)^2+(D153-$H$155)^2)^0.5</f>
+      <c r="L153">
+        <f t="shared" si="27"/>
         <v>18.275666882497067</v>
       </c>
-      <c r="M153" s="58">
-        <v>0</v>
-      </c>
-      <c r="N153" s="58"/>
-      <c r="O153" s="58"/>
-      <c r="P153" s="58"/>
-      <c r="Q153" s="58">
-        <f>((B153-$N$136)^2+(C153-$O$136)^2+(D153-$P$136)^2)^0.5</f>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="Q153">
+        <f t="shared" si="28"/>
         <v>14.282856857085701</v>
       </c>
-      <c r="R153" s="58">
-        <f>((B153-$N$137)^2+(C153-$O$137)^2+(D153-$P$137)^2)^0.5</f>
+      <c r="R153">
+        <f t="shared" si="29"/>
         <v>18.275666882497067</v>
       </c>
-      <c r="S153" s="58">
-        <f>((B153-$N$145)^2+(C153-$O$145)^2+(D153-$P$145)^2)^0.5</f>
+      <c r="S153">
+        <f t="shared" si="30"/>
         <v>18.275666882497067</v>
       </c>
-      <c r="T153" s="58">
-        <f>((B153-$N$149)^2+(C153-$O$149)^2+(D153-$P$149)^2)^0.5</f>
+      <c r="T153">
+        <f t="shared" si="31"/>
         <v>4.1306779104645761</v>
       </c>
-      <c r="U153" s="58">
-        <v>0</v>
-      </c>
-      <c r="V153" s="58"/>
-      <c r="W153" s="58"/>
-      <c r="X153" s="58"/>
-      <c r="Y153" s="58">
-        <f>((B153-$V$136)^2+(C153-$W$136)^2+(D153-$X$136)^2)^0.5</f>
+      <c r="U153">
+        <v>0</v>
+      </c>
+      <c r="Y153">
+        <f t="shared" si="32"/>
         <v>16.539514973407037</v>
       </c>
-      <c r="Z153" s="58">
-        <f>((B153-$V$139)^2+(C153-$W$139)^2+(D153-$X$139)^2)^0.5</f>
+      <c r="Z153">
+        <f t="shared" si="33"/>
         <v>18.275666882497067</v>
       </c>
-      <c r="AA153" s="58">
-        <f>((B153-$V$146)^2+(C153-$W$146)^2+(D153-$X$146)^2)^0.5</f>
+      <c r="AA153">
+        <f t="shared" si="34"/>
         <v>18.275666882497067</v>
       </c>
-      <c r="AB153" s="58">
-        <f>((B153-$V$149)^2+(C153-$W$149)^2+(D153-$X$149)^2)^0.5</f>
+      <c r="AB153">
+        <f t="shared" si="35"/>
         <v>4.1306779104645761</v>
       </c>
-      <c r="AC153" s="58">
-        <v>0</v>
-      </c>
-      <c r="AD153" s="58"/>
-      <c r="AE153" s="58"/>
-      <c r="AF153" s="58"/>
-      <c r="AG153" s="58">
-        <f t="shared" si="25"/>
+      <c r="AC153">
+        <v>0</v>
+      </c>
+      <c r="AG153">
+        <f t="shared" si="37"/>
         <v>16.839239887833418</v>
       </c>
-      <c r="AH153" s="58">
-        <f t="shared" si="26"/>
+      <c r="AH153">
+        <f t="shared" si="38"/>
         <v>36.754440396894758</v>
       </c>
-      <c r="AI153" s="58">
-        <f t="shared" si="27"/>
+      <c r="AI153">
+        <f t="shared" si="39"/>
         <v>6.0827625302982193</v>
       </c>
-      <c r="AJ153" s="58">
-        <f t="shared" si="28"/>
+      <c r="AJ153">
+        <f t="shared" si="40"/>
         <v>4.1306779104645761</v>
       </c>
-      <c r="AK153" s="58">
+      <c r="AK153">
         <v>0</v>
       </c>
       <c r="AL153" s="6"/>
@@ -9867,92 +9679,80 @@
       <c r="E154" s="10">
         <v>1</v>
       </c>
-      <c r="F154" s="58"/>
-      <c r="G154" s="58"/>
-      <c r="H154" s="58"/>
-      <c r="I154" s="58">
-        <f>((B154-$F$136)^2+(C154-$G$136)^2+(D154-$H$136)^2)^0.5</f>
-        <v>1</v>
-      </c>
-      <c r="J154" s="58">
-        <f>((B154-$F$140)^2+(C154-$G$140)^2+(D154-$H$140)^2)^0.5</f>
+      <c r="I154">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <f t="shared" si="25"/>
         <v>50.24287948332092</v>
       </c>
-      <c r="K154" s="58">
-        <f>((B154-$F$147)^2+(C154-$G$147)^2+(D154-$H$147)^2)^0.5</f>
+      <c r="K154">
+        <f t="shared" si="26"/>
         <v>16.46112845463518</v>
       </c>
-      <c r="L154" s="58">
-        <f>((B154-$F$155)^2+(C154-$G$155)^2+(D154-$H$155)^2)^0.5</f>
-        <v>1</v>
-      </c>
-      <c r="M154" s="58">
-        <v>0</v>
-      </c>
-      <c r="N154" s="58"/>
-      <c r="O154" s="58"/>
-      <c r="P154" s="58"/>
-      <c r="Q154" s="58">
-        <f>((B154-$N$136)^2+(C154-$O$136)^2+(D154-$P$136)^2)^0.5</f>
+      <c r="L154">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="Q154">
+        <f t="shared" si="28"/>
         <v>31.54362059117501</v>
       </c>
-      <c r="R154" s="58">
-        <f>((B154-$N$137)^2+(C154-$O$137)^2+(D154-$P$137)^2)^0.5</f>
-        <v>1</v>
-      </c>
-      <c r="S154" s="58">
-        <f>((B154-$N$145)^2+(C154-$O$145)^2+(D154-$P$145)^2)^0.5</f>
-        <v>1</v>
-      </c>
-      <c r="T154" s="58">
-        <f>((B154-$N$149)^2+(C154-$O$149)^2+(D154-$P$149)^2)^0.5</f>
+      <c r="R154">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="S154">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="T154">
+        <f t="shared" si="31"/>
         <v>13.174312126255398</v>
       </c>
-      <c r="U154" s="58">
-        <v>0</v>
-      </c>
-      <c r="V154" s="58"/>
-      <c r="W154" s="58"/>
-      <c r="X154" s="58"/>
-      <c r="Y154" s="58">
-        <f>((B154-$V$136)^2+(C154-$W$136)^2+(D154-$X$136)^2)^0.5</f>
+      <c r="U154">
+        <v>0</v>
+      </c>
+      <c r="Y154">
+        <f t="shared" si="32"/>
         <v>33.811569354619174</v>
       </c>
-      <c r="Z154" s="58">
-        <f>((B154-$V$139)^2+(C154-$W$139)^2+(D154-$X$139)^2)^0.5</f>
-        <v>1</v>
-      </c>
-      <c r="AA154" s="58">
-        <f>((B154-$V$146)^2+(C154-$W$146)^2+(D154-$X$146)^2)^0.5</f>
-        <v>1</v>
-      </c>
-      <c r="AB154" s="58">
-        <f>((B154-$V$149)^2+(C154-$W$149)^2+(D154-$X$149)^2)^0.5</f>
+      <c r="Z154">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="AA154">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="AB154">
+        <f t="shared" si="35"/>
         <v>13.174312126255398</v>
       </c>
-      <c r="AC154" s="58">
-        <v>0</v>
-      </c>
-      <c r="AD154" s="58"/>
-      <c r="AE154" s="58"/>
-      <c r="AF154" s="58"/>
-      <c r="AG154" s="58">
-        <f t="shared" si="25"/>
+      <c r="AC154">
+        <v>0</v>
+      </c>
+      <c r="AG154">
+        <f t="shared" si="37"/>
         <v>34.102199342564404</v>
       </c>
-      <c r="AH154" s="58">
-        <f t="shared" si="26"/>
+      <c r="AH154">
+        <f t="shared" si="38"/>
         <v>54.029827153362454</v>
       </c>
-      <c r="AI154" s="58">
-        <f t="shared" si="27"/>
+      <c r="AI154">
+        <f t="shared" si="39"/>
         <v>23.280893453645632</v>
       </c>
-      <c r="AJ154" s="58">
-        <f t="shared" si="28"/>
+      <c r="AJ154">
+        <f t="shared" si="40"/>
         <v>13.174312126255398</v>
       </c>
-      <c r="AK154" s="58">
+      <c r="AK154">
         <v>0</v>
       </c>
       <c r="AL154" s="6"/>
@@ -9971,92 +9771,80 @@
       <c r="E155" s="10">
         <v>1</v>
       </c>
-      <c r="F155" s="58"/>
-      <c r="G155" s="58"/>
-      <c r="H155" s="58"/>
-      <c r="I155" s="58">
-        <f>((B155-$F$136)^2+(C155-$G$136)^2+(D155-$H$136)^2)^0.5</f>
+      <c r="I155">
+        <f t="shared" si="24"/>
         <v>17.146428199482248</v>
       </c>
-      <c r="J155" s="58">
-        <f>((B155-$F$140)^2+(C155-$G$140)^2+(D155-$H$140)^2)^0.5</f>
+      <c r="J155">
+        <f t="shared" si="25"/>
         <v>34.095304602222974</v>
       </c>
-      <c r="K155" s="58">
-        <f>((B155-$F$147)^2+(C155-$G$147)^2+(D155-$H$147)^2)^0.5</f>
+      <c r="K155">
+        <f t="shared" si="26"/>
         <v>0.46770717334674267</v>
       </c>
-      <c r="L155" s="58">
-        <f>((B155-$F$155)^2+(C155-$G$155)^2+(D155-$H$155)^2)^0.5</f>
+      <c r="L155">
+        <f t="shared" si="27"/>
         <v>17.146428199482248</v>
       </c>
-      <c r="M155" s="58">
-        <v>0</v>
-      </c>
-      <c r="N155" s="58"/>
-      <c r="O155" s="58"/>
-      <c r="P155" s="58"/>
-      <c r="Q155" s="58">
-        <f>((B155-$N$136)^2+(C155-$O$136)^2+(D155-$P$136)^2)^0.5</f>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="Q155">
+        <f t="shared" si="28"/>
         <v>15.427248620541512</v>
       </c>
-      <c r="R155" s="58">
-        <f>((B155-$N$137)^2+(C155-$O$137)^2+(D155-$P$137)^2)^0.5</f>
+      <c r="R155">
+        <f t="shared" si="29"/>
         <v>17.146428199482248</v>
       </c>
-      <c r="S155" s="58">
-        <f>((B155-$N$145)^2+(C155-$O$145)^2+(D155-$P$145)^2)^0.5</f>
+      <c r="S155">
+        <f t="shared" si="30"/>
         <v>17.146428199482248</v>
       </c>
-      <c r="T155" s="58">
-        <f>((B155-$N$149)^2+(C155-$O$149)^2+(D155-$P$149)^2)^0.5</f>
+      <c r="T155">
+        <f t="shared" si="31"/>
         <v>3.0103986446980739</v>
       </c>
-      <c r="U155" s="58">
-        <v>0</v>
-      </c>
-      <c r="V155" s="58"/>
-      <c r="W155" s="58"/>
-      <c r="X155" s="58"/>
-      <c r="Y155" s="58">
-        <f>((B155-$V$136)^2+(C155-$W$136)^2+(D155-$X$136)^2)^0.5</f>
+      <c r="U155">
+        <v>0</v>
+      </c>
+      <c r="Y155">
+        <f t="shared" si="32"/>
         <v>17.669811040931432</v>
       </c>
-      <c r="Z155" s="58">
-        <f>((B155-$V$139)^2+(C155-$W$139)^2+(D155-$X$139)^2)^0.5</f>
+      <c r="Z155">
+        <f t="shared" si="33"/>
         <v>17.146428199482248</v>
       </c>
-      <c r="AA155" s="58">
-        <f>((B155-$V$146)^2+(C155-$W$146)^2+(D155-$X$146)^2)^0.5</f>
+      <c r="AA155">
+        <f t="shared" si="34"/>
         <v>17.146428199482248</v>
       </c>
-      <c r="AB155" s="58">
-        <f>((B155-$V$149)^2+(C155-$W$149)^2+(D155-$X$149)^2)^0.5</f>
+      <c r="AB155">
+        <f t="shared" si="35"/>
         <v>3.0103986446980739</v>
       </c>
-      <c r="AC155" s="58">
-        <v>0</v>
-      </c>
-      <c r="AD155" s="58"/>
-      <c r="AE155" s="58"/>
-      <c r="AF155" s="58"/>
-      <c r="AG155" s="58">
-        <f t="shared" si="25"/>
+      <c r="AC155">
+        <v>0</v>
+      </c>
+      <c r="AG155">
+        <f t="shared" si="37"/>
         <v>17.965522536235902</v>
       </c>
-      <c r="AH155" s="58">
-        <f t="shared" si="26"/>
+      <c r="AH155">
+        <f t="shared" si="38"/>
         <v>37.879927255591305</v>
       </c>
-      <c r="AI155" s="58">
-        <f t="shared" si="27"/>
+      <c r="AI155">
+        <f t="shared" si="39"/>
         <v>7.1414284285428504</v>
       </c>
-      <c r="AJ155" s="58">
-        <f t="shared" si="28"/>
+      <c r="AJ155">
+        <f t="shared" si="40"/>
         <v>3.0103986446980739</v>
       </c>
-      <c r="AK155" s="58">
+      <c r="AK155">
         <v>0</v>
       </c>
       <c r="AL155" s="6"/>
@@ -10075,223 +9863,106 @@
       <c r="E156" s="10">
         <v>0</v>
       </c>
-      <c r="F156" s="58">
+      <c r="F156">
         <f>AVERAGE(B156:B157)</f>
         <v>0</v>
       </c>
-      <c r="G156" s="58">
+      <c r="G156">
         <f>AVERAGE(C156:C157)</f>
         <v>1</v>
       </c>
-      <c r="H156" s="58">
+      <c r="H156">
         <f>AVERAGE(D156:D157)</f>
         <v>5</v>
       </c>
-      <c r="I156" s="58">
-        <f>((B156-$F$136)^2+(C156-$G$136)^2+(D156-$H$136)^2)^0.5</f>
+      <c r="I156">
+        <f t="shared" si="24"/>
         <v>5.0990195135927845</v>
       </c>
-      <c r="J156" s="58">
-        <f>((B156-$F$140)^2+(C156-$G$140)^2+(D156-$H$140)^2)^0.5</f>
+      <c r="J156">
+        <f t="shared" si="25"/>
         <v>46.157229075393673</v>
       </c>
-      <c r="K156" s="58">
-        <f>((B156-$F$147)^2+(C156-$G$147)^2+(D156-$H$147)^2)^0.5</f>
+      <c r="K156">
+        <f t="shared" si="26"/>
         <v>12.378156163177131</v>
       </c>
-      <c r="L156" s="58">
-        <f>((B156-$F$155)^2+(C156-$G$155)^2+(D156-$H$155)^2)^0.5</f>
+      <c r="L156">
+        <f t="shared" si="27"/>
         <v>5.0990195135927845</v>
       </c>
-      <c r="M156" s="58">
-        <v>0</v>
-      </c>
-      <c r="N156" s="58"/>
-      <c r="O156" s="58"/>
-      <c r="P156" s="58"/>
-      <c r="Q156" s="58">
-        <f>((B156-$N$136)^2+(C156-$O$136)^2+(D156-$P$136)^2)^0.5</f>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="Q156">
+        <f t="shared" si="28"/>
         <v>27.459060435491963</v>
       </c>
-      <c r="R156" s="58">
-        <f>((B156-$N$137)^2+(C156-$O$137)^2+(D156-$P$137)^2)^0.5</f>
+      <c r="R156">
+        <f t="shared" si="29"/>
         <v>5.0990195135927845</v>
       </c>
-      <c r="S156" s="58">
-        <f>((B156-$N$145)^2+(C156-$O$145)^2+(D156-$P$145)^2)^0.5</f>
+      <c r="S156">
+        <f t="shared" si="30"/>
         <v>5.0990195135927845</v>
       </c>
-      <c r="T156" s="58">
-        <f>((B156-$N$149)^2+(C156-$O$149)^2+(D156-$P$149)^2)^0.5</f>
+      <c r="T156">
+        <f t="shared" si="31"/>
         <v>9.0863909226931234</v>
       </c>
-      <c r="U156" s="58">
-        <v>0</v>
-      </c>
-      <c r="V156" s="58"/>
-      <c r="W156" s="58"/>
-      <c r="X156" s="58"/>
-      <c r="Y156" s="58">
-        <f>((B156-$V$136)^2+(C156-$W$136)^2+(D156-$X$136)^2)^0.5</f>
+      <c r="U156">
+        <v>0</v>
+      </c>
+      <c r="Y156">
+        <f t="shared" si="32"/>
         <v>29.724662412810606</v>
       </c>
-      <c r="Z156" s="58">
-        <f>((B156-$V$139)^2+(C156-$W$139)^2+(D156-$X$139)^2)^0.5</f>
+      <c r="Z156">
+        <f t="shared" si="33"/>
         <v>5.0990195135927845</v>
       </c>
-      <c r="AA156" s="58">
-        <f>((B156-$V$146)^2+(C156-$W$146)^2+(D156-$X$146)^2)^0.5</f>
+      <c r="AA156">
+        <f t="shared" si="34"/>
         <v>5.0990195135927845</v>
       </c>
-      <c r="AB156" s="58">
-        <f>((B156-$V$149)^2+(C156-$W$149)^2+(D156-$X$149)^2)^0.5</f>
+      <c r="AB156">
+        <f t="shared" si="35"/>
         <v>9.0863909226931234</v>
       </c>
-      <c r="AC156" s="58">
-        <v>0</v>
-      </c>
-      <c r="AD156" s="58"/>
-      <c r="AE156" s="58"/>
-      <c r="AF156" s="58"/>
-      <c r="AG156" s="58">
-        <f t="shared" si="25"/>
+      <c r="AC156">
+        <v>0</v>
+      </c>
+      <c r="AG156">
+        <f t="shared" si="37"/>
         <v>30.019327107715124</v>
       </c>
-      <c r="AH156" s="58">
-        <f t="shared" si="26"/>
+      <c r="AH156">
+        <f t="shared" si="38"/>
         <v>49.942188800874781</v>
       </c>
-      <c r="AI156" s="58">
-        <f t="shared" si="27"/>
+      <c r="AI156">
+        <f t="shared" si="39"/>
         <v>19.209372712298546</v>
       </c>
-      <c r="AJ156" s="58">
-        <f t="shared" si="28"/>
+      <c r="AJ156">
+        <f t="shared" si="40"/>
         <v>9.0863909226931234</v>
       </c>
-      <c r="AK156" s="58">
+      <c r="AK156">
         <v>0</v>
       </c>
       <c r="AL156" s="6"/>
     </row>
     <row r="157" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A157" s="5"/>
-      <c r="B157" s="58"/>
-      <c r="C157" s="58"/>
-      <c r="D157" s="58"/>
-      <c r="E157" s="58"/>
-      <c r="F157" s="58"/>
-      <c r="G157" s="58"/>
-      <c r="H157" s="58"/>
-      <c r="I157" s="58"/>
-      <c r="J157" s="58"/>
-      <c r="K157" s="58"/>
-      <c r="L157" s="58"/>
-      <c r="M157" s="58"/>
-      <c r="N157" s="58"/>
-      <c r="O157" s="58"/>
-      <c r="P157" s="58"/>
-      <c r="Q157" s="58"/>
-      <c r="R157" s="58"/>
-      <c r="S157" s="58"/>
-      <c r="T157" s="58"/>
-      <c r="U157" s="58"/>
-      <c r="V157" s="58"/>
-      <c r="W157" s="58"/>
-      <c r="X157" s="58"/>
-      <c r="Y157" s="58"/>
-      <c r="Z157" s="58"/>
-      <c r="AA157" s="58"/>
-      <c r="AB157" s="58"/>
-      <c r="AC157" s="58"/>
-      <c r="AD157" s="58"/>
-      <c r="AE157" s="58"/>
-      <c r="AF157" s="58"/>
-      <c r="AG157" s="58"/>
-      <c r="AH157" s="58"/>
-      <c r="AI157" s="58"/>
-      <c r="AJ157" s="58"/>
-      <c r="AK157" s="58"/>
       <c r="AL157" s="6"/>
     </row>
     <row r="158" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A158" s="5"/>
-      <c r="B158" s="58"/>
-      <c r="C158" s="58"/>
-      <c r="D158" s="58"/>
-      <c r="E158" s="58"/>
-      <c r="F158" s="58"/>
-      <c r="G158" s="58"/>
-      <c r="H158" s="58"/>
-      <c r="I158" s="58"/>
-      <c r="J158" s="58"/>
-      <c r="K158" s="58"/>
-      <c r="L158" s="58"/>
-      <c r="M158" s="58"/>
-      <c r="N158" s="58"/>
-      <c r="O158" s="58"/>
-      <c r="P158" s="58"/>
-      <c r="Q158" s="58"/>
-      <c r="R158" s="58"/>
-      <c r="S158" s="58"/>
-      <c r="T158" s="58"/>
-      <c r="U158" s="58"/>
-      <c r="V158" s="58"/>
-      <c r="W158" s="58"/>
-      <c r="X158" s="58"/>
-      <c r="Y158" s="58"/>
-      <c r="Z158" s="58"/>
-      <c r="AA158" s="58"/>
-      <c r="AB158" s="58"/>
-      <c r="AC158" s="58"/>
-      <c r="AD158" s="58"/>
-      <c r="AE158" s="58"/>
-      <c r="AF158" s="58"/>
-      <c r="AG158" s="58"/>
-      <c r="AH158" s="58"/>
-      <c r="AI158" s="58"/>
-      <c r="AJ158" s="58"/>
-      <c r="AK158" s="58"/>
       <c r="AL158" s="6"/>
     </row>
     <row r="159" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A159" s="5"/>
-      <c r="B159" s="58"/>
-      <c r="C159" s="58"/>
-      <c r="D159" s="58"/>
-      <c r="E159" s="58"/>
-      <c r="F159" s="58"/>
-      <c r="G159" s="58"/>
-      <c r="H159" s="58"/>
-      <c r="I159" s="58"/>
-      <c r="J159" s="58"/>
-      <c r="K159" s="58"/>
-      <c r="L159" s="58"/>
-      <c r="M159" s="58"/>
-      <c r="N159" s="58"/>
-      <c r="O159" s="58"/>
-      <c r="P159" s="58"/>
-      <c r="Q159" s="58"/>
-      <c r="R159" s="58"/>
-      <c r="S159" s="58"/>
-      <c r="T159" s="58"/>
-      <c r="U159" s="58"/>
-      <c r="V159" s="58"/>
-      <c r="W159" s="58"/>
-      <c r="X159" s="58"/>
-      <c r="Y159" s="58"/>
-      <c r="Z159" s="58"/>
-      <c r="AA159" s="58"/>
-      <c r="AB159" s="58"/>
-      <c r="AC159" s="58"/>
-      <c r="AD159" s="58"/>
-      <c r="AE159" s="58"/>
-      <c r="AF159" s="58"/>
-      <c r="AG159" s="58"/>
-      <c r="AH159" s="58"/>
-      <c r="AI159" s="58"/>
-      <c r="AJ159" s="58"/>
-      <c r="AK159" s="58"/>
       <c r="AL159" s="6"/>
     </row>
     <row r="160" spans="1:38" x14ac:dyDescent="0.25">
@@ -10311,37 +9982,6 @@
       <c r="F160" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="G160" s="58"/>
-      <c r="H160" s="58"/>
-      <c r="I160" s="58"/>
-      <c r="J160" s="58"/>
-      <c r="K160" s="58"/>
-      <c r="L160" s="58"/>
-      <c r="M160" s="58"/>
-      <c r="N160" s="58"/>
-      <c r="O160" s="58"/>
-      <c r="P160" s="58"/>
-      <c r="Q160" s="58"/>
-      <c r="R160" s="58"/>
-      <c r="S160" s="58"/>
-      <c r="T160" s="58"/>
-      <c r="U160" s="58"/>
-      <c r="V160" s="58"/>
-      <c r="W160" s="58"/>
-      <c r="X160" s="58"/>
-      <c r="Y160" s="58"/>
-      <c r="Z160" s="58"/>
-      <c r="AA160" s="58"/>
-      <c r="AB160" s="58"/>
-      <c r="AC160" s="58"/>
-      <c r="AD160" s="58"/>
-      <c r="AE160" s="58"/>
-      <c r="AF160" s="58"/>
-      <c r="AG160" s="58"/>
-      <c r="AH160" s="58"/>
-      <c r="AI160" s="58"/>
-      <c r="AJ160" s="58"/>
-      <c r="AK160" s="58"/>
       <c r="AL160" s="6"/>
     </row>
     <row r="161" spans="1:38" x14ac:dyDescent="0.25">
@@ -10361,37 +10001,6 @@
       <c r="F161" s="10">
         <v>3</v>
       </c>
-      <c r="G161" s="58"/>
-      <c r="H161" s="58"/>
-      <c r="I161" s="58"/>
-      <c r="J161" s="58"/>
-      <c r="K161" s="58"/>
-      <c r="L161" s="58"/>
-      <c r="M161" s="58"/>
-      <c r="N161" s="58"/>
-      <c r="O161" s="58"/>
-      <c r="P161" s="58"/>
-      <c r="Q161" s="58"/>
-      <c r="R161" s="58"/>
-      <c r="S161" s="58"/>
-      <c r="T161" s="58"/>
-      <c r="U161" s="58"/>
-      <c r="V161" s="58"/>
-      <c r="W161" s="58"/>
-      <c r="X161" s="58"/>
-      <c r="Y161" s="58"/>
-      <c r="Z161" s="58"/>
-      <c r="AA161" s="58"/>
-      <c r="AB161" s="58"/>
-      <c r="AC161" s="58"/>
-      <c r="AD161" s="58"/>
-      <c r="AE161" s="58"/>
-      <c r="AF161" s="58"/>
-      <c r="AG161" s="58"/>
-      <c r="AH161" s="58"/>
-      <c r="AI161" s="58"/>
-      <c r="AJ161" s="58"/>
-      <c r="AK161" s="58"/>
       <c r="AL161" s="6"/>
     </row>
     <row r="162" spans="1:38" x14ac:dyDescent="0.25">
@@ -10411,37 +10020,6 @@
       <c r="F162" s="10">
         <v>3</v>
       </c>
-      <c r="G162" s="58"/>
-      <c r="H162" s="58"/>
-      <c r="I162" s="58"/>
-      <c r="J162" s="58"/>
-      <c r="K162" s="58"/>
-      <c r="L162" s="58"/>
-      <c r="M162" s="58"/>
-      <c r="N162" s="58"/>
-      <c r="O162" s="58"/>
-      <c r="P162" s="58"/>
-      <c r="Q162" s="58"/>
-      <c r="R162" s="58"/>
-      <c r="S162" s="58"/>
-      <c r="T162" s="58"/>
-      <c r="U162" s="58"/>
-      <c r="V162" s="58"/>
-      <c r="W162" s="58"/>
-      <c r="X162" s="58"/>
-      <c r="Y162" s="58"/>
-      <c r="Z162" s="58"/>
-      <c r="AA162" s="58"/>
-      <c r="AB162" s="58"/>
-      <c r="AC162" s="58"/>
-      <c r="AD162" s="58"/>
-      <c r="AE162" s="58"/>
-      <c r="AF162" s="58"/>
-      <c r="AG162" s="58"/>
-      <c r="AH162" s="58"/>
-      <c r="AI162" s="58"/>
-      <c r="AJ162" s="58"/>
-      <c r="AK162" s="58"/>
       <c r="AL162" s="6"/>
     </row>
     <row r="163" spans="1:38" x14ac:dyDescent="0.25">
@@ -10461,37 +10039,6 @@
       <c r="F163" s="10">
         <v>3</v>
       </c>
-      <c r="G163" s="58"/>
-      <c r="H163" s="58"/>
-      <c r="I163" s="58"/>
-      <c r="J163" s="58"/>
-      <c r="K163" s="58"/>
-      <c r="L163" s="58"/>
-      <c r="M163" s="58"/>
-      <c r="N163" s="58"/>
-      <c r="O163" s="58"/>
-      <c r="P163" s="58"/>
-      <c r="Q163" s="58"/>
-      <c r="R163" s="58"/>
-      <c r="S163" s="58"/>
-      <c r="T163" s="58"/>
-      <c r="U163" s="58"/>
-      <c r="V163" s="58"/>
-      <c r="W163" s="58"/>
-      <c r="X163" s="58"/>
-      <c r="Y163" s="58"/>
-      <c r="Z163" s="58"/>
-      <c r="AA163" s="58"/>
-      <c r="AB163" s="58"/>
-      <c r="AC163" s="58"/>
-      <c r="AD163" s="58"/>
-      <c r="AE163" s="58"/>
-      <c r="AF163" s="58"/>
-      <c r="AG163" s="58"/>
-      <c r="AH163" s="58"/>
-      <c r="AI163" s="58"/>
-      <c r="AJ163" s="58"/>
-      <c r="AK163" s="58"/>
       <c r="AL163" s="6"/>
     </row>
     <row r="164" spans="1:38" x14ac:dyDescent="0.25">
@@ -10511,37 +10058,6 @@
       <c r="F164" s="10">
         <v>3</v>
       </c>
-      <c r="G164" s="58"/>
-      <c r="H164" s="58"/>
-      <c r="I164" s="58"/>
-      <c r="J164" s="58"/>
-      <c r="K164" s="58"/>
-      <c r="L164" s="58"/>
-      <c r="M164" s="58"/>
-      <c r="N164" s="58"/>
-      <c r="O164" s="58"/>
-      <c r="P164" s="58"/>
-      <c r="Q164" s="58"/>
-      <c r="R164" s="58"/>
-      <c r="S164" s="58"/>
-      <c r="T164" s="58"/>
-      <c r="U164" s="58"/>
-      <c r="V164" s="58"/>
-      <c r="W164" s="58"/>
-      <c r="X164" s="58"/>
-      <c r="Y164" s="58"/>
-      <c r="Z164" s="58"/>
-      <c r="AA164" s="58"/>
-      <c r="AB164" s="58"/>
-      <c r="AC164" s="58"/>
-      <c r="AD164" s="58"/>
-      <c r="AE164" s="58"/>
-      <c r="AF164" s="58"/>
-      <c r="AG164" s="58"/>
-      <c r="AH164" s="58"/>
-      <c r="AI164" s="58"/>
-      <c r="AJ164" s="58"/>
-      <c r="AK164" s="58"/>
       <c r="AL164" s="6"/>
     </row>
     <row r="165" spans="1:38" x14ac:dyDescent="0.25">
@@ -10561,37 +10077,6 @@
       <c r="F165" s="10">
         <v>3</v>
       </c>
-      <c r="G165" s="58"/>
-      <c r="H165" s="58"/>
-      <c r="I165" s="58"/>
-      <c r="J165" s="58"/>
-      <c r="K165" s="58"/>
-      <c r="L165" s="58"/>
-      <c r="M165" s="58"/>
-      <c r="N165" s="58"/>
-      <c r="O165" s="58"/>
-      <c r="P165" s="58"/>
-      <c r="Q165" s="58"/>
-      <c r="R165" s="58"/>
-      <c r="S165" s="58"/>
-      <c r="T165" s="58"/>
-      <c r="U165" s="58"/>
-      <c r="V165" s="58"/>
-      <c r="W165" s="58"/>
-      <c r="X165" s="58"/>
-      <c r="Y165" s="58"/>
-      <c r="Z165" s="58"/>
-      <c r="AA165" s="58"/>
-      <c r="AB165" s="58"/>
-      <c r="AC165" s="58"/>
-      <c r="AD165" s="58"/>
-      <c r="AE165" s="58"/>
-      <c r="AF165" s="58"/>
-      <c r="AG165" s="58"/>
-      <c r="AH165" s="58"/>
-      <c r="AI165" s="58"/>
-      <c r="AJ165" s="58"/>
-      <c r="AK165" s="58"/>
       <c r="AL165" s="6"/>
     </row>
     <row r="166" spans="1:38" x14ac:dyDescent="0.25">
@@ -10611,37 +10096,6 @@
       <c r="F166" s="10">
         <v>3</v>
       </c>
-      <c r="G166" s="58"/>
-      <c r="H166" s="58"/>
-      <c r="I166" s="58"/>
-      <c r="J166" s="58"/>
-      <c r="K166" s="58"/>
-      <c r="L166" s="58"/>
-      <c r="M166" s="58"/>
-      <c r="N166" s="58"/>
-      <c r="O166" s="58"/>
-      <c r="P166" s="58"/>
-      <c r="Q166" s="58"/>
-      <c r="R166" s="58"/>
-      <c r="S166" s="58"/>
-      <c r="T166" s="58"/>
-      <c r="U166" s="58"/>
-      <c r="V166" s="58"/>
-      <c r="W166" s="58"/>
-      <c r="X166" s="58"/>
-      <c r="Y166" s="58"/>
-      <c r="Z166" s="58"/>
-      <c r="AA166" s="58"/>
-      <c r="AB166" s="58"/>
-      <c r="AC166" s="58"/>
-      <c r="AD166" s="58"/>
-      <c r="AE166" s="58"/>
-      <c r="AF166" s="58"/>
-      <c r="AG166" s="58"/>
-      <c r="AH166" s="58"/>
-      <c r="AI166" s="58"/>
-      <c r="AJ166" s="58"/>
-      <c r="AK166" s="58"/>
       <c r="AL166" s="6"/>
     </row>
     <row r="167" spans="1:38" x14ac:dyDescent="0.25">
@@ -10661,37 +10115,6 @@
       <c r="F167" s="10">
         <v>2</v>
       </c>
-      <c r="G167" s="58"/>
-      <c r="H167" s="58"/>
-      <c r="I167" s="58"/>
-      <c r="J167" s="58"/>
-      <c r="K167" s="58"/>
-      <c r="L167" s="58"/>
-      <c r="M167" s="58"/>
-      <c r="N167" s="58"/>
-      <c r="O167" s="58"/>
-      <c r="P167" s="58"/>
-      <c r="Q167" s="58"/>
-      <c r="R167" s="58"/>
-      <c r="S167" s="58"/>
-      <c r="T167" s="58"/>
-      <c r="U167" s="58"/>
-      <c r="V167" s="58"/>
-      <c r="W167" s="58"/>
-      <c r="X167" s="58"/>
-      <c r="Y167" s="58"/>
-      <c r="Z167" s="58"/>
-      <c r="AA167" s="58"/>
-      <c r="AB167" s="58"/>
-      <c r="AC167" s="58"/>
-      <c r="AD167" s="58"/>
-      <c r="AE167" s="58"/>
-      <c r="AF167" s="58"/>
-      <c r="AG167" s="58"/>
-      <c r="AH167" s="58"/>
-      <c r="AI167" s="58"/>
-      <c r="AJ167" s="58"/>
-      <c r="AK167" s="58"/>
       <c r="AL167" s="6"/>
     </row>
     <row r="168" spans="1:38" x14ac:dyDescent="0.25">
@@ -10711,37 +10134,6 @@
       <c r="F168" s="10">
         <v>2</v>
       </c>
-      <c r="G168" s="58"/>
-      <c r="H168" s="58"/>
-      <c r="I168" s="58"/>
-      <c r="J168" s="58"/>
-      <c r="K168" s="58"/>
-      <c r="L168" s="58"/>
-      <c r="M168" s="58"/>
-      <c r="N168" s="58"/>
-      <c r="O168" s="58"/>
-      <c r="P168" s="58"/>
-      <c r="Q168" s="58"/>
-      <c r="R168" s="58"/>
-      <c r="S168" s="58"/>
-      <c r="T168" s="58"/>
-      <c r="U168" s="58"/>
-      <c r="V168" s="58"/>
-      <c r="W168" s="58"/>
-      <c r="X168" s="58"/>
-      <c r="Y168" s="58"/>
-      <c r="Z168" s="58"/>
-      <c r="AA168" s="58"/>
-      <c r="AB168" s="58"/>
-      <c r="AC168" s="58"/>
-      <c r="AD168" s="58"/>
-      <c r="AE168" s="58"/>
-      <c r="AF168" s="58"/>
-      <c r="AG168" s="58"/>
-      <c r="AH168" s="58"/>
-      <c r="AI168" s="58"/>
-      <c r="AJ168" s="58"/>
-      <c r="AK168" s="58"/>
       <c r="AL168" s="6"/>
     </row>
     <row r="169" spans="1:38" x14ac:dyDescent="0.25">
@@ -10761,37 +10153,6 @@
       <c r="F169" s="10">
         <v>2</v>
       </c>
-      <c r="G169" s="58"/>
-      <c r="H169" s="58"/>
-      <c r="I169" s="58"/>
-      <c r="J169" s="58"/>
-      <c r="K169" s="58"/>
-      <c r="L169" s="58"/>
-      <c r="M169" s="58"/>
-      <c r="N169" s="58"/>
-      <c r="O169" s="58"/>
-      <c r="P169" s="58"/>
-      <c r="Q169" s="58"/>
-      <c r="R169" s="58"/>
-      <c r="S169" s="58"/>
-      <c r="T169" s="58"/>
-      <c r="U169" s="58"/>
-      <c r="V169" s="58"/>
-      <c r="W169" s="58"/>
-      <c r="X169" s="58"/>
-      <c r="Y169" s="58"/>
-      <c r="Z169" s="58"/>
-      <c r="AA169" s="58"/>
-      <c r="AB169" s="58"/>
-      <c r="AC169" s="58"/>
-      <c r="AD169" s="58"/>
-      <c r="AE169" s="58"/>
-      <c r="AF169" s="58"/>
-      <c r="AG169" s="58"/>
-      <c r="AH169" s="58"/>
-      <c r="AI169" s="58"/>
-      <c r="AJ169" s="58"/>
-      <c r="AK169" s="58"/>
       <c r="AL169" s="6"/>
     </row>
     <row r="170" spans="1:38" x14ac:dyDescent="0.25">
@@ -10811,37 +10172,6 @@
       <c r="F170" s="10">
         <v>2</v>
       </c>
-      <c r="G170" s="58"/>
-      <c r="H170" s="58"/>
-      <c r="I170" s="58"/>
-      <c r="J170" s="58"/>
-      <c r="K170" s="58"/>
-      <c r="L170" s="58"/>
-      <c r="M170" s="58"/>
-      <c r="N170" s="58"/>
-      <c r="O170" s="58"/>
-      <c r="P170" s="58"/>
-      <c r="Q170" s="58"/>
-      <c r="R170" s="58"/>
-      <c r="S170" s="58"/>
-      <c r="T170" s="58"/>
-      <c r="U170" s="58"/>
-      <c r="V170" s="58"/>
-      <c r="W170" s="58"/>
-      <c r="X170" s="58"/>
-      <c r="Y170" s="58"/>
-      <c r="Z170" s="58"/>
-      <c r="AA170" s="58"/>
-      <c r="AB170" s="58"/>
-      <c r="AC170" s="58"/>
-      <c r="AD170" s="58"/>
-      <c r="AE170" s="58"/>
-      <c r="AF170" s="58"/>
-      <c r="AG170" s="58"/>
-      <c r="AH170" s="58"/>
-      <c r="AI170" s="58"/>
-      <c r="AJ170" s="58"/>
-      <c r="AK170" s="58"/>
       <c r="AL170" s="6"/>
     </row>
     <row r="171" spans="1:38" x14ac:dyDescent="0.25">
@@ -10861,37 +10191,6 @@
       <c r="F171" s="10">
         <v>1</v>
       </c>
-      <c r="G171" s="58"/>
-      <c r="H171" s="58"/>
-      <c r="I171" s="58"/>
-      <c r="J171" s="58"/>
-      <c r="K171" s="58"/>
-      <c r="L171" s="58"/>
-      <c r="M171" s="58"/>
-      <c r="N171" s="58"/>
-      <c r="O171" s="58"/>
-      <c r="P171" s="58"/>
-      <c r="Q171" s="58"/>
-      <c r="R171" s="58"/>
-      <c r="S171" s="58"/>
-      <c r="T171" s="58"/>
-      <c r="U171" s="58"/>
-      <c r="V171" s="58"/>
-      <c r="W171" s="58"/>
-      <c r="X171" s="58"/>
-      <c r="Y171" s="58"/>
-      <c r="Z171" s="58"/>
-      <c r="AA171" s="58"/>
-      <c r="AB171" s="58"/>
-      <c r="AC171" s="58"/>
-      <c r="AD171" s="58"/>
-      <c r="AE171" s="58"/>
-      <c r="AF171" s="58"/>
-      <c r="AG171" s="58"/>
-      <c r="AH171" s="58"/>
-      <c r="AI171" s="58"/>
-      <c r="AJ171" s="58"/>
-      <c r="AK171" s="58"/>
       <c r="AL171" s="6"/>
     </row>
     <row r="172" spans="1:38" x14ac:dyDescent="0.25">
@@ -10911,37 +10210,6 @@
       <c r="F172" s="10">
         <v>1</v>
       </c>
-      <c r="G172" s="58"/>
-      <c r="H172" s="58"/>
-      <c r="I172" s="58"/>
-      <c r="J172" s="58"/>
-      <c r="K172" s="58"/>
-      <c r="L172" s="58"/>
-      <c r="M172" s="58"/>
-      <c r="N172" s="58"/>
-      <c r="O172" s="58"/>
-      <c r="P172" s="58"/>
-      <c r="Q172" s="58"/>
-      <c r="R172" s="58"/>
-      <c r="S172" s="58"/>
-      <c r="T172" s="58"/>
-      <c r="U172" s="58"/>
-      <c r="V172" s="58"/>
-      <c r="W172" s="58"/>
-      <c r="X172" s="58"/>
-      <c r="Y172" s="58"/>
-      <c r="Z172" s="58"/>
-      <c r="AA172" s="58"/>
-      <c r="AB172" s="58"/>
-      <c r="AC172" s="58"/>
-      <c r="AD172" s="58"/>
-      <c r="AE172" s="58"/>
-      <c r="AF172" s="58"/>
-      <c r="AG172" s="58"/>
-      <c r="AH172" s="58"/>
-      <c r="AI172" s="58"/>
-      <c r="AJ172" s="58"/>
-      <c r="AK172" s="58"/>
       <c r="AL172" s="6"/>
     </row>
     <row r="173" spans="1:38" x14ac:dyDescent="0.25">
@@ -10961,37 +10229,6 @@
       <c r="F173" s="10">
         <v>1</v>
       </c>
-      <c r="G173" s="58"/>
-      <c r="H173" s="58"/>
-      <c r="I173" s="58"/>
-      <c r="J173" s="58"/>
-      <c r="K173" s="58"/>
-      <c r="L173" s="58"/>
-      <c r="M173" s="58"/>
-      <c r="N173" s="58"/>
-      <c r="O173" s="58"/>
-      <c r="P173" s="58"/>
-      <c r="Q173" s="58"/>
-      <c r="R173" s="58"/>
-      <c r="S173" s="58"/>
-      <c r="T173" s="58"/>
-      <c r="U173" s="58"/>
-      <c r="V173" s="58"/>
-      <c r="W173" s="58"/>
-      <c r="X173" s="58"/>
-      <c r="Y173" s="58"/>
-      <c r="Z173" s="58"/>
-      <c r="AA173" s="58"/>
-      <c r="AB173" s="58"/>
-      <c r="AC173" s="58"/>
-      <c r="AD173" s="58"/>
-      <c r="AE173" s="58"/>
-      <c r="AF173" s="58"/>
-      <c r="AG173" s="58"/>
-      <c r="AH173" s="58"/>
-      <c r="AI173" s="58"/>
-      <c r="AJ173" s="58"/>
-      <c r="AK173" s="58"/>
       <c r="AL173" s="6"/>
     </row>
     <row r="174" spans="1:38" x14ac:dyDescent="0.25">
@@ -11011,37 +10248,6 @@
       <c r="F174" s="10">
         <v>1</v>
       </c>
-      <c r="G174" s="58"/>
-      <c r="H174" s="58"/>
-      <c r="I174" s="58"/>
-      <c r="J174" s="58"/>
-      <c r="K174" s="58"/>
-      <c r="L174" s="58"/>
-      <c r="M174" s="58"/>
-      <c r="N174" s="58"/>
-      <c r="O174" s="58"/>
-      <c r="P174" s="58"/>
-      <c r="Q174" s="58"/>
-      <c r="R174" s="58"/>
-      <c r="S174" s="58"/>
-      <c r="T174" s="58"/>
-      <c r="U174" s="58"/>
-      <c r="V174" s="58"/>
-      <c r="W174" s="58"/>
-      <c r="X174" s="58"/>
-      <c r="Y174" s="58"/>
-      <c r="Z174" s="58"/>
-      <c r="AA174" s="58"/>
-      <c r="AB174" s="58"/>
-      <c r="AC174" s="58"/>
-      <c r="AD174" s="58"/>
-      <c r="AE174" s="58"/>
-      <c r="AF174" s="58"/>
-      <c r="AG174" s="58"/>
-      <c r="AH174" s="58"/>
-      <c r="AI174" s="58"/>
-      <c r="AJ174" s="58"/>
-      <c r="AK174" s="58"/>
       <c r="AL174" s="6"/>
     </row>
     <row r="175" spans="1:38" x14ac:dyDescent="0.25">
@@ -11061,37 +10267,6 @@
       <c r="F175" s="10">
         <v>0</v>
       </c>
-      <c r="G175" s="58"/>
-      <c r="H175" s="58"/>
-      <c r="I175" s="58"/>
-      <c r="J175" s="58"/>
-      <c r="K175" s="58"/>
-      <c r="L175" s="58"/>
-      <c r="M175" s="58"/>
-      <c r="N175" s="58"/>
-      <c r="O175" s="58"/>
-      <c r="P175" s="58"/>
-      <c r="Q175" s="58"/>
-      <c r="R175" s="58"/>
-      <c r="S175" s="58"/>
-      <c r="T175" s="58"/>
-      <c r="U175" s="58"/>
-      <c r="V175" s="58"/>
-      <c r="W175" s="58"/>
-      <c r="X175" s="58"/>
-      <c r="Y175" s="58"/>
-      <c r="Z175" s="58"/>
-      <c r="AA175" s="58"/>
-      <c r="AB175" s="58"/>
-      <c r="AC175" s="58"/>
-      <c r="AD175" s="58"/>
-      <c r="AE175" s="58"/>
-      <c r="AF175" s="58"/>
-      <c r="AG175" s="58"/>
-      <c r="AH175" s="58"/>
-      <c r="AI175" s="58"/>
-      <c r="AJ175" s="58"/>
-      <c r="AK175" s="58"/>
       <c r="AL175" s="6"/>
     </row>
     <row r="176" spans="1:38" x14ac:dyDescent="0.25">
@@ -11111,37 +10286,6 @@
       <c r="F176" s="10">
         <v>0</v>
       </c>
-      <c r="G176" s="58"/>
-      <c r="H176" s="58"/>
-      <c r="I176" s="58"/>
-      <c r="J176" s="58"/>
-      <c r="K176" s="58"/>
-      <c r="L176" s="58"/>
-      <c r="M176" s="58"/>
-      <c r="N176" s="58"/>
-      <c r="O176" s="58"/>
-      <c r="P176" s="58"/>
-      <c r="Q176" s="58"/>
-      <c r="R176" s="58"/>
-      <c r="S176" s="58"/>
-      <c r="T176" s="58"/>
-      <c r="U176" s="58"/>
-      <c r="V176" s="58"/>
-      <c r="W176" s="58"/>
-      <c r="X176" s="58"/>
-      <c r="Y176" s="58"/>
-      <c r="Z176" s="58"/>
-      <c r="AA176" s="58"/>
-      <c r="AB176" s="58"/>
-      <c r="AC176" s="58"/>
-      <c r="AD176" s="58"/>
-      <c r="AE176" s="58"/>
-      <c r="AF176" s="58"/>
-      <c r="AG176" s="58"/>
-      <c r="AH176" s="58"/>
-      <c r="AI176" s="58"/>
-      <c r="AJ176" s="58"/>
-      <c r="AK176" s="58"/>
       <c r="AL176" s="6"/>
     </row>
     <row r="177" spans="1:38" x14ac:dyDescent="0.25">
@@ -11161,37 +10305,6 @@
       <c r="F177" s="10">
         <v>0</v>
       </c>
-      <c r="G177" s="58"/>
-      <c r="H177" s="58"/>
-      <c r="I177" s="58"/>
-      <c r="J177" s="58"/>
-      <c r="K177" s="58"/>
-      <c r="L177" s="58"/>
-      <c r="M177" s="58"/>
-      <c r="N177" s="58"/>
-      <c r="O177" s="58"/>
-      <c r="P177" s="58"/>
-      <c r="Q177" s="58"/>
-      <c r="R177" s="58"/>
-      <c r="S177" s="58"/>
-      <c r="T177" s="58"/>
-      <c r="U177" s="58"/>
-      <c r="V177" s="58"/>
-      <c r="W177" s="58"/>
-      <c r="X177" s="58"/>
-      <c r="Y177" s="58"/>
-      <c r="Z177" s="58"/>
-      <c r="AA177" s="58"/>
-      <c r="AB177" s="58"/>
-      <c r="AC177" s="58"/>
-      <c r="AD177" s="58"/>
-      <c r="AE177" s="58"/>
-      <c r="AF177" s="58"/>
-      <c r="AG177" s="58"/>
-      <c r="AH177" s="58"/>
-      <c r="AI177" s="58"/>
-      <c r="AJ177" s="58"/>
-      <c r="AK177" s="58"/>
       <c r="AL177" s="6"/>
     </row>
     <row r="178" spans="1:38" x14ac:dyDescent="0.25">
@@ -11211,37 +10324,6 @@
       <c r="F178" s="10">
         <v>0</v>
       </c>
-      <c r="G178" s="58"/>
-      <c r="H178" s="58"/>
-      <c r="I178" s="58"/>
-      <c r="J178" s="58"/>
-      <c r="K178" s="58"/>
-      <c r="L178" s="58"/>
-      <c r="M178" s="58"/>
-      <c r="N178" s="58"/>
-      <c r="O178" s="58"/>
-      <c r="P178" s="58"/>
-      <c r="Q178" s="58"/>
-      <c r="R178" s="58"/>
-      <c r="S178" s="58"/>
-      <c r="T178" s="58"/>
-      <c r="U178" s="58"/>
-      <c r="V178" s="58"/>
-      <c r="W178" s="58"/>
-      <c r="X178" s="58"/>
-      <c r="Y178" s="58"/>
-      <c r="Z178" s="58"/>
-      <c r="AA178" s="58"/>
-      <c r="AB178" s="58"/>
-      <c r="AC178" s="58"/>
-      <c r="AD178" s="58"/>
-      <c r="AE178" s="58"/>
-      <c r="AF178" s="58"/>
-      <c r="AG178" s="58"/>
-      <c r="AH178" s="58"/>
-      <c r="AI178" s="58"/>
-      <c r="AJ178" s="58"/>
-      <c r="AK178" s="58"/>
       <c r="AL178" s="6"/>
     </row>
     <row r="179" spans="1:38" x14ac:dyDescent="0.25">
@@ -11261,37 +10343,6 @@
       <c r="F179" s="10">
         <v>0</v>
       </c>
-      <c r="G179" s="58"/>
-      <c r="H179" s="58"/>
-      <c r="I179" s="58"/>
-      <c r="J179" s="58"/>
-      <c r="K179" s="58"/>
-      <c r="L179" s="58"/>
-      <c r="M179" s="58"/>
-      <c r="N179" s="58"/>
-      <c r="O179" s="58"/>
-      <c r="P179" s="58"/>
-      <c r="Q179" s="58"/>
-      <c r="R179" s="58"/>
-      <c r="S179" s="58"/>
-      <c r="T179" s="58"/>
-      <c r="U179" s="58"/>
-      <c r="V179" s="58"/>
-      <c r="W179" s="58"/>
-      <c r="X179" s="58"/>
-      <c r="Y179" s="58"/>
-      <c r="Z179" s="58"/>
-      <c r="AA179" s="58"/>
-      <c r="AB179" s="58"/>
-      <c r="AC179" s="58"/>
-      <c r="AD179" s="58"/>
-      <c r="AE179" s="58"/>
-      <c r="AF179" s="58"/>
-      <c r="AG179" s="58"/>
-      <c r="AH179" s="58"/>
-      <c r="AI179" s="58"/>
-      <c r="AJ179" s="58"/>
-      <c r="AK179" s="58"/>
       <c r="AL179" s="6"/>
     </row>
     <row r="180" spans="1:38" x14ac:dyDescent="0.25">
@@ -11311,37 +10362,6 @@
       <c r="F180" s="10">
         <v>0</v>
       </c>
-      <c r="G180" s="58"/>
-      <c r="H180" s="58"/>
-      <c r="I180" s="58"/>
-      <c r="J180" s="58"/>
-      <c r="K180" s="58"/>
-      <c r="L180" s="58"/>
-      <c r="M180" s="58"/>
-      <c r="N180" s="58"/>
-      <c r="O180" s="58"/>
-      <c r="P180" s="58"/>
-      <c r="Q180" s="58"/>
-      <c r="R180" s="58"/>
-      <c r="S180" s="58"/>
-      <c r="T180" s="58"/>
-      <c r="U180" s="58"/>
-      <c r="V180" s="58"/>
-      <c r="W180" s="58"/>
-      <c r="X180" s="58"/>
-      <c r="Y180" s="58"/>
-      <c r="Z180" s="58"/>
-      <c r="AA180" s="58"/>
-      <c r="AB180" s="58"/>
-      <c r="AC180" s="58"/>
-      <c r="AD180" s="58"/>
-      <c r="AE180" s="58"/>
-      <c r="AF180" s="58"/>
-      <c r="AG180" s="58"/>
-      <c r="AH180" s="58"/>
-      <c r="AI180" s="58"/>
-      <c r="AJ180" s="58"/>
-      <c r="AK180" s="58"/>
       <c r="AL180" s="6"/>
     </row>
     <row r="181" spans="1:38" x14ac:dyDescent="0.25">
@@ -11361,37 +10381,6 @@
       <c r="F181" s="10">
         <v>0</v>
       </c>
-      <c r="G181" s="58"/>
-      <c r="H181" s="58"/>
-      <c r="I181" s="58"/>
-      <c r="J181" s="58"/>
-      <c r="K181" s="58"/>
-      <c r="L181" s="58"/>
-      <c r="M181" s="58"/>
-      <c r="N181" s="58"/>
-      <c r="O181" s="58"/>
-      <c r="P181" s="58"/>
-      <c r="Q181" s="58"/>
-      <c r="R181" s="58"/>
-      <c r="S181" s="58"/>
-      <c r="T181" s="58"/>
-      <c r="U181" s="58"/>
-      <c r="V181" s="58"/>
-      <c r="W181" s="58"/>
-      <c r="X181" s="58"/>
-      <c r="Y181" s="58"/>
-      <c r="Z181" s="58"/>
-      <c r="AA181" s="58"/>
-      <c r="AB181" s="58"/>
-      <c r="AC181" s="58"/>
-      <c r="AD181" s="58"/>
-      <c r="AE181" s="58"/>
-      <c r="AF181" s="58"/>
-      <c r="AG181" s="58"/>
-      <c r="AH181" s="58"/>
-      <c r="AI181" s="58"/>
-      <c r="AJ181" s="58"/>
-      <c r="AK181" s="58"/>
       <c r="AL181" s="6"/>
     </row>
     <row r="182" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11439,11 +10428,24 @@
     <sortCondition descending="1" ref="K187:K207"/>
   </sortState>
   <mergeCells count="39">
-    <mergeCell ref="AD134:AF134"/>
-    <mergeCell ref="A133:G133"/>
-    <mergeCell ref="N134:P134"/>
-    <mergeCell ref="F134:H134"/>
-    <mergeCell ref="V134:X134"/>
+    <mergeCell ref="S86:S87"/>
+    <mergeCell ref="T86:U87"/>
+    <mergeCell ref="S74:S75"/>
+    <mergeCell ref="T74:T75"/>
+    <mergeCell ref="U74:U75"/>
+    <mergeCell ref="S78:S79"/>
+    <mergeCell ref="T78:U79"/>
+    <mergeCell ref="AH67:AH68"/>
+    <mergeCell ref="T82:W83"/>
+    <mergeCell ref="T84:W84"/>
+    <mergeCell ref="T80:U80"/>
+    <mergeCell ref="S82:S83"/>
+    <mergeCell ref="AG67:AG68"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="R4:T4"/>
     <mergeCell ref="F101:L101"/>
     <mergeCell ref="V4:X4"/>
     <mergeCell ref="F2:G2"/>
@@ -11460,24 +10462,11 @@
     <mergeCell ref="AB30:AC30"/>
     <mergeCell ref="AA38:AD38"/>
     <mergeCell ref="F72:L72"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="AH67:AH68"/>
-    <mergeCell ref="T82:W83"/>
-    <mergeCell ref="T84:W84"/>
-    <mergeCell ref="T80:U80"/>
-    <mergeCell ref="S82:S83"/>
-    <mergeCell ref="AG67:AG68"/>
-    <mergeCell ref="S86:S87"/>
-    <mergeCell ref="T86:U87"/>
-    <mergeCell ref="S74:S75"/>
-    <mergeCell ref="T74:T75"/>
-    <mergeCell ref="U74:U75"/>
-    <mergeCell ref="S78:S79"/>
-    <mergeCell ref="T78:U79"/>
+    <mergeCell ref="AD134:AF134"/>
+    <mergeCell ref="A133:G133"/>
+    <mergeCell ref="N134:P134"/>
+    <mergeCell ref="F134:H134"/>
+    <mergeCell ref="V134:X134"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tarea1/doc/ExcelEmpleadoPunto1/Tarea1Estadistica320232.xlsx
+++ b/Tarea1/doc/ExcelEmpleadoPunto1/Tarea1Estadistica320232.xlsx
@@ -5,20 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Estadistica3_2023-2\Tarea1\doc\ExcelEmpleadoPunto1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Miguel Rios\Desktop\Tarea1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B34BF8-2DE5-4875-AD1F-EE51725C729B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9236F5CE-7269-475A-BCE8-5918E25112D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6630" yWindow="3300" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respuestas" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Respuestas!$I$41:$I$61</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Respuestas!$G$41:$G$61</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Respuestas!$H$41:$H$61</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Respuestas!$G$41:$G$61</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Respuestas!$H$41:$H$61</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Respuestas!$I$41:$I$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="79">
   <si>
     <t>Set de datos</t>
   </si>
@@ -256,15 +256,6 @@
     <t>Distancia_centroide4_0</t>
   </si>
   <si>
-    <t>CentroideX1_it2</t>
-  </si>
-  <si>
-    <t>CentroideX2_it2</t>
-  </si>
-  <si>
-    <t>CentroideX3_it2</t>
-  </si>
-  <si>
     <t>ITERACION 2</t>
   </si>
   <si>
@@ -274,31 +265,19 @@
     <t>ITERACION 3</t>
   </si>
   <si>
-    <t>CentroideX1_it3</t>
-  </si>
-  <si>
-    <t>CentroideX2_it3</t>
-  </si>
-  <si>
-    <t>CentroideX3_i1t3</t>
-  </si>
-  <si>
-    <t>INICIALIZACION</t>
-  </si>
-  <si>
     <t>ITERACION 4</t>
   </si>
   <si>
-    <t>CentroideX1_it4</t>
+    <t>Nuevas etiquetas</t>
   </si>
   <si>
-    <t>CentroideX2_it4</t>
+    <t>ITERACION 5</t>
   </si>
   <si>
-    <t>CentroideX3_i1t4</t>
+    <t>Punto 1.6 Algoritmo Kmeans k=3</t>
   </si>
   <si>
-    <t>Punto 1.6 K-MEANS K=3 INTENTO Y DUDAS</t>
+    <t>Converge</t>
   </si>
 </sst>
 </file>
@@ -371,7 +350,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -702,11 +681,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -790,19 +784,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -842,6 +823,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -864,7 +859,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -929,7 +924,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -994,7 +989,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2690,7 +2685,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>882912</xdr:colOff>
+      <xdr:colOff>882911</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>34638</xdr:rowOff>
     </xdr:to>
@@ -2790,7 +2785,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>487843</xdr:colOff>
+      <xdr:colOff>487844</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>103911</xdr:rowOff>
     </xdr:to>
@@ -2840,7 +2835,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>818029</xdr:colOff>
+      <xdr:colOff>818028</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>132564</xdr:rowOff>
     </xdr:to>
@@ -2940,7 +2935,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1171581</xdr:colOff>
+      <xdr:colOff>1171582</xdr:colOff>
       <xdr:row>124</xdr:row>
       <xdr:rowOff>57764</xdr:rowOff>
     </xdr:to>
@@ -3475,16 +3470,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ182"/>
+  <dimension ref="A1:AQ344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D164" sqref="D164"/>
+    <sheetView tabSelected="1" topLeftCell="A300" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M338" sqref="M338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
@@ -3515,16 +3511,16 @@
   <sheetData>
     <row r="1" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="F2" s="46" t="s">
+      <c r="A2" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="F2" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="48"/>
+      <c r="G2" s="43"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -3557,41 +3553,41 @@
       <c r="AG3" s="6"/>
     </row>
     <row r="4" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
       <c r="F4" s="5"/>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="47"/>
-      <c r="J4" s="48"/>
-      <c r="M4" s="46" t="s">
+      <c r="I4" s="42"/>
+      <c r="J4" s="43"/>
+      <c r="M4" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="47"/>
-      <c r="O4" s="48"/>
-      <c r="R4" s="46" t="s">
+      <c r="N4" s="42"/>
+      <c r="O4" s="43"/>
+      <c r="R4" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="S4" s="47"/>
-      <c r="T4" s="48"/>
-      <c r="V4" s="46" t="s">
+      <c r="S4" s="42"/>
+      <c r="T4" s="43"/>
+      <c r="V4" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="W4" s="47"/>
-      <c r="X4" s="48"/>
-      <c r="Z4" s="46" t="s">
+      <c r="W4" s="42"/>
+      <c r="X4" s="43"/>
+      <c r="Z4" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="48"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="43"/>
       <c r="AG4" s="6"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
@@ -5046,10 +5042,10 @@
     </row>
     <row r="30" spans="2:33" x14ac:dyDescent="0.25">
       <c r="F30" s="5"/>
-      <c r="AB30" s="50" t="s">
+      <c r="AB30" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AC30" s="50"/>
+      <c r="AC30" s="45"/>
       <c r="AD30" s="10">
         <f>SUM(AD8:AD28)</f>
         <v>46.666666666666671</v>
@@ -5066,19 +5062,19 @@
     </row>
     <row r="31" spans="2:33" x14ac:dyDescent="0.25">
       <c r="F31" s="5"/>
-      <c r="AB31" s="49" t="s">
+      <c r="AB31" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AC31" s="49"/>
-      <c r="AD31" s="50">
+      <c r="AC31" s="44"/>
+      <c r="AD31" s="45">
         <f>AD30/AA6</f>
         <v>2.2222222222222223</v>
       </c>
-      <c r="AE31" s="50">
+      <c r="AE31" s="45">
         <f>AE30/AA6</f>
         <v>6.5306122448979576</v>
       </c>
-      <c r="AF31" s="50">
+      <c r="AF31" s="45">
         <f>AF30/AA6</f>
         <v>314.80725623582765</v>
       </c>
@@ -5086,28 +5082,28 @@
     </row>
     <row r="32" spans="2:33" x14ac:dyDescent="0.25">
       <c r="F32" s="5"/>
-      <c r="AB32" s="49"/>
-      <c r="AC32" s="49"/>
-      <c r="AD32" s="50"/>
-      <c r="AE32" s="50"/>
-      <c r="AF32" s="50"/>
+      <c r="AB32" s="44"/>
+      <c r="AC32" s="44"/>
+      <c r="AD32" s="45"/>
+      <c r="AE32" s="45"/>
+      <c r="AF32" s="45"/>
       <c r="AG32" s="6"/>
     </row>
     <row r="33" spans="6:43" x14ac:dyDescent="0.25">
       <c r="F33" s="5"/>
-      <c r="AB33" s="49" t="s">
+      <c r="AB33" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AC33" s="49"/>
-      <c r="AD33" s="50">
+      <c r="AC33" s="44"/>
+      <c r="AD33" s="45">
         <f>SQRT(AD31)</f>
         <v>1.4907119849998598</v>
       </c>
-      <c r="AE33" s="50">
+      <c r="AE33" s="45">
         <f>SQRT(AE31)</f>
         <v>2.5555062599997593</v>
       </c>
-      <c r="AF33" s="50">
+      <c r="AF33" s="45">
         <f>SQRT(AF31)</f>
         <v>17.742808578007814</v>
       </c>
@@ -5115,11 +5111,11 @@
     </row>
     <row r="34" spans="6:43" x14ac:dyDescent="0.25">
       <c r="F34" s="5"/>
-      <c r="AB34" s="49"/>
-      <c r="AC34" s="49"/>
-      <c r="AD34" s="50"/>
-      <c r="AE34" s="50"/>
-      <c r="AF34" s="50"/>
+      <c r="AB34" s="44"/>
+      <c r="AC34" s="44"/>
+      <c r="AD34" s="45"/>
+      <c r="AE34" s="45"/>
+      <c r="AF34" s="45"/>
       <c r="AG34" s="6"/>
     </row>
     <row r="35" spans="6:43" x14ac:dyDescent="0.25">
@@ -5158,10 +5154,10 @@
     </row>
     <row r="37" spans="6:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="6:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F38" s="46" t="s">
+      <c r="F38" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="G38" s="48"/>
+      <c r="G38" s="43"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -5180,12 +5176,12 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="4"/>
-      <c r="AA38" s="46" t="s">
+      <c r="AA38" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AB38" s="47"/>
-      <c r="AC38" s="47"/>
-      <c r="AD38" s="48"/>
+      <c r="AB38" s="42"/>
+      <c r="AC38" s="42"/>
+      <c r="AD38" s="43"/>
       <c r="AE38" s="3"/>
       <c r="AF38" s="3"/>
       <c r="AG38" s="3"/>
@@ -6064,10 +6060,10 @@
       </c>
       <c r="Y67" s="6"/>
       <c r="AA67" s="5"/>
-      <c r="AG67" s="57" t="s">
+      <c r="AG67" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="AH67" s="53">
+      <c r="AH67" s="48">
         <f>_xlfn.COVARIANCE.P(AB41:AB61,AC41:AC61)</f>
         <v>3.5714285714285716</v>
       </c>
@@ -6091,8 +6087,8 @@
       </c>
       <c r="Y68" s="6"/>
       <c r="AA68" s="5"/>
-      <c r="AG68" s="57"/>
-      <c r="AH68" s="54"/>
+      <c r="AG68" s="52"/>
+      <c r="AH68" s="49"/>
       <c r="AQ68" s="6"/>
     </row>
     <row r="69" spans="6:43" x14ac:dyDescent="0.25">
@@ -6167,15 +6163,15 @@
     </row>
     <row r="71" spans="6:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="72" spans="6:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F72" s="46" t="s">
+      <c r="F72" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="G72" s="47"/>
-      <c r="H72" s="47"/>
-      <c r="I72" s="47"/>
-      <c r="J72" s="47"/>
-      <c r="K72" s="47"/>
-      <c r="L72" s="48"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="42"/>
+      <c r="L72" s="43"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
@@ -6223,13 +6219,13 @@
       <c r="Q74" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="S74" s="57" t="s">
+      <c r="S74" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="T74" s="58" t="s">
+      <c r="T74" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="U74" s="58" t="s">
+      <c r="U74" s="53" t="s">
         <v>44</v>
       </c>
       <c r="Y74" s="6"/>
@@ -6262,9 +6258,9 @@
         <f>L75^2</f>
         <v>0.18367346938775531</v>
       </c>
-      <c r="S75" s="57"/>
-      <c r="T75" s="58"/>
-      <c r="U75" s="58"/>
+      <c r="S75" s="52"/>
+      <c r="T75" s="53"/>
+      <c r="U75" s="53"/>
       <c r="Y75" s="6"/>
     </row>
     <row r="76" spans="6:43" x14ac:dyDescent="0.25">
@@ -6363,13 +6359,13 @@
         <f t="shared" si="20"/>
         <v>0.32653061224489766</v>
       </c>
-      <c r="S78" s="57" t="s">
+      <c r="S78" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="T78" s="58" t="s">
+      <c r="T78" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="U78" s="58"/>
+      <c r="U78" s="53"/>
       <c r="Y78" s="6"/>
     </row>
     <row r="79" spans="6:43" x14ac:dyDescent="0.25">
@@ -6400,9 +6396,9 @@
         <f t="shared" si="20"/>
         <v>2.0408163265306132</v>
       </c>
-      <c r="S79" s="57"/>
-      <c r="T79" s="58"/>
-      <c r="U79" s="58"/>
+      <c r="S79" s="52"/>
+      <c r="T79" s="53"/>
+      <c r="U79" s="53"/>
       <c r="Y79" s="6"/>
     </row>
     <row r="80" spans="6:43" x14ac:dyDescent="0.25">
@@ -6433,11 +6429,11 @@
         <f t="shared" si="20"/>
         <v>2.4693877551020402</v>
       </c>
-      <c r="T80" s="50">
+      <c r="T80" s="45">
         <f>T76*U76</f>
         <v>80.000000000000014</v>
       </c>
-      <c r="U80" s="50"/>
+      <c r="U80" s="45"/>
       <c r="Y80" s="6"/>
     </row>
     <row r="81" spans="6:25" x14ac:dyDescent="0.25">
@@ -6498,15 +6494,15 @@
         <f t="shared" si="20"/>
         <v>11.755102040816329</v>
       </c>
-      <c r="S82" s="57" t="s">
+      <c r="S82" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="T82" s="55" t="s">
+      <c r="T82" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="U82" s="55"/>
-      <c r="V82" s="55"/>
-      <c r="W82" s="55"/>
+      <c r="U82" s="50"/>
+      <c r="V82" s="50"/>
+      <c r="W82" s="50"/>
       <c r="Y82" s="6"/>
     </row>
     <row r="83" spans="6:25" x14ac:dyDescent="0.25">
@@ -6537,11 +6533,11 @@
         <f t="shared" si="20"/>
         <v>2.0408163265306132</v>
       </c>
-      <c r="S83" s="57"/>
-      <c r="T83" s="55"/>
-      <c r="U83" s="55"/>
-      <c r="V83" s="55"/>
-      <c r="W83" s="55"/>
+      <c r="S83" s="52"/>
+      <c r="T83" s="50"/>
+      <c r="U83" s="50"/>
+      <c r="V83" s="50"/>
+      <c r="W83" s="50"/>
       <c r="Y83" s="6"/>
     </row>
     <row r="84" spans="6:25" x14ac:dyDescent="0.25">
@@ -6572,13 +6568,13 @@
         <f t="shared" si="20"/>
         <v>19.612244897959187</v>
       </c>
-      <c r="T84" s="56">
+      <c r="T84" s="51">
         <f>M97/T80</f>
         <v>0.93749999999999978</v>
       </c>
-      <c r="U84" s="56"/>
-      <c r="V84" s="56"/>
-      <c r="W84" s="56"/>
+      <c r="U84" s="51"/>
+      <c r="V84" s="51"/>
+      <c r="W84" s="51"/>
       <c r="Y84" s="6"/>
     </row>
     <row r="85" spans="6:25" x14ac:dyDescent="0.25">
@@ -6639,14 +6635,14 @@
         <f t="shared" si="20"/>
         <v>5.8979591836734704</v>
       </c>
-      <c r="S86" s="57" t="s">
+      <c r="S86" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="T86" s="56">
+      <c r="T86" s="51">
         <f>CORREL(G75:G95,H75:H95)</f>
         <v>0.9375</v>
       </c>
-      <c r="U86" s="56"/>
+      <c r="U86" s="51"/>
       <c r="Y86" s="6"/>
     </row>
     <row r="87" spans="6:25" x14ac:dyDescent="0.25">
@@ -6677,9 +6673,9 @@
         <f t="shared" si="20"/>
         <v>2.0408163265306132</v>
       </c>
-      <c r="S87" s="57"/>
-      <c r="T87" s="56"/>
-      <c r="U87" s="56"/>
+      <c r="S87" s="52"/>
+      <c r="T87" s="51"/>
+      <c r="U87" s="51"/>
       <c r="Y87" s="6"/>
     </row>
     <row r="88" spans="6:25" x14ac:dyDescent="0.25">
@@ -6986,15 +6982,15 @@
     </row>
     <row r="100" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="101" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F101" s="46" t="s">
+      <c r="F101" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="G101" s="47"/>
-      <c r="H101" s="47"/>
-      <c r="I101" s="47"/>
-      <c r="J101" s="47"/>
-      <c r="K101" s="47"/>
-      <c r="L101" s="48"/>
+      <c r="G101" s="42"/>
+      <c r="H101" s="42"/>
+      <c r="I101" s="42"/>
+      <c r="J101" s="42"/>
+      <c r="K101" s="42"/>
+      <c r="L101" s="43"/>
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
       <c r="O101" s="4"/>
@@ -7635,2799 +7631,6117 @@
       <c r="N127" s="8"/>
       <c r="O127" s="9"/>
     </row>
-    <row r="132" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="133" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="B133" s="47"/>
-      <c r="C133" s="47"/>
-      <c r="D133" s="47"/>
-      <c r="E133" s="47"/>
-      <c r="F133" s="47"/>
-      <c r="G133" s="48"/>
-      <c r="H133" s="3"/>
-      <c r="I133" s="3"/>
-      <c r="J133" s="3"/>
-      <c r="K133" s="3"/>
-      <c r="L133" s="3"/>
-      <c r="M133" s="3"/>
-      <c r="N133" s="3"/>
-      <c r="O133" s="3"/>
-      <c r="P133" s="3"/>
-      <c r="Q133" s="3"/>
-      <c r="R133" s="3"/>
-      <c r="S133" s="3"/>
-      <c r="T133" s="3"/>
-      <c r="U133" s="3"/>
-      <c r="V133" s="3"/>
-      <c r="W133" s="3"/>
-      <c r="X133" s="3"/>
-      <c r="Y133" s="3"/>
-      <c r="Z133" s="3"/>
-      <c r="AA133" s="3"/>
-      <c r="AB133" s="3"/>
-      <c r="AC133" s="3"/>
-      <c r="AD133" s="3"/>
-      <c r="AE133" s="3"/>
-      <c r="AF133" s="3"/>
-      <c r="AG133" s="3"/>
-      <c r="AH133" s="3"/>
-      <c r="AI133" s="3"/>
-      <c r="AJ133" s="3"/>
-      <c r="AK133" s="3"/>
-      <c r="AL133" s="4"/>
-    </row>
-    <row r="134" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A134" s="5"/>
-      <c r="F134" s="45" t="s">
+    <row r="179" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="180" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B180" s="42"/>
+      <c r="C180" s="42"/>
+      <c r="D180" s="42"/>
+      <c r="E180" s="42"/>
+      <c r="F180" s="42"/>
+      <c r="G180" s="43"/>
+      <c r="H180" s="3"/>
+      <c r="I180" s="3"/>
+      <c r="J180" s="3"/>
+      <c r="K180" s="3"/>
+      <c r="L180" s="3"/>
+      <c r="M180" s="3"/>
+      <c r="N180" s="3"/>
+      <c r="O180" s="3"/>
+      <c r="P180" s="4"/>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A181" s="5"/>
+      <c r="B181" s="56"/>
+      <c r="C181" s="56"/>
+      <c r="D181" s="56"/>
+      <c r="E181" s="56"/>
+      <c r="F181" s="56"/>
+      <c r="G181" s="56"/>
+      <c r="H181" s="56"/>
+      <c r="I181" s="56"/>
+      <c r="J181" s="56"/>
+      <c r="K181" s="56"/>
+      <c r="L181" s="56"/>
+      <c r="M181" s="56"/>
+      <c r="N181" s="56"/>
+      <c r="O181" s="56"/>
+      <c r="P181" s="6"/>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A182" s="5"/>
+      <c r="B182" s="56"/>
+      <c r="C182" s="56"/>
+      <c r="D182" s="56"/>
+      <c r="E182" s="56"/>
+      <c r="F182" s="56"/>
+      <c r="G182" s="56"/>
+      <c r="H182" s="56"/>
+      <c r="I182" s="56"/>
+      <c r="J182" s="56"/>
+      <c r="K182" s="56"/>
+      <c r="L182" s="56"/>
+      <c r="M182" s="56"/>
+      <c r="N182" s="56"/>
+      <c r="O182" s="56"/>
+      <c r="P182" s="6"/>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A183" s="5"/>
+      <c r="B183" s="56"/>
+      <c r="C183" s="56"/>
+      <c r="D183" s="56"/>
+      <c r="E183" s="56"/>
+      <c r="F183" s="56"/>
+      <c r="G183" s="56"/>
+      <c r="H183" s="56"/>
+      <c r="I183" s="56"/>
+      <c r="J183" s="56"/>
+      <c r="K183" s="56"/>
+      <c r="L183" s="56"/>
+      <c r="M183" s="56"/>
+      <c r="N183" s="56"/>
+      <c r="O183" s="56"/>
+      <c r="P183" s="6"/>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A184" s="5"/>
+      <c r="B184" s="56"/>
+      <c r="C184" s="56"/>
+      <c r="D184" s="56"/>
+      <c r="E184" s="56"/>
+      <c r="F184" s="56"/>
+      <c r="G184" s="56"/>
+      <c r="H184" s="56"/>
+      <c r="I184" s="56"/>
+      <c r="J184" s="56"/>
+      <c r="K184" s="56"/>
+      <c r="L184" s="56"/>
+      <c r="M184" s="56"/>
+      <c r="N184" s="56"/>
+      <c r="O184" s="56"/>
+      <c r="P184" s="6"/>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A185" s="5"/>
+      <c r="B185" s="56"/>
+      <c r="C185" s="56"/>
+      <c r="D185" s="56"/>
+      <c r="E185" s="56"/>
+      <c r="F185" s="56"/>
+      <c r="G185" s="56"/>
+      <c r="H185" s="56"/>
+      <c r="I185" s="56"/>
+      <c r="J185" s="56"/>
+      <c r="K185" s="56"/>
+      <c r="L185" s="56"/>
+      <c r="M185" s="56"/>
+      <c r="N185" s="56"/>
+      <c r="O185" s="56"/>
+      <c r="P185" s="6"/>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A186" s="5"/>
+      <c r="B186" s="56"/>
+      <c r="C186" s="56"/>
+      <c r="D186" s="56"/>
+      <c r="E186" s="56"/>
+      <c r="F186" s="56"/>
+      <c r="G186" s="56"/>
+      <c r="H186" s="56"/>
+      <c r="I186" s="56"/>
+      <c r="J186" s="56"/>
+      <c r="K186" s="56"/>
+      <c r="L186" s="56"/>
+      <c r="M186" s="56"/>
+      <c r="N186" s="56"/>
+      <c r="O186" s="56"/>
+      <c r="P186" s="6"/>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A187" s="5"/>
+      <c r="B187" s="56"/>
+      <c r="C187" s="56"/>
+      <c r="D187" s="56"/>
+      <c r="E187" s="56"/>
+      <c r="F187" s="55"/>
+      <c r="G187" s="55"/>
+      <c r="H187" s="55"/>
+      <c r="I187" s="56"/>
+      <c r="J187" s="56"/>
+      <c r="K187" s="56"/>
+      <c r="L187" s="56"/>
+      <c r="M187" s="57"/>
+      <c r="N187" s="56"/>
+      <c r="O187" s="56"/>
+      <c r="P187" s="6"/>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A188" s="5"/>
+      <c r="B188" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D188" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E188" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F188" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G188" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H188" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I188" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J188" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="K188" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="L188" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="M188" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="N188" s="56"/>
+      <c r="O188" s="56"/>
+      <c r="P188" s="6"/>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A189" s="5"/>
+      <c r="B189" s="2">
+        <v>3</v>
+      </c>
+      <c r="C189" s="29">
+        <v>6</v>
+      </c>
+      <c r="D189" s="54">
+        <v>42</v>
+      </c>
+      <c r="E189" s="57">
+        <v>3</v>
+      </c>
+      <c r="F189" s="56">
+        <v>2.8888888888888888</v>
+      </c>
+      <c r="G189" s="56">
+        <v>5.8888888888888893</v>
+      </c>
+      <c r="H189" s="56">
+        <v>40.555555555555557</v>
+      </c>
+      <c r="I189" s="56">
+        <f>((B189-$F$189)^2+(C189-$G$189)^2+(D189-$H$189)^2)^0.5</f>
+        <v>1.4529663145135563</v>
+      </c>
+      <c r="J189" s="56">
+        <f>((B189-$F$198)^2+(C189-$G$198)^2+(D189-$H$198)^2)^0.5</f>
+        <v>13.900439641328697</v>
+      </c>
+      <c r="K189" s="56">
+        <f>((B189-$F$201)^2+(C189-$G$201)^2+(D189-$H$201)^2)^0.5</f>
+        <v>13.138154783344239</v>
+      </c>
+      <c r="L189" s="56">
+        <f>((B189-$F$207)^2+(C189-$G$207)^2+(D189-$H$207)^2)^0.5</f>
+        <v>30.778780569303482</v>
+      </c>
+      <c r="M189" s="57">
+        <v>3</v>
+      </c>
+      <c r="N189" s="56"/>
+      <c r="O189" s="56"/>
+      <c r="P189" s="6"/>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A190" s="5"/>
+      <c r="B190" s="2">
+        <v>4</v>
+      </c>
+      <c r="C190" s="29">
+        <v>8</v>
+      </c>
+      <c r="D190" s="54">
+        <v>56</v>
+      </c>
+      <c r="E190" s="57">
+        <v>3</v>
+      </c>
+      <c r="F190" s="56"/>
+      <c r="G190" s="56"/>
+      <c r="H190" s="56"/>
+      <c r="I190" s="56">
+        <f>((B190-$F$189)^2+(C190-$G$189)^2+(D190-$H$189)^2)^0.5</f>
+        <v>15.627610892974721</v>
+      </c>
+      <c r="J190" s="56">
+        <f t="shared" ref="J190:J209" si="24">((B190-$F$198)^2+(C190-$G$198)^2+(D190-$H$198)^2)^0.5</f>
+        <v>28.075295585660754</v>
+      </c>
+      <c r="K190" s="56">
+        <f>((B190-$F$201)^2+(C190-$G$201)^2+(D190-$H$201)^2)^0.5</f>
+        <v>27.311983531857301</v>
+      </c>
+      <c r="L190" s="56">
+        <f t="shared" ref="L190:L209" si="25">((B190-$F$207)^2+(C190-$G$207)^2+(D190-$H$207)^2)^0.5</f>
+        <v>44.955533585978046</v>
+      </c>
+      <c r="M190" s="57">
+        <v>3</v>
+      </c>
+      <c r="N190" s="56"/>
+      <c r="O190" s="56"/>
+      <c r="P190" s="6"/>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A191" s="5"/>
+      <c r="B191" s="2">
+        <v>3</v>
+      </c>
+      <c r="C191" s="29">
+        <v>6</v>
+      </c>
+      <c r="D191" s="54">
+        <v>44</v>
+      </c>
+      <c r="E191" s="57">
+        <v>3</v>
+      </c>
+      <c r="F191" s="56"/>
+      <c r="G191" s="56"/>
+      <c r="H191" s="56"/>
+      <c r="I191" s="56">
+        <f t="shared" ref="I190:I209" si="26">((B191-$F$189)^2+(C191-$G$189)^2+(D191-$H$189)^2)^0.5</f>
+        <v>3.448026810929532</v>
+      </c>
+      <c r="J191" s="56">
+        <f t="shared" si="24"/>
+        <v>15.871007809489885</v>
+      </c>
+      <c r="K191" s="56">
+        <f t="shared" ref="K190:K209" si="27">((B191-$F$201)^2+(C191-$G$201)^2+(D191-$H$201)^2)^0.5</f>
+        <v>15.119891240055635</v>
+      </c>
+      <c r="L191" s="56">
+        <f t="shared" si="25"/>
+        <v>32.751590292177674</v>
+      </c>
+      <c r="M191" s="57">
+        <v>3</v>
+      </c>
+      <c r="N191" s="56"/>
+      <c r="O191" s="56"/>
+      <c r="P191" s="6"/>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A192" s="5"/>
+      <c r="B192" s="2">
+        <v>5</v>
+      </c>
+      <c r="C192" s="29">
+        <v>9</v>
+      </c>
+      <c r="D192" s="54">
+        <v>62</v>
+      </c>
+      <c r="E192" s="57">
+        <v>3</v>
+      </c>
+      <c r="F192" s="56"/>
+      <c r="G192" s="56"/>
+      <c r="H192" s="56"/>
+      <c r="I192" s="56">
+        <f t="shared" si="26"/>
+        <v>21.77154105707724</v>
+      </c>
+      <c r="J192" s="56">
+        <f t="shared" si="24"/>
+        <v>34.218253738156911</v>
+      </c>
+      <c r="K192" s="56">
+        <f t="shared" si="27"/>
+        <v>33.445644127615651</v>
+      </c>
+      <c r="L192" s="56">
+        <f t="shared" si="25"/>
+        <v>51.097945164164877</v>
+      </c>
+      <c r="M192" s="57">
+        <v>3</v>
+      </c>
+      <c r="N192" s="56"/>
+      <c r="O192" s="56"/>
+      <c r="P192" s="6"/>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A193" s="5"/>
+      <c r="B193" s="2">
+        <v>5</v>
+      </c>
+      <c r="C193" s="29">
+        <v>9</v>
+      </c>
+      <c r="D193" s="54">
+        <v>64</v>
+      </c>
+      <c r="E193" s="57">
+        <v>3</v>
+      </c>
+      <c r="F193" s="56"/>
+      <c r="G193" s="56"/>
+      <c r="H193" s="56"/>
+      <c r="I193" s="56">
+        <f t="shared" si="26"/>
+        <v>23.744005091344167</v>
+      </c>
+      <c r="J193" s="56">
+        <f t="shared" si="24"/>
+        <v>36.187781854592245</v>
+      </c>
+      <c r="K193" s="56">
+        <f t="shared" si="27"/>
+        <v>35.420489989709502</v>
+      </c>
+      <c r="L193" s="56">
+        <f t="shared" si="25"/>
+        <v>53.069137295921188</v>
+      </c>
+      <c r="M193" s="57">
+        <v>3</v>
+      </c>
+      <c r="N193" s="56"/>
+      <c r="O193" s="56"/>
+      <c r="P193" s="6"/>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A194" s="5"/>
+      <c r="B194" s="2">
+        <v>4</v>
+      </c>
+      <c r="C194" s="29">
+        <v>8</v>
+      </c>
+      <c r="D194" s="54">
+        <v>56</v>
+      </c>
+      <c r="E194" s="57">
+        <v>3</v>
+      </c>
+      <c r="F194" s="56"/>
+      <c r="G194" s="56"/>
+      <c r="H194" s="56"/>
+      <c r="I194" s="56">
+        <f t="shared" si="26"/>
+        <v>15.627610892974721</v>
+      </c>
+      <c r="J194" s="56">
+        <f t="shared" si="24"/>
+        <v>28.075295585660754</v>
+      </c>
+      <c r="K194" s="56">
+        <f t="shared" si="27"/>
+        <v>27.311983531857301</v>
+      </c>
+      <c r="L194" s="56">
+        <f t="shared" si="25"/>
+        <v>44.955533585978046</v>
+      </c>
+      <c r="M194" s="57">
+        <v>3</v>
+      </c>
+      <c r="N194" s="56"/>
+      <c r="O194" s="56"/>
+      <c r="P194" s="6"/>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A195" s="5"/>
+      <c r="B195" s="2">
+        <v>1</v>
+      </c>
+      <c r="C195" s="29">
+        <v>3</v>
+      </c>
+      <c r="D195" s="54">
+        <v>18</v>
+      </c>
+      <c r="E195" s="57">
+        <v>3</v>
+      </c>
+      <c r="F195" s="56"/>
+      <c r="G195" s="56"/>
+      <c r="H195" s="56"/>
+      <c r="I195" s="56">
+        <f t="shared" si="26"/>
+        <v>22.818121453499778</v>
+      </c>
+      <c r="J195" s="56">
+        <f t="shared" si="24"/>
+        <v>10.402991022884823</v>
+      </c>
+      <c r="K195" s="56">
+        <f t="shared" si="27"/>
+        <v>11.162934699760234</v>
+      </c>
+      <c r="L195" s="56">
+        <f t="shared" si="25"/>
+        <v>6.5574385243020021</v>
+      </c>
+      <c r="M195" s="57">
+        <v>0</v>
+      </c>
+      <c r="N195" s="56"/>
+      <c r="O195" s="56"/>
+      <c r="P195" s="6"/>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A196" s="5"/>
+      <c r="B196" s="2">
+        <v>1</v>
+      </c>
+      <c r="C196" s="29">
+        <v>3</v>
+      </c>
+      <c r="D196" s="54">
+        <v>18</v>
+      </c>
+      <c r="E196" s="57">
+        <v>3</v>
+      </c>
+      <c r="F196" s="56"/>
+      <c r="G196" s="56"/>
+      <c r="H196" s="56"/>
+      <c r="I196" s="56">
+        <f t="shared" si="26"/>
+        <v>22.818121453499778</v>
+      </c>
+      <c r="J196" s="56">
+        <f t="shared" si="24"/>
+        <v>10.402991022884823</v>
+      </c>
+      <c r="K196" s="56">
+        <f t="shared" si="27"/>
+        <v>11.162934699760234</v>
+      </c>
+      <c r="L196" s="56">
+        <f t="shared" si="25"/>
+        <v>6.5574385243020021</v>
+      </c>
+      <c r="M196" s="57">
+        <v>0</v>
+      </c>
+      <c r="N196" s="56"/>
+      <c r="O196" s="56"/>
+      <c r="P196" s="6"/>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A197" s="5"/>
+      <c r="B197" s="2">
+        <v>0</v>
+      </c>
+      <c r="C197" s="29">
+        <v>1</v>
+      </c>
+      <c r="D197" s="54">
+        <v>5</v>
+      </c>
+      <c r="E197" s="57">
+        <v>3</v>
+      </c>
+      <c r="F197" s="56"/>
+      <c r="G197" s="56"/>
+      <c r="H197" s="56"/>
+      <c r="I197" s="56">
+        <f t="shared" si="26"/>
+        <v>36.006172310375405</v>
+      </c>
+      <c r="J197" s="56">
+        <f>((B197-$F$198)^2+(C197-$G$198)^2+(D197-$H$198)^2)^0.5</f>
+        <v>23.570226039551581</v>
+      </c>
+      <c r="K197" s="56">
+        <f t="shared" si="27"/>
+        <v>24.336757749909452</v>
+      </c>
+      <c r="L197" s="56">
+        <f t="shared" si="25"/>
+        <v>6.7082039324993685</v>
+      </c>
+      <c r="M197" s="57">
+        <v>0</v>
+      </c>
+      <c r="N197" s="56"/>
+      <c r="O197" s="56"/>
+      <c r="P197" s="6"/>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A198" s="5"/>
+      <c r="B198" s="2">
+        <v>3</v>
+      </c>
+      <c r="C198" s="29">
+        <v>6</v>
+      </c>
+      <c r="D198" s="54">
+        <v>44</v>
+      </c>
+      <c r="E198" s="57">
+        <v>2</v>
+      </c>
+      <c r="F198" s="56">
+        <v>2</v>
+      </c>
+      <c r="G198" s="56">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="H198" s="56">
+        <v>28.333333333333332</v>
+      </c>
+      <c r="I198" s="56">
+        <f>((B198-$F$189)^2+(C198-$G$189)^2+(D198-$H$189)^2)^0.5</f>
+        <v>3.448026810929532</v>
+      </c>
+      <c r="J198" s="56">
+        <f t="shared" si="24"/>
+        <v>15.871007809489885</v>
+      </c>
+      <c r="K198" s="56">
+        <f t="shared" si="27"/>
+        <v>15.119891240055635</v>
+      </c>
+      <c r="L198" s="56">
+        <f t="shared" si="25"/>
+        <v>32.751590292177674</v>
+      </c>
+      <c r="M198" s="57">
+        <v>3</v>
+      </c>
+      <c r="N198" s="56"/>
+      <c r="O198" s="56"/>
+      <c r="P198" s="6"/>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A199" s="5"/>
+      <c r="B199" s="2">
+        <v>2</v>
+      </c>
+      <c r="C199" s="29">
+        <v>3</v>
+      </c>
+      <c r="D199" s="54">
+        <v>24</v>
+      </c>
+      <c r="E199" s="57">
+        <v>2</v>
+      </c>
+      <c r="F199" s="56"/>
+      <c r="G199" s="56"/>
+      <c r="H199" s="56"/>
+      <c r="I199" s="56">
+        <f t="shared" si="26"/>
+        <v>16.829207415152453</v>
+      </c>
+      <c r="J199" s="56">
+        <f t="shared" si="24"/>
+        <v>4.384315479321967</v>
+      </c>
+      <c r="K199" s="56">
+        <f t="shared" si="27"/>
+        <v>5.1585958468473869</v>
+      </c>
+      <c r="L199" s="56">
+        <f t="shared" si="25"/>
+        <v>12.516655570345725</v>
+      </c>
+      <c r="M199" s="57">
+        <v>2</v>
+      </c>
+      <c r="N199" s="56"/>
+      <c r="O199" s="56"/>
+      <c r="P199" s="6"/>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A200" s="5"/>
+      <c r="B200" s="2">
+        <v>1</v>
+      </c>
+      <c r="C200" s="29">
+        <v>2</v>
+      </c>
+      <c r="D200" s="54">
+        <v>17</v>
+      </c>
+      <c r="E200" s="57">
+        <v>2</v>
+      </c>
+      <c r="F200" s="56"/>
+      <c r="G200" s="56"/>
+      <c r="H200" s="56"/>
+      <c r="I200" s="56">
+        <f t="shared" si="26"/>
+        <v>23.949019928914744</v>
+      </c>
+      <c r="J200" s="56">
+        <f t="shared" si="24"/>
+        <v>11.498792207106893</v>
+      </c>
+      <c r="K200" s="56">
+        <f t="shared" si="27"/>
+        <v>12.285944995988077</v>
+      </c>
+      <c r="L200" s="56">
+        <f t="shared" si="25"/>
+        <v>5.3851648071345046</v>
+      </c>
+      <c r="M200" s="57">
+        <v>0</v>
+      </c>
+      <c r="N200" s="56"/>
+      <c r="O200" s="56"/>
+      <c r="P200" s="6"/>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A201" s="5"/>
+      <c r="B201" s="2">
+        <v>3</v>
+      </c>
+      <c r="C201" s="29">
+        <v>5</v>
+      </c>
+      <c r="D201" s="54">
+        <v>32</v>
+      </c>
+      <c r="E201" s="57">
+        <v>1</v>
+      </c>
+      <c r="F201" s="56">
+        <v>2.5</v>
+      </c>
+      <c r="G201" s="56">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="H201" s="56">
+        <v>29</v>
+      </c>
+      <c r="I201" s="56">
+        <f t="shared" si="26"/>
+        <v>8.6023252670426285</v>
+      </c>
+      <c r="J201" s="56">
+        <f t="shared" si="24"/>
+        <v>4.0276819911981923</v>
+      </c>
+      <c r="K201" s="56">
+        <f t="shared" si="27"/>
+        <v>3.1534813214040835</v>
+      </c>
+      <c r="L201" s="56">
+        <f t="shared" si="25"/>
+        <v>20.792626898334262</v>
+      </c>
+      <c r="M201" s="57">
+        <v>1</v>
+      </c>
+      <c r="N201" s="56"/>
+      <c r="O201" s="56"/>
+      <c r="P201" s="6"/>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A202" s="5"/>
+      <c r="B202" s="2">
+        <v>3</v>
+      </c>
+      <c r="C202" s="29">
+        <v>6</v>
+      </c>
+      <c r="D202" s="54">
+        <v>41</v>
+      </c>
+      <c r="E202" s="57">
+        <v>1</v>
+      </c>
+      <c r="F202" s="56"/>
+      <c r="G202" s="56"/>
+      <c r="H202" s="56"/>
+      <c r="I202" s="56">
+        <f t="shared" si="26"/>
+        <v>0.47140452079103012</v>
+      </c>
+      <c r="J202" s="56">
+        <f t="shared" si="24"/>
+        <v>12.918548250050737</v>
+      </c>
+      <c r="K202" s="56">
+        <f t="shared" si="27"/>
+        <v>12.149531312405063</v>
+      </c>
+      <c r="L202" s="56">
+        <f t="shared" si="25"/>
+        <v>29.79373535941183</v>
+      </c>
+      <c r="M202" s="57">
+        <v>3</v>
+      </c>
+      <c r="N202" s="56"/>
+      <c r="O202" s="56"/>
+      <c r="P202" s="6"/>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A203" s="5"/>
+      <c r="B203" s="2">
+        <v>2</v>
+      </c>
+      <c r="C203" s="29">
+        <v>4</v>
+      </c>
+      <c r="D203" s="54">
+        <v>30</v>
+      </c>
+      <c r="E203" s="57">
+        <v>1</v>
+      </c>
+      <c r="F203" s="56"/>
+      <c r="G203" s="56"/>
+      <c r="H203" s="56"/>
+      <c r="I203" s="56">
+        <f t="shared" si="26"/>
+        <v>10.760008261045984</v>
+      </c>
+      <c r="J203" s="56">
+        <f t="shared" si="24"/>
+        <v>1.6996731711975961</v>
+      </c>
+      <c r="K203" s="56">
+        <f t="shared" si="27"/>
+        <v>1.1303883305208782</v>
+      </c>
+      <c r="L203" s="56">
+        <f t="shared" si="25"/>
+        <v>18.574175621006713</v>
+      </c>
+      <c r="M203" s="57">
+        <v>1</v>
+      </c>
+      <c r="N203" s="56"/>
+      <c r="O203" s="56"/>
+      <c r="P203" s="6"/>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A204" s="5"/>
+      <c r="B204" s="2">
+        <v>4</v>
+      </c>
+      <c r="C204" s="29">
+        <v>4</v>
+      </c>
+      <c r="D204" s="54">
+        <v>28</v>
+      </c>
+      <c r="E204" s="57">
+        <v>1</v>
+      </c>
+      <c r="F204" s="56"/>
+      <c r="G204" s="56"/>
+      <c r="H204" s="56"/>
+      <c r="I204" s="56">
+        <f t="shared" si="26"/>
+        <v>12.745369529536775</v>
+      </c>
+      <c r="J204" s="56">
+        <f t="shared" si="24"/>
+        <v>2.0548046676563256</v>
+      </c>
+      <c r="K204" s="56">
+        <f t="shared" si="27"/>
+        <v>1.8104634152000358</v>
+      </c>
+      <c r="L204" s="56">
+        <f t="shared" si="25"/>
+        <v>16.881943016134134</v>
+      </c>
+      <c r="M204" s="57">
+        <v>1</v>
+      </c>
+      <c r="N204" s="56"/>
+      <c r="O204" s="56"/>
+      <c r="P204" s="6"/>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A205" s="5"/>
+      <c r="B205" s="2">
+        <v>2</v>
+      </c>
+      <c r="C205" s="29">
+        <v>3</v>
+      </c>
+      <c r="D205" s="54">
+        <v>24</v>
+      </c>
+      <c r="E205" s="57">
+        <v>1</v>
+      </c>
+      <c r="F205" s="56"/>
+      <c r="G205" s="56"/>
+      <c r="H205" s="56"/>
+      <c r="I205" s="56">
+        <f t="shared" si="26"/>
+        <v>16.829207415152453</v>
+      </c>
+      <c r="J205" s="56">
+        <f t="shared" si="24"/>
+        <v>4.384315479321967</v>
+      </c>
+      <c r="K205" s="56">
+        <f t="shared" si="27"/>
+        <v>5.1585958468473869</v>
+      </c>
+      <c r="L205" s="56">
+        <f t="shared" si="25"/>
+        <v>12.516655570345725</v>
+      </c>
+      <c r="M205" s="57">
+        <v>2</v>
+      </c>
+      <c r="N205" s="56"/>
+      <c r="O205" s="56"/>
+      <c r="P205" s="6"/>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A206" s="5"/>
+      <c r="B206" s="2">
+        <v>1</v>
+      </c>
+      <c r="C206" s="29">
+        <v>3</v>
+      </c>
+      <c r="D206" s="54">
+        <v>19</v>
+      </c>
+      <c r="E206" s="57">
+        <v>1</v>
+      </c>
+      <c r="F206" s="56"/>
+      <c r="G206" s="56"/>
+      <c r="H206" s="56"/>
+      <c r="I206" s="56">
+        <f t="shared" si="26"/>
+        <v>21.830152440043921</v>
+      </c>
+      <c r="J206" s="56">
+        <f t="shared" si="24"/>
+        <v>9.4103961423287341</v>
+      </c>
+      <c r="K206" s="56">
+        <f t="shared" si="27"/>
+        <v>10.178954323068314</v>
+      </c>
+      <c r="L206" s="56">
+        <f t="shared" si="25"/>
+        <v>7.5277265270908105</v>
+      </c>
+      <c r="M206" s="57">
+        <v>0</v>
+      </c>
+      <c r="N206" s="56"/>
+      <c r="O206" s="56"/>
+      <c r="P206" s="6"/>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A207" s="5"/>
+      <c r="B207" s="2">
+        <v>1</v>
+      </c>
+      <c r="C207" s="29">
+        <v>2</v>
+      </c>
+      <c r="D207" s="54">
+        <v>17</v>
+      </c>
+      <c r="E207" s="57">
+        <v>0</v>
+      </c>
+      <c r="F207" s="56">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G207" s="56">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="H207" s="56">
+        <v>11.666666666666666</v>
+      </c>
+      <c r="I207" s="56">
+        <f t="shared" si="26"/>
+        <v>23.949019928914744</v>
+      </c>
+      <c r="J207" s="56">
+        <f t="shared" si="24"/>
+        <v>11.498792207106893</v>
+      </c>
+      <c r="K207" s="56">
+        <f t="shared" si="27"/>
+        <v>12.285944995988077</v>
+      </c>
+      <c r="L207" s="56">
+        <f t="shared" si="25"/>
+        <v>5.3851648071345046</v>
+      </c>
+      <c r="M207" s="57">
+        <v>0</v>
+      </c>
+      <c r="N207" s="56"/>
+      <c r="O207" s="56"/>
+      <c r="P207" s="6"/>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A208" s="5"/>
+      <c r="B208" s="2">
+        <v>1</v>
+      </c>
+      <c r="C208" s="29">
+        <v>2</v>
+      </c>
+      <c r="D208" s="54">
+        <v>17</v>
+      </c>
+      <c r="E208" s="57">
+        <v>0</v>
+      </c>
+      <c r="F208" s="56"/>
+      <c r="G208" s="56"/>
+      <c r="H208" s="56"/>
+      <c r="I208" s="56">
+        <f t="shared" si="26"/>
+        <v>23.949019928914744</v>
+      </c>
+      <c r="J208" s="56">
+        <f t="shared" si="24"/>
+        <v>11.498792207106893</v>
+      </c>
+      <c r="K208" s="56">
+        <f t="shared" si="27"/>
+        <v>12.285944995988077</v>
+      </c>
+      <c r="L208" s="56">
+        <f t="shared" si="25"/>
+        <v>5.3851648071345046</v>
+      </c>
+      <c r="M208" s="57">
+        <v>0</v>
+      </c>
+      <c r="N208" s="56"/>
+      <c r="O208" s="56"/>
+      <c r="P208" s="6"/>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A209" s="5"/>
+      <c r="B209" s="2">
+        <v>0</v>
+      </c>
+      <c r="C209" s="29">
+        <v>0</v>
+      </c>
+      <c r="D209" s="54">
+        <v>1</v>
+      </c>
+      <c r="E209" s="57">
+        <v>0</v>
+      </c>
+      <c r="F209" s="56"/>
+      <c r="G209" s="56"/>
+      <c r="H209" s="56"/>
+      <c r="I209" s="56">
+        <f t="shared" si="26"/>
+        <v>40.095718807207668</v>
+      </c>
+      <c r="J209" s="56">
+        <f t="shared" si="24"/>
+        <v>27.650597743187316</v>
+      </c>
+      <c r="K209" s="56">
+        <f t="shared" si="27"/>
+        <v>28.418499452137002</v>
+      </c>
+      <c r="L209" s="56">
+        <f t="shared" si="25"/>
+        <v>10.770329614269007</v>
+      </c>
+      <c r="M209" s="57">
+        <v>0</v>
+      </c>
+      <c r="N209" s="56"/>
+      <c r="O209" s="56"/>
+      <c r="P209" s="6"/>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A210" s="5"/>
+      <c r="B210" s="56"/>
+      <c r="C210" s="56"/>
+      <c r="D210" s="56"/>
+      <c r="E210" s="56"/>
+      <c r="F210" s="56"/>
+      <c r="G210" s="56"/>
+      <c r="H210" s="56"/>
+      <c r="I210" s="56"/>
+      <c r="J210" s="56"/>
+      <c r="K210" s="56"/>
+      <c r="L210" s="56"/>
+      <c r="M210" s="56"/>
+      <c r="N210" s="56"/>
+      <c r="O210" s="56"/>
+      <c r="P210" s="6"/>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A211" s="5"/>
+      <c r="B211" s="56"/>
+      <c r="C211" s="56"/>
+      <c r="D211" s="56"/>
+      <c r="E211" s="56"/>
+      <c r="F211" s="56"/>
+      <c r="G211" s="56"/>
+      <c r="H211" s="56"/>
+      <c r="I211" s="56"/>
+      <c r="J211" s="56"/>
+      <c r="K211" s="56"/>
+      <c r="L211" s="56"/>
+      <c r="M211" s="56"/>
+      <c r="N211" s="56"/>
+      <c r="O211" s="56"/>
+      <c r="P211" s="6"/>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A212" s="5"/>
+      <c r="B212" s="56"/>
+      <c r="C212" s="56"/>
+      <c r="D212" s="56"/>
+      <c r="E212" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="G134" s="45"/>
-      <c r="H134" s="45"/>
-      <c r="M134" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="N134" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="O134" s="45"/>
-      <c r="P134" s="45"/>
-      <c r="Q134" s="43"/>
-      <c r="U134" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="V134" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="W134" s="45"/>
-      <c r="X134" s="45"/>
-      <c r="Y134" s="43"/>
-      <c r="AC134" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD134" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE134" s="45"/>
-      <c r="AF134" s="45"/>
-      <c r="AG134" s="43"/>
-      <c r="AK134" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL134" s="6"/>
-    </row>
-    <row r="135" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A135" s="5"/>
-      <c r="B135" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D135" s="42" t="s">
+      <c r="F212" s="56"/>
+      <c r="G212" s="56"/>
+      <c r="H212" s="56"/>
+      <c r="I212" s="56"/>
+      <c r="J212" s="56"/>
+      <c r="K212" s="56"/>
+      <c r="L212" s="56"/>
+      <c r="M212" s="56"/>
+      <c r="N212" s="56"/>
+      <c r="O212" s="56"/>
+      <c r="P212" s="6"/>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A213" s="5"/>
+      <c r="B213" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D213" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E135" s="15" t="s">
+      <c r="E213" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F213" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G213" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H213" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I213" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J213" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="K213" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="L213" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="M213" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="N213" s="56"/>
+      <c r="O213" s="56"/>
+      <c r="P213" s="6"/>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A214" s="5"/>
+      <c r="B214" s="2">
+        <v>3</v>
+      </c>
+      <c r="C214" s="29">
+        <v>6</v>
+      </c>
+      <c r="D214" s="54">
+        <v>42</v>
+      </c>
+      <c r="E214" s="57">
+        <v>3</v>
+      </c>
+      <c r="F214" s="56">
+        <f>AVERAGE(B214:B221)</f>
+        <v>3.75</v>
+      </c>
+      <c r="G214" s="56">
+        <f>AVERAGE(C214:C221)</f>
+        <v>7.25</v>
+      </c>
+      <c r="H214" s="56">
+        <f t="shared" ref="G214:H214" si="28">AVERAGE(D214:D221)</f>
+        <v>51.125</v>
+      </c>
+      <c r="I214" s="56">
+        <f>((B214-$F$214)^2+(C214-$G$214)^2+(D214-$H$214)^2)^0.5</f>
+        <v>9.2407047891381104</v>
+      </c>
+      <c r="J214" s="56">
+        <f>((B214-$F$222)^2+(C214-$G$222)^2+(D214-$H$222)^2)^0.5</f>
+        <v>18.275666882497067</v>
+      </c>
+      <c r="K214" s="56">
+        <f>((B214-$F$224)^2+(C214-$G$224)^2+(D214-$H$224)^2)^0.5</f>
+        <v>12.115187896924166</v>
+      </c>
+      <c r="L214" s="56">
+        <f>((B214-$F$227)^2+(C214-$G$227)^2+(D214-$H$227)^2)^0.5</f>
+        <v>28.373623314620922</v>
+      </c>
+      <c r="M214" s="57">
+        <v>3</v>
+      </c>
+      <c r="N214" s="56"/>
+      <c r="O214" s="56"/>
+      <c r="P214" s="6"/>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A215" s="5"/>
+      <c r="B215" s="2">
+        <v>4</v>
+      </c>
+      <c r="C215" s="29">
+        <v>8</v>
+      </c>
+      <c r="D215" s="54">
+        <v>56</v>
+      </c>
+      <c r="E215" s="57">
+        <v>3</v>
+      </c>
+      <c r="F215" s="56"/>
+      <c r="G215" s="56"/>
+      <c r="H215" s="56"/>
+      <c r="I215" s="56">
+        <f>((B215-$F$214)^2+(C215-$G$214)^2+(D215-$H$214)^2)^0.5</f>
+        <v>4.9386865662846029</v>
+      </c>
+      <c r="J215" s="56">
+        <f t="shared" ref="J215:J234" si="29">((B215-$F$222)^2+(C215-$G$222)^2+(D215-$H$222)^2)^0.5</f>
+        <v>32.449961479175904</v>
+      </c>
+      <c r="K215" s="56">
+        <f t="shared" ref="K215:K234" si="30">((B215-$F$224)^2+(C215-$G$224)^2+(D215-$H$224)^2)^0.5</f>
+        <v>26.276309566688479</v>
+      </c>
+      <c r="L215" s="56">
+        <f t="shared" ref="L215:L234" si="31">((B215-$F$227)^2+(C215-$G$227)^2+(D215-$H$227)^2)^0.5</f>
+        <v>42.550705047037702</v>
+      </c>
+      <c r="M215" s="57">
+        <v>3</v>
+      </c>
+      <c r="N215" s="56"/>
+      <c r="O215" s="56"/>
+      <c r="P215" s="6"/>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A216" s="5"/>
+      <c r="B216" s="2">
+        <v>3</v>
+      </c>
+      <c r="C216" s="29">
+        <v>6</v>
+      </c>
+      <c r="D216" s="54">
+        <v>44</v>
+      </c>
+      <c r="E216" s="57">
+        <v>3</v>
+      </c>
+      <c r="F216" s="56"/>
+      <c r="G216" s="56"/>
+      <c r="H216" s="56"/>
+      <c r="I216" s="56">
+        <f t="shared" ref="I215:I234" si="32">((B216-$F$214)^2+(C216-$G$214)^2+(D216-$H$214)^2)^0.5</f>
+        <v>7.272594103894428</v>
+      </c>
+      <c r="J216" s="56">
+        <f t="shared" si="29"/>
+        <v>20.248456731316587</v>
+      </c>
+      <c r="K216" s="56">
+        <f t="shared" si="30"/>
+        <v>14.098857321704401</v>
+      </c>
+      <c r="L216" s="56">
+        <f t="shared" si="31"/>
+        <v>30.349011516027996</v>
+      </c>
+      <c r="M216" s="57">
+        <v>3</v>
+      </c>
+      <c r="N216" s="56"/>
+      <c r="O216" s="56"/>
+      <c r="P216" s="6"/>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A217" s="5"/>
+      <c r="B217" s="2">
+        <v>5</v>
+      </c>
+      <c r="C217" s="29">
+        <v>9</v>
+      </c>
+      <c r="D217" s="54">
         <v>62</v>
       </c>
-      <c r="F135" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G135" s="15" t="s">
+      <c r="E217" s="57">
+        <v>3</v>
+      </c>
+      <c r="F217" s="56"/>
+      <c r="G217" s="56"/>
+      <c r="H217" s="56"/>
+      <c r="I217" s="56">
+        <f t="shared" si="32"/>
+        <v>11.085604403910505</v>
+      </c>
+      <c r="J217" s="56">
+        <f t="shared" si="29"/>
+        <v>38.587562763149478</v>
+      </c>
+      <c r="K217" s="56">
+        <f t="shared" si="30"/>
+        <v>32.400274347260975</v>
+      </c>
+      <c r="L217" s="56">
+        <f t="shared" si="31"/>
+        <v>48.693557068671829</v>
+      </c>
+      <c r="M217" s="57">
+        <v>3</v>
+      </c>
+      <c r="N217" s="56"/>
+      <c r="O217" s="56"/>
+      <c r="P217" s="6"/>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A218" s="5"/>
+      <c r="B218" s="2">
+        <v>5</v>
+      </c>
+      <c r="C218" s="29">
+        <v>9</v>
+      </c>
+      <c r="D218" s="54">
         <v>64</v>
       </c>
-      <c r="H135" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="I135" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="J135" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="K135" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="L135" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="M135" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="N135" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="O135" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="P135" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q135" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="R135" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="S135" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="T135" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="U135" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="V135" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="W135" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="X135" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y135" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z135" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA135" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB135" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC135" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD135" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE135" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF135" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG135" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH135" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI135" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ135" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK135" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL135" s="6"/>
-    </row>
-    <row r="136" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A136" s="5"/>
-      <c r="B136" s="2">
-        <v>3</v>
-      </c>
-      <c r="C136" s="2">
-        <v>5</v>
-      </c>
-      <c r="D136" s="29">
-        <v>32</v>
-      </c>
-      <c r="E136" s="10">
-        <v>2</v>
-      </c>
-      <c r="I136">
-        <f t="shared" ref="I136:I156" si="24">((B136-$F$136)^2+(C136-$G$136)^2+(D136-$H$136)^2)^0.5</f>
-        <v>32.526911934581186</v>
-      </c>
-      <c r="J136">
-        <f t="shared" ref="J136:J156" si="25">((B136-$F$140)^2+(C136-$G$140)^2+(D136-$H$140)^2)^0.5</f>
-        <v>18.72137270390094</v>
-      </c>
-      <c r="K136">
-        <f t="shared" ref="K136:K156" si="26">((B136-$F$147)^2+(C136-$G$147)^2+(D136-$H$147)^2)^0.5</f>
-        <v>15.098634044177638</v>
-      </c>
-      <c r="L136">
-        <f t="shared" ref="L136:L156" si="27">((B136-$F$155)^2+(C136-$G$155)^2+(D136-$H$155)^2)^0.5</f>
-        <v>32.526911934581186</v>
-      </c>
-      <c r="M136">
-        <v>3</v>
-      </c>
-      <c r="N136">
-        <f>AVERAGE(B136)</f>
-        <v>3</v>
-      </c>
-      <c r="O136">
-        <f>AVERAGE(C136)</f>
-        <v>5</v>
-      </c>
-      <c r="P136">
-        <f>AVERAGE(D136)</f>
-        <v>32</v>
-      </c>
-      <c r="Q136">
-        <f t="shared" ref="Q136:Q156" si="28">((B136-$N$136)^2+(C136-$O$136)^2+(D136-$P$136)^2)^0.5</f>
-        <v>0</v>
-      </c>
-      <c r="R136">
-        <f t="shared" ref="R136:R156" si="29">((B136-$N$137)^2+(C136-$O$137)^2+(D136-$P$137)^2)^0.5</f>
-        <v>32.526911934581186</v>
-      </c>
-      <c r="S136">
-        <f t="shared" ref="S136:S156" si="30">((B136-$N$145)^2+(C136-$O$145)^2+(D136-$P$145)^2)^0.5</f>
-        <v>32.526911934581186</v>
-      </c>
-      <c r="T136">
-        <f t="shared" ref="T136:T156" si="31">((B136-$N$149)^2+(C136-$O$149)^2+(D136-$P$149)^2)^0.5</f>
-        <v>18.386476008196894</v>
-      </c>
-      <c r="U136">
-        <v>3</v>
-      </c>
-      <c r="V136">
-        <f>AVERAGE(B136:B138)</f>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="W136">
-        <f>AVERAGE(C136:C138)</f>
-        <v>5</v>
-      </c>
-      <c r="X136">
-        <f>AVERAGE(D136:D138)</f>
-        <v>34.333333333333336</v>
-      </c>
-      <c r="Y136">
-        <f t="shared" ref="Y136:Y156" si="32">((B136-$V$136)^2+(C136-$W$136)^2+(D136-$X$136)^2)^0.5</f>
-        <v>2.3570226039551607</v>
-      </c>
-      <c r="Z136">
-        <f t="shared" ref="Z136:Z156" si="33">((B136-$V$139)^2+(C136-$W$139)^2+(D136-$X$139)^2)^0.5</f>
-        <v>32.526911934581186</v>
-      </c>
-      <c r="AA136">
-        <f t="shared" ref="AA136:AA156" si="34">((B136-$V$146)^2+(C136-$W$146)^2+(D136-$X$146)^2)^0.5</f>
-        <v>32.526911934581186</v>
-      </c>
-      <c r="AB136">
-        <f t="shared" ref="AB136:AB156" si="35">((B136-$V$149)^2+(C136-$W$149)^2+(D136-$X$149)^2)^0.5</f>
-        <v>18.386476008196894</v>
-      </c>
-      <c r="AC136">
-        <v>3</v>
-      </c>
-      <c r="AD136">
-        <f>AVERAGE(B136:B140)</f>
-        <v>3</v>
-      </c>
-      <c r="AE136">
-        <f t="shared" ref="AE136:AF136" si="36">AVERAGE(C136:C140)</f>
-        <v>5</v>
-      </c>
-      <c r="AF136">
-        <f t="shared" si="36"/>
-        <v>34.6</v>
-      </c>
-      <c r="AG136">
-        <f>((B136-$AD$136)^2+(C136-$AE$136)^2+(D136-$AF$136)^2)^0.5</f>
-        <v>2.6000000000000014</v>
-      </c>
-      <c r="AH136">
-        <f>((B136-$AD$141)^2+(C136-$AE$141)^2+(D136-$AF$141)^2)^0.5</f>
-        <v>22.514193054357712</v>
-      </c>
-      <c r="AI136">
-        <f>((B136-$AD$147)^2+(C136-$AE$147)^2+(D136-$AF$147)^2)^0.5</f>
-        <v>8.3066238629180749</v>
-      </c>
-      <c r="AJ136">
-        <f>((B136-$AD$149)^2+(C136-$AE$149)^2+(D136-$AF$149)^2)^0.5</f>
-        <v>18.386476008196894</v>
-      </c>
-      <c r="AK136">
-        <v>3</v>
-      </c>
-      <c r="AL136" s="6"/>
-    </row>
-    <row r="137" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A137" s="5"/>
-      <c r="B137" s="2">
-        <v>3</v>
-      </c>
-      <c r="C137" s="2">
+      <c r="E218" s="57">
+        <v>3</v>
+      </c>
+      <c r="F218" s="56"/>
+      <c r="G218" s="56"/>
+      <c r="H218" s="56"/>
+      <c r="I218" s="56">
+        <f t="shared" si="32"/>
+        <v>13.05337600010051</v>
+      </c>
+      <c r="J218" s="56">
+        <f t="shared" si="29"/>
+        <v>40.558599581346492</v>
+      </c>
+      <c r="K218" s="56">
+        <f t="shared" si="30"/>
+        <v>34.376994891609968</v>
+      </c>
+      <c r="L218" s="56">
+        <f t="shared" si="31"/>
+        <v>50.666186949483382</v>
+      </c>
+      <c r="M218" s="57">
+        <v>3</v>
+      </c>
+      <c r="N218" s="56"/>
+      <c r="O218" s="56"/>
+      <c r="P218" s="6"/>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A219" s="5"/>
+      <c r="B219" s="2">
+        <v>4</v>
+      </c>
+      <c r="C219" s="29">
+        <v>8</v>
+      </c>
+      <c r="D219" s="54">
+        <v>56</v>
+      </c>
+      <c r="E219" s="57">
+        <v>3</v>
+      </c>
+      <c r="F219" s="56"/>
+      <c r="G219" s="56"/>
+      <c r="H219" s="56"/>
+      <c r="I219" s="56">
+        <f t="shared" si="32"/>
+        <v>4.9386865662846029</v>
+      </c>
+      <c r="J219" s="56">
+        <f t="shared" si="29"/>
+        <v>32.449961479175904</v>
+      </c>
+      <c r="K219" s="56">
+        <f t="shared" si="30"/>
+        <v>26.276309566688479</v>
+      </c>
+      <c r="L219" s="56">
+        <f t="shared" si="31"/>
+        <v>42.550705047037702</v>
+      </c>
+      <c r="M219" s="57">
+        <v>3</v>
+      </c>
+      <c r="N219" s="56"/>
+      <c r="O219" s="56"/>
+      <c r="P219" s="6"/>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A220" s="5"/>
+      <c r="B220" s="2">
+        <v>3</v>
+      </c>
+      <c r="C220" s="29">
         <v>6</v>
       </c>
-      <c r="D137" s="29">
+      <c r="D220" s="54">
+        <v>44</v>
+      </c>
+      <c r="E220" s="57">
+        <v>3</v>
+      </c>
+      <c r="F220" s="56"/>
+      <c r="G220" s="56"/>
+      <c r="H220" s="56"/>
+      <c r="I220" s="56">
+        <f t="shared" si="32"/>
+        <v>7.272594103894428</v>
+      </c>
+      <c r="J220" s="56">
+        <f t="shared" si="29"/>
+        <v>20.248456731316587</v>
+      </c>
+      <c r="K220" s="56">
+        <f t="shared" si="30"/>
+        <v>14.098857321704401</v>
+      </c>
+      <c r="L220" s="56">
+        <f t="shared" si="31"/>
+        <v>30.349011516027996</v>
+      </c>
+      <c r="M220" s="57">
+        <v>3</v>
+      </c>
+      <c r="N220" s="56"/>
+      <c r="O220" s="56"/>
+      <c r="P220" s="6"/>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A221" s="5"/>
+      <c r="B221" s="2">
+        <v>3</v>
+      </c>
+      <c r="C221" s="29">
+        <v>6</v>
+      </c>
+      <c r="D221" s="54">
         <v>41</v>
       </c>
-      <c r="E137" s="10">
-        <v>2</v>
-      </c>
-      <c r="I137">
-        <f t="shared" si="24"/>
-        <v>41.54515615568198</v>
-      </c>
-      <c r="J137">
-        <f t="shared" si="25"/>
-        <v>9.6911489177980723</v>
-      </c>
-      <c r="K137">
-        <f t="shared" si="26"/>
-        <v>24.098106772109713</v>
-      </c>
-      <c r="L137">
-        <f t="shared" si="27"/>
-        <v>41.54515615568198</v>
-      </c>
-      <c r="M137">
-        <v>2</v>
-      </c>
-      <c r="Q137">
-        <f t="shared" si="28"/>
-        <v>9.0553851381374173</v>
-      </c>
-      <c r="R137">
+      <c r="E221" s="57">
+        <v>3</v>
+      </c>
+      <c r="F221" s="56"/>
+      <c r="G221" s="56"/>
+      <c r="H221" s="56"/>
+      <c r="I221" s="56">
+        <f t="shared" si="32"/>
+        <v>10.229400031282383</v>
+      </c>
+      <c r="J221" s="56">
         <f t="shared" si="29"/>
-        <v>41.54515615568198</v>
-      </c>
-      <c r="S137">
+        <v>17.291616465790582</v>
+      </c>
+      <c r="K221" s="56">
         <f t="shared" si="30"/>
-        <v>41.54515615568198</v>
-      </c>
-      <c r="T137">
+        <v>11.125546178852424</v>
+      </c>
+      <c r="L221" s="56">
         <f t="shared" si="31"/>
         <v>27.387268940148086</v>
       </c>
-      <c r="U137">
-        <v>3</v>
-      </c>
-      <c r="Y137">
+      <c r="M221" s="57">
+        <v>3</v>
+      </c>
+      <c r="N221" s="56"/>
+      <c r="O221" s="56"/>
+      <c r="P221" s="6"/>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A222" s="5"/>
+      <c r="B222" s="2">
+        <v>2</v>
+      </c>
+      <c r="C222" s="29">
+        <v>3</v>
+      </c>
+      <c r="D222" s="54">
+        <v>24</v>
+      </c>
+      <c r="E222" s="57">
+        <v>2</v>
+      </c>
+      <c r="F222" s="56">
+        <f>AVERAGE(B222:B223)</f>
+        <v>2</v>
+      </c>
+      <c r="G222" s="56">
+        <f t="shared" ref="G222:H222" si="33">AVERAGE(C222:C223)</f>
+        <v>3</v>
+      </c>
+      <c r="H222" s="56">
+        <f t="shared" si="33"/>
+        <v>24</v>
+      </c>
+      <c r="I222" s="56">
         <f t="shared" si="32"/>
-        <v>6.7494855771055269</v>
-      </c>
-      <c r="Z137">
-        <f t="shared" si="33"/>
-        <v>41.54515615568198</v>
-      </c>
-      <c r="AA137">
+        <v>27.51164526159786</v>
+      </c>
+      <c r="J222" s="56">
+        <f>((B222-$F$222)^2+(C222-$G$222)^2+(D222-$H$222)^2)^0.5</f>
+        <v>0</v>
+      </c>
+      <c r="K222" s="56">
+        <f t="shared" si="30"/>
+        <v>6.2271805640898013</v>
+      </c>
+      <c r="L222" s="56">
+        <f t="shared" si="31"/>
+        <v>10.127314550264547</v>
+      </c>
+      <c r="M222" s="57">
+        <v>2</v>
+      </c>
+      <c r="N222" s="56"/>
+      <c r="O222" s="56"/>
+      <c r="P222" s="6"/>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A223" s="5"/>
+      <c r="B223" s="2">
+        <v>2</v>
+      </c>
+      <c r="C223" s="29">
+        <v>3</v>
+      </c>
+      <c r="D223" s="54">
+        <v>24</v>
+      </c>
+      <c r="E223" s="57">
+        <v>2</v>
+      </c>
+      <c r="F223" s="56"/>
+      <c r="G223" s="56"/>
+      <c r="H223" s="56"/>
+      <c r="I223" s="56">
+        <f t="shared" si="32"/>
+        <v>27.51164526159786</v>
+      </c>
+      <c r="J223" s="56">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="K223" s="56">
+        <f t="shared" si="30"/>
+        <v>6.2271805640898013</v>
+      </c>
+      <c r="L223" s="56">
+        <f t="shared" si="31"/>
+        <v>10.127314550264547</v>
+      </c>
+      <c r="M223" s="57">
+        <v>2</v>
+      </c>
+      <c r="N223" s="56"/>
+      <c r="O223" s="56"/>
+      <c r="P223" s="6"/>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A224" s="5"/>
+      <c r="B224" s="2">
+        <v>3</v>
+      </c>
+      <c r="C224" s="29">
+        <v>5</v>
+      </c>
+      <c r="D224" s="54">
+        <v>32</v>
+      </c>
+      <c r="E224" s="57">
+        <v>1</v>
+      </c>
+      <c r="F224" s="56">
+        <f>AVERAGE(B224:B226)</f>
+        <v>3</v>
+      </c>
+      <c r="G224" s="56">
+        <f t="shared" ref="G224:H224" si="34">AVERAGE(C224:C226)</f>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="H224" s="56">
         <f t="shared" si="34"/>
-        <v>41.54515615568198</v>
-      </c>
-      <c r="AB137">
-        <f t="shared" si="35"/>
-        <v>27.387268940148086</v>
-      </c>
-      <c r="AC137">
-        <v>3</v>
-      </c>
-      <c r="AG137">
-        <f t="shared" ref="AG137:AG156" si="37">((B137-$AD$136)^2+(C137-$AE$136)^2+(D137-$AF$136)^2)^0.5</f>
-        <v>6.4776538962806569</v>
-      </c>
-      <c r="AH137">
-        <f t="shared" ref="AH137:AH156" si="38">((B137-$AD$141)^2+(C137-$AE$141)^2+(D137-$AF$141)^2)^0.5</f>
-        <v>13.474255287605159</v>
-      </c>
-      <c r="AI137">
-        <f t="shared" ref="AI137:AI156" si="39">((B137-$AD$147)^2+(C137-$AE$147)^2+(D137-$AF$147)^2)^0.5</f>
-        <v>17.291616465790582</v>
-      </c>
-      <c r="AJ137">
-        <f>((B137-$AD$149)^2+(C137-$AE$149)^2+(D137-$AF$149)^2)^0.5</f>
-        <v>27.387268940148086</v>
-      </c>
-      <c r="AK137">
-        <v>3</v>
-      </c>
-      <c r="AL137" s="6"/>
-    </row>
-    <row r="138" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A138" s="5"/>
-      <c r="B138" s="2">
-        <v>2</v>
-      </c>
-      <c r="C138" s="2">
+        <v>30</v>
+      </c>
+      <c r="I224" s="56">
+        <f t="shared" si="32"/>
+        <v>19.271497736294396</v>
+      </c>
+      <c r="J224" s="56">
+        <f t="shared" si="29"/>
+        <v>8.3066238629180749</v>
+      </c>
+      <c r="K224" s="56">
+        <f t="shared" si="30"/>
+        <v>2.1081851067789197</v>
+      </c>
+      <c r="L224" s="56">
+        <f t="shared" si="31"/>
+        <v>18.386476008196894</v>
+      </c>
+      <c r="M224" s="57">
+        <v>1</v>
+      </c>
+      <c r="N224" s="56"/>
+      <c r="O224" s="56"/>
+      <c r="P224" s="6"/>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A225" s="5"/>
+      <c r="B225" s="2">
+        <v>2</v>
+      </c>
+      <c r="C225" s="29">
         <v>4</v>
       </c>
-      <c r="D138" s="29">
+      <c r="D225" s="54">
         <v>30</v>
       </c>
-      <c r="E138" s="10">
-        <v>1</v>
-      </c>
-      <c r="I138">
-        <f t="shared" si="24"/>
-        <v>30.331501776206203</v>
-      </c>
-      <c r="J138">
-        <f t="shared" si="25"/>
-        <v>20.906009291344819</v>
-      </c>
-      <c r="K138">
-        <f t="shared" si="26"/>
-        <v>12.882885934448073</v>
-      </c>
-      <c r="L138">
-        <f t="shared" si="27"/>
-        <v>30.331501776206203</v>
-      </c>
-      <c r="M138">
-        <v>1</v>
-      </c>
-      <c r="Q138">
-        <f t="shared" si="28"/>
-        <v>2.4494897427831779</v>
-      </c>
-      <c r="R138">
+      <c r="E225" s="57">
+        <v>1</v>
+      </c>
+      <c r="F225" s="56"/>
+      <c r="G225" s="56"/>
+      <c r="H225" s="56"/>
+      <c r="I225" s="56">
+        <f t="shared" si="32"/>
+        <v>21.445060620105508</v>
+      </c>
+      <c r="J225" s="56">
         <f t="shared" si="29"/>
-        <v>30.331501776206203</v>
-      </c>
-      <c r="S138">
+        <v>6.0827625302982193</v>
+      </c>
+      <c r="K225" s="56">
         <f t="shared" si="30"/>
-        <v>30.331501776206203</v>
-      </c>
-      <c r="T138">
+        <v>1.0540925533894596</v>
+      </c>
+      <c r="L225" s="56">
         <f t="shared" si="31"/>
         <v>16.172893989635867</v>
       </c>
-      <c r="U138">
-        <v>3</v>
-      </c>
-      <c r="Y138">
+      <c r="M225" s="57">
+        <v>1</v>
+      </c>
+      <c r="N225" s="56"/>
+      <c r="O225" s="56"/>
+      <c r="P225" s="6"/>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A226" s="5"/>
+      <c r="B226" s="2">
+        <v>4</v>
+      </c>
+      <c r="C226" s="29">
+        <v>4</v>
+      </c>
+      <c r="D226" s="54">
+        <v>28</v>
+      </c>
+      <c r="E226" s="57">
+        <v>1</v>
+      </c>
+      <c r="F226" s="56"/>
+      <c r="G226" s="56"/>
+      <c r="H226" s="56"/>
+      <c r="I226" s="56">
         <f t="shared" si="32"/>
-        <v>4.4969125210773493</v>
-      </c>
-      <c r="Z138">
-        <f t="shared" si="33"/>
-        <v>30.331501776206203</v>
-      </c>
-      <c r="AA138">
-        <f t="shared" si="34"/>
-        <v>30.331501776206203</v>
-      </c>
-      <c r="AB138">
-        <f t="shared" si="35"/>
-        <v>16.172893989635867</v>
-      </c>
-      <c r="AC138">
-        <v>3</v>
-      </c>
-      <c r="AG138">
-        <f t="shared" si="37"/>
-        <v>4.8124837662063875</v>
-      </c>
-      <c r="AH138">
-        <f t="shared" si="38"/>
-        <v>24.689178916188276</v>
-      </c>
-      <c r="AI138">
-        <f t="shared" si="39"/>
-        <v>6.0827625302982193</v>
-      </c>
-      <c r="AJ138">
-        <f t="shared" ref="AJ138:AJ156" si="40">((B138-$AD$149)^2+(C138-$AE$149)^2+(D138-$AF$149)^2)^0.5</f>
-        <v>16.172893989635867</v>
-      </c>
-      <c r="AK138">
-        <v>3</v>
-      </c>
-      <c r="AL138" s="6"/>
-    </row>
-    <row r="139" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A139" s="5"/>
-      <c r="B139" s="2">
-        <v>3</v>
-      </c>
-      <c r="C139" s="2">
-        <v>6</v>
-      </c>
-      <c r="D139" s="29">
-        <v>42</v>
-      </c>
-      <c r="E139" s="10">
-        <v>1</v>
-      </c>
-      <c r="I139">
-        <f t="shared" si="24"/>
-        <v>42.532340636273474</v>
-      </c>
-      <c r="J139">
-        <f t="shared" si="25"/>
-        <v>8.7049129923326394</v>
-      </c>
-      <c r="K139">
-        <f t="shared" si="26"/>
-        <v>25.084233095711735</v>
-      </c>
-      <c r="L139">
-        <f t="shared" si="27"/>
-        <v>42.532340636273474</v>
-      </c>
-      <c r="M139">
-        <v>2</v>
-      </c>
-      <c r="Q139">
-        <f t="shared" si="28"/>
-        <v>10.04987562112089</v>
-      </c>
-      <c r="R139">
+        <v>23.353599829576595</v>
+      </c>
+      <c r="J226" s="56">
         <f t="shared" si="29"/>
-        <v>42.532340636273474</v>
-      </c>
-      <c r="S139">
+        <v>4.5825756949558398</v>
+      </c>
+      <c r="K226" s="56">
         <f t="shared" si="30"/>
-        <v>42.532340636273474</v>
-      </c>
-      <c r="T139">
-        <f t="shared" si="31"/>
-        <v>28.373623314620922</v>
-      </c>
-      <c r="U139">
-        <v>2</v>
-      </c>
-      <c r="Y139">
-        <f t="shared" si="32"/>
-        <v>7.7387911774959308</v>
-      </c>
-      <c r="Z139">
-        <f t="shared" si="33"/>
-        <v>42.532340636273474</v>
-      </c>
-      <c r="AA139">
-        <f t="shared" si="34"/>
-        <v>42.532340636273474</v>
-      </c>
-      <c r="AB139">
-        <f t="shared" si="35"/>
-        <v>28.373623314620922</v>
-      </c>
-      <c r="AC139">
-        <v>3</v>
-      </c>
-      <c r="AG139">
-        <f t="shared" si="37"/>
-        <v>7.4672618810377864</v>
-      </c>
-      <c r="AH139">
-        <f t="shared" si="38"/>
-        <v>12.485547200218697</v>
-      </c>
-      <c r="AI139">
-        <f t="shared" si="39"/>
-        <v>18.275666882497067</v>
-      </c>
-      <c r="AJ139">
-        <f t="shared" si="40"/>
-        <v>28.373623314620922</v>
-      </c>
-      <c r="AK139">
-        <v>3</v>
-      </c>
-      <c r="AL139" s="6"/>
-    </row>
-    <row r="140" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A140" s="5"/>
-      <c r="B140" s="2">
-        <v>4</v>
-      </c>
-      <c r="C140" s="2">
-        <v>4</v>
-      </c>
-      <c r="D140" s="29">
-        <v>28</v>
-      </c>
-      <c r="E140" s="10">
-        <v>2</v>
-      </c>
-      <c r="F140">
-        <f>AVERAGE(B140:B146)</f>
-        <v>4</v>
-      </c>
-      <c r="G140">
-        <f>AVERAGE(C140:C146)</f>
-        <v>7.1428571428571432</v>
-      </c>
-      <c r="H140">
-        <f>AVERAGE(D140:D146)</f>
-        <v>50.571428571428569</v>
-      </c>
-      <c r="I140">
-        <f t="shared" si="24"/>
-        <v>28.565713714171402</v>
-      </c>
-      <c r="J140">
-        <f t="shared" si="25"/>
-        <v>22.789184688696306</v>
-      </c>
-      <c r="K140">
-        <f t="shared" si="26"/>
-        <v>11.245832561442484</v>
-      </c>
-      <c r="L140">
-        <f t="shared" si="27"/>
-        <v>28.565713714171402</v>
-      </c>
-      <c r="M140">
-        <v>1</v>
-      </c>
-      <c r="N140">
-        <f>AVERAGE(B140:B143)</f>
-        <v>4</v>
-      </c>
-      <c r="O140">
-        <f>AVERAGE(C140:C143)</f>
-        <v>6.75</v>
-      </c>
-      <c r="P140">
-        <f>AVERAGE(D140:D143)</f>
-        <v>47.5</v>
-      </c>
-      <c r="Q140">
-        <f t="shared" si="28"/>
-        <v>4.2426406871192848</v>
-      </c>
-      <c r="R140">
-        <f t="shared" si="29"/>
-        <v>28.565713714171402</v>
-      </c>
-      <c r="S140">
-        <f t="shared" si="30"/>
-        <v>28.565713714171402</v>
-      </c>
-      <c r="T140">
+        <v>2.2607766610417559</v>
+      </c>
+      <c r="L226" s="56">
         <f t="shared" si="31"/>
         <v>14.510771860931451</v>
       </c>
-      <c r="U140">
-        <v>1</v>
-      </c>
-      <c r="V140">
-        <f>AVERAGE(B140:B142)</f>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="W140">
-        <f>AVERAGE(C140:C142)</f>
-        <v>6</v>
-      </c>
-      <c r="X140">
-        <f>AVERAGE(D140:D142)</f>
-        <v>42.666666666666664</v>
-      </c>
-      <c r="Y140">
+      <c r="M226" s="57">
+        <v>1</v>
+      </c>
+      <c r="N226" s="56"/>
+      <c r="O226" s="56"/>
+      <c r="P226" s="6"/>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A227" s="5"/>
+      <c r="B227" s="2">
+        <v>1</v>
+      </c>
+      <c r="C227" s="29">
+        <v>3</v>
+      </c>
+      <c r="D227" s="54">
+        <v>18</v>
+      </c>
+      <c r="E227" s="57">
+        <v>0</v>
+      </c>
+      <c r="F227" s="56">
+        <f>AVERAGE(B227:B235)</f>
+        <v>0.75</v>
+      </c>
+      <c r="G227" s="56">
+        <f t="shared" ref="G227:H227" si="35">AVERAGE(C227:C235)</f>
+        <v>2</v>
+      </c>
+      <c r="H227" s="56">
+        <f t="shared" si="35"/>
+        <v>14</v>
+      </c>
+      <c r="I227" s="56">
         <f t="shared" si="32"/>
-        <v>6.548960901462836</v>
-      </c>
-      <c r="Z140">
-        <f t="shared" si="33"/>
-        <v>28.565713714171402</v>
-      </c>
-      <c r="AA140">
-        <f t="shared" si="34"/>
-        <v>28.565713714171402</v>
-      </c>
-      <c r="AB140">
-        <f t="shared" si="35"/>
-        <v>14.510771860931451</v>
-      </c>
-      <c r="AC140">
-        <v>3</v>
-      </c>
-      <c r="AG140">
-        <f t="shared" si="37"/>
-        <v>6.749814812274483</v>
-      </c>
-      <c r="AH140">
-        <f t="shared" si="38"/>
-        <v>26.587382136812362</v>
-      </c>
-      <c r="AI140">
-        <f t="shared" si="39"/>
-        <v>4.5825756949558398</v>
-      </c>
-      <c r="AJ140">
-        <f t="shared" si="40"/>
-        <v>14.510771860931451</v>
-      </c>
-      <c r="AK140">
-        <v>1</v>
-      </c>
-      <c r="AL140" s="6"/>
-    </row>
-    <row r="141" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A141" s="5"/>
-      <c r="B141" s="2">
-        <v>4</v>
-      </c>
-      <c r="C141" s="2">
-        <v>8</v>
-      </c>
-      <c r="D141" s="29">
-        <v>56</v>
-      </c>
-      <c r="E141" s="10">
-        <v>3</v>
-      </c>
-      <c r="I141">
-        <f t="shared" si="24"/>
-        <v>56.709787515031302</v>
-      </c>
-      <c r="J141">
-        <f t="shared" si="25"/>
-        <v>5.4958240176203859</v>
-      </c>
-      <c r="K141">
-        <f t="shared" si="26"/>
-        <v>39.261542888684339</v>
-      </c>
-      <c r="L141">
-        <f t="shared" si="27"/>
-        <v>56.709787515031302</v>
-      </c>
-      <c r="M141">
-        <v>2</v>
-      </c>
-      <c r="N141">
-        <f>AVERAGE(B141:B148)</f>
-        <v>3.5</v>
-      </c>
-      <c r="O141">
-        <f>AVERAGE(C141:C148)</f>
-        <v>6.5</v>
-      </c>
-      <c r="P141">
-        <f>AVERAGE(D141:D148)</f>
-        <v>46.75</v>
-      </c>
-      <c r="Q141">
-        <f t="shared" si="28"/>
-        <v>24.207436873820409</v>
-      </c>
-      <c r="R141">
+        <v>33.509560203022659</v>
+      </c>
+      <c r="J227" s="56">
         <f t="shared" si="29"/>
-        <v>56.709787515031302</v>
-      </c>
-      <c r="S141">
+        <v>6.0827625302982193</v>
+      </c>
+      <c r="K227" s="56">
         <f t="shared" si="30"/>
-        <v>56.709787515031302</v>
-      </c>
-      <c r="T141">
+        <v>12.238373167123878</v>
+      </c>
+      <c r="L227" s="56">
         <f t="shared" si="31"/>
-        <v>42.550705047037702</v>
-      </c>
-      <c r="U141">
-        <v>2</v>
-      </c>
-      <c r="V141">
-        <f>AVERAGE(B141:B146)</f>
-        <v>4</v>
-      </c>
-      <c r="W141">
-        <f>AVERAGE(C141:C146)</f>
-        <v>7.666666666666667</v>
-      </c>
-      <c r="X141">
-        <f>AVERAGE(D141:D146)</f>
-        <v>54.333333333333336</v>
-      </c>
-      <c r="Y141">
+        <v>4.1306779104645761</v>
+      </c>
+      <c r="M227" s="57">
+        <v>0</v>
+      </c>
+      <c r="N227" s="56"/>
+      <c r="O227" s="56"/>
+      <c r="P227" s="6"/>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A228" s="5"/>
+      <c r="B228" s="2">
+        <v>1</v>
+      </c>
+      <c r="C228" s="29">
+        <v>3</v>
+      </c>
+      <c r="D228" s="54">
+        <v>18</v>
+      </c>
+      <c r="E228" s="57">
+        <v>0</v>
+      </c>
+      <c r="F228" s="56"/>
+      <c r="G228" s="56"/>
+      <c r="H228" s="56"/>
+      <c r="I228" s="56">
         <f t="shared" si="32"/>
-        <v>21.913973218524799</v>
-      </c>
-      <c r="Z141">
-        <f t="shared" si="33"/>
-        <v>56.709787515031302</v>
-      </c>
-      <c r="AA141">
-        <f t="shared" si="34"/>
-        <v>56.709787515031302</v>
-      </c>
-      <c r="AB141">
-        <f t="shared" si="35"/>
-        <v>42.550705047037702</v>
-      </c>
-      <c r="AC141">
-        <v>2</v>
-      </c>
-      <c r="AD141">
-        <f>AVERAGE(B141:B146)</f>
-        <v>4</v>
-      </c>
-      <c r="AE141">
-        <f t="shared" ref="AE141:AF141" si="41">AVERAGE(C141:C146)</f>
-        <v>7.666666666666667</v>
-      </c>
-      <c r="AF141">
-        <f t="shared" si="41"/>
-        <v>54.333333333333336</v>
-      </c>
-      <c r="AG141">
-        <f t="shared" si="37"/>
-        <v>21.632383132701769</v>
-      </c>
-      <c r="AH141">
-        <f t="shared" si="38"/>
-        <v>1.6996731711975925</v>
-      </c>
-      <c r="AI141">
-        <f t="shared" si="39"/>
-        <v>32.449961479175904</v>
-      </c>
-      <c r="AJ141">
-        <f t="shared" si="40"/>
-        <v>42.550705047037702</v>
-      </c>
-      <c r="AK141">
-        <v>2</v>
-      </c>
-      <c r="AL141" s="6"/>
-    </row>
-    <row r="142" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A142" s="5"/>
-      <c r="B142" s="2">
-        <v>3</v>
-      </c>
-      <c r="C142" s="2">
-        <v>6</v>
-      </c>
-      <c r="D142" s="29">
-        <v>44</v>
-      </c>
-      <c r="E142" s="10">
-        <v>3</v>
-      </c>
-      <c r="I142">
-        <f t="shared" si="24"/>
-        <v>44.50842616853577</v>
-      </c>
-      <c r="J142">
-        <f t="shared" si="25"/>
-        <v>6.744612362350213</v>
-      </c>
-      <c r="K142">
-        <f t="shared" si="26"/>
-        <v>27.059540831285368</v>
-      </c>
-      <c r="L142">
-        <f t="shared" si="27"/>
-        <v>44.50842616853577</v>
-      </c>
-      <c r="M142">
-        <v>2</v>
-      </c>
-      <c r="Q142">
-        <f t="shared" si="28"/>
-        <v>12.041594578792296</v>
-      </c>
-      <c r="R142">
+        <v>33.509560203022659</v>
+      </c>
+      <c r="J228" s="56">
         <f t="shared" si="29"/>
-        <v>44.50842616853577</v>
-      </c>
-      <c r="S142">
+        <v>6.0827625302982193</v>
+      </c>
+      <c r="K228" s="56">
         <f t="shared" si="30"/>
-        <v>44.50842616853577</v>
-      </c>
-      <c r="T142">
+        <v>12.238373167123878</v>
+      </c>
+      <c r="L228" s="56">
         <f t="shared" si="31"/>
-        <v>30.349011516027996</v>
-      </c>
-      <c r="U142">
-        <v>2</v>
-      </c>
-      <c r="Y142">
+        <v>4.1306779104645761</v>
+      </c>
+      <c r="M228" s="57">
+        <v>0</v>
+      </c>
+      <c r="N228" s="56"/>
+      <c r="O228" s="56"/>
+      <c r="P228" s="6"/>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A229" s="5"/>
+      <c r="B229" s="2">
+        <v>0</v>
+      </c>
+      <c r="C229" s="29">
+        <v>1</v>
+      </c>
+      <c r="D229" s="54">
+        <v>5</v>
+      </c>
+      <c r="E229" s="57">
+        <v>0</v>
+      </c>
+      <c r="F229" s="56"/>
+      <c r="G229" s="56"/>
+      <c r="H229" s="56"/>
+      <c r="I229" s="56">
         <f t="shared" si="32"/>
-        <v>9.7239680972098785</v>
-      </c>
-      <c r="Z142">
-        <f t="shared" si="33"/>
-        <v>44.50842616853577</v>
-      </c>
-      <c r="AA142">
-        <f t="shared" si="34"/>
-        <v>44.50842616853577</v>
-      </c>
-      <c r="AB142">
-        <f t="shared" si="35"/>
-        <v>30.349011516027996</v>
-      </c>
-      <c r="AC142">
-        <v>2</v>
-      </c>
-      <c r="AG142">
-        <f t="shared" si="37"/>
-        <v>9.4530418384771764</v>
-      </c>
-      <c r="AH142">
-        <f t="shared" si="38"/>
-        <v>10.514540197058338</v>
-      </c>
-      <c r="AI142">
-        <f t="shared" si="39"/>
-        <v>20.248456731316587</v>
-      </c>
-      <c r="AJ142">
-        <f t="shared" si="40"/>
-        <v>30.349011516027996</v>
-      </c>
-      <c r="AK142">
-        <v>3</v>
-      </c>
-      <c r="AL142" s="6"/>
-    </row>
-    <row r="143" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A143" s="5"/>
-      <c r="B143" s="2">
-        <v>5</v>
-      </c>
-      <c r="C143" s="2">
-        <v>9</v>
-      </c>
-      <c r="D143" s="29">
-        <v>62</v>
-      </c>
-      <c r="E143" s="10">
-        <v>2</v>
-      </c>
-      <c r="I143">
-        <f t="shared" si="24"/>
-        <v>62.849025449882674</v>
-      </c>
-      <c r="J143">
-        <f t="shared" si="25"/>
-        <v>11.621584422521568</v>
-      </c>
-      <c r="K143">
-        <f t="shared" si="26"/>
-        <v>45.403400203068493</v>
-      </c>
-      <c r="L143">
-        <f t="shared" si="27"/>
-        <v>62.849025449882674</v>
-      </c>
-      <c r="M143">
-        <v>2</v>
-      </c>
-      <c r="Q143">
-        <f t="shared" si="28"/>
-        <v>30.331501776206203</v>
-      </c>
-      <c r="R143">
+        <v>46.697329955790835</v>
+      </c>
+      <c r="J229" s="56">
         <f t="shared" si="29"/>
-        <v>62.849025449882674</v>
-      </c>
-      <c r="S143">
+        <v>19.209372712298546</v>
+      </c>
+      <c r="K229" s="56">
         <f t="shared" si="30"/>
-        <v>62.849025449882674</v>
-      </c>
-      <c r="T143">
+        <v>25.399037602064986</v>
+      </c>
+      <c r="L229" s="56">
         <f t="shared" si="31"/>
-        <v>48.693557068671829</v>
-      </c>
-      <c r="U143">
-        <v>2</v>
-      </c>
-      <c r="Y143">
+        <v>9.0863909226931234</v>
+      </c>
+      <c r="M229" s="57">
+        <v>0</v>
+      </c>
+      <c r="N229" s="56"/>
+      <c r="O229" s="56"/>
+      <c r="P229" s="6"/>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A230" s="5"/>
+      <c r="B230" s="2">
+        <v>1</v>
+      </c>
+      <c r="C230" s="29">
+        <v>2</v>
+      </c>
+      <c r="D230" s="54">
+        <v>17</v>
+      </c>
+      <c r="E230" s="57">
+        <v>0</v>
+      </c>
+      <c r="F230" s="56"/>
+      <c r="G230" s="56"/>
+      <c r="H230" s="56"/>
+      <c r="I230" s="56">
         <f t="shared" si="32"/>
-        <v>28.05153986662566</v>
-      </c>
-      <c r="Z143">
-        <f t="shared" si="33"/>
-        <v>62.849025449882674</v>
-      </c>
-      <c r="AA143">
-        <f t="shared" si="34"/>
-        <v>62.849025449882674</v>
-      </c>
-      <c r="AB143">
-        <f t="shared" si="35"/>
-        <v>48.693557068671829</v>
-      </c>
-      <c r="AC143">
-        <v>2</v>
-      </c>
-      <c r="AG143">
-        <f t="shared" si="37"/>
-        <v>27.762564723022258</v>
-      </c>
-      <c r="AH143">
-        <f t="shared" si="38"/>
-        <v>7.8457348639598781</v>
-      </c>
-      <c r="AI143">
-        <f t="shared" si="39"/>
-        <v>38.587562763149478</v>
-      </c>
-      <c r="AJ143">
-        <f t="shared" si="40"/>
-        <v>48.693557068671829</v>
-      </c>
-      <c r="AK143">
-        <v>2</v>
-      </c>
-      <c r="AL143" s="6"/>
-    </row>
-    <row r="144" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A144" s="5"/>
-      <c r="B144" s="2">
-        <v>5</v>
-      </c>
-      <c r="C144" s="2">
-        <v>9</v>
-      </c>
-      <c r="D144" s="29">
-        <v>64</v>
-      </c>
-      <c r="E144" s="10">
-        <v>2</v>
-      </c>
-      <c r="I144">
-        <f t="shared" si="24"/>
-        <v>64.822835482567413</v>
-      </c>
-      <c r="J144">
-        <f t="shared" si="25"/>
-        <v>13.59321559470318</v>
-      </c>
-      <c r="K144">
-        <f t="shared" si="26"/>
-        <v>47.37582453108336</v>
-      </c>
-      <c r="L144">
-        <f t="shared" si="27"/>
-        <v>64.822835482567413</v>
-      </c>
-      <c r="M144">
-        <v>2</v>
-      </c>
-      <c r="Q144">
-        <f t="shared" si="28"/>
-        <v>32.310988842807021</v>
-      </c>
-      <c r="R144">
+        <v>34.635828631635192</v>
+      </c>
+      <c r="J230" s="56">
         <f t="shared" si="29"/>
-        <v>64.822835482567413</v>
-      </c>
-      <c r="S144">
+        <v>7.1414284285428504</v>
+      </c>
+      <c r="K230" s="56">
         <f t="shared" si="30"/>
-        <v>64.822835482567413</v>
-      </c>
-      <c r="T144">
+        <v>13.35830993967592</v>
+      </c>
+      <c r="L230" s="56">
         <f t="shared" si="31"/>
-        <v>50.666186949483382</v>
-      </c>
-      <c r="U144">
-        <v>2</v>
-      </c>
-      <c r="Y144">
+        <v>3.0103986446980739</v>
+      </c>
+      <c r="M230" s="57">
+        <v>0</v>
+      </c>
+      <c r="N230" s="56"/>
+      <c r="O230" s="56"/>
+      <c r="P230" s="6"/>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A231" s="5"/>
+      <c r="B231" s="2">
+        <v>1</v>
+      </c>
+      <c r="C231" s="29">
+        <v>3</v>
+      </c>
+      <c r="D231" s="54">
+        <v>19</v>
+      </c>
+      <c r="E231" s="57">
+        <v>0</v>
+      </c>
+      <c r="F231" s="56"/>
+      <c r="G231" s="56"/>
+      <c r="H231" s="56"/>
+      <c r="I231" s="56">
         <f t="shared" si="32"/>
-        <v>30.025914733036117</v>
-      </c>
-      <c r="Z144">
-        <f t="shared" si="33"/>
-        <v>64.822835482567413</v>
-      </c>
-      <c r="AA144">
-        <f t="shared" si="34"/>
-        <v>64.822835482567413</v>
-      </c>
-      <c r="AB144">
-        <f t="shared" si="35"/>
-        <v>50.666186949483382</v>
-      </c>
-      <c r="AC144">
-        <v>2</v>
-      </c>
-      <c r="AG144">
-        <f t="shared" si="37"/>
-        <v>29.738190933545368</v>
-      </c>
-      <c r="AH144">
-        <f t="shared" si="38"/>
-        <v>9.8092926463747716</v>
-      </c>
-      <c r="AI144">
-        <f t="shared" si="39"/>
-        <v>40.558599581346492</v>
-      </c>
-      <c r="AJ144">
-        <f t="shared" si="40"/>
-        <v>50.666186949483382</v>
-      </c>
-      <c r="AK144">
-        <v>2</v>
-      </c>
-      <c r="AL144" s="6"/>
-    </row>
-    <row r="145" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A145" s="5"/>
-      <c r="B145" s="2">
-        <v>3</v>
-      </c>
-      <c r="C145" s="2">
-        <v>6</v>
-      </c>
-      <c r="D145" s="29">
-        <v>44</v>
-      </c>
-      <c r="E145" s="10">
-        <v>1</v>
-      </c>
-      <c r="I145">
-        <f t="shared" si="24"/>
-        <v>44.50842616853577</v>
-      </c>
-      <c r="J145">
-        <f t="shared" si="25"/>
-        <v>6.744612362350213</v>
-      </c>
-      <c r="K145">
-        <f t="shared" si="26"/>
-        <v>27.059540831285368</v>
-      </c>
-      <c r="L145">
-        <f t="shared" si="27"/>
-        <v>44.50842616853577</v>
-      </c>
-      <c r="M145">
-        <v>2</v>
-      </c>
-      <c r="Q145">
-        <f t="shared" si="28"/>
-        <v>12.041594578792296</v>
-      </c>
-      <c r="R145">
+        <v>32.521387193660729</v>
+      </c>
+      <c r="J231" s="56">
         <f t="shared" si="29"/>
-        <v>44.50842616853577</v>
-      </c>
-      <c r="S145">
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="K231" s="56">
         <f t="shared" si="30"/>
-        <v>44.50842616853577</v>
-      </c>
-      <c r="T145">
-        <f t="shared" si="31"/>
-        <v>30.349011516027996</v>
-      </c>
-      <c r="U145">
-        <v>2</v>
-      </c>
-      <c r="Y145">
-        <f t="shared" si="32"/>
-        <v>9.7239680972098785</v>
-      </c>
-      <c r="Z145">
-        <f t="shared" si="33"/>
-        <v>44.50842616853577</v>
-      </c>
-      <c r="AA145">
-        <f t="shared" si="34"/>
-        <v>44.50842616853577</v>
-      </c>
-      <c r="AB145">
-        <f t="shared" si="35"/>
-        <v>30.349011516027996</v>
-      </c>
-      <c r="AC145">
-        <v>2</v>
-      </c>
-      <c r="AG145">
-        <f t="shared" si="37"/>
-        <v>9.4530418384771764</v>
-      </c>
-      <c r="AH145">
-        <f t="shared" si="38"/>
-        <v>10.514540197058338</v>
-      </c>
-      <c r="AI145">
-        <f t="shared" si="39"/>
-        <v>20.248456731316587</v>
-      </c>
-      <c r="AJ145">
-        <f t="shared" si="40"/>
-        <v>30.349011516027996</v>
-      </c>
-      <c r="AK145">
-        <v>3</v>
-      </c>
-      <c r="AL145" s="6"/>
-    </row>
-    <row r="146" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A146" s="5"/>
-      <c r="B146" s="2">
-        <v>4</v>
-      </c>
-      <c r="C146" s="2">
-        <v>8</v>
-      </c>
-      <c r="D146" s="29">
-        <v>56</v>
-      </c>
-      <c r="E146" s="10">
-        <v>1</v>
-      </c>
-      <c r="I146">
-        <f t="shared" si="24"/>
-        <v>56.709787515031302</v>
-      </c>
-      <c r="J146">
-        <f t="shared" si="25"/>
-        <v>5.4958240176203859</v>
-      </c>
-      <c r="K146">
-        <f t="shared" si="26"/>
-        <v>39.261542888684339</v>
-      </c>
-      <c r="L146">
-        <f t="shared" si="27"/>
-        <v>56.709787515031302</v>
-      </c>
-      <c r="M146">
-        <v>2</v>
-      </c>
-      <c r="Q146">
-        <f t="shared" si="28"/>
-        <v>24.207436873820409</v>
-      </c>
-      <c r="R146">
-        <f t="shared" si="29"/>
-        <v>56.709787515031302</v>
-      </c>
-      <c r="S146">
-        <f t="shared" si="30"/>
-        <v>56.709787515031302</v>
-      </c>
-      <c r="T146">
-        <f t="shared" si="31"/>
-        <v>42.550705047037702</v>
-      </c>
-      <c r="U146">
-        <v>2</v>
-      </c>
-      <c r="Y146">
-        <f t="shared" si="32"/>
-        <v>21.913973218524799</v>
-      </c>
-      <c r="Z146">
-        <f t="shared" si="33"/>
-        <v>56.709787515031302</v>
-      </c>
-      <c r="AA146">
-        <f t="shared" si="34"/>
-        <v>56.709787515031302</v>
-      </c>
-      <c r="AB146">
-        <f t="shared" si="35"/>
-        <v>42.550705047037702</v>
-      </c>
-      <c r="AC146">
-        <v>2</v>
-      </c>
-      <c r="AG146">
-        <f t="shared" si="37"/>
-        <v>21.632383132701769</v>
-      </c>
-      <c r="AH146">
-        <f t="shared" si="38"/>
-        <v>1.6996731711975925</v>
-      </c>
-      <c r="AI146">
-        <f t="shared" si="39"/>
-        <v>32.449961479175904</v>
-      </c>
-      <c r="AJ146">
-        <f t="shared" si="40"/>
-        <v>42.550705047037702</v>
-      </c>
-      <c r="AK146">
-        <v>2</v>
-      </c>
-      <c r="AL146" s="6"/>
-    </row>
-    <row r="147" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A147" s="5"/>
-      <c r="B147" s="2">
-        <v>2</v>
-      </c>
-      <c r="C147" s="2">
-        <v>3</v>
-      </c>
-      <c r="D147" s="29">
-        <v>24</v>
-      </c>
-      <c r="E147" s="10">
-        <v>1</v>
-      </c>
-      <c r="F147">
-        <f>AVERAGE(B147:B154)</f>
-        <v>1.125</v>
-      </c>
-      <c r="G147">
-        <f>AVERAGE(C147:C154)</f>
-        <v>2.375</v>
-      </c>
-      <c r="H147">
-        <f>AVERAGE(D147:D154)</f>
-        <v>17.25</v>
-      </c>
-      <c r="I147">
-        <f t="shared" si="24"/>
-        <v>24.269322199023193</v>
-      </c>
-      <c r="J147">
-        <f t="shared" si="25"/>
-        <v>26.966721744265708</v>
-      </c>
-      <c r="K147">
-        <f t="shared" si="26"/>
-        <v>6.835111557246158</v>
-      </c>
-      <c r="L147">
-        <f t="shared" si="27"/>
-        <v>24.269322199023193</v>
-      </c>
-      <c r="M147">
-        <v>1</v>
-      </c>
-      <c r="Q147">
-        <f t="shared" si="28"/>
-        <v>8.3066238629180749</v>
-      </c>
-      <c r="R147">
-        <f t="shared" si="29"/>
-        <v>24.269322199023193</v>
-      </c>
-      <c r="S147">
-        <f t="shared" si="30"/>
-        <v>24.269322199023193</v>
-      </c>
-      <c r="T147">
-        <f t="shared" si="31"/>
-        <v>10.127314550264547</v>
-      </c>
-      <c r="U147">
-        <v>1</v>
-      </c>
-      <c r="Y147">
-        <f t="shared" si="32"/>
-        <v>10.546194679704252</v>
-      </c>
-      <c r="Z147">
-        <f t="shared" si="33"/>
-        <v>24.269322199023193</v>
-      </c>
-      <c r="AA147">
-        <f t="shared" si="34"/>
-        <v>24.269322199023193</v>
-      </c>
-      <c r="AB147">
-        <f t="shared" si="35"/>
-        <v>10.127314550264547</v>
-      </c>
-      <c r="AC147">
-        <v>1</v>
-      </c>
-      <c r="AD147">
-        <f>AVERAGE(B147:B148)</f>
-        <v>2</v>
-      </c>
-      <c r="AE147">
-        <f t="shared" ref="AE147:AF147" si="42">AVERAGE(C147:C148)</f>
-        <v>3</v>
-      </c>
-      <c r="AF147">
-        <f t="shared" si="42"/>
-        <v>24</v>
-      </c>
-      <c r="AG147">
-        <f t="shared" si="37"/>
-        <v>10.833282051160674</v>
-      </c>
-      <c r="AH147">
-        <f t="shared" si="38"/>
-        <v>30.755306678504915</v>
-      </c>
-      <c r="AI147">
-        <f>((B147-$AD$147)^2+(C147-$AE$147)^2+(D147-$AF$147)^2)^0.5</f>
-        <v>0</v>
-      </c>
-      <c r="AJ147">
-        <f t="shared" si="40"/>
-        <v>10.127314550264547</v>
-      </c>
-      <c r="AK147">
-        <v>1</v>
-      </c>
-      <c r="AL147" s="6"/>
-    </row>
-    <row r="148" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A148" s="5"/>
-      <c r="B148" s="2">
-        <v>2</v>
-      </c>
-      <c r="C148" s="2">
-        <v>3</v>
-      </c>
-      <c r="D148" s="29">
-        <v>24</v>
-      </c>
-      <c r="E148" s="10">
-        <v>0</v>
-      </c>
-      <c r="I148">
-        <f t="shared" si="24"/>
-        <v>24.269322199023193</v>
-      </c>
-      <c r="J148">
-        <f t="shared" si="25"/>
-        <v>26.966721744265708</v>
-      </c>
-      <c r="K148">
-        <f t="shared" si="26"/>
-        <v>6.835111557246158</v>
-      </c>
-      <c r="L148">
-        <f t="shared" si="27"/>
-        <v>24.269322199023193</v>
-      </c>
-      <c r="M148">
-        <v>1</v>
-      </c>
-      <c r="Q148">
-        <f t="shared" si="28"/>
-        <v>8.3066238629180749</v>
-      </c>
-      <c r="R148">
-        <f t="shared" si="29"/>
-        <v>24.269322199023193</v>
-      </c>
-      <c r="S148">
-        <f t="shared" si="30"/>
-        <v>24.269322199023193</v>
-      </c>
-      <c r="T148">
-        <f t="shared" si="31"/>
-        <v>10.127314550264547</v>
-      </c>
-      <c r="U148">
-        <v>1</v>
-      </c>
-      <c r="Y148">
-        <f t="shared" si="32"/>
-        <v>10.546194679704252</v>
-      </c>
-      <c r="Z148">
-        <f t="shared" si="33"/>
-        <v>24.269322199023193</v>
-      </c>
-      <c r="AA148">
-        <f t="shared" si="34"/>
-        <v>24.269322199023193</v>
-      </c>
-      <c r="AB148">
-        <f t="shared" si="35"/>
-        <v>10.127314550264547</v>
-      </c>
-      <c r="AC148">
-        <v>1</v>
-      </c>
-      <c r="AG148">
-        <f t="shared" si="37"/>
-        <v>10.833282051160674</v>
-      </c>
-      <c r="AH148">
-        <f t="shared" si="38"/>
-        <v>30.755306678504915</v>
-      </c>
-      <c r="AI148">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="AJ148">
-        <f t="shared" si="40"/>
-        <v>10.127314550264547</v>
-      </c>
-      <c r="AK148">
-        <v>1</v>
-      </c>
-      <c r="AL148" s="6"/>
-    </row>
-    <row r="149" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A149" s="5"/>
-      <c r="B149" s="2">
-        <v>1</v>
-      </c>
-      <c r="C149" s="2">
-        <v>3</v>
-      </c>
-      <c r="D149" s="29">
-        <v>19</v>
-      </c>
-      <c r="E149" s="10">
-        <v>3</v>
-      </c>
-      <c r="F149">
-        <f>AVERAGE(B149:B152)</f>
-        <v>1</v>
-      </c>
-      <c r="G149">
-        <f>AVERAGE(C149:C152)</f>
-        <v>2.5</v>
-      </c>
-      <c r="H149">
-        <f>AVERAGE(D149:D152)</f>
-        <v>17.75</v>
-      </c>
-      <c r="I149">
-        <f t="shared" si="24"/>
-        <v>19.261360284258224</v>
-      </c>
-      <c r="J149">
-        <f t="shared" si="25"/>
-        <v>31.983095024511599</v>
-      </c>
-      <c r="K149">
-        <f t="shared" si="26"/>
-        <v>1.8624580532189174</v>
-      </c>
-      <c r="L149">
-        <f t="shared" si="27"/>
-        <v>19.261360284258224</v>
-      </c>
-      <c r="M149">
-        <v>0</v>
-      </c>
-      <c r="N149">
-        <f>AVERAGE(B149:B156)</f>
-        <v>0.75</v>
-      </c>
-      <c r="O149">
-        <f>AVERAGE(C149:C156)</f>
-        <v>2</v>
-      </c>
-      <c r="P149">
-        <f>AVERAGE(D149:D156)</f>
-        <v>14</v>
-      </c>
-      <c r="Q149">
-        <f t="shared" si="28"/>
-        <v>13.30413469565007</v>
-      </c>
-      <c r="R149">
-        <f t="shared" si="29"/>
-        <v>19.261360284258224</v>
-      </c>
-      <c r="S149">
-        <f t="shared" si="30"/>
-        <v>19.261360284258224</v>
-      </c>
-      <c r="T149">
+        <v>11.259563836036357</v>
+      </c>
+      <c r="L231" s="56">
         <f t="shared" si="31"/>
         <v>5.1051444641655346</v>
       </c>
-      <c r="U149">
+      <c r="M231" s="57">
+        <v>2</v>
+      </c>
+      <c r="N231" s="56"/>
+      <c r="O231" s="56"/>
+      <c r="P231" s="6"/>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A232" s="5"/>
+      <c r="B232" s="2">
+        <v>1</v>
+      </c>
+      <c r="C232" s="29">
+        <v>2</v>
+      </c>
+      <c r="D232" s="54">
+        <v>17</v>
+      </c>
+      <c r="E232" s="57">
         <v>0</v>
       </c>
-      <c r="V149">
-        <f>AVERAGE(B149:B156)</f>
-        <v>0.75</v>
-      </c>
-      <c r="W149">
-        <f>AVERAGE(C149:C156)</f>
-        <v>2</v>
-      </c>
-      <c r="X149">
-        <f>AVERAGE(D149:D156)</f>
-        <v>14</v>
-      </c>
-      <c r="Y149">
+      <c r="F232" s="56"/>
+      <c r="G232" s="56"/>
+      <c r="H232" s="56"/>
+      <c r="I232" s="56">
         <f t="shared" si="32"/>
-        <v>15.552777529717607</v>
-      </c>
-      <c r="Z149">
-        <f t="shared" si="33"/>
-        <v>19.261360284258224</v>
-      </c>
-      <c r="AA149">
-        <f t="shared" si="34"/>
-        <v>19.261360284258224</v>
-      </c>
-      <c r="AB149">
-        <f t="shared" si="35"/>
-        <v>5.1051444641655346</v>
-      </c>
-      <c r="AC149">
-        <v>0</v>
-      </c>
-      <c r="AD149">
-        <f>AVERAGE(B149:B156)</f>
-        <v>0.75</v>
-      </c>
-      <c r="AE149">
-        <f t="shared" ref="AE149:AF149" si="43">AVERAGE(C149:C156)</f>
-        <v>2</v>
-      </c>
-      <c r="AF149">
-        <f t="shared" si="43"/>
-        <v>14</v>
-      </c>
-      <c r="AG149">
-        <f t="shared" si="37"/>
-        <v>15.854336946085132</v>
-      </c>
-      <c r="AH149">
-        <f t="shared" si="38"/>
-        <v>35.766216213379664</v>
-      </c>
-      <c r="AI149">
-        <f t="shared" si="39"/>
-        <v>5.0990195135927845</v>
-      </c>
-      <c r="AJ149">
-        <f t="shared" si="40"/>
-        <v>5.1051444641655346</v>
-      </c>
-      <c r="AK149">
-        <v>1</v>
-      </c>
-      <c r="AL149" s="6"/>
-    </row>
-    <row r="150" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A150" s="5"/>
-      <c r="B150" s="2">
-        <v>1</v>
-      </c>
-      <c r="C150" s="2">
-        <v>2</v>
-      </c>
-      <c r="D150" s="29">
-        <v>17</v>
-      </c>
-      <c r="E150" s="10">
-        <v>3</v>
-      </c>
-      <c r="I150">
-        <f t="shared" si="24"/>
-        <v>17.146428199482248</v>
-      </c>
-      <c r="J150">
-        <f t="shared" si="25"/>
-        <v>34.095304602222974</v>
-      </c>
-      <c r="K150">
-        <f t="shared" si="26"/>
-        <v>0.46770717334674267</v>
-      </c>
-      <c r="L150">
-        <f t="shared" si="27"/>
-        <v>17.146428199482248</v>
-      </c>
-      <c r="M150">
-        <v>0</v>
-      </c>
-      <c r="Q150">
-        <f t="shared" si="28"/>
-        <v>15.427248620541512</v>
-      </c>
-      <c r="R150">
+        <v>34.635828631635192</v>
+      </c>
+      <c r="J232" s="56">
         <f t="shared" si="29"/>
-        <v>17.146428199482248</v>
-      </c>
-      <c r="S150">
+        <v>7.1414284285428504</v>
+      </c>
+      <c r="K232" s="56">
         <f t="shared" si="30"/>
-        <v>17.146428199482248</v>
-      </c>
-      <c r="T150">
+        <v>13.35830993967592</v>
+      </c>
+      <c r="L232" s="56">
         <f t="shared" si="31"/>
         <v>3.0103986446980739</v>
       </c>
-      <c r="U150">
+      <c r="M232" s="57">
         <v>0</v>
       </c>
-      <c r="Y150">
+      <c r="N232" s="56"/>
+      <c r="O232" s="56"/>
+      <c r="P232" s="6"/>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A233" s="5"/>
+      <c r="B233" s="2">
+        <v>1</v>
+      </c>
+      <c r="C233" s="29">
+        <v>2</v>
+      </c>
+      <c r="D233" s="54">
+        <v>17</v>
+      </c>
+      <c r="E233" s="57">
+        <v>0</v>
+      </c>
+      <c r="F233" s="56"/>
+      <c r="G233" s="56"/>
+      <c r="H233" s="56"/>
+      <c r="I233" s="56">
         <f t="shared" si="32"/>
-        <v>17.669811040931432</v>
-      </c>
-      <c r="Z150">
-        <f t="shared" si="33"/>
-        <v>17.146428199482248</v>
-      </c>
-      <c r="AA150">
-        <f t="shared" si="34"/>
-        <v>17.146428199482248</v>
-      </c>
-      <c r="AB150">
-        <f t="shared" si="35"/>
-        <v>3.0103986446980739</v>
-      </c>
-      <c r="AC150">
-        <v>0</v>
-      </c>
-      <c r="AG150">
-        <f t="shared" si="37"/>
-        <v>17.965522536235902</v>
-      </c>
-      <c r="AH150">
-        <f t="shared" si="38"/>
-        <v>37.879927255591305</v>
-      </c>
-      <c r="AI150">
-        <f t="shared" si="39"/>
+        <v>34.635828631635192</v>
+      </c>
+      <c r="J233" s="56">
+        <f t="shared" si="29"/>
         <v>7.1414284285428504</v>
       </c>
-      <c r="AJ150">
-        <f t="shared" si="40"/>
-        <v>3.0103986446980739</v>
-      </c>
-      <c r="AK150">
-        <v>0</v>
-      </c>
-      <c r="AL150" s="6"/>
-    </row>
-    <row r="151" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A151" s="5"/>
-      <c r="B151" s="2">
-        <v>1</v>
-      </c>
-      <c r="C151" s="2">
-        <v>3</v>
-      </c>
-      <c r="D151" s="29">
-        <v>18</v>
-      </c>
-      <c r="E151" s="10">
-        <v>2</v>
-      </c>
-      <c r="I151">
-        <f t="shared" si="24"/>
-        <v>18.275666882497067</v>
-      </c>
-      <c r="J151">
-        <f t="shared" si="25"/>
-        <v>32.970611527385955</v>
-      </c>
-      <c r="K151">
-        <f t="shared" si="26"/>
-        <v>0.98425098425147639</v>
-      </c>
-      <c r="L151">
-        <f t="shared" si="27"/>
-        <v>18.275666882497067</v>
-      </c>
-      <c r="M151">
-        <v>0</v>
-      </c>
-      <c r="Q151">
-        <f t="shared" si="28"/>
-        <v>14.282856857085701</v>
-      </c>
-      <c r="R151">
-        <f t="shared" si="29"/>
-        <v>18.275666882497067</v>
-      </c>
-      <c r="S151">
+      <c r="K233" s="56">
         <f t="shared" si="30"/>
-        <v>18.275666882497067</v>
-      </c>
-      <c r="T151">
-        <f t="shared" si="31"/>
-        <v>4.1306779104645761</v>
-      </c>
-      <c r="U151">
-        <v>0</v>
-      </c>
-      <c r="Y151">
-        <f t="shared" si="32"/>
-        <v>16.539514973407037</v>
-      </c>
-      <c r="Z151">
-        <f t="shared" si="33"/>
-        <v>18.275666882497067</v>
-      </c>
-      <c r="AA151">
-        <f t="shared" si="34"/>
-        <v>18.275666882497067</v>
-      </c>
-      <c r="AB151">
-        <f t="shared" si="35"/>
-        <v>4.1306779104645761</v>
-      </c>
-      <c r="AC151">
-        <v>0</v>
-      </c>
-      <c r="AG151">
-        <f t="shared" si="37"/>
-        <v>16.839239887833418</v>
-      </c>
-      <c r="AH151">
-        <f t="shared" si="38"/>
-        <v>36.754440396894758</v>
-      </c>
-      <c r="AI151">
-        <f t="shared" si="39"/>
-        <v>6.0827625302982193</v>
-      </c>
-      <c r="AJ151">
-        <f t="shared" si="40"/>
-        <v>4.1306779104645761</v>
-      </c>
-      <c r="AK151">
-        <v>0</v>
-      </c>
-      <c r="AL151" s="6"/>
-    </row>
-    <row r="152" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A152" s="5"/>
-      <c r="B152" s="2">
-        <v>1</v>
-      </c>
-      <c r="C152" s="2">
-        <v>2</v>
-      </c>
-      <c r="D152" s="29">
-        <v>17</v>
-      </c>
-      <c r="E152" s="10">
-        <v>2</v>
-      </c>
-      <c r="I152">
-        <f t="shared" si="24"/>
-        <v>17.146428199482248</v>
-      </c>
-      <c r="J152">
-        <f t="shared" si="25"/>
-        <v>34.095304602222974</v>
-      </c>
-      <c r="K152">
-        <f t="shared" si="26"/>
-        <v>0.46770717334674267</v>
-      </c>
-      <c r="L152">
-        <f t="shared" si="27"/>
-        <v>17.146428199482248</v>
-      </c>
-      <c r="M152">
-        <v>0</v>
-      </c>
-      <c r="Q152">
-        <f t="shared" si="28"/>
-        <v>15.427248620541512</v>
-      </c>
-      <c r="R152">
-        <f t="shared" si="29"/>
-        <v>17.146428199482248</v>
-      </c>
-      <c r="S152">
-        <f t="shared" si="30"/>
-        <v>17.146428199482248</v>
-      </c>
-      <c r="T152">
+        <v>13.35830993967592</v>
+      </c>
+      <c r="L233" s="56">
         <f t="shared" si="31"/>
         <v>3.0103986446980739</v>
       </c>
-      <c r="U152">
+      <c r="M233" s="57">
         <v>0</v>
       </c>
-      <c r="Y152">
+      <c r="N233" s="56"/>
+      <c r="O233" s="56"/>
+      <c r="P233" s="6"/>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A234" s="5"/>
+      <c r="B234" s="2">
+        <v>0</v>
+      </c>
+      <c r="C234" s="29">
+        <v>0</v>
+      </c>
+      <c r="D234" s="54">
+        <v>1</v>
+      </c>
+      <c r="E234" s="57">
+        <v>0</v>
+      </c>
+      <c r="F234" s="56"/>
+      <c r="G234" s="56"/>
+      <c r="H234" s="56"/>
+      <c r="I234" s="56">
         <f t="shared" si="32"/>
-        <v>17.669811040931432</v>
-      </c>
-      <c r="Z152">
-        <f t="shared" si="33"/>
-        <v>17.146428199482248</v>
-      </c>
-      <c r="AA152">
-        <f t="shared" si="34"/>
-        <v>17.146428199482248</v>
-      </c>
-      <c r="AB152">
-        <f t="shared" si="35"/>
-        <v>3.0103986446980739</v>
-      </c>
-      <c r="AC152">
-        <v>0</v>
-      </c>
-      <c r="AG152">
-        <f t="shared" si="37"/>
-        <v>17.965522536235902</v>
-      </c>
-      <c r="AH152">
-        <f t="shared" si="38"/>
-        <v>37.879927255591305</v>
-      </c>
-      <c r="AI152">
-        <f t="shared" si="39"/>
-        <v>7.1414284285428504</v>
-      </c>
-      <c r="AJ152">
-        <f t="shared" si="40"/>
-        <v>3.0103986446980739</v>
-      </c>
-      <c r="AK152">
-        <v>0</v>
-      </c>
-      <c r="AL152" s="6"/>
-    </row>
-    <row r="153" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A153" s="5"/>
-      <c r="B153" s="2">
-        <v>1</v>
-      </c>
-      <c r="C153" s="2">
-        <v>3</v>
-      </c>
-      <c r="D153" s="29">
-        <v>18</v>
-      </c>
-      <c r="E153" s="10">
-        <v>1</v>
-      </c>
-      <c r="I153">
-        <f t="shared" si="24"/>
-        <v>18.275666882497067</v>
-      </c>
-      <c r="J153">
-        <f t="shared" si="25"/>
-        <v>32.970611527385955</v>
-      </c>
-      <c r="K153">
-        <f t="shared" si="26"/>
-        <v>0.98425098425147639</v>
-      </c>
-      <c r="L153">
-        <f t="shared" si="27"/>
-        <v>18.275666882497067</v>
-      </c>
-      <c r="M153">
-        <v>0</v>
-      </c>
-      <c r="Q153">
-        <f t="shared" si="28"/>
-        <v>14.282856857085701</v>
-      </c>
-      <c r="R153">
+        <v>50.785240227845726</v>
+      </c>
+      <c r="J234" s="56">
         <f t="shared" si="29"/>
-        <v>18.275666882497067</v>
-      </c>
-      <c r="S153">
+        <v>23.280893453645632</v>
+      </c>
+      <c r="K234" s="56">
         <f t="shared" si="30"/>
-        <v>18.275666882497067</v>
-      </c>
-      <c r="T153">
-        <f t="shared" si="31"/>
-        <v>4.1306779104645761</v>
-      </c>
-      <c r="U153">
-        <v>0</v>
-      </c>
-      <c r="Y153">
-        <f t="shared" si="32"/>
-        <v>16.539514973407037</v>
-      </c>
-      <c r="Z153">
-        <f t="shared" si="33"/>
-        <v>18.275666882497067</v>
-      </c>
-      <c r="AA153">
-        <f t="shared" si="34"/>
-        <v>18.275666882497067</v>
-      </c>
-      <c r="AB153">
-        <f t="shared" si="35"/>
-        <v>4.1306779104645761</v>
-      </c>
-      <c r="AC153">
-        <v>0</v>
-      </c>
-      <c r="AG153">
-        <f t="shared" si="37"/>
-        <v>16.839239887833418</v>
-      </c>
-      <c r="AH153">
-        <f t="shared" si="38"/>
-        <v>36.754440396894758</v>
-      </c>
-      <c r="AI153">
-        <f t="shared" si="39"/>
-        <v>6.0827625302982193</v>
-      </c>
-      <c r="AJ153">
-        <f t="shared" si="40"/>
-        <v>4.1306779104645761</v>
-      </c>
-      <c r="AK153">
-        <v>0</v>
-      </c>
-      <c r="AL153" s="6"/>
-    </row>
-    <row r="154" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A154" s="5"/>
-      <c r="B154" s="2">
-        <v>0</v>
-      </c>
-      <c r="C154" s="2">
-        <v>0</v>
-      </c>
-      <c r="D154" s="29">
-        <v>1</v>
-      </c>
-      <c r="E154" s="10">
-        <v>1</v>
-      </c>
-      <c r="I154">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="J154">
-        <f t="shared" si="25"/>
-        <v>50.24287948332092</v>
-      </c>
-      <c r="K154">
-        <f t="shared" si="26"/>
-        <v>16.46112845463518</v>
-      </c>
-      <c r="L154">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="M154">
-        <v>0</v>
-      </c>
-      <c r="Q154">
-        <f t="shared" si="28"/>
-        <v>31.54362059117501</v>
-      </c>
-      <c r="R154">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="S154">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="T154">
+        <v>29.47503651868438</v>
+      </c>
+      <c r="L234" s="56">
         <f t="shared" si="31"/>
         <v>13.174312126255398</v>
       </c>
-      <c r="U154">
+      <c r="M234" s="57">
         <v>0</v>
       </c>
-      <c r="Y154">
-        <f t="shared" si="32"/>
-        <v>33.811569354619174</v>
-      </c>
-      <c r="Z154">
-        <f t="shared" si="33"/>
-        <v>1</v>
-      </c>
-      <c r="AA154">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="AB154">
-        <f t="shared" si="35"/>
-        <v>13.174312126255398</v>
-      </c>
-      <c r="AC154">
+      <c r="N234" s="56"/>
+      <c r="O234" s="56"/>
+      <c r="P234" s="6"/>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A235" s="5"/>
+      <c r="B235" s="56"/>
+      <c r="C235" s="56"/>
+      <c r="D235" s="56"/>
+      <c r="E235" s="56"/>
+      <c r="F235" s="56"/>
+      <c r="G235" s="56"/>
+      <c r="H235" s="56"/>
+      <c r="I235" s="56"/>
+      <c r="J235" s="56"/>
+      <c r="K235" s="56"/>
+      <c r="L235" s="56"/>
+      <c r="M235" s="56"/>
+      <c r="N235" s="56"/>
+      <c r="O235" s="56"/>
+      <c r="P235" s="6"/>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A236" s="5"/>
+      <c r="B236" s="56"/>
+      <c r="C236" s="56"/>
+      <c r="D236" s="56"/>
+      <c r="E236" s="56"/>
+      <c r="F236" s="56"/>
+      <c r="G236" s="56"/>
+      <c r="H236" s="56"/>
+      <c r="I236" s="56"/>
+      <c r="J236" s="56"/>
+      <c r="K236" s="56"/>
+      <c r="L236" s="56"/>
+      <c r="M236" s="56"/>
+      <c r="N236" s="56"/>
+      <c r="O236" s="56"/>
+      <c r="P236" s="6"/>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A237" s="5"/>
+      <c r="B237" s="56"/>
+      <c r="C237" s="56"/>
+      <c r="D237" s="56"/>
+      <c r="E237" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F237" s="56"/>
+      <c r="G237" s="56"/>
+      <c r="H237" s="56"/>
+      <c r="I237" s="56"/>
+      <c r="J237" s="56"/>
+      <c r="K237" s="56"/>
+      <c r="L237" s="56"/>
+      <c r="M237" s="56"/>
+      <c r="N237" s="56"/>
+      <c r="O237" s="56"/>
+      <c r="P237" s="6"/>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A238" s="5"/>
+      <c r="B238" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D238" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E238" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F238" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G238" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H238" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I238" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J238" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="K238" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="L238" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="M238" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="N238" s="56"/>
+      <c r="O238" s="56"/>
+      <c r="P238" s="6"/>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A239" s="5"/>
+      <c r="B239" s="2">
+        <v>3</v>
+      </c>
+      <c r="C239" s="29">
+        <v>6</v>
+      </c>
+      <c r="D239" s="54">
+        <v>42</v>
+      </c>
+      <c r="E239" s="57">
+        <v>3</v>
+      </c>
+      <c r="F239" s="56">
+        <f>AVERAGE(B239:B246)</f>
+        <v>3.75</v>
+      </c>
+      <c r="G239" s="56">
+        <f t="shared" ref="G239:H239" si="36">AVERAGE(C239:C246)</f>
+        <v>7.25</v>
+      </c>
+      <c r="H239" s="56">
+        <f t="shared" si="36"/>
+        <v>51.125</v>
+      </c>
+      <c r="I239" s="56">
+        <f>((B239-$F$239)^2+(C239-$G$239)^2+(D239-$H$239)^2)^0.5</f>
+        <v>9.2407047891381104</v>
+      </c>
+      <c r="J239" s="56">
+        <f>((B239-$F$247)^2+(C239-$G$247)^2+(D239-$H$247)^2)^0.5</f>
+        <v>19.938795238317574</v>
+      </c>
+      <c r="K239" s="56">
+        <f>((B239-$F$250)^2+(C239-$G$250)^2+(D239-$H$250)^2)^0.5</f>
+        <v>12.115187896924166</v>
+      </c>
+      <c r="L239" s="56">
+        <f>((B239-$F$253)^2+(C239-$G$253)^2+(D239-$H$253)^2)^0.5</f>
+        <v>29.101511286936177</v>
+      </c>
+      <c r="M239" s="57">
+        <v>3</v>
+      </c>
+      <c r="N239" s="56"/>
+      <c r="O239" s="56"/>
+      <c r="P239" s="6"/>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A240" s="5"/>
+      <c r="B240" s="2">
+        <v>4</v>
+      </c>
+      <c r="C240" s="29">
+        <v>8</v>
+      </c>
+      <c r="D240" s="54">
+        <v>56</v>
+      </c>
+      <c r="E240" s="57">
+        <v>3</v>
+      </c>
+      <c r="F240" s="56"/>
+      <c r="G240" s="56"/>
+      <c r="H240" s="56"/>
+      <c r="I240" s="56">
+        <f t="shared" ref="I240:I259" si="37">((B240-$F$239)^2+(C240-$G$239)^2+(D240-$H$239)^2)^0.5</f>
+        <v>4.9386865662846029</v>
+      </c>
+      <c r="J240" s="56">
+        <f t="shared" ref="J240:J259" si="38">((B240-$F$247)^2+(C240-$G$247)^2+(D240-$H$247)^2)^0.5</f>
+        <v>34.115815817431205</v>
+      </c>
+      <c r="K240" s="56">
+        <f t="shared" ref="K240:K259" si="39">((B240-$F$250)^2+(C240-$G$250)^2+(D240-$H$250)^2)^0.5</f>
+        <v>26.276309566688479</v>
+      </c>
+      <c r="L240" s="56">
+        <f t="shared" ref="L240:L259" si="40">((B240-$F$253)^2+(C240-$G$253)^2+(D240-$H$253)^2)^0.5</f>
+        <v>43.278641572102636</v>
+      </c>
+      <c r="M240" s="57">
+        <v>3</v>
+      </c>
+      <c r="N240" s="56"/>
+      <c r="O240" s="56"/>
+      <c r="P240" s="6"/>
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A241" s="5"/>
+      <c r="B241" s="2">
+        <v>3</v>
+      </c>
+      <c r="C241" s="29">
+        <v>6</v>
+      </c>
+      <c r="D241" s="54">
+        <v>44</v>
+      </c>
+      <c r="E241" s="57">
+        <v>3</v>
+      </c>
+      <c r="F241" s="56"/>
+      <c r="G241" s="56"/>
+      <c r="H241" s="56"/>
+      <c r="I241" s="56">
+        <f t="shared" si="37"/>
+        <v>7.272594103894428</v>
+      </c>
+      <c r="J241" s="56">
+        <f t="shared" si="38"/>
+        <v>21.913973218524802</v>
+      </c>
+      <c r="K241" s="56">
+        <f t="shared" si="39"/>
+        <v>14.098857321704401</v>
+      </c>
+      <c r="L241" s="56">
+        <f t="shared" si="40"/>
+        <v>31.076600554771371</v>
+      </c>
+      <c r="M241" s="57">
+        <v>3</v>
+      </c>
+      <c r="N241" s="56"/>
+      <c r="O241" s="56"/>
+      <c r="P241" s="6"/>
+    </row>
+    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A242" s="5"/>
+      <c r="B242" s="2">
+        <v>5</v>
+      </c>
+      <c r="C242" s="29">
+        <v>9</v>
+      </c>
+      <c r="D242" s="54">
+        <v>62</v>
+      </c>
+      <c r="E242" s="57">
+        <v>3</v>
+      </c>
+      <c r="F242" s="56"/>
+      <c r="G242" s="56"/>
+      <c r="H242" s="56"/>
+      <c r="I242" s="56">
+        <f t="shared" si="37"/>
+        <v>11.085604403910505</v>
+      </c>
+      <c r="J242" s="56">
+        <f t="shared" si="38"/>
+        <v>40.256124447785034</v>
+      </c>
+      <c r="K242" s="56">
+        <f t="shared" si="39"/>
+        <v>32.400274347260975</v>
+      </c>
+      <c r="L242" s="56">
+        <f t="shared" si="40"/>
+        <v>49.421345466863833</v>
+      </c>
+      <c r="M242" s="57">
+        <v>3</v>
+      </c>
+      <c r="N242" s="56"/>
+      <c r="O242" s="56"/>
+      <c r="P242" s="6"/>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A243" s="5"/>
+      <c r="B243" s="2">
+        <v>5</v>
+      </c>
+      <c r="C243" s="29">
+        <v>9</v>
+      </c>
+      <c r="D243" s="54">
+        <v>64</v>
+      </c>
+      <c r="E243" s="57">
+        <v>3</v>
+      </c>
+      <c r="F243" s="56"/>
+      <c r="G243" s="56"/>
+      <c r="H243" s="56"/>
+      <c r="I243" s="56">
+        <f t="shared" si="37"/>
+        <v>13.05337600010051</v>
+      </c>
+      <c r="J243" s="56">
+        <f t="shared" si="38"/>
+        <v>42.228215948844237</v>
+      </c>
+      <c r="K243" s="56">
+        <f t="shared" si="39"/>
+        <v>34.376994891609968</v>
+      </c>
+      <c r="L243" s="56">
+        <f t="shared" si="40"/>
+        <v>51.393837476999565</v>
+      </c>
+      <c r="M243" s="57">
+        <v>3</v>
+      </c>
+      <c r="N243" s="56"/>
+      <c r="O243" s="56"/>
+      <c r="P243" s="6"/>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A244" s="5"/>
+      <c r="B244" s="2">
+        <v>4</v>
+      </c>
+      <c r="C244" s="29">
+        <v>8</v>
+      </c>
+      <c r="D244" s="54">
+        <v>56</v>
+      </c>
+      <c r="E244" s="57">
+        <v>3</v>
+      </c>
+      <c r="F244" s="56"/>
+      <c r="G244" s="56"/>
+      <c r="H244" s="56"/>
+      <c r="I244" s="56">
+        <f t="shared" si="37"/>
+        <v>4.9386865662846029</v>
+      </c>
+      <c r="J244" s="56">
+        <f t="shared" si="38"/>
+        <v>34.115815817431205</v>
+      </c>
+      <c r="K244" s="56">
+        <f t="shared" si="39"/>
+        <v>26.276309566688479</v>
+      </c>
+      <c r="L244" s="56">
+        <f t="shared" si="40"/>
+        <v>43.278641572102636</v>
+      </c>
+      <c r="M244" s="57">
+        <v>3</v>
+      </c>
+      <c r="N244" s="56"/>
+      <c r="O244" s="56"/>
+      <c r="P244" s="6"/>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A245" s="5"/>
+      <c r="B245" s="2">
+        <v>3</v>
+      </c>
+      <c r="C245" s="29">
+        <v>6</v>
+      </c>
+      <c r="D245" s="54">
+        <v>44</v>
+      </c>
+      <c r="E245" s="57">
+        <v>3</v>
+      </c>
+      <c r="F245" s="56"/>
+      <c r="G245" s="56"/>
+      <c r="H245" s="56"/>
+      <c r="I245" s="56">
+        <f t="shared" si="37"/>
+        <v>7.272594103894428</v>
+      </c>
+      <c r="J245" s="56">
+        <f t="shared" si="38"/>
+        <v>21.913973218524802</v>
+      </c>
+      <c r="K245" s="56">
+        <f t="shared" si="39"/>
+        <v>14.098857321704401</v>
+      </c>
+      <c r="L245" s="56">
+        <f t="shared" si="40"/>
+        <v>31.076600554771371</v>
+      </c>
+      <c r="M245" s="57">
+        <v>3</v>
+      </c>
+      <c r="N245" s="56"/>
+      <c r="O245" s="56"/>
+      <c r="P245" s="6"/>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A246" s="5"/>
+      <c r="B246" s="2">
+        <v>3</v>
+      </c>
+      <c r="C246" s="29">
+        <v>6</v>
+      </c>
+      <c r="D246" s="54">
+        <v>41</v>
+      </c>
+      <c r="E246" s="57">
+        <v>3</v>
+      </c>
+      <c r="F246" s="56"/>
+      <c r="G246" s="56"/>
+      <c r="H246" s="56"/>
+      <c r="I246" s="56">
+        <f t="shared" si="37"/>
+        <v>10.229400031282383</v>
+      </c>
+      <c r="J246" s="56">
+        <f t="shared" si="38"/>
+        <v>18.953158634439333</v>
+      </c>
+      <c r="K246" s="56">
+        <f t="shared" si="39"/>
+        <v>11.125546178852424</v>
+      </c>
+      <c r="L246" s="56">
+        <f t="shared" si="40"/>
+        <v>28.115287438600056</v>
+      </c>
+      <c r="M246" s="57">
+        <v>3</v>
+      </c>
+      <c r="N246" s="56"/>
+      <c r="O246" s="56"/>
+      <c r="P246" s="6"/>
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A247" s="5"/>
+      <c r="B247" s="2">
+        <v>2</v>
+      </c>
+      <c r="C247" s="29">
+        <v>3</v>
+      </c>
+      <c r="D247" s="54">
+        <v>24</v>
+      </c>
+      <c r="E247" s="57">
+        <v>2</v>
+      </c>
+      <c r="F247" s="56">
+        <f>AVERAGE(B247:B249)</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="G247" s="56">
+        <f t="shared" ref="G247:H247" si="41">AVERAGE(C247:C249)</f>
+        <v>3</v>
+      </c>
+      <c r="H247" s="56">
+        <f t="shared" si="41"/>
+        <v>22.333333333333332</v>
+      </c>
+      <c r="I247" s="56">
+        <f t="shared" si="37"/>
+        <v>27.51164526159786</v>
+      </c>
+      <c r="J247" s="56">
+        <f t="shared" si="38"/>
+        <v>1.6996731711975961</v>
+      </c>
+      <c r="K247" s="56">
+        <f t="shared" si="39"/>
+        <v>6.2271805640898013</v>
+      </c>
+      <c r="L247" s="56">
+        <f t="shared" si="40"/>
+        <v>10.851502294190253</v>
+      </c>
+      <c r="M247" s="57">
+        <v>2</v>
+      </c>
+      <c r="N247" s="56"/>
+      <c r="O247" s="56"/>
+      <c r="P247" s="6"/>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A248" s="5"/>
+      <c r="B248" s="2">
+        <v>2</v>
+      </c>
+      <c r="C248" s="29">
+        <v>3</v>
+      </c>
+      <c r="D248" s="54">
+        <v>24</v>
+      </c>
+      <c r="E248" s="57">
+        <v>2</v>
+      </c>
+      <c r="F248" s="56"/>
+      <c r="G248" s="56"/>
+      <c r="H248" s="56"/>
+      <c r="I248" s="56">
+        <f t="shared" si="37"/>
+        <v>27.51164526159786</v>
+      </c>
+      <c r="J248" s="56">
+        <f t="shared" si="38"/>
+        <v>1.6996731711975961</v>
+      </c>
+      <c r="K248" s="56">
+        <f t="shared" si="39"/>
+        <v>6.2271805640898013</v>
+      </c>
+      <c r="L248" s="56">
+        <f t="shared" si="40"/>
+        <v>10.851502294190253</v>
+      </c>
+      <c r="M248" s="57">
+        <v>2</v>
+      </c>
+      <c r="N248" s="56"/>
+      <c r="O248" s="56"/>
+      <c r="P248" s="6"/>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A249" s="5"/>
+      <c r="B249" s="2">
+        <v>1</v>
+      </c>
+      <c r="C249" s="29">
+        <v>3</v>
+      </c>
+      <c r="D249" s="54">
+        <v>19</v>
+      </c>
+      <c r="E249" s="57">
+        <v>2</v>
+      </c>
+      <c r="F249" s="56"/>
+      <c r="G249" s="56"/>
+      <c r="H249" s="56"/>
+      <c r="I249" s="56">
+        <f t="shared" si="37"/>
+        <v>32.521387193660729</v>
+      </c>
+      <c r="J249" s="56">
+        <f t="shared" si="38"/>
+        <v>3.3993463423951886</v>
+      </c>
+      <c r="K249" s="56">
+        <f t="shared" si="39"/>
+        <v>11.259563836036357</v>
+      </c>
+      <c r="L249" s="56">
+        <f t="shared" si="40"/>
+        <v>5.8344508161891815</v>
+      </c>
+      <c r="M249" s="57">
+        <v>2</v>
+      </c>
+      <c r="N249" s="56"/>
+      <c r="O249" s="56"/>
+      <c r="P249" s="6"/>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A250" s="5"/>
+      <c r="B250" s="2">
+        <v>3</v>
+      </c>
+      <c r="C250" s="29">
+        <v>5</v>
+      </c>
+      <c r="D250" s="54">
+        <v>32</v>
+      </c>
+      <c r="E250" s="57">
+        <v>1</v>
+      </c>
+      <c r="F250" s="56">
+        <f>AVERAGE(B250:B252)</f>
+        <v>3</v>
+      </c>
+      <c r="G250" s="56">
+        <f t="shared" ref="G250:H250" si="42">AVERAGE(C250:C252)</f>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="H250" s="56">
+        <f t="shared" si="42"/>
+        <v>30</v>
+      </c>
+      <c r="I250" s="56">
+        <f t="shared" si="37"/>
+        <v>19.271497736294396</v>
+      </c>
+      <c r="J250" s="56">
+        <f t="shared" si="38"/>
+        <v>9.9610351983226249</v>
+      </c>
+      <c r="K250" s="56">
+        <f t="shared" si="39"/>
+        <v>2.1081851067789197</v>
+      </c>
+      <c r="L250" s="56">
+        <f t="shared" si="40"/>
+        <v>19.11351696083808</v>
+      </c>
+      <c r="M250" s="57">
+        <v>1</v>
+      </c>
+      <c r="N250" s="56"/>
+      <c r="O250" s="56"/>
+      <c r="P250" s="6"/>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A251" s="5"/>
+      <c r="B251" s="2">
+        <v>2</v>
+      </c>
+      <c r="C251" s="29">
+        <v>4</v>
+      </c>
+      <c r="D251" s="54">
+        <v>30</v>
+      </c>
+      <c r="E251" s="57">
+        <v>1</v>
+      </c>
+      <c r="F251" s="56"/>
+      <c r="G251" s="56"/>
+      <c r="H251" s="56"/>
+      <c r="I251" s="56">
+        <f t="shared" si="37"/>
+        <v>21.445060620105508</v>
+      </c>
+      <c r="J251" s="56">
+        <f t="shared" si="38"/>
+        <v>7.7387911774959344</v>
+      </c>
+      <c r="K251" s="56">
+        <f t="shared" si="39"/>
+        <v>1.0540925533894596</v>
+      </c>
+      <c r="L251" s="56">
+        <f t="shared" si="40"/>
+        <v>16.900066416968876</v>
+      </c>
+      <c r="M251" s="57">
+        <v>1</v>
+      </c>
+      <c r="N251" s="56"/>
+      <c r="O251" s="56"/>
+      <c r="P251" s="6"/>
+    </row>
+    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A252" s="5"/>
+      <c r="B252" s="2">
+        <v>4</v>
+      </c>
+      <c r="C252" s="29">
+        <v>4</v>
+      </c>
+      <c r="D252" s="54">
+        <v>28</v>
+      </c>
+      <c r="E252" s="57">
+        <v>1</v>
+      </c>
+      <c r="F252" s="56"/>
+      <c r="G252" s="56"/>
+      <c r="H252" s="56"/>
+      <c r="I252" s="56">
+        <f t="shared" si="37"/>
+        <v>23.353599829576595</v>
+      </c>
+      <c r="J252" s="56">
+        <f t="shared" si="38"/>
+        <v>6.2093120033990532</v>
+      </c>
+      <c r="K252" s="56">
+        <f t="shared" si="39"/>
+        <v>2.2607766610417559</v>
+      </c>
+      <c r="L252" s="56">
+        <f t="shared" si="40"/>
+        <v>15.228196189426818</v>
+      </c>
+      <c r="M252" s="57">
+        <v>1</v>
+      </c>
+      <c r="N252" s="56"/>
+      <c r="O252" s="56"/>
+      <c r="P252" s="6"/>
+    </row>
+    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A253" s="5"/>
+      <c r="B253" s="2">
+        <v>1</v>
+      </c>
+      <c r="C253" s="29">
+        <v>3</v>
+      </c>
+      <c r="D253" s="54">
+        <v>18</v>
+      </c>
+      <c r="E253" s="57">
         <v>0</v>
       </c>
-      <c r="AG154">
+      <c r="F253" s="56">
+        <f>AVERAGE(B253:B259)</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G253" s="56">
+        <f t="shared" ref="G253:H253" si="43">AVERAGE(C253:C259)</f>
+        <v>1.8571428571428572</v>
+      </c>
+      <c r="H253" s="56">
+        <f t="shared" si="43"/>
+        <v>13.285714285714286</v>
+      </c>
+      <c r="I253" s="56">
         <f t="shared" si="37"/>
-        <v>34.102199342564404</v>
-      </c>
-      <c r="AH154">
+        <v>33.509560203022659</v>
+      </c>
+      <c r="J253" s="56">
         <f t="shared" si="38"/>
-        <v>54.029827153362454</v>
-      </c>
-      <c r="AI154">
+        <v>4.384315479321967</v>
+      </c>
+      <c r="K253" s="56">
         <f t="shared" si="39"/>
-        <v>23.280893453645632</v>
-      </c>
-      <c r="AJ154">
+        <v>12.238373167123878</v>
+      </c>
+      <c r="L253" s="56">
         <f t="shared" si="40"/>
-        <v>13.174312126255398</v>
-      </c>
-      <c r="AK154">
+        <v>4.859243243341413</v>
+      </c>
+      <c r="M253" s="57">
+        <v>2</v>
+      </c>
+      <c r="N253" s="56"/>
+      <c r="O253" s="56"/>
+      <c r="P253" s="6"/>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A254" s="5"/>
+      <c r="B254" s="2">
+        <v>1</v>
+      </c>
+      <c r="C254" s="29">
+        <v>3</v>
+      </c>
+      <c r="D254" s="54">
+        <v>18</v>
+      </c>
+      <c r="E254" s="57">
         <v>0</v>
       </c>
-      <c r="AL154" s="6"/>
-    </row>
-    <row r="155" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A155" s="5"/>
-      <c r="B155" s="2">
-        <v>1</v>
-      </c>
-      <c r="C155" s="2">
-        <v>2</v>
-      </c>
-      <c r="D155" s="29">
+      <c r="F254" s="56"/>
+      <c r="G254" s="56"/>
+      <c r="H254" s="56"/>
+      <c r="I254" s="56">
+        <f t="shared" si="37"/>
+        <v>33.509560203022659</v>
+      </c>
+      <c r="J254" s="56">
+        <f t="shared" si="38"/>
+        <v>4.384315479321967</v>
+      </c>
+      <c r="K254" s="56">
+        <f t="shared" si="39"/>
+        <v>12.238373167123878</v>
+      </c>
+      <c r="L254" s="56">
+        <f t="shared" si="40"/>
+        <v>4.859243243341413</v>
+      </c>
+      <c r="M254" s="57">
+        <v>2</v>
+      </c>
+      <c r="N254" s="56"/>
+      <c r="O254" s="56"/>
+      <c r="P254" s="6"/>
+    </row>
+    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A255" s="5"/>
+      <c r="B255" s="2">
+        <v>0</v>
+      </c>
+      <c r="C255" s="29">
+        <v>1</v>
+      </c>
+      <c r="D255" s="54">
+        <v>5</v>
+      </c>
+      <c r="E255" s="57">
+        <v>0</v>
+      </c>
+      <c r="F255" s="56"/>
+      <c r="G255" s="56"/>
+      <c r="H255" s="56"/>
+      <c r="I255" s="56">
+        <f t="shared" si="37"/>
+        <v>46.697329955790835</v>
+      </c>
+      <c r="J255" s="56">
+        <f t="shared" si="38"/>
+        <v>17.527755766846543</v>
+      </c>
+      <c r="K255" s="56">
+        <f t="shared" si="39"/>
+        <v>25.399037602064986</v>
+      </c>
+      <c r="L255" s="56">
+        <f t="shared" si="40"/>
+        <v>8.3604999362283046</v>
+      </c>
+      <c r="M255" s="57">
+        <v>0</v>
+      </c>
+      <c r="N255" s="56"/>
+      <c r="O255" s="56"/>
+      <c r="P255" s="6"/>
+    </row>
+    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A256" s="5"/>
+      <c r="B256" s="2">
+        <v>1</v>
+      </c>
+      <c r="C256" s="29">
+        <v>2</v>
+      </c>
+      <c r="D256" s="54">
         <v>17</v>
       </c>
-      <c r="E155" s="10">
-        <v>1</v>
-      </c>
-      <c r="I155">
-        <f t="shared" si="24"/>
-        <v>17.146428199482248</v>
-      </c>
-      <c r="J155">
-        <f t="shared" si="25"/>
-        <v>34.095304602222974</v>
-      </c>
-      <c r="K155">
-        <f t="shared" si="26"/>
-        <v>0.46770717334674267</v>
-      </c>
-      <c r="L155">
-        <f t="shared" si="27"/>
-        <v>17.146428199482248</v>
-      </c>
-      <c r="M155">
+      <c r="E256" s="57">
         <v>0</v>
       </c>
-      <c r="Q155">
-        <f t="shared" si="28"/>
-        <v>15.427248620541512</v>
-      </c>
-      <c r="R155">
-        <f t="shared" si="29"/>
-        <v>17.146428199482248</v>
-      </c>
-      <c r="S155">
-        <f t="shared" si="30"/>
-        <v>17.146428199482248</v>
-      </c>
-      <c r="T155">
-        <f t="shared" si="31"/>
-        <v>3.0103986446980739</v>
-      </c>
-      <c r="U155">
+      <c r="F256" s="56"/>
+      <c r="G256" s="56"/>
+      <c r="H256" s="56"/>
+      <c r="I256" s="56">
+        <f t="shared" si="37"/>
+        <v>34.635828631635192</v>
+      </c>
+      <c r="J256" s="56">
+        <f t="shared" si="38"/>
+        <v>5.4670731556189072</v>
+      </c>
+      <c r="K256" s="56">
+        <f t="shared" si="39"/>
+        <v>13.35830993967592</v>
+      </c>
+      <c r="L256" s="56">
+        <f t="shared" si="40"/>
+        <v>3.7279966716285391</v>
+      </c>
+      <c r="M256" s="57">
         <v>0</v>
       </c>
-      <c r="Y155">
-        <f t="shared" si="32"/>
-        <v>17.669811040931432</v>
-      </c>
-      <c r="Z155">
-        <f t="shared" si="33"/>
-        <v>17.146428199482248</v>
-      </c>
-      <c r="AA155">
-        <f t="shared" si="34"/>
-        <v>17.146428199482248</v>
-      </c>
-      <c r="AB155">
-        <f t="shared" si="35"/>
-        <v>3.0103986446980739</v>
-      </c>
-      <c r="AC155">
+      <c r="N256" s="56"/>
+      <c r="O256" s="56"/>
+      <c r="P256" s="6"/>
+    </row>
+    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A257" s="5"/>
+      <c r="B257" s="2">
+        <v>1</v>
+      </c>
+      <c r="C257" s="29">
+        <v>2</v>
+      </c>
+      <c r="D257" s="54">
+        <v>17</v>
+      </c>
+      <c r="E257" s="57">
         <v>0</v>
       </c>
-      <c r="AG155">
+      <c r="F257" s="56"/>
+      <c r="G257" s="56"/>
+      <c r="H257" s="56"/>
+      <c r="I257" s="56">
         <f t="shared" si="37"/>
-        <v>17.965522536235902</v>
-      </c>
-      <c r="AH155">
+        <v>34.635828631635192</v>
+      </c>
+      <c r="J257" s="56">
         <f t="shared" si="38"/>
-        <v>37.879927255591305</v>
-      </c>
-      <c r="AI155">
+        <v>5.4670731556189072</v>
+      </c>
+      <c r="K257" s="56">
         <f t="shared" si="39"/>
-        <v>7.1414284285428504</v>
-      </c>
-      <c r="AJ155">
+        <v>13.35830993967592</v>
+      </c>
+      <c r="L257" s="56">
         <f t="shared" si="40"/>
-        <v>3.0103986446980739</v>
-      </c>
-      <c r="AK155">
+        <v>3.7279966716285391</v>
+      </c>
+      <c r="M257" s="57">
         <v>0</v>
       </c>
-      <c r="AL155" s="6"/>
-    </row>
-    <row r="156" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A156" s="5"/>
-      <c r="B156" s="2">
+      <c r="N257" s="56"/>
+      <c r="O257" s="56"/>
+      <c r="P257" s="6"/>
+    </row>
+    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A258" s="5"/>
+      <c r="B258" s="2">
+        <v>1</v>
+      </c>
+      <c r="C258" s="29">
+        <v>2</v>
+      </c>
+      <c r="D258" s="54">
+        <v>17</v>
+      </c>
+      <c r="E258" s="57">
         <v>0</v>
       </c>
-      <c r="C156" s="2">
-        <v>1</v>
-      </c>
-      <c r="D156" s="29">
+      <c r="F258" s="56"/>
+      <c r="G258" s="56"/>
+      <c r="H258" s="56"/>
+      <c r="I258" s="56">
+        <f t="shared" si="37"/>
+        <v>34.635828631635192</v>
+      </c>
+      <c r="J258" s="56">
+        <f t="shared" si="38"/>
+        <v>5.4670731556189072</v>
+      </c>
+      <c r="K258" s="56">
+        <f t="shared" si="39"/>
+        <v>13.35830993967592</v>
+      </c>
+      <c r="L258" s="56">
+        <f t="shared" si="40"/>
+        <v>3.7279966716285391</v>
+      </c>
+      <c r="M258" s="57">
+        <v>0</v>
+      </c>
+      <c r="N258" s="56"/>
+      <c r="O258" s="56"/>
+      <c r="P258" s="6"/>
+    </row>
+    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A259" s="5"/>
+      <c r="B259" s="2">
+        <v>0</v>
+      </c>
+      <c r="C259" s="29">
+        <v>0</v>
+      </c>
+      <c r="D259" s="54">
+        <v>1</v>
+      </c>
+      <c r="E259" s="57">
+        <v>0</v>
+      </c>
+      <c r="F259" s="56"/>
+      <c r="G259" s="56"/>
+      <c r="H259" s="56"/>
+      <c r="I259" s="56">
+        <f t="shared" si="37"/>
+        <v>50.785240227845726</v>
+      </c>
+      <c r="J259" s="56">
+        <f t="shared" si="38"/>
+        <v>21.607611827522469</v>
+      </c>
+      <c r="K259" s="56">
+        <f t="shared" si="39"/>
+        <v>29.47503651868438</v>
+      </c>
+      <c r="L259" s="56">
+        <f t="shared" si="40"/>
+        <v>12.445800865499717</v>
+      </c>
+      <c r="M259" s="57">
+        <v>0</v>
+      </c>
+      <c r="N259" s="56"/>
+      <c r="O259" s="56"/>
+      <c r="P259" s="6"/>
+    </row>
+    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A260" s="5"/>
+      <c r="B260" s="56"/>
+      <c r="C260" s="56"/>
+      <c r="D260" s="56"/>
+      <c r="E260" s="56"/>
+      <c r="F260" s="56"/>
+      <c r="G260" s="56"/>
+      <c r="H260" s="56"/>
+      <c r="I260" s="56"/>
+      <c r="J260" s="56"/>
+      <c r="K260" s="56"/>
+      <c r="L260" s="56"/>
+      <c r="M260" s="56"/>
+      <c r="N260" s="56"/>
+      <c r="O260" s="56"/>
+      <c r="P260" s="6"/>
+    </row>
+    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A261" s="5"/>
+      <c r="B261" s="56"/>
+      <c r="C261" s="56"/>
+      <c r="D261" s="56"/>
+      <c r="E261" s="56"/>
+      <c r="F261" s="56"/>
+      <c r="G261" s="56"/>
+      <c r="H261" s="56"/>
+      <c r="I261" s="56"/>
+      <c r="J261" s="56"/>
+      <c r="K261" s="56"/>
+      <c r="L261" s="56"/>
+      <c r="M261" s="56"/>
+      <c r="N261" s="56"/>
+      <c r="O261" s="56"/>
+      <c r="P261" s="6"/>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A262" s="5"/>
+      <c r="B262" s="56"/>
+      <c r="C262" s="56"/>
+      <c r="D262" s="56"/>
+      <c r="E262" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F262" s="56"/>
+      <c r="G262" s="56"/>
+      <c r="H262" s="56"/>
+      <c r="I262" s="56"/>
+      <c r="J262" s="56"/>
+      <c r="K262" s="56"/>
+      <c r="L262" s="56"/>
+      <c r="M262" s="56"/>
+      <c r="N262" s="56"/>
+      <c r="O262" s="56"/>
+      <c r="P262" s="6"/>
+    </row>
+    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A263" s="5"/>
+      <c r="B263" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D263" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E263" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F263" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G263" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H263" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I263" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J263" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="K263" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="L263" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="M263" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="N263" s="56"/>
+      <c r="O263" s="56"/>
+      <c r="P263" s="6"/>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A264" s="5"/>
+      <c r="B264" s="2">
+        <v>3</v>
+      </c>
+      <c r="C264" s="29">
+        <v>6</v>
+      </c>
+      <c r="D264" s="54">
+        <v>42</v>
+      </c>
+      <c r="E264" s="57">
+        <v>3</v>
+      </c>
+      <c r="F264" s="56">
+        <f>AVERAGE(B264:B271)</f>
+        <v>3.75</v>
+      </c>
+      <c r="G264" s="56">
+        <f t="shared" ref="G264:H264" si="44">AVERAGE(C264:C271)</f>
+        <v>7.25</v>
+      </c>
+      <c r="H264" s="56">
+        <f t="shared" si="44"/>
+        <v>51.125</v>
+      </c>
+      <c r="I264" s="56">
+        <f>((B264-$F$264)^2+(C264-$G$264)^2+(D264-$H$264)^2)^0.5</f>
+        <v>9.2407047891381104</v>
+      </c>
+      <c r="J264" s="56">
+        <f>((B264-$F$272)^2+(C264-$G$272)^2+(D264-$H$272)^2)^0.5</f>
+        <v>21.668410186259628</v>
+      </c>
+      <c r="K264" s="56">
+        <f>((B264-$F$277)^2+(C264-$G$277)^2+(D264-$H$277)^2)^0.5</f>
+        <v>12.115187896924166</v>
+      </c>
+      <c r="L264" s="56">
+        <f>((B264-$F$280)^2+(C264-$G$280)^2+(D264-$H$280)^2)^0.5</f>
+        <v>31.0367524074282</v>
+      </c>
+      <c r="M264" s="57">
+        <v>3</v>
+      </c>
+      <c r="N264" s="56"/>
+      <c r="O264" s="56"/>
+      <c r="P264" s="6"/>
+    </row>
+    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A265" s="5"/>
+      <c r="B265" s="2">
+        <v>4</v>
+      </c>
+      <c r="C265" s="29">
+        <v>8</v>
+      </c>
+      <c r="D265" s="54">
+        <v>56</v>
+      </c>
+      <c r="E265" s="57">
+        <v>3</v>
+      </c>
+      <c r="F265" s="56"/>
+      <c r="G265" s="56"/>
+      <c r="H265" s="56"/>
+      <c r="I265" s="56">
+        <f t="shared" ref="I265:I284" si="45">((B265-$F$264)^2+(C265-$G$264)^2+(D265-$H$264)^2)^0.5</f>
+        <v>4.9386865662846029</v>
+      </c>
+      <c r="J265" s="56">
+        <f t="shared" ref="J265:J284" si="46">((B265-$F$272)^2+(C265-$G$272)^2+(D265-$H$272)^2)^0.5</f>
+        <v>35.845780783796577</v>
+      </c>
+      <c r="K265" s="56">
+        <f t="shared" ref="K265:K284" si="47">((B265-$F$277)^2+(C265-$G$277)^2+(D265-$H$277)^2)^0.5</f>
+        <v>26.276309566688479</v>
+      </c>
+      <c r="L265" s="56">
+        <f>((B265-$F$280)^2+(C265-$G$280)^2+(D265-$H$280)^2)^0.5</f>
+        <v>45.213714733474397</v>
+      </c>
+      <c r="M265" s="57">
+        <v>3</v>
+      </c>
+      <c r="N265" s="56"/>
+      <c r="O265" s="56"/>
+      <c r="P265" s="6"/>
+    </row>
+    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A266" s="5"/>
+      <c r="B266" s="2">
+        <v>3</v>
+      </c>
+      <c r="C266" s="29">
+        <v>6</v>
+      </c>
+      <c r="D266" s="54">
+        <v>44</v>
+      </c>
+      <c r="E266" s="57">
+        <v>3</v>
+      </c>
+      <c r="F266" s="56"/>
+      <c r="G266" s="56"/>
+      <c r="H266" s="56"/>
+      <c r="I266" s="56">
+        <f t="shared" si="45"/>
+        <v>7.272594103894428</v>
+      </c>
+      <c r="J266" s="56">
+        <f t="shared" si="46"/>
+        <v>23.645718428502018</v>
+      </c>
+      <c r="K266" s="56">
+        <f t="shared" si="47"/>
+        <v>14.098857321704401</v>
+      </c>
+      <c r="L266" s="56">
+        <f t="shared" ref="L265:L284" si="48">((B266-$F$280)^2+(C266-$G$280)^2+(D266-$H$280)^2)^0.5</f>
+        <v>33.010301422434786</v>
+      </c>
+      <c r="M266" s="57">
+        <v>3</v>
+      </c>
+      <c r="N266" s="56"/>
+      <c r="O266" s="56"/>
+      <c r="P266" s="6"/>
+    </row>
+    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A267" s="5"/>
+      <c r="B267" s="2">
         <v>5</v>
       </c>
-      <c r="E156" s="10">
+      <c r="C267" s="29">
+        <v>9</v>
+      </c>
+      <c r="D267" s="54">
+        <v>62</v>
+      </c>
+      <c r="E267" s="57">
+        <v>3</v>
+      </c>
+      <c r="F267" s="56"/>
+      <c r="G267" s="56"/>
+      <c r="H267" s="56"/>
+      <c r="I267" s="56">
+        <f t="shared" si="45"/>
+        <v>11.085604403910505</v>
+      </c>
+      <c r="J267" s="56">
+        <f t="shared" si="46"/>
+        <v>41.98714088861017</v>
+      </c>
+      <c r="K267" s="56">
+        <f t="shared" si="47"/>
+        <v>32.400274347260975</v>
+      </c>
+      <c r="L267" s="56">
+        <f t="shared" si="48"/>
+        <v>51.356401743112805</v>
+      </c>
+      <c r="M267" s="57">
+        <v>3</v>
+      </c>
+      <c r="N267" s="56"/>
+      <c r="O267" s="56"/>
+      <c r="P267" s="6"/>
+    </row>
+    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A268" s="5"/>
+      <c r="B268" s="2">
+        <v>5</v>
+      </c>
+      <c r="C268" s="29">
+        <v>9</v>
+      </c>
+      <c r="D268" s="54">
+        <v>64</v>
+      </c>
+      <c r="E268" s="57">
+        <v>3</v>
+      </c>
+      <c r="F268" s="56"/>
+      <c r="G268" s="56"/>
+      <c r="H268" s="56"/>
+      <c r="I268" s="56">
+        <f t="shared" si="45"/>
+        <v>13.05337600010051</v>
+      </c>
+      <c r="J268" s="56">
+        <f t="shared" si="46"/>
+        <v>43.960436758521858</v>
+      </c>
+      <c r="K268" s="56">
+        <f t="shared" si="47"/>
+        <v>34.376994891609968</v>
+      </c>
+      <c r="L268" s="56">
+        <f t="shared" si="48"/>
+        <v>53.328041404124342</v>
+      </c>
+      <c r="M268" s="57">
+        <v>3</v>
+      </c>
+      <c r="N268" s="56"/>
+      <c r="O268" s="56"/>
+      <c r="P268" s="6"/>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A269" s="5"/>
+      <c r="B269" s="2">
+        <v>4</v>
+      </c>
+      <c r="C269" s="29">
+        <v>8</v>
+      </c>
+      <c r="D269" s="54">
+        <v>56</v>
+      </c>
+      <c r="E269" s="57">
+        <v>3</v>
+      </c>
+      <c r="F269" s="56"/>
+      <c r="G269" s="56"/>
+      <c r="H269" s="56"/>
+      <c r="I269" s="56">
+        <f t="shared" si="45"/>
+        <v>4.9386865662846029</v>
+      </c>
+      <c r="J269" s="56">
+        <f t="shared" si="46"/>
+        <v>35.845780783796577</v>
+      </c>
+      <c r="K269" s="56">
+        <f t="shared" si="47"/>
+        <v>26.276309566688479</v>
+      </c>
+      <c r="L269" s="56">
+        <f t="shared" si="48"/>
+        <v>45.213714733474397</v>
+      </c>
+      <c r="M269" s="57">
+        <v>3</v>
+      </c>
+      <c r="N269" s="56"/>
+      <c r="O269" s="56"/>
+      <c r="P269" s="6"/>
+    </row>
+    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A270" s="5"/>
+      <c r="B270" s="2">
+        <v>3</v>
+      </c>
+      <c r="C270" s="29">
+        <v>6</v>
+      </c>
+      <c r="D270" s="54">
+        <v>44</v>
+      </c>
+      <c r="E270" s="57">
+        <v>3</v>
+      </c>
+      <c r="F270" s="56"/>
+      <c r="G270" s="56"/>
+      <c r="H270" s="56"/>
+      <c r="I270" s="56">
+        <f t="shared" si="45"/>
+        <v>7.272594103894428</v>
+      </c>
+      <c r="J270" s="56">
+        <f t="shared" si="46"/>
+        <v>23.645718428502018</v>
+      </c>
+      <c r="K270" s="56">
+        <f t="shared" si="47"/>
+        <v>14.098857321704401</v>
+      </c>
+      <c r="L270" s="56">
+        <f t="shared" si="48"/>
+        <v>33.010301422434786</v>
+      </c>
+      <c r="M270" s="57">
+        <v>3</v>
+      </c>
+      <c r="N270" s="56"/>
+      <c r="O270" s="56"/>
+      <c r="P270" s="6"/>
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A271" s="5"/>
+      <c r="B271" s="2">
+        <v>3</v>
+      </c>
+      <c r="C271" s="29">
+        <v>6</v>
+      </c>
+      <c r="D271" s="54">
+        <v>41</v>
+      </c>
+      <c r="E271" s="57">
+        <v>3</v>
+      </c>
+      <c r="F271" s="56"/>
+      <c r="G271" s="56"/>
+      <c r="H271" s="56"/>
+      <c r="I271" s="56">
+        <f t="shared" si="45"/>
+        <v>10.229400031282383</v>
+      </c>
+      <c r="J271" s="56">
+        <f t="shared" si="46"/>
+        <v>20.681392603013947</v>
+      </c>
+      <c r="K271" s="56">
+        <f t="shared" si="47"/>
+        <v>11.125546178852424</v>
+      </c>
+      <c r="L271" s="56">
+        <f t="shared" si="48"/>
+        <v>30.051289489803928</v>
+      </c>
+      <c r="M271" s="57">
+        <v>3</v>
+      </c>
+      <c r="N271" s="56"/>
+      <c r="O271" s="56"/>
+      <c r="P271" s="6"/>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A272" s="5"/>
+      <c r="B272" s="2">
+        <v>2</v>
+      </c>
+      <c r="C272" s="29">
+        <v>3</v>
+      </c>
+      <c r="D272" s="54">
+        <v>24</v>
+      </c>
+      <c r="E272" s="57">
+        <v>2</v>
+      </c>
+      <c r="F272" s="56">
+        <f>AVERAGE(B272:B276)</f>
+        <v>1.4</v>
+      </c>
+      <c r="G272" s="56">
+        <f t="shared" ref="G272:H272" si="49">AVERAGE(C272:C276)</f>
+        <v>3</v>
+      </c>
+      <c r="H272" s="56">
+        <f t="shared" si="49"/>
+        <v>20.6</v>
+      </c>
+      <c r="I272" s="56">
+        <f t="shared" si="45"/>
+        <v>27.51164526159786</v>
+      </c>
+      <c r="J272" s="56">
+        <f t="shared" si="46"/>
+        <v>3.4525353003264123</v>
+      </c>
+      <c r="K272" s="56">
+        <f t="shared" si="47"/>
+        <v>6.2271805640898013</v>
+      </c>
+      <c r="L272" s="56">
+        <f t="shared" si="48"/>
+        <v>12.778106275970631</v>
+      </c>
+      <c r="M272" s="57">
+        <v>2</v>
+      </c>
+      <c r="N272" s="56"/>
+      <c r="O272" s="56"/>
+      <c r="P272" s="6"/>
+    </row>
+    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A273" s="5"/>
+      <c r="B273" s="2">
+        <v>2</v>
+      </c>
+      <c r="C273" s="29">
+        <v>3</v>
+      </c>
+      <c r="D273" s="54">
+        <v>24</v>
+      </c>
+      <c r="E273" s="57">
+        <v>2</v>
+      </c>
+      <c r="F273" s="56"/>
+      <c r="G273" s="56"/>
+      <c r="H273" s="56"/>
+      <c r="I273" s="56">
+        <f t="shared" si="45"/>
+        <v>27.51164526159786</v>
+      </c>
+      <c r="J273" s="56">
+        <f t="shared" si="46"/>
+        <v>3.4525353003264123</v>
+      </c>
+      <c r="K273" s="56">
+        <f t="shared" si="47"/>
+        <v>6.2271805640898013</v>
+      </c>
+      <c r="L273" s="56">
+        <f t="shared" si="48"/>
+        <v>12.778106275970631</v>
+      </c>
+      <c r="M273" s="57">
+        <v>2</v>
+      </c>
+      <c r="N273" s="56"/>
+      <c r="O273" s="56"/>
+      <c r="P273" s="6"/>
+    </row>
+    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A274" s="5"/>
+      <c r="B274" s="2">
+        <v>1</v>
+      </c>
+      <c r="C274" s="29">
+        <v>3</v>
+      </c>
+      <c r="D274" s="54">
+        <v>19</v>
+      </c>
+      <c r="E274" s="57">
+        <v>2</v>
+      </c>
+      <c r="F274" s="56"/>
+      <c r="G274" s="56"/>
+      <c r="H274" s="56"/>
+      <c r="I274" s="56">
+        <f t="shared" si="45"/>
+        <v>32.521387193660729</v>
+      </c>
+      <c r="J274" s="56">
+        <f t="shared" si="46"/>
+        <v>1.6492422502470654</v>
+      </c>
+      <c r="K274" s="56">
+        <f t="shared" si="47"/>
+        <v>11.259563836036357</v>
+      </c>
+      <c r="L274" s="56">
+        <f t="shared" si="48"/>
+        <v>7.7768888380894321</v>
+      </c>
+      <c r="M274" s="57">
+        <v>2</v>
+      </c>
+      <c r="N274" s="56"/>
+      <c r="O274" s="56"/>
+      <c r="P274" s="6"/>
+    </row>
+    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A275" s="5"/>
+      <c r="B275" s="2">
+        <v>1</v>
+      </c>
+      <c r="C275" s="29">
+        <v>3</v>
+      </c>
+      <c r="D275" s="54">
+        <v>18</v>
+      </c>
+      <c r="E275" s="57">
+        <v>2</v>
+      </c>
+      <c r="F275" s="56"/>
+      <c r="G275" s="56"/>
+      <c r="H275" s="56"/>
+      <c r="I275" s="56">
+        <f t="shared" si="45"/>
+        <v>33.509560203022659</v>
+      </c>
+      <c r="J275" s="56">
+        <f t="shared" si="46"/>
+        <v>2.6305892875931827</v>
+      </c>
+      <c r="K275" s="56">
+        <f t="shared" si="47"/>
+        <v>12.238373167123878</v>
+      </c>
+      <c r="L275" s="56">
+        <f t="shared" si="48"/>
+        <v>6.8029405406779793</v>
+      </c>
+      <c r="M275" s="57">
+        <v>2</v>
+      </c>
+      <c r="N275" s="56"/>
+      <c r="O275" s="56"/>
+      <c r="P275" s="6"/>
+    </row>
+    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A276" s="5"/>
+      <c r="B276" s="2">
+        <v>1</v>
+      </c>
+      <c r="C276" s="29">
+        <v>3</v>
+      </c>
+      <c r="D276" s="54">
+        <v>18</v>
+      </c>
+      <c r="E276" s="57">
+        <v>2</v>
+      </c>
+      <c r="F276" s="56"/>
+      <c r="G276" s="56"/>
+      <c r="H276" s="56"/>
+      <c r="I276" s="56">
+        <f t="shared" si="45"/>
+        <v>33.509560203022659</v>
+      </c>
+      <c r="J276" s="56">
+        <f t="shared" si="46"/>
+        <v>2.6305892875931827</v>
+      </c>
+      <c r="K276" s="56">
+        <f t="shared" si="47"/>
+        <v>12.238373167123878</v>
+      </c>
+      <c r="L276" s="56">
+        <f t="shared" si="48"/>
+        <v>6.8029405406779793</v>
+      </c>
+      <c r="M276" s="57">
+        <v>2</v>
+      </c>
+      <c r="N276" s="56"/>
+      <c r="O276" s="56"/>
+      <c r="P276" s="6"/>
+    </row>
+    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A277" s="5"/>
+      <c r="B277" s="2">
+        <v>3</v>
+      </c>
+      <c r="C277" s="29">
+        <v>5</v>
+      </c>
+      <c r="D277" s="54">
+        <v>32</v>
+      </c>
+      <c r="E277" s="57">
+        <v>1</v>
+      </c>
+      <c r="F277" s="56">
+        <f>AVERAGE(B277:B279)</f>
+        <v>3</v>
+      </c>
+      <c r="G277" s="56">
+        <f t="shared" ref="G277:H277" si="50">AVERAGE(C277:C279)</f>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="H277" s="56">
+        <f t="shared" si="50"/>
+        <v>30</v>
+      </c>
+      <c r="I277" s="56">
+        <f t="shared" si="45"/>
+        <v>19.271497736294396</v>
+      </c>
+      <c r="J277" s="56">
+        <f t="shared" si="46"/>
+        <v>11.684177335182824</v>
+      </c>
+      <c r="K277" s="56">
+        <f t="shared" si="47"/>
+        <v>2.1081851067789197</v>
+      </c>
+      <c r="L277" s="56">
+        <f t="shared" si="48"/>
+        <v>21.049465551410091</v>
+      </c>
+      <c r="M277" s="57">
+        <v>1</v>
+      </c>
+      <c r="N277" s="56"/>
+      <c r="O277" s="56"/>
+      <c r="P277" s="6"/>
+    </row>
+    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A278" s="5"/>
+      <c r="B278" s="2">
+        <v>2</v>
+      </c>
+      <c r="C278" s="29">
+        <v>4</v>
+      </c>
+      <c r="D278" s="54">
+        <v>30</v>
+      </c>
+      <c r="E278" s="57">
+        <v>1</v>
+      </c>
+      <c r="F278" s="56"/>
+      <c r="G278" s="56"/>
+      <c r="H278" s="56"/>
+      <c r="I278" s="56">
+        <f t="shared" si="45"/>
+        <v>21.445060620105508</v>
+      </c>
+      <c r="J278" s="56">
+        <f t="shared" si="46"/>
+        <v>9.472064188971693</v>
+      </c>
+      <c r="K278" s="56">
+        <f t="shared" si="47"/>
+        <v>1.0540925533894596</v>
+      </c>
+      <c r="L278" s="56">
+        <f t="shared" si="48"/>
+        <v>18.832949848603114</v>
+      </c>
+      <c r="M278" s="57">
+        <v>1</v>
+      </c>
+      <c r="N278" s="56"/>
+      <c r="O278" s="56"/>
+      <c r="P278" s="6"/>
+    </row>
+    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A279" s="5"/>
+      <c r="B279" s="2">
+        <v>4</v>
+      </c>
+      <c r="C279" s="29">
+        <v>4</v>
+      </c>
+      <c r="D279" s="54">
+        <v>28</v>
+      </c>
+      <c r="E279" s="57">
+        <v>1</v>
+      </c>
+      <c r="F279" s="56"/>
+      <c r="G279" s="56"/>
+      <c r="H279" s="56"/>
+      <c r="I279" s="56">
+        <f t="shared" si="45"/>
+        <v>23.353599829576595</v>
+      </c>
+      <c r="J279" s="56">
+        <f t="shared" si="46"/>
+        <v>7.9069589603083168</v>
+      </c>
+      <c r="K279" s="56">
+        <f t="shared" si="47"/>
+        <v>2.2607766610417559</v>
+      </c>
+      <c r="L279" s="56">
+        <f t="shared" si="48"/>
+        <v>17.142928571279764</v>
+      </c>
+      <c r="M279" s="57">
+        <v>1</v>
+      </c>
+      <c r="N279" s="56"/>
+      <c r="O279" s="56"/>
+      <c r="P279" s="6"/>
+    </row>
+    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A280" s="5"/>
+      <c r="B280" s="2">
         <v>0</v>
       </c>
-      <c r="F156">
-        <f>AVERAGE(B156:B157)</f>
+      <c r="C280" s="29">
+        <v>1</v>
+      </c>
+      <c r="D280" s="54">
+        <v>5</v>
+      </c>
+      <c r="E280" s="57">
         <v>0</v>
       </c>
-      <c r="G156">
-        <f>AVERAGE(C156:C157)</f>
-        <v>1</v>
-      </c>
-      <c r="H156">
-        <f>AVERAGE(D156:D157)</f>
+      <c r="F280" s="56">
+        <f>AVERAGE(B280:B284)</f>
+        <v>0.6</v>
+      </c>
+      <c r="G280" s="56">
+        <f t="shared" ref="G280:H280" si="51">AVERAGE(C280:C284)</f>
+        <v>1.4</v>
+      </c>
+      <c r="H280" s="56">
+        <f t="shared" si="51"/>
+        <v>11.4</v>
+      </c>
+      <c r="I280" s="56">
+        <f t="shared" si="45"/>
+        <v>46.697329955790835</v>
+      </c>
+      <c r="J280" s="56">
+        <f t="shared" si="46"/>
+        <v>15.789870170460555</v>
+      </c>
+      <c r="K280" s="56">
+        <f t="shared" si="47"/>
+        <v>25.399037602064986</v>
+      </c>
+      <c r="L280" s="56">
+        <f t="shared" si="48"/>
+        <v>6.4404968752418483</v>
+      </c>
+      <c r="M280" s="57">
+        <v>0</v>
+      </c>
+      <c r="N280" s="56"/>
+      <c r="O280" s="56"/>
+      <c r="P280" s="6"/>
+    </row>
+    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A281" s="5"/>
+      <c r="B281" s="2">
+        <v>1</v>
+      </c>
+      <c r="C281" s="29">
+        <v>2</v>
+      </c>
+      <c r="D281" s="54">
+        <v>17</v>
+      </c>
+      <c r="E281" s="57">
+        <v>0</v>
+      </c>
+      <c r="F281" s="56"/>
+      <c r="G281" s="56"/>
+      <c r="H281" s="56"/>
+      <c r="I281" s="56">
+        <f t="shared" si="45"/>
+        <v>34.635828631635192</v>
+      </c>
+      <c r="J281" s="56">
+        <f t="shared" si="46"/>
+        <v>3.7576588456111883</v>
+      </c>
+      <c r="K281" s="56">
+        <f t="shared" si="47"/>
+        <v>13.35830993967592</v>
+      </c>
+      <c r="L281" s="56">
+        <f t="shared" si="48"/>
+        <v>5.6462376853972414</v>
+      </c>
+      <c r="M281" s="57">
+        <v>2</v>
+      </c>
+      <c r="N281" s="56"/>
+      <c r="O281" s="56"/>
+      <c r="P281" s="6"/>
+    </row>
+    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A282" s="5"/>
+      <c r="B282" s="2">
+        <v>1</v>
+      </c>
+      <c r="C282" s="29">
+        <v>2</v>
+      </c>
+      <c r="D282" s="54">
+        <v>17</v>
+      </c>
+      <c r="E282" s="57">
+        <v>0</v>
+      </c>
+      <c r="F282" s="56"/>
+      <c r="G282" s="56"/>
+      <c r="H282" s="56"/>
+      <c r="I282" s="56">
+        <f t="shared" si="45"/>
+        <v>34.635828631635192</v>
+      </c>
+      <c r="J282" s="56">
+        <f t="shared" si="46"/>
+        <v>3.7576588456111883</v>
+      </c>
+      <c r="K282" s="56">
+        <f t="shared" si="47"/>
+        <v>13.35830993967592</v>
+      </c>
+      <c r="L282" s="56">
+        <f t="shared" si="48"/>
+        <v>5.6462376853972414</v>
+      </c>
+      <c r="M282" s="57">
+        <v>2</v>
+      </c>
+      <c r="N282" s="56"/>
+      <c r="O282" s="56"/>
+      <c r="P282" s="6"/>
+    </row>
+    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A283" s="5"/>
+      <c r="B283" s="2">
+        <v>1</v>
+      </c>
+      <c r="C283" s="29">
+        <v>2</v>
+      </c>
+      <c r="D283" s="54">
+        <v>17</v>
+      </c>
+      <c r="E283" s="57">
+        <v>0</v>
+      </c>
+      <c r="F283" s="56"/>
+      <c r="G283" s="56"/>
+      <c r="H283" s="56"/>
+      <c r="I283" s="56">
+        <f t="shared" si="45"/>
+        <v>34.635828631635192</v>
+      </c>
+      <c r="J283" s="56">
+        <f t="shared" si="46"/>
+        <v>3.7576588456111883</v>
+      </c>
+      <c r="K283" s="56">
+        <f t="shared" si="47"/>
+        <v>13.35830993967592</v>
+      </c>
+      <c r="L283" s="56">
+        <f t="shared" si="48"/>
+        <v>5.6462376853972414</v>
+      </c>
+      <c r="M283" s="57">
+        <v>2</v>
+      </c>
+      <c r="N283" s="56"/>
+      <c r="O283" s="56"/>
+      <c r="P283" s="6"/>
+    </row>
+    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A284" s="5"/>
+      <c r="B284" s="2">
+        <v>0</v>
+      </c>
+      <c r="C284" s="29">
+        <v>0</v>
+      </c>
+      <c r="D284" s="54">
+        <v>1</v>
+      </c>
+      <c r="E284" s="57">
+        <v>0</v>
+      </c>
+      <c r="F284" s="56"/>
+      <c r="G284" s="56"/>
+      <c r="H284" s="56"/>
+      <c r="I284" s="56">
+        <f t="shared" si="45"/>
+        <v>50.785240227845726</v>
+      </c>
+      <c r="J284" s="56">
+        <f t="shared" si="46"/>
+        <v>19.877625612733532</v>
+      </c>
+      <c r="K284" s="56">
+        <f t="shared" si="47"/>
+        <v>29.47503651868438</v>
+      </c>
+      <c r="L284" s="56">
+        <f t="shared" si="48"/>
+        <v>10.510946674776731</v>
+      </c>
+      <c r="M284" s="57">
+        <v>0</v>
+      </c>
+      <c r="N284" s="56"/>
+      <c r="O284" s="56"/>
+      <c r="P284" s="6"/>
+    </row>
+    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A285" s="5"/>
+      <c r="B285" s="56"/>
+      <c r="C285" s="56"/>
+      <c r="D285" s="56"/>
+      <c r="E285" s="56"/>
+      <c r="F285" s="56"/>
+      <c r="G285" s="56"/>
+      <c r="H285" s="56"/>
+      <c r="I285" s="56"/>
+      <c r="J285" s="56"/>
+      <c r="K285" s="56"/>
+      <c r="L285" s="56"/>
+      <c r="M285" s="56"/>
+      <c r="N285" s="56"/>
+      <c r="O285" s="56"/>
+      <c r="P285" s="6"/>
+    </row>
+    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A286" s="5"/>
+      <c r="B286" s="56"/>
+      <c r="C286" s="56"/>
+      <c r="D286" s="56"/>
+      <c r="E286" s="56"/>
+      <c r="F286" s="56"/>
+      <c r="G286" s="56"/>
+      <c r="H286" s="56"/>
+      <c r="I286" s="56"/>
+      <c r="J286" s="56"/>
+      <c r="K286" s="56"/>
+      <c r="L286" s="56"/>
+      <c r="M286" s="56"/>
+      <c r="N286" s="56"/>
+      <c r="O286" s="56"/>
+      <c r="P286" s="6"/>
+    </row>
+    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A287" s="5"/>
+      <c r="B287" s="56"/>
+      <c r="C287" s="56"/>
+      <c r="D287" s="56"/>
+      <c r="E287" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F287" s="56"/>
+      <c r="G287" s="56"/>
+      <c r="H287" s="56"/>
+      <c r="I287" s="56"/>
+      <c r="J287" s="56"/>
+      <c r="K287" s="56"/>
+      <c r="L287" s="56"/>
+      <c r="M287" s="56"/>
+      <c r="N287" s="56"/>
+      <c r="O287" s="56"/>
+      <c r="P287" s="6"/>
+    </row>
+    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A288" s="5"/>
+      <c r="B288" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D288" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E288" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F288" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G288" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H288" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I288" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J288" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="K288" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="L288" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="M288" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="N288" s="56"/>
+      <c r="O288" s="56"/>
+      <c r="P288" s="6"/>
+    </row>
+    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A289" s="5"/>
+      <c r="B289" s="2">
+        <v>3</v>
+      </c>
+      <c r="C289" s="29">
+        <v>6</v>
+      </c>
+      <c r="D289" s="54">
+        <v>42</v>
+      </c>
+      <c r="E289" s="57">
+        <v>3</v>
+      </c>
+      <c r="F289" s="56">
+        <f>AVERAGE(B289:B296)</f>
+        <v>3.75</v>
+      </c>
+      <c r="G289" s="56">
+        <f t="shared" ref="G289:H289" si="52">AVERAGE(C289:C296)</f>
+        <v>7.25</v>
+      </c>
+      <c r="H289" s="56">
+        <f t="shared" si="52"/>
+        <v>51.125</v>
+      </c>
+      <c r="I289" s="56">
+        <f>((B289-$F$289)^2+(C289-$G$289)^2+(D289-$H$289)^2)^0.5</f>
+        <v>9.2407047891381104</v>
+      </c>
+      <c r="J289" s="56">
+        <f>((B289-$F$297)^2+(C289-$G$297)^2+(D289-$H$297)^2)^0.5</f>
+        <v>23.065463901686435</v>
+      </c>
+      <c r="K289" s="56">
+        <f>((B289-$F$305)^2+(C289-$G$305)^2+(D289-$H$305)^2)^0.5</f>
+        <v>12.115187896924166</v>
+      </c>
+      <c r="L289" s="56">
+        <f>((B289-$F$308)^2+(C289-$G$308)^2+(D289-$H$308)^2)^0.5</f>
+        <v>39.5</v>
+      </c>
+      <c r="M289" s="57">
+        <v>3</v>
+      </c>
+      <c r="N289" s="56"/>
+      <c r="O289" s="56"/>
+      <c r="P289" s="6"/>
+    </row>
+    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A290" s="5"/>
+      <c r="B290" s="2">
+        <v>4</v>
+      </c>
+      <c r="C290" s="29">
+        <v>8</v>
+      </c>
+      <c r="D290" s="54">
+        <v>56</v>
+      </c>
+      <c r="E290" s="57">
+        <v>3</v>
+      </c>
+      <c r="F290" s="56"/>
+      <c r="G290" s="56"/>
+      <c r="H290" s="56"/>
+      <c r="I290" s="56">
+        <f t="shared" ref="I290:I309" si="53">((B290-$F$289)^2+(C290-$G$289)^2+(D290-$H$289)^2)^0.5</f>
+        <v>4.9386865662846029</v>
+      </c>
+      <c r="J290" s="56">
+        <f t="shared" ref="J290:J309" si="54">((B290-$F$297)^2+(C290-$G$297)^2+(D290-$H$297)^2)^0.5</f>
+        <v>37.242658672549148</v>
+      </c>
+      <c r="K290" s="56">
+        <f t="shared" ref="K290:K309" si="55">((B290-$F$305)^2+(C290-$G$305)^2+(D290-$H$305)^2)^0.5</f>
+        <v>26.276309566688479</v>
+      </c>
+      <c r="L290" s="56">
+        <f t="shared" ref="L290:L309" si="56">((B290-$F$308)^2+(C290-$G$308)^2+(D290-$H$308)^2)^0.5</f>
+        <v>53.677276383959722</v>
+      </c>
+      <c r="M290" s="57">
+        <v>3</v>
+      </c>
+      <c r="N290" s="56"/>
+      <c r="O290" s="56"/>
+      <c r="P290" s="6"/>
+    </row>
+    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A291" s="5"/>
+      <c r="B291" s="2">
+        <v>3</v>
+      </c>
+      <c r="C291" s="29">
+        <v>6</v>
+      </c>
+      <c r="D291" s="54">
+        <v>44</v>
+      </c>
+      <c r="E291" s="57">
+        <v>3</v>
+      </c>
+      <c r="F291" s="56"/>
+      <c r="G291" s="56"/>
+      <c r="H291" s="56"/>
+      <c r="I291" s="56">
+        <f t="shared" si="53"/>
+        <v>7.272594103894428</v>
+      </c>
+      <c r="J291" s="56">
+        <f t="shared" si="54"/>
+        <v>25.040280050350873</v>
+      </c>
+      <c r="K291" s="56">
+        <f t="shared" si="55"/>
+        <v>14.098857321704401</v>
+      </c>
+      <c r="L291" s="56">
+        <f t="shared" si="56"/>
+        <v>41.475896614780979</v>
+      </c>
+      <c r="M291" s="57">
+        <v>3</v>
+      </c>
+      <c r="N291" s="56"/>
+      <c r="O291" s="56"/>
+      <c r="P291" s="6"/>
+    </row>
+    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A292" s="5"/>
+      <c r="B292" s="2">
         <v>5</v>
       </c>
-      <c r="I156">
-        <f t="shared" si="24"/>
-        <v>5.0990195135927845</v>
-      </c>
-      <c r="J156">
-        <f t="shared" si="25"/>
-        <v>46.157229075393673</v>
-      </c>
-      <c r="K156">
-        <f t="shared" si="26"/>
-        <v>12.378156163177131</v>
-      </c>
-      <c r="L156">
-        <f t="shared" si="27"/>
-        <v>5.0990195135927845</v>
-      </c>
-      <c r="M156">
+      <c r="C292" s="29">
+        <v>9</v>
+      </c>
+      <c r="D292" s="54">
+        <v>62</v>
+      </c>
+      <c r="E292" s="57">
+        <v>3</v>
+      </c>
+      <c r="F292" s="56"/>
+      <c r="G292" s="56"/>
+      <c r="H292" s="56"/>
+      <c r="I292" s="56">
+        <f t="shared" si="53"/>
+        <v>11.085604403910505</v>
+      </c>
+      <c r="J292" s="56">
+        <f t="shared" si="54"/>
+        <v>43.385085282848067</v>
+      </c>
+      <c r="K292" s="56">
+        <f t="shared" si="55"/>
+        <v>32.400274347260975</v>
+      </c>
+      <c r="L292" s="56">
+        <f t="shared" si="56"/>
+        <v>59.818475406850681</v>
+      </c>
+      <c r="M292" s="57">
+        <v>3</v>
+      </c>
+      <c r="N292" s="56"/>
+      <c r="O292" s="56"/>
+      <c r="P292" s="6"/>
+    </row>
+    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A293" s="5"/>
+      <c r="B293" s="2">
+        <v>5</v>
+      </c>
+      <c r="C293" s="29">
+        <v>9</v>
+      </c>
+      <c r="D293" s="54">
+        <v>64</v>
+      </c>
+      <c r="E293" s="57">
+        <v>3</v>
+      </c>
+      <c r="F293" s="56"/>
+      <c r="G293" s="56"/>
+      <c r="H293" s="56"/>
+      <c r="I293" s="56">
+        <f t="shared" si="53"/>
+        <v>13.05337600010051</v>
+      </c>
+      <c r="J293" s="56">
+        <f t="shared" si="54"/>
+        <v>45.357090129328185</v>
+      </c>
+      <c r="K293" s="56">
+        <f t="shared" si="55"/>
+        <v>34.376994891609968</v>
+      </c>
+      <c r="L293" s="56">
+        <f t="shared" si="56"/>
+        <v>61.791989772137939</v>
+      </c>
+      <c r="M293" s="57">
+        <v>3</v>
+      </c>
+      <c r="N293" s="56"/>
+      <c r="O293" s="56"/>
+      <c r="P293" s="6"/>
+    </row>
+    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A294" s="5"/>
+      <c r="B294" s="2">
+        <v>4</v>
+      </c>
+      <c r="C294" s="29">
+        <v>8</v>
+      </c>
+      <c r="D294" s="54">
+        <v>56</v>
+      </c>
+      <c r="E294" s="57">
+        <v>3</v>
+      </c>
+      <c r="F294" s="56"/>
+      <c r="G294" s="56"/>
+      <c r="H294" s="56"/>
+      <c r="I294" s="56">
+        <f t="shared" si="53"/>
+        <v>4.9386865662846029</v>
+      </c>
+      <c r="J294" s="56">
+        <f t="shared" si="54"/>
+        <v>37.242658672549148</v>
+      </c>
+      <c r="K294" s="56">
+        <f t="shared" si="55"/>
+        <v>26.276309566688479</v>
+      </c>
+      <c r="L294" s="56">
+        <f t="shared" si="56"/>
+        <v>53.677276383959722</v>
+      </c>
+      <c r="M294" s="57">
+        <v>3</v>
+      </c>
+      <c r="N294" s="56"/>
+      <c r="O294" s="56"/>
+      <c r="P294" s="6"/>
+    </row>
+    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A295" s="5"/>
+      <c r="B295" s="2">
+        <v>3</v>
+      </c>
+      <c r="C295" s="29">
+        <v>6</v>
+      </c>
+      <c r="D295" s="54">
+        <v>44</v>
+      </c>
+      <c r="E295" s="57">
+        <v>3</v>
+      </c>
+      <c r="F295" s="56"/>
+      <c r="G295" s="56"/>
+      <c r="H295" s="56"/>
+      <c r="I295" s="56">
+        <f t="shared" si="53"/>
+        <v>7.272594103894428</v>
+      </c>
+      <c r="J295" s="56">
+        <f>((B295-$F$297)^2+(C295-$G$297)^2+(D295-$H$297)^2)^0.5</f>
+        <v>25.040280050350873</v>
+      </c>
+      <c r="K295" s="56">
+        <f t="shared" si="55"/>
+        <v>14.098857321704401</v>
+      </c>
+      <c r="L295" s="56">
+        <f t="shared" si="56"/>
+        <v>41.475896614780979</v>
+      </c>
+      <c r="M295" s="57">
+        <v>3</v>
+      </c>
+      <c r="N295" s="56"/>
+      <c r="O295" s="56"/>
+      <c r="P295" s="6"/>
+    </row>
+    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A296" s="5"/>
+      <c r="B296" s="2">
+        <v>3</v>
+      </c>
+      <c r="C296" s="29">
+        <v>6</v>
+      </c>
+      <c r="D296" s="54">
+        <v>41</v>
+      </c>
+      <c r="E296" s="57">
+        <v>3</v>
+      </c>
+      <c r="F296" s="56"/>
+      <c r="G296" s="56"/>
+      <c r="H296" s="56"/>
+      <c r="I296" s="56">
+        <f t="shared" si="53"/>
+        <v>10.229400031282383</v>
+      </c>
+      <c r="J296" s="56">
+        <f t="shared" si="54"/>
+        <v>22.079755999557605</v>
+      </c>
+      <c r="K296" s="56">
+        <f t="shared" si="55"/>
+        <v>11.125546178852424</v>
+      </c>
+      <c r="L296" s="56">
+        <f t="shared" si="56"/>
+        <v>38.512984823303427</v>
+      </c>
+      <c r="M296" s="57">
+        <v>3</v>
+      </c>
+      <c r="N296" s="56"/>
+      <c r="O296" s="56"/>
+      <c r="P296" s="6"/>
+    </row>
+    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A297" s="5"/>
+      <c r="B297" s="2">
+        <v>2</v>
+      </c>
+      <c r="C297" s="29">
+        <v>3</v>
+      </c>
+      <c r="D297" s="54">
+        <v>24</v>
+      </c>
+      <c r="E297" s="57">
+        <v>2</v>
+      </c>
+      <c r="F297" s="56">
+        <f>AVERAGE(B297:B304)</f>
+        <v>1.25</v>
+      </c>
+      <c r="G297" s="56">
+        <f t="shared" ref="G297:H297" si="57">AVERAGE(C297:C304)</f>
+        <v>2.625</v>
+      </c>
+      <c r="H297" s="56">
+        <f t="shared" si="57"/>
+        <v>19.25</v>
+      </c>
+      <c r="I297" s="56">
+        <f t="shared" si="53"/>
+        <v>27.51164526159786</v>
+      </c>
+      <c r="J297" s="56">
+        <f t="shared" si="54"/>
+        <v>4.8234453453936847</v>
+      </c>
+      <c r="K297" s="56">
+        <f t="shared" si="55"/>
+        <v>6.2271805640898013</v>
+      </c>
+      <c r="L297" s="56">
+        <f t="shared" si="56"/>
+        <v>21.242645786248001</v>
+      </c>
+      <c r="M297" s="57">
+        <v>2</v>
+      </c>
+      <c r="N297" s="56"/>
+      <c r="O297" s="56"/>
+      <c r="P297" s="6"/>
+    </row>
+    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A298" s="5"/>
+      <c r="B298" s="2">
+        <v>2</v>
+      </c>
+      <c r="C298" s="29">
+        <v>3</v>
+      </c>
+      <c r="D298" s="54">
+        <v>24</v>
+      </c>
+      <c r="E298" s="57">
+        <v>2</v>
+      </c>
+      <c r="F298" s="56"/>
+      <c r="G298" s="56"/>
+      <c r="H298" s="56"/>
+      <c r="I298" s="56">
+        <f t="shared" si="53"/>
+        <v>27.51164526159786</v>
+      </c>
+      <c r="J298" s="56">
+        <f t="shared" si="54"/>
+        <v>4.8234453453936847</v>
+      </c>
+      <c r="K298" s="56">
+        <f t="shared" si="55"/>
+        <v>6.2271805640898013</v>
+      </c>
+      <c r="L298" s="56">
+        <f t="shared" si="56"/>
+        <v>21.242645786248001</v>
+      </c>
+      <c r="M298" s="57">
+        <v>2</v>
+      </c>
+      <c r="N298" s="56"/>
+      <c r="O298" s="56"/>
+      <c r="P298" s="6"/>
+    </row>
+    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A299" s="5"/>
+      <c r="B299" s="2">
+        <v>1</v>
+      </c>
+      <c r="C299" s="29">
+        <v>3</v>
+      </c>
+      <c r="D299" s="54">
+        <v>19</v>
+      </c>
+      <c r="E299" s="57">
+        <v>2</v>
+      </c>
+      <c r="F299" s="56"/>
+      <c r="G299" s="56"/>
+      <c r="H299" s="56"/>
+      <c r="I299" s="56">
+        <f t="shared" si="53"/>
+        <v>32.521387193660729</v>
+      </c>
+      <c r="J299" s="56">
+        <f t="shared" si="54"/>
+        <v>0.51538820320220757</v>
+      </c>
+      <c r="K299" s="56">
+        <f t="shared" si="55"/>
+        <v>11.259563836036357</v>
+      </c>
+      <c r="L299" s="56">
+        <f t="shared" si="56"/>
+        <v>16.224980739587952</v>
+      </c>
+      <c r="M299" s="57">
+        <v>2</v>
+      </c>
+      <c r="N299" s="56"/>
+      <c r="O299" s="56"/>
+      <c r="P299" s="6"/>
+    </row>
+    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A300" s="5"/>
+      <c r="B300" s="2">
+        <v>1</v>
+      </c>
+      <c r="C300" s="29">
+        <v>3</v>
+      </c>
+      <c r="D300" s="54">
+        <v>18</v>
+      </c>
+      <c r="E300" s="57">
+        <v>2</v>
+      </c>
+      <c r="F300" s="56"/>
+      <c r="G300" s="56"/>
+      <c r="H300" s="56"/>
+      <c r="I300" s="56">
+        <f t="shared" si="53"/>
+        <v>33.509560203022659</v>
+      </c>
+      <c r="J300" s="56">
+        <f t="shared" si="54"/>
+        <v>1.3287682265918312</v>
+      </c>
+      <c r="K300" s="56">
+        <f t="shared" si="55"/>
+        <v>12.238373167123878</v>
+      </c>
+      <c r="L300" s="56">
+        <f t="shared" si="56"/>
+        <v>15.239750654128171</v>
+      </c>
+      <c r="M300" s="57">
+        <v>2</v>
+      </c>
+      <c r="N300" s="56"/>
+      <c r="O300" s="56"/>
+      <c r="P300" s="6"/>
+    </row>
+    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A301" s="5"/>
+      <c r="B301" s="2">
+        <v>1</v>
+      </c>
+      <c r="C301" s="29">
+        <v>3</v>
+      </c>
+      <c r="D301" s="54">
+        <v>18</v>
+      </c>
+      <c r="E301" s="57">
+        <v>2</v>
+      </c>
+      <c r="F301" s="56"/>
+      <c r="G301" s="56"/>
+      <c r="H301" s="56"/>
+      <c r="I301" s="56">
+        <f t="shared" si="53"/>
+        <v>33.509560203022659</v>
+      </c>
+      <c r="J301" s="56">
+        <f t="shared" si="54"/>
+        <v>1.3287682265918312</v>
+      </c>
+      <c r="K301" s="56">
+        <f t="shared" si="55"/>
+        <v>12.238373167123878</v>
+      </c>
+      <c r="L301" s="56">
+        <f t="shared" si="56"/>
+        <v>15.239750654128171</v>
+      </c>
+      <c r="M301" s="57">
+        <v>2</v>
+      </c>
+      <c r="N301" s="56"/>
+      <c r="O301" s="56"/>
+      <c r="P301" s="6"/>
+    </row>
+    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A302" s="5"/>
+      <c r="B302" s="2">
+        <v>1</v>
+      </c>
+      <c r="C302" s="29">
+        <v>2</v>
+      </c>
+      <c r="D302" s="54">
+        <v>17</v>
+      </c>
+      <c r="E302" s="57">
+        <v>2</v>
+      </c>
+      <c r="F302" s="56"/>
+      <c r="G302" s="56"/>
+      <c r="H302" s="56"/>
+      <c r="I302" s="56">
+        <f t="shared" si="53"/>
+        <v>34.635828631635192</v>
+      </c>
+      <c r="J302" s="56">
+        <f t="shared" si="54"/>
+        <v>2.3485367785069919</v>
+      </c>
+      <c r="K302" s="56">
+        <f t="shared" si="55"/>
+        <v>13.35830993967592</v>
+      </c>
+      <c r="L302" s="56">
+        <f t="shared" si="56"/>
+        <v>14.115594213493104</v>
+      </c>
+      <c r="M302" s="57">
+        <v>2</v>
+      </c>
+      <c r="N302" s="56"/>
+      <c r="O302" s="56"/>
+      <c r="P302" s="6"/>
+    </row>
+    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A303" s="5"/>
+      <c r="B303" s="2">
+        <v>1</v>
+      </c>
+      <c r="C303" s="29">
+        <v>2</v>
+      </c>
+      <c r="D303" s="54">
+        <v>17</v>
+      </c>
+      <c r="E303" s="57">
+        <v>2</v>
+      </c>
+      <c r="F303" s="56"/>
+      <c r="G303" s="56"/>
+      <c r="H303" s="56"/>
+      <c r="I303" s="56">
+        <f t="shared" si="53"/>
+        <v>34.635828631635192</v>
+      </c>
+      <c r="J303" s="56">
+        <f t="shared" si="54"/>
+        <v>2.3485367785069919</v>
+      </c>
+      <c r="K303" s="56">
+        <f>((B303-$F$305)^2+(C303-$G$305)^2+(D303-$H$305)^2)^0.5</f>
+        <v>13.35830993967592</v>
+      </c>
+      <c r="L303" s="56">
+        <f t="shared" si="56"/>
+        <v>14.115594213493104</v>
+      </c>
+      <c r="M303" s="57">
+        <v>2</v>
+      </c>
+      <c r="N303" s="56"/>
+      <c r="O303" s="56"/>
+      <c r="P303" s="6"/>
+    </row>
+    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A304" s="5"/>
+      <c r="B304" s="2">
+        <v>1</v>
+      </c>
+      <c r="C304" s="29">
+        <v>2</v>
+      </c>
+      <c r="D304" s="54">
+        <v>17</v>
+      </c>
+      <c r="E304" s="57">
+        <v>2</v>
+      </c>
+      <c r="F304" s="56"/>
+      <c r="G304" s="56"/>
+      <c r="H304" s="56"/>
+      <c r="I304" s="56">
+        <f t="shared" si="53"/>
+        <v>34.635828631635192</v>
+      </c>
+      <c r="J304" s="56">
+        <f t="shared" si="54"/>
+        <v>2.3485367785069919</v>
+      </c>
+      <c r="K304" s="56">
+        <f t="shared" si="55"/>
+        <v>13.35830993967592</v>
+      </c>
+      <c r="L304" s="56">
+        <f t="shared" si="56"/>
+        <v>14.115594213493104</v>
+      </c>
+      <c r="M304" s="57">
+        <v>2</v>
+      </c>
+      <c r="N304" s="56"/>
+      <c r="O304" s="56"/>
+      <c r="P304" s="6"/>
+    </row>
+    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A305" s="5"/>
+      <c r="B305" s="2">
+        <v>3</v>
+      </c>
+      <c r="C305" s="29">
+        <v>5</v>
+      </c>
+      <c r="D305" s="54">
+        <v>32</v>
+      </c>
+      <c r="E305" s="57">
+        <v>1</v>
+      </c>
+      <c r="F305" s="56">
+        <f>AVERAGE(B305:B307)</f>
+        <v>3</v>
+      </c>
+      <c r="G305" s="56">
+        <f t="shared" ref="G305:H305" si="58">AVERAGE(C305:C307)</f>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="H305" s="56">
+        <f t="shared" si="58"/>
+        <v>30</v>
+      </c>
+      <c r="I305" s="56">
+        <f t="shared" si="53"/>
+        <v>19.271497736294396</v>
+      </c>
+      <c r="J305" s="56">
+        <f t="shared" si="54"/>
+        <v>13.086849315247731</v>
+      </c>
+      <c r="K305" s="56">
+        <f t="shared" si="55"/>
+        <v>2.1081851067789197</v>
+      </c>
+      <c r="L305" s="56">
+        <f t="shared" si="56"/>
+        <v>29.5</v>
+      </c>
+      <c r="M305" s="57">
+        <v>1</v>
+      </c>
+      <c r="N305" s="56"/>
+      <c r="O305" s="56"/>
+      <c r="P305" s="6"/>
+    </row>
+    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A306" s="5"/>
+      <c r="B306" s="2">
+        <v>2</v>
+      </c>
+      <c r="C306" s="29">
+        <v>4</v>
+      </c>
+      <c r="D306" s="54">
+        <v>30</v>
+      </c>
+      <c r="E306" s="57">
+        <v>1</v>
+      </c>
+      <c r="F306" s="56"/>
+      <c r="G306" s="56"/>
+      <c r="H306" s="56"/>
+      <c r="I306" s="56">
+        <f t="shared" si="53"/>
+        <v>21.445060620105508</v>
+      </c>
+      <c r="J306" s="56">
+        <f t="shared" si="54"/>
+        <v>10.863499666313798</v>
+      </c>
+      <c r="K306" s="56">
+        <f t="shared" si="55"/>
+        <v>1.0540925533894596</v>
+      </c>
+      <c r="L306" s="56">
+        <f t="shared" si="56"/>
+        <v>27.299267389437397</v>
+      </c>
+      <c r="M306" s="57">
+        <v>1</v>
+      </c>
+      <c r="N306" s="56"/>
+      <c r="O306" s="56"/>
+      <c r="P306" s="6"/>
+    </row>
+    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A307" s="5"/>
+      <c r="B307" s="2">
+        <v>4</v>
+      </c>
+      <c r="C307" s="29">
+        <v>4</v>
+      </c>
+      <c r="D307" s="54">
+        <v>28</v>
+      </c>
+      <c r="E307" s="57">
+        <v>1</v>
+      </c>
+      <c r="F307" s="56"/>
+      <c r="G307" s="56"/>
+      <c r="H307" s="56"/>
+      <c r="I307" s="56">
+        <f t="shared" si="53"/>
+        <v>23.353599829576595</v>
+      </c>
+      <c r="J307" s="56">
+        <f t="shared" si="54"/>
+        <v>9.2744609007747716</v>
+      </c>
+      <c r="K307" s="56">
+        <f t="shared" si="55"/>
+        <v>2.2607766610417559</v>
+      </c>
+      <c r="L307" s="56">
+        <f t="shared" si="56"/>
+        <v>25.558755838264116</v>
+      </c>
+      <c r="M307" s="57">
+        <v>1</v>
+      </c>
+      <c r="N307" s="56"/>
+      <c r="O307" s="56"/>
+      <c r="P307" s="6"/>
+    </row>
+    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A308" s="5"/>
+      <c r="B308" s="2">
         <v>0</v>
       </c>
-      <c r="Q156">
-        <f t="shared" si="28"/>
-        <v>27.459060435491963</v>
-      </c>
-      <c r="R156">
-        <f t="shared" si="29"/>
-        <v>5.0990195135927845</v>
-      </c>
-      <c r="S156">
-        <f t="shared" si="30"/>
-        <v>5.0990195135927845</v>
-      </c>
-      <c r="T156">
-        <f t="shared" si="31"/>
-        <v>9.0863909226931234</v>
-      </c>
-      <c r="U156">
+      <c r="C308" s="29">
+        <v>1</v>
+      </c>
+      <c r="D308" s="54">
+        <v>5</v>
+      </c>
+      <c r="E308" s="57">
         <v>0</v>
       </c>
-      <c r="Y156">
-        <f t="shared" si="32"/>
-        <v>29.724662412810606</v>
-      </c>
-      <c r="Z156">
-        <f t="shared" si="33"/>
-        <v>5.0990195135927845</v>
-      </c>
-      <c r="AA156">
-        <f t="shared" si="34"/>
-        <v>5.0990195135927845</v>
-      </c>
-      <c r="AB156">
-        <f t="shared" si="35"/>
-        <v>9.0863909226931234</v>
-      </c>
-      <c r="AC156">
+      <c r="F308" s="56">
+        <f>AVERAGE(B308:B309)</f>
         <v>0</v>
       </c>
-      <c r="AG156">
-        <f t="shared" si="37"/>
-        <v>30.019327107715124</v>
-      </c>
-      <c r="AH156">
-        <f t="shared" si="38"/>
-        <v>49.942188800874781</v>
-      </c>
-      <c r="AI156">
-        <f t="shared" si="39"/>
-        <v>19.209372712298546</v>
-      </c>
-      <c r="AJ156">
-        <f t="shared" si="40"/>
-        <v>9.0863909226931234</v>
-      </c>
-      <c r="AK156">
+      <c r="G308" s="56">
+        <f t="shared" ref="G308:H308" si="59">AVERAGE(C308:C309)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H308" s="56">
+        <f t="shared" si="59"/>
+        <v>3</v>
+      </c>
+      <c r="I308" s="56">
+        <f t="shared" si="53"/>
+        <v>46.697329955790835</v>
+      </c>
+      <c r="J308" s="56">
+        <f t="shared" si="54"/>
+        <v>14.396722717340916</v>
+      </c>
+      <c r="K308" s="56">
+        <f t="shared" si="55"/>
+        <v>25.399037602064986</v>
+      </c>
+      <c r="L308" s="56">
+        <f t="shared" si="56"/>
+        <v>2.0615528128088303</v>
+      </c>
+      <c r="M308" s="57">
         <v>0</v>
       </c>
-      <c r="AL156" s="6"/>
-    </row>
-    <row r="157" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A157" s="5"/>
-      <c r="AL157" s="6"/>
-    </row>
-    <row r="158" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A158" s="5"/>
-      <c r="AL158" s="6"/>
-    </row>
-    <row r="159" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A159" s="5"/>
-      <c r="AL159" s="6"/>
-    </row>
-    <row r="160" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A160" s="5"/>
-      <c r="B160" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="C160" s="41" t="s">
+      <c r="N308" s="56"/>
+      <c r="O308" s="56"/>
+      <c r="P308" s="6"/>
+    </row>
+    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A309" s="5"/>
+      <c r="B309" s="2">
+        <v>0</v>
+      </c>
+      <c r="C309" s="29">
+        <v>0</v>
+      </c>
+      <c r="D309" s="54">
+        <v>1</v>
+      </c>
+      <c r="E309" s="57">
+        <v>0</v>
+      </c>
+      <c r="F309" s="56"/>
+      <c r="G309" s="56"/>
+      <c r="H309" s="56"/>
+      <c r="I309" s="56">
+        <f t="shared" si="53"/>
+        <v>50.785240227845726</v>
+      </c>
+      <c r="J309" s="56">
+        <f t="shared" si="54"/>
+        <v>18.480141368506899</v>
+      </c>
+      <c r="K309" s="56">
+        <f t="shared" si="55"/>
+        <v>29.47503651868438</v>
+      </c>
+      <c r="L309" s="56">
+        <f t="shared" si="56"/>
+        <v>2.0615528128088303</v>
+      </c>
+      <c r="M309" s="57">
+        <v>0</v>
+      </c>
+      <c r="N309" s="56"/>
+      <c r="O309" s="56"/>
+      <c r="P309" s="6"/>
+    </row>
+    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A310" s="5"/>
+      <c r="B310" s="56"/>
+      <c r="C310" s="56"/>
+      <c r="D310" s="56"/>
+      <c r="E310" s="56"/>
+      <c r="F310" s="56"/>
+      <c r="G310" s="56"/>
+      <c r="H310" s="56"/>
+      <c r="I310" s="56"/>
+      <c r="J310" s="56"/>
+      <c r="K310" s="56"/>
+      <c r="L310" s="56"/>
+      <c r="M310" s="56"/>
+      <c r="N310" s="56"/>
+      <c r="O310" s="56"/>
+      <c r="P310" s="6"/>
+    </row>
+    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A311" s="5"/>
+      <c r="B311" s="56"/>
+      <c r="C311" s="56"/>
+      <c r="D311" s="56"/>
+      <c r="E311" s="56"/>
+      <c r="F311" s="56"/>
+      <c r="G311" s="56"/>
+      <c r="H311" s="56"/>
+      <c r="I311" s="56"/>
+      <c r="J311" s="56"/>
+      <c r="K311" s="56"/>
+      <c r="L311" s="56"/>
+      <c r="M311" s="56"/>
+      <c r="N311" s="56"/>
+      <c r="O311" s="56"/>
+      <c r="P311" s="6"/>
+    </row>
+    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A312" s="5"/>
+      <c r="B312" s="56"/>
+      <c r="C312" s="56"/>
+      <c r="D312" s="56"/>
+      <c r="E312" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="D160" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="E160" s="41" t="s">
+      <c r="F312" s="56"/>
+      <c r="G312" s="56"/>
+      <c r="H312" s="56"/>
+      <c r="I312" s="56"/>
+      <c r="J312" s="56"/>
+      <c r="K312" s="56"/>
+      <c r="L312" s="56"/>
+      <c r="M312" s="56"/>
+      <c r="N312" s="56"/>
+      <c r="O312" s="56"/>
+      <c r="P312" s="6"/>
+    </row>
+    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A313" s="5"/>
+      <c r="B313" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D313" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E313" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F160" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL160" s="6"/>
-    </row>
-    <row r="161" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A161" s="5"/>
-      <c r="B161" s="10">
-        <v>3</v>
-      </c>
-      <c r="C161" s="10">
-        <v>3</v>
-      </c>
-      <c r="D161" s="10">
-        <v>3</v>
-      </c>
-      <c r="E161" s="10">
-        <v>3</v>
-      </c>
-      <c r="F161" s="10">
-        <v>3</v>
-      </c>
-      <c r="AL161" s="6"/>
-    </row>
-    <row r="162" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A162" s="5"/>
-      <c r="B162" s="10">
-        <v>3</v>
-      </c>
-      <c r="C162" s="10">
-        <v>2</v>
-      </c>
-      <c r="D162" s="10">
-        <v>3</v>
-      </c>
-      <c r="E162" s="10">
-        <v>3</v>
-      </c>
-      <c r="F162" s="10">
-        <v>3</v>
-      </c>
-      <c r="AL162" s="6"/>
-    </row>
-    <row r="163" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A163" s="5"/>
-      <c r="B163" s="10">
-        <v>3</v>
-      </c>
-      <c r="C163" s="10">
-        <v>2</v>
-      </c>
-      <c r="D163" s="10">
-        <v>3</v>
-      </c>
-      <c r="E163" s="10">
-        <v>3</v>
-      </c>
-      <c r="F163" s="10">
-        <v>3</v>
-      </c>
-      <c r="AL163" s="6"/>
-    </row>
-    <row r="164" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A164" s="5"/>
-      <c r="B164" s="10">
-        <v>3</v>
-      </c>
-      <c r="C164" s="10">
-        <v>2</v>
-      </c>
-      <c r="D164" s="10">
-        <v>2</v>
-      </c>
-      <c r="E164" s="10">
-        <v>3</v>
-      </c>
-      <c r="F164" s="10">
-        <v>3</v>
-      </c>
-      <c r="AL164" s="6"/>
-    </row>
-    <row r="165" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A165" s="5"/>
-      <c r="B165" s="10">
-        <v>2</v>
-      </c>
-      <c r="C165" s="10">
-        <v>2</v>
-      </c>
-      <c r="D165" s="10">
-        <v>2</v>
-      </c>
-      <c r="E165" s="10">
-        <v>3</v>
-      </c>
-      <c r="F165" s="10">
-        <v>3</v>
-      </c>
-      <c r="AL165" s="6"/>
-    </row>
-    <row r="166" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A166" s="5"/>
-      <c r="B166" s="10">
-        <v>2</v>
-      </c>
-      <c r="C166" s="10">
-        <v>2</v>
-      </c>
-      <c r="D166" s="10">
-        <v>2</v>
-      </c>
-      <c r="E166" s="10">
-        <v>2</v>
-      </c>
-      <c r="F166" s="10">
-        <v>3</v>
-      </c>
-      <c r="AL166" s="6"/>
-    </row>
-    <row r="167" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A167" s="5"/>
-      <c r="B167" s="10">
-        <v>2</v>
-      </c>
-      <c r="C167" s="10">
-        <v>2</v>
-      </c>
-      <c r="D167" s="10">
-        <v>2</v>
-      </c>
-      <c r="E167" s="10">
-        <v>2</v>
-      </c>
-      <c r="F167" s="10">
-        <v>2</v>
-      </c>
-      <c r="AL167" s="6"/>
-    </row>
-    <row r="168" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A168" s="5"/>
-      <c r="B168" s="10">
-        <v>2</v>
-      </c>
-      <c r="C168" s="10">
-        <v>2</v>
-      </c>
-      <c r="D168" s="10">
-        <v>2</v>
-      </c>
-      <c r="E168" s="10">
-        <v>2</v>
-      </c>
-      <c r="F168" s="10">
-        <v>2</v>
-      </c>
-      <c r="AL168" s="6"/>
-    </row>
-    <row r="169" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A169" s="5"/>
-      <c r="B169" s="10">
-        <v>2</v>
-      </c>
-      <c r="C169" s="10">
-        <v>2</v>
-      </c>
-      <c r="D169" s="10">
-        <v>2</v>
-      </c>
-      <c r="E169" s="10">
-        <v>2</v>
-      </c>
-      <c r="F169" s="10">
-        <v>2</v>
-      </c>
-      <c r="AL169" s="6"/>
-    </row>
-    <row r="170" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A170" s="5"/>
-      <c r="B170" s="10">
-        <v>2</v>
-      </c>
-      <c r="C170" s="10">
-        <v>1</v>
-      </c>
-      <c r="D170" s="10">
-        <v>2</v>
-      </c>
-      <c r="E170" s="10">
-        <v>2</v>
-      </c>
-      <c r="F170" s="10">
-        <v>2</v>
-      </c>
-      <c r="AL170" s="6"/>
-    </row>
-    <row r="171" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A171" s="5"/>
-      <c r="B171" s="10">
-        <v>2</v>
-      </c>
-      <c r="C171" s="10">
-        <v>1</v>
-      </c>
-      <c r="D171" s="10">
-        <v>1</v>
-      </c>
-      <c r="E171" s="10">
-        <v>2</v>
-      </c>
-      <c r="F171" s="10">
-        <v>1</v>
-      </c>
-      <c r="AL171" s="6"/>
-    </row>
-    <row r="172" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A172" s="5"/>
-      <c r="B172" s="10">
-        <v>1</v>
-      </c>
-      <c r="C172" s="10">
-        <v>1</v>
-      </c>
-      <c r="D172" s="10">
-        <v>1</v>
-      </c>
-      <c r="E172" s="10">
-        <v>1</v>
-      </c>
-      <c r="F172" s="10">
-        <v>1</v>
-      </c>
-      <c r="AL172" s="6"/>
-    </row>
-    <row r="173" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A173" s="5"/>
-      <c r="B173" s="10">
-        <v>1</v>
-      </c>
-      <c r="C173" s="10">
-        <v>1</v>
-      </c>
-      <c r="D173" s="10">
-        <v>1</v>
-      </c>
-      <c r="E173" s="10">
-        <v>1</v>
-      </c>
-      <c r="F173" s="10">
-        <v>1</v>
-      </c>
-      <c r="AL173" s="6"/>
-    </row>
-    <row r="174" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A174" s="5"/>
-      <c r="B174" s="10">
-        <v>1</v>
-      </c>
-      <c r="C174" s="10">
+      <c r="F313" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G313" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H313" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I313" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J313" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="K313" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="L313" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="M313" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="N313" s="56"/>
+      <c r="O313" s="56"/>
+      <c r="P313" s="6"/>
+    </row>
+    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A314" s="5"/>
+      <c r="B314" s="2">
+        <v>3</v>
+      </c>
+      <c r="C314" s="29">
+        <v>6</v>
+      </c>
+      <c r="D314" s="54">
+        <v>42</v>
+      </c>
+      <c r="E314" s="58">
+        <v>3</v>
+      </c>
+      <c r="F314" s="56">
+        <f>AVERAGE(B314:B321)</f>
+        <v>3.75</v>
+      </c>
+      <c r="G314" s="56">
+        <f t="shared" ref="G314:H314" si="60">AVERAGE(C314:C321)</f>
+        <v>7.25</v>
+      </c>
+      <c r="H314" s="56">
+        <f t="shared" si="60"/>
+        <v>51.125</v>
+      </c>
+      <c r="I314" s="56">
+        <f>((B314-$F$314)^2+(C314-$G$314)^2+(D314-$H$314)^2)^0.5</f>
+        <v>9.2407047891381104</v>
+      </c>
+      <c r="J314" s="56">
+        <f>((B314-$F$322)^2+(C314-$G$322)^2+(D314-$H$322)^2)^0.5</f>
+        <v>23.065463901686435</v>
+      </c>
+      <c r="K314" s="56">
+        <f>((B314-$F$330)^2+(C314-$G$330)^2+(D314-$H$330)^2)^0.5</f>
+        <v>12.115187896924166</v>
+      </c>
+      <c r="L314" s="56">
+        <f>((B314-$F$333)^2+(C314-$G$333)^2+(D314-$H$333)^2)^0.5</f>
+        <v>39.5</v>
+      </c>
+      <c r="M314" s="58">
+        <v>3</v>
+      </c>
+      <c r="N314" s="56"/>
+      <c r="O314" s="56"/>
+      <c r="P314" s="6"/>
+    </row>
+    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A315" s="5"/>
+      <c r="B315" s="2">
+        <v>4</v>
+      </c>
+      <c r="C315" s="29">
+        <v>8</v>
+      </c>
+      <c r="D315" s="54">
+        <v>56</v>
+      </c>
+      <c r="E315" s="58">
+        <v>3</v>
+      </c>
+      <c r="F315" s="56"/>
+      <c r="G315" s="56"/>
+      <c r="H315" s="56"/>
+      <c r="I315" s="56">
+        <f t="shared" ref="I315:I334" si="61">((B315-$F$314)^2+(C315-$G$314)^2+(D315-$H$314)^2)^0.5</f>
+        <v>4.9386865662846029</v>
+      </c>
+      <c r="J315" s="56">
+        <f t="shared" ref="J315:J334" si="62">((B315-$F$322)^2+(C315-$G$322)^2+(D315-$H$322)^2)^0.5</f>
+        <v>37.242658672549148</v>
+      </c>
+      <c r="K315" s="56">
+        <f t="shared" ref="K315:K334" si="63">((B315-$F$330)^2+(C315-$G$330)^2+(D315-$H$330)^2)^0.5</f>
+        <v>26.276309566688479</v>
+      </c>
+      <c r="L315" s="56">
+        <f t="shared" ref="L315:L334" si="64">((B315-$F$333)^2+(C315-$G$333)^2+(D315-$H$333)^2)^0.5</f>
+        <v>53.677276383959722</v>
+      </c>
+      <c r="M315" s="58">
+        <v>3</v>
+      </c>
+      <c r="N315" s="56"/>
+      <c r="O315" s="56"/>
+      <c r="P315" s="6"/>
+    </row>
+    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A316" s="5"/>
+      <c r="B316" s="2">
+        <v>3</v>
+      </c>
+      <c r="C316" s="29">
+        <v>6</v>
+      </c>
+      <c r="D316" s="54">
+        <v>44</v>
+      </c>
+      <c r="E316" s="58">
+        <v>3</v>
+      </c>
+      <c r="F316" s="56"/>
+      <c r="G316" s="56"/>
+      <c r="H316" s="56"/>
+      <c r="I316" s="56">
+        <f t="shared" si="61"/>
+        <v>7.272594103894428</v>
+      </c>
+      <c r="J316" s="56">
+        <f t="shared" si="62"/>
+        <v>25.040280050350873</v>
+      </c>
+      <c r="K316" s="56">
+        <f t="shared" si="63"/>
+        <v>14.098857321704401</v>
+      </c>
+      <c r="L316" s="56">
+        <f t="shared" si="64"/>
+        <v>41.475896614780979</v>
+      </c>
+      <c r="M316" s="58">
+        <v>3</v>
+      </c>
+      <c r="N316" s="56"/>
+      <c r="O316" s="56"/>
+      <c r="P316" s="6"/>
+    </row>
+    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A317" s="5"/>
+      <c r="B317" s="2">
+        <v>5</v>
+      </c>
+      <c r="C317" s="29">
+        <v>9</v>
+      </c>
+      <c r="D317" s="54">
+        <v>62</v>
+      </c>
+      <c r="E317" s="58">
+        <v>3</v>
+      </c>
+      <c r="F317" s="56"/>
+      <c r="G317" s="56"/>
+      <c r="H317" s="56"/>
+      <c r="I317" s="56">
+        <f t="shared" si="61"/>
+        <v>11.085604403910505</v>
+      </c>
+      <c r="J317" s="56">
+        <f t="shared" si="62"/>
+        <v>43.385085282848067</v>
+      </c>
+      <c r="K317" s="56">
+        <f t="shared" si="63"/>
+        <v>32.400274347260975</v>
+      </c>
+      <c r="L317" s="56">
+        <f t="shared" si="64"/>
+        <v>59.818475406850681</v>
+      </c>
+      <c r="M317" s="58">
+        <v>3</v>
+      </c>
+      <c r="N317" s="56"/>
+      <c r="O317" s="56"/>
+      <c r="P317" s="6"/>
+    </row>
+    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A318" s="5"/>
+      <c r="B318" s="2">
+        <v>5</v>
+      </c>
+      <c r="C318" s="29">
+        <v>9</v>
+      </c>
+      <c r="D318" s="54">
+        <v>64</v>
+      </c>
+      <c r="E318" s="58">
+        <v>3</v>
+      </c>
+      <c r="F318" s="56"/>
+      <c r="G318" s="56"/>
+      <c r="H318" s="56"/>
+      <c r="I318" s="56">
+        <f t="shared" si="61"/>
+        <v>13.05337600010051</v>
+      </c>
+      <c r="J318" s="56">
+        <f t="shared" si="62"/>
+        <v>45.357090129328185</v>
+      </c>
+      <c r="K318" s="56">
+        <f t="shared" si="63"/>
+        <v>34.376994891609968</v>
+      </c>
+      <c r="L318" s="56">
+        <f t="shared" si="64"/>
+        <v>61.791989772137939</v>
+      </c>
+      <c r="M318" s="58">
+        <v>3</v>
+      </c>
+      <c r="N318" s="56"/>
+      <c r="O318" s="56"/>
+      <c r="P318" s="6"/>
+    </row>
+    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A319" s="5"/>
+      <c r="B319" s="2">
+        <v>4</v>
+      </c>
+      <c r="C319" s="29">
+        <v>8</v>
+      </c>
+      <c r="D319" s="54">
+        <v>56</v>
+      </c>
+      <c r="E319" s="58">
+        <v>3</v>
+      </c>
+      <c r="F319" s="56"/>
+      <c r="G319" s="56"/>
+      <c r="H319" s="56"/>
+      <c r="I319" s="56">
+        <f t="shared" si="61"/>
+        <v>4.9386865662846029</v>
+      </c>
+      <c r="J319" s="56">
+        <f t="shared" si="62"/>
+        <v>37.242658672549148</v>
+      </c>
+      <c r="K319" s="56">
+        <f t="shared" si="63"/>
+        <v>26.276309566688479</v>
+      </c>
+      <c r="L319" s="56">
+        <f t="shared" si="64"/>
+        <v>53.677276383959722</v>
+      </c>
+      <c r="M319" s="58">
+        <v>3</v>
+      </c>
+      <c r="N319" s="56"/>
+      <c r="O319" s="56"/>
+      <c r="P319" s="6"/>
+    </row>
+    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A320" s="5"/>
+      <c r="B320" s="2">
+        <v>3</v>
+      </c>
+      <c r="C320" s="29">
+        <v>6</v>
+      </c>
+      <c r="D320" s="54">
+        <v>44</v>
+      </c>
+      <c r="E320" s="58">
+        <v>3</v>
+      </c>
+      <c r="F320" s="56"/>
+      <c r="G320" s="56"/>
+      <c r="H320" s="56"/>
+      <c r="I320" s="56">
+        <f t="shared" si="61"/>
+        <v>7.272594103894428</v>
+      </c>
+      <c r="J320" s="56">
+        <f t="shared" si="62"/>
+        <v>25.040280050350873</v>
+      </c>
+      <c r="K320" s="56">
+        <f t="shared" si="63"/>
+        <v>14.098857321704401</v>
+      </c>
+      <c r="L320" s="56">
+        <f t="shared" si="64"/>
+        <v>41.475896614780979</v>
+      </c>
+      <c r="M320" s="58">
+        <v>3</v>
+      </c>
+      <c r="N320" s="56"/>
+      <c r="O320" s="56"/>
+      <c r="P320" s="6"/>
+    </row>
+    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A321" s="5"/>
+      <c r="B321" s="2">
+        <v>3</v>
+      </c>
+      <c r="C321" s="29">
+        <v>6</v>
+      </c>
+      <c r="D321" s="54">
+        <v>41</v>
+      </c>
+      <c r="E321" s="58">
+        <v>3</v>
+      </c>
+      <c r="F321" s="56"/>
+      <c r="G321" s="56"/>
+      <c r="H321" s="56"/>
+      <c r="I321" s="56">
+        <f t="shared" si="61"/>
+        <v>10.229400031282383</v>
+      </c>
+      <c r="J321" s="56">
+        <f t="shared" si="62"/>
+        <v>22.079755999557605</v>
+      </c>
+      <c r="K321" s="56">
+        <f t="shared" si="63"/>
+        <v>11.125546178852424</v>
+      </c>
+      <c r="L321" s="56">
+        <f t="shared" si="64"/>
+        <v>38.512984823303427</v>
+      </c>
+      <c r="M321" s="58">
+        <v>3</v>
+      </c>
+      <c r="N321" s="56"/>
+      <c r="O321" s="56"/>
+      <c r="P321" s="6"/>
+    </row>
+    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A322" s="5"/>
+      <c r="B322" s="2">
+        <v>2</v>
+      </c>
+      <c r="C322" s="29">
+        <v>3</v>
+      </c>
+      <c r="D322" s="54">
+        <v>24</v>
+      </c>
+      <c r="E322" s="58">
+        <v>2</v>
+      </c>
+      <c r="F322" s="56">
+        <f>AVERAGE(B322:B329)</f>
+        <v>1.25</v>
+      </c>
+      <c r="G322" s="56">
+        <f t="shared" ref="G322:H322" si="65">AVERAGE(C322:C329)</f>
+        <v>2.625</v>
+      </c>
+      <c r="H322" s="56">
+        <f t="shared" si="65"/>
+        <v>19.25</v>
+      </c>
+      <c r="I322" s="56">
+        <f t="shared" si="61"/>
+        <v>27.51164526159786</v>
+      </c>
+      <c r="J322" s="56">
+        <f t="shared" si="62"/>
+        <v>4.8234453453936847</v>
+      </c>
+      <c r="K322" s="56">
+        <f t="shared" si="63"/>
+        <v>6.2271805640898013</v>
+      </c>
+      <c r="L322" s="56">
+        <f t="shared" si="64"/>
+        <v>21.242645786248001</v>
+      </c>
+      <c r="M322" s="58">
+        <v>2</v>
+      </c>
+      <c r="N322" s="56"/>
+      <c r="O322" s="56"/>
+      <c r="P322" s="6"/>
+    </row>
+    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A323" s="5"/>
+      <c r="B323" s="2">
+        <v>2</v>
+      </c>
+      <c r="C323" s="29">
+        <v>3</v>
+      </c>
+      <c r="D323" s="54">
+        <v>24</v>
+      </c>
+      <c r="E323" s="58">
+        <v>2</v>
+      </c>
+      <c r="F323" s="56"/>
+      <c r="G323" s="56"/>
+      <c r="H323" s="56"/>
+      <c r="I323" s="56">
+        <f t="shared" si="61"/>
+        <v>27.51164526159786</v>
+      </c>
+      <c r="J323" s="56">
+        <f t="shared" si="62"/>
+        <v>4.8234453453936847</v>
+      </c>
+      <c r="K323" s="56">
+        <f t="shared" si="63"/>
+        <v>6.2271805640898013</v>
+      </c>
+      <c r="L323" s="56">
+        <f t="shared" si="64"/>
+        <v>21.242645786248001</v>
+      </c>
+      <c r="M323" s="58">
+        <v>2</v>
+      </c>
+      <c r="N323" s="56"/>
+      <c r="O323" s="56"/>
+      <c r="P323" s="6"/>
+    </row>
+    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A324" s="5"/>
+      <c r="B324" s="2">
+        <v>1</v>
+      </c>
+      <c r="C324" s="29">
+        <v>3</v>
+      </c>
+      <c r="D324" s="54">
+        <v>19</v>
+      </c>
+      <c r="E324" s="58">
+        <v>2</v>
+      </c>
+      <c r="F324" s="56"/>
+      <c r="G324" s="56"/>
+      <c r="H324" s="56"/>
+      <c r="I324" s="56">
+        <f t="shared" si="61"/>
+        <v>32.521387193660729</v>
+      </c>
+      <c r="J324" s="56">
+        <f t="shared" si="62"/>
+        <v>0.51538820320220757</v>
+      </c>
+      <c r="K324" s="56">
+        <f t="shared" si="63"/>
+        <v>11.259563836036357</v>
+      </c>
+      <c r="L324" s="56">
+        <f t="shared" si="64"/>
+        <v>16.224980739587952</v>
+      </c>
+      <c r="M324" s="58">
+        <v>2</v>
+      </c>
+      <c r="N324" s="56"/>
+      <c r="O324" s="56"/>
+      <c r="P324" s="6"/>
+    </row>
+    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A325" s="5"/>
+      <c r="B325" s="2">
+        <v>1</v>
+      </c>
+      <c r="C325" s="29">
+        <v>3</v>
+      </c>
+      <c r="D325" s="54">
+        <v>18</v>
+      </c>
+      <c r="E325" s="58">
+        <v>2</v>
+      </c>
+      <c r="F325" s="56"/>
+      <c r="G325" s="56"/>
+      <c r="H325" s="56"/>
+      <c r="I325" s="56">
+        <f t="shared" si="61"/>
+        <v>33.509560203022659</v>
+      </c>
+      <c r="J325" s="56">
+        <f t="shared" si="62"/>
+        <v>1.3287682265918312</v>
+      </c>
+      <c r="K325" s="56">
+        <f t="shared" si="63"/>
+        <v>12.238373167123878</v>
+      </c>
+      <c r="L325" s="56">
+        <f t="shared" si="64"/>
+        <v>15.239750654128171</v>
+      </c>
+      <c r="M325" s="58">
+        <v>2</v>
+      </c>
+      <c r="N325" s="56"/>
+      <c r="O325" s="56"/>
+      <c r="P325" s="6"/>
+    </row>
+    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A326" s="5"/>
+      <c r="B326" s="2">
+        <v>1</v>
+      </c>
+      <c r="C326" s="29">
+        <v>3</v>
+      </c>
+      <c r="D326" s="54">
+        <v>18</v>
+      </c>
+      <c r="E326" s="58">
+        <v>2</v>
+      </c>
+      <c r="F326" s="56"/>
+      <c r="G326" s="56"/>
+      <c r="H326" s="56"/>
+      <c r="I326" s="56">
+        <f t="shared" si="61"/>
+        <v>33.509560203022659</v>
+      </c>
+      <c r="J326" s="56">
+        <f t="shared" si="62"/>
+        <v>1.3287682265918312</v>
+      </c>
+      <c r="K326" s="56">
+        <f t="shared" si="63"/>
+        <v>12.238373167123878</v>
+      </c>
+      <c r="L326" s="56">
+        <f t="shared" si="64"/>
+        <v>15.239750654128171</v>
+      </c>
+      <c r="M326" s="58">
+        <v>2</v>
+      </c>
+      <c r="N326" s="56"/>
+      <c r="O326" s="56"/>
+      <c r="P326" s="6"/>
+    </row>
+    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A327" s="5"/>
+      <c r="B327" s="2">
+        <v>1</v>
+      </c>
+      <c r="C327" s="29">
+        <v>2</v>
+      </c>
+      <c r="D327" s="54">
+        <v>17</v>
+      </c>
+      <c r="E327" s="58">
+        <v>2</v>
+      </c>
+      <c r="F327" s="56"/>
+      <c r="G327" s="56"/>
+      <c r="H327" s="56"/>
+      <c r="I327" s="56">
+        <f t="shared" si="61"/>
+        <v>34.635828631635192</v>
+      </c>
+      <c r="J327" s="56">
+        <f t="shared" si="62"/>
+        <v>2.3485367785069919</v>
+      </c>
+      <c r="K327" s="56">
+        <f t="shared" si="63"/>
+        <v>13.35830993967592</v>
+      </c>
+      <c r="L327" s="56">
+        <f t="shared" si="64"/>
+        <v>14.115594213493104</v>
+      </c>
+      <c r="M327" s="58">
+        <v>2</v>
+      </c>
+      <c r="N327" s="56"/>
+      <c r="O327" s="56"/>
+      <c r="P327" s="6"/>
+    </row>
+    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A328" s="5"/>
+      <c r="B328" s="2">
+        <v>1</v>
+      </c>
+      <c r="C328" s="29">
+        <v>2</v>
+      </c>
+      <c r="D328" s="54">
+        <v>17</v>
+      </c>
+      <c r="E328" s="58">
+        <v>2</v>
+      </c>
+      <c r="F328" s="56"/>
+      <c r="G328" s="56"/>
+      <c r="H328" s="56"/>
+      <c r="I328" s="56">
+        <f t="shared" si="61"/>
+        <v>34.635828631635192</v>
+      </c>
+      <c r="J328" s="56">
+        <f t="shared" si="62"/>
+        <v>2.3485367785069919</v>
+      </c>
+      <c r="K328" s="56">
+        <f t="shared" si="63"/>
+        <v>13.35830993967592</v>
+      </c>
+      <c r="L328" s="56">
+        <f t="shared" si="64"/>
+        <v>14.115594213493104</v>
+      </c>
+      <c r="M328" s="58">
+        <v>2</v>
+      </c>
+      <c r="N328" s="56"/>
+      <c r="O328" s="56"/>
+      <c r="P328" s="6"/>
+    </row>
+    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A329" s="5"/>
+      <c r="B329" s="2">
+        <v>1</v>
+      </c>
+      <c r="C329" s="29">
+        <v>2</v>
+      </c>
+      <c r="D329" s="54">
+        <v>17</v>
+      </c>
+      <c r="E329" s="58">
+        <v>2</v>
+      </c>
+      <c r="F329" s="56"/>
+      <c r="G329" s="56"/>
+      <c r="H329" s="56"/>
+      <c r="I329" s="56">
+        <f t="shared" si="61"/>
+        <v>34.635828631635192</v>
+      </c>
+      <c r="J329" s="56">
+        <f t="shared" si="62"/>
+        <v>2.3485367785069919</v>
+      </c>
+      <c r="K329" s="56">
+        <f t="shared" si="63"/>
+        <v>13.35830993967592</v>
+      </c>
+      <c r="L329" s="56">
+        <f t="shared" si="64"/>
+        <v>14.115594213493104</v>
+      </c>
+      <c r="M329" s="58">
+        <v>2</v>
+      </c>
+      <c r="N329" s="56"/>
+      <c r="O329" s="56"/>
+      <c r="P329" s="6"/>
+    </row>
+    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A330" s="5"/>
+      <c r="B330" s="2">
+        <v>3</v>
+      </c>
+      <c r="C330" s="29">
+        <v>5</v>
+      </c>
+      <c r="D330" s="54">
+        <v>32</v>
+      </c>
+      <c r="E330" s="58">
+        <v>1</v>
+      </c>
+      <c r="F330" s="56">
+        <f>AVERAGE(B330:B332)</f>
+        <v>3</v>
+      </c>
+      <c r="G330" s="56">
+        <f t="shared" ref="G330:H330" si="66">AVERAGE(C330:C332)</f>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="H330" s="56">
+        <f t="shared" si="66"/>
+        <v>30</v>
+      </c>
+      <c r="I330" s="56">
+        <f t="shared" si="61"/>
+        <v>19.271497736294396</v>
+      </c>
+      <c r="J330" s="56">
+        <f t="shared" si="62"/>
+        <v>13.086849315247731</v>
+      </c>
+      <c r="K330" s="56">
+        <f t="shared" si="63"/>
+        <v>2.1081851067789197</v>
+      </c>
+      <c r="L330" s="56">
+        <f t="shared" si="64"/>
+        <v>29.5</v>
+      </c>
+      <c r="M330" s="58">
+        <v>1</v>
+      </c>
+      <c r="N330" s="56"/>
+      <c r="O330" s="56"/>
+      <c r="P330" s="6"/>
+    </row>
+    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A331" s="5"/>
+      <c r="B331" s="2">
+        <v>2</v>
+      </c>
+      <c r="C331" s="29">
+        <v>4</v>
+      </c>
+      <c r="D331" s="54">
+        <v>30</v>
+      </c>
+      <c r="E331" s="58">
+        <v>1</v>
+      </c>
+      <c r="F331" s="56"/>
+      <c r="G331" s="56"/>
+      <c r="H331" s="56"/>
+      <c r="I331" s="56">
+        <f t="shared" si="61"/>
+        <v>21.445060620105508</v>
+      </c>
+      <c r="J331" s="56">
+        <f t="shared" si="62"/>
+        <v>10.863499666313798</v>
+      </c>
+      <c r="K331" s="56">
+        <f t="shared" si="63"/>
+        <v>1.0540925533894596</v>
+      </c>
+      <c r="L331" s="56">
+        <f t="shared" si="64"/>
+        <v>27.299267389437397</v>
+      </c>
+      <c r="M331" s="58">
+        <v>1</v>
+      </c>
+      <c r="N331" s="56"/>
+      <c r="O331" s="56"/>
+      <c r="P331" s="6"/>
+    </row>
+    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A332" s="5"/>
+      <c r="B332" s="2">
+        <v>4</v>
+      </c>
+      <c r="C332" s="29">
+        <v>4</v>
+      </c>
+      <c r="D332" s="54">
+        <v>28</v>
+      </c>
+      <c r="E332" s="58">
+        <v>1</v>
+      </c>
+      <c r="F332" s="56"/>
+      <c r="G332" s="56"/>
+      <c r="H332" s="56"/>
+      <c r="I332" s="56">
+        <f t="shared" si="61"/>
+        <v>23.353599829576595</v>
+      </c>
+      <c r="J332" s="56">
+        <f t="shared" si="62"/>
+        <v>9.2744609007747716</v>
+      </c>
+      <c r="K332" s="56">
+        <f>((B332-$F$330)^2+(C332-$G$330)^2+(D332-$H$330)^2)^0.5</f>
+        <v>2.2607766610417559</v>
+      </c>
+      <c r="L332" s="56">
+        <f t="shared" si="64"/>
+        <v>25.558755838264116</v>
+      </c>
+      <c r="M332" s="58">
+        <v>1</v>
+      </c>
+      <c r="N332" s="56"/>
+      <c r="O332" s="56"/>
+      <c r="P332" s="6"/>
+    </row>
+    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A333" s="5"/>
+      <c r="B333" s="2">
         <v>0</v>
       </c>
-      <c r="D174" s="10">
+      <c r="C333" s="29">
+        <v>1</v>
+      </c>
+      <c r="D333" s="54">
+        <v>5</v>
+      </c>
+      <c r="E333" s="58">
         <v>0</v>
       </c>
-      <c r="E174" s="10">
+      <c r="F333" s="56">
+        <f>AVERAGE(B333:B334)</f>
         <v>0</v>
       </c>
-      <c r="F174" s="10">
-        <v>1</v>
-      </c>
-      <c r="AL174" s="6"/>
-    </row>
-    <row r="175" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A175" s="5"/>
-      <c r="B175" s="10">
-        <v>1</v>
-      </c>
-      <c r="C175" s="10">
+      <c r="G333" s="56">
+        <f t="shared" ref="G333:H333" si="67">AVERAGE(C333:C334)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H333" s="56">
+        <f t="shared" si="67"/>
+        <v>3</v>
+      </c>
+      <c r="I333" s="56">
+        <f t="shared" si="61"/>
+        <v>46.697329955790835</v>
+      </c>
+      <c r="J333" s="56">
+        <f t="shared" si="62"/>
+        <v>14.396722717340916</v>
+      </c>
+      <c r="K333" s="56">
+        <f t="shared" si="63"/>
+        <v>25.399037602064986</v>
+      </c>
+      <c r="L333" s="56">
+        <f t="shared" si="64"/>
+        <v>2.0615528128088303</v>
+      </c>
+      <c r="M333" s="58">
         <v>0</v>
       </c>
-      <c r="D175" s="10">
+      <c r="N333" s="56"/>
+      <c r="O333" s="56"/>
+      <c r="P333" s="6"/>
+    </row>
+    <row r="334" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A334" s="5"/>
+      <c r="B334" s="2">
         <v>0</v>
       </c>
-      <c r="E175" s="10">
+      <c r="C334" s="29">
         <v>0</v>
       </c>
-      <c r="F175" s="10">
+      <c r="D334" s="54">
+        <v>1</v>
+      </c>
+      <c r="E334" s="58">
         <v>0</v>
       </c>
-      <c r="AL175" s="6"/>
-    </row>
-    <row r="176" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A176" s="5"/>
-      <c r="B176" s="10">
-        <v>1</v>
-      </c>
-      <c r="C176" s="10">
+      <c r="F334" s="56"/>
+      <c r="G334" s="56"/>
+      <c r="H334" s="56"/>
+      <c r="I334" s="56">
+        <f t="shared" si="61"/>
+        <v>50.785240227845726</v>
+      </c>
+      <c r="J334" s="56">
+        <f t="shared" si="62"/>
+        <v>18.480141368506899</v>
+      </c>
+      <c r="K334" s="56">
+        <f t="shared" si="63"/>
+        <v>29.47503651868438</v>
+      </c>
+      <c r="L334" s="56">
+        <f t="shared" si="64"/>
+        <v>2.0615528128088303</v>
+      </c>
+      <c r="M334" s="58">
         <v>0</v>
       </c>
-      <c r="D176" s="10">
-        <v>0</v>
-      </c>
-      <c r="E176" s="10">
-        <v>0</v>
-      </c>
-      <c r="F176" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL176" s="6"/>
-    </row>
-    <row r="177" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A177" s="5"/>
-      <c r="B177" s="10">
-        <v>1</v>
-      </c>
-      <c r="C177" s="10">
-        <v>0</v>
-      </c>
-      <c r="D177" s="10">
-        <v>0</v>
-      </c>
-      <c r="E177" s="10">
-        <v>0</v>
-      </c>
-      <c r="F177" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL177" s="6"/>
-    </row>
-    <row r="178" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A178" s="5"/>
-      <c r="B178" s="10">
-        <v>1</v>
-      </c>
-      <c r="C178" s="10">
-        <v>0</v>
-      </c>
-      <c r="D178" s="10">
-        <v>0</v>
-      </c>
-      <c r="E178" s="10">
-        <v>0</v>
-      </c>
-      <c r="F178" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL178" s="6"/>
-    </row>
-    <row r="179" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A179" s="5"/>
-      <c r="B179" s="10">
-        <v>1</v>
-      </c>
-      <c r="C179" s="10">
-        <v>0</v>
-      </c>
-      <c r="D179" s="10">
-        <v>0</v>
-      </c>
-      <c r="E179" s="10">
-        <v>0</v>
-      </c>
-      <c r="F179" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL179" s="6"/>
-    </row>
-    <row r="180" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A180" s="5"/>
-      <c r="B180" s="10">
-        <v>0</v>
-      </c>
-      <c r="C180" s="10">
-        <v>0</v>
-      </c>
-      <c r="D180" s="10">
-        <v>0</v>
-      </c>
-      <c r="E180" s="10">
-        <v>0</v>
-      </c>
-      <c r="F180" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL180" s="6"/>
-    </row>
-    <row r="181" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A181" s="5"/>
-      <c r="B181" s="10">
-        <v>0</v>
-      </c>
-      <c r="C181" s="10">
-        <v>0</v>
-      </c>
-      <c r="D181" s="10">
-        <v>0</v>
-      </c>
-      <c r="E181" s="10">
-        <v>0</v>
-      </c>
-      <c r="F181" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL181" s="6"/>
-    </row>
-    <row r="182" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="7"/>
-      <c r="B182" s="8"/>
-      <c r="C182" s="8"/>
-      <c r="D182" s="8"/>
-      <c r="E182" s="8"/>
-      <c r="F182" s="8"/>
-      <c r="G182" s="8"/>
-      <c r="H182" s="8"/>
-      <c r="I182" s="8"/>
-      <c r="J182" s="8"/>
-      <c r="K182" s="8"/>
-      <c r="L182" s="8"/>
-      <c r="M182" s="8"/>
-      <c r="N182" s="8"/>
-      <c r="O182" s="8"/>
-      <c r="P182" s="8"/>
-      <c r="Q182" s="8"/>
-      <c r="R182" s="8"/>
-      <c r="S182" s="8"/>
-      <c r="T182" s="8"/>
-      <c r="U182" s="8"/>
-      <c r="V182" s="8"/>
-      <c r="W182" s="8"/>
-      <c r="X182" s="8"/>
-      <c r="Y182" s="8"/>
-      <c r="Z182" s="8"/>
-      <c r="AA182" s="8"/>
-      <c r="AB182" s="8"/>
-      <c r="AC182" s="8"/>
-      <c r="AD182" s="8"/>
-      <c r="AE182" s="8"/>
-      <c r="AF182" s="8"/>
-      <c r="AG182" s="8"/>
-      <c r="AH182" s="8"/>
-      <c r="AI182" s="8"/>
-      <c r="AJ182" s="8"/>
-      <c r="AK182" s="8"/>
-      <c r="AL182" s="9"/>
+      <c r="N334" s="56"/>
+      <c r="O334" s="56"/>
+      <c r="P334" s="6"/>
+    </row>
+    <row r="335" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A335" s="5"/>
+      <c r="B335" s="56"/>
+      <c r="C335" s="56"/>
+      <c r="D335" s="56"/>
+      <c r="E335" s="56"/>
+      <c r="F335" s="56"/>
+      <c r="G335" s="56"/>
+      <c r="H335" s="56"/>
+      <c r="I335" s="56"/>
+      <c r="J335" s="56"/>
+      <c r="K335" s="56"/>
+      <c r="L335" s="56"/>
+      <c r="M335" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="N335" s="56"/>
+      <c r="O335" s="56"/>
+      <c r="P335" s="6"/>
+    </row>
+    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A336" s="5"/>
+      <c r="B336" s="56"/>
+      <c r="C336" s="56"/>
+      <c r="D336" s="56"/>
+      <c r="E336" s="56"/>
+      <c r="F336" s="56"/>
+      <c r="G336" s="56"/>
+      <c r="H336" s="56"/>
+      <c r="I336" s="56"/>
+      <c r="J336" s="56"/>
+      <c r="K336" s="56"/>
+      <c r="L336" s="56"/>
+      <c r="M336" s="56"/>
+      <c r="N336" s="56"/>
+      <c r="O336" s="56"/>
+      <c r="P336" s="6"/>
+    </row>
+    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A337" s="5"/>
+      <c r="B337" s="56"/>
+      <c r="C337" s="56"/>
+      <c r="D337" s="56"/>
+      <c r="E337" s="56"/>
+      <c r="F337" s="56"/>
+      <c r="G337" s="56"/>
+      <c r="H337" s="56"/>
+      <c r="I337" s="56"/>
+      <c r="J337" s="56"/>
+      <c r="K337" s="56"/>
+      <c r="L337" s="56"/>
+      <c r="M337" s="56"/>
+      <c r="N337" s="56"/>
+      <c r="O337" s="56"/>
+      <c r="P337" s="6"/>
+    </row>
+    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A338" s="5"/>
+      <c r="B338" s="56"/>
+      <c r="C338" s="56"/>
+      <c r="D338" s="56"/>
+      <c r="E338" s="56"/>
+      <c r="F338" s="56"/>
+      <c r="G338" s="56"/>
+      <c r="H338" s="56"/>
+      <c r="I338" s="56"/>
+      <c r="J338" s="56"/>
+      <c r="K338" s="56"/>
+      <c r="L338" s="56"/>
+      <c r="M338" s="56"/>
+      <c r="N338" s="56"/>
+      <c r="O338" s="56"/>
+      <c r="P338" s="6"/>
+    </row>
+    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A339" s="5"/>
+      <c r="B339" s="56"/>
+      <c r="C339" s="56"/>
+      <c r="D339" s="56"/>
+      <c r="E339" s="56"/>
+      <c r="F339" s="56"/>
+      <c r="G339" s="56"/>
+      <c r="H339" s="56"/>
+      <c r="I339" s="56"/>
+      <c r="J339" s="56"/>
+      <c r="K339" s="56"/>
+      <c r="L339" s="56"/>
+      <c r="M339" s="56"/>
+      <c r="N339" s="56"/>
+      <c r="O339" s="56"/>
+      <c r="P339" s="6"/>
+    </row>
+    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A340" s="5"/>
+      <c r="B340" s="56"/>
+      <c r="C340" s="56"/>
+      <c r="D340" s="56"/>
+      <c r="E340" s="56"/>
+      <c r="F340" s="56"/>
+      <c r="G340" s="56"/>
+      <c r="H340" s="56"/>
+      <c r="I340" s="56"/>
+      <c r="J340" s="56"/>
+      <c r="K340" s="56"/>
+      <c r="L340" s="56"/>
+      <c r="M340" s="56"/>
+      <c r="N340" s="56"/>
+      <c r="O340" s="56"/>
+      <c r="P340" s="6"/>
+    </row>
+    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A341" s="5"/>
+      <c r="B341" s="56"/>
+      <c r="C341" s="56"/>
+      <c r="D341" s="56"/>
+      <c r="E341" s="56"/>
+      <c r="F341" s="56"/>
+      <c r="G341" s="56"/>
+      <c r="H341" s="56"/>
+      <c r="I341" s="56"/>
+      <c r="J341" s="56"/>
+      <c r="K341" s="56"/>
+      <c r="L341" s="56"/>
+      <c r="M341" s="56"/>
+      <c r="N341" s="56"/>
+      <c r="O341" s="56"/>
+      <c r="P341" s="6"/>
+    </row>
+    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A342" s="5"/>
+      <c r="B342" s="56"/>
+      <c r="C342" s="56"/>
+      <c r="D342" s="56"/>
+      <c r="E342" s="56"/>
+      <c r="F342" s="56"/>
+      <c r="G342" s="56"/>
+      <c r="H342" s="56"/>
+      <c r="I342" s="56"/>
+      <c r="J342" s="56"/>
+      <c r="K342" s="56"/>
+      <c r="L342" s="56"/>
+      <c r="M342" s="56"/>
+      <c r="N342" s="56"/>
+      <c r="O342" s="56"/>
+      <c r="P342" s="6"/>
+    </row>
+    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A343" s="5"/>
+      <c r="B343" s="56"/>
+      <c r="C343" s="56"/>
+      <c r="D343" s="56"/>
+      <c r="E343" s="56"/>
+      <c r="F343" s="56"/>
+      <c r="G343" s="56"/>
+      <c r="H343" s="56"/>
+      <c r="I343" s="56"/>
+      <c r="J343" s="56"/>
+      <c r="K343" s="56"/>
+      <c r="L343" s="56"/>
+      <c r="M343" s="56"/>
+      <c r="N343" s="56"/>
+      <c r="O343" s="56"/>
+      <c r="P343" s="6"/>
+    </row>
+    <row r="344" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A344" s="7"/>
+      <c r="B344" s="8"/>
+      <c r="C344" s="8"/>
+      <c r="D344" s="8"/>
+      <c r="E344" s="8"/>
+      <c r="F344" s="8"/>
+      <c r="G344" s="8"/>
+      <c r="H344" s="8"/>
+      <c r="I344" s="8"/>
+      <c r="J344" s="8"/>
+      <c r="K344" s="8"/>
+      <c r="L344" s="8"/>
+      <c r="M344" s="8"/>
+      <c r="N344" s="8"/>
+      <c r="O344" s="8"/>
+      <c r="P344" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K187:K207">
-    <sortCondition descending="1" ref="K187:K207"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B315:E334">
+    <sortCondition descending="1" ref="E334"/>
   </sortState>
-  <mergeCells count="39">
+  <mergeCells count="35">
+    <mergeCell ref="A180:G180"/>
     <mergeCell ref="S86:S87"/>
     <mergeCell ref="T86:U87"/>
     <mergeCell ref="S74:S75"/>
@@ -10462,11 +13776,6 @@
     <mergeCell ref="AB30:AC30"/>
     <mergeCell ref="AA38:AD38"/>
     <mergeCell ref="F72:L72"/>
-    <mergeCell ref="AD134:AF134"/>
-    <mergeCell ref="A133:G133"/>
-    <mergeCell ref="N134:P134"/>
-    <mergeCell ref="F134:H134"/>
-    <mergeCell ref="V134:X134"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tarea1/doc/ExcelEmpleadoPunto1/Tarea1Estadistica320232.xlsx
+++ b/Tarea1/doc/ExcelEmpleadoPunto1/Tarea1Estadistica320232.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Miguel Rios\Desktop\Tarea1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Estadistica3_2023-2\Tarea1\doc\ExcelEmpleadoPunto1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9236F5CE-7269-475A-BCE8-5918E25112D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1547AC87-2836-4379-A50E-6176FD059731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Respuestas" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Respuestas!$G$41:$G$61</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Respuestas!$H$41:$H$61</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Respuestas!$I$41:$I$61</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Respuestas!$I$41:$I$61</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Respuestas!$G$41:$G$61</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Respuestas!$H$41:$H$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="79">
   <si>
     <t>Set de datos</t>
   </si>
@@ -268,9 +268,6 @@
     <t>ITERACION 4</t>
   </si>
   <si>
-    <t>Nuevas etiquetas</t>
-  </si>
-  <si>
     <t>ITERACION 5</t>
   </si>
   <si>
@@ -278,6 +275,9 @@
   </si>
   <si>
     <t>Converge</t>
+  </si>
+  <si>
+    <t>NUEVAS ETIQUETAS</t>
   </si>
 </sst>
 </file>
@@ -306,7 +306,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,8 +349,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -673,24 +703,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -700,7 +719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -784,6 +803,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -823,20 +878,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -859,7 +900,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -924,7 +965,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -989,7 +1030,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2685,7 +2726,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>882911</xdr:colOff>
+      <xdr:colOff>882912</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>34638</xdr:rowOff>
     </xdr:to>
@@ -2735,7 +2776,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>929974</xdr:colOff>
+      <xdr:colOff>929975</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>121227</xdr:rowOff>
     </xdr:to>
@@ -2885,7 +2926,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>161909</xdr:colOff>
+      <xdr:colOff>161910</xdr:colOff>
       <xdr:row>95</xdr:row>
       <xdr:rowOff>74097</xdr:rowOff>
     </xdr:to>
@@ -2934,8 +2975,8 @@
       <xdr:rowOff>114575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1171582</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>361957</xdr:colOff>
       <xdr:row>124</xdr:row>
       <xdr:rowOff>57764</xdr:rowOff>
     </xdr:to>
@@ -3017,8 +3058,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12353926" y="7215187"/>
-              <a:ext cx="3590925" cy="2738438"/>
+              <a:off x="15173326" y="7215187"/>
+              <a:ext cx="1981200" cy="2738438"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3095,8 +3136,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12072937" y="10387012"/>
-              <a:ext cx="4271963" cy="2595563"/>
+              <a:off x="14892337" y="10387012"/>
+              <a:ext cx="2662238" cy="2595563"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3173,7 +3214,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="21959887" y="8386762"/>
+              <a:off x="23169562" y="8386762"/>
               <a:ext cx="4300538" cy="2671763"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3470,23 +3511,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ344"/>
+  <dimension ref="A1:AQ370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A300" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M338" sqref="M338"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J358" sqref="J358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
     <col min="9" max="11" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1"/>
     <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -3511,16 +3552,16 @@
   <sheetData>
     <row r="1" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="F2" s="41" t="s">
+      <c r="A2" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="F2" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="43"/>
+      <c r="G2" s="61"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -3553,41 +3594,41 @@
       <c r="AG3" s="6"/>
     </row>
     <row r="4" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
       <c r="F4" s="5"/>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="42"/>
-      <c r="J4" s="43"/>
-      <c r="M4" s="41" t="s">
+      <c r="I4" s="60"/>
+      <c r="J4" s="61"/>
+      <c r="M4" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="42"/>
-      <c r="O4" s="43"/>
-      <c r="R4" s="41" t="s">
+      <c r="N4" s="60"/>
+      <c r="O4" s="61"/>
+      <c r="R4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="S4" s="42"/>
-      <c r="T4" s="43"/>
-      <c r="V4" s="41" t="s">
+      <c r="S4" s="60"/>
+      <c r="T4" s="61"/>
+      <c r="V4" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="W4" s="42"/>
-      <c r="X4" s="43"/>
-      <c r="Z4" s="41" t="s">
+      <c r="W4" s="60"/>
+      <c r="X4" s="61"/>
+      <c r="Z4" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="43"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="61"/>
       <c r="AG4" s="6"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
@@ -5042,10 +5083,10 @@
     </row>
     <row r="30" spans="2:33" x14ac:dyDescent="0.25">
       <c r="F30" s="5"/>
-      <c r="AB30" s="45" t="s">
+      <c r="AB30" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="AC30" s="45"/>
+      <c r="AC30" s="63"/>
       <c r="AD30" s="10">
         <f>SUM(AD8:AD28)</f>
         <v>46.666666666666671</v>
@@ -5062,19 +5103,19 @@
     </row>
     <row r="31" spans="2:33" x14ac:dyDescent="0.25">
       <c r="F31" s="5"/>
-      <c r="AB31" s="44" t="s">
+      <c r="AB31" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="AC31" s="44"/>
-      <c r="AD31" s="45">
+      <c r="AC31" s="62"/>
+      <c r="AD31" s="63">
         <f>AD30/AA6</f>
         <v>2.2222222222222223</v>
       </c>
-      <c r="AE31" s="45">
+      <c r="AE31" s="63">
         <f>AE30/AA6</f>
         <v>6.5306122448979576</v>
       </c>
-      <c r="AF31" s="45">
+      <c r="AF31" s="63">
         <f>AF30/AA6</f>
         <v>314.80725623582765</v>
       </c>
@@ -5082,28 +5123,28 @@
     </row>
     <row r="32" spans="2:33" x14ac:dyDescent="0.25">
       <c r="F32" s="5"/>
-      <c r="AB32" s="44"/>
-      <c r="AC32" s="44"/>
-      <c r="AD32" s="45"/>
-      <c r="AE32" s="45"/>
-      <c r="AF32" s="45"/>
+      <c r="AB32" s="62"/>
+      <c r="AC32" s="62"/>
+      <c r="AD32" s="63"/>
+      <c r="AE32" s="63"/>
+      <c r="AF32" s="63"/>
       <c r="AG32" s="6"/>
     </row>
     <row r="33" spans="6:43" x14ac:dyDescent="0.25">
       <c r="F33" s="5"/>
-      <c r="AB33" s="44" t="s">
+      <c r="AB33" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="AC33" s="44"/>
-      <c r="AD33" s="45">
+      <c r="AC33" s="62"/>
+      <c r="AD33" s="63">
         <f>SQRT(AD31)</f>
         <v>1.4907119849998598</v>
       </c>
-      <c r="AE33" s="45">
+      <c r="AE33" s="63">
         <f>SQRT(AE31)</f>
         <v>2.5555062599997593</v>
       </c>
-      <c r="AF33" s="45">
+      <c r="AF33" s="63">
         <f>SQRT(AF31)</f>
         <v>17.742808578007814</v>
       </c>
@@ -5111,11 +5152,11 @@
     </row>
     <row r="34" spans="6:43" x14ac:dyDescent="0.25">
       <c r="F34" s="5"/>
-      <c r="AB34" s="44"/>
-      <c r="AC34" s="44"/>
-      <c r="AD34" s="45"/>
-      <c r="AE34" s="45"/>
-      <c r="AF34" s="45"/>
+      <c r="AB34" s="62"/>
+      <c r="AC34" s="62"/>
+      <c r="AD34" s="63"/>
+      <c r="AE34" s="63"/>
+      <c r="AF34" s="63"/>
       <c r="AG34" s="6"/>
     </row>
     <row r="35" spans="6:43" x14ac:dyDescent="0.25">
@@ -5154,10 +5195,10 @@
     </row>
     <row r="37" spans="6:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="6:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F38" s="41" t="s">
+      <c r="F38" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="G38" s="43"/>
+      <c r="G38" s="61"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -5176,12 +5217,12 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="4"/>
-      <c r="AA38" s="41" t="s">
+      <c r="AA38" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="AB38" s="42"/>
-      <c r="AC38" s="42"/>
-      <c r="AD38" s="43"/>
+      <c r="AB38" s="60"/>
+      <c r="AC38" s="60"/>
+      <c r="AD38" s="61"/>
       <c r="AE38" s="3"/>
       <c r="AF38" s="3"/>
       <c r="AG38" s="3"/>
@@ -6060,10 +6101,10 @@
       </c>
       <c r="Y67" s="6"/>
       <c r="AA67" s="5"/>
-      <c r="AG67" s="52" t="s">
+      <c r="AG67" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="AH67" s="48">
+      <c r="AH67" s="66">
         <f>_xlfn.COVARIANCE.P(AB41:AB61,AC41:AC61)</f>
         <v>3.5714285714285716</v>
       </c>
@@ -6087,8 +6128,8 @@
       </c>
       <c r="Y68" s="6"/>
       <c r="AA68" s="5"/>
-      <c r="AG68" s="52"/>
-      <c r="AH68" s="49"/>
+      <c r="AG68" s="70"/>
+      <c r="AH68" s="67"/>
       <c r="AQ68" s="6"/>
     </row>
     <row r="69" spans="6:43" x14ac:dyDescent="0.25">
@@ -6163,15 +6204,15 @@
     </row>
     <row r="71" spans="6:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="72" spans="6:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F72" s="41" t="s">
+      <c r="F72" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="G72" s="42"/>
-      <c r="H72" s="42"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="42"/>
-      <c r="K72" s="42"/>
-      <c r="L72" s="43"/>
+      <c r="G72" s="60"/>
+      <c r="H72" s="60"/>
+      <c r="I72" s="60"/>
+      <c r="J72" s="60"/>
+      <c r="K72" s="60"/>
+      <c r="L72" s="61"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
@@ -6219,13 +6260,13 @@
       <c r="Q74" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="S74" s="52" t="s">
+      <c r="S74" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="T74" s="53" t="s">
+      <c r="T74" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="U74" s="53" t="s">
+      <c r="U74" s="71" t="s">
         <v>44</v>
       </c>
       <c r="Y74" s="6"/>
@@ -6258,9 +6299,9 @@
         <f>L75^2</f>
         <v>0.18367346938775531</v>
       </c>
-      <c r="S75" s="52"/>
-      <c r="T75" s="53"/>
-      <c r="U75" s="53"/>
+      <c r="S75" s="70"/>
+      <c r="T75" s="71"/>
+      <c r="U75" s="71"/>
       <c r="Y75" s="6"/>
     </row>
     <row r="76" spans="6:43" x14ac:dyDescent="0.25">
@@ -6359,13 +6400,13 @@
         <f t="shared" si="20"/>
         <v>0.32653061224489766</v>
       </c>
-      <c r="S78" s="52" t="s">
+      <c r="S78" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="T78" s="53" t="s">
+      <c r="T78" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="U78" s="53"/>
+      <c r="U78" s="71"/>
       <c r="Y78" s="6"/>
     </row>
     <row r="79" spans="6:43" x14ac:dyDescent="0.25">
@@ -6396,9 +6437,9 @@
         <f t="shared" si="20"/>
         <v>2.0408163265306132</v>
       </c>
-      <c r="S79" s="52"/>
-      <c r="T79" s="53"/>
-      <c r="U79" s="53"/>
+      <c r="S79" s="70"/>
+      <c r="T79" s="71"/>
+      <c r="U79" s="71"/>
       <c r="Y79" s="6"/>
     </row>
     <row r="80" spans="6:43" x14ac:dyDescent="0.25">
@@ -6429,11 +6470,11 @@
         <f t="shared" si="20"/>
         <v>2.4693877551020402</v>
       </c>
-      <c r="T80" s="45">
+      <c r="T80" s="63">
         <f>T76*U76</f>
         <v>80.000000000000014</v>
       </c>
-      <c r="U80" s="45"/>
+      <c r="U80" s="63"/>
       <c r="Y80" s="6"/>
     </row>
     <row r="81" spans="6:25" x14ac:dyDescent="0.25">
@@ -6494,15 +6535,15 @@
         <f t="shared" si="20"/>
         <v>11.755102040816329</v>
       </c>
-      <c r="S82" s="52" t="s">
+      <c r="S82" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="T82" s="50" t="s">
+      <c r="T82" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="U82" s="50"/>
-      <c r="V82" s="50"/>
-      <c r="W82" s="50"/>
+      <c r="U82" s="68"/>
+      <c r="V82" s="68"/>
+      <c r="W82" s="68"/>
       <c r="Y82" s="6"/>
     </row>
     <row r="83" spans="6:25" x14ac:dyDescent="0.25">
@@ -6533,11 +6574,11 @@
         <f t="shared" si="20"/>
         <v>2.0408163265306132</v>
       </c>
-      <c r="S83" s="52"/>
-      <c r="T83" s="50"/>
-      <c r="U83" s="50"/>
-      <c r="V83" s="50"/>
-      <c r="W83" s="50"/>
+      <c r="S83" s="70"/>
+      <c r="T83" s="68"/>
+      <c r="U83" s="68"/>
+      <c r="V83" s="68"/>
+      <c r="W83" s="68"/>
       <c r="Y83" s="6"/>
     </row>
     <row r="84" spans="6:25" x14ac:dyDescent="0.25">
@@ -6568,13 +6609,13 @@
         <f t="shared" si="20"/>
         <v>19.612244897959187</v>
       </c>
-      <c r="T84" s="51">
+      <c r="T84" s="69">
         <f>M97/T80</f>
         <v>0.93749999999999978</v>
       </c>
-      <c r="U84" s="51"/>
-      <c r="V84" s="51"/>
-      <c r="W84" s="51"/>
+      <c r="U84" s="69"/>
+      <c r="V84" s="69"/>
+      <c r="W84" s="69"/>
       <c r="Y84" s="6"/>
     </row>
     <row r="85" spans="6:25" x14ac:dyDescent="0.25">
@@ -6635,14 +6676,14 @@
         <f t="shared" si="20"/>
         <v>5.8979591836734704</v>
       </c>
-      <c r="S86" s="52" t="s">
+      <c r="S86" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="T86" s="51">
+      <c r="T86" s="69">
         <f>CORREL(G75:G95,H75:H95)</f>
         <v>0.9375</v>
       </c>
-      <c r="U86" s="51"/>
+      <c r="U86" s="69"/>
       <c r="Y86" s="6"/>
     </row>
     <row r="87" spans="6:25" x14ac:dyDescent="0.25">
@@ -6673,9 +6714,9 @@
         <f t="shared" si="20"/>
         <v>2.0408163265306132</v>
       </c>
-      <c r="S87" s="52"/>
-      <c r="T87" s="51"/>
-      <c r="U87" s="51"/>
+      <c r="S87" s="70"/>
+      <c r="T87" s="69"/>
+      <c r="U87" s="69"/>
       <c r="Y87" s="6"/>
     </row>
     <row r="88" spans="6:25" x14ac:dyDescent="0.25">
@@ -6982,15 +7023,15 @@
     </row>
     <row r="100" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="101" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F101" s="41" t="s">
+      <c r="F101" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="G101" s="42"/>
-      <c r="H101" s="42"/>
-      <c r="I101" s="42"/>
-      <c r="J101" s="42"/>
-      <c r="K101" s="42"/>
-      <c r="L101" s="43"/>
+      <c r="G101" s="60"/>
+      <c r="H101" s="60"/>
+      <c r="I101" s="60"/>
+      <c r="J101" s="60"/>
+      <c r="K101" s="60"/>
+      <c r="L101" s="61"/>
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
       <c r="O101" s="4"/>
@@ -7633,15 +7674,15 @@
     </row>
     <row r="179" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="180" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="B180" s="42"/>
-      <c r="C180" s="42"/>
-      <c r="D180" s="42"/>
-      <c r="E180" s="42"/>
-      <c r="F180" s="42"/>
-      <c r="G180" s="43"/>
+      <c r="A180" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="B180" s="60"/>
+      <c r="C180" s="60"/>
+      <c r="D180" s="60"/>
+      <c r="E180" s="60"/>
+      <c r="F180" s="60"/>
+      <c r="G180" s="61"/>
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
@@ -7654,128 +7695,35 @@
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" s="5"/>
-      <c r="B181" s="56"/>
-      <c r="C181" s="56"/>
-      <c r="D181" s="56"/>
-      <c r="E181" s="56"/>
-      <c r="F181" s="56"/>
-      <c r="G181" s="56"/>
-      <c r="H181" s="56"/>
-      <c r="I181" s="56"/>
-      <c r="J181" s="56"/>
-      <c r="K181" s="56"/>
-      <c r="L181" s="56"/>
-      <c r="M181" s="56"/>
-      <c r="N181" s="56"/>
-      <c r="O181" s="56"/>
       <c r="P181" s="6"/>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" s="5"/>
-      <c r="B182" s="56"/>
-      <c r="C182" s="56"/>
-      <c r="D182" s="56"/>
-      <c r="E182" s="56"/>
-      <c r="F182" s="56"/>
-      <c r="G182" s="56"/>
-      <c r="H182" s="56"/>
-      <c r="I182" s="56"/>
-      <c r="J182" s="56"/>
-      <c r="K182" s="56"/>
-      <c r="L182" s="56"/>
-      <c r="M182" s="56"/>
-      <c r="N182" s="56"/>
-      <c r="O182" s="56"/>
       <c r="P182" s="6"/>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="5"/>
-      <c r="B183" s="56"/>
-      <c r="C183" s="56"/>
-      <c r="D183" s="56"/>
-      <c r="E183" s="56"/>
-      <c r="F183" s="56"/>
-      <c r="G183" s="56"/>
-      <c r="H183" s="56"/>
-      <c r="I183" s="56"/>
-      <c r="J183" s="56"/>
-      <c r="K183" s="56"/>
-      <c r="L183" s="56"/>
-      <c r="M183" s="56"/>
-      <c r="N183" s="56"/>
-      <c r="O183" s="56"/>
       <c r="P183" s="6"/>
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" s="5"/>
-      <c r="B184" s="56"/>
-      <c r="C184" s="56"/>
-      <c r="D184" s="56"/>
-      <c r="E184" s="56"/>
-      <c r="F184" s="56"/>
-      <c r="G184" s="56"/>
-      <c r="H184" s="56"/>
-      <c r="I184" s="56"/>
-      <c r="J184" s="56"/>
-      <c r="K184" s="56"/>
-      <c r="L184" s="56"/>
-      <c r="M184" s="56"/>
-      <c r="N184" s="56"/>
-      <c r="O184" s="56"/>
       <c r="P184" s="6"/>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="5"/>
-      <c r="B185" s="56"/>
-      <c r="C185" s="56"/>
-      <c r="D185" s="56"/>
-      <c r="E185" s="56"/>
-      <c r="F185" s="56"/>
-      <c r="G185" s="56"/>
-      <c r="H185" s="56"/>
-      <c r="I185" s="56"/>
-      <c r="J185" s="56"/>
-      <c r="K185" s="56"/>
-      <c r="L185" s="56"/>
-      <c r="M185" s="56"/>
-      <c r="N185" s="56"/>
-      <c r="O185" s="56"/>
       <c r="P185" s="6"/>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" s="5"/>
-      <c r="B186" s="56"/>
-      <c r="C186" s="56"/>
-      <c r="D186" s="56"/>
-      <c r="E186" s="56"/>
-      <c r="F186" s="56"/>
-      <c r="G186" s="56"/>
-      <c r="H186" s="56"/>
-      <c r="I186" s="56"/>
-      <c r="J186" s="56"/>
-      <c r="K186" s="56"/>
-      <c r="L186" s="56"/>
-      <c r="M186" s="56"/>
-      <c r="N186" s="56"/>
-      <c r="O186" s="56"/>
       <c r="P186" s="6"/>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" s="5"/>
-      <c r="B187" s="56"/>
-      <c r="C187" s="56"/>
-      <c r="D187" s="56"/>
-      <c r="E187" s="56"/>
-      <c r="F187" s="55"/>
-      <c r="G187" s="55"/>
-      <c r="H187" s="55"/>
-      <c r="I187" s="56"/>
-      <c r="J187" s="56"/>
-      <c r="K187" s="56"/>
-      <c r="L187" s="56"/>
-      <c r="M187" s="57"/>
-      <c r="N187" s="56"/>
-      <c r="O187" s="56"/>
+      <c r="I187" s="55"/>
+      <c r="J187" s="50"/>
+      <c r="K187" s="46"/>
+      <c r="L187" s="47"/>
+      <c r="M187" s="43"/>
       <c r="P187" s="6"/>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.25">
@@ -7816,8 +7764,6 @@
       <c r="M188" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="N188" s="56"/>
-      <c r="O188" s="56"/>
       <c r="P188" s="6"/>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.25">
@@ -7828,42 +7774,40 @@
       <c r="C189" s="29">
         <v>6</v>
       </c>
-      <c r="D189" s="54">
+      <c r="D189" s="42">
         <v>42</v>
       </c>
-      <c r="E189" s="57">
-        <v>3</v>
-      </c>
-      <c r="F189" s="56">
-        <v>2.8888888888888888</v>
-      </c>
-      <c r="G189" s="56">
-        <v>5.8888888888888893</v>
-      </c>
-      <c r="H189" s="56">
+      <c r="E189" s="53">
+        <v>3</v>
+      </c>
+      <c r="F189" s="54">
+        <v>2.8888888888888902</v>
+      </c>
+      <c r="G189" s="54">
+        <v>5.8888888888888902</v>
+      </c>
+      <c r="H189" s="54">
         <v>40.555555555555557</v>
       </c>
-      <c r="I189" s="56">
+      <c r="I189" s="10">
         <f>((B189-$F$189)^2+(C189-$G$189)^2+(D189-$H$189)^2)^0.5</f>
-        <v>1.4529663145135563</v>
-      </c>
-      <c r="J189" s="56">
+        <v>1.4529663145135561</v>
+      </c>
+      <c r="J189" s="10">
         <f>((B189-$F$198)^2+(C189-$G$198)^2+(D189-$H$198)^2)^0.5</f>
         <v>13.900439641328697</v>
       </c>
-      <c r="K189" s="56">
+      <c r="K189" s="10">
         <f>((B189-$F$201)^2+(C189-$G$201)^2+(D189-$H$201)^2)^0.5</f>
         <v>13.138154783344239</v>
       </c>
-      <c r="L189" s="56">
+      <c r="L189" s="10">
         <f>((B189-$F$207)^2+(C189-$G$207)^2+(D189-$H$207)^2)^0.5</f>
         <v>30.778780569303482</v>
       </c>
-      <c r="M189" s="57">
-        <v>3</v>
-      </c>
-      <c r="N189" s="56"/>
-      <c r="O189" s="56"/>
+      <c r="M189" s="41">
+        <v>3</v>
+      </c>
       <c r="P189" s="6"/>
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.25">
@@ -7874,36 +7818,34 @@
       <c r="C190" s="29">
         <v>8</v>
       </c>
-      <c r="D190" s="54">
+      <c r="D190" s="42">
         <v>56</v>
       </c>
-      <c r="E190" s="57">
-        <v>3</v>
-      </c>
-      <c r="F190" s="56"/>
-      <c r="G190" s="56"/>
-      <c r="H190" s="56"/>
-      <c r="I190" s="56">
+      <c r="E190" s="41">
+        <v>3</v>
+      </c>
+      <c r="F190" s="10"/>
+      <c r="G190" s="10"/>
+      <c r="H190" s="10"/>
+      <c r="I190" s="10">
         <f>((B190-$F$189)^2+(C190-$G$189)^2+(D190-$H$189)^2)^0.5</f>
         <v>15.627610892974721</v>
       </c>
-      <c r="J190" s="56">
+      <c r="J190" s="10">
         <f t="shared" ref="J190:J209" si="24">((B190-$F$198)^2+(C190-$G$198)^2+(D190-$H$198)^2)^0.5</f>
         <v>28.075295585660754</v>
       </c>
-      <c r="K190" s="56">
+      <c r="K190" s="10">
         <f>((B190-$F$201)^2+(C190-$G$201)^2+(D190-$H$201)^2)^0.5</f>
         <v>27.311983531857301</v>
       </c>
-      <c r="L190" s="56">
+      <c r="L190" s="10">
         <f t="shared" ref="L190:L209" si="25">((B190-$F$207)^2+(C190-$G$207)^2+(D190-$H$207)^2)^0.5</f>
         <v>44.955533585978046</v>
       </c>
-      <c r="M190" s="57">
-        <v>3</v>
-      </c>
-      <c r="N190" s="56"/>
-      <c r="O190" s="56"/>
+      <c r="M190" s="41">
+        <v>3</v>
+      </c>
       <c r="P190" s="6"/>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.25">
@@ -7914,36 +7856,34 @@
       <c r="C191" s="29">
         <v>6</v>
       </c>
-      <c r="D191" s="54">
+      <c r="D191" s="42">
         <v>44</v>
       </c>
-      <c r="E191" s="57">
-        <v>3</v>
-      </c>
-      <c r="F191" s="56"/>
-      <c r="G191" s="56"/>
-      <c r="H191" s="56"/>
-      <c r="I191" s="56">
-        <f t="shared" ref="I190:I209" si="26">((B191-$F$189)^2+(C191-$G$189)^2+(D191-$H$189)^2)^0.5</f>
+      <c r="E191" s="41">
+        <v>3</v>
+      </c>
+      <c r="F191" s="10"/>
+      <c r="G191" s="10"/>
+      <c r="H191" s="10"/>
+      <c r="I191" s="10">
+        <f t="shared" ref="I191:I209" si="26">((B191-$F$189)^2+(C191-$G$189)^2+(D191-$H$189)^2)^0.5</f>
         <v>3.448026810929532</v>
       </c>
-      <c r="J191" s="56">
+      <c r="J191" s="10">
         <f t="shared" si="24"/>
         <v>15.871007809489885</v>
       </c>
-      <c r="K191" s="56">
-        <f t="shared" ref="K190:K209" si="27">((B191-$F$201)^2+(C191-$G$201)^2+(D191-$H$201)^2)^0.5</f>
+      <c r="K191" s="10">
+        <f t="shared" ref="K191:K209" si="27">((B191-$F$201)^2+(C191-$G$201)^2+(D191-$H$201)^2)^0.5</f>
         <v>15.119891240055635</v>
       </c>
-      <c r="L191" s="56">
+      <c r="L191" s="10">
         <f t="shared" si="25"/>
         <v>32.751590292177674</v>
       </c>
-      <c r="M191" s="57">
-        <v>3</v>
-      </c>
-      <c r="N191" s="56"/>
-      <c r="O191" s="56"/>
+      <c r="M191" s="41">
+        <v>3</v>
+      </c>
       <c r="P191" s="6"/>
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.25">
@@ -7954,36 +7894,34 @@
       <c r="C192" s="29">
         <v>9</v>
       </c>
-      <c r="D192" s="54">
+      <c r="D192" s="42">
         <v>62</v>
       </c>
-      <c r="E192" s="57">
-        <v>3</v>
-      </c>
-      <c r="F192" s="56"/>
-      <c r="G192" s="56"/>
-      <c r="H192" s="56"/>
-      <c r="I192" s="56">
+      <c r="E192" s="41">
+        <v>3</v>
+      </c>
+      <c r="F192" s="10"/>
+      <c r="G192" s="10"/>
+      <c r="H192" s="10"/>
+      <c r="I192" s="10">
         <f t="shared" si="26"/>
         <v>21.77154105707724</v>
       </c>
-      <c r="J192" s="56">
+      <c r="J192" s="10">
         <f t="shared" si="24"/>
         <v>34.218253738156911</v>
       </c>
-      <c r="K192" s="56">
+      <c r="K192" s="10">
         <f t="shared" si="27"/>
         <v>33.445644127615651</v>
       </c>
-      <c r="L192" s="56">
+      <c r="L192" s="10">
         <f t="shared" si="25"/>
         <v>51.097945164164877</v>
       </c>
-      <c r="M192" s="57">
-        <v>3</v>
-      </c>
-      <c r="N192" s="56"/>
-      <c r="O192" s="56"/>
+      <c r="M192" s="41">
+        <v>3</v>
+      </c>
       <c r="P192" s="6"/>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.25">
@@ -7994,36 +7932,34 @@
       <c r="C193" s="29">
         <v>9</v>
       </c>
-      <c r="D193" s="54">
+      <c r="D193" s="42">
         <v>64</v>
       </c>
-      <c r="E193" s="57">
-        <v>3</v>
-      </c>
-      <c r="F193" s="56"/>
-      <c r="G193" s="56"/>
-      <c r="H193" s="56"/>
-      <c r="I193" s="56">
+      <c r="E193" s="41">
+        <v>3</v>
+      </c>
+      <c r="F193" s="10"/>
+      <c r="G193" s="10"/>
+      <c r="H193" s="10"/>
+      <c r="I193" s="10">
         <f t="shared" si="26"/>
         <v>23.744005091344167</v>
       </c>
-      <c r="J193" s="56">
+      <c r="J193" s="10">
         <f t="shared" si="24"/>
         <v>36.187781854592245</v>
       </c>
-      <c r="K193" s="56">
+      <c r="K193" s="10">
         <f t="shared" si="27"/>
         <v>35.420489989709502</v>
       </c>
-      <c r="L193" s="56">
+      <c r="L193" s="10">
         <f t="shared" si="25"/>
         <v>53.069137295921188</v>
       </c>
-      <c r="M193" s="57">
-        <v>3</v>
-      </c>
-      <c r="N193" s="56"/>
-      <c r="O193" s="56"/>
+      <c r="M193" s="41">
+        <v>3</v>
+      </c>
       <c r="P193" s="6"/>
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.25">
@@ -8034,36 +7970,34 @@
       <c r="C194" s="29">
         <v>8</v>
       </c>
-      <c r="D194" s="54">
+      <c r="D194" s="42">
         <v>56</v>
       </c>
-      <c r="E194" s="57">
-        <v>3</v>
-      </c>
-      <c r="F194" s="56"/>
-      <c r="G194" s="56"/>
-      <c r="H194" s="56"/>
-      <c r="I194" s="56">
+      <c r="E194" s="41">
+        <v>3</v>
+      </c>
+      <c r="F194" s="10"/>
+      <c r="G194" s="10"/>
+      <c r="H194" s="10"/>
+      <c r="I194" s="10">
         <f t="shared" si="26"/>
         <v>15.627610892974721</v>
       </c>
-      <c r="J194" s="56">
+      <c r="J194" s="10">
         <f t="shared" si="24"/>
         <v>28.075295585660754</v>
       </c>
-      <c r="K194" s="56">
+      <c r="K194" s="10">
         <f t="shared" si="27"/>
         <v>27.311983531857301</v>
       </c>
-      <c r="L194" s="56">
+      <c r="L194" s="10">
         <f t="shared" si="25"/>
         <v>44.955533585978046</v>
       </c>
-      <c r="M194" s="57">
-        <v>3</v>
-      </c>
-      <c r="N194" s="56"/>
-      <c r="O194" s="56"/>
+      <c r="M194" s="41">
+        <v>3</v>
+      </c>
       <c r="P194" s="6"/>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.25">
@@ -8074,36 +8008,34 @@
       <c r="C195" s="29">
         <v>3</v>
       </c>
-      <c r="D195" s="54">
+      <c r="D195" s="42">
         <v>18</v>
       </c>
-      <c r="E195" s="57">
-        <v>3</v>
-      </c>
-      <c r="F195" s="56"/>
-      <c r="G195" s="56"/>
-      <c r="H195" s="56"/>
-      <c r="I195" s="56">
+      <c r="E195" s="41">
+        <v>3</v>
+      </c>
+      <c r="F195" s="10"/>
+      <c r="G195" s="10"/>
+      <c r="H195" s="10"/>
+      <c r="I195" s="10">
         <f t="shared" si="26"/>
         <v>22.818121453499778</v>
       </c>
-      <c r="J195" s="56">
+      <c r="J195" s="10">
         <f t="shared" si="24"/>
         <v>10.402991022884823</v>
       </c>
-      <c r="K195" s="56">
+      <c r="K195" s="10">
         <f t="shared" si="27"/>
         <v>11.162934699760234</v>
       </c>
-      <c r="L195" s="56">
+      <c r="L195" s="10">
         <f t="shared" si="25"/>
         <v>6.5574385243020021</v>
       </c>
-      <c r="M195" s="57">
+      <c r="M195" s="41">
         <v>0</v>
       </c>
-      <c r="N195" s="56"/>
-      <c r="O195" s="56"/>
       <c r="P195" s="6"/>
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.25">
@@ -8114,36 +8046,34 @@
       <c r="C196" s="29">
         <v>3</v>
       </c>
-      <c r="D196" s="54">
+      <c r="D196" s="42">
         <v>18</v>
       </c>
-      <c r="E196" s="57">
-        <v>3</v>
-      </c>
-      <c r="F196" s="56"/>
-      <c r="G196" s="56"/>
-      <c r="H196" s="56"/>
-      <c r="I196" s="56">
+      <c r="E196" s="41">
+        <v>3</v>
+      </c>
+      <c r="F196" s="10"/>
+      <c r="G196" s="10"/>
+      <c r="H196" s="10"/>
+      <c r="I196" s="10">
         <f t="shared" si="26"/>
         <v>22.818121453499778</v>
       </c>
-      <c r="J196" s="56">
+      <c r="J196" s="10">
         <f t="shared" si="24"/>
         <v>10.402991022884823</v>
       </c>
-      <c r="K196" s="56">
+      <c r="K196" s="10">
         <f t="shared" si="27"/>
         <v>11.162934699760234</v>
       </c>
-      <c r="L196" s="56">
+      <c r="L196" s="10">
         <f t="shared" si="25"/>
         <v>6.5574385243020021</v>
       </c>
-      <c r="M196" s="57">
+      <c r="M196" s="41">
         <v>0</v>
       </c>
-      <c r="N196" s="56"/>
-      <c r="O196" s="56"/>
       <c r="P196" s="6"/>
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.25">
@@ -8154,36 +8084,34 @@
       <c r="C197" s="29">
         <v>1</v>
       </c>
-      <c r="D197" s="54">
+      <c r="D197" s="42">
         <v>5</v>
       </c>
-      <c r="E197" s="57">
-        <v>3</v>
-      </c>
-      <c r="F197" s="56"/>
-      <c r="G197" s="56"/>
-      <c r="H197" s="56"/>
-      <c r="I197" s="56">
+      <c r="E197" s="41">
+        <v>3</v>
+      </c>
+      <c r="F197" s="10"/>
+      <c r="G197" s="10"/>
+      <c r="H197" s="10"/>
+      <c r="I197" s="10">
         <f t="shared" si="26"/>
         <v>36.006172310375405</v>
       </c>
-      <c r="J197" s="56">
+      <c r="J197" s="10">
         <f>((B197-$F$198)^2+(C197-$G$198)^2+(D197-$H$198)^2)^0.5</f>
         <v>23.570226039551581</v>
       </c>
-      <c r="K197" s="56">
+      <c r="K197" s="10">
         <f t="shared" si="27"/>
         <v>24.336757749909452</v>
       </c>
-      <c r="L197" s="56">
+      <c r="L197" s="10">
         <f t="shared" si="25"/>
         <v>6.7082039324993685</v>
       </c>
-      <c r="M197" s="57">
+      <c r="M197" s="41">
         <v>0</v>
       </c>
-      <c r="N197" s="56"/>
-      <c r="O197" s="56"/>
       <c r="P197" s="6"/>
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.25">
@@ -8194,42 +8122,40 @@
       <c r="C198" s="29">
         <v>6</v>
       </c>
-      <c r="D198" s="54">
+      <c r="D198" s="42">
         <v>44</v>
       </c>
-      <c r="E198" s="57">
-        <v>2</v>
-      </c>
-      <c r="F198" s="56">
-        <v>2</v>
-      </c>
-      <c r="G198" s="56">
+      <c r="E198" s="51">
+        <v>2</v>
+      </c>
+      <c r="F198" s="52">
+        <v>2</v>
+      </c>
+      <c r="G198" s="52">
         <v>3.6666666666666665</v>
       </c>
-      <c r="H198" s="56">
+      <c r="H198" s="52">
         <v>28.333333333333332</v>
       </c>
-      <c r="I198" s="56">
+      <c r="I198" s="10">
         <f>((B198-$F$189)^2+(C198-$G$189)^2+(D198-$H$189)^2)^0.5</f>
         <v>3.448026810929532</v>
       </c>
-      <c r="J198" s="56">
+      <c r="J198" s="10">
         <f t="shared" si="24"/>
         <v>15.871007809489885</v>
       </c>
-      <c r="K198" s="56">
+      <c r="K198" s="10">
         <f t="shared" si="27"/>
         <v>15.119891240055635</v>
       </c>
-      <c r="L198" s="56">
+      <c r="L198" s="10">
         <f t="shared" si="25"/>
         <v>32.751590292177674</v>
       </c>
-      <c r="M198" s="57">
-        <v>3</v>
-      </c>
-      <c r="N198" s="56"/>
-      <c r="O198" s="56"/>
+      <c r="M198" s="41">
+        <v>3</v>
+      </c>
       <c r="P198" s="6"/>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.25">
@@ -8240,36 +8166,34 @@
       <c r="C199" s="29">
         <v>3</v>
       </c>
-      <c r="D199" s="54">
+      <c r="D199" s="42">
         <v>24</v>
       </c>
-      <c r="E199" s="57">
-        <v>2</v>
-      </c>
-      <c r="F199" s="56"/>
-      <c r="G199" s="56"/>
-      <c r="H199" s="56"/>
-      <c r="I199" s="56">
+      <c r="E199" s="41">
+        <v>2</v>
+      </c>
+      <c r="F199" s="10"/>
+      <c r="G199" s="10"/>
+      <c r="H199" s="10"/>
+      <c r="I199" s="10">
         <f t="shared" si="26"/>
         <v>16.829207415152453</v>
       </c>
-      <c r="J199" s="56">
+      <c r="J199" s="10">
         <f t="shared" si="24"/>
         <v>4.384315479321967</v>
       </c>
-      <c r="K199" s="56">
+      <c r="K199" s="10">
         <f t="shared" si="27"/>
         <v>5.1585958468473869</v>
       </c>
-      <c r="L199" s="56">
+      <c r="L199" s="10">
         <f t="shared" si="25"/>
         <v>12.516655570345725</v>
       </c>
-      <c r="M199" s="57">
-        <v>2</v>
-      </c>
-      <c r="N199" s="56"/>
-      <c r="O199" s="56"/>
+      <c r="M199" s="41">
+        <v>2</v>
+      </c>
       <c r="P199" s="6"/>
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.25">
@@ -8280,36 +8204,34 @@
       <c r="C200" s="29">
         <v>2</v>
       </c>
-      <c r="D200" s="54">
+      <c r="D200" s="42">
         <v>17</v>
       </c>
-      <c r="E200" s="57">
-        <v>2</v>
-      </c>
-      <c r="F200" s="56"/>
-      <c r="G200" s="56"/>
-      <c r="H200" s="56"/>
-      <c r="I200" s="56">
+      <c r="E200" s="41">
+        <v>2</v>
+      </c>
+      <c r="F200" s="10"/>
+      <c r="G200" s="10"/>
+      <c r="H200" s="10"/>
+      <c r="I200" s="10">
         <f t="shared" si="26"/>
         <v>23.949019928914744</v>
       </c>
-      <c r="J200" s="56">
+      <c r="J200" s="10">
         <f t="shared" si="24"/>
         <v>11.498792207106893</v>
       </c>
-      <c r="K200" s="56">
+      <c r="K200" s="10">
         <f t="shared" si="27"/>
         <v>12.285944995988077</v>
       </c>
-      <c r="L200" s="56">
+      <c r="L200" s="10">
         <f t="shared" si="25"/>
         <v>5.3851648071345046</v>
       </c>
-      <c r="M200" s="57">
+      <c r="M200" s="41">
         <v>0</v>
       </c>
-      <c r="N200" s="56"/>
-      <c r="O200" s="56"/>
       <c r="P200" s="6"/>
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.25">
@@ -8320,42 +8242,40 @@
       <c r="C201" s="29">
         <v>5</v>
       </c>
-      <c r="D201" s="54">
+      <c r="D201" s="42">
         <v>32</v>
       </c>
-      <c r="E201" s="57">
-        <v>1</v>
-      </c>
-      <c r="F201" s="56">
+      <c r="E201" s="44">
+        <v>1</v>
+      </c>
+      <c r="F201" s="45">
         <v>2.5</v>
       </c>
-      <c r="G201" s="56">
+      <c r="G201" s="45">
         <v>4.166666666666667</v>
       </c>
-      <c r="H201" s="56">
+      <c r="H201" s="45">
         <v>29</v>
       </c>
-      <c r="I201" s="56">
+      <c r="I201" s="10">
         <f t="shared" si="26"/>
         <v>8.6023252670426285</v>
       </c>
-      <c r="J201" s="56">
+      <c r="J201" s="10">
         <f t="shared" si="24"/>
         <v>4.0276819911981923</v>
       </c>
-      <c r="K201" s="56">
+      <c r="K201" s="10">
         <f t="shared" si="27"/>
         <v>3.1534813214040835</v>
       </c>
-      <c r="L201" s="56">
+      <c r="L201" s="10">
         <f t="shared" si="25"/>
         <v>20.792626898334262</v>
       </c>
-      <c r="M201" s="57">
-        <v>1</v>
-      </c>
-      <c r="N201" s="56"/>
-      <c r="O201" s="56"/>
+      <c r="M201" s="41">
+        <v>1</v>
+      </c>
       <c r="P201" s="6"/>
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.25">
@@ -8366,36 +8286,34 @@
       <c r="C202" s="29">
         <v>6</v>
       </c>
-      <c r="D202" s="54">
+      <c r="D202" s="42">
         <v>41</v>
       </c>
-      <c r="E202" s="57">
-        <v>1</v>
-      </c>
-      <c r="F202" s="56"/>
-      <c r="G202" s="56"/>
-      <c r="H202" s="56"/>
-      <c r="I202" s="56">
+      <c r="E202" s="41">
+        <v>1</v>
+      </c>
+      <c r="F202" s="10"/>
+      <c r="G202" s="10"/>
+      <c r="H202" s="10"/>
+      <c r="I202" s="10">
         <f t="shared" si="26"/>
-        <v>0.47140452079103012</v>
-      </c>
-      <c r="J202" s="56">
+        <v>0.47140452079102962</v>
+      </c>
+      <c r="J202" s="10">
         <f t="shared" si="24"/>
         <v>12.918548250050737</v>
       </c>
-      <c r="K202" s="56">
+      <c r="K202" s="10">
         <f t="shared" si="27"/>
         <v>12.149531312405063</v>
       </c>
-      <c r="L202" s="56">
+      <c r="L202" s="10">
         <f t="shared" si="25"/>
         <v>29.79373535941183</v>
       </c>
-      <c r="M202" s="57">
-        <v>3</v>
-      </c>
-      <c r="N202" s="56"/>
-      <c r="O202" s="56"/>
+      <c r="M202" s="41">
+        <v>3</v>
+      </c>
       <c r="P202" s="6"/>
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.25">
@@ -8406,36 +8324,34 @@
       <c r="C203" s="29">
         <v>4</v>
       </c>
-      <c r="D203" s="54">
+      <c r="D203" s="42">
         <v>30</v>
       </c>
-      <c r="E203" s="57">
-        <v>1</v>
-      </c>
-      <c r="F203" s="56"/>
-      <c r="G203" s="56"/>
-      <c r="H203" s="56"/>
-      <c r="I203" s="56">
+      <c r="E203" s="41">
+        <v>1</v>
+      </c>
+      <c r="F203" s="10"/>
+      <c r="G203" s="10"/>
+      <c r="H203" s="10"/>
+      <c r="I203" s="10">
         <f t="shared" si="26"/>
         <v>10.760008261045984</v>
       </c>
-      <c r="J203" s="56">
+      <c r="J203" s="10">
         <f t="shared" si="24"/>
         <v>1.6996731711975961</v>
       </c>
-      <c r="K203" s="56">
+      <c r="K203" s="10">
         <f t="shared" si="27"/>
         <v>1.1303883305208782</v>
       </c>
-      <c r="L203" s="56">
+      <c r="L203" s="10">
         <f t="shared" si="25"/>
         <v>18.574175621006713</v>
       </c>
-      <c r="M203" s="57">
-        <v>1</v>
-      </c>
-      <c r="N203" s="56"/>
-      <c r="O203" s="56"/>
+      <c r="M203" s="41">
+        <v>1</v>
+      </c>
       <c r="P203" s="6"/>
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.25">
@@ -8446,36 +8362,34 @@
       <c r="C204" s="29">
         <v>4</v>
       </c>
-      <c r="D204" s="54">
+      <c r="D204" s="42">
         <v>28</v>
       </c>
-      <c r="E204" s="57">
-        <v>1</v>
-      </c>
-      <c r="F204" s="56"/>
-      <c r="G204" s="56"/>
-      <c r="H204" s="56"/>
-      <c r="I204" s="56">
+      <c r="E204" s="41">
+        <v>1</v>
+      </c>
+      <c r="F204" s="10"/>
+      <c r="G204" s="10"/>
+      <c r="H204" s="10"/>
+      <c r="I204" s="10">
         <f t="shared" si="26"/>
         <v>12.745369529536775</v>
       </c>
-      <c r="J204" s="56">
+      <c r="J204" s="10">
         <f t="shared" si="24"/>
         <v>2.0548046676563256</v>
       </c>
-      <c r="K204" s="56">
+      <c r="K204" s="10">
         <f t="shared" si="27"/>
         <v>1.8104634152000358</v>
       </c>
-      <c r="L204" s="56">
+      <c r="L204" s="10">
         <f t="shared" si="25"/>
         <v>16.881943016134134</v>
       </c>
-      <c r="M204" s="57">
-        <v>1</v>
-      </c>
-      <c r="N204" s="56"/>
-      <c r="O204" s="56"/>
+      <c r="M204" s="41">
+        <v>1</v>
+      </c>
       <c r="P204" s="6"/>
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.25">
@@ -8486,36 +8400,34 @@
       <c r="C205" s="29">
         <v>3</v>
       </c>
-      <c r="D205" s="54">
+      <c r="D205" s="42">
         <v>24</v>
       </c>
-      <c r="E205" s="57">
-        <v>1</v>
-      </c>
-      <c r="F205" s="56"/>
-      <c r="G205" s="56"/>
-      <c r="H205" s="56"/>
-      <c r="I205" s="56">
+      <c r="E205" s="41">
+        <v>1</v>
+      </c>
+      <c r="F205" s="10"/>
+      <c r="G205" s="10"/>
+      <c r="H205" s="10"/>
+      <c r="I205" s="10">
         <f t="shared" si="26"/>
         <v>16.829207415152453</v>
       </c>
-      <c r="J205" s="56">
+      <c r="J205" s="10">
         <f t="shared" si="24"/>
         <v>4.384315479321967</v>
       </c>
-      <c r="K205" s="56">
+      <c r="K205" s="10">
         <f t="shared" si="27"/>
         <v>5.1585958468473869</v>
       </c>
-      <c r="L205" s="56">
+      <c r="L205" s="10">
         <f t="shared" si="25"/>
         <v>12.516655570345725</v>
       </c>
-      <c r="M205" s="57">
-        <v>2</v>
-      </c>
-      <c r="N205" s="56"/>
-      <c r="O205" s="56"/>
+      <c r="M205" s="41">
+        <v>2</v>
+      </c>
       <c r="P205" s="6"/>
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.25">
@@ -8526,36 +8438,34 @@
       <c r="C206" s="29">
         <v>3</v>
       </c>
-      <c r="D206" s="54">
+      <c r="D206" s="42">
         <v>19</v>
       </c>
-      <c r="E206" s="57">
-        <v>1</v>
-      </c>
-      <c r="F206" s="56"/>
-      <c r="G206" s="56"/>
-      <c r="H206" s="56"/>
-      <c r="I206" s="56">
+      <c r="E206" s="41">
+        <v>1</v>
+      </c>
+      <c r="F206" s="10"/>
+      <c r="G206" s="10"/>
+      <c r="H206" s="10"/>
+      <c r="I206" s="10">
         <f t="shared" si="26"/>
         <v>21.830152440043921</v>
       </c>
-      <c r="J206" s="56">
+      <c r="J206" s="10">
         <f t="shared" si="24"/>
         <v>9.4103961423287341</v>
       </c>
-      <c r="K206" s="56">
+      <c r="K206" s="10">
         <f t="shared" si="27"/>
         <v>10.178954323068314</v>
       </c>
-      <c r="L206" s="56">
+      <c r="L206" s="10">
         <f t="shared" si="25"/>
         <v>7.5277265270908105</v>
       </c>
-      <c r="M206" s="57">
+      <c r="M206" s="41">
         <v>0</v>
       </c>
-      <c r="N206" s="56"/>
-      <c r="O206" s="56"/>
       <c r="P206" s="6"/>
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.25">
@@ -8566,42 +8476,40 @@
       <c r="C207" s="29">
         <v>2</v>
       </c>
-      <c r="D207" s="54">
+      <c r="D207" s="42">
         <v>17</v>
       </c>
-      <c r="E207" s="57">
+      <c r="E207" s="48">
         <v>0</v>
       </c>
-      <c r="F207" s="56">
+      <c r="F207" s="49">
         <v>0.66666666666666663</v>
       </c>
-      <c r="G207" s="56">
+      <c r="G207" s="49">
         <v>1.3333333333333333</v>
       </c>
-      <c r="H207" s="56">
+      <c r="H207" s="49">
         <v>11.666666666666666</v>
       </c>
-      <c r="I207" s="56">
+      <c r="I207" s="10">
         <f t="shared" si="26"/>
         <v>23.949019928914744</v>
       </c>
-      <c r="J207" s="56">
+      <c r="J207" s="10">
         <f t="shared" si="24"/>
         <v>11.498792207106893</v>
       </c>
-      <c r="K207" s="56">
+      <c r="K207" s="10">
         <f t="shared" si="27"/>
         <v>12.285944995988077</v>
       </c>
-      <c r="L207" s="56">
+      <c r="L207" s="10">
         <f t="shared" si="25"/>
         <v>5.3851648071345046</v>
       </c>
-      <c r="M207" s="57">
+      <c r="M207" s="41">
         <v>0</v>
       </c>
-      <c r="N207" s="56"/>
-      <c r="O207" s="56"/>
       <c r="P207" s="6"/>
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.25">
@@ -8612,36 +8520,34 @@
       <c r="C208" s="29">
         <v>2</v>
       </c>
-      <c r="D208" s="54">
+      <c r="D208" s="42">
         <v>17</v>
       </c>
-      <c r="E208" s="57">
+      <c r="E208" s="41">
         <v>0</v>
       </c>
-      <c r="F208" s="56"/>
-      <c r="G208" s="56"/>
-      <c r="H208" s="56"/>
-      <c r="I208" s="56">
+      <c r="F208" s="10"/>
+      <c r="G208" s="10"/>
+      <c r="H208" s="10"/>
+      <c r="I208" s="10">
         <f t="shared" si="26"/>
         <v>23.949019928914744</v>
       </c>
-      <c r="J208" s="56">
+      <c r="J208" s="10">
         <f t="shared" si="24"/>
         <v>11.498792207106893</v>
       </c>
-      <c r="K208" s="56">
+      <c r="K208" s="10">
         <f t="shared" si="27"/>
         <v>12.285944995988077</v>
       </c>
-      <c r="L208" s="56">
+      <c r="L208" s="10">
         <f t="shared" si="25"/>
         <v>5.3851648071345046</v>
       </c>
-      <c r="M208" s="57">
+      <c r="M208" s="41">
         <v>0</v>
       </c>
-      <c r="N208" s="56"/>
-      <c r="O208" s="56"/>
       <c r="P208" s="6"/>
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.25">
@@ -8652,92 +8558,53 @@
       <c r="C209" s="29">
         <v>0</v>
       </c>
-      <c r="D209" s="54">
-        <v>1</v>
-      </c>
-      <c r="E209" s="57">
+      <c r="D209" s="42">
+        <v>1</v>
+      </c>
+      <c r="E209" s="41">
         <v>0</v>
       </c>
-      <c r="F209" s="56"/>
-      <c r="G209" s="56"/>
-      <c r="H209" s="56"/>
-      <c r="I209" s="56">
+      <c r="F209" s="10"/>
+      <c r="G209" s="10"/>
+      <c r="H209" s="10"/>
+      <c r="I209" s="10">
         <f t="shared" si="26"/>
         <v>40.095718807207668</v>
       </c>
-      <c r="J209" s="56">
+      <c r="J209" s="10">
         <f t="shared" si="24"/>
         <v>27.650597743187316</v>
       </c>
-      <c r="K209" s="56">
+      <c r="K209" s="10">
         <f t="shared" si="27"/>
         <v>28.418499452137002</v>
       </c>
-      <c r="L209" s="56">
+      <c r="L209" s="10">
         <f t="shared" si="25"/>
         <v>10.770329614269007</v>
       </c>
-      <c r="M209" s="57">
+      <c r="M209" s="41">
         <v>0</v>
       </c>
-      <c r="N209" s="56"/>
-      <c r="O209" s="56"/>
       <c r="P209" s="6"/>
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210" s="5"/>
-      <c r="B210" s="56"/>
-      <c r="C210" s="56"/>
-      <c r="D210" s="56"/>
-      <c r="E210" s="56"/>
-      <c r="F210" s="56"/>
-      <c r="G210" s="56"/>
-      <c r="H210" s="56"/>
-      <c r="I210" s="56"/>
-      <c r="J210" s="56"/>
-      <c r="K210" s="56"/>
-      <c r="L210" s="56"/>
-      <c r="M210" s="56"/>
-      <c r="N210" s="56"/>
-      <c r="O210" s="56"/>
       <c r="P210" s="6"/>
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A211" s="5"/>
-      <c r="B211" s="56"/>
-      <c r="C211" s="56"/>
-      <c r="D211" s="56"/>
-      <c r="E211" s="56"/>
-      <c r="F211" s="56"/>
-      <c r="G211" s="56"/>
-      <c r="H211" s="56"/>
-      <c r="I211" s="56"/>
-      <c r="J211" s="56"/>
-      <c r="K211" s="56"/>
-      <c r="L211" s="56"/>
-      <c r="M211" s="56"/>
-      <c r="N211" s="56"/>
-      <c r="O211" s="56"/>
       <c r="P211" s="6"/>
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212" s="5"/>
-      <c r="B212" s="56"/>
-      <c r="C212" s="56"/>
-      <c r="D212" s="56"/>
       <c r="E212" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="F212" s="56"/>
-      <c r="G212" s="56"/>
-      <c r="H212" s="56"/>
-      <c r="I212" s="56"/>
-      <c r="J212" s="56"/>
-      <c r="K212" s="56"/>
-      <c r="L212" s="56"/>
-      <c r="M212" s="56"/>
-      <c r="N212" s="56"/>
-      <c r="O212" s="56"/>
+        <v>78</v>
+      </c>
+      <c r="I212" s="55"/>
+      <c r="J212" s="50"/>
+      <c r="K212" s="46"/>
+      <c r="L212" s="47"/>
       <c r="P212" s="6"/>
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.25">
@@ -8778,8 +8645,6 @@
       <c r="M213" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="N213" s="56"/>
-      <c r="O213" s="56"/>
       <c r="P213" s="6"/>
     </row>
     <row r="214" spans="1:16" x14ac:dyDescent="0.25">
@@ -8790,45 +8655,43 @@
       <c r="C214" s="29">
         <v>6</v>
       </c>
-      <c r="D214" s="54">
+      <c r="D214" s="42">
         <v>42</v>
       </c>
-      <c r="E214" s="57">
-        <v>3</v>
-      </c>
-      <c r="F214" s="56">
+      <c r="E214" s="53">
+        <v>3</v>
+      </c>
+      <c r="F214" s="54">
         <f>AVERAGE(B214:B221)</f>
         <v>3.75</v>
       </c>
-      <c r="G214" s="56">
+      <c r="G214" s="54">
         <f>AVERAGE(C214:C221)</f>
         <v>7.25</v>
       </c>
-      <c r="H214" s="56">
-        <f t="shared" ref="G214:H214" si="28">AVERAGE(D214:D221)</f>
+      <c r="H214" s="54">
+        <f t="shared" ref="H214" si="28">AVERAGE(D214:D221)</f>
         <v>51.125</v>
       </c>
-      <c r="I214" s="56">
+      <c r="I214" s="10">
         <f>((B214-$F$214)^2+(C214-$G$214)^2+(D214-$H$214)^2)^0.5</f>
         <v>9.2407047891381104</v>
       </c>
-      <c r="J214" s="56">
+      <c r="J214" s="10">
         <f>((B214-$F$222)^2+(C214-$G$222)^2+(D214-$H$222)^2)^0.5</f>
         <v>18.275666882497067</v>
       </c>
-      <c r="K214" s="56">
+      <c r="K214" s="10">
         <f>((B214-$F$224)^2+(C214-$G$224)^2+(D214-$H$224)^2)^0.5</f>
         <v>12.115187896924166</v>
       </c>
-      <c r="L214" s="56">
+      <c r="L214" s="10">
         <f>((B214-$F$227)^2+(C214-$G$227)^2+(D214-$H$227)^2)^0.5</f>
         <v>28.373623314620922</v>
       </c>
-      <c r="M214" s="57">
-        <v>3</v>
-      </c>
-      <c r="N214" s="56"/>
-      <c r="O214" s="56"/>
+      <c r="M214" s="41">
+        <v>3</v>
+      </c>
       <c r="P214" s="6"/>
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.25">
@@ -8839,36 +8702,34 @@
       <c r="C215" s="29">
         <v>8</v>
       </c>
-      <c r="D215" s="54">
+      <c r="D215" s="42">
         <v>56</v>
       </c>
-      <c r="E215" s="57">
-        <v>3</v>
-      </c>
-      <c r="F215" s="56"/>
-      <c r="G215" s="56"/>
-      <c r="H215" s="56"/>
-      <c r="I215" s="56">
+      <c r="E215" s="41">
+        <v>3</v>
+      </c>
+      <c r="F215" s="10"/>
+      <c r="G215" s="10"/>
+      <c r="H215" s="10"/>
+      <c r="I215" s="10">
         <f>((B215-$F$214)^2+(C215-$G$214)^2+(D215-$H$214)^2)^0.5</f>
         <v>4.9386865662846029</v>
       </c>
-      <c r="J215" s="56">
+      <c r="J215" s="10">
         <f t="shared" ref="J215:J234" si="29">((B215-$F$222)^2+(C215-$G$222)^2+(D215-$H$222)^2)^0.5</f>
         <v>32.449961479175904</v>
       </c>
-      <c r="K215" s="56">
+      <c r="K215" s="10">
         <f t="shared" ref="K215:K234" si="30">((B215-$F$224)^2+(C215-$G$224)^2+(D215-$H$224)^2)^0.5</f>
         <v>26.276309566688479</v>
       </c>
-      <c r="L215" s="56">
+      <c r="L215" s="10">
         <f t="shared" ref="L215:L234" si="31">((B215-$F$227)^2+(C215-$G$227)^2+(D215-$H$227)^2)^0.5</f>
         <v>42.550705047037702</v>
       </c>
-      <c r="M215" s="57">
-        <v>3</v>
-      </c>
-      <c r="N215" s="56"/>
-      <c r="O215" s="56"/>
+      <c r="M215" s="41">
+        <v>3</v>
+      </c>
       <c r="P215" s="6"/>
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.25">
@@ -8879,36 +8740,34 @@
       <c r="C216" s="29">
         <v>6</v>
       </c>
-      <c r="D216" s="54">
+      <c r="D216" s="42">
         <v>44</v>
       </c>
-      <c r="E216" s="57">
-        <v>3</v>
-      </c>
-      <c r="F216" s="56"/>
-      <c r="G216" s="56"/>
-      <c r="H216" s="56"/>
-      <c r="I216" s="56">
-        <f t="shared" ref="I215:I234" si="32">((B216-$F$214)^2+(C216-$G$214)^2+(D216-$H$214)^2)^0.5</f>
+      <c r="E216" s="41">
+        <v>3</v>
+      </c>
+      <c r="F216" s="10"/>
+      <c r="G216" s="10"/>
+      <c r="H216" s="10"/>
+      <c r="I216" s="10">
+        <f t="shared" ref="I216:I234" si="32">((B216-$F$214)^2+(C216-$G$214)^2+(D216-$H$214)^2)^0.5</f>
         <v>7.272594103894428</v>
       </c>
-      <c r="J216" s="56">
+      <c r="J216" s="10">
         <f t="shared" si="29"/>
         <v>20.248456731316587</v>
       </c>
-      <c r="K216" s="56">
+      <c r="K216" s="10">
         <f t="shared" si="30"/>
         <v>14.098857321704401</v>
       </c>
-      <c r="L216" s="56">
+      <c r="L216" s="10">
         <f t="shared" si="31"/>
         <v>30.349011516027996</v>
       </c>
-      <c r="M216" s="57">
-        <v>3</v>
-      </c>
-      <c r="N216" s="56"/>
-      <c r="O216" s="56"/>
+      <c r="M216" s="41">
+        <v>3</v>
+      </c>
       <c r="P216" s="6"/>
     </row>
     <row r="217" spans="1:16" x14ac:dyDescent="0.25">
@@ -8919,36 +8778,34 @@
       <c r="C217" s="29">
         <v>9</v>
       </c>
-      <c r="D217" s="54">
+      <c r="D217" s="42">
         <v>62</v>
       </c>
-      <c r="E217" s="57">
-        <v>3</v>
-      </c>
-      <c r="F217" s="56"/>
-      <c r="G217" s="56"/>
-      <c r="H217" s="56"/>
-      <c r="I217" s="56">
+      <c r="E217" s="41">
+        <v>3</v>
+      </c>
+      <c r="F217" s="10"/>
+      <c r="G217" s="10"/>
+      <c r="H217" s="10"/>
+      <c r="I217" s="10">
         <f t="shared" si="32"/>
         <v>11.085604403910505</v>
       </c>
-      <c r="J217" s="56">
+      <c r="J217" s="10">
         <f t="shared" si="29"/>
         <v>38.587562763149478</v>
       </c>
-      <c r="K217" s="56">
+      <c r="K217" s="10">
         <f t="shared" si="30"/>
         <v>32.400274347260975</v>
       </c>
-      <c r="L217" s="56">
+      <c r="L217" s="10">
         <f t="shared" si="31"/>
         <v>48.693557068671829</v>
       </c>
-      <c r="M217" s="57">
-        <v>3</v>
-      </c>
-      <c r="N217" s="56"/>
-      <c r="O217" s="56"/>
+      <c r="M217" s="41">
+        <v>3</v>
+      </c>
       <c r="P217" s="6"/>
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.25">
@@ -8959,36 +8816,34 @@
       <c r="C218" s="29">
         <v>9</v>
       </c>
-      <c r="D218" s="54">
+      <c r="D218" s="42">
         <v>64</v>
       </c>
-      <c r="E218" s="57">
-        <v>3</v>
-      </c>
-      <c r="F218" s="56"/>
-      <c r="G218" s="56"/>
-      <c r="H218" s="56"/>
-      <c r="I218" s="56">
+      <c r="E218" s="41">
+        <v>3</v>
+      </c>
+      <c r="F218" s="10"/>
+      <c r="G218" s="10"/>
+      <c r="H218" s="10"/>
+      <c r="I218" s="10">
         <f t="shared" si="32"/>
         <v>13.05337600010051</v>
       </c>
-      <c r="J218" s="56">
+      <c r="J218" s="10">
         <f t="shared" si="29"/>
         <v>40.558599581346492</v>
       </c>
-      <c r="K218" s="56">
+      <c r="K218" s="10">
         <f t="shared" si="30"/>
         <v>34.376994891609968</v>
       </c>
-      <c r="L218" s="56">
+      <c r="L218" s="10">
         <f t="shared" si="31"/>
         <v>50.666186949483382</v>
       </c>
-      <c r="M218" s="57">
-        <v>3</v>
-      </c>
-      <c r="N218" s="56"/>
-      <c r="O218" s="56"/>
+      <c r="M218" s="41">
+        <v>3</v>
+      </c>
       <c r="P218" s="6"/>
     </row>
     <row r="219" spans="1:16" x14ac:dyDescent="0.25">
@@ -8999,36 +8854,34 @@
       <c r="C219" s="29">
         <v>8</v>
       </c>
-      <c r="D219" s="54">
+      <c r="D219" s="42">
         <v>56</v>
       </c>
-      <c r="E219" s="57">
-        <v>3</v>
-      </c>
-      <c r="F219" s="56"/>
-      <c r="G219" s="56"/>
-      <c r="H219" s="56"/>
-      <c r="I219" s="56">
+      <c r="E219" s="41">
+        <v>3</v>
+      </c>
+      <c r="F219" s="10"/>
+      <c r="G219" s="10"/>
+      <c r="H219" s="10"/>
+      <c r="I219" s="10">
         <f t="shared" si="32"/>
         <v>4.9386865662846029</v>
       </c>
-      <c r="J219" s="56">
+      <c r="J219" s="10">
         <f t="shared" si="29"/>
         <v>32.449961479175904</v>
       </c>
-      <c r="K219" s="56">
+      <c r="K219" s="10">
         <f t="shared" si="30"/>
         <v>26.276309566688479</v>
       </c>
-      <c r="L219" s="56">
+      <c r="L219" s="10">
         <f t="shared" si="31"/>
         <v>42.550705047037702</v>
       </c>
-      <c r="M219" s="57">
-        <v>3</v>
-      </c>
-      <c r="N219" s="56"/>
-      <c r="O219" s="56"/>
+      <c r="M219" s="41">
+        <v>3</v>
+      </c>
       <c r="P219" s="6"/>
     </row>
     <row r="220" spans="1:16" x14ac:dyDescent="0.25">
@@ -9039,36 +8892,34 @@
       <c r="C220" s="29">
         <v>6</v>
       </c>
-      <c r="D220" s="54">
+      <c r="D220" s="42">
         <v>44</v>
       </c>
-      <c r="E220" s="57">
-        <v>3</v>
-      </c>
-      <c r="F220" s="56"/>
-      <c r="G220" s="56"/>
-      <c r="H220" s="56"/>
-      <c r="I220" s="56">
+      <c r="E220" s="41">
+        <v>3</v>
+      </c>
+      <c r="F220" s="10"/>
+      <c r="G220" s="10"/>
+      <c r="H220" s="10"/>
+      <c r="I220" s="10">
         <f t="shared" si="32"/>
         <v>7.272594103894428</v>
       </c>
-      <c r="J220" s="56">
+      <c r="J220" s="10">
         <f t="shared" si="29"/>
         <v>20.248456731316587</v>
       </c>
-      <c r="K220" s="56">
+      <c r="K220" s="10">
         <f t="shared" si="30"/>
         <v>14.098857321704401</v>
       </c>
-      <c r="L220" s="56">
+      <c r="L220" s="10">
         <f t="shared" si="31"/>
         <v>30.349011516027996</v>
       </c>
-      <c r="M220" s="57">
-        <v>3</v>
-      </c>
-      <c r="N220" s="56"/>
-      <c r="O220" s="56"/>
+      <c r="M220" s="41">
+        <v>3</v>
+      </c>
       <c r="P220" s="6"/>
     </row>
     <row r="221" spans="1:16" x14ac:dyDescent="0.25">
@@ -9079,36 +8930,34 @@
       <c r="C221" s="29">
         <v>6</v>
       </c>
-      <c r="D221" s="54">
+      <c r="D221" s="42">
         <v>41</v>
       </c>
-      <c r="E221" s="57">
-        <v>3</v>
-      </c>
-      <c r="F221" s="56"/>
-      <c r="G221" s="56"/>
-      <c r="H221" s="56"/>
-      <c r="I221" s="56">
+      <c r="E221" s="41">
+        <v>3</v>
+      </c>
+      <c r="F221" s="10"/>
+      <c r="G221" s="10"/>
+      <c r="H221" s="10"/>
+      <c r="I221" s="10">
         <f t="shared" si="32"/>
         <v>10.229400031282383</v>
       </c>
-      <c r="J221" s="56">
+      <c r="J221" s="10">
         <f t="shared" si="29"/>
         <v>17.291616465790582</v>
       </c>
-      <c r="K221" s="56">
+      <c r="K221" s="10">
         <f t="shared" si="30"/>
         <v>11.125546178852424</v>
       </c>
-      <c r="L221" s="56">
+      <c r="L221" s="10">
         <f t="shared" si="31"/>
         <v>27.387268940148086</v>
       </c>
-      <c r="M221" s="57">
-        <v>3</v>
-      </c>
-      <c r="N221" s="56"/>
-      <c r="O221" s="56"/>
+      <c r="M221" s="41">
+        <v>3</v>
+      </c>
       <c r="P221" s="6"/>
     </row>
     <row r="222" spans="1:16" x14ac:dyDescent="0.25">
@@ -9119,45 +8968,43 @@
       <c r="C222" s="29">
         <v>3</v>
       </c>
-      <c r="D222" s="54">
+      <c r="D222" s="42">
         <v>24</v>
       </c>
-      <c r="E222" s="57">
-        <v>2</v>
-      </c>
-      <c r="F222" s="56">
+      <c r="E222" s="51">
+        <v>2</v>
+      </c>
+      <c r="F222" s="52">
         <f>AVERAGE(B222:B223)</f>
         <v>2</v>
       </c>
-      <c r="G222" s="56">
+      <c r="G222" s="52">
         <f t="shared" ref="G222:H222" si="33">AVERAGE(C222:C223)</f>
         <v>3</v>
       </c>
-      <c r="H222" s="56">
+      <c r="H222" s="52">
         <f t="shared" si="33"/>
         <v>24</v>
       </c>
-      <c r="I222" s="56">
+      <c r="I222" s="10">
         <f t="shared" si="32"/>
         <v>27.51164526159786</v>
       </c>
-      <c r="J222" s="56">
+      <c r="J222" s="10">
         <f>((B222-$F$222)^2+(C222-$G$222)^2+(D222-$H$222)^2)^0.5</f>
         <v>0</v>
       </c>
-      <c r="K222" s="56">
+      <c r="K222" s="10">
         <f t="shared" si="30"/>
         <v>6.2271805640898013</v>
       </c>
-      <c r="L222" s="56">
+      <c r="L222" s="10">
         <f t="shared" si="31"/>
         <v>10.127314550264547</v>
       </c>
-      <c r="M222" s="57">
-        <v>2</v>
-      </c>
-      <c r="N222" s="56"/>
-      <c r="O222" s="56"/>
+      <c r="M222" s="41">
+        <v>2</v>
+      </c>
       <c r="P222" s="6"/>
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.25">
@@ -9168,36 +9015,34 @@
       <c r="C223" s="29">
         <v>3</v>
       </c>
-      <c r="D223" s="54">
+      <c r="D223" s="42">
         <v>24</v>
       </c>
-      <c r="E223" s="57">
-        <v>2</v>
-      </c>
-      <c r="F223" s="56"/>
-      <c r="G223" s="56"/>
-      <c r="H223" s="56"/>
-      <c r="I223" s="56">
+      <c r="E223" s="41">
+        <v>2</v>
+      </c>
+      <c r="F223" s="10"/>
+      <c r="G223" s="10"/>
+      <c r="H223" s="10"/>
+      <c r="I223" s="10">
         <f t="shared" si="32"/>
         <v>27.51164526159786</v>
       </c>
-      <c r="J223" s="56">
+      <c r="J223" s="10">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="K223" s="56">
+      <c r="K223" s="10">
         <f t="shared" si="30"/>
         <v>6.2271805640898013</v>
       </c>
-      <c r="L223" s="56">
+      <c r="L223" s="10">
         <f t="shared" si="31"/>
         <v>10.127314550264547</v>
       </c>
-      <c r="M223" s="57">
-        <v>2</v>
-      </c>
-      <c r="N223" s="56"/>
-      <c r="O223" s="56"/>
+      <c r="M223" s="41">
+        <v>2</v>
+      </c>
       <c r="P223" s="6"/>
     </row>
     <row r="224" spans="1:16" x14ac:dyDescent="0.25">
@@ -9208,45 +9053,43 @@
       <c r="C224" s="29">
         <v>5</v>
       </c>
-      <c r="D224" s="54">
+      <c r="D224" s="42">
         <v>32</v>
       </c>
-      <c r="E224" s="57">
-        <v>1</v>
-      </c>
-      <c r="F224" s="56">
+      <c r="E224" s="44">
+        <v>1</v>
+      </c>
+      <c r="F224" s="45">
         <f>AVERAGE(B224:B226)</f>
         <v>3</v>
       </c>
-      <c r="G224" s="56">
+      <c r="G224" s="45">
         <f t="shared" ref="G224:H224" si="34">AVERAGE(C224:C226)</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="H224" s="56">
+      <c r="H224" s="45">
         <f t="shared" si="34"/>
         <v>30</v>
       </c>
-      <c r="I224" s="56">
+      <c r="I224" s="10">
         <f t="shared" si="32"/>
         <v>19.271497736294396</v>
       </c>
-      <c r="J224" s="56">
+      <c r="J224" s="10">
         <f t="shared" si="29"/>
         <v>8.3066238629180749</v>
       </c>
-      <c r="K224" s="56">
+      <c r="K224" s="10">
         <f t="shared" si="30"/>
         <v>2.1081851067789197</v>
       </c>
-      <c r="L224" s="56">
+      <c r="L224" s="10">
         <f t="shared" si="31"/>
         <v>18.386476008196894</v>
       </c>
-      <c r="M224" s="57">
-        <v>1</v>
-      </c>
-      <c r="N224" s="56"/>
-      <c r="O224" s="56"/>
+      <c r="M224" s="41">
+        <v>1</v>
+      </c>
       <c r="P224" s="6"/>
     </row>
     <row r="225" spans="1:16" x14ac:dyDescent="0.25">
@@ -9257,36 +9100,34 @@
       <c r="C225" s="29">
         <v>4</v>
       </c>
-      <c r="D225" s="54">
+      <c r="D225" s="42">
         <v>30</v>
       </c>
-      <c r="E225" s="57">
-        <v>1</v>
-      </c>
-      <c r="F225" s="56"/>
-      <c r="G225" s="56"/>
-      <c r="H225" s="56"/>
-      <c r="I225" s="56">
+      <c r="E225" s="41">
+        <v>1</v>
+      </c>
+      <c r="F225" s="10"/>
+      <c r="G225" s="10"/>
+      <c r="H225" s="10"/>
+      <c r="I225" s="10">
         <f t="shared" si="32"/>
         <v>21.445060620105508</v>
       </c>
-      <c r="J225" s="56">
+      <c r="J225" s="10">
         <f t="shared" si="29"/>
         <v>6.0827625302982193</v>
       </c>
-      <c r="K225" s="56">
+      <c r="K225" s="10">
         <f t="shared" si="30"/>
         <v>1.0540925533894596</v>
       </c>
-      <c r="L225" s="56">
+      <c r="L225" s="10">
         <f t="shared" si="31"/>
         <v>16.172893989635867</v>
       </c>
-      <c r="M225" s="57">
-        <v>1</v>
-      </c>
-      <c r="N225" s="56"/>
-      <c r="O225" s="56"/>
+      <c r="M225" s="41">
+        <v>1</v>
+      </c>
       <c r="P225" s="6"/>
     </row>
     <row r="226" spans="1:16" x14ac:dyDescent="0.25">
@@ -9297,36 +9138,34 @@
       <c r="C226" s="29">
         <v>4</v>
       </c>
-      <c r="D226" s="54">
+      <c r="D226" s="42">
         <v>28</v>
       </c>
-      <c r="E226" s="57">
-        <v>1</v>
-      </c>
-      <c r="F226" s="56"/>
-      <c r="G226" s="56"/>
-      <c r="H226" s="56"/>
-      <c r="I226" s="56">
+      <c r="E226" s="41">
+        <v>1</v>
+      </c>
+      <c r="F226" s="10"/>
+      <c r="G226" s="10"/>
+      <c r="H226" s="10"/>
+      <c r="I226" s="10">
         <f t="shared" si="32"/>
         <v>23.353599829576595</v>
       </c>
-      <c r="J226" s="56">
+      <c r="J226" s="10">
         <f t="shared" si="29"/>
         <v>4.5825756949558398</v>
       </c>
-      <c r="K226" s="56">
+      <c r="K226" s="10">
         <f t="shared" si="30"/>
         <v>2.2607766610417559</v>
       </c>
-      <c r="L226" s="56">
+      <c r="L226" s="10">
         <f t="shared" si="31"/>
         <v>14.510771860931451</v>
       </c>
-      <c r="M226" s="57">
-        <v>1</v>
-      </c>
-      <c r="N226" s="56"/>
-      <c r="O226" s="56"/>
+      <c r="M226" s="41">
+        <v>1</v>
+      </c>
       <c r="P226" s="6"/>
     </row>
     <row r="227" spans="1:16" x14ac:dyDescent="0.25">
@@ -9337,45 +9176,43 @@
       <c r="C227" s="29">
         <v>3</v>
       </c>
-      <c r="D227" s="54">
+      <c r="D227" s="42">
         <v>18</v>
       </c>
-      <c r="E227" s="57">
+      <c r="E227" s="48">
         <v>0</v>
       </c>
-      <c r="F227" s="56">
+      <c r="F227" s="49">
         <f>AVERAGE(B227:B235)</f>
         <v>0.75</v>
       </c>
-      <c r="G227" s="56">
+      <c r="G227" s="49">
         <f t="shared" ref="G227:H227" si="35">AVERAGE(C227:C235)</f>
         <v>2</v>
       </c>
-      <c r="H227" s="56">
+      <c r="H227" s="49">
         <f t="shared" si="35"/>
         <v>14</v>
       </c>
-      <c r="I227" s="56">
+      <c r="I227" s="10">
         <f t="shared" si="32"/>
         <v>33.509560203022659</v>
       </c>
-      <c r="J227" s="56">
+      <c r="J227" s="10">
         <f t="shared" si="29"/>
         <v>6.0827625302982193</v>
       </c>
-      <c r="K227" s="56">
+      <c r="K227" s="10">
         <f t="shared" si="30"/>
         <v>12.238373167123878</v>
       </c>
-      <c r="L227" s="56">
+      <c r="L227" s="10">
         <f t="shared" si="31"/>
         <v>4.1306779104645761</v>
       </c>
-      <c r="M227" s="57">
+      <c r="M227" s="41">
         <v>0</v>
       </c>
-      <c r="N227" s="56"/>
-      <c r="O227" s="56"/>
       <c r="P227" s="6"/>
     </row>
     <row r="228" spans="1:16" x14ac:dyDescent="0.25">
@@ -9386,36 +9223,34 @@
       <c r="C228" s="29">
         <v>3</v>
       </c>
-      <c r="D228" s="54">
+      <c r="D228" s="42">
         <v>18</v>
       </c>
-      <c r="E228" s="57">
+      <c r="E228" s="41">
         <v>0</v>
       </c>
-      <c r="F228" s="56"/>
-      <c r="G228" s="56"/>
-      <c r="H228" s="56"/>
-      <c r="I228" s="56">
+      <c r="F228" s="10"/>
+      <c r="G228" s="10"/>
+      <c r="H228" s="10"/>
+      <c r="I228" s="10">
         <f t="shared" si="32"/>
         <v>33.509560203022659</v>
       </c>
-      <c r="J228" s="56">
+      <c r="J228" s="10">
         <f t="shared" si="29"/>
         <v>6.0827625302982193</v>
       </c>
-      <c r="K228" s="56">
+      <c r="K228" s="10">
         <f t="shared" si="30"/>
         <v>12.238373167123878</v>
       </c>
-      <c r="L228" s="56">
+      <c r="L228" s="10">
         <f t="shared" si="31"/>
         <v>4.1306779104645761</v>
       </c>
-      <c r="M228" s="57">
+      <c r="M228" s="41">
         <v>0</v>
       </c>
-      <c r="N228" s="56"/>
-      <c r="O228" s="56"/>
       <c r="P228" s="6"/>
     </row>
     <row r="229" spans="1:16" x14ac:dyDescent="0.25">
@@ -9426,36 +9261,34 @@
       <c r="C229" s="29">
         <v>1</v>
       </c>
-      <c r="D229" s="54">
+      <c r="D229" s="42">
         <v>5</v>
       </c>
-      <c r="E229" s="57">
+      <c r="E229" s="41">
         <v>0</v>
       </c>
-      <c r="F229" s="56"/>
-      <c r="G229" s="56"/>
-      <c r="H229" s="56"/>
-      <c r="I229" s="56">
+      <c r="F229" s="10"/>
+      <c r="G229" s="10"/>
+      <c r="H229" s="10"/>
+      <c r="I229" s="10">
         <f t="shared" si="32"/>
         <v>46.697329955790835</v>
       </c>
-      <c r="J229" s="56">
+      <c r="J229" s="10">
         <f t="shared" si="29"/>
         <v>19.209372712298546</v>
       </c>
-      <c r="K229" s="56">
+      <c r="K229" s="10">
         <f t="shared" si="30"/>
         <v>25.399037602064986</v>
       </c>
-      <c r="L229" s="56">
+      <c r="L229" s="10">
         <f t="shared" si="31"/>
         <v>9.0863909226931234</v>
       </c>
-      <c r="M229" s="57">
+      <c r="M229" s="41">
         <v>0</v>
       </c>
-      <c r="N229" s="56"/>
-      <c r="O229" s="56"/>
       <c r="P229" s="6"/>
     </row>
     <row r="230" spans="1:16" x14ac:dyDescent="0.25">
@@ -9466,36 +9299,34 @@
       <c r="C230" s="29">
         <v>2</v>
       </c>
-      <c r="D230" s="54">
+      <c r="D230" s="42">
         <v>17</v>
       </c>
-      <c r="E230" s="57">
+      <c r="E230" s="41">
         <v>0</v>
       </c>
-      <c r="F230" s="56"/>
-      <c r="G230" s="56"/>
-      <c r="H230" s="56"/>
-      <c r="I230" s="56">
+      <c r="F230" s="10"/>
+      <c r="G230" s="10"/>
+      <c r="H230" s="10"/>
+      <c r="I230" s="10">
         <f t="shared" si="32"/>
         <v>34.635828631635192</v>
       </c>
-      <c r="J230" s="56">
+      <c r="J230" s="10">
         <f t="shared" si="29"/>
         <v>7.1414284285428504</v>
       </c>
-      <c r="K230" s="56">
+      <c r="K230" s="10">
         <f t="shared" si="30"/>
         <v>13.35830993967592</v>
       </c>
-      <c r="L230" s="56">
+      <c r="L230" s="10">
         <f t="shared" si="31"/>
         <v>3.0103986446980739</v>
       </c>
-      <c r="M230" s="57">
+      <c r="M230" s="41">
         <v>0</v>
       </c>
-      <c r="N230" s="56"/>
-      <c r="O230" s="56"/>
       <c r="P230" s="6"/>
     </row>
     <row r="231" spans="1:16" x14ac:dyDescent="0.25">
@@ -9506,36 +9337,34 @@
       <c r="C231" s="29">
         <v>3</v>
       </c>
-      <c r="D231" s="54">
+      <c r="D231" s="42">
         <v>19</v>
       </c>
-      <c r="E231" s="57">
+      <c r="E231" s="41">
         <v>0</v>
       </c>
-      <c r="F231" s="56"/>
-      <c r="G231" s="56"/>
-      <c r="H231" s="56"/>
-      <c r="I231" s="56">
+      <c r="F231" s="10"/>
+      <c r="G231" s="10"/>
+      <c r="H231" s="10"/>
+      <c r="I231" s="10">
         <f t="shared" si="32"/>
         <v>32.521387193660729</v>
       </c>
-      <c r="J231" s="56">
+      <c r="J231" s="10">
         <f t="shared" si="29"/>
         <v>5.0990195135927845</v>
       </c>
-      <c r="K231" s="56">
+      <c r="K231" s="10">
         <f t="shared" si="30"/>
         <v>11.259563836036357</v>
       </c>
-      <c r="L231" s="56">
+      <c r="L231" s="10">
         <f t="shared" si="31"/>
         <v>5.1051444641655346</v>
       </c>
-      <c r="M231" s="57">
-        <v>2</v>
-      </c>
-      <c r="N231" s="56"/>
-      <c r="O231" s="56"/>
+      <c r="M231" s="41">
+        <v>2</v>
+      </c>
       <c r="P231" s="6"/>
     </row>
     <row r="232" spans="1:16" x14ac:dyDescent="0.25">
@@ -9546,36 +9375,34 @@
       <c r="C232" s="29">
         <v>2</v>
       </c>
-      <c r="D232" s="54">
+      <c r="D232" s="42">
         <v>17</v>
       </c>
-      <c r="E232" s="57">
+      <c r="E232" s="41">
         <v>0</v>
       </c>
-      <c r="F232" s="56"/>
-      <c r="G232" s="56"/>
-      <c r="H232" s="56"/>
-      <c r="I232" s="56">
+      <c r="F232" s="10"/>
+      <c r="G232" s="10"/>
+      <c r="H232" s="10"/>
+      <c r="I232" s="10">
         <f t="shared" si="32"/>
         <v>34.635828631635192</v>
       </c>
-      <c r="J232" s="56">
+      <c r="J232" s="10">
         <f t="shared" si="29"/>
         <v>7.1414284285428504</v>
       </c>
-      <c r="K232" s="56">
+      <c r="K232" s="10">
         <f t="shared" si="30"/>
         <v>13.35830993967592</v>
       </c>
-      <c r="L232" s="56">
+      <c r="L232" s="10">
         <f t="shared" si="31"/>
         <v>3.0103986446980739</v>
       </c>
-      <c r="M232" s="57">
+      <c r="M232" s="41">
         <v>0</v>
       </c>
-      <c r="N232" s="56"/>
-      <c r="O232" s="56"/>
       <c r="P232" s="6"/>
     </row>
     <row r="233" spans="1:16" x14ac:dyDescent="0.25">
@@ -9586,36 +9413,34 @@
       <c r="C233" s="29">
         <v>2</v>
       </c>
-      <c r="D233" s="54">
+      <c r="D233" s="42">
         <v>17</v>
       </c>
-      <c r="E233" s="57">
+      <c r="E233" s="41">
         <v>0</v>
       </c>
-      <c r="F233" s="56"/>
-      <c r="G233" s="56"/>
-      <c r="H233" s="56"/>
-      <c r="I233" s="56">
+      <c r="F233" s="10"/>
+      <c r="G233" s="10"/>
+      <c r="H233" s="10"/>
+      <c r="I233" s="10">
         <f t="shared" si="32"/>
         <v>34.635828631635192</v>
       </c>
-      <c r="J233" s="56">
+      <c r="J233" s="10">
         <f t="shared" si="29"/>
         <v>7.1414284285428504</v>
       </c>
-      <c r="K233" s="56">
+      <c r="K233" s="10">
         <f t="shared" si="30"/>
         <v>13.35830993967592</v>
       </c>
-      <c r="L233" s="56">
+      <c r="L233" s="10">
         <f t="shared" si="31"/>
         <v>3.0103986446980739</v>
       </c>
-      <c r="M233" s="57">
+      <c r="M233" s="41">
         <v>0</v>
       </c>
-      <c r="N233" s="56"/>
-      <c r="O233" s="56"/>
       <c r="P233" s="6"/>
     </row>
     <row r="234" spans="1:16" x14ac:dyDescent="0.25">
@@ -9626,92 +9451,53 @@
       <c r="C234" s="29">
         <v>0</v>
       </c>
-      <c r="D234" s="54">
-        <v>1</v>
-      </c>
-      <c r="E234" s="57">
+      <c r="D234" s="42">
+        <v>1</v>
+      </c>
+      <c r="E234" s="41">
         <v>0</v>
       </c>
-      <c r="F234" s="56"/>
-      <c r="G234" s="56"/>
-      <c r="H234" s="56"/>
-      <c r="I234" s="56">
+      <c r="F234" s="10"/>
+      <c r="G234" s="10"/>
+      <c r="H234" s="10"/>
+      <c r="I234" s="10">
         <f t="shared" si="32"/>
         <v>50.785240227845726</v>
       </c>
-      <c r="J234" s="56">
+      <c r="J234" s="10">
         <f t="shared" si="29"/>
         <v>23.280893453645632</v>
       </c>
-      <c r="K234" s="56">
+      <c r="K234" s="10">
         <f t="shared" si="30"/>
         <v>29.47503651868438</v>
       </c>
-      <c r="L234" s="56">
+      <c r="L234" s="10">
         <f t="shared" si="31"/>
         <v>13.174312126255398</v>
       </c>
-      <c r="M234" s="57">
+      <c r="M234" s="41">
         <v>0</v>
       </c>
-      <c r="N234" s="56"/>
-      <c r="O234" s="56"/>
       <c r="P234" s="6"/>
     </row>
     <row r="235" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A235" s="5"/>
-      <c r="B235" s="56"/>
-      <c r="C235" s="56"/>
-      <c r="D235" s="56"/>
-      <c r="E235" s="56"/>
-      <c r="F235" s="56"/>
-      <c r="G235" s="56"/>
-      <c r="H235" s="56"/>
-      <c r="I235" s="56"/>
-      <c r="J235" s="56"/>
-      <c r="K235" s="56"/>
-      <c r="L235" s="56"/>
-      <c r="M235" s="56"/>
-      <c r="N235" s="56"/>
-      <c r="O235" s="56"/>
       <c r="P235" s="6"/>
     </row>
     <row r="236" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A236" s="5"/>
-      <c r="B236" s="56"/>
-      <c r="C236" s="56"/>
-      <c r="D236" s="56"/>
-      <c r="E236" s="56"/>
-      <c r="F236" s="56"/>
-      <c r="G236" s="56"/>
-      <c r="H236" s="56"/>
-      <c r="I236" s="56"/>
-      <c r="J236" s="56"/>
-      <c r="K236" s="56"/>
-      <c r="L236" s="56"/>
-      <c r="M236" s="56"/>
-      <c r="N236" s="56"/>
-      <c r="O236" s="56"/>
       <c r="P236" s="6"/>
     </row>
     <row r="237" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A237" s="5"/>
-      <c r="B237" s="56"/>
-      <c r="C237" s="56"/>
-      <c r="D237" s="56"/>
       <c r="E237" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="F237" s="56"/>
-      <c r="G237" s="56"/>
-      <c r="H237" s="56"/>
-      <c r="I237" s="56"/>
-      <c r="J237" s="56"/>
-      <c r="K237" s="56"/>
-      <c r="L237" s="56"/>
-      <c r="M237" s="56"/>
-      <c r="N237" s="56"/>
-      <c r="O237" s="56"/>
+        <v>78</v>
+      </c>
+      <c r="I237" s="55"/>
+      <c r="J237" s="50"/>
+      <c r="K237" s="46"/>
+      <c r="L237" s="47"/>
       <c r="P237" s="6"/>
     </row>
     <row r="238" spans="1:16" x14ac:dyDescent="0.25">
@@ -9752,8 +9538,6 @@
       <c r="M238" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="N238" s="56"/>
-      <c r="O238" s="56"/>
       <c r="P238" s="6"/>
     </row>
     <row r="239" spans="1:16" x14ac:dyDescent="0.25">
@@ -9764,45 +9548,43 @@
       <c r="C239" s="29">
         <v>6</v>
       </c>
-      <c r="D239" s="54">
+      <c r="D239" s="42">
         <v>42</v>
       </c>
-      <c r="E239" s="57">
-        <v>3</v>
-      </c>
-      <c r="F239" s="56">
+      <c r="E239" s="53">
+        <v>3</v>
+      </c>
+      <c r="F239" s="54">
         <f>AVERAGE(B239:B246)</f>
         <v>3.75</v>
       </c>
-      <c r="G239" s="56">
+      <c r="G239" s="54">
         <f t="shared" ref="G239:H239" si="36">AVERAGE(C239:C246)</f>
         <v>7.25</v>
       </c>
-      <c r="H239" s="56">
+      <c r="H239" s="54">
         <f t="shared" si="36"/>
         <v>51.125</v>
       </c>
-      <c r="I239" s="56">
+      <c r="I239" s="10">
         <f>((B239-$F$239)^2+(C239-$G$239)^2+(D239-$H$239)^2)^0.5</f>
         <v>9.2407047891381104</v>
       </c>
-      <c r="J239" s="56">
+      <c r="J239" s="10">
         <f>((B239-$F$247)^2+(C239-$G$247)^2+(D239-$H$247)^2)^0.5</f>
         <v>19.938795238317574</v>
       </c>
-      <c r="K239" s="56">
+      <c r="K239" s="10">
         <f>((B239-$F$250)^2+(C239-$G$250)^2+(D239-$H$250)^2)^0.5</f>
         <v>12.115187896924166</v>
       </c>
-      <c r="L239" s="56">
+      <c r="L239" s="10">
         <f>((B239-$F$253)^2+(C239-$G$253)^2+(D239-$H$253)^2)^0.5</f>
         <v>29.101511286936177</v>
       </c>
-      <c r="M239" s="57">
-        <v>3</v>
-      </c>
-      <c r="N239" s="56"/>
-      <c r="O239" s="56"/>
+      <c r="M239" s="41">
+        <v>3</v>
+      </c>
       <c r="P239" s="6"/>
     </row>
     <row r="240" spans="1:16" x14ac:dyDescent="0.25">
@@ -9813,36 +9595,34 @@
       <c r="C240" s="29">
         <v>8</v>
       </c>
-      <c r="D240" s="54">
+      <c r="D240" s="42">
         <v>56</v>
       </c>
-      <c r="E240" s="57">
-        <v>3</v>
-      </c>
-      <c r="F240" s="56"/>
-      <c r="G240" s="56"/>
-      <c r="H240" s="56"/>
-      <c r="I240" s="56">
+      <c r="E240" s="41">
+        <v>3</v>
+      </c>
+      <c r="F240" s="10"/>
+      <c r="G240" s="10"/>
+      <c r="H240" s="10"/>
+      <c r="I240" s="10">
         <f t="shared" ref="I240:I259" si="37">((B240-$F$239)^2+(C240-$G$239)^2+(D240-$H$239)^2)^0.5</f>
         <v>4.9386865662846029</v>
       </c>
-      <c r="J240" s="56">
+      <c r="J240" s="10">
         <f t="shared" ref="J240:J259" si="38">((B240-$F$247)^2+(C240-$G$247)^2+(D240-$H$247)^2)^0.5</f>
         <v>34.115815817431205</v>
       </c>
-      <c r="K240" s="56">
+      <c r="K240" s="10">
         <f t="shared" ref="K240:K259" si="39">((B240-$F$250)^2+(C240-$G$250)^2+(D240-$H$250)^2)^0.5</f>
         <v>26.276309566688479</v>
       </c>
-      <c r="L240" s="56">
+      <c r="L240" s="10">
         <f t="shared" ref="L240:L259" si="40">((B240-$F$253)^2+(C240-$G$253)^2+(D240-$H$253)^2)^0.5</f>
         <v>43.278641572102636</v>
       </c>
-      <c r="M240" s="57">
-        <v>3</v>
-      </c>
-      <c r="N240" s="56"/>
-      <c r="O240" s="56"/>
+      <c r="M240" s="41">
+        <v>3</v>
+      </c>
       <c r="P240" s="6"/>
     </row>
     <row r="241" spans="1:16" x14ac:dyDescent="0.25">
@@ -9853,36 +9633,34 @@
       <c r="C241" s="29">
         <v>6</v>
       </c>
-      <c r="D241" s="54">
+      <c r="D241" s="42">
         <v>44</v>
       </c>
-      <c r="E241" s="57">
-        <v>3</v>
-      </c>
-      <c r="F241" s="56"/>
-      <c r="G241" s="56"/>
-      <c r="H241" s="56"/>
-      <c r="I241" s="56">
+      <c r="E241" s="41">
+        <v>3</v>
+      </c>
+      <c r="F241" s="10"/>
+      <c r="G241" s="10"/>
+      <c r="H241" s="10"/>
+      <c r="I241" s="10">
         <f t="shared" si="37"/>
         <v>7.272594103894428</v>
       </c>
-      <c r="J241" s="56">
+      <c r="J241" s="10">
         <f t="shared" si="38"/>
         <v>21.913973218524802</v>
       </c>
-      <c r="K241" s="56">
+      <c r="K241" s="10">
         <f t="shared" si="39"/>
         <v>14.098857321704401</v>
       </c>
-      <c r="L241" s="56">
+      <c r="L241" s="10">
         <f t="shared" si="40"/>
         <v>31.076600554771371</v>
       </c>
-      <c r="M241" s="57">
-        <v>3</v>
-      </c>
-      <c r="N241" s="56"/>
-      <c r="O241" s="56"/>
+      <c r="M241" s="41">
+        <v>3</v>
+      </c>
       <c r="P241" s="6"/>
     </row>
     <row r="242" spans="1:16" x14ac:dyDescent="0.25">
@@ -9893,36 +9671,34 @@
       <c r="C242" s="29">
         <v>9</v>
       </c>
-      <c r="D242" s="54">
+      <c r="D242" s="42">
         <v>62</v>
       </c>
-      <c r="E242" s="57">
-        <v>3</v>
-      </c>
-      <c r="F242" s="56"/>
-      <c r="G242" s="56"/>
-      <c r="H242" s="56"/>
-      <c r="I242" s="56">
+      <c r="E242" s="41">
+        <v>3</v>
+      </c>
+      <c r="F242" s="10"/>
+      <c r="G242" s="10"/>
+      <c r="H242" s="10"/>
+      <c r="I242" s="10">
         <f t="shared" si="37"/>
         <v>11.085604403910505</v>
       </c>
-      <c r="J242" s="56">
+      <c r="J242" s="10">
         <f t="shared" si="38"/>
         <v>40.256124447785034</v>
       </c>
-      <c r="K242" s="56">
+      <c r="K242" s="10">
         <f t="shared" si="39"/>
         <v>32.400274347260975</v>
       </c>
-      <c r="L242" s="56">
+      <c r="L242" s="10">
         <f t="shared" si="40"/>
         <v>49.421345466863833</v>
       </c>
-      <c r="M242" s="57">
-        <v>3</v>
-      </c>
-      <c r="N242" s="56"/>
-      <c r="O242" s="56"/>
+      <c r="M242" s="41">
+        <v>3</v>
+      </c>
       <c r="P242" s="6"/>
     </row>
     <row r="243" spans="1:16" x14ac:dyDescent="0.25">
@@ -9933,36 +9709,34 @@
       <c r="C243" s="29">
         <v>9</v>
       </c>
-      <c r="D243" s="54">
+      <c r="D243" s="42">
         <v>64</v>
       </c>
-      <c r="E243" s="57">
-        <v>3</v>
-      </c>
-      <c r="F243" s="56"/>
-      <c r="G243" s="56"/>
-      <c r="H243" s="56"/>
-      <c r="I243" s="56">
+      <c r="E243" s="41">
+        <v>3</v>
+      </c>
+      <c r="F243" s="10"/>
+      <c r="G243" s="10"/>
+      <c r="H243" s="10"/>
+      <c r="I243" s="10">
         <f t="shared" si="37"/>
         <v>13.05337600010051</v>
       </c>
-      <c r="J243" s="56">
+      <c r="J243" s="10">
         <f t="shared" si="38"/>
         <v>42.228215948844237</v>
       </c>
-      <c r="K243" s="56">
+      <c r="K243" s="10">
         <f t="shared" si="39"/>
         <v>34.376994891609968</v>
       </c>
-      <c r="L243" s="56">
+      <c r="L243" s="10">
         <f t="shared" si="40"/>
         <v>51.393837476999565</v>
       </c>
-      <c r="M243" s="57">
-        <v>3</v>
-      </c>
-      <c r="N243" s="56"/>
-      <c r="O243" s="56"/>
+      <c r="M243" s="41">
+        <v>3</v>
+      </c>
       <c r="P243" s="6"/>
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.25">
@@ -9973,36 +9747,34 @@
       <c r="C244" s="29">
         <v>8</v>
       </c>
-      <c r="D244" s="54">
+      <c r="D244" s="42">
         <v>56</v>
       </c>
-      <c r="E244" s="57">
-        <v>3</v>
-      </c>
-      <c r="F244" s="56"/>
-      <c r="G244" s="56"/>
-      <c r="H244" s="56"/>
-      <c r="I244" s="56">
+      <c r="E244" s="41">
+        <v>3</v>
+      </c>
+      <c r="F244" s="10"/>
+      <c r="G244" s="10"/>
+      <c r="H244" s="10"/>
+      <c r="I244" s="10">
         <f t="shared" si="37"/>
         <v>4.9386865662846029</v>
       </c>
-      <c r="J244" s="56">
+      <c r="J244" s="10">
         <f t="shared" si="38"/>
         <v>34.115815817431205</v>
       </c>
-      <c r="K244" s="56">
+      <c r="K244" s="10">
         <f t="shared" si="39"/>
         <v>26.276309566688479</v>
       </c>
-      <c r="L244" s="56">
+      <c r="L244" s="10">
         <f t="shared" si="40"/>
         <v>43.278641572102636</v>
       </c>
-      <c r="M244" s="57">
-        <v>3</v>
-      </c>
-      <c r="N244" s="56"/>
-      <c r="O244" s="56"/>
+      <c r="M244" s="41">
+        <v>3</v>
+      </c>
       <c r="P244" s="6"/>
     </row>
     <row r="245" spans="1:16" x14ac:dyDescent="0.25">
@@ -10013,36 +9785,34 @@
       <c r="C245" s="29">
         <v>6</v>
       </c>
-      <c r="D245" s="54">
+      <c r="D245" s="42">
         <v>44</v>
       </c>
-      <c r="E245" s="57">
-        <v>3</v>
-      </c>
-      <c r="F245" s="56"/>
-      <c r="G245" s="56"/>
-      <c r="H245" s="56"/>
-      <c r="I245" s="56">
+      <c r="E245" s="41">
+        <v>3</v>
+      </c>
+      <c r="F245" s="10"/>
+      <c r="G245" s="10"/>
+      <c r="H245" s="10"/>
+      <c r="I245" s="10">
         <f t="shared" si="37"/>
         <v>7.272594103894428</v>
       </c>
-      <c r="J245" s="56">
+      <c r="J245" s="10">
         <f t="shared" si="38"/>
         <v>21.913973218524802</v>
       </c>
-      <c r="K245" s="56">
+      <c r="K245" s="10">
         <f t="shared" si="39"/>
         <v>14.098857321704401</v>
       </c>
-      <c r="L245" s="56">
+      <c r="L245" s="10">
         <f t="shared" si="40"/>
         <v>31.076600554771371</v>
       </c>
-      <c r="M245" s="57">
-        <v>3</v>
-      </c>
-      <c r="N245" s="56"/>
-      <c r="O245" s="56"/>
+      <c r="M245" s="41">
+        <v>3</v>
+      </c>
       <c r="P245" s="6"/>
     </row>
     <row r="246" spans="1:16" x14ac:dyDescent="0.25">
@@ -10053,36 +9823,34 @@
       <c r="C246" s="29">
         <v>6</v>
       </c>
-      <c r="D246" s="54">
+      <c r="D246" s="42">
         <v>41</v>
       </c>
-      <c r="E246" s="57">
-        <v>3</v>
-      </c>
-      <c r="F246" s="56"/>
-      <c r="G246" s="56"/>
-      <c r="H246" s="56"/>
-      <c r="I246" s="56">
+      <c r="E246" s="41">
+        <v>3</v>
+      </c>
+      <c r="F246" s="10"/>
+      <c r="G246" s="10"/>
+      <c r="H246" s="10"/>
+      <c r="I246" s="10">
         <f t="shared" si="37"/>
         <v>10.229400031282383</v>
       </c>
-      <c r="J246" s="56">
+      <c r="J246" s="10">
         <f t="shared" si="38"/>
         <v>18.953158634439333</v>
       </c>
-      <c r="K246" s="56">
+      <c r="K246" s="10">
         <f t="shared" si="39"/>
         <v>11.125546178852424</v>
       </c>
-      <c r="L246" s="56">
+      <c r="L246" s="10">
         <f t="shared" si="40"/>
         <v>28.115287438600056</v>
       </c>
-      <c r="M246" s="57">
-        <v>3</v>
-      </c>
-      <c r="N246" s="56"/>
-      <c r="O246" s="56"/>
+      <c r="M246" s="41">
+        <v>3</v>
+      </c>
       <c r="P246" s="6"/>
     </row>
     <row r="247" spans="1:16" x14ac:dyDescent="0.25">
@@ -10093,45 +9861,43 @@
       <c r="C247" s="29">
         <v>3</v>
       </c>
-      <c r="D247" s="54">
+      <c r="D247" s="42">
         <v>24</v>
       </c>
-      <c r="E247" s="57">
-        <v>2</v>
-      </c>
-      <c r="F247" s="56">
+      <c r="E247" s="51">
+        <v>2</v>
+      </c>
+      <c r="F247" s="52">
         <f>AVERAGE(B247:B249)</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="G247" s="56">
+      <c r="G247" s="52">
         <f t="shared" ref="G247:H247" si="41">AVERAGE(C247:C249)</f>
         <v>3</v>
       </c>
-      <c r="H247" s="56">
+      <c r="H247" s="52">
         <f t="shared" si="41"/>
         <v>22.333333333333332</v>
       </c>
-      <c r="I247" s="56">
+      <c r="I247" s="10">
         <f t="shared" si="37"/>
         <v>27.51164526159786</v>
       </c>
-      <c r="J247" s="56">
+      <c r="J247" s="10">
         <f t="shared" si="38"/>
         <v>1.6996731711975961</v>
       </c>
-      <c r="K247" s="56">
+      <c r="K247" s="10">
         <f t="shared" si="39"/>
         <v>6.2271805640898013</v>
       </c>
-      <c r="L247" s="56">
+      <c r="L247" s="10">
         <f t="shared" si="40"/>
         <v>10.851502294190253</v>
       </c>
-      <c r="M247" s="57">
-        <v>2</v>
-      </c>
-      <c r="N247" s="56"/>
-      <c r="O247" s="56"/>
+      <c r="M247" s="41">
+        <v>2</v>
+      </c>
       <c r="P247" s="6"/>
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.25">
@@ -10142,36 +9908,34 @@
       <c r="C248" s="29">
         <v>3</v>
       </c>
-      <c r="D248" s="54">
+      <c r="D248" s="42">
         <v>24</v>
       </c>
-      <c r="E248" s="57">
-        <v>2</v>
-      </c>
-      <c r="F248" s="56"/>
-      <c r="G248" s="56"/>
-      <c r="H248" s="56"/>
-      <c r="I248" s="56">
+      <c r="E248" s="41">
+        <v>2</v>
+      </c>
+      <c r="F248" s="10"/>
+      <c r="G248" s="10"/>
+      <c r="H248" s="10"/>
+      <c r="I248" s="10">
         <f t="shared" si="37"/>
         <v>27.51164526159786</v>
       </c>
-      <c r="J248" s="56">
+      <c r="J248" s="10">
         <f t="shared" si="38"/>
         <v>1.6996731711975961</v>
       </c>
-      <c r="K248" s="56">
+      <c r="K248" s="10">
         <f t="shared" si="39"/>
         <v>6.2271805640898013</v>
       </c>
-      <c r="L248" s="56">
+      <c r="L248" s="10">
         <f t="shared" si="40"/>
         <v>10.851502294190253</v>
       </c>
-      <c r="M248" s="57">
-        <v>2</v>
-      </c>
-      <c r="N248" s="56"/>
-      <c r="O248" s="56"/>
+      <c r="M248" s="41">
+        <v>2</v>
+      </c>
       <c r="P248" s="6"/>
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.25">
@@ -10182,36 +9946,34 @@
       <c r="C249" s="29">
         <v>3</v>
       </c>
-      <c r="D249" s="54">
+      <c r="D249" s="42">
         <v>19</v>
       </c>
-      <c r="E249" s="57">
-        <v>2</v>
-      </c>
-      <c r="F249" s="56"/>
-      <c r="G249" s="56"/>
-      <c r="H249" s="56"/>
-      <c r="I249" s="56">
+      <c r="E249" s="41">
+        <v>2</v>
+      </c>
+      <c r="F249" s="10"/>
+      <c r="G249" s="10"/>
+      <c r="H249" s="10"/>
+      <c r="I249" s="10">
         <f t="shared" si="37"/>
         <v>32.521387193660729</v>
       </c>
-      <c r="J249" s="56">
+      <c r="J249" s="10">
         <f t="shared" si="38"/>
         <v>3.3993463423951886</v>
       </c>
-      <c r="K249" s="56">
+      <c r="K249" s="10">
         <f t="shared" si="39"/>
         <v>11.259563836036357</v>
       </c>
-      <c r="L249" s="56">
+      <c r="L249" s="10">
         <f t="shared" si="40"/>
         <v>5.8344508161891815</v>
       </c>
-      <c r="M249" s="57">
-        <v>2</v>
-      </c>
-      <c r="N249" s="56"/>
-      <c r="O249" s="56"/>
+      <c r="M249" s="41">
+        <v>2</v>
+      </c>
       <c r="P249" s="6"/>
     </row>
     <row r="250" spans="1:16" x14ac:dyDescent="0.25">
@@ -10222,45 +9984,43 @@
       <c r="C250" s="29">
         <v>5</v>
       </c>
-      <c r="D250" s="54">
+      <c r="D250" s="42">
         <v>32</v>
       </c>
-      <c r="E250" s="57">
-        <v>1</v>
-      </c>
-      <c r="F250" s="56">
+      <c r="E250" s="44">
+        <v>1</v>
+      </c>
+      <c r="F250" s="45">
         <f>AVERAGE(B250:B252)</f>
         <v>3</v>
       </c>
-      <c r="G250" s="56">
+      <c r="G250" s="45">
         <f t="shared" ref="G250:H250" si="42">AVERAGE(C250:C252)</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="H250" s="56">
+      <c r="H250" s="45">
         <f t="shared" si="42"/>
         <v>30</v>
       </c>
-      <c r="I250" s="56">
+      <c r="I250" s="10">
         <f t="shared" si="37"/>
         <v>19.271497736294396</v>
       </c>
-      <c r="J250" s="56">
+      <c r="J250" s="10">
         <f t="shared" si="38"/>
         <v>9.9610351983226249</v>
       </c>
-      <c r="K250" s="56">
+      <c r="K250" s="10">
         <f t="shared" si="39"/>
         <v>2.1081851067789197</v>
       </c>
-      <c r="L250" s="56">
+      <c r="L250" s="10">
         <f t="shared" si="40"/>
         <v>19.11351696083808</v>
       </c>
-      <c r="M250" s="57">
-        <v>1</v>
-      </c>
-      <c r="N250" s="56"/>
-      <c r="O250" s="56"/>
+      <c r="M250" s="41">
+        <v>1</v>
+      </c>
       <c r="P250" s="6"/>
     </row>
     <row r="251" spans="1:16" x14ac:dyDescent="0.25">
@@ -10271,36 +10031,34 @@
       <c r="C251" s="29">
         <v>4</v>
       </c>
-      <c r="D251" s="54">
+      <c r="D251" s="42">
         <v>30</v>
       </c>
-      <c r="E251" s="57">
-        <v>1</v>
-      </c>
-      <c r="F251" s="56"/>
-      <c r="G251" s="56"/>
-      <c r="H251" s="56"/>
-      <c r="I251" s="56">
+      <c r="E251" s="41">
+        <v>1</v>
+      </c>
+      <c r="F251" s="10"/>
+      <c r="G251" s="10"/>
+      <c r="H251" s="10"/>
+      <c r="I251" s="10">
         <f t="shared" si="37"/>
         <v>21.445060620105508</v>
       </c>
-      <c r="J251" s="56">
+      <c r="J251" s="10">
         <f t="shared" si="38"/>
         <v>7.7387911774959344</v>
       </c>
-      <c r="K251" s="56">
+      <c r="K251" s="10">
         <f t="shared" si="39"/>
         <v>1.0540925533894596</v>
       </c>
-      <c r="L251" s="56">
+      <c r="L251" s="10">
         <f t="shared" si="40"/>
         <v>16.900066416968876</v>
       </c>
-      <c r="M251" s="57">
-        <v>1</v>
-      </c>
-      <c r="N251" s="56"/>
-      <c r="O251" s="56"/>
+      <c r="M251" s="41">
+        <v>1</v>
+      </c>
       <c r="P251" s="6"/>
     </row>
     <row r="252" spans="1:16" x14ac:dyDescent="0.25">
@@ -10311,36 +10069,34 @@
       <c r="C252" s="29">
         <v>4</v>
       </c>
-      <c r="D252" s="54">
+      <c r="D252" s="42">
         <v>28</v>
       </c>
-      <c r="E252" s="57">
-        <v>1</v>
-      </c>
-      <c r="F252" s="56"/>
-      <c r="G252" s="56"/>
-      <c r="H252" s="56"/>
-      <c r="I252" s="56">
+      <c r="E252" s="41">
+        <v>1</v>
+      </c>
+      <c r="F252" s="10"/>
+      <c r="G252" s="10"/>
+      <c r="H252" s="10"/>
+      <c r="I252" s="10">
         <f t="shared" si="37"/>
         <v>23.353599829576595</v>
       </c>
-      <c r="J252" s="56">
+      <c r="J252" s="10">
         <f t="shared" si="38"/>
         <v>6.2093120033990532</v>
       </c>
-      <c r="K252" s="56">
+      <c r="K252" s="10">
         <f t="shared" si="39"/>
         <v>2.2607766610417559</v>
       </c>
-      <c r="L252" s="56">
+      <c r="L252" s="10">
         <f t="shared" si="40"/>
         <v>15.228196189426818</v>
       </c>
-      <c r="M252" s="57">
-        <v>1</v>
-      </c>
-      <c r="N252" s="56"/>
-      <c r="O252" s="56"/>
+      <c r="M252" s="41">
+        <v>1</v>
+      </c>
       <c r="P252" s="6"/>
     </row>
     <row r="253" spans="1:16" x14ac:dyDescent="0.25">
@@ -10351,45 +10107,43 @@
       <c r="C253" s="29">
         <v>3</v>
       </c>
-      <c r="D253" s="54">
+      <c r="D253" s="42">
         <v>18</v>
       </c>
-      <c r="E253" s="57">
+      <c r="E253" s="48">
         <v>0</v>
       </c>
-      <c r="F253" s="56">
+      <c r="F253" s="49">
         <f>AVERAGE(B253:B259)</f>
         <v>0.7142857142857143</v>
       </c>
-      <c r="G253" s="56">
+      <c r="G253" s="49">
         <f t="shared" ref="G253:H253" si="43">AVERAGE(C253:C259)</f>
         <v>1.8571428571428572</v>
       </c>
-      <c r="H253" s="56">
+      <c r="H253" s="49">
         <f t="shared" si="43"/>
         <v>13.285714285714286</v>
       </c>
-      <c r="I253" s="56">
+      <c r="I253" s="10">
         <f t="shared" si="37"/>
         <v>33.509560203022659</v>
       </c>
-      <c r="J253" s="56">
+      <c r="J253" s="10">
         <f t="shared" si="38"/>
         <v>4.384315479321967</v>
       </c>
-      <c r="K253" s="56">
+      <c r="K253" s="10">
         <f t="shared" si="39"/>
         <v>12.238373167123878</v>
       </c>
-      <c r="L253" s="56">
+      <c r="L253" s="10">
         <f t="shared" si="40"/>
         <v>4.859243243341413</v>
       </c>
-      <c r="M253" s="57">
-        <v>2</v>
-      </c>
-      <c r="N253" s="56"/>
-      <c r="O253" s="56"/>
+      <c r="M253" s="41">
+        <v>2</v>
+      </c>
       <c r="P253" s="6"/>
     </row>
     <row r="254" spans="1:16" x14ac:dyDescent="0.25">
@@ -10400,36 +10154,34 @@
       <c r="C254" s="29">
         <v>3</v>
       </c>
-      <c r="D254" s="54">
+      <c r="D254" s="42">
         <v>18</v>
       </c>
-      <c r="E254" s="57">
+      <c r="E254" s="41">
         <v>0</v>
       </c>
-      <c r="F254" s="56"/>
-      <c r="G254" s="56"/>
-      <c r="H254" s="56"/>
-      <c r="I254" s="56">
+      <c r="F254" s="10"/>
+      <c r="G254" s="10"/>
+      <c r="H254" s="10"/>
+      <c r="I254" s="10">
         <f t="shared" si="37"/>
         <v>33.509560203022659</v>
       </c>
-      <c r="J254" s="56">
+      <c r="J254" s="10">
         <f t="shared" si="38"/>
         <v>4.384315479321967</v>
       </c>
-      <c r="K254" s="56">
+      <c r="K254" s="10">
         <f t="shared" si="39"/>
         <v>12.238373167123878</v>
       </c>
-      <c r="L254" s="56">
+      <c r="L254" s="10">
         <f t="shared" si="40"/>
         <v>4.859243243341413</v>
       </c>
-      <c r="M254" s="57">
-        <v>2</v>
-      </c>
-      <c r="N254" s="56"/>
-      <c r="O254" s="56"/>
+      <c r="M254" s="41">
+        <v>2</v>
+      </c>
       <c r="P254" s="6"/>
     </row>
     <row r="255" spans="1:16" x14ac:dyDescent="0.25">
@@ -10440,36 +10192,34 @@
       <c r="C255" s="29">
         <v>1</v>
       </c>
-      <c r="D255" s="54">
+      <c r="D255" s="42">
         <v>5</v>
       </c>
-      <c r="E255" s="57">
+      <c r="E255" s="41">
         <v>0</v>
       </c>
-      <c r="F255" s="56"/>
-      <c r="G255" s="56"/>
-      <c r="H255" s="56"/>
-      <c r="I255" s="56">
+      <c r="F255" s="10"/>
+      <c r="G255" s="10"/>
+      <c r="H255" s="10"/>
+      <c r="I255" s="10">
         <f t="shared" si="37"/>
         <v>46.697329955790835</v>
       </c>
-      <c r="J255" s="56">
+      <c r="J255" s="10">
         <f t="shared" si="38"/>
         <v>17.527755766846543</v>
       </c>
-      <c r="K255" s="56">
+      <c r="K255" s="10">
         <f t="shared" si="39"/>
         <v>25.399037602064986</v>
       </c>
-      <c r="L255" s="56">
+      <c r="L255" s="10">
         <f t="shared" si="40"/>
         <v>8.3604999362283046</v>
       </c>
-      <c r="M255" s="57">
+      <c r="M255" s="41">
         <v>0</v>
       </c>
-      <c r="N255" s="56"/>
-      <c r="O255" s="56"/>
       <c r="P255" s="6"/>
     </row>
     <row r="256" spans="1:16" x14ac:dyDescent="0.25">
@@ -10480,36 +10230,34 @@
       <c r="C256" s="29">
         <v>2</v>
       </c>
-      <c r="D256" s="54">
+      <c r="D256" s="42">
         <v>17</v>
       </c>
-      <c r="E256" s="57">
+      <c r="E256" s="41">
         <v>0</v>
       </c>
-      <c r="F256" s="56"/>
-      <c r="G256" s="56"/>
-      <c r="H256" s="56"/>
-      <c r="I256" s="56">
+      <c r="F256" s="10"/>
+      <c r="G256" s="10"/>
+      <c r="H256" s="10"/>
+      <c r="I256" s="10">
         <f t="shared" si="37"/>
         <v>34.635828631635192</v>
       </c>
-      <c r="J256" s="56">
+      <c r="J256" s="10">
         <f t="shared" si="38"/>
         <v>5.4670731556189072</v>
       </c>
-      <c r="K256" s="56">
+      <c r="K256" s="10">
         <f t="shared" si="39"/>
         <v>13.35830993967592</v>
       </c>
-      <c r="L256" s="56">
+      <c r="L256" s="10">
         <f t="shared" si="40"/>
         <v>3.7279966716285391</v>
       </c>
-      <c r="M256" s="57">
+      <c r="M256" s="41">
         <v>0</v>
       </c>
-      <c r="N256" s="56"/>
-      <c r="O256" s="56"/>
       <c r="P256" s="6"/>
     </row>
     <row r="257" spans="1:16" x14ac:dyDescent="0.25">
@@ -10520,36 +10268,34 @@
       <c r="C257" s="29">
         <v>2</v>
       </c>
-      <c r="D257" s="54">
+      <c r="D257" s="42">
         <v>17</v>
       </c>
-      <c r="E257" s="57">
+      <c r="E257" s="41">
         <v>0</v>
       </c>
-      <c r="F257" s="56"/>
-      <c r="G257" s="56"/>
-      <c r="H257" s="56"/>
-      <c r="I257" s="56">
+      <c r="F257" s="10"/>
+      <c r="G257" s="10"/>
+      <c r="H257" s="10"/>
+      <c r="I257" s="10">
         <f t="shared" si="37"/>
         <v>34.635828631635192</v>
       </c>
-      <c r="J257" s="56">
+      <c r="J257" s="10">
         <f t="shared" si="38"/>
         <v>5.4670731556189072</v>
       </c>
-      <c r="K257" s="56">
+      <c r="K257" s="10">
         <f t="shared" si="39"/>
         <v>13.35830993967592</v>
       </c>
-      <c r="L257" s="56">
+      <c r="L257" s="10">
         <f t="shared" si="40"/>
         <v>3.7279966716285391</v>
       </c>
-      <c r="M257" s="57">
+      <c r="M257" s="41">
         <v>0</v>
       </c>
-      <c r="N257" s="56"/>
-      <c r="O257" s="56"/>
       <c r="P257" s="6"/>
     </row>
     <row r="258" spans="1:16" x14ac:dyDescent="0.25">
@@ -10560,36 +10306,34 @@
       <c r="C258" s="29">
         <v>2</v>
       </c>
-      <c r="D258" s="54">
+      <c r="D258" s="42">
         <v>17</v>
       </c>
-      <c r="E258" s="57">
+      <c r="E258" s="41">
         <v>0</v>
       </c>
-      <c r="F258" s="56"/>
-      <c r="G258" s="56"/>
-      <c r="H258" s="56"/>
-      <c r="I258" s="56">
+      <c r="F258" s="10"/>
+      <c r="G258" s="10"/>
+      <c r="H258" s="10"/>
+      <c r="I258" s="10">
         <f t="shared" si="37"/>
         <v>34.635828631635192</v>
       </c>
-      <c r="J258" s="56">
+      <c r="J258" s="10">
         <f t="shared" si="38"/>
         <v>5.4670731556189072</v>
       </c>
-      <c r="K258" s="56">
+      <c r="K258" s="10">
         <f t="shared" si="39"/>
         <v>13.35830993967592</v>
       </c>
-      <c r="L258" s="56">
+      <c r="L258" s="10">
         <f t="shared" si="40"/>
         <v>3.7279966716285391</v>
       </c>
-      <c r="M258" s="57">
+      <c r="M258" s="41">
         <v>0</v>
       </c>
-      <c r="N258" s="56"/>
-      <c r="O258" s="56"/>
       <c r="P258" s="6"/>
     </row>
     <row r="259" spans="1:16" x14ac:dyDescent="0.25">
@@ -10600,92 +10344,53 @@
       <c r="C259" s="29">
         <v>0</v>
       </c>
-      <c r="D259" s="54">
-        <v>1</v>
-      </c>
-      <c r="E259" s="57">
+      <c r="D259" s="42">
+        <v>1</v>
+      </c>
+      <c r="E259" s="41">
         <v>0</v>
       </c>
-      <c r="F259" s="56"/>
-      <c r="G259" s="56"/>
-      <c r="H259" s="56"/>
-      <c r="I259" s="56">
+      <c r="F259" s="10"/>
+      <c r="G259" s="10"/>
+      <c r="H259" s="10"/>
+      <c r="I259" s="10">
         <f t="shared" si="37"/>
         <v>50.785240227845726</v>
       </c>
-      <c r="J259" s="56">
+      <c r="J259" s="10">
         <f t="shared" si="38"/>
         <v>21.607611827522469</v>
       </c>
-      <c r="K259" s="56">
+      <c r="K259" s="10">
         <f t="shared" si="39"/>
         <v>29.47503651868438</v>
       </c>
-      <c r="L259" s="56">
+      <c r="L259" s="10">
         <f t="shared" si="40"/>
         <v>12.445800865499717</v>
       </c>
-      <c r="M259" s="57">
+      <c r="M259" s="41">
         <v>0</v>
       </c>
-      <c r="N259" s="56"/>
-      <c r="O259" s="56"/>
       <c r="P259" s="6"/>
     </row>
     <row r="260" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A260" s="5"/>
-      <c r="B260" s="56"/>
-      <c r="C260" s="56"/>
-      <c r="D260" s="56"/>
-      <c r="E260" s="56"/>
-      <c r="F260" s="56"/>
-      <c r="G260" s="56"/>
-      <c r="H260" s="56"/>
-      <c r="I260" s="56"/>
-      <c r="J260" s="56"/>
-      <c r="K260" s="56"/>
-      <c r="L260" s="56"/>
-      <c r="M260" s="56"/>
-      <c r="N260" s="56"/>
-      <c r="O260" s="56"/>
       <c r="P260" s="6"/>
     </row>
     <row r="261" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A261" s="5"/>
-      <c r="B261" s="56"/>
-      <c r="C261" s="56"/>
-      <c r="D261" s="56"/>
-      <c r="E261" s="56"/>
-      <c r="F261" s="56"/>
-      <c r="G261" s="56"/>
-      <c r="H261" s="56"/>
-      <c r="I261" s="56"/>
-      <c r="J261" s="56"/>
-      <c r="K261" s="56"/>
-      <c r="L261" s="56"/>
-      <c r="M261" s="56"/>
-      <c r="N261" s="56"/>
-      <c r="O261" s="56"/>
       <c r="P261" s="6"/>
     </row>
     <row r="262" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A262" s="5"/>
-      <c r="B262" s="56"/>
-      <c r="C262" s="56"/>
-      <c r="D262" s="56"/>
       <c r="E262" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="F262" s="56"/>
-      <c r="G262" s="56"/>
-      <c r="H262" s="56"/>
-      <c r="I262" s="56"/>
-      <c r="J262" s="56"/>
-      <c r="K262" s="56"/>
-      <c r="L262" s="56"/>
-      <c r="M262" s="56"/>
-      <c r="N262" s="56"/>
-      <c r="O262" s="56"/>
+        <v>78</v>
+      </c>
+      <c r="I262" s="55"/>
+      <c r="J262" s="50"/>
+      <c r="K262" s="46"/>
+      <c r="L262" s="47"/>
       <c r="P262" s="6"/>
     </row>
     <row r="263" spans="1:16" x14ac:dyDescent="0.25">
@@ -10726,8 +10431,6 @@
       <c r="M263" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="N263" s="56"/>
-      <c r="O263" s="56"/>
       <c r="P263" s="6"/>
     </row>
     <row r="264" spans="1:16" x14ac:dyDescent="0.25">
@@ -10738,45 +10441,43 @@
       <c r="C264" s="29">
         <v>6</v>
       </c>
-      <c r="D264" s="54">
+      <c r="D264" s="42">
         <v>42</v>
       </c>
-      <c r="E264" s="57">
-        <v>3</v>
-      </c>
-      <c r="F264" s="56">
+      <c r="E264" s="53">
+        <v>3</v>
+      </c>
+      <c r="F264" s="54">
         <f>AVERAGE(B264:B271)</f>
         <v>3.75</v>
       </c>
-      <c r="G264" s="56">
+      <c r="G264" s="54">
         <f t="shared" ref="G264:H264" si="44">AVERAGE(C264:C271)</f>
         <v>7.25</v>
       </c>
-      <c r="H264" s="56">
+      <c r="H264" s="54">
         <f t="shared" si="44"/>
         <v>51.125</v>
       </c>
-      <c r="I264" s="56">
+      <c r="I264" s="10">
         <f>((B264-$F$264)^2+(C264-$G$264)^2+(D264-$H$264)^2)^0.5</f>
         <v>9.2407047891381104</v>
       </c>
-      <c r="J264" s="56">
+      <c r="J264" s="10">
         <f>((B264-$F$272)^2+(C264-$G$272)^2+(D264-$H$272)^2)^0.5</f>
         <v>21.668410186259628</v>
       </c>
-      <c r="K264" s="56">
+      <c r="K264" s="10">
         <f>((B264-$F$277)^2+(C264-$G$277)^2+(D264-$H$277)^2)^0.5</f>
         <v>12.115187896924166</v>
       </c>
-      <c r="L264" s="56">
+      <c r="L264" s="10">
         <f>((B264-$F$280)^2+(C264-$G$280)^2+(D264-$H$280)^2)^0.5</f>
         <v>31.0367524074282</v>
       </c>
-      <c r="M264" s="57">
-        <v>3</v>
-      </c>
-      <c r="N264" s="56"/>
-      <c r="O264" s="56"/>
+      <c r="M264" s="41">
+        <v>3</v>
+      </c>
       <c r="P264" s="6"/>
     </row>
     <row r="265" spans="1:16" x14ac:dyDescent="0.25">
@@ -10787,36 +10488,34 @@
       <c r="C265" s="29">
         <v>8</v>
       </c>
-      <c r="D265" s="54">
+      <c r="D265" s="42">
         <v>56</v>
       </c>
-      <c r="E265" s="57">
-        <v>3</v>
-      </c>
-      <c r="F265" s="56"/>
-      <c r="G265" s="56"/>
-      <c r="H265" s="56"/>
-      <c r="I265" s="56">
+      <c r="E265" s="41">
+        <v>3</v>
+      </c>
+      <c r="F265" s="10"/>
+      <c r="G265" s="10"/>
+      <c r="H265" s="10"/>
+      <c r="I265" s="10">
         <f t="shared" ref="I265:I284" si="45">((B265-$F$264)^2+(C265-$G$264)^2+(D265-$H$264)^2)^0.5</f>
         <v>4.9386865662846029</v>
       </c>
-      <c r="J265" s="56">
+      <c r="J265" s="10">
         <f t="shared" ref="J265:J284" si="46">((B265-$F$272)^2+(C265-$G$272)^2+(D265-$H$272)^2)^0.5</f>
         <v>35.845780783796577</v>
       </c>
-      <c r="K265" s="56">
+      <c r="K265" s="10">
         <f t="shared" ref="K265:K284" si="47">((B265-$F$277)^2+(C265-$G$277)^2+(D265-$H$277)^2)^0.5</f>
         <v>26.276309566688479</v>
       </c>
-      <c r="L265" s="56">
+      <c r="L265" s="10">
         <f>((B265-$F$280)^2+(C265-$G$280)^2+(D265-$H$280)^2)^0.5</f>
         <v>45.213714733474397</v>
       </c>
-      <c r="M265" s="57">
-        <v>3</v>
-      </c>
-      <c r="N265" s="56"/>
-      <c r="O265" s="56"/>
+      <c r="M265" s="41">
+        <v>3</v>
+      </c>
       <c r="P265" s="6"/>
     </row>
     <row r="266" spans="1:16" x14ac:dyDescent="0.25">
@@ -10827,36 +10526,34 @@
       <c r="C266" s="29">
         <v>6</v>
       </c>
-      <c r="D266" s="54">
+      <c r="D266" s="42">
         <v>44</v>
       </c>
-      <c r="E266" s="57">
-        <v>3</v>
-      </c>
-      <c r="F266" s="56"/>
-      <c r="G266" s="56"/>
-      <c r="H266" s="56"/>
-      <c r="I266" s="56">
+      <c r="E266" s="41">
+        <v>3</v>
+      </c>
+      <c r="F266" s="10"/>
+      <c r="G266" s="10"/>
+      <c r="H266" s="10"/>
+      <c r="I266" s="10">
         <f t="shared" si="45"/>
         <v>7.272594103894428</v>
       </c>
-      <c r="J266" s="56">
+      <c r="J266" s="10">
         <f t="shared" si="46"/>
         <v>23.645718428502018</v>
       </c>
-      <c r="K266" s="56">
+      <c r="K266" s="10">
         <f t="shared" si="47"/>
         <v>14.098857321704401</v>
       </c>
-      <c r="L266" s="56">
-        <f t="shared" ref="L265:L284" si="48">((B266-$F$280)^2+(C266-$G$280)^2+(D266-$H$280)^2)^0.5</f>
+      <c r="L266" s="10">
+        <f t="shared" ref="L266:L284" si="48">((B266-$F$280)^2+(C266-$G$280)^2+(D266-$H$280)^2)^0.5</f>
         <v>33.010301422434786</v>
       </c>
-      <c r="M266" s="57">
-        <v>3</v>
-      </c>
-      <c r="N266" s="56"/>
-      <c r="O266" s="56"/>
+      <c r="M266" s="41">
+        <v>3</v>
+      </c>
       <c r="P266" s="6"/>
     </row>
     <row r="267" spans="1:16" x14ac:dyDescent="0.25">
@@ -10867,36 +10564,34 @@
       <c r="C267" s="29">
         <v>9</v>
       </c>
-      <c r="D267" s="54">
+      <c r="D267" s="42">
         <v>62</v>
       </c>
-      <c r="E267" s="57">
-        <v>3</v>
-      </c>
-      <c r="F267" s="56"/>
-      <c r="G267" s="56"/>
-      <c r="H267" s="56"/>
-      <c r="I267" s="56">
+      <c r="E267" s="41">
+        <v>3</v>
+      </c>
+      <c r="F267" s="10"/>
+      <c r="G267" s="10"/>
+      <c r="H267" s="10"/>
+      <c r="I267" s="10">
         <f t="shared" si="45"/>
         <v>11.085604403910505</v>
       </c>
-      <c r="J267" s="56">
+      <c r="J267" s="10">
         <f t="shared" si="46"/>
         <v>41.98714088861017</v>
       </c>
-      <c r="K267" s="56">
+      <c r="K267" s="10">
         <f t="shared" si="47"/>
         <v>32.400274347260975</v>
       </c>
-      <c r="L267" s="56">
+      <c r="L267" s="10">
         <f t="shared" si="48"/>
         <v>51.356401743112805</v>
       </c>
-      <c r="M267" s="57">
-        <v>3</v>
-      </c>
-      <c r="N267" s="56"/>
-      <c r="O267" s="56"/>
+      <c r="M267" s="41">
+        <v>3</v>
+      </c>
       <c r="P267" s="6"/>
     </row>
     <row r="268" spans="1:16" x14ac:dyDescent="0.25">
@@ -10907,36 +10602,34 @@
       <c r="C268" s="29">
         <v>9</v>
       </c>
-      <c r="D268" s="54">
+      <c r="D268" s="42">
         <v>64</v>
       </c>
-      <c r="E268" s="57">
-        <v>3</v>
-      </c>
-      <c r="F268" s="56"/>
-      <c r="G268" s="56"/>
-      <c r="H268" s="56"/>
-      <c r="I268" s="56">
+      <c r="E268" s="41">
+        <v>3</v>
+      </c>
+      <c r="F268" s="10"/>
+      <c r="G268" s="10"/>
+      <c r="H268" s="10"/>
+      <c r="I268" s="10">
         <f t="shared" si="45"/>
         <v>13.05337600010051</v>
       </c>
-      <c r="J268" s="56">
+      <c r="J268" s="10">
         <f t="shared" si="46"/>
         <v>43.960436758521858</v>
       </c>
-      <c r="K268" s="56">
+      <c r="K268" s="10">
         <f t="shared" si="47"/>
         <v>34.376994891609968</v>
       </c>
-      <c r="L268" s="56">
+      <c r="L268" s="10">
         <f t="shared" si="48"/>
         <v>53.328041404124342</v>
       </c>
-      <c r="M268" s="57">
-        <v>3</v>
-      </c>
-      <c r="N268" s="56"/>
-      <c r="O268" s="56"/>
+      <c r="M268" s="41">
+        <v>3</v>
+      </c>
       <c r="P268" s="6"/>
     </row>
     <row r="269" spans="1:16" x14ac:dyDescent="0.25">
@@ -10947,36 +10640,34 @@
       <c r="C269" s="29">
         <v>8</v>
       </c>
-      <c r="D269" s="54">
+      <c r="D269" s="42">
         <v>56</v>
       </c>
-      <c r="E269" s="57">
-        <v>3</v>
-      </c>
-      <c r="F269" s="56"/>
-      <c r="G269" s="56"/>
-      <c r="H269" s="56"/>
-      <c r="I269" s="56">
+      <c r="E269" s="41">
+        <v>3</v>
+      </c>
+      <c r="F269" s="10"/>
+      <c r="G269" s="10"/>
+      <c r="H269" s="10"/>
+      <c r="I269" s="10">
         <f t="shared" si="45"/>
         <v>4.9386865662846029</v>
       </c>
-      <c r="J269" s="56">
+      <c r="J269" s="10">
         <f t="shared" si="46"/>
         <v>35.845780783796577</v>
       </c>
-      <c r="K269" s="56">
+      <c r="K269" s="10">
         <f t="shared" si="47"/>
         <v>26.276309566688479</v>
       </c>
-      <c r="L269" s="56">
+      <c r="L269" s="10">
         <f t="shared" si="48"/>
         <v>45.213714733474397</v>
       </c>
-      <c r="M269" s="57">
-        <v>3</v>
-      </c>
-      <c r="N269" s="56"/>
-      <c r="O269" s="56"/>
+      <c r="M269" s="41">
+        <v>3</v>
+      </c>
       <c r="P269" s="6"/>
     </row>
     <row r="270" spans="1:16" x14ac:dyDescent="0.25">
@@ -10987,36 +10678,34 @@
       <c r="C270" s="29">
         <v>6</v>
       </c>
-      <c r="D270" s="54">
+      <c r="D270" s="42">
         <v>44</v>
       </c>
-      <c r="E270" s="57">
-        <v>3</v>
-      </c>
-      <c r="F270" s="56"/>
-      <c r="G270" s="56"/>
-      <c r="H270" s="56"/>
-      <c r="I270" s="56">
+      <c r="E270" s="41">
+        <v>3</v>
+      </c>
+      <c r="F270" s="10"/>
+      <c r="G270" s="10"/>
+      <c r="H270" s="10"/>
+      <c r="I270" s="10">
         <f t="shared" si="45"/>
         <v>7.272594103894428</v>
       </c>
-      <c r="J270" s="56">
+      <c r="J270" s="10">
         <f t="shared" si="46"/>
         <v>23.645718428502018</v>
       </c>
-      <c r="K270" s="56">
+      <c r="K270" s="10">
         <f t="shared" si="47"/>
         <v>14.098857321704401</v>
       </c>
-      <c r="L270" s="56">
+      <c r="L270" s="10">
         <f t="shared" si="48"/>
         <v>33.010301422434786</v>
       </c>
-      <c r="M270" s="57">
-        <v>3</v>
-      </c>
-      <c r="N270" s="56"/>
-      <c r="O270" s="56"/>
+      <c r="M270" s="41">
+        <v>3</v>
+      </c>
       <c r="P270" s="6"/>
     </row>
     <row r="271" spans="1:16" x14ac:dyDescent="0.25">
@@ -11027,36 +10716,34 @@
       <c r="C271" s="29">
         <v>6</v>
       </c>
-      <c r="D271" s="54">
+      <c r="D271" s="42">
         <v>41</v>
       </c>
-      <c r="E271" s="57">
-        <v>3</v>
-      </c>
-      <c r="F271" s="56"/>
-      <c r="G271" s="56"/>
-      <c r="H271" s="56"/>
-      <c r="I271" s="56">
+      <c r="E271" s="41">
+        <v>3</v>
+      </c>
+      <c r="F271" s="10"/>
+      <c r="G271" s="10"/>
+      <c r="H271" s="10"/>
+      <c r="I271" s="10">
         <f t="shared" si="45"/>
         <v>10.229400031282383</v>
       </c>
-      <c r="J271" s="56">
+      <c r="J271" s="10">
         <f t="shared" si="46"/>
         <v>20.681392603013947</v>
       </c>
-      <c r="K271" s="56">
+      <c r="K271" s="10">
         <f t="shared" si="47"/>
         <v>11.125546178852424</v>
       </c>
-      <c r="L271" s="56">
+      <c r="L271" s="10">
         <f t="shared" si="48"/>
         <v>30.051289489803928</v>
       </c>
-      <c r="M271" s="57">
-        <v>3</v>
-      </c>
-      <c r="N271" s="56"/>
-      <c r="O271" s="56"/>
+      <c r="M271" s="41">
+        <v>3</v>
+      </c>
       <c r="P271" s="6"/>
     </row>
     <row r="272" spans="1:16" x14ac:dyDescent="0.25">
@@ -11067,45 +10754,43 @@
       <c r="C272" s="29">
         <v>3</v>
       </c>
-      <c r="D272" s="54">
+      <c r="D272" s="42">
         <v>24</v>
       </c>
-      <c r="E272" s="57">
-        <v>2</v>
-      </c>
-      <c r="F272" s="56">
+      <c r="E272" s="51">
+        <v>2</v>
+      </c>
+      <c r="F272" s="52">
         <f>AVERAGE(B272:B276)</f>
         <v>1.4</v>
       </c>
-      <c r="G272" s="56">
+      <c r="G272" s="52">
         <f t="shared" ref="G272:H272" si="49">AVERAGE(C272:C276)</f>
         <v>3</v>
       </c>
-      <c r="H272" s="56">
+      <c r="H272" s="52">
         <f t="shared" si="49"/>
         <v>20.6</v>
       </c>
-      <c r="I272" s="56">
+      <c r="I272" s="10">
         <f t="shared" si="45"/>
         <v>27.51164526159786</v>
       </c>
-      <c r="J272" s="56">
+      <c r="J272" s="10">
         <f t="shared" si="46"/>
         <v>3.4525353003264123</v>
       </c>
-      <c r="K272" s="56">
+      <c r="K272" s="10">
         <f t="shared" si="47"/>
         <v>6.2271805640898013</v>
       </c>
-      <c r="L272" s="56">
+      <c r="L272" s="10">
         <f t="shared" si="48"/>
         <v>12.778106275970631</v>
       </c>
-      <c r="M272" s="57">
-        <v>2</v>
-      </c>
-      <c r="N272" s="56"/>
-      <c r="O272" s="56"/>
+      <c r="M272" s="41">
+        <v>2</v>
+      </c>
       <c r="P272" s="6"/>
     </row>
     <row r="273" spans="1:16" x14ac:dyDescent="0.25">
@@ -11116,36 +10801,34 @@
       <c r="C273" s="29">
         <v>3</v>
       </c>
-      <c r="D273" s="54">
+      <c r="D273" s="42">
         <v>24</v>
       </c>
-      <c r="E273" s="57">
-        <v>2</v>
-      </c>
-      <c r="F273" s="56"/>
-      <c r="G273" s="56"/>
-      <c r="H273" s="56"/>
-      <c r="I273" s="56">
+      <c r="E273" s="41">
+        <v>2</v>
+      </c>
+      <c r="F273" s="10"/>
+      <c r="G273" s="10"/>
+      <c r="H273" s="10"/>
+      <c r="I273" s="10">
         <f t="shared" si="45"/>
         <v>27.51164526159786</v>
       </c>
-      <c r="J273" s="56">
+      <c r="J273" s="10">
         <f t="shared" si="46"/>
         <v>3.4525353003264123</v>
       </c>
-      <c r="K273" s="56">
+      <c r="K273" s="10">
         <f t="shared" si="47"/>
         <v>6.2271805640898013</v>
       </c>
-      <c r="L273" s="56">
-        <f t="shared" si="48"/>
+      <c r="L273" s="10">
+        <f>((B273-$F$280)^2+(C273-$G$280)^2+(D273-$H$280)^2)^0.5</f>
         <v>12.778106275970631</v>
       </c>
-      <c r="M273" s="57">
-        <v>2</v>
-      </c>
-      <c r="N273" s="56"/>
-      <c r="O273" s="56"/>
+      <c r="M273" s="41">
+        <v>2</v>
+      </c>
       <c r="P273" s="6"/>
     </row>
     <row r="274" spans="1:16" x14ac:dyDescent="0.25">
@@ -11156,36 +10839,34 @@
       <c r="C274" s="29">
         <v>3</v>
       </c>
-      <c r="D274" s="54">
+      <c r="D274" s="42">
         <v>19</v>
       </c>
-      <c r="E274" s="57">
-        <v>2</v>
-      </c>
-      <c r="F274" s="56"/>
-      <c r="G274" s="56"/>
-      <c r="H274" s="56"/>
-      <c r="I274" s="56">
+      <c r="E274" s="41">
+        <v>2</v>
+      </c>
+      <c r="F274" s="10"/>
+      <c r="G274" s="10"/>
+      <c r="H274" s="10"/>
+      <c r="I274" s="10">
         <f t="shared" si="45"/>
         <v>32.521387193660729</v>
       </c>
-      <c r="J274" s="56">
+      <c r="J274" s="10">
         <f t="shared" si="46"/>
         <v>1.6492422502470654</v>
       </c>
-      <c r="K274" s="56">
+      <c r="K274" s="10">
         <f t="shared" si="47"/>
         <v>11.259563836036357</v>
       </c>
-      <c r="L274" s="56">
+      <c r="L274" s="10">
         <f t="shared" si="48"/>
         <v>7.7768888380894321</v>
       </c>
-      <c r="M274" s="57">
-        <v>2</v>
-      </c>
-      <c r="N274" s="56"/>
-      <c r="O274" s="56"/>
+      <c r="M274" s="41">
+        <v>2</v>
+      </c>
       <c r="P274" s="6"/>
     </row>
     <row r="275" spans="1:16" x14ac:dyDescent="0.25">
@@ -11196,36 +10877,34 @@
       <c r="C275" s="29">
         <v>3</v>
       </c>
-      <c r="D275" s="54">
+      <c r="D275" s="42">
         <v>18</v>
       </c>
-      <c r="E275" s="57">
-        <v>2</v>
-      </c>
-      <c r="F275" s="56"/>
-      <c r="G275" s="56"/>
-      <c r="H275" s="56"/>
-      <c r="I275" s="56">
+      <c r="E275" s="41">
+        <v>2</v>
+      </c>
+      <c r="F275" s="10"/>
+      <c r="G275" s="10"/>
+      <c r="H275" s="10"/>
+      <c r="I275" s="10">
         <f t="shared" si="45"/>
         <v>33.509560203022659</v>
       </c>
-      <c r="J275" s="56">
+      <c r="J275" s="10">
         <f t="shared" si="46"/>
         <v>2.6305892875931827</v>
       </c>
-      <c r="K275" s="56">
+      <c r="K275" s="10">
         <f t="shared" si="47"/>
         <v>12.238373167123878</v>
       </c>
-      <c r="L275" s="56">
+      <c r="L275" s="10">
         <f t="shared" si="48"/>
         <v>6.8029405406779793</v>
       </c>
-      <c r="M275" s="57">
-        <v>2</v>
-      </c>
-      <c r="N275" s="56"/>
-      <c r="O275" s="56"/>
+      <c r="M275" s="41">
+        <v>2</v>
+      </c>
       <c r="P275" s="6"/>
     </row>
     <row r="276" spans="1:16" x14ac:dyDescent="0.25">
@@ -11236,36 +10915,34 @@
       <c r="C276" s="29">
         <v>3</v>
       </c>
-      <c r="D276" s="54">
+      <c r="D276" s="42">
         <v>18</v>
       </c>
-      <c r="E276" s="57">
-        <v>2</v>
-      </c>
-      <c r="F276" s="56"/>
-      <c r="G276" s="56"/>
-      <c r="H276" s="56"/>
-      <c r="I276" s="56">
+      <c r="E276" s="41">
+        <v>2</v>
+      </c>
+      <c r="F276" s="10"/>
+      <c r="G276" s="10"/>
+      <c r="H276" s="10"/>
+      <c r="I276" s="10">
         <f t="shared" si="45"/>
         <v>33.509560203022659</v>
       </c>
-      <c r="J276" s="56">
+      <c r="J276" s="10">
         <f t="shared" si="46"/>
         <v>2.6305892875931827</v>
       </c>
-      <c r="K276" s="56">
+      <c r="K276" s="10">
         <f t="shared" si="47"/>
         <v>12.238373167123878</v>
       </c>
-      <c r="L276" s="56">
+      <c r="L276" s="10">
         <f t="shared" si="48"/>
         <v>6.8029405406779793</v>
       </c>
-      <c r="M276" s="57">
-        <v>2</v>
-      </c>
-      <c r="N276" s="56"/>
-      <c r="O276" s="56"/>
+      <c r="M276" s="41">
+        <v>2</v>
+      </c>
       <c r="P276" s="6"/>
     </row>
     <row r="277" spans="1:16" x14ac:dyDescent="0.25">
@@ -11276,45 +10953,43 @@
       <c r="C277" s="29">
         <v>5</v>
       </c>
-      <c r="D277" s="54">
+      <c r="D277" s="42">
         <v>32</v>
       </c>
-      <c r="E277" s="57">
-        <v>1</v>
-      </c>
-      <c r="F277" s="56">
+      <c r="E277" s="44">
+        <v>1</v>
+      </c>
+      <c r="F277" s="45">
         <f>AVERAGE(B277:B279)</f>
         <v>3</v>
       </c>
-      <c r="G277" s="56">
+      <c r="G277" s="45">
         <f t="shared" ref="G277:H277" si="50">AVERAGE(C277:C279)</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="H277" s="56">
+      <c r="H277" s="45">
         <f t="shared" si="50"/>
         <v>30</v>
       </c>
-      <c r="I277" s="56">
+      <c r="I277" s="10">
         <f t="shared" si="45"/>
         <v>19.271497736294396</v>
       </c>
-      <c r="J277" s="56">
+      <c r="J277" s="10">
         <f t="shared" si="46"/>
         <v>11.684177335182824</v>
       </c>
-      <c r="K277" s="56">
+      <c r="K277" s="10">
         <f t="shared" si="47"/>
         <v>2.1081851067789197</v>
       </c>
-      <c r="L277" s="56">
+      <c r="L277" s="10">
         <f t="shared" si="48"/>
         <v>21.049465551410091</v>
       </c>
-      <c r="M277" s="57">
-        <v>1</v>
-      </c>
-      <c r="N277" s="56"/>
-      <c r="O277" s="56"/>
+      <c r="M277" s="41">
+        <v>1</v>
+      </c>
       <c r="P277" s="6"/>
     </row>
     <row r="278" spans="1:16" x14ac:dyDescent="0.25">
@@ -11325,36 +11000,34 @@
       <c r="C278" s="29">
         <v>4</v>
       </c>
-      <c r="D278" s="54">
+      <c r="D278" s="42">
         <v>30</v>
       </c>
-      <c r="E278" s="57">
-        <v>1</v>
-      </c>
-      <c r="F278" s="56"/>
-      <c r="G278" s="56"/>
-      <c r="H278" s="56"/>
-      <c r="I278" s="56">
+      <c r="E278" s="41">
+        <v>1</v>
+      </c>
+      <c r="F278" s="10"/>
+      <c r="G278" s="10"/>
+      <c r="H278" s="10"/>
+      <c r="I278" s="10">
         <f t="shared" si="45"/>
         <v>21.445060620105508</v>
       </c>
-      <c r="J278" s="56">
+      <c r="J278" s="10">
         <f t="shared" si="46"/>
         <v>9.472064188971693</v>
       </c>
-      <c r="K278" s="56">
+      <c r="K278" s="10">
         <f t="shared" si="47"/>
         <v>1.0540925533894596</v>
       </c>
-      <c r="L278" s="56">
+      <c r="L278" s="10">
         <f t="shared" si="48"/>
         <v>18.832949848603114</v>
       </c>
-      <c r="M278" s="57">
-        <v>1</v>
-      </c>
-      <c r="N278" s="56"/>
-      <c r="O278" s="56"/>
+      <c r="M278" s="41">
+        <v>1</v>
+      </c>
       <c r="P278" s="6"/>
     </row>
     <row r="279" spans="1:16" x14ac:dyDescent="0.25">
@@ -11365,36 +11038,34 @@
       <c r="C279" s="29">
         <v>4</v>
       </c>
-      <c r="D279" s="54">
+      <c r="D279" s="42">
         <v>28</v>
       </c>
-      <c r="E279" s="57">
-        <v>1</v>
-      </c>
-      <c r="F279" s="56"/>
-      <c r="G279" s="56"/>
-      <c r="H279" s="56"/>
-      <c r="I279" s="56">
+      <c r="E279" s="41">
+        <v>1</v>
+      </c>
+      <c r="F279" s="10"/>
+      <c r="G279" s="10"/>
+      <c r="H279" s="10"/>
+      <c r="I279" s="10">
         <f t="shared" si="45"/>
         <v>23.353599829576595</v>
       </c>
-      <c r="J279" s="56">
+      <c r="J279" s="10">
         <f t="shared" si="46"/>
         <v>7.9069589603083168</v>
       </c>
-      <c r="K279" s="56">
+      <c r="K279" s="10">
         <f t="shared" si="47"/>
         <v>2.2607766610417559</v>
       </c>
-      <c r="L279" s="56">
+      <c r="L279" s="10">
         <f t="shared" si="48"/>
         <v>17.142928571279764</v>
       </c>
-      <c r="M279" s="57">
-        <v>1</v>
-      </c>
-      <c r="N279" s="56"/>
-      <c r="O279" s="56"/>
+      <c r="M279" s="41">
+        <v>1</v>
+      </c>
       <c r="P279" s="6"/>
     </row>
     <row r="280" spans="1:16" x14ac:dyDescent="0.25">
@@ -11405,45 +11076,43 @@
       <c r="C280" s="29">
         <v>1</v>
       </c>
-      <c r="D280" s="54">
+      <c r="D280" s="42">
         <v>5</v>
       </c>
-      <c r="E280" s="57">
+      <c r="E280" s="48">
         <v>0</v>
       </c>
-      <c r="F280" s="56">
+      <c r="F280" s="49">
         <f>AVERAGE(B280:B284)</f>
         <v>0.6</v>
       </c>
-      <c r="G280" s="56">
+      <c r="G280" s="49">
         <f t="shared" ref="G280:H280" si="51">AVERAGE(C280:C284)</f>
         <v>1.4</v>
       </c>
-      <c r="H280" s="56">
+      <c r="H280" s="49">
         <f t="shared" si="51"/>
         <v>11.4</v>
       </c>
-      <c r="I280" s="56">
+      <c r="I280" s="10">
         <f t="shared" si="45"/>
         <v>46.697329955790835</v>
       </c>
-      <c r="J280" s="56">
+      <c r="J280" s="10">
         <f t="shared" si="46"/>
         <v>15.789870170460555</v>
       </c>
-      <c r="K280" s="56">
+      <c r="K280" s="10">
         <f t="shared" si="47"/>
         <v>25.399037602064986</v>
       </c>
-      <c r="L280" s="56">
+      <c r="L280" s="10">
         <f t="shared" si="48"/>
         <v>6.4404968752418483</v>
       </c>
-      <c r="M280" s="57">
+      <c r="M280" s="41">
         <v>0</v>
       </c>
-      <c r="N280" s="56"/>
-      <c r="O280" s="56"/>
       <c r="P280" s="6"/>
     </row>
     <row r="281" spans="1:16" x14ac:dyDescent="0.25">
@@ -11454,36 +11123,34 @@
       <c r="C281" s="29">
         <v>2</v>
       </c>
-      <c r="D281" s="54">
+      <c r="D281" s="42">
         <v>17</v>
       </c>
-      <c r="E281" s="57">
+      <c r="E281" s="41">
         <v>0</v>
       </c>
-      <c r="F281" s="56"/>
-      <c r="G281" s="56"/>
-      <c r="H281" s="56"/>
-      <c r="I281" s="56">
+      <c r="F281" s="10"/>
+      <c r="G281" s="10"/>
+      <c r="H281" s="10"/>
+      <c r="I281" s="10">
         <f t="shared" si="45"/>
         <v>34.635828631635192</v>
       </c>
-      <c r="J281" s="56">
+      <c r="J281" s="10">
         <f t="shared" si="46"/>
         <v>3.7576588456111883</v>
       </c>
-      <c r="K281" s="56">
+      <c r="K281" s="10">
         <f t="shared" si="47"/>
         <v>13.35830993967592</v>
       </c>
-      <c r="L281" s="56">
+      <c r="L281" s="10">
         <f t="shared" si="48"/>
         <v>5.6462376853972414</v>
       </c>
-      <c r="M281" s="57">
-        <v>2</v>
-      </c>
-      <c r="N281" s="56"/>
-      <c r="O281" s="56"/>
+      <c r="M281" s="41">
+        <v>2</v>
+      </c>
       <c r="P281" s="6"/>
     </row>
     <row r="282" spans="1:16" x14ac:dyDescent="0.25">
@@ -11494,36 +11161,34 @@
       <c r="C282" s="29">
         <v>2</v>
       </c>
-      <c r="D282" s="54">
+      <c r="D282" s="42">
         <v>17</v>
       </c>
-      <c r="E282" s="57">
+      <c r="E282" s="41">
         <v>0</v>
       </c>
-      <c r="F282" s="56"/>
-      <c r="G282" s="56"/>
-      <c r="H282" s="56"/>
-      <c r="I282" s="56">
+      <c r="F282" s="10"/>
+      <c r="G282" s="10"/>
+      <c r="H282" s="10"/>
+      <c r="I282" s="10">
         <f t="shared" si="45"/>
         <v>34.635828631635192</v>
       </c>
-      <c r="J282" s="56">
+      <c r="J282" s="10">
         <f t="shared" si="46"/>
         <v>3.7576588456111883</v>
       </c>
-      <c r="K282" s="56">
+      <c r="K282" s="10">
         <f t="shared" si="47"/>
         <v>13.35830993967592</v>
       </c>
-      <c r="L282" s="56">
+      <c r="L282" s="10">
         <f t="shared" si="48"/>
         <v>5.6462376853972414</v>
       </c>
-      <c r="M282" s="57">
-        <v>2</v>
-      </c>
-      <c r="N282" s="56"/>
-      <c r="O282" s="56"/>
+      <c r="M282" s="41">
+        <v>2</v>
+      </c>
       <c r="P282" s="6"/>
     </row>
     <row r="283" spans="1:16" x14ac:dyDescent="0.25">
@@ -11534,36 +11199,34 @@
       <c r="C283" s="29">
         <v>2</v>
       </c>
-      <c r="D283" s="54">
+      <c r="D283" s="42">
         <v>17</v>
       </c>
-      <c r="E283" s="57">
+      <c r="E283" s="41">
         <v>0</v>
       </c>
-      <c r="F283" s="56"/>
-      <c r="G283" s="56"/>
-      <c r="H283" s="56"/>
-      <c r="I283" s="56">
+      <c r="F283" s="10"/>
+      <c r="G283" s="10"/>
+      <c r="H283" s="10"/>
+      <c r="I283" s="10">
         <f t="shared" si="45"/>
         <v>34.635828631635192</v>
       </c>
-      <c r="J283" s="56">
+      <c r="J283" s="10">
         <f t="shared" si="46"/>
         <v>3.7576588456111883</v>
       </c>
-      <c r="K283" s="56">
+      <c r="K283" s="10">
         <f t="shared" si="47"/>
         <v>13.35830993967592</v>
       </c>
-      <c r="L283" s="56">
+      <c r="L283" s="10">
         <f t="shared" si="48"/>
         <v>5.6462376853972414</v>
       </c>
-      <c r="M283" s="57">
-        <v>2</v>
-      </c>
-      <c r="N283" s="56"/>
-      <c r="O283" s="56"/>
+      <c r="M283" s="41">
+        <v>2</v>
+      </c>
       <c r="P283" s="6"/>
     </row>
     <row r="284" spans="1:16" x14ac:dyDescent="0.25">
@@ -11574,92 +11237,53 @@
       <c r="C284" s="29">
         <v>0</v>
       </c>
-      <c r="D284" s="54">
-        <v>1</v>
-      </c>
-      <c r="E284" s="57">
+      <c r="D284" s="42">
+        <v>1</v>
+      </c>
+      <c r="E284" s="41">
         <v>0</v>
       </c>
-      <c r="F284" s="56"/>
-      <c r="G284" s="56"/>
-      <c r="H284" s="56"/>
-      <c r="I284" s="56">
+      <c r="F284" s="10"/>
+      <c r="G284" s="10"/>
+      <c r="H284" s="10"/>
+      <c r="I284" s="10">
         <f t="shared" si="45"/>
         <v>50.785240227845726</v>
       </c>
-      <c r="J284" s="56">
+      <c r="J284" s="10">
         <f t="shared" si="46"/>
         <v>19.877625612733532</v>
       </c>
-      <c r="K284" s="56">
+      <c r="K284" s="10">
         <f t="shared" si="47"/>
         <v>29.47503651868438</v>
       </c>
-      <c r="L284" s="56">
+      <c r="L284" s="10">
         <f t="shared" si="48"/>
         <v>10.510946674776731</v>
       </c>
-      <c r="M284" s="57">
+      <c r="M284" s="41">
         <v>0</v>
       </c>
-      <c r="N284" s="56"/>
-      <c r="O284" s="56"/>
       <c r="P284" s="6"/>
     </row>
     <row r="285" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A285" s="5"/>
-      <c r="B285" s="56"/>
-      <c r="C285" s="56"/>
-      <c r="D285" s="56"/>
-      <c r="E285" s="56"/>
-      <c r="F285" s="56"/>
-      <c r="G285" s="56"/>
-      <c r="H285" s="56"/>
-      <c r="I285" s="56"/>
-      <c r="J285" s="56"/>
-      <c r="K285" s="56"/>
-      <c r="L285" s="56"/>
-      <c r="M285" s="56"/>
-      <c r="N285" s="56"/>
-      <c r="O285" s="56"/>
       <c r="P285" s="6"/>
     </row>
     <row r="286" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A286" s="5"/>
-      <c r="B286" s="56"/>
-      <c r="C286" s="56"/>
-      <c r="D286" s="56"/>
-      <c r="E286" s="56"/>
-      <c r="F286" s="56"/>
-      <c r="G286" s="56"/>
-      <c r="H286" s="56"/>
-      <c r="I286" s="56"/>
-      <c r="J286" s="56"/>
-      <c r="K286" s="56"/>
-      <c r="L286" s="56"/>
-      <c r="M286" s="56"/>
-      <c r="N286" s="56"/>
-      <c r="O286" s="56"/>
       <c r="P286" s="6"/>
     </row>
     <row r="287" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A287" s="5"/>
-      <c r="B287" s="56"/>
-      <c r="C287" s="56"/>
-      <c r="D287" s="56"/>
       <c r="E287" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="F287" s="56"/>
-      <c r="G287" s="56"/>
-      <c r="H287" s="56"/>
-      <c r="I287" s="56"/>
-      <c r="J287" s="56"/>
-      <c r="K287" s="56"/>
-      <c r="L287" s="56"/>
-      <c r="M287" s="56"/>
-      <c r="N287" s="56"/>
-      <c r="O287" s="56"/>
+        <v>78</v>
+      </c>
+      <c r="I287" s="55"/>
+      <c r="J287" s="50"/>
+      <c r="K287" s="46"/>
+      <c r="L287" s="47"/>
       <c r="P287" s="6"/>
     </row>
     <row r="288" spans="1:16" x14ac:dyDescent="0.25">
@@ -11700,8 +11324,6 @@
       <c r="M288" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="N288" s="56"/>
-      <c r="O288" s="56"/>
       <c r="P288" s="6"/>
     </row>
     <row r="289" spans="1:16" x14ac:dyDescent="0.25">
@@ -11712,45 +11334,43 @@
       <c r="C289" s="29">
         <v>6</v>
       </c>
-      <c r="D289" s="54">
+      <c r="D289" s="42">
         <v>42</v>
       </c>
-      <c r="E289" s="57">
-        <v>3</v>
-      </c>
-      <c r="F289" s="56">
+      <c r="E289" s="53">
+        <v>3</v>
+      </c>
+      <c r="F289" s="54">
         <f>AVERAGE(B289:B296)</f>
         <v>3.75</v>
       </c>
-      <c r="G289" s="56">
+      <c r="G289" s="54">
         <f t="shared" ref="G289:H289" si="52">AVERAGE(C289:C296)</f>
         <v>7.25</v>
       </c>
-      <c r="H289" s="56">
+      <c r="H289" s="54">
         <f t="shared" si="52"/>
         <v>51.125</v>
       </c>
-      <c r="I289" s="56">
+      <c r="I289" s="10">
         <f>((B289-$F$289)^2+(C289-$G$289)^2+(D289-$H$289)^2)^0.5</f>
         <v>9.2407047891381104</v>
       </c>
-      <c r="J289" s="56">
+      <c r="J289" s="10">
         <f>((B289-$F$297)^2+(C289-$G$297)^2+(D289-$H$297)^2)^0.5</f>
         <v>23.065463901686435</v>
       </c>
-      <c r="K289" s="56">
+      <c r="K289" s="10">
         <f>((B289-$F$305)^2+(C289-$G$305)^2+(D289-$H$305)^2)^0.5</f>
         <v>12.115187896924166</v>
       </c>
-      <c r="L289" s="56">
+      <c r="L289" s="10">
         <f>((B289-$F$308)^2+(C289-$G$308)^2+(D289-$H$308)^2)^0.5</f>
         <v>39.5</v>
       </c>
-      <c r="M289" s="57">
-        <v>3</v>
-      </c>
-      <c r="N289" s="56"/>
-      <c r="O289" s="56"/>
+      <c r="M289" s="41">
+        <v>3</v>
+      </c>
       <c r="P289" s="6"/>
     </row>
     <row r="290" spans="1:16" x14ac:dyDescent="0.25">
@@ -11761,36 +11381,34 @@
       <c r="C290" s="29">
         <v>8</v>
       </c>
-      <c r="D290" s="54">
+      <c r="D290" s="42">
         <v>56</v>
       </c>
-      <c r="E290" s="57">
-        <v>3</v>
-      </c>
-      <c r="F290" s="56"/>
-      <c r="G290" s="56"/>
-      <c r="H290" s="56"/>
-      <c r="I290" s="56">
+      <c r="E290" s="41">
+        <v>3</v>
+      </c>
+      <c r="F290" s="10"/>
+      <c r="G290" s="10"/>
+      <c r="H290" s="10"/>
+      <c r="I290" s="10">
         <f t="shared" ref="I290:I309" si="53">((B290-$F$289)^2+(C290-$G$289)^2+(D290-$H$289)^2)^0.5</f>
         <v>4.9386865662846029</v>
       </c>
-      <c r="J290" s="56">
+      <c r="J290" s="10">
         <f t="shared" ref="J290:J309" si="54">((B290-$F$297)^2+(C290-$G$297)^2+(D290-$H$297)^2)^0.5</f>
         <v>37.242658672549148</v>
       </c>
-      <c r="K290" s="56">
+      <c r="K290" s="10">
         <f t="shared" ref="K290:K309" si="55">((B290-$F$305)^2+(C290-$G$305)^2+(D290-$H$305)^2)^0.5</f>
         <v>26.276309566688479</v>
       </c>
-      <c r="L290" s="56">
+      <c r="L290" s="10">
         <f t="shared" ref="L290:L309" si="56">((B290-$F$308)^2+(C290-$G$308)^2+(D290-$H$308)^2)^0.5</f>
         <v>53.677276383959722</v>
       </c>
-      <c r="M290" s="57">
-        <v>3</v>
-      </c>
-      <c r="N290" s="56"/>
-      <c r="O290" s="56"/>
+      <c r="M290" s="41">
+        <v>3</v>
+      </c>
       <c r="P290" s="6"/>
     </row>
     <row r="291" spans="1:16" x14ac:dyDescent="0.25">
@@ -11801,36 +11419,34 @@
       <c r="C291" s="29">
         <v>6</v>
       </c>
-      <c r="D291" s="54">
+      <c r="D291" s="42">
         <v>44</v>
       </c>
-      <c r="E291" s="57">
-        <v>3</v>
-      </c>
-      <c r="F291" s="56"/>
-      <c r="G291" s="56"/>
-      <c r="H291" s="56"/>
-      <c r="I291" s="56">
+      <c r="E291" s="41">
+        <v>3</v>
+      </c>
+      <c r="F291" s="10"/>
+      <c r="G291" s="10"/>
+      <c r="H291" s="10"/>
+      <c r="I291" s="10">
         <f t="shared" si="53"/>
         <v>7.272594103894428</v>
       </c>
-      <c r="J291" s="56">
+      <c r="J291" s="10">
         <f t="shared" si="54"/>
         <v>25.040280050350873</v>
       </c>
-      <c r="K291" s="56">
+      <c r="K291" s="10">
         <f t="shared" si="55"/>
         <v>14.098857321704401</v>
       </c>
-      <c r="L291" s="56">
+      <c r="L291" s="10">
         <f t="shared" si="56"/>
         <v>41.475896614780979</v>
       </c>
-      <c r="M291" s="57">
-        <v>3</v>
-      </c>
-      <c r="N291" s="56"/>
-      <c r="O291" s="56"/>
+      <c r="M291" s="41">
+        <v>3</v>
+      </c>
       <c r="P291" s="6"/>
     </row>
     <row r="292" spans="1:16" x14ac:dyDescent="0.25">
@@ -11841,36 +11457,34 @@
       <c r="C292" s="29">
         <v>9</v>
       </c>
-      <c r="D292" s="54">
+      <c r="D292" s="42">
         <v>62</v>
       </c>
-      <c r="E292" s="57">
-        <v>3</v>
-      </c>
-      <c r="F292" s="56"/>
-      <c r="G292" s="56"/>
-      <c r="H292" s="56"/>
-      <c r="I292" s="56">
+      <c r="E292" s="41">
+        <v>3</v>
+      </c>
+      <c r="F292" s="10"/>
+      <c r="G292" s="10"/>
+      <c r="H292" s="10"/>
+      <c r="I292" s="10">
         <f t="shared" si="53"/>
         <v>11.085604403910505</v>
       </c>
-      <c r="J292" s="56">
+      <c r="J292" s="10">
         <f t="shared" si="54"/>
         <v>43.385085282848067</v>
       </c>
-      <c r="K292" s="56">
+      <c r="K292" s="10">
         <f t="shared" si="55"/>
         <v>32.400274347260975</v>
       </c>
-      <c r="L292" s="56">
+      <c r="L292" s="10">
         <f t="shared" si="56"/>
         <v>59.818475406850681</v>
       </c>
-      <c r="M292" s="57">
-        <v>3</v>
-      </c>
-      <c r="N292" s="56"/>
-      <c r="O292" s="56"/>
+      <c r="M292" s="41">
+        <v>3</v>
+      </c>
       <c r="P292" s="6"/>
     </row>
     <row r="293" spans="1:16" x14ac:dyDescent="0.25">
@@ -11881,36 +11495,34 @@
       <c r="C293" s="29">
         <v>9</v>
       </c>
-      <c r="D293" s="54">
+      <c r="D293" s="42">
         <v>64</v>
       </c>
-      <c r="E293" s="57">
-        <v>3</v>
-      </c>
-      <c r="F293" s="56"/>
-      <c r="G293" s="56"/>
-      <c r="H293" s="56"/>
-      <c r="I293" s="56">
+      <c r="E293" s="41">
+        <v>3</v>
+      </c>
+      <c r="F293" s="10"/>
+      <c r="G293" s="10"/>
+      <c r="H293" s="10"/>
+      <c r="I293" s="10">
         <f t="shared" si="53"/>
         <v>13.05337600010051</v>
       </c>
-      <c r="J293" s="56">
+      <c r="J293" s="10">
         <f t="shared" si="54"/>
         <v>45.357090129328185</v>
       </c>
-      <c r="K293" s="56">
+      <c r="K293" s="10">
         <f t="shared" si="55"/>
         <v>34.376994891609968</v>
       </c>
-      <c r="L293" s="56">
+      <c r="L293" s="10">
         <f t="shared" si="56"/>
         <v>61.791989772137939</v>
       </c>
-      <c r="M293" s="57">
-        <v>3</v>
-      </c>
-      <c r="N293" s="56"/>
-      <c r="O293" s="56"/>
+      <c r="M293" s="41">
+        <v>3</v>
+      </c>
       <c r="P293" s="6"/>
     </row>
     <row r="294" spans="1:16" x14ac:dyDescent="0.25">
@@ -11921,36 +11533,34 @@
       <c r="C294" s="29">
         <v>8</v>
       </c>
-      <c r="D294" s="54">
+      <c r="D294" s="42">
         <v>56</v>
       </c>
-      <c r="E294" s="57">
-        <v>3</v>
-      </c>
-      <c r="F294" s="56"/>
-      <c r="G294" s="56"/>
-      <c r="H294" s="56"/>
-      <c r="I294" s="56">
+      <c r="E294" s="41">
+        <v>3</v>
+      </c>
+      <c r="F294" s="10"/>
+      <c r="G294" s="10"/>
+      <c r="H294" s="10"/>
+      <c r="I294" s="10">
         <f t="shared" si="53"/>
         <v>4.9386865662846029</v>
       </c>
-      <c r="J294" s="56">
+      <c r="J294" s="10">
         <f t="shared" si="54"/>
         <v>37.242658672549148</v>
       </c>
-      <c r="K294" s="56">
+      <c r="K294" s="10">
         <f t="shared" si="55"/>
         <v>26.276309566688479</v>
       </c>
-      <c r="L294" s="56">
+      <c r="L294" s="10">
         <f t="shared" si="56"/>
         <v>53.677276383959722</v>
       </c>
-      <c r="M294" s="57">
-        <v>3</v>
-      </c>
-      <c r="N294" s="56"/>
-      <c r="O294" s="56"/>
+      <c r="M294" s="41">
+        <v>3</v>
+      </c>
       <c r="P294" s="6"/>
     </row>
     <row r="295" spans="1:16" x14ac:dyDescent="0.25">
@@ -11961,36 +11571,34 @@
       <c r="C295" s="29">
         <v>6</v>
       </c>
-      <c r="D295" s="54">
+      <c r="D295" s="42">
         <v>44</v>
       </c>
-      <c r="E295" s="57">
-        <v>3</v>
-      </c>
-      <c r="F295" s="56"/>
-      <c r="G295" s="56"/>
-      <c r="H295" s="56"/>
-      <c r="I295" s="56">
+      <c r="E295" s="41">
+        <v>3</v>
+      </c>
+      <c r="F295" s="10"/>
+      <c r="G295" s="10"/>
+      <c r="H295" s="10"/>
+      <c r="I295" s="10">
         <f t="shared" si="53"/>
         <v>7.272594103894428</v>
       </c>
-      <c r="J295" s="56">
+      <c r="J295" s="10">
         <f>((B295-$F$297)^2+(C295-$G$297)^2+(D295-$H$297)^2)^0.5</f>
         <v>25.040280050350873</v>
       </c>
-      <c r="K295" s="56">
+      <c r="K295" s="10">
         <f t="shared" si="55"/>
         <v>14.098857321704401</v>
       </c>
-      <c r="L295" s="56">
+      <c r="L295" s="10">
         <f t="shared" si="56"/>
         <v>41.475896614780979</v>
       </c>
-      <c r="M295" s="57">
-        <v>3</v>
-      </c>
-      <c r="N295" s="56"/>
-      <c r="O295" s="56"/>
+      <c r="M295" s="41">
+        <v>3</v>
+      </c>
       <c r="P295" s="6"/>
     </row>
     <row r="296" spans="1:16" x14ac:dyDescent="0.25">
@@ -12001,36 +11609,34 @@
       <c r="C296" s="29">
         <v>6</v>
       </c>
-      <c r="D296" s="54">
+      <c r="D296" s="42">
         <v>41</v>
       </c>
-      <c r="E296" s="57">
-        <v>3</v>
-      </c>
-      <c r="F296" s="56"/>
-      <c r="G296" s="56"/>
-      <c r="H296" s="56"/>
-      <c r="I296" s="56">
+      <c r="E296" s="41">
+        <v>3</v>
+      </c>
+      <c r="F296" s="10"/>
+      <c r="G296" s="10"/>
+      <c r="H296" s="10"/>
+      <c r="I296" s="10">
         <f t="shared" si="53"/>
         <v>10.229400031282383</v>
       </c>
-      <c r="J296" s="56">
+      <c r="J296" s="10">
         <f t="shared" si="54"/>
         <v>22.079755999557605</v>
       </c>
-      <c r="K296" s="56">
+      <c r="K296" s="10">
         <f t="shared" si="55"/>
         <v>11.125546178852424</v>
       </c>
-      <c r="L296" s="56">
+      <c r="L296" s="10">
         <f t="shared" si="56"/>
         <v>38.512984823303427</v>
       </c>
-      <c r="M296" s="57">
-        <v>3</v>
-      </c>
-      <c r="N296" s="56"/>
-      <c r="O296" s="56"/>
+      <c r="M296" s="41">
+        <v>3</v>
+      </c>
       <c r="P296" s="6"/>
     </row>
     <row r="297" spans="1:16" x14ac:dyDescent="0.25">
@@ -12041,45 +11647,43 @@
       <c r="C297" s="29">
         <v>3</v>
       </c>
-      <c r="D297" s="54">
+      <c r="D297" s="42">
         <v>24</v>
       </c>
-      <c r="E297" s="57">
-        <v>2</v>
-      </c>
-      <c r="F297" s="56">
+      <c r="E297" s="51">
+        <v>2</v>
+      </c>
+      <c r="F297" s="52">
         <f>AVERAGE(B297:B304)</f>
         <v>1.25</v>
       </c>
-      <c r="G297" s="56">
+      <c r="G297" s="52">
         <f t="shared" ref="G297:H297" si="57">AVERAGE(C297:C304)</f>
         <v>2.625</v>
       </c>
-      <c r="H297" s="56">
+      <c r="H297" s="52">
         <f t="shared" si="57"/>
         <v>19.25</v>
       </c>
-      <c r="I297" s="56">
+      <c r="I297" s="10">
         <f t="shared" si="53"/>
         <v>27.51164526159786</v>
       </c>
-      <c r="J297" s="56">
+      <c r="J297" s="10">
         <f t="shared" si="54"/>
         <v>4.8234453453936847</v>
       </c>
-      <c r="K297" s="56">
+      <c r="K297" s="10">
         <f t="shared" si="55"/>
         <v>6.2271805640898013</v>
       </c>
-      <c r="L297" s="56">
+      <c r="L297" s="10">
         <f t="shared" si="56"/>
         <v>21.242645786248001</v>
       </c>
-      <c r="M297" s="57">
-        <v>2</v>
-      </c>
-      <c r="N297" s="56"/>
-      <c r="O297" s="56"/>
+      <c r="M297" s="41">
+        <v>2</v>
+      </c>
       <c r="P297" s="6"/>
     </row>
     <row r="298" spans="1:16" x14ac:dyDescent="0.25">
@@ -12090,36 +11694,34 @@
       <c r="C298" s="29">
         <v>3</v>
       </c>
-      <c r="D298" s="54">
+      <c r="D298" s="42">
         <v>24</v>
       </c>
-      <c r="E298" s="57">
-        <v>2</v>
-      </c>
-      <c r="F298" s="56"/>
-      <c r="G298" s="56"/>
-      <c r="H298" s="56"/>
-      <c r="I298" s="56">
+      <c r="E298" s="41">
+        <v>2</v>
+      </c>
+      <c r="F298" s="10"/>
+      <c r="G298" s="10"/>
+      <c r="H298" s="10"/>
+      <c r="I298" s="10">
         <f t="shared" si="53"/>
         <v>27.51164526159786</v>
       </c>
-      <c r="J298" s="56">
+      <c r="J298" s="10">
         <f t="shared" si="54"/>
         <v>4.8234453453936847</v>
       </c>
-      <c r="K298" s="56">
+      <c r="K298" s="10">
         <f t="shared" si="55"/>
         <v>6.2271805640898013</v>
       </c>
-      <c r="L298" s="56">
+      <c r="L298" s="10">
         <f t="shared" si="56"/>
         <v>21.242645786248001</v>
       </c>
-      <c r="M298" s="57">
-        <v>2</v>
-      </c>
-      <c r="N298" s="56"/>
-      <c r="O298" s="56"/>
+      <c r="M298" s="41">
+        <v>2</v>
+      </c>
       <c r="P298" s="6"/>
     </row>
     <row r="299" spans="1:16" x14ac:dyDescent="0.25">
@@ -12130,36 +11732,34 @@
       <c r="C299" s="29">
         <v>3</v>
       </c>
-      <c r="D299" s="54">
+      <c r="D299" s="42">
         <v>19</v>
       </c>
-      <c r="E299" s="57">
-        <v>2</v>
-      </c>
-      <c r="F299" s="56"/>
-      <c r="G299" s="56"/>
-      <c r="H299" s="56"/>
-      <c r="I299" s="56">
+      <c r="E299" s="41">
+        <v>2</v>
+      </c>
+      <c r="F299" s="10"/>
+      <c r="G299" s="10"/>
+      <c r="H299" s="10"/>
+      <c r="I299" s="10">
         <f t="shared" si="53"/>
         <v>32.521387193660729</v>
       </c>
-      <c r="J299" s="56">
+      <c r="J299" s="10">
         <f t="shared" si="54"/>
         <v>0.51538820320220757</v>
       </c>
-      <c r="K299" s="56">
+      <c r="K299" s="10">
         <f t="shared" si="55"/>
         <v>11.259563836036357</v>
       </c>
-      <c r="L299" s="56">
+      <c r="L299" s="10">
         <f t="shared" si="56"/>
         <v>16.224980739587952</v>
       </c>
-      <c r="M299" s="57">
-        <v>2</v>
-      </c>
-      <c r="N299" s="56"/>
-      <c r="O299" s="56"/>
+      <c r="M299" s="41">
+        <v>2</v>
+      </c>
       <c r="P299" s="6"/>
     </row>
     <row r="300" spans="1:16" x14ac:dyDescent="0.25">
@@ -12170,36 +11770,34 @@
       <c r="C300" s="29">
         <v>3</v>
       </c>
-      <c r="D300" s="54">
+      <c r="D300" s="42">
         <v>18</v>
       </c>
-      <c r="E300" s="57">
-        <v>2</v>
-      </c>
-      <c r="F300" s="56"/>
-      <c r="G300" s="56"/>
-      <c r="H300" s="56"/>
-      <c r="I300" s="56">
+      <c r="E300" s="41">
+        <v>2</v>
+      </c>
+      <c r="F300" s="10"/>
+      <c r="G300" s="10"/>
+      <c r="H300" s="10"/>
+      <c r="I300" s="10">
         <f t="shared" si="53"/>
         <v>33.509560203022659</v>
       </c>
-      <c r="J300" s="56">
+      <c r="J300" s="10">
         <f t="shared" si="54"/>
         <v>1.3287682265918312</v>
       </c>
-      <c r="K300" s="56">
+      <c r="K300" s="10">
         <f t="shared" si="55"/>
         <v>12.238373167123878</v>
       </c>
-      <c r="L300" s="56">
+      <c r="L300" s="10">
         <f t="shared" si="56"/>
         <v>15.239750654128171</v>
       </c>
-      <c r="M300" s="57">
-        <v>2</v>
-      </c>
-      <c r="N300" s="56"/>
-      <c r="O300" s="56"/>
+      <c r="M300" s="41">
+        <v>2</v>
+      </c>
       <c r="P300" s="6"/>
     </row>
     <row r="301" spans="1:16" x14ac:dyDescent="0.25">
@@ -12210,36 +11808,34 @@
       <c r="C301" s="29">
         <v>3</v>
       </c>
-      <c r="D301" s="54">
+      <c r="D301" s="42">
         <v>18</v>
       </c>
-      <c r="E301" s="57">
-        <v>2</v>
-      </c>
-      <c r="F301" s="56"/>
-      <c r="G301" s="56"/>
-      <c r="H301" s="56"/>
-      <c r="I301" s="56">
+      <c r="E301" s="41">
+        <v>2</v>
+      </c>
+      <c r="F301" s="10"/>
+      <c r="G301" s="10"/>
+      <c r="H301" s="10"/>
+      <c r="I301" s="10">
         <f t="shared" si="53"/>
         <v>33.509560203022659</v>
       </c>
-      <c r="J301" s="56">
+      <c r="J301" s="10">
         <f t="shared" si="54"/>
         <v>1.3287682265918312</v>
       </c>
-      <c r="K301" s="56">
+      <c r="K301" s="10">
         <f t="shared" si="55"/>
         <v>12.238373167123878</v>
       </c>
-      <c r="L301" s="56">
+      <c r="L301" s="10">
         <f t="shared" si="56"/>
         <v>15.239750654128171</v>
       </c>
-      <c r="M301" s="57">
-        <v>2</v>
-      </c>
-      <c r="N301" s="56"/>
-      <c r="O301" s="56"/>
+      <c r="M301" s="41">
+        <v>2</v>
+      </c>
       <c r="P301" s="6"/>
     </row>
     <row r="302" spans="1:16" x14ac:dyDescent="0.25">
@@ -12250,36 +11846,34 @@
       <c r="C302" s="29">
         <v>2</v>
       </c>
-      <c r="D302" s="54">
+      <c r="D302" s="42">
         <v>17</v>
       </c>
-      <c r="E302" s="57">
-        <v>2</v>
-      </c>
-      <c r="F302" s="56"/>
-      <c r="G302" s="56"/>
-      <c r="H302" s="56"/>
-      <c r="I302" s="56">
+      <c r="E302" s="41">
+        <v>2</v>
+      </c>
+      <c r="F302" s="10"/>
+      <c r="G302" s="10"/>
+      <c r="H302" s="10"/>
+      <c r="I302" s="10">
         <f t="shared" si="53"/>
         <v>34.635828631635192</v>
       </c>
-      <c r="J302" s="56">
+      <c r="J302" s="10">
         <f t="shared" si="54"/>
         <v>2.3485367785069919</v>
       </c>
-      <c r="K302" s="56">
+      <c r="K302" s="10">
         <f t="shared" si="55"/>
         <v>13.35830993967592</v>
       </c>
-      <c r="L302" s="56">
+      <c r="L302" s="10">
         <f t="shared" si="56"/>
         <v>14.115594213493104</v>
       </c>
-      <c r="M302" s="57">
-        <v>2</v>
-      </c>
-      <c r="N302" s="56"/>
-      <c r="O302" s="56"/>
+      <c r="M302" s="41">
+        <v>2</v>
+      </c>
       <c r="P302" s="6"/>
     </row>
     <row r="303" spans="1:16" x14ac:dyDescent="0.25">
@@ -12290,36 +11884,34 @@
       <c r="C303" s="29">
         <v>2</v>
       </c>
-      <c r="D303" s="54">
+      <c r="D303" s="42">
         <v>17</v>
       </c>
-      <c r="E303" s="57">
-        <v>2</v>
-      </c>
-      <c r="F303" s="56"/>
-      <c r="G303" s="56"/>
-      <c r="H303" s="56"/>
-      <c r="I303" s="56">
+      <c r="E303" s="41">
+        <v>2</v>
+      </c>
+      <c r="F303" s="10"/>
+      <c r="G303" s="10"/>
+      <c r="H303" s="10"/>
+      <c r="I303" s="10">
         <f t="shared" si="53"/>
         <v>34.635828631635192</v>
       </c>
-      <c r="J303" s="56">
+      <c r="J303" s="10">
         <f t="shared" si="54"/>
         <v>2.3485367785069919</v>
       </c>
-      <c r="K303" s="56">
+      <c r="K303" s="10">
         <f>((B303-$F$305)^2+(C303-$G$305)^2+(D303-$H$305)^2)^0.5</f>
         <v>13.35830993967592</v>
       </c>
-      <c r="L303" s="56">
+      <c r="L303" s="10">
         <f t="shared" si="56"/>
         <v>14.115594213493104</v>
       </c>
-      <c r="M303" s="57">
-        <v>2</v>
-      </c>
-      <c r="N303" s="56"/>
-      <c r="O303" s="56"/>
+      <c r="M303" s="41">
+        <v>2</v>
+      </c>
       <c r="P303" s="6"/>
     </row>
     <row r="304" spans="1:16" x14ac:dyDescent="0.25">
@@ -12330,36 +11922,34 @@
       <c r="C304" s="29">
         <v>2</v>
       </c>
-      <c r="D304" s="54">
+      <c r="D304" s="42">
         <v>17</v>
       </c>
-      <c r="E304" s="57">
-        <v>2</v>
-      </c>
-      <c r="F304" s="56"/>
-      <c r="G304" s="56"/>
-      <c r="H304" s="56"/>
-      <c r="I304" s="56">
+      <c r="E304" s="41">
+        <v>2</v>
+      </c>
+      <c r="F304" s="10"/>
+      <c r="G304" s="10"/>
+      <c r="H304" s="10"/>
+      <c r="I304" s="10">
         <f t="shared" si="53"/>
         <v>34.635828631635192</v>
       </c>
-      <c r="J304" s="56">
+      <c r="J304" s="10">
         <f t="shared" si="54"/>
         <v>2.3485367785069919</v>
       </c>
-      <c r="K304" s="56">
+      <c r="K304" s="10">
         <f t="shared" si="55"/>
         <v>13.35830993967592</v>
       </c>
-      <c r="L304" s="56">
+      <c r="L304" s="10">
         <f t="shared" si="56"/>
         <v>14.115594213493104</v>
       </c>
-      <c r="M304" s="57">
-        <v>2</v>
-      </c>
-      <c r="N304" s="56"/>
-      <c r="O304" s="56"/>
+      <c r="M304" s="41">
+        <v>2</v>
+      </c>
       <c r="P304" s="6"/>
     </row>
     <row r="305" spans="1:16" x14ac:dyDescent="0.25">
@@ -12370,45 +11960,43 @@
       <c r="C305" s="29">
         <v>5</v>
       </c>
-      <c r="D305" s="54">
+      <c r="D305" s="42">
         <v>32</v>
       </c>
-      <c r="E305" s="57">
-        <v>1</v>
-      </c>
-      <c r="F305" s="56">
+      <c r="E305" s="44">
+        <v>1</v>
+      </c>
+      <c r="F305" s="45">
         <f>AVERAGE(B305:B307)</f>
         <v>3</v>
       </c>
-      <c r="G305" s="56">
+      <c r="G305" s="45">
         <f t="shared" ref="G305:H305" si="58">AVERAGE(C305:C307)</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="H305" s="56">
+      <c r="H305" s="45">
         <f t="shared" si="58"/>
         <v>30</v>
       </c>
-      <c r="I305" s="56">
+      <c r="I305" s="10">
         <f t="shared" si="53"/>
         <v>19.271497736294396</v>
       </c>
-      <c r="J305" s="56">
+      <c r="J305" s="10">
         <f t="shared" si="54"/>
         <v>13.086849315247731</v>
       </c>
-      <c r="K305" s="56">
+      <c r="K305" s="10">
         <f t="shared" si="55"/>
         <v>2.1081851067789197</v>
       </c>
-      <c r="L305" s="56">
+      <c r="L305" s="10">
         <f t="shared" si="56"/>
         <v>29.5</v>
       </c>
-      <c r="M305" s="57">
-        <v>1</v>
-      </c>
-      <c r="N305" s="56"/>
-      <c r="O305" s="56"/>
+      <c r="M305" s="41">
+        <v>1</v>
+      </c>
       <c r="P305" s="6"/>
     </row>
     <row r="306" spans="1:16" x14ac:dyDescent="0.25">
@@ -12419,36 +12007,34 @@
       <c r="C306" s="29">
         <v>4</v>
       </c>
-      <c r="D306" s="54">
+      <c r="D306" s="42">
         <v>30</v>
       </c>
-      <c r="E306" s="57">
-        <v>1</v>
-      </c>
-      <c r="F306" s="56"/>
-      <c r="G306" s="56"/>
-      <c r="H306" s="56"/>
-      <c r="I306" s="56">
+      <c r="E306" s="41">
+        <v>1</v>
+      </c>
+      <c r="F306" s="10"/>
+      <c r="G306" s="10"/>
+      <c r="H306" s="10"/>
+      <c r="I306" s="10">
         <f t="shared" si="53"/>
         <v>21.445060620105508</v>
       </c>
-      <c r="J306" s="56">
+      <c r="J306" s="10">
         <f t="shared" si="54"/>
         <v>10.863499666313798</v>
       </c>
-      <c r="K306" s="56">
+      <c r="K306" s="10">
         <f t="shared" si="55"/>
         <v>1.0540925533894596</v>
       </c>
-      <c r="L306" s="56">
+      <c r="L306" s="10">
         <f t="shared" si="56"/>
         <v>27.299267389437397</v>
       </c>
-      <c r="M306" s="57">
-        <v>1</v>
-      </c>
-      <c r="N306" s="56"/>
-      <c r="O306" s="56"/>
+      <c r="M306" s="41">
+        <v>1</v>
+      </c>
       <c r="P306" s="6"/>
     </row>
     <row r="307" spans="1:16" x14ac:dyDescent="0.25">
@@ -12459,36 +12045,34 @@
       <c r="C307" s="29">
         <v>4</v>
       </c>
-      <c r="D307" s="54">
+      <c r="D307" s="42">
         <v>28</v>
       </c>
-      <c r="E307" s="57">
-        <v>1</v>
-      </c>
-      <c r="F307" s="56"/>
-      <c r="G307" s="56"/>
-      <c r="H307" s="56"/>
-      <c r="I307" s="56">
+      <c r="E307" s="41">
+        <v>1</v>
+      </c>
+      <c r="F307" s="10"/>
+      <c r="G307" s="10"/>
+      <c r="H307" s="10"/>
+      <c r="I307" s="10">
         <f t="shared" si="53"/>
         <v>23.353599829576595</v>
       </c>
-      <c r="J307" s="56">
+      <c r="J307" s="10">
         <f t="shared" si="54"/>
         <v>9.2744609007747716</v>
       </c>
-      <c r="K307" s="56">
+      <c r="K307" s="10">
         <f t="shared" si="55"/>
         <v>2.2607766610417559</v>
       </c>
-      <c r="L307" s="56">
+      <c r="L307" s="10">
         <f t="shared" si="56"/>
         <v>25.558755838264116</v>
       </c>
-      <c r="M307" s="57">
-        <v>1</v>
-      </c>
-      <c r="N307" s="56"/>
-      <c r="O307" s="56"/>
+      <c r="M307" s="41">
+        <v>1</v>
+      </c>
       <c r="P307" s="6"/>
     </row>
     <row r="308" spans="1:16" x14ac:dyDescent="0.25">
@@ -12499,45 +12083,43 @@
       <c r="C308" s="29">
         <v>1</v>
       </c>
-      <c r="D308" s="54">
+      <c r="D308" s="42">
         <v>5</v>
       </c>
-      <c r="E308" s="57">
+      <c r="E308" s="48">
         <v>0</v>
       </c>
-      <c r="F308" s="56">
+      <c r="F308" s="49">
         <f>AVERAGE(B308:B309)</f>
         <v>0</v>
       </c>
-      <c r="G308" s="56">
+      <c r="G308" s="49">
         <f t="shared" ref="G308:H308" si="59">AVERAGE(C308:C309)</f>
         <v>0.5</v>
       </c>
-      <c r="H308" s="56">
+      <c r="H308" s="49">
         <f t="shared" si="59"/>
         <v>3</v>
       </c>
-      <c r="I308" s="56">
+      <c r="I308" s="10">
         <f t="shared" si="53"/>
         <v>46.697329955790835</v>
       </c>
-      <c r="J308" s="56">
+      <c r="J308" s="10">
         <f t="shared" si="54"/>
         <v>14.396722717340916</v>
       </c>
-      <c r="K308" s="56">
+      <c r="K308" s="10">
         <f t="shared" si="55"/>
         <v>25.399037602064986</v>
       </c>
-      <c r="L308" s="56">
+      <c r="L308" s="10">
         <f t="shared" si="56"/>
         <v>2.0615528128088303</v>
       </c>
-      <c r="M308" s="57">
+      <c r="M308" s="41">
         <v>0</v>
       </c>
-      <c r="N308" s="56"/>
-      <c r="O308" s="56"/>
       <c r="P308" s="6"/>
     </row>
     <row r="309" spans="1:16" x14ac:dyDescent="0.25">
@@ -12548,92 +12130,53 @@
       <c r="C309" s="29">
         <v>0</v>
       </c>
-      <c r="D309" s="54">
-        <v>1</v>
-      </c>
-      <c r="E309" s="57">
+      <c r="D309" s="42">
+        <v>1</v>
+      </c>
+      <c r="E309" s="41">
         <v>0</v>
       </c>
-      <c r="F309" s="56"/>
-      <c r="G309" s="56"/>
-      <c r="H309" s="56"/>
-      <c r="I309" s="56">
+      <c r="F309" s="10"/>
+      <c r="G309" s="10"/>
+      <c r="H309" s="10"/>
+      <c r="I309" s="10">
         <f t="shared" si="53"/>
         <v>50.785240227845726</v>
       </c>
-      <c r="J309" s="56">
+      <c r="J309" s="10">
         <f t="shared" si="54"/>
         <v>18.480141368506899</v>
       </c>
-      <c r="K309" s="56">
+      <c r="K309" s="10">
         <f t="shared" si="55"/>
         <v>29.47503651868438</v>
       </c>
-      <c r="L309" s="56">
+      <c r="L309" s="10">
         <f t="shared" si="56"/>
         <v>2.0615528128088303</v>
       </c>
-      <c r="M309" s="57">
+      <c r="M309" s="41">
         <v>0</v>
       </c>
-      <c r="N309" s="56"/>
-      <c r="O309" s="56"/>
       <c r="P309" s="6"/>
     </row>
     <row r="310" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A310" s="5"/>
-      <c r="B310" s="56"/>
-      <c r="C310" s="56"/>
-      <c r="D310" s="56"/>
-      <c r="E310" s="56"/>
-      <c r="F310" s="56"/>
-      <c r="G310" s="56"/>
-      <c r="H310" s="56"/>
-      <c r="I310" s="56"/>
-      <c r="J310" s="56"/>
-      <c r="K310" s="56"/>
-      <c r="L310" s="56"/>
-      <c r="M310" s="56"/>
-      <c r="N310" s="56"/>
-      <c r="O310" s="56"/>
       <c r="P310" s="6"/>
     </row>
     <row r="311" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A311" s="5"/>
-      <c r="B311" s="56"/>
-      <c r="C311" s="56"/>
-      <c r="D311" s="56"/>
-      <c r="E311" s="56"/>
-      <c r="F311" s="56"/>
-      <c r="G311" s="56"/>
-      <c r="H311" s="56"/>
-      <c r="I311" s="56"/>
-      <c r="J311" s="56"/>
-      <c r="K311" s="56"/>
-      <c r="L311" s="56"/>
-      <c r="M311" s="56"/>
-      <c r="N311" s="56"/>
-      <c r="O311" s="56"/>
       <c r="P311" s="6"/>
     </row>
     <row r="312" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A312" s="5"/>
-      <c r="B312" s="56"/>
-      <c r="C312" s="56"/>
-      <c r="D312" s="56"/>
       <c r="E312" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="F312" s="56"/>
-      <c r="G312" s="56"/>
-      <c r="H312" s="56"/>
-      <c r="I312" s="56"/>
-      <c r="J312" s="56"/>
-      <c r="K312" s="56"/>
-      <c r="L312" s="56"/>
-      <c r="M312" s="56"/>
-      <c r="N312" s="56"/>
-      <c r="O312" s="56"/>
+        <v>78</v>
+      </c>
+      <c r="I312" s="55"/>
+      <c r="J312" s="50"/>
+      <c r="K312" s="46"/>
+      <c r="L312" s="47"/>
       <c r="P312" s="6"/>
     </row>
     <row r="313" spans="1:16" x14ac:dyDescent="0.25">
@@ -12648,7 +12191,7 @@
         <v>4</v>
       </c>
       <c r="E313" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F313" s="15" t="s">
         <v>63</v>
@@ -12674,8 +12217,6 @@
       <c r="M313" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="N313" s="56"/>
-      <c r="O313" s="56"/>
       <c r="P313" s="6"/>
     </row>
     <row r="314" spans="1:16" x14ac:dyDescent="0.25">
@@ -12686,45 +12227,43 @@
       <c r="C314" s="29">
         <v>6</v>
       </c>
-      <c r="D314" s="54">
+      <c r="D314" s="42">
         <v>42</v>
       </c>
-      <c r="E314" s="58">
-        <v>3</v>
-      </c>
-      <c r="F314" s="56">
+      <c r="E314" s="53">
+        <v>3</v>
+      </c>
+      <c r="F314" s="54">
         <f>AVERAGE(B314:B321)</f>
         <v>3.75</v>
       </c>
-      <c r="G314" s="56">
+      <c r="G314" s="54">
         <f t="shared" ref="G314:H314" si="60">AVERAGE(C314:C321)</f>
         <v>7.25</v>
       </c>
-      <c r="H314" s="56">
+      <c r="H314" s="54">
         <f t="shared" si="60"/>
         <v>51.125</v>
       </c>
-      <c r="I314" s="56">
+      <c r="I314" s="10">
         <f>((B314-$F$314)^2+(C314-$G$314)^2+(D314-$H$314)^2)^0.5</f>
         <v>9.2407047891381104</v>
       </c>
-      <c r="J314" s="56">
+      <c r="J314" s="10">
         <f>((B314-$F$322)^2+(C314-$G$322)^2+(D314-$H$322)^2)^0.5</f>
         <v>23.065463901686435</v>
       </c>
-      <c r="K314" s="56">
+      <c r="K314" s="10">
         <f>((B314-$F$330)^2+(C314-$G$330)^2+(D314-$H$330)^2)^0.5</f>
         <v>12.115187896924166</v>
       </c>
-      <c r="L314" s="56">
+      <c r="L314" s="10">
         <f>((B314-$F$333)^2+(C314-$G$333)^2+(D314-$H$333)^2)^0.5</f>
         <v>39.5</v>
       </c>
       <c r="M314" s="58">
         <v>3</v>
       </c>
-      <c r="N314" s="56"/>
-      <c r="O314" s="56"/>
       <c r="P314" s="6"/>
     </row>
     <row r="315" spans="1:16" x14ac:dyDescent="0.25">
@@ -12735,36 +12274,34 @@
       <c r="C315" s="29">
         <v>8</v>
       </c>
-      <c r="D315" s="54">
+      <c r="D315" s="42">
         <v>56</v>
       </c>
       <c r="E315" s="58">
         <v>3</v>
       </c>
-      <c r="F315" s="56"/>
-      <c r="G315" s="56"/>
-      <c r="H315" s="56"/>
-      <c r="I315" s="56">
+      <c r="F315" s="10"/>
+      <c r="G315" s="10"/>
+      <c r="H315" s="10"/>
+      <c r="I315" s="10">
         <f t="shared" ref="I315:I334" si="61">((B315-$F$314)^2+(C315-$G$314)^2+(D315-$H$314)^2)^0.5</f>
         <v>4.9386865662846029</v>
       </c>
-      <c r="J315" s="56">
+      <c r="J315" s="10">
         <f t="shared" ref="J315:J334" si="62">((B315-$F$322)^2+(C315-$G$322)^2+(D315-$H$322)^2)^0.5</f>
         <v>37.242658672549148</v>
       </c>
-      <c r="K315" s="56">
+      <c r="K315" s="10">
         <f t="shared" ref="K315:K334" si="63">((B315-$F$330)^2+(C315-$G$330)^2+(D315-$H$330)^2)^0.5</f>
         <v>26.276309566688479</v>
       </c>
-      <c r="L315" s="56">
+      <c r="L315" s="10">
         <f t="shared" ref="L315:L334" si="64">((B315-$F$333)^2+(C315-$G$333)^2+(D315-$H$333)^2)^0.5</f>
         <v>53.677276383959722</v>
       </c>
       <c r="M315" s="58">
         <v>3</v>
       </c>
-      <c r="N315" s="56"/>
-      <c r="O315" s="56"/>
       <c r="P315" s="6"/>
     </row>
     <row r="316" spans="1:16" x14ac:dyDescent="0.25">
@@ -12775,36 +12312,34 @@
       <c r="C316" s="29">
         <v>6</v>
       </c>
-      <c r="D316" s="54">
+      <c r="D316" s="42">
         <v>44</v>
       </c>
       <c r="E316" s="58">
         <v>3</v>
       </c>
-      <c r="F316" s="56"/>
-      <c r="G316" s="56"/>
-      <c r="H316" s="56"/>
-      <c r="I316" s="56">
+      <c r="F316" s="10"/>
+      <c r="G316" s="10"/>
+      <c r="H316" s="10"/>
+      <c r="I316" s="10">
         <f t="shared" si="61"/>
         <v>7.272594103894428</v>
       </c>
-      <c r="J316" s="56">
+      <c r="J316" s="10">
         <f t="shared" si="62"/>
         <v>25.040280050350873</v>
       </c>
-      <c r="K316" s="56">
+      <c r="K316" s="10">
         <f t="shared" si="63"/>
         <v>14.098857321704401</v>
       </c>
-      <c r="L316" s="56">
+      <c r="L316" s="10">
         <f t="shared" si="64"/>
         <v>41.475896614780979</v>
       </c>
       <c r="M316" s="58">
         <v>3</v>
       </c>
-      <c r="N316" s="56"/>
-      <c r="O316" s="56"/>
       <c r="P316" s="6"/>
     </row>
     <row r="317" spans="1:16" x14ac:dyDescent="0.25">
@@ -12815,36 +12350,34 @@
       <c r="C317" s="29">
         <v>9</v>
       </c>
-      <c r="D317" s="54">
+      <c r="D317" s="42">
         <v>62</v>
       </c>
       <c r="E317" s="58">
         <v>3</v>
       </c>
-      <c r="F317" s="56"/>
-      <c r="G317" s="56"/>
-      <c r="H317" s="56"/>
-      <c r="I317" s="56">
+      <c r="F317" s="10"/>
+      <c r="G317" s="10"/>
+      <c r="H317" s="10"/>
+      <c r="I317" s="10">
         <f t="shared" si="61"/>
         <v>11.085604403910505</v>
       </c>
-      <c r="J317" s="56">
+      <c r="J317" s="10">
         <f t="shared" si="62"/>
         <v>43.385085282848067</v>
       </c>
-      <c r="K317" s="56">
+      <c r="K317" s="10">
         <f t="shared" si="63"/>
         <v>32.400274347260975</v>
       </c>
-      <c r="L317" s="56">
+      <c r="L317" s="10">
         <f t="shared" si="64"/>
         <v>59.818475406850681</v>
       </c>
       <c r="M317" s="58">
         <v>3</v>
       </c>
-      <c r="N317" s="56"/>
-      <c r="O317" s="56"/>
       <c r="P317" s="6"/>
     </row>
     <row r="318" spans="1:16" x14ac:dyDescent="0.25">
@@ -12855,36 +12388,34 @@
       <c r="C318" s="29">
         <v>9</v>
       </c>
-      <c r="D318" s="54">
+      <c r="D318" s="42">
         <v>64</v>
       </c>
       <c r="E318" s="58">
         <v>3</v>
       </c>
-      <c r="F318" s="56"/>
-      <c r="G318" s="56"/>
-      <c r="H318" s="56"/>
-      <c r="I318" s="56">
+      <c r="F318" s="10"/>
+      <c r="G318" s="10"/>
+      <c r="H318" s="10"/>
+      <c r="I318" s="10">
         <f t="shared" si="61"/>
         <v>13.05337600010051</v>
       </c>
-      <c r="J318" s="56">
+      <c r="J318" s="10">
         <f t="shared" si="62"/>
         <v>45.357090129328185</v>
       </c>
-      <c r="K318" s="56">
+      <c r="K318" s="10">
         <f t="shared" si="63"/>
         <v>34.376994891609968</v>
       </c>
-      <c r="L318" s="56">
+      <c r="L318" s="10">
         <f t="shared" si="64"/>
         <v>61.791989772137939</v>
       </c>
       <c r="M318" s="58">
         <v>3</v>
       </c>
-      <c r="N318" s="56"/>
-      <c r="O318" s="56"/>
       <c r="P318" s="6"/>
     </row>
     <row r="319" spans="1:16" x14ac:dyDescent="0.25">
@@ -12895,36 +12426,34 @@
       <c r="C319" s="29">
         <v>8</v>
       </c>
-      <c r="D319" s="54">
+      <c r="D319" s="42">
         <v>56</v>
       </c>
       <c r="E319" s="58">
         <v>3</v>
       </c>
-      <c r="F319" s="56"/>
-      <c r="G319" s="56"/>
-      <c r="H319" s="56"/>
-      <c r="I319" s="56">
+      <c r="F319" s="10"/>
+      <c r="G319" s="10"/>
+      <c r="H319" s="10"/>
+      <c r="I319" s="10">
         <f t="shared" si="61"/>
         <v>4.9386865662846029</v>
       </c>
-      <c r="J319" s="56">
+      <c r="J319" s="10">
         <f t="shared" si="62"/>
         <v>37.242658672549148</v>
       </c>
-      <c r="K319" s="56">
+      <c r="K319" s="10">
         <f t="shared" si="63"/>
         <v>26.276309566688479</v>
       </c>
-      <c r="L319" s="56">
+      <c r="L319" s="10">
         <f t="shared" si="64"/>
         <v>53.677276383959722</v>
       </c>
       <c r="M319" s="58">
         <v>3</v>
       </c>
-      <c r="N319" s="56"/>
-      <c r="O319" s="56"/>
       <c r="P319" s="6"/>
     </row>
     <row r="320" spans="1:16" x14ac:dyDescent="0.25">
@@ -12935,36 +12464,34 @@
       <c r="C320" s="29">
         <v>6</v>
       </c>
-      <c r="D320" s="54">
+      <c r="D320" s="42">
         <v>44</v>
       </c>
       <c r="E320" s="58">
         <v>3</v>
       </c>
-      <c r="F320" s="56"/>
-      <c r="G320" s="56"/>
-      <c r="H320" s="56"/>
-      <c r="I320" s="56">
+      <c r="F320" s="10"/>
+      <c r="G320" s="10"/>
+      <c r="H320" s="10"/>
+      <c r="I320" s="10">
         <f t="shared" si="61"/>
         <v>7.272594103894428</v>
       </c>
-      <c r="J320" s="56">
+      <c r="J320" s="10">
         <f t="shared" si="62"/>
         <v>25.040280050350873</v>
       </c>
-      <c r="K320" s="56">
+      <c r="K320" s="10">
         <f t="shared" si="63"/>
         <v>14.098857321704401</v>
       </c>
-      <c r="L320" s="56">
+      <c r="L320" s="10">
         <f t="shared" si="64"/>
         <v>41.475896614780979</v>
       </c>
       <c r="M320" s="58">
         <v>3</v>
       </c>
-      <c r="N320" s="56"/>
-      <c r="O320" s="56"/>
       <c r="P320" s="6"/>
     </row>
     <row r="321" spans="1:16" x14ac:dyDescent="0.25">
@@ -12975,36 +12502,34 @@
       <c r="C321" s="29">
         <v>6</v>
       </c>
-      <c r="D321" s="54">
+      <c r="D321" s="42">
         <v>41</v>
       </c>
       <c r="E321" s="58">
         <v>3</v>
       </c>
-      <c r="F321" s="56"/>
-      <c r="G321" s="56"/>
-      <c r="H321" s="56"/>
-      <c r="I321" s="56">
+      <c r="F321" s="10"/>
+      <c r="G321" s="10"/>
+      <c r="H321" s="10"/>
+      <c r="I321" s="10">
         <f t="shared" si="61"/>
         <v>10.229400031282383</v>
       </c>
-      <c r="J321" s="56">
+      <c r="J321" s="10">
         <f t="shared" si="62"/>
         <v>22.079755999557605</v>
       </c>
-      <c r="K321" s="56">
+      <c r="K321" s="10">
         <f t="shared" si="63"/>
         <v>11.125546178852424</v>
       </c>
-      <c r="L321" s="56">
+      <c r="L321" s="10">
         <f t="shared" si="64"/>
         <v>38.512984823303427</v>
       </c>
       <c r="M321" s="58">
         <v>3</v>
       </c>
-      <c r="N321" s="56"/>
-      <c r="O321" s="56"/>
       <c r="P321" s="6"/>
     </row>
     <row r="322" spans="1:16" x14ac:dyDescent="0.25">
@@ -13015,45 +12540,43 @@
       <c r="C322" s="29">
         <v>3</v>
       </c>
-      <c r="D322" s="54">
+      <c r="D322" s="42">
         <v>24</v>
       </c>
-      <c r="E322" s="58">
-        <v>2</v>
-      </c>
-      <c r="F322" s="56">
+      <c r="E322" s="51">
+        <v>2</v>
+      </c>
+      <c r="F322" s="52">
         <f>AVERAGE(B322:B329)</f>
         <v>1.25</v>
       </c>
-      <c r="G322" s="56">
+      <c r="G322" s="52">
         <f t="shared" ref="G322:H322" si="65">AVERAGE(C322:C329)</f>
         <v>2.625</v>
       </c>
-      <c r="H322" s="56">
+      <c r="H322" s="52">
         <f t="shared" si="65"/>
         <v>19.25</v>
       </c>
-      <c r="I322" s="56">
+      <c r="I322" s="10">
         <f t="shared" si="61"/>
         <v>27.51164526159786</v>
       </c>
-      <c r="J322" s="56">
+      <c r="J322" s="10">
         <f t="shared" si="62"/>
         <v>4.8234453453936847</v>
       </c>
-      <c r="K322" s="56">
+      <c r="K322" s="10">
         <f t="shared" si="63"/>
         <v>6.2271805640898013</v>
       </c>
-      <c r="L322" s="56">
+      <c r="L322" s="10">
         <f t="shared" si="64"/>
         <v>21.242645786248001</v>
       </c>
       <c r="M322" s="58">
         <v>2</v>
       </c>
-      <c r="N322" s="56"/>
-      <c r="O322" s="56"/>
       <c r="P322" s="6"/>
     </row>
     <row r="323" spans="1:16" x14ac:dyDescent="0.25">
@@ -13064,36 +12587,34 @@
       <c r="C323" s="29">
         <v>3</v>
       </c>
-      <c r="D323" s="54">
+      <c r="D323" s="42">
         <v>24</v>
       </c>
       <c r="E323" s="58">
         <v>2</v>
       </c>
-      <c r="F323" s="56"/>
-      <c r="G323" s="56"/>
-      <c r="H323" s="56"/>
-      <c r="I323" s="56">
+      <c r="F323" s="10"/>
+      <c r="G323" s="10"/>
+      <c r="H323" s="10"/>
+      <c r="I323" s="10">
         <f t="shared" si="61"/>
         <v>27.51164526159786</v>
       </c>
-      <c r="J323" s="56">
+      <c r="J323" s="10">
         <f t="shared" si="62"/>
         <v>4.8234453453936847</v>
       </c>
-      <c r="K323" s="56">
+      <c r="K323" s="10">
         <f t="shared" si="63"/>
         <v>6.2271805640898013</v>
       </c>
-      <c r="L323" s="56">
+      <c r="L323" s="10">
         <f t="shared" si="64"/>
         <v>21.242645786248001</v>
       </c>
       <c r="M323" s="58">
         <v>2</v>
       </c>
-      <c r="N323" s="56"/>
-      <c r="O323" s="56"/>
       <c r="P323" s="6"/>
     </row>
     <row r="324" spans="1:16" x14ac:dyDescent="0.25">
@@ -13104,36 +12625,34 @@
       <c r="C324" s="29">
         <v>3</v>
       </c>
-      <c r="D324" s="54">
+      <c r="D324" s="42">
         <v>19</v>
       </c>
       <c r="E324" s="58">
         <v>2</v>
       </c>
-      <c r="F324" s="56"/>
-      <c r="G324" s="56"/>
-      <c r="H324" s="56"/>
-      <c r="I324" s="56">
+      <c r="F324" s="10"/>
+      <c r="G324" s="10"/>
+      <c r="H324" s="10"/>
+      <c r="I324" s="10">
         <f t="shared" si="61"/>
         <v>32.521387193660729</v>
       </c>
-      <c r="J324" s="56">
+      <c r="J324" s="10">
         <f t="shared" si="62"/>
         <v>0.51538820320220757</v>
       </c>
-      <c r="K324" s="56">
+      <c r="K324" s="10">
         <f t="shared" si="63"/>
         <v>11.259563836036357</v>
       </c>
-      <c r="L324" s="56">
+      <c r="L324" s="10">
         <f t="shared" si="64"/>
         <v>16.224980739587952</v>
       </c>
       <c r="M324" s="58">
         <v>2</v>
       </c>
-      <c r="N324" s="56"/>
-      <c r="O324" s="56"/>
       <c r="P324" s="6"/>
     </row>
     <row r="325" spans="1:16" x14ac:dyDescent="0.25">
@@ -13144,36 +12663,34 @@
       <c r="C325" s="29">
         <v>3</v>
       </c>
-      <c r="D325" s="54">
+      <c r="D325" s="42">
         <v>18</v>
       </c>
       <c r="E325" s="58">
         <v>2</v>
       </c>
-      <c r="F325" s="56"/>
-      <c r="G325" s="56"/>
-      <c r="H325" s="56"/>
-      <c r="I325" s="56">
+      <c r="F325" s="10"/>
+      <c r="G325" s="10"/>
+      <c r="H325" s="10"/>
+      <c r="I325" s="10">
         <f t="shared" si="61"/>
         <v>33.509560203022659</v>
       </c>
-      <c r="J325" s="56">
+      <c r="J325" s="10">
         <f t="shared" si="62"/>
         <v>1.3287682265918312</v>
       </c>
-      <c r="K325" s="56">
-        <f t="shared" si="63"/>
+      <c r="K325" s="10">
+        <f>((B325-$F$330)^2+(C325-$G$330)^2+(D325-$H$330)^2)^0.5</f>
         <v>12.238373167123878</v>
       </c>
-      <c r="L325" s="56">
+      <c r="L325" s="10">
         <f t="shared" si="64"/>
         <v>15.239750654128171</v>
       </c>
       <c r="M325" s="58">
         <v>2</v>
       </c>
-      <c r="N325" s="56"/>
-      <c r="O325" s="56"/>
       <c r="P325" s="6"/>
     </row>
     <row r="326" spans="1:16" x14ac:dyDescent="0.25">
@@ -13184,36 +12701,34 @@
       <c r="C326" s="29">
         <v>3</v>
       </c>
-      <c r="D326" s="54">
+      <c r="D326" s="42">
         <v>18</v>
       </c>
       <c r="E326" s="58">
         <v>2</v>
       </c>
-      <c r="F326" s="56"/>
-      <c r="G326" s="56"/>
-      <c r="H326" s="56"/>
-      <c r="I326" s="56">
+      <c r="F326" s="10"/>
+      <c r="G326" s="10"/>
+      <c r="H326" s="10"/>
+      <c r="I326" s="10">
         <f t="shared" si="61"/>
         <v>33.509560203022659</v>
       </c>
-      <c r="J326" s="56">
+      <c r="J326" s="10">
         <f t="shared" si="62"/>
         <v>1.3287682265918312</v>
       </c>
-      <c r="K326" s="56">
+      <c r="K326" s="10">
         <f t="shared" si="63"/>
         <v>12.238373167123878</v>
       </c>
-      <c r="L326" s="56">
+      <c r="L326" s="10">
         <f t="shared" si="64"/>
         <v>15.239750654128171</v>
       </c>
       <c r="M326" s="58">
         <v>2</v>
       </c>
-      <c r="N326" s="56"/>
-      <c r="O326" s="56"/>
       <c r="P326" s="6"/>
     </row>
     <row r="327" spans="1:16" x14ac:dyDescent="0.25">
@@ -13224,36 +12739,34 @@
       <c r="C327" s="29">
         <v>2</v>
       </c>
-      <c r="D327" s="54">
+      <c r="D327" s="42">
         <v>17</v>
       </c>
       <c r="E327" s="58">
         <v>2</v>
       </c>
-      <c r="F327" s="56"/>
-      <c r="G327" s="56"/>
-      <c r="H327" s="56"/>
-      <c r="I327" s="56">
+      <c r="F327" s="10"/>
+      <c r="G327" s="10"/>
+      <c r="H327" s="10"/>
+      <c r="I327" s="10">
         <f t="shared" si="61"/>
         <v>34.635828631635192</v>
       </c>
-      <c r="J327" s="56">
+      <c r="J327" s="10">
         <f t="shared" si="62"/>
         <v>2.3485367785069919</v>
       </c>
-      <c r="K327" s="56">
+      <c r="K327" s="10">
         <f t="shared" si="63"/>
         <v>13.35830993967592</v>
       </c>
-      <c r="L327" s="56">
+      <c r="L327" s="10">
         <f t="shared" si="64"/>
         <v>14.115594213493104</v>
       </c>
       <c r="M327" s="58">
         <v>2</v>
       </c>
-      <c r="N327" s="56"/>
-      <c r="O327" s="56"/>
       <c r="P327" s="6"/>
     </row>
     <row r="328" spans="1:16" x14ac:dyDescent="0.25">
@@ -13264,36 +12777,34 @@
       <c r="C328" s="29">
         <v>2</v>
       </c>
-      <c r="D328" s="54">
+      <c r="D328" s="42">
         <v>17</v>
       </c>
       <c r="E328" s="58">
         <v>2</v>
       </c>
-      <c r="F328" s="56"/>
-      <c r="G328" s="56"/>
-      <c r="H328" s="56"/>
-      <c r="I328" s="56">
+      <c r="F328" s="10"/>
+      <c r="G328" s="10"/>
+      <c r="H328" s="10"/>
+      <c r="I328" s="10">
         <f t="shared" si="61"/>
         <v>34.635828631635192</v>
       </c>
-      <c r="J328" s="56">
+      <c r="J328" s="10">
         <f t="shared" si="62"/>
         <v>2.3485367785069919</v>
       </c>
-      <c r="K328" s="56">
+      <c r="K328" s="10">
         <f t="shared" si="63"/>
         <v>13.35830993967592</v>
       </c>
-      <c r="L328" s="56">
+      <c r="L328" s="10">
         <f t="shared" si="64"/>
         <v>14.115594213493104</v>
       </c>
       <c r="M328" s="58">
         <v>2</v>
       </c>
-      <c r="N328" s="56"/>
-      <c r="O328" s="56"/>
       <c r="P328" s="6"/>
     </row>
     <row r="329" spans="1:16" x14ac:dyDescent="0.25">
@@ -13304,36 +12815,34 @@
       <c r="C329" s="29">
         <v>2</v>
       </c>
-      <c r="D329" s="54">
+      <c r="D329" s="42">
         <v>17</v>
       </c>
       <c r="E329" s="58">
         <v>2</v>
       </c>
-      <c r="F329" s="56"/>
-      <c r="G329" s="56"/>
-      <c r="H329" s="56"/>
-      <c r="I329" s="56">
+      <c r="F329" s="10"/>
+      <c r="G329" s="10"/>
+      <c r="H329" s="10"/>
+      <c r="I329" s="10">
         <f t="shared" si="61"/>
         <v>34.635828631635192</v>
       </c>
-      <c r="J329" s="56">
+      <c r="J329" s="10">
         <f t="shared" si="62"/>
         <v>2.3485367785069919</v>
       </c>
-      <c r="K329" s="56">
+      <c r="K329" s="10">
         <f t="shared" si="63"/>
         <v>13.35830993967592</v>
       </c>
-      <c r="L329" s="56">
+      <c r="L329" s="10">
         <f t="shared" si="64"/>
         <v>14.115594213493104</v>
       </c>
       <c r="M329" s="58">
         <v>2</v>
       </c>
-      <c r="N329" s="56"/>
-      <c r="O329" s="56"/>
       <c r="P329" s="6"/>
     </row>
     <row r="330" spans="1:16" x14ac:dyDescent="0.25">
@@ -13344,45 +12853,43 @@
       <c r="C330" s="29">
         <v>5</v>
       </c>
-      <c r="D330" s="54">
+      <c r="D330" s="42">
         <v>32</v>
       </c>
-      <c r="E330" s="58">
-        <v>1</v>
-      </c>
-      <c r="F330" s="56">
+      <c r="E330" s="44">
+        <v>1</v>
+      </c>
+      <c r="F330" s="45">
         <f>AVERAGE(B330:B332)</f>
         <v>3</v>
       </c>
-      <c r="G330" s="56">
+      <c r="G330" s="45">
         <f t="shared" ref="G330:H330" si="66">AVERAGE(C330:C332)</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="H330" s="56">
+      <c r="H330" s="45">
         <f t="shared" si="66"/>
         <v>30</v>
       </c>
-      <c r="I330" s="56">
+      <c r="I330" s="10">
         <f t="shared" si="61"/>
         <v>19.271497736294396</v>
       </c>
-      <c r="J330" s="56">
+      <c r="J330" s="10">
         <f t="shared" si="62"/>
         <v>13.086849315247731</v>
       </c>
-      <c r="K330" s="56">
+      <c r="K330" s="10">
         <f t="shared" si="63"/>
         <v>2.1081851067789197</v>
       </c>
-      <c r="L330" s="56">
+      <c r="L330" s="10">
         <f t="shared" si="64"/>
         <v>29.5</v>
       </c>
       <c r="M330" s="58">
         <v>1</v>
       </c>
-      <c r="N330" s="56"/>
-      <c r="O330" s="56"/>
       <c r="P330" s="6"/>
     </row>
     <row r="331" spans="1:16" x14ac:dyDescent="0.25">
@@ -13393,36 +12900,34 @@
       <c r="C331" s="29">
         <v>4</v>
       </c>
-      <c r="D331" s="54">
+      <c r="D331" s="42">
         <v>30</v>
       </c>
       <c r="E331" s="58">
         <v>1</v>
       </c>
-      <c r="F331" s="56"/>
-      <c r="G331" s="56"/>
-      <c r="H331" s="56"/>
-      <c r="I331" s="56">
+      <c r="F331" s="10"/>
+      <c r="G331" s="10"/>
+      <c r="H331" s="10"/>
+      <c r="I331" s="10">
         <f t="shared" si="61"/>
         <v>21.445060620105508</v>
       </c>
-      <c r="J331" s="56">
+      <c r="J331" s="10">
         <f t="shared" si="62"/>
         <v>10.863499666313798</v>
       </c>
-      <c r="K331" s="56">
+      <c r="K331" s="10">
         <f t="shared" si="63"/>
         <v>1.0540925533894596</v>
       </c>
-      <c r="L331" s="56">
+      <c r="L331" s="10">
         <f t="shared" si="64"/>
         <v>27.299267389437397</v>
       </c>
       <c r="M331" s="58">
         <v>1</v>
       </c>
-      <c r="N331" s="56"/>
-      <c r="O331" s="56"/>
       <c r="P331" s="6"/>
     </row>
     <row r="332" spans="1:16" x14ac:dyDescent="0.25">
@@ -13433,36 +12938,34 @@
       <c r="C332" s="29">
         <v>4</v>
       </c>
-      <c r="D332" s="54">
+      <c r="D332" s="42">
         <v>28</v>
       </c>
       <c r="E332" s="58">
         <v>1</v>
       </c>
-      <c r="F332" s="56"/>
-      <c r="G332" s="56"/>
-      <c r="H332" s="56"/>
-      <c r="I332" s="56">
+      <c r="F332" s="10"/>
+      <c r="G332" s="10"/>
+      <c r="H332" s="10"/>
+      <c r="I332" s="10">
         <f t="shared" si="61"/>
         <v>23.353599829576595</v>
       </c>
-      <c r="J332" s="56">
+      <c r="J332" s="10">
         <f t="shared" si="62"/>
         <v>9.2744609007747716</v>
       </c>
-      <c r="K332" s="56">
+      <c r="K332" s="10">
         <f>((B332-$F$330)^2+(C332-$G$330)^2+(D332-$H$330)^2)^0.5</f>
         <v>2.2607766610417559</v>
       </c>
-      <c r="L332" s="56">
+      <c r="L332" s="10">
         <f t="shared" si="64"/>
         <v>25.558755838264116</v>
       </c>
       <c r="M332" s="58">
         <v>1</v>
       </c>
-      <c r="N332" s="56"/>
-      <c r="O332" s="56"/>
       <c r="P332" s="6"/>
     </row>
     <row r="333" spans="1:16" x14ac:dyDescent="0.25">
@@ -13473,48 +12976,46 @@
       <c r="C333" s="29">
         <v>1</v>
       </c>
-      <c r="D333" s="54">
+      <c r="D333" s="42">
         <v>5</v>
       </c>
-      <c r="E333" s="58">
+      <c r="E333" s="48">
         <v>0</v>
       </c>
-      <c r="F333" s="56">
+      <c r="F333" s="49">
         <f>AVERAGE(B333:B334)</f>
         <v>0</v>
       </c>
-      <c r="G333" s="56">
+      <c r="G333" s="49">
         <f t="shared" ref="G333:H333" si="67">AVERAGE(C333:C334)</f>
         <v>0.5</v>
       </c>
-      <c r="H333" s="56">
+      <c r="H333" s="49">
         <f t="shared" si="67"/>
         <v>3</v>
       </c>
-      <c r="I333" s="56">
+      <c r="I333" s="10">
         <f t="shared" si="61"/>
         <v>46.697329955790835</v>
       </c>
-      <c r="J333" s="56">
+      <c r="J333" s="10">
         <f t="shared" si="62"/>
         <v>14.396722717340916</v>
       </c>
-      <c r="K333" s="56">
+      <c r="K333" s="10">
         <f t="shared" si="63"/>
         <v>25.399037602064986</v>
       </c>
-      <c r="L333" s="56">
+      <c r="L333" s="10">
         <f t="shared" si="64"/>
         <v>2.0615528128088303</v>
       </c>
       <c r="M333" s="58">
         <v>0</v>
       </c>
-      <c r="N333" s="56"/>
-      <c r="O333" s="56"/>
       <c r="P333" s="6"/>
     </row>
-    <row r="334" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A334" s="5"/>
       <c r="B334" s="2">
         <v>0</v>
@@ -13522,200 +13023,73 @@
       <c r="C334" s="29">
         <v>0</v>
       </c>
-      <c r="D334" s="54">
+      <c r="D334" s="42">
         <v>1</v>
       </c>
       <c r="E334" s="58">
         <v>0</v>
       </c>
-      <c r="F334" s="56"/>
-      <c r="G334" s="56"/>
-      <c r="H334" s="56"/>
-      <c r="I334" s="56">
+      <c r="F334" s="10"/>
+      <c r="G334" s="10"/>
+      <c r="H334" s="10"/>
+      <c r="I334" s="10">
         <f t="shared" si="61"/>
         <v>50.785240227845726</v>
       </c>
-      <c r="J334" s="56">
+      <c r="J334" s="10">
         <f t="shared" si="62"/>
         <v>18.480141368506899</v>
       </c>
-      <c r="K334" s="56">
+      <c r="K334" s="10">
         <f t="shared" si="63"/>
         <v>29.47503651868438</v>
       </c>
-      <c r="L334" s="56">
+      <c r="L334" s="10">
         <f t="shared" si="64"/>
         <v>2.0615528128088303</v>
       </c>
       <c r="M334" s="58">
         <v>0</v>
       </c>
-      <c r="N334" s="56"/>
-      <c r="O334" s="56"/>
       <c r="P334" s="6"/>
     </row>
     <row r="335" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="5"/>
-      <c r="B335" s="56"/>
-      <c r="C335" s="56"/>
-      <c r="D335" s="56"/>
-      <c r="E335" s="56"/>
-      <c r="F335" s="56"/>
-      <c r="G335" s="56"/>
-      <c r="H335" s="56"/>
-      <c r="I335" s="56"/>
-      <c r="J335" s="56"/>
-      <c r="K335" s="56"/>
-      <c r="L335" s="56"/>
-      <c r="M335" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="N335" s="56"/>
-      <c r="O335" s="56"/>
+      <c r="M335" s="57" t="s">
+        <v>77</v>
+      </c>
       <c r="P335" s="6"/>
     </row>
     <row r="336" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A336" s="5"/>
-      <c r="B336" s="56"/>
-      <c r="C336" s="56"/>
-      <c r="D336" s="56"/>
-      <c r="E336" s="56"/>
-      <c r="F336" s="56"/>
-      <c r="G336" s="56"/>
-      <c r="H336" s="56"/>
-      <c r="I336" s="56"/>
-      <c r="J336" s="56"/>
-      <c r="K336" s="56"/>
-      <c r="L336" s="56"/>
-      <c r="M336" s="56"/>
-      <c r="N336" s="56"/>
-      <c r="O336" s="56"/>
       <c r="P336" s="6"/>
     </row>
     <row r="337" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A337" s="5"/>
-      <c r="B337" s="56"/>
-      <c r="C337" s="56"/>
-      <c r="D337" s="56"/>
-      <c r="E337" s="56"/>
-      <c r="F337" s="56"/>
-      <c r="G337" s="56"/>
-      <c r="H337" s="56"/>
-      <c r="I337" s="56"/>
-      <c r="J337" s="56"/>
-      <c r="K337" s="56"/>
-      <c r="L337" s="56"/>
-      <c r="M337" s="56"/>
-      <c r="N337" s="56"/>
-      <c r="O337" s="56"/>
       <c r="P337" s="6"/>
     </row>
     <row r="338" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A338" s="5"/>
-      <c r="B338" s="56"/>
-      <c r="C338" s="56"/>
-      <c r="D338" s="56"/>
-      <c r="E338" s="56"/>
-      <c r="F338" s="56"/>
-      <c r="G338" s="56"/>
-      <c r="H338" s="56"/>
-      <c r="I338" s="56"/>
-      <c r="J338" s="56"/>
-      <c r="K338" s="56"/>
-      <c r="L338" s="56"/>
-      <c r="M338" s="56"/>
-      <c r="N338" s="56"/>
-      <c r="O338" s="56"/>
       <c r="P338" s="6"/>
     </row>
     <row r="339" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A339" s="5"/>
-      <c r="B339" s="56"/>
-      <c r="C339" s="56"/>
-      <c r="D339" s="56"/>
-      <c r="E339" s="56"/>
-      <c r="F339" s="56"/>
-      <c r="G339" s="56"/>
-      <c r="H339" s="56"/>
-      <c r="I339" s="56"/>
-      <c r="J339" s="56"/>
-      <c r="K339" s="56"/>
-      <c r="L339" s="56"/>
-      <c r="M339" s="56"/>
-      <c r="N339" s="56"/>
-      <c r="O339" s="56"/>
       <c r="P339" s="6"/>
     </row>
     <row r="340" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A340" s="5"/>
-      <c r="B340" s="56"/>
-      <c r="C340" s="56"/>
-      <c r="D340" s="56"/>
-      <c r="E340" s="56"/>
-      <c r="F340" s="56"/>
-      <c r="G340" s="56"/>
-      <c r="H340" s="56"/>
-      <c r="I340" s="56"/>
-      <c r="J340" s="56"/>
-      <c r="K340" s="56"/>
-      <c r="L340" s="56"/>
-      <c r="M340" s="56"/>
-      <c r="N340" s="56"/>
-      <c r="O340" s="56"/>
       <c r="P340" s="6"/>
     </row>
     <row r="341" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A341" s="5"/>
-      <c r="B341" s="56"/>
-      <c r="C341" s="56"/>
-      <c r="D341" s="56"/>
-      <c r="E341" s="56"/>
-      <c r="F341" s="56"/>
-      <c r="G341" s="56"/>
-      <c r="H341" s="56"/>
-      <c r="I341" s="56"/>
-      <c r="J341" s="56"/>
-      <c r="K341" s="56"/>
-      <c r="L341" s="56"/>
-      <c r="M341" s="56"/>
-      <c r="N341" s="56"/>
-      <c r="O341" s="56"/>
       <c r="P341" s="6"/>
     </row>
     <row r="342" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A342" s="5"/>
-      <c r="B342" s="56"/>
-      <c r="C342" s="56"/>
-      <c r="D342" s="56"/>
-      <c r="E342" s="56"/>
-      <c r="F342" s="56"/>
-      <c r="G342" s="56"/>
-      <c r="H342" s="56"/>
-      <c r="I342" s="56"/>
-      <c r="J342" s="56"/>
-      <c r="K342" s="56"/>
-      <c r="L342" s="56"/>
-      <c r="M342" s="56"/>
-      <c r="N342" s="56"/>
-      <c r="O342" s="56"/>
       <c r="P342" s="6"/>
     </row>
     <row r="343" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A343" s="5"/>
-      <c r="B343" s="56"/>
-      <c r="C343" s="56"/>
-      <c r="D343" s="56"/>
-      <c r="E343" s="56"/>
-      <c r="F343" s="56"/>
-      <c r="G343" s="56"/>
-      <c r="H343" s="56"/>
-      <c r="I343" s="56"/>
-      <c r="J343" s="56"/>
-      <c r="K343" s="56"/>
-      <c r="L343" s="56"/>
-      <c r="M343" s="56"/>
-      <c r="N343" s="56"/>
-      <c r="O343" s="56"/>
       <c r="P343" s="6"/>
     </row>
     <row r="344" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13736,6 +13110,187 @@
       <c r="O344" s="8"/>
       <c r="P344" s="9"/>
     </row>
+    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E348" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F348" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E349" s="53">
+        <v>3</v>
+      </c>
+      <c r="F349" s="58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E350" s="58">
+        <v>3</v>
+      </c>
+      <c r="F350" s="58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E351" s="58">
+        <v>3</v>
+      </c>
+      <c r="F351" s="58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E352" s="58">
+        <v>3</v>
+      </c>
+      <c r="F352" s="58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E353" s="58">
+        <v>3</v>
+      </c>
+      <c r="F353" s="58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E354" s="58">
+        <v>3</v>
+      </c>
+      <c r="F354" s="58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E355" s="58">
+        <v>3</v>
+      </c>
+      <c r="F355" s="58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E356" s="58">
+        <v>3</v>
+      </c>
+      <c r="F356" s="58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E357" s="51">
+        <v>2</v>
+      </c>
+      <c r="F357" s="58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E358" s="58">
+        <v>2</v>
+      </c>
+      <c r="F358" s="58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E359" s="58">
+        <v>2</v>
+      </c>
+      <c r="F359" s="58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E360" s="58">
+        <v>2</v>
+      </c>
+      <c r="F360" s="58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E361" s="58">
+        <v>2</v>
+      </c>
+      <c r="F361" s="58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E362" s="58">
+        <v>2</v>
+      </c>
+      <c r="F362" s="58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E363" s="58">
+        <v>2</v>
+      </c>
+      <c r="F363" s="58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E364" s="58">
+        <v>2</v>
+      </c>
+      <c r="F364" s="58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E365" s="44">
+        <v>1</v>
+      </c>
+      <c r="F365" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E366" s="58">
+        <v>1</v>
+      </c>
+      <c r="F366" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E367" s="58">
+        <v>1</v>
+      </c>
+      <c r="F367" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E368" s="48">
+        <v>0</v>
+      </c>
+      <c r="F368" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E369" s="58">
+        <v>0</v>
+      </c>
+      <c r="F369" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F370" s="57" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B315:E334">
     <sortCondition descending="1" ref="E334"/>
@@ -13749,6 +13304,7 @@
     <mergeCell ref="U74:U75"/>
     <mergeCell ref="S78:S79"/>
     <mergeCell ref="T78:U79"/>
+    <mergeCell ref="F101:L101"/>
     <mergeCell ref="AH67:AH68"/>
     <mergeCell ref="T82:W83"/>
     <mergeCell ref="T84:W84"/>
@@ -13760,7 +13316,7 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="M4:O4"/>
     <mergeCell ref="R4:T4"/>
-    <mergeCell ref="F101:L101"/>
+    <mergeCell ref="F72:L72"/>
     <mergeCell ref="V4:X4"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F38:G38"/>
@@ -13775,7 +13331,6 @@
     <mergeCell ref="AF33:AF34"/>
     <mergeCell ref="AB30:AC30"/>
     <mergeCell ref="AA38:AD38"/>
-    <mergeCell ref="F72:L72"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tarea1/doc/ExcelEmpleadoPunto1/Tarea1Estadistica320232.xlsx
+++ b/Tarea1/doc/ExcelEmpleadoPunto1/Tarea1Estadistica320232.xlsx
@@ -5,20 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Estadistica3_2023-2\Tarea1\doc\ExcelEmpleadoPunto1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Miguel Rios\Desktop\Tarea1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1547AC87-2836-4379-A50E-6176FD059731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3F70D6-3AD4-42CC-94D8-DDD087C89ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6630" yWindow="3300" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Respuestas" sheetId="1" r:id="rId1"/>
+    <sheet name="RespuestasPunto1" sheetId="1" r:id="rId1"/>
+    <sheet name="Punto2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Respuestas!$I$41:$I$61</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Respuestas!$G$41:$G$61</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Respuestas!$H$41:$H$61</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">RespuestasPunto1!$I$41:$I$61</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">RespuestasPunto1!$H$41:$H$61</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">RespuestasPunto1!$G$41:$G$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="95">
   <si>
     <t>Set de datos</t>
   </si>
@@ -278,6 +279,54 @@
   </si>
   <si>
     <t>NUEVAS ETIQUETAS</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>SET DE DATOS</t>
+  </si>
+  <si>
+    <t>PASO 1 - ESTANDARIZAR</t>
+  </si>
+  <si>
+    <t>MEDIAX1</t>
+  </si>
+  <si>
+    <t>MEDIAX2</t>
+  </si>
+  <si>
+    <t>VARIANZAX1</t>
+  </si>
+  <si>
+    <t>VARIANZAX2</t>
+  </si>
+  <si>
+    <t>DESVESTANDX1</t>
+  </si>
+  <si>
+    <t>DESVESTANDX2</t>
+  </si>
+  <si>
+    <t>(X1-MEDIAX1)/DESVESTANDX1</t>
+  </si>
+  <si>
+    <t>(X2-MEDIAX2)/DESVESTANDX2</t>
+  </si>
+  <si>
+    <t>SET DE DATOS ESTADNARIZADO</t>
+  </si>
+  <si>
+    <t>PASO 2 - CALCULAR MATRIZ DE COVARIANZA</t>
+  </si>
+  <si>
+    <t>COV(X1,X2)</t>
+  </si>
+  <si>
+    <t>COV(X2,X1)</t>
+  </si>
+  <si>
+    <t>MATRIZ DE COVARIANZA</t>
   </si>
 </sst>
 </file>
@@ -719,7 +768,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -839,6 +888,9 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -878,6 +930,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -900,7 +962,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -965,7 +1027,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2876,7 +2938,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>818028</xdr:colOff>
+      <xdr:colOff>718637</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>132564</xdr:rowOff>
     </xdr:to>
@@ -3248,6 +3310,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>461595</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>102577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>201193</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>169447</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9967477-F171-C48A-19EB-20082135F1F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="461595" y="11913577"/>
+          <a:ext cx="3124636" cy="1400370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3511,10 +3622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ370"/>
+  <dimension ref="A1:BY370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J358" sqref="J358"/>
+    <sheetView topLeftCell="AG1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AK10" sqref="AK10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3547,21 +3658,50 @@
     <col min="33" max="33" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="34" max="36" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="15" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="23.85546875" customWidth="1"/>
+    <col min="41" max="41" width="22.5703125" customWidth="1"/>
+    <col min="53" max="53" width="24" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="F2" s="59" t="s">
+    <row r="1" spans="1:77" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AI1" s="74"/>
+      <c r="AJ1" s="74"/>
+      <c r="AK1" s="74"/>
+      <c r="AL1" s="74"/>
+      <c r="AM1" s="74"/>
+      <c r="AN1" s="74"/>
+      <c r="AO1" s="74"/>
+      <c r="AP1" s="74"/>
+      <c r="AQ1" s="74"/>
+      <c r="AR1" s="74"/>
+      <c r="AS1" s="74"/>
+      <c r="AT1" s="74"/>
+      <c r="AU1" s="74"/>
+      <c r="AV1" s="74"/>
+      <c r="AW1" s="74"/>
+      <c r="AX1" s="74"/>
+      <c r="AY1" s="74"/>
+      <c r="AZ1" s="74"/>
+      <c r="BA1" s="74"/>
+      <c r="BB1" s="74"/>
+      <c r="BC1" s="74"/>
+      <c r="BD1" s="74"/>
+      <c r="BE1" s="74"/>
+    </row>
+    <row r="2" spans="1:77" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="F2" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="61"/>
+      <c r="G2" s="62"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -3588,50 +3728,119 @@
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="4"/>
-    </row>
-    <row r="3" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="75"/>
+      <c r="AK2" s="75"/>
+      <c r="AL2" s="74"/>
+      <c r="AM2" s="74"/>
+      <c r="AN2" s="74"/>
+      <c r="AO2" s="74"/>
+      <c r="AP2" s="74"/>
+      <c r="AQ2" s="74"/>
+      <c r="AR2" s="74"/>
+      <c r="AS2" s="74"/>
+      <c r="AT2" s="74"/>
+      <c r="AU2" s="74"/>
+      <c r="AV2" s="74"/>
+      <c r="AW2" s="74"/>
+      <c r="AX2" s="74"/>
+      <c r="AY2" s="74"/>
+      <c r="AZ2" s="74"/>
+      <c r="BA2" s="74"/>
+      <c r="BB2" s="74"/>
+      <c r="BC2" s="74"/>
+      <c r="BD2" s="74"/>
+      <c r="BE2" s="74"/>
+    </row>
+    <row r="3" spans="1:77" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="5"/>
       <c r="AG3" s="6"/>
-    </row>
-    <row r="4" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="65" t="s">
+      <c r="AI3" s="74"/>
+      <c r="AJ3" s="75"/>
+      <c r="AK3" s="75"/>
+      <c r="AL3" s="74"/>
+      <c r="AM3" s="74"/>
+      <c r="AN3" s="74"/>
+      <c r="AO3" s="74"/>
+      <c r="AP3" s="74"/>
+      <c r="AQ3" s="74"/>
+      <c r="AR3" s="74"/>
+      <c r="AS3" s="74"/>
+      <c r="AT3" s="74"/>
+      <c r="AU3" s="74"/>
+      <c r="AV3" s="74"/>
+      <c r="AW3" s="74"/>
+      <c r="AX3" s="74"/>
+      <c r="AY3" s="74"/>
+      <c r="AZ3" s="74"/>
+      <c r="BA3" s="74"/>
+      <c r="BB3" s="74"/>
+      <c r="BC3" s="74"/>
+      <c r="BD3" s="74"/>
+      <c r="BE3" s="74"/>
+    </row>
+    <row r="4" spans="1:77" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
       <c r="F4" s="5"/>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="60"/>
-      <c r="J4" s="61"/>
-      <c r="M4" s="59" t="s">
+      <c r="I4" s="61"/>
+      <c r="J4" s="62"/>
+      <c r="M4" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="60"/>
-      <c r="O4" s="61"/>
-      <c r="R4" s="59" t="s">
+      <c r="N4" s="61"/>
+      <c r="O4" s="62"/>
+      <c r="R4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="S4" s="60"/>
-      <c r="T4" s="61"/>
-      <c r="V4" s="59" t="s">
+      <c r="S4" s="61"/>
+      <c r="T4" s="62"/>
+      <c r="V4" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="W4" s="60"/>
-      <c r="X4" s="61"/>
-      <c r="Z4" s="59" t="s">
+      <c r="W4" s="61"/>
+      <c r="X4" s="62"/>
+      <c r="Z4" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="60"/>
-      <c r="AC4" s="60"/>
-      <c r="AD4" s="60"/>
-      <c r="AE4" s="60"/>
-      <c r="AF4" s="61"/>
+      <c r="AA4" s="61"/>
+      <c r="AB4" s="61"/>
+      <c r="AC4" s="61"/>
+      <c r="AD4" s="61"/>
+      <c r="AE4" s="61"/>
+      <c r="AF4" s="62"/>
       <c r="AG4" s="6"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AI4" s="74"/>
+      <c r="AJ4" s="75"/>
+      <c r="AK4" s="75"/>
+      <c r="AL4" s="74"/>
+      <c r="AM4" s="74"/>
+      <c r="AN4" s="74"/>
+      <c r="AO4" s="74"/>
+      <c r="AP4" s="74"/>
+      <c r="AQ4" s="74"/>
+      <c r="AR4" s="74"/>
+      <c r="AS4" s="74"/>
+      <c r="AT4" s="74"/>
+      <c r="AU4" s="74"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="74"/>
+      <c r="BC4" s="74"/>
+      <c r="BD4" s="74"/>
+      <c r="BE4" s="74"/>
+    </row>
+    <row r="5" spans="1:77" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -3679,8 +3888,31 @@
         <v>4</v>
       </c>
       <c r="AG5" s="6"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AI5" s="74"/>
+      <c r="AJ5" s="75"/>
+      <c r="AK5" s="75"/>
+      <c r="AL5" s="74"/>
+      <c r="AM5" s="74"/>
+      <c r="AN5" s="74"/>
+      <c r="AO5" s="74"/>
+      <c r="AP5" s="74"/>
+      <c r="AQ5" s="74"/>
+      <c r="AR5" s="74"/>
+      <c r="AS5" s="74"/>
+      <c r="AT5" s="74"/>
+      <c r="AU5" s="74"/>
+      <c r="AV5" s="74"/>
+      <c r="AW5" s="74"/>
+      <c r="AX5" s="74"/>
+      <c r="AY5" s="74"/>
+      <c r="AZ5" s="74"/>
+      <c r="BA5" s="74"/>
+      <c r="BB5" s="74"/>
+      <c r="BC5" s="74"/>
+      <c r="BD5" s="74"/>
+      <c r="BE5" s="74"/>
+    </row>
+    <row r="6" spans="1:77" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -3735,8 +3967,31 @@
         <v>21</v>
       </c>
       <c r="AG6" s="6"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AI6" s="74"/>
+      <c r="AJ6" s="75"/>
+      <c r="AK6" s="75"/>
+      <c r="AL6" s="74"/>
+      <c r="AM6" s="74"/>
+      <c r="AN6" s="74"/>
+      <c r="AO6" s="74"/>
+      <c r="AP6" s="74"/>
+      <c r="AQ6" s="74"/>
+      <c r="AR6" s="74"/>
+      <c r="AS6" s="74"/>
+      <c r="AT6" s="74"/>
+      <c r="AU6" s="74"/>
+      <c r="AV6" s="74"/>
+      <c r="AW6" s="74"/>
+      <c r="AX6" s="74"/>
+      <c r="AY6" s="74"/>
+      <c r="AZ6" s="74"/>
+      <c r="BA6" s="74"/>
+      <c r="BB6" s="74"/>
+      <c r="BC6" s="74"/>
+      <c r="BD6" s="74"/>
+      <c r="BE6" s="74"/>
+    </row>
+    <row r="7" spans="1:77" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>2</v>
       </c>
@@ -3803,8 +4058,31 @@
         <v>16</v>
       </c>
       <c r="AG7" s="6"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AI7" s="74"/>
+      <c r="AJ7" s="75"/>
+      <c r="AK7" s="75"/>
+      <c r="AL7" s="74"/>
+      <c r="AM7" s="74"/>
+      <c r="AN7" s="74"/>
+      <c r="AO7" s="74"/>
+      <c r="AP7" s="74"/>
+      <c r="AQ7" s="74"/>
+      <c r="AR7" s="74"/>
+      <c r="AS7" s="74"/>
+      <c r="AT7" s="74"/>
+      <c r="AU7" s="74"/>
+      <c r="AV7" s="74"/>
+      <c r="AW7" s="74"/>
+      <c r="AX7" s="74"/>
+      <c r="AY7" s="74"/>
+      <c r="AZ7" s="74"/>
+      <c r="BA7" s="74"/>
+      <c r="BB7" s="74"/>
+      <c r="BC7" s="74"/>
+      <c r="BD7" s="74"/>
+      <c r="BE7" s="74"/>
+    </row>
+    <row r="8" spans="1:77" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>2</v>
       </c>
@@ -3879,8 +4157,31 @@
         <v>923.00226757369603</v>
       </c>
       <c r="AG8" s="6"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AI8" s="74"/>
+      <c r="AJ8" s="75"/>
+      <c r="AK8" s="75"/>
+      <c r="AL8" s="74"/>
+      <c r="AM8" s="74"/>
+      <c r="AN8" s="74"/>
+      <c r="AO8" s="74"/>
+      <c r="AP8" s="74"/>
+      <c r="AQ8" s="74"/>
+      <c r="AR8" s="74"/>
+      <c r="AS8" s="74"/>
+      <c r="AT8" s="74"/>
+      <c r="AU8" s="74"/>
+      <c r="AV8" s="74"/>
+      <c r="AW8" s="74"/>
+      <c r="AX8" s="74"/>
+      <c r="AY8" s="74"/>
+      <c r="AZ8" s="74"/>
+      <c r="BA8" s="74"/>
+      <c r="BB8" s="74"/>
+      <c r="BC8" s="74"/>
+      <c r="BD8" s="74"/>
+      <c r="BE8" s="74"/>
+    </row>
+    <row r="9" spans="1:77" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>3</v>
       </c>
@@ -3940,8 +4241,34 @@
         <v>695.95464852607699</v>
       </c>
       <c r="AG9" s="6"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AI9" s="74"/>
+      <c r="AJ9" s="75"/>
+      <c r="AK9" s="75"/>
+      <c r="AL9" s="74"/>
+      <c r="AM9" s="74"/>
+      <c r="AN9" s="74"/>
+      <c r="AO9" s="74"/>
+      <c r="AP9" s="74"/>
+      <c r="AQ9" s="74"/>
+      <c r="AR9" s="74"/>
+      <c r="AS9" s="74"/>
+      <c r="AT9" s="74"/>
+      <c r="AU9" s="74"/>
+      <c r="AV9" s="74"/>
+      <c r="AW9" s="74"/>
+      <c r="AX9" s="74"/>
+      <c r="AY9" s="74"/>
+      <c r="AZ9" s="74"/>
+      <c r="BA9" s="74"/>
+      <c r="BB9" s="74"/>
+      <c r="BC9" s="74"/>
+      <c r="BD9" s="74"/>
+      <c r="BE9" s="74"/>
+      <c r="BY9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:77" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>1</v>
       </c>
@@ -4001,8 +4328,31 @@
         <v>206.81179138321991</v>
       </c>
       <c r="AG10" s="6"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AI10" s="74"/>
+      <c r="AJ10" s="75"/>
+      <c r="AK10" s="75"/>
+      <c r="AL10" s="74"/>
+      <c r="AM10" s="74"/>
+      <c r="AN10" s="74"/>
+      <c r="AO10" s="74"/>
+      <c r="AP10" s="74"/>
+      <c r="AQ10" s="74"/>
+      <c r="AR10" s="74"/>
+      <c r="AS10" s="74"/>
+      <c r="AT10" s="74"/>
+      <c r="AU10" s="74"/>
+      <c r="AV10" s="74"/>
+      <c r="AW10" s="74"/>
+      <c r="AX10" s="74"/>
+      <c r="AY10" s="74"/>
+      <c r="AZ10" s="74"/>
+      <c r="BA10" s="74"/>
+      <c r="BB10" s="74"/>
+      <c r="BC10" s="74"/>
+      <c r="BD10" s="74"/>
+      <c r="BE10" s="74"/>
+    </row>
+    <row r="11" spans="1:77" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>3</v>
       </c>
@@ -4062,8 +4412,31 @@
         <v>206.81179138321991</v>
       </c>
       <c r="AG11" s="6"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AI11" s="74"/>
+      <c r="AJ11" s="75"/>
+      <c r="AK11" s="75"/>
+      <c r="AL11" s="74"/>
+      <c r="AM11" s="74"/>
+      <c r="AN11" s="74"/>
+      <c r="AO11" s="74"/>
+      <c r="AP11" s="74"/>
+      <c r="AQ11" s="74"/>
+      <c r="AR11" s="74"/>
+      <c r="AS11" s="74"/>
+      <c r="AT11" s="74"/>
+      <c r="AU11" s="74"/>
+      <c r="AV11" s="74"/>
+      <c r="AW11" s="74"/>
+      <c r="AX11" s="74"/>
+      <c r="AY11" s="74"/>
+      <c r="AZ11" s="74"/>
+      <c r="BA11" s="74"/>
+      <c r="BB11" s="74"/>
+      <c r="BC11" s="74"/>
+      <c r="BD11" s="74"/>
+      <c r="BE11" s="74"/>
+    </row>
+    <row r="12" spans="1:77" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>3</v>
       </c>
@@ -4123,8 +4496,31 @@
         <v>206.81179138321991</v>
       </c>
       <c r="AG12" s="6"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AI12" s="74"/>
+      <c r="AJ12" s="75"/>
+      <c r="AK12" s="75"/>
+      <c r="AL12" s="74"/>
+      <c r="AM12" s="74"/>
+      <c r="AN12" s="74"/>
+      <c r="AO12" s="74"/>
+      <c r="AP12" s="74"/>
+      <c r="AQ12" s="74"/>
+      <c r="AR12" s="74"/>
+      <c r="AS12" s="74"/>
+      <c r="AT12" s="74"/>
+      <c r="AU12" s="74"/>
+      <c r="AV12" s="74"/>
+      <c r="AW12" s="74"/>
+      <c r="AX12" s="74"/>
+      <c r="AY12" s="74"/>
+      <c r="AZ12" s="74"/>
+      <c r="BA12" s="74"/>
+      <c r="BB12" s="74"/>
+      <c r="BC12" s="74"/>
+      <c r="BD12" s="74"/>
+      <c r="BE12" s="74"/>
+    </row>
+    <row r="13" spans="1:77" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>0</v>
       </c>
@@ -4184,8 +4580,31 @@
         <v>179.04988662131515</v>
       </c>
       <c r="AG13" s="6"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AI13" s="74"/>
+      <c r="AJ13" s="75"/>
+      <c r="AK13" s="75"/>
+      <c r="AL13" s="74"/>
+      <c r="AM13" s="74"/>
+      <c r="AN13" s="74"/>
+      <c r="AO13" s="74"/>
+      <c r="AP13" s="74"/>
+      <c r="AQ13" s="74"/>
+      <c r="AR13" s="74"/>
+      <c r="AS13" s="74"/>
+      <c r="AT13" s="74"/>
+      <c r="AU13" s="74"/>
+      <c r="AV13" s="74"/>
+      <c r="AW13" s="74"/>
+      <c r="AX13" s="74"/>
+      <c r="AY13" s="74"/>
+      <c r="AZ13" s="74"/>
+      <c r="BA13" s="74"/>
+      <c r="BB13" s="74"/>
+      <c r="BC13" s="74"/>
+      <c r="BD13" s="74"/>
+      <c r="BE13" s="74"/>
+    </row>
+    <row r="14" spans="1:77" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>1</v>
       </c>
@@ -4245,8 +4664,31 @@
         <v>179.04988662131515</v>
       </c>
       <c r="AG14" s="6"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AI14" s="74"/>
+      <c r="AJ14" s="75"/>
+      <c r="AK14" s="75"/>
+      <c r="AL14" s="74"/>
+      <c r="AM14" s="74"/>
+      <c r="AN14" s="74"/>
+      <c r="AO14" s="74"/>
+      <c r="AP14" s="74"/>
+      <c r="AQ14" s="74"/>
+      <c r="AR14" s="74"/>
+      <c r="AS14" s="74"/>
+      <c r="AT14" s="74"/>
+      <c r="AU14" s="74"/>
+      <c r="AV14" s="74"/>
+      <c r="AW14" s="74"/>
+      <c r="AX14" s="74"/>
+      <c r="AY14" s="74"/>
+      <c r="AZ14" s="74"/>
+      <c r="BA14" s="74"/>
+      <c r="BB14" s="74"/>
+      <c r="BC14" s="74"/>
+      <c r="BD14" s="74"/>
+      <c r="BE14" s="74"/>
+    </row>
+    <row r="15" spans="1:77" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>0</v>
       </c>
@@ -4306,8 +4748,31 @@
         <v>153.28798185941039</v>
       </c>
       <c r="AG15" s="6"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AI15" s="74"/>
+      <c r="AJ15" s="75"/>
+      <c r="AK15" s="75"/>
+      <c r="AL15" s="74"/>
+      <c r="AM15" s="74"/>
+      <c r="AN15" s="74"/>
+      <c r="AO15" s="74"/>
+      <c r="AP15" s="74"/>
+      <c r="AQ15" s="74"/>
+      <c r="AR15" s="74"/>
+      <c r="AS15" s="74"/>
+      <c r="AT15" s="74"/>
+      <c r="AU15" s="74"/>
+      <c r="AV15" s="74"/>
+      <c r="AW15" s="74"/>
+      <c r="AX15" s="74"/>
+      <c r="AY15" s="74"/>
+      <c r="AZ15" s="74"/>
+      <c r="BA15" s="74"/>
+      <c r="BB15" s="74"/>
+      <c r="BC15" s="74"/>
+      <c r="BD15" s="74"/>
+      <c r="BE15" s="74"/>
+    </row>
+    <row r="16" spans="1:77" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>5</v>
       </c>
@@ -4367,8 +4832,31 @@
         <v>54.478458049886598</v>
       </c>
       <c r="AG16" s="6"/>
-    </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AI16" s="74"/>
+      <c r="AJ16" s="75"/>
+      <c r="AK16" s="75"/>
+      <c r="AL16" s="74"/>
+      <c r="AM16" s="74"/>
+      <c r="AN16" s="74"/>
+      <c r="AO16" s="74"/>
+      <c r="AP16" s="74"/>
+      <c r="AQ16" s="74"/>
+      <c r="AR16" s="74"/>
+      <c r="AS16" s="74"/>
+      <c r="AT16" s="74"/>
+      <c r="AU16" s="74"/>
+      <c r="AV16" s="74"/>
+      <c r="AW16" s="74"/>
+      <c r="AX16" s="74"/>
+      <c r="AY16" s="74"/>
+      <c r="AZ16" s="74"/>
+      <c r="BA16" s="74"/>
+      <c r="BB16" s="74"/>
+      <c r="BC16" s="74"/>
+      <c r="BD16" s="74"/>
+      <c r="BE16" s="74"/>
+    </row>
+    <row r="17" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>1</v>
       </c>
@@ -4428,8 +4916,31 @@
         <v>54.478458049886598</v>
       </c>
       <c r="AG17" s="6"/>
-    </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AI17" s="74"/>
+      <c r="AJ17" s="75"/>
+      <c r="AK17" s="75"/>
+      <c r="AL17" s="74"/>
+      <c r="AM17" s="74"/>
+      <c r="AN17" s="74"/>
+      <c r="AO17" s="74"/>
+      <c r="AP17" s="74"/>
+      <c r="AQ17" s="74"/>
+      <c r="AR17" s="74"/>
+      <c r="AS17" s="74"/>
+      <c r="AT17" s="74"/>
+      <c r="AU17" s="74"/>
+      <c r="AV17" s="74"/>
+      <c r="AW17" s="74"/>
+      <c r="AX17" s="74"/>
+      <c r="AY17" s="74"/>
+      <c r="AZ17" s="74"/>
+      <c r="BA17" s="74"/>
+      <c r="BB17" s="74"/>
+      <c r="BC17" s="74"/>
+      <c r="BD17" s="74"/>
+      <c r="BE17" s="74"/>
+    </row>
+    <row r="18" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>2</v>
       </c>
@@ -4489,8 +5000,31 @@
         <v>11.430839002267565</v>
       </c>
       <c r="AG18" s="6"/>
-    </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AI18" s="74"/>
+      <c r="AJ18" s="75"/>
+      <c r="AK18" s="75"/>
+      <c r="AL18" s="74"/>
+      <c r="AM18" s="74"/>
+      <c r="AN18" s="74"/>
+      <c r="AO18" s="74"/>
+      <c r="AP18" s="74"/>
+      <c r="AQ18" s="74"/>
+      <c r="AR18" s="74"/>
+      <c r="AS18" s="74"/>
+      <c r="AT18" s="74"/>
+      <c r="AU18" s="74"/>
+      <c r="AV18" s="74"/>
+      <c r="AW18" s="74"/>
+      <c r="AX18" s="74"/>
+      <c r="AY18" s="74"/>
+      <c r="AZ18" s="74"/>
+      <c r="BA18" s="74"/>
+      <c r="BB18" s="74"/>
+      <c r="BC18" s="74"/>
+      <c r="BD18" s="74"/>
+      <c r="BE18" s="74"/>
+    </row>
+    <row r="19" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>1</v>
       </c>
@@ -4550,8 +5084,31 @@
         <v>1.9070294784580462</v>
       </c>
       <c r="AG19" s="6"/>
-    </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AI19" s="74"/>
+      <c r="AJ19" s="75"/>
+      <c r="AK19" s="75"/>
+      <c r="AL19" s="74"/>
+      <c r="AM19" s="74"/>
+      <c r="AN19" s="74"/>
+      <c r="AO19" s="74"/>
+      <c r="AP19" s="74"/>
+      <c r="AQ19" s="74"/>
+      <c r="AR19" s="74"/>
+      <c r="AS19" s="74"/>
+      <c r="AT19" s="74"/>
+      <c r="AU19" s="74"/>
+      <c r="AV19" s="74"/>
+      <c r="AW19" s="74"/>
+      <c r="AX19" s="74"/>
+      <c r="AY19" s="74"/>
+      <c r="AZ19" s="74"/>
+      <c r="BA19" s="74"/>
+      <c r="BB19" s="74"/>
+      <c r="BC19" s="74"/>
+      <c r="BD19" s="74"/>
+      <c r="BE19" s="74"/>
+    </row>
+    <row r="20" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>3</v>
       </c>
@@ -4611,8 +5168,31 @@
         <v>0.38321995464852776</v>
       </c>
       <c r="AG20" s="6"/>
-    </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AI20" s="74"/>
+      <c r="AJ20" s="75"/>
+      <c r="AK20" s="75"/>
+      <c r="AL20" s="74"/>
+      <c r="AM20" s="74"/>
+      <c r="AN20" s="74"/>
+      <c r="AO20" s="74"/>
+      <c r="AP20" s="74"/>
+      <c r="AQ20" s="74"/>
+      <c r="AR20" s="74"/>
+      <c r="AS20" s="74"/>
+      <c r="AT20" s="74"/>
+      <c r="AU20" s="74"/>
+      <c r="AV20" s="74"/>
+      <c r="AW20" s="74"/>
+      <c r="AX20" s="74"/>
+      <c r="AY20" s="74"/>
+      <c r="AZ20" s="74"/>
+      <c r="BA20" s="74"/>
+      <c r="BB20" s="74"/>
+      <c r="BC20" s="74"/>
+      <c r="BD20" s="74"/>
+      <c r="BE20" s="74"/>
+    </row>
+    <row r="21" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>4</v>
       </c>
@@ -4672,8 +5252,31 @@
         <v>92.526077097505691</v>
       </c>
       <c r="AG21" s="6"/>
-    </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AI21" s="74"/>
+      <c r="AJ21" s="75"/>
+      <c r="AK21" s="75"/>
+      <c r="AL21" s="74"/>
+      <c r="AM21" s="74"/>
+      <c r="AN21" s="74"/>
+      <c r="AO21" s="74"/>
+      <c r="AP21" s="74"/>
+      <c r="AQ21" s="74"/>
+      <c r="AR21" s="74"/>
+      <c r="AS21" s="74"/>
+      <c r="AT21" s="74"/>
+      <c r="AU21" s="74"/>
+      <c r="AV21" s="74"/>
+      <c r="AW21" s="74"/>
+      <c r="AX21" s="74"/>
+      <c r="AY21" s="74"/>
+      <c r="AZ21" s="74"/>
+      <c r="BA21" s="74"/>
+      <c r="BB21" s="74"/>
+      <c r="BC21" s="74"/>
+      <c r="BD21" s="74"/>
+      <c r="BE21" s="74"/>
+    </row>
+    <row r="22" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>4</v>
       </c>
@@ -4733,8 +5336,31 @@
         <v>112.76417233560093</v>
       </c>
       <c r="AG22" s="6"/>
-    </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AI22" s="74"/>
+      <c r="AJ22" s="75"/>
+      <c r="AK22" s="75"/>
+      <c r="AL22" s="74"/>
+      <c r="AM22" s="74"/>
+      <c r="AN22" s="74"/>
+      <c r="AO22" s="74"/>
+      <c r="AP22" s="74"/>
+      <c r="AQ22" s="74"/>
+      <c r="AR22" s="74"/>
+      <c r="AS22" s="74"/>
+      <c r="AT22" s="74"/>
+      <c r="AU22" s="74"/>
+      <c r="AV22" s="74"/>
+      <c r="AW22" s="74"/>
+      <c r="AX22" s="74"/>
+      <c r="AY22" s="74"/>
+      <c r="AZ22" s="74"/>
+      <c r="BA22" s="74"/>
+      <c r="BB22" s="74"/>
+      <c r="BC22" s="74"/>
+      <c r="BD22" s="74"/>
+      <c r="BE22" s="74"/>
+    </row>
+    <row r="23" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>3</v>
       </c>
@@ -4794,8 +5420,31 @@
         <v>159.24036281179141</v>
       </c>
       <c r="AG23" s="6"/>
-    </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AI23" s="74"/>
+      <c r="AJ23" s="75"/>
+      <c r="AK23" s="75"/>
+      <c r="AL23" s="74"/>
+      <c r="AM23" s="74"/>
+      <c r="AN23" s="74"/>
+      <c r="AO23" s="74"/>
+      <c r="AP23" s="74"/>
+      <c r="AQ23" s="74"/>
+      <c r="AR23" s="74"/>
+      <c r="AS23" s="74"/>
+      <c r="AT23" s="74"/>
+      <c r="AU23" s="74"/>
+      <c r="AV23" s="74"/>
+      <c r="AW23" s="74"/>
+      <c r="AX23" s="74"/>
+      <c r="AY23" s="74"/>
+      <c r="AZ23" s="74"/>
+      <c r="BA23" s="74"/>
+      <c r="BB23" s="74"/>
+      <c r="BC23" s="74"/>
+      <c r="BD23" s="74"/>
+      <c r="BE23" s="74"/>
+    </row>
+    <row r="24" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>5</v>
       </c>
@@ -4855,8 +5504,31 @@
         <v>159.24036281179141</v>
       </c>
       <c r="AG24" s="6"/>
-    </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AI24" s="74"/>
+      <c r="AJ24" s="75"/>
+      <c r="AK24" s="75"/>
+      <c r="AL24" s="74"/>
+      <c r="AM24" s="74"/>
+      <c r="AN24" s="74"/>
+      <c r="AO24" s="74"/>
+      <c r="AP24" s="74"/>
+      <c r="AQ24" s="74"/>
+      <c r="AR24" s="74"/>
+      <c r="AS24" s="74"/>
+      <c r="AT24" s="74"/>
+      <c r="AU24" s="74"/>
+      <c r="AV24" s="74"/>
+      <c r="AW24" s="74"/>
+      <c r="AX24" s="74"/>
+      <c r="AY24" s="74"/>
+      <c r="AZ24" s="74"/>
+      <c r="BA24" s="74"/>
+      <c r="BB24" s="74"/>
+      <c r="BC24" s="74"/>
+      <c r="BD24" s="74"/>
+      <c r="BE24" s="74"/>
+    </row>
+    <row r="25" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>1</v>
       </c>
@@ -4916,8 +5588,31 @@
         <v>606.09750566893433</v>
       </c>
       <c r="AG25" s="6"/>
-    </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AI25" s="74"/>
+      <c r="AJ25" s="74"/>
+      <c r="AK25" s="74"/>
+      <c r="AL25" s="74"/>
+      <c r="AM25" s="74"/>
+      <c r="AN25" s="74"/>
+      <c r="AO25" s="74"/>
+      <c r="AP25" s="74"/>
+      <c r="AQ25" s="74"/>
+      <c r="AR25" s="74"/>
+      <c r="AS25" s="74"/>
+      <c r="AT25" s="74"/>
+      <c r="AU25" s="74"/>
+      <c r="AV25" s="74"/>
+      <c r="AW25" s="74"/>
+      <c r="AX25" s="74"/>
+      <c r="AY25" s="74"/>
+      <c r="AZ25" s="74"/>
+      <c r="BA25" s="74"/>
+      <c r="BB25" s="74"/>
+      <c r="BC25" s="74"/>
+      <c r="BD25" s="74"/>
+      <c r="BE25" s="74"/>
+    </row>
+    <row r="26" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>1</v>
       </c>
@@ -4977,8 +5672,31 @@
         <v>606.09750566893433</v>
       </c>
       <c r="AG26" s="6"/>
-    </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AI26" s="74"/>
+      <c r="AJ26" s="74"/>
+      <c r="AK26" s="76"/>
+      <c r="AL26" s="74"/>
+      <c r="AM26" s="74"/>
+      <c r="AN26" s="74"/>
+      <c r="AO26" s="74"/>
+      <c r="AP26" s="74"/>
+      <c r="AQ26" s="74"/>
+      <c r="AR26" s="74"/>
+      <c r="AS26" s="74"/>
+      <c r="AT26" s="74"/>
+      <c r="AU26" s="74"/>
+      <c r="AV26" s="74"/>
+      <c r="AW26" s="74"/>
+      <c r="AX26" s="74"/>
+      <c r="AY26" s="74"/>
+      <c r="AZ26" s="74"/>
+      <c r="BA26" s="74"/>
+      <c r="BB26" s="74"/>
+      <c r="BC26" s="74"/>
+      <c r="BD26" s="74"/>
+      <c r="BE26" s="74"/>
+    </row>
+    <row r="27" spans="2:57" x14ac:dyDescent="0.25">
       <c r="F27" s="5"/>
       <c r="G27" s="10" t="s">
         <v>8</v>
@@ -5038,8 +5756,31 @@
         <v>937.52607709750578</v>
       </c>
       <c r="AG27" s="6"/>
-    </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AI27" s="74"/>
+      <c r="AJ27" s="74"/>
+      <c r="AK27" s="76"/>
+      <c r="AL27" s="74"/>
+      <c r="AM27" s="74"/>
+      <c r="AN27" s="74"/>
+      <c r="AO27" s="74"/>
+      <c r="AP27" s="74"/>
+      <c r="AQ27" s="74"/>
+      <c r="AR27" s="74"/>
+      <c r="AS27" s="74"/>
+      <c r="AT27" s="74"/>
+      <c r="AU27" s="74"/>
+      <c r="AV27" s="74"/>
+      <c r="AW27" s="74"/>
+      <c r="AX27" s="74"/>
+      <c r="AY27" s="74"/>
+      <c r="AZ27" s="74"/>
+      <c r="BA27" s="74"/>
+      <c r="BB27" s="74"/>
+      <c r="BC27" s="74"/>
+      <c r="BD27" s="74"/>
+      <c r="BE27" s="74"/>
+    </row>
+    <row r="28" spans="2:57" x14ac:dyDescent="0.25">
       <c r="F28" s="5"/>
       <c r="G28" s="10" t="s">
         <v>6</v>
@@ -5061,8 +5802,31 @@
         <v>1064.0022675736961</v>
       </c>
       <c r="AG28" s="6"/>
-    </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AI28" s="74"/>
+      <c r="AJ28" s="74"/>
+      <c r="AK28" s="74"/>
+      <c r="AL28" s="74"/>
+      <c r="AM28" s="74"/>
+      <c r="AN28" s="74"/>
+      <c r="AO28" s="74"/>
+      <c r="AP28" s="74"/>
+      <c r="AQ28" s="74"/>
+      <c r="AR28" s="74"/>
+      <c r="AS28" s="74"/>
+      <c r="AT28" s="74"/>
+      <c r="AU28" s="74"/>
+      <c r="AV28" s="74"/>
+      <c r="AW28" s="74"/>
+      <c r="AX28" s="74"/>
+      <c r="AY28" s="74"/>
+      <c r="AZ28" s="74"/>
+      <c r="BA28" s="74"/>
+      <c r="BB28" s="74"/>
+      <c r="BC28" s="74"/>
+      <c r="BD28" s="74"/>
+      <c r="BE28" s="74"/>
+    </row>
+    <row r="29" spans="2:57" x14ac:dyDescent="0.25">
       <c r="F29" s="5"/>
       <c r="G29" s="10" t="s">
         <v>7</v>
@@ -5080,13 +5844,36 @@
         <v>31.38095238095238</v>
       </c>
       <c r="AG29" s="6"/>
-    </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AI29" s="74"/>
+      <c r="AJ29" s="74"/>
+      <c r="AK29" s="74"/>
+      <c r="AL29" s="74"/>
+      <c r="AM29" s="74"/>
+      <c r="AN29" s="74"/>
+      <c r="AO29" s="74"/>
+      <c r="AP29" s="74"/>
+      <c r="AQ29" s="74"/>
+      <c r="AR29" s="74"/>
+      <c r="AS29" s="74"/>
+      <c r="AT29" s="74"/>
+      <c r="AU29" s="74"/>
+      <c r="AV29" s="74"/>
+      <c r="AW29" s="74"/>
+      <c r="AX29" s="74"/>
+      <c r="AY29" s="74"/>
+      <c r="AZ29" s="74"/>
+      <c r="BA29" s="74"/>
+      <c r="BB29" s="74"/>
+      <c r="BC29" s="74"/>
+      <c r="BD29" s="74"/>
+      <c r="BE29" s="74"/>
+    </row>
+    <row r="30" spans="2:57" x14ac:dyDescent="0.25">
       <c r="F30" s="5"/>
-      <c r="AB30" s="63" t="s">
+      <c r="AB30" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="AC30" s="63"/>
+      <c r="AC30" s="64"/>
       <c r="AD30" s="10">
         <f>SUM(AD8:AD28)</f>
         <v>46.666666666666671</v>
@@ -5100,70 +5887,208 @@
         <v>6610.9523809523807</v>
       </c>
       <c r="AG30" s="6"/>
-    </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AI30" s="74"/>
+      <c r="AJ30" s="74"/>
+      <c r="AK30" s="74"/>
+      <c r="AL30" s="74"/>
+      <c r="AM30" s="74"/>
+      <c r="AN30" s="74"/>
+      <c r="AO30" s="74"/>
+      <c r="AP30" s="74"/>
+      <c r="AQ30" s="74"/>
+      <c r="AR30" s="74"/>
+      <c r="AS30" s="74"/>
+      <c r="AT30" s="74"/>
+      <c r="AU30" s="74"/>
+      <c r="AV30" s="74"/>
+      <c r="AW30" s="74"/>
+      <c r="AX30" s="74"/>
+      <c r="AY30" s="74"/>
+      <c r="AZ30" s="74"/>
+      <c r="BA30" s="74"/>
+      <c r="BB30" s="74"/>
+      <c r="BC30" s="74"/>
+      <c r="BD30" s="74"/>
+      <c r="BE30" s="74"/>
+    </row>
+    <row r="31" spans="2:57" x14ac:dyDescent="0.25">
       <c r="F31" s="5"/>
-      <c r="AB31" s="62" t="s">
+      <c r="AB31" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="AC31" s="62"/>
-      <c r="AD31" s="63">
+      <c r="AC31" s="63"/>
+      <c r="AD31" s="64">
         <f>AD30/AA6</f>
         <v>2.2222222222222223</v>
       </c>
-      <c r="AE31" s="63">
+      <c r="AE31" s="64">
         <f>AE30/AA6</f>
         <v>6.5306122448979576</v>
       </c>
-      <c r="AF31" s="63">
+      <c r="AF31" s="64">
         <f>AF30/AA6</f>
         <v>314.80725623582765</v>
       </c>
       <c r="AG31" s="6"/>
-    </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AI31" s="74"/>
+      <c r="AJ31" s="74"/>
+      <c r="AK31" s="74"/>
+      <c r="AL31" s="74"/>
+      <c r="AM31" s="74"/>
+      <c r="AN31" s="74"/>
+      <c r="AO31" s="74"/>
+      <c r="AP31" s="74"/>
+      <c r="AQ31" s="74"/>
+      <c r="AR31" s="74"/>
+      <c r="AS31" s="74"/>
+      <c r="AT31" s="74"/>
+      <c r="AU31" s="74"/>
+      <c r="AV31" s="74"/>
+      <c r="AW31" s="74"/>
+      <c r="AX31" s="74"/>
+      <c r="AY31" s="74"/>
+      <c r="AZ31" s="74"/>
+      <c r="BA31" s="74"/>
+      <c r="BB31" s="74"/>
+      <c r="BC31" s="74"/>
+      <c r="BD31" s="74"/>
+      <c r="BE31" s="74"/>
+    </row>
+    <row r="32" spans="2:57" x14ac:dyDescent="0.25">
       <c r="F32" s="5"/>
-      <c r="AB32" s="62"/>
-      <c r="AC32" s="62"/>
-      <c r="AD32" s="63"/>
-      <c r="AE32" s="63"/>
-      <c r="AF32" s="63"/>
+      <c r="AB32" s="63"/>
+      <c r="AC32" s="63"/>
+      <c r="AD32" s="64"/>
+      <c r="AE32" s="64"/>
+      <c r="AF32" s="64"/>
       <c r="AG32" s="6"/>
-    </row>
-    <row r="33" spans="6:43" x14ac:dyDescent="0.25">
+      <c r="AI32" s="74"/>
+      <c r="AJ32" s="74"/>
+      <c r="AK32" s="74"/>
+      <c r="AL32" s="74"/>
+      <c r="AM32" s="74"/>
+      <c r="AN32" s="74"/>
+      <c r="AO32" s="74"/>
+      <c r="AP32" s="74"/>
+      <c r="AQ32" s="74"/>
+      <c r="AR32" s="74"/>
+      <c r="AS32" s="74"/>
+      <c r="AT32" s="74"/>
+      <c r="AU32" s="74"/>
+      <c r="AV32" s="74"/>
+      <c r="AW32" s="74"/>
+      <c r="AX32" s="74"/>
+      <c r="AY32" s="74"/>
+      <c r="AZ32" s="74"/>
+      <c r="BA32" s="74"/>
+      <c r="BB32" s="74"/>
+      <c r="BC32" s="74"/>
+      <c r="BD32" s="74"/>
+      <c r="BE32" s="74"/>
+    </row>
+    <row r="33" spans="6:57" x14ac:dyDescent="0.25">
       <c r="F33" s="5"/>
-      <c r="AB33" s="62" t="s">
+      <c r="AB33" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="AC33" s="62"/>
-      <c r="AD33" s="63">
+      <c r="AC33" s="63"/>
+      <c r="AD33" s="64">
         <f>SQRT(AD31)</f>
         <v>1.4907119849998598</v>
       </c>
-      <c r="AE33" s="63">
+      <c r="AE33" s="64">
         <f>SQRT(AE31)</f>
         <v>2.5555062599997593</v>
       </c>
-      <c r="AF33" s="63">
+      <c r="AF33" s="64">
         <f>SQRT(AF31)</f>
         <v>17.742808578007814</v>
       </c>
       <c r="AG33" s="6"/>
-    </row>
-    <row r="34" spans="6:43" x14ac:dyDescent="0.25">
+      <c r="AI33" s="74"/>
+      <c r="AJ33" s="74"/>
+      <c r="AK33" s="74"/>
+      <c r="AL33" s="74"/>
+      <c r="AM33" s="74"/>
+      <c r="AN33" s="74"/>
+      <c r="AO33" s="74"/>
+      <c r="AP33" s="74"/>
+      <c r="AQ33" s="74"/>
+      <c r="AR33" s="74"/>
+      <c r="AS33" s="74"/>
+      <c r="AT33" s="74"/>
+      <c r="AU33" s="74"/>
+      <c r="AV33" s="74"/>
+      <c r="AW33" s="74"/>
+      <c r="AX33" s="74"/>
+      <c r="AY33" s="74"/>
+      <c r="AZ33" s="74"/>
+      <c r="BA33" s="74"/>
+      <c r="BB33" s="74"/>
+      <c r="BC33" s="74"/>
+      <c r="BD33" s="74"/>
+      <c r="BE33" s="74"/>
+    </row>
+    <row r="34" spans="6:57" x14ac:dyDescent="0.25">
       <c r="F34" s="5"/>
-      <c r="AB34" s="62"/>
-      <c r="AC34" s="62"/>
-      <c r="AD34" s="63"/>
-      <c r="AE34" s="63"/>
-      <c r="AF34" s="63"/>
+      <c r="AB34" s="63"/>
+      <c r="AC34" s="63"/>
+      <c r="AD34" s="64"/>
+      <c r="AE34" s="64"/>
+      <c r="AF34" s="64"/>
       <c r="AG34" s="6"/>
-    </row>
-    <row r="35" spans="6:43" x14ac:dyDescent="0.25">
+      <c r="AI34" s="74"/>
+      <c r="AJ34" s="74"/>
+      <c r="AK34" s="74"/>
+      <c r="AL34" s="74"/>
+      <c r="AM34" s="74"/>
+      <c r="AN34" s="74"/>
+      <c r="AO34" s="74"/>
+      <c r="AP34" s="74"/>
+      <c r="AQ34" s="74"/>
+      <c r="AR34" s="74"/>
+      <c r="AS34" s="74"/>
+      <c r="AT34" s="74"/>
+      <c r="AU34" s="74"/>
+      <c r="AV34" s="74"/>
+      <c r="AW34" s="74"/>
+      <c r="AX34" s="74"/>
+      <c r="AY34" s="74"/>
+      <c r="AZ34" s="74"/>
+      <c r="BA34" s="74"/>
+      <c r="BB34" s="74"/>
+      <c r="BC34" s="74"/>
+      <c r="BD34" s="74"/>
+      <c r="BE34" s="74"/>
+    </row>
+    <row r="35" spans="6:57" x14ac:dyDescent="0.25">
       <c r="F35" s="5"/>
       <c r="AG35" s="6"/>
-    </row>
-    <row r="36" spans="6:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AI35" s="74"/>
+      <c r="AJ35" s="74"/>
+      <c r="AK35" s="74"/>
+      <c r="AL35" s="74"/>
+      <c r="AM35" s="74"/>
+      <c r="AN35" s="74"/>
+      <c r="AO35" s="74"/>
+      <c r="AP35" s="74"/>
+      <c r="AQ35" s="74"/>
+      <c r="AR35" s="74"/>
+      <c r="AS35" s="74"/>
+      <c r="AT35" s="74"/>
+      <c r="AU35" s="74"/>
+      <c r="AV35" s="74"/>
+      <c r="AW35" s="74"/>
+      <c r="AX35" s="74"/>
+      <c r="AY35" s="74"/>
+      <c r="AZ35" s="74"/>
+      <c r="BA35" s="74"/>
+      <c r="BB35" s="74"/>
+      <c r="BC35" s="74"/>
+      <c r="BD35" s="74"/>
+      <c r="BE35" s="74"/>
+    </row>
+    <row r="36" spans="6:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F36" s="7"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -5193,12 +6118,12 @@
       <c r="AF36" s="8"/>
       <c r="AG36" s="9"/>
     </row>
-    <row r="37" spans="6:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="6:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F38" s="59" t="s">
+    <row r="37" spans="6:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="6:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F38" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="G38" s="61"/>
+      <c r="G38" s="62"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -5217,12 +6142,12 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="4"/>
-      <c r="AA38" s="59" t="s">
+      <c r="AA38" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="AB38" s="60"/>
-      <c r="AC38" s="60"/>
-      <c r="AD38" s="61"/>
+      <c r="AB38" s="61"/>
+      <c r="AC38" s="61"/>
+      <c r="AD38" s="62"/>
       <c r="AE38" s="3"/>
       <c r="AF38" s="3"/>
       <c r="AG38" s="3"/>
@@ -5237,13 +6162,13 @@
       <c r="AP38" s="3"/>
       <c r="AQ38" s="4"/>
     </row>
-    <row r="39" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:57" x14ac:dyDescent="0.25">
       <c r="F39" s="5"/>
       <c r="Y39" s="6"/>
       <c r="AA39" s="5"/>
       <c r="AQ39" s="6"/>
     </row>
-    <row r="40" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:57" x14ac:dyDescent="0.25">
       <c r="F40" s="5"/>
       <c r="G40" s="1" t="s">
         <v>2</v>
@@ -5273,7 +6198,7 @@
       </c>
       <c r="AQ40" s="6"/>
     </row>
-    <row r="41" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:57" x14ac:dyDescent="0.25">
       <c r="F41" s="5"/>
       <c r="G41" s="2">
         <v>0</v>
@@ -5306,7 +6231,7 @@
       </c>
       <c r="AQ41" s="6"/>
     </row>
-    <row r="42" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:57" x14ac:dyDescent="0.25">
       <c r="F42" s="5"/>
       <c r="G42" s="2">
         <v>0</v>
@@ -5339,7 +6264,7 @@
       </c>
       <c r="AQ42" s="6"/>
     </row>
-    <row r="43" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:57" x14ac:dyDescent="0.25">
       <c r="F43" s="5"/>
       <c r="G43" s="2">
         <v>1</v>
@@ -5372,7 +6297,7 @@
       </c>
       <c r="AQ43" s="6"/>
     </row>
-    <row r="44" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:57" x14ac:dyDescent="0.25">
       <c r="F44" s="5"/>
       <c r="G44" s="2">
         <v>1</v>
@@ -5405,7 +6330,7 @@
       </c>
       <c r="AQ44" s="6"/>
     </row>
-    <row r="45" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:57" x14ac:dyDescent="0.25">
       <c r="F45" s="5"/>
       <c r="G45" s="11">
         <v>1</v>
@@ -5438,7 +6363,7 @@
       </c>
       <c r="AQ45" s="6"/>
     </row>
-    <row r="46" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:57" x14ac:dyDescent="0.25">
       <c r="F46" s="5"/>
       <c r="G46" s="11">
         <v>1</v>
@@ -5471,7 +6396,7 @@
       </c>
       <c r="AQ46" s="6"/>
     </row>
-    <row r="47" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:57" x14ac:dyDescent="0.25">
       <c r="F47" s="5"/>
       <c r="G47" s="2">
         <v>1</v>
@@ -5504,7 +6429,7 @@
       </c>
       <c r="AQ47" s="6"/>
     </row>
-    <row r="48" spans="6:43" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:57" x14ac:dyDescent="0.25">
       <c r="F48" s="5"/>
       <c r="G48" s="2">
         <v>1</v>
@@ -6101,10 +7026,10 @@
       </c>
       <c r="Y67" s="6"/>
       <c r="AA67" s="5"/>
-      <c r="AG67" s="70" t="s">
+      <c r="AG67" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="AH67" s="66">
+      <c r="AH67" s="67">
         <f>_xlfn.COVARIANCE.P(AB41:AB61,AC41:AC61)</f>
         <v>3.5714285714285716</v>
       </c>
@@ -6128,8 +7053,8 @@
       </c>
       <c r="Y68" s="6"/>
       <c r="AA68" s="5"/>
-      <c r="AG68" s="70"/>
-      <c r="AH68" s="67"/>
+      <c r="AG68" s="71"/>
+      <c r="AH68" s="68"/>
       <c r="AQ68" s="6"/>
     </row>
     <row r="69" spans="6:43" x14ac:dyDescent="0.25">
@@ -6204,15 +7129,15 @@
     </row>
     <row r="71" spans="6:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="72" spans="6:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F72" s="59" t="s">
+      <c r="F72" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="G72" s="60"/>
-      <c r="H72" s="60"/>
-      <c r="I72" s="60"/>
-      <c r="J72" s="60"/>
-      <c r="K72" s="60"/>
-      <c r="L72" s="61"/>
+      <c r="G72" s="61"/>
+      <c r="H72" s="61"/>
+      <c r="I72" s="61"/>
+      <c r="J72" s="61"/>
+      <c r="K72" s="61"/>
+      <c r="L72" s="62"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
@@ -6260,13 +7185,13 @@
       <c r="Q74" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="S74" s="70" t="s">
+      <c r="S74" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="T74" s="71" t="s">
+      <c r="T74" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="U74" s="71" t="s">
+      <c r="U74" s="72" t="s">
         <v>44</v>
       </c>
       <c r="Y74" s="6"/>
@@ -6299,9 +7224,9 @@
         <f>L75^2</f>
         <v>0.18367346938775531</v>
       </c>
-      <c r="S75" s="70"/>
-      <c r="T75" s="71"/>
-      <c r="U75" s="71"/>
+      <c r="S75" s="71"/>
+      <c r="T75" s="72"/>
+      <c r="U75" s="72"/>
       <c r="Y75" s="6"/>
     </row>
     <row r="76" spans="6:43" x14ac:dyDescent="0.25">
@@ -6400,13 +7325,13 @@
         <f t="shared" si="20"/>
         <v>0.32653061224489766</v>
       </c>
-      <c r="S78" s="70" t="s">
+      <c r="S78" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="T78" s="71" t="s">
+      <c r="T78" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="U78" s="71"/>
+      <c r="U78" s="72"/>
       <c r="Y78" s="6"/>
     </row>
     <row r="79" spans="6:43" x14ac:dyDescent="0.25">
@@ -6437,9 +7362,9 @@
         <f t="shared" si="20"/>
         <v>2.0408163265306132</v>
       </c>
-      <c r="S79" s="70"/>
-      <c r="T79" s="71"/>
-      <c r="U79" s="71"/>
+      <c r="S79" s="71"/>
+      <c r="T79" s="72"/>
+      <c r="U79" s="72"/>
       <c r="Y79" s="6"/>
     </row>
     <row r="80" spans="6:43" x14ac:dyDescent="0.25">
@@ -6470,11 +7395,11 @@
         <f t="shared" si="20"/>
         <v>2.4693877551020402</v>
       </c>
-      <c r="T80" s="63">
+      <c r="T80" s="64">
         <f>T76*U76</f>
         <v>80.000000000000014</v>
       </c>
-      <c r="U80" s="63"/>
+      <c r="U80" s="64"/>
       <c r="Y80" s="6"/>
     </row>
     <row r="81" spans="6:25" x14ac:dyDescent="0.25">
@@ -6535,15 +7460,15 @@
         <f t="shared" si="20"/>
         <v>11.755102040816329</v>
       </c>
-      <c r="S82" s="70" t="s">
+      <c r="S82" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="T82" s="68" t="s">
+      <c r="T82" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="U82" s="68"/>
-      <c r="V82" s="68"/>
-      <c r="W82" s="68"/>
+      <c r="U82" s="69"/>
+      <c r="V82" s="69"/>
+      <c r="W82" s="69"/>
       <c r="Y82" s="6"/>
     </row>
     <row r="83" spans="6:25" x14ac:dyDescent="0.25">
@@ -6574,11 +7499,11 @@
         <f t="shared" si="20"/>
         <v>2.0408163265306132</v>
       </c>
-      <c r="S83" s="70"/>
-      <c r="T83" s="68"/>
-      <c r="U83" s="68"/>
-      <c r="V83" s="68"/>
-      <c r="W83" s="68"/>
+      <c r="S83" s="71"/>
+      <c r="T83" s="69"/>
+      <c r="U83" s="69"/>
+      <c r="V83" s="69"/>
+      <c r="W83" s="69"/>
       <c r="Y83" s="6"/>
     </row>
     <row r="84" spans="6:25" x14ac:dyDescent="0.25">
@@ -6609,13 +7534,13 @@
         <f t="shared" si="20"/>
         <v>19.612244897959187</v>
       </c>
-      <c r="T84" s="69">
+      <c r="T84" s="70">
         <f>M97/T80</f>
         <v>0.93749999999999978</v>
       </c>
-      <c r="U84" s="69"/>
-      <c r="V84" s="69"/>
-      <c r="W84" s="69"/>
+      <c r="U84" s="70"/>
+      <c r="V84" s="70"/>
+      <c r="W84" s="70"/>
       <c r="Y84" s="6"/>
     </row>
     <row r="85" spans="6:25" x14ac:dyDescent="0.25">
@@ -6676,14 +7601,14 @@
         <f t="shared" si="20"/>
         <v>5.8979591836734704</v>
       </c>
-      <c r="S86" s="70" t="s">
+      <c r="S86" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="T86" s="69">
+      <c r="T86" s="70">
         <f>CORREL(G75:G95,H75:H95)</f>
         <v>0.9375</v>
       </c>
-      <c r="U86" s="69"/>
+      <c r="U86" s="70"/>
       <c r="Y86" s="6"/>
     </row>
     <row r="87" spans="6:25" x14ac:dyDescent="0.25">
@@ -6714,9 +7639,9 @@
         <f t="shared" si="20"/>
         <v>2.0408163265306132</v>
       </c>
-      <c r="S87" s="70"/>
-      <c r="T87" s="69"/>
-      <c r="U87" s="69"/>
+      <c r="S87" s="71"/>
+      <c r="T87" s="70"/>
+      <c r="U87" s="70"/>
       <c r="Y87" s="6"/>
     </row>
     <row r="88" spans="6:25" x14ac:dyDescent="0.25">
@@ -7023,15 +7948,15 @@
     </row>
     <row r="100" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="101" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F101" s="59" t="s">
+      <c r="F101" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="G101" s="60"/>
-      <c r="H101" s="60"/>
-      <c r="I101" s="60"/>
-      <c r="J101" s="60"/>
-      <c r="K101" s="60"/>
-      <c r="L101" s="61"/>
+      <c r="G101" s="61"/>
+      <c r="H101" s="61"/>
+      <c r="I101" s="61"/>
+      <c r="J101" s="61"/>
+      <c r="K101" s="61"/>
+      <c r="L101" s="62"/>
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
       <c r="O101" s="4"/>
@@ -7674,15 +8599,15 @@
     </row>
     <row r="179" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="180" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="59" t="s">
+      <c r="A180" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="B180" s="60"/>
-      <c r="C180" s="60"/>
-      <c r="D180" s="60"/>
-      <c r="E180" s="60"/>
-      <c r="F180" s="60"/>
-      <c r="G180" s="61"/>
+      <c r="B180" s="61"/>
+      <c r="C180" s="61"/>
+      <c r="D180" s="61"/>
+      <c r="E180" s="61"/>
+      <c r="F180" s="61"/>
+      <c r="G180" s="62"/>
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
@@ -13336,4 +14261,829 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F92C634-1AA5-4D46-A781-E3EF5D571F1A}">
+  <dimension ref="A2:L77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="66"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="65"/>
+      <c r="H27" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="I27" s="65"/>
+      <c r="L27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" s="59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <v>4</v>
+      </c>
+      <c r="C29" s="2">
+        <v>4</v>
+      </c>
+      <c r="E29" s="10">
+        <f>(B29-$B$50)/$B$56</f>
+        <v>1.1180339887498947</v>
+      </c>
+      <c r="F29" s="10">
+        <f>(C29-$C$51)/$C$57</f>
+        <v>-0.16770509831248431</v>
+      </c>
+      <c r="H29" s="10">
+        <v>1.1180339887498947</v>
+      </c>
+      <c r="I29" s="10">
+        <v>-0.16770509831248431</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2">
+        <v>3</v>
+      </c>
+      <c r="E30" s="10">
+        <f t="shared" ref="E30:E49" si="0">(B30-$B$50)/$B$56</f>
+        <v>-0.22360679774997907</v>
+      </c>
+      <c r="F30" s="10">
+        <f t="shared" ref="F30:F49" si="1">(C30-$C$51)/$C$57</f>
+        <v>-0.55901699437494745</v>
+      </c>
+      <c r="H30" s="10">
+        <v>-0.22360679774997907</v>
+      </c>
+      <c r="I30" s="10">
+        <v>-0.55901699437494745</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2">
+        <v>4</v>
+      </c>
+      <c r="E31" s="10">
+        <f t="shared" si="0"/>
+        <v>-0.22360679774997907</v>
+      </c>
+      <c r="F31" s="10">
+        <f t="shared" si="1"/>
+        <v>-0.16770509831248431</v>
+      </c>
+      <c r="H31" s="10">
+        <v>-0.22360679774997907</v>
+      </c>
+      <c r="I31" s="10">
+        <v>-0.16770509831248431</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2">
+        <v>5</v>
+      </c>
+      <c r="E32" s="10">
+        <f t="shared" si="0"/>
+        <v>0.44721359549995782</v>
+      </c>
+      <c r="F32" s="10">
+        <f t="shared" si="1"/>
+        <v>0.22360679774997885</v>
+      </c>
+      <c r="H32" s="10">
+        <v>0.44721359549995782</v>
+      </c>
+      <c r="I32" s="10">
+        <v>0.22360679774997885</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
+        <v>3</v>
+      </c>
+      <c r="E33" s="10">
+        <f t="shared" si="0"/>
+        <v>-0.89442719099991597</v>
+      </c>
+      <c r="F33" s="10">
+        <f t="shared" si="1"/>
+        <v>-0.55901699437494745</v>
+      </c>
+      <c r="H33" s="10">
+        <v>-0.89442719099991597</v>
+      </c>
+      <c r="I33" s="10">
+        <v>-0.55901699437494745</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <v>3</v>
+      </c>
+      <c r="C34" s="2">
+        <v>6</v>
+      </c>
+      <c r="E34" s="10">
+        <f t="shared" si="0"/>
+        <v>0.44721359549995782</v>
+      </c>
+      <c r="F34" s="10">
+        <f t="shared" si="1"/>
+        <v>0.61491869381244202</v>
+      </c>
+      <c r="H34" s="10">
+        <v>0.44721359549995782</v>
+      </c>
+      <c r="I34" s="10">
+        <v>0.61491869381244202</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <v>3</v>
+      </c>
+      <c r="C35" s="2">
+        <v>6</v>
+      </c>
+      <c r="E35" s="10">
+        <f t="shared" si="0"/>
+        <v>0.44721359549995782</v>
+      </c>
+      <c r="F35" s="10">
+        <f t="shared" si="1"/>
+        <v>0.61491869381244202</v>
+      </c>
+      <c r="H35" s="10">
+        <v>0.44721359549995782</v>
+      </c>
+      <c r="I35" s="10">
+        <v>0.61491869381244202</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
+        <v>0</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="10">
+        <f t="shared" si="0"/>
+        <v>-1.565247584249853</v>
+      </c>
+      <c r="F36" s="10">
+        <f t="shared" si="1"/>
+        <v>-1.3416407864998738</v>
+      </c>
+      <c r="H36" s="10">
+        <v>-1.565247584249853</v>
+      </c>
+      <c r="I36" s="10">
+        <v>-1.3416407864998738</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2">
+        <v>3</v>
+      </c>
+      <c r="E37" s="10">
+        <f t="shared" si="0"/>
+        <v>-0.89442719099991597</v>
+      </c>
+      <c r="F37" s="10">
+        <f t="shared" si="1"/>
+        <v>-0.55901699437494745</v>
+      </c>
+      <c r="H37" s="10">
+        <v>-0.89442719099991597</v>
+      </c>
+      <c r="I37" s="10">
+        <v>-0.55901699437494745</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0</v>
+      </c>
+      <c r="E38" s="10">
+        <f t="shared" si="0"/>
+        <v>-1.565247584249853</v>
+      </c>
+      <c r="F38" s="10">
+        <f t="shared" si="1"/>
+        <v>-1.7329526825623369</v>
+      </c>
+      <c r="H38" s="10">
+        <v>-1.565247584249853</v>
+      </c>
+      <c r="I38" s="10">
+        <v>-1.7329526825623369</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="2">
+        <v>5</v>
+      </c>
+      <c r="C39" s="2">
+        <v>9</v>
+      </c>
+      <c r="E39" s="10">
+        <f t="shared" si="0"/>
+        <v>1.7888543819998317</v>
+      </c>
+      <c r="F39" s="10">
+        <f t="shared" si="1"/>
+        <v>1.7888543819998315</v>
+      </c>
+      <c r="H39" s="10">
+        <v>1.7888543819998317</v>
+      </c>
+      <c r="I39" s="10">
+        <v>1.7888543819998315</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="2">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2</v>
+      </c>
+      <c r="E40" s="10">
+        <f t="shared" si="0"/>
+        <v>-0.89442719099991597</v>
+      </c>
+      <c r="F40" s="10">
+        <f t="shared" si="1"/>
+        <v>-0.95032889043741064</v>
+      </c>
+      <c r="H40" s="10">
+        <v>-0.89442719099991597</v>
+      </c>
+      <c r="I40" s="10">
+        <v>-0.95032889043741064</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
+        <v>2</v>
+      </c>
+      <c r="C41" s="2">
+        <v>3</v>
+      </c>
+      <c r="E41" s="10">
+        <f t="shared" si="0"/>
+        <v>-0.22360679774997907</v>
+      </c>
+      <c r="F41" s="10">
+        <f t="shared" si="1"/>
+        <v>-0.55901699437494745</v>
+      </c>
+      <c r="H41" s="10">
+        <v>-0.22360679774997907</v>
+      </c>
+      <c r="I41" s="10">
+        <v>-0.55901699437494745</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="2">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2">
+        <v>3</v>
+      </c>
+      <c r="E42" s="10">
+        <f t="shared" si="0"/>
+        <v>-0.89442719099991597</v>
+      </c>
+      <c r="F42" s="10">
+        <f t="shared" si="1"/>
+        <v>-0.55901699437494745</v>
+      </c>
+      <c r="H42" s="10">
+        <v>-0.89442719099991597</v>
+      </c>
+      <c r="I42" s="10">
+        <v>-0.55901699437494745</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="2">
+        <v>3</v>
+      </c>
+      <c r="C43" s="2">
+        <v>6</v>
+      </c>
+      <c r="E43" s="10">
+        <f t="shared" si="0"/>
+        <v>0.44721359549995782</v>
+      </c>
+      <c r="F43" s="10">
+        <f t="shared" si="1"/>
+        <v>0.61491869381244202</v>
+      </c>
+      <c r="H43" s="10">
+        <v>0.44721359549995782</v>
+      </c>
+      <c r="I43" s="10">
+        <v>0.61491869381244202</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="2">
+        <v>4</v>
+      </c>
+      <c r="C44" s="2">
+        <v>8</v>
+      </c>
+      <c r="E44" s="10">
+        <f t="shared" si="0"/>
+        <v>1.1180339887498947</v>
+      </c>
+      <c r="F44" s="10">
+        <f t="shared" si="1"/>
+        <v>1.3975424859373684</v>
+      </c>
+      <c r="H44" s="10">
+        <v>1.1180339887498947</v>
+      </c>
+      <c r="I44" s="10">
+        <v>1.3975424859373684</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="2">
+        <v>4</v>
+      </c>
+      <c r="C45" s="2">
+        <v>8</v>
+      </c>
+      <c r="E45" s="10">
+        <f t="shared" si="0"/>
+        <v>1.1180339887498947</v>
+      </c>
+      <c r="F45" s="10">
+        <f t="shared" si="1"/>
+        <v>1.3975424859373684</v>
+      </c>
+      <c r="H45" s="10">
+        <v>1.1180339887498947</v>
+      </c>
+      <c r="I45" s="10">
+        <v>1.3975424859373684</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="2">
+        <v>3</v>
+      </c>
+      <c r="C46" s="2">
+        <v>6</v>
+      </c>
+      <c r="E46" s="10">
+        <f t="shared" si="0"/>
+        <v>0.44721359549995782</v>
+      </c>
+      <c r="F46" s="10">
+        <f t="shared" si="1"/>
+        <v>0.61491869381244202</v>
+      </c>
+      <c r="H46" s="10">
+        <v>0.44721359549995782</v>
+      </c>
+      <c r="I46" s="10">
+        <v>0.61491869381244202</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="2">
+        <v>5</v>
+      </c>
+      <c r="C47" s="2">
+        <v>9</v>
+      </c>
+      <c r="E47" s="10">
+        <f t="shared" si="0"/>
+        <v>1.7888543819998317</v>
+      </c>
+      <c r="F47" s="10">
+        <f t="shared" si="1"/>
+        <v>1.7888543819998315</v>
+      </c>
+      <c r="H47" s="10">
+        <v>1.7888543819998317</v>
+      </c>
+      <c r="I47" s="10">
+        <v>1.7888543819998315</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2">
+        <v>2</v>
+      </c>
+      <c r="E48" s="10">
+        <f t="shared" si="0"/>
+        <v>-0.89442719099991597</v>
+      </c>
+      <c r="F48" s="10">
+        <f t="shared" si="1"/>
+        <v>-0.95032889043741064</v>
+      </c>
+      <c r="H48" s="10">
+        <v>-0.89442719099991597</v>
+      </c>
+      <c r="I48" s="10">
+        <v>-0.95032889043741064</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2">
+        <v>2</v>
+      </c>
+      <c r="E49" s="10">
+        <f t="shared" si="0"/>
+        <v>-0.89442719099991597</v>
+      </c>
+      <c r="F49" s="10">
+        <f t="shared" si="1"/>
+        <v>-0.95032889043741064</v>
+      </c>
+      <c r="H49" s="10">
+        <v>-0.89442719099991597</v>
+      </c>
+      <c r="I49" s="10">
+        <v>-0.95032889043741064</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50">
+        <f>AVERAGE(B29:B49)</f>
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51">
+        <f>AVERAGE(C29:C49)</f>
+        <v>4.4285714285714288</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53">
+        <f>_xlfn.VAR.P(B29:B49)</f>
+        <v>2.2222222222222223</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54">
+        <f>_xlfn.VAR.P(C29:C49)</f>
+        <v>6.5306122448979593</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56">
+        <f>SQRT(B53)</f>
+        <v>1.4907119849998598</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57">
+        <f>SQRT(C54)</f>
+        <v>2.5555062599997598</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60" s="71"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="71"/>
+      <c r="C61" s="71"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C73">
+        <f>_xlfn.COVARIANCE.P(H29:H49,I29:I49)</f>
+        <v>0.93750000000000022</v>
+      </c>
+      <c r="D73" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E73">
+        <f>_xlfn.VAR.P(H29:H49)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C74">
+        <f>_xlfn.COVARIANCE.P(I29:I49,H29:H49)</f>
+        <v>0.93750000000000022</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E74">
+        <f>_xlfn.VAR.P(I29:I49)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="73" t="s">
+        <v>94</v>
+      </c>
+      <c r="C76" s="73"/>
+      <c r="D76" s="10">
+        <v>1</v>
+      </c>
+      <c r="E76" s="10">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="73"/>
+      <c r="C77" s="73"/>
+      <c r="D77" s="10">
+        <v>0.9375</v>
+      </c>
+      <c r="E77" s="10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B60:C61"/>
+    <mergeCell ref="B76:C77"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>